--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3547" uniqueCount="1564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3492" uniqueCount="1545">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6823,231 +6823,23 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>重阳6元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万","3000鱼币","抽奖券*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","fish_coin","prop_cyj_cjq",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","fish_coin","prop_cyj_cjq",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,3000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>重阳20元礼包</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"200万","1万鱼币","抽奖券*4",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","fish_coin","prop_cyj_cjq",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>重阳48元礼包</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"480万","3万鱼币","抽奖券*10",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,30000,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳98元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"980万","10万鱼币","抽奖券*20",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>9800000,100000,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳198元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万","50万鱼币","抽奖券*30",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,500000,30,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳498元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万","200万鱼币","抽奖券*50",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>首冲6元加赠</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>620000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999999999,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>白银宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>（v1-v3）及小额、免费</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"鲸币宝箱抽奖券",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,3,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_cjlb_2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>（v4-v10）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP1直通礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"100万金币","5话费碎片","30～1000福卡",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_web_chip_huafei",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{40,50,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人专享</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"200万金币","冰冻*5","锁定*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_fish_frozen","prop_fish_lock",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_fish_frozen","prop_fish_lock",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,5,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{100000,140000,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"580万金币","冰冻*10","锁定*10",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5800000,10,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{300000,400000,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>豪华宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人专享</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1280万金币","冰冻*15","锁定*15",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>12800000,15,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{650000,850000,100},</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -7115,6 +6907,133 @@
   </si>
   <si>
     <t>2488888,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳6元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","3000鱼币","抽奖券*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_cyj_cjq",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,3000,1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万","1万鱼币","抽奖券*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,10000,4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万","3万鱼币","抽奖券*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,30000,10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳98元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,100000,20</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳198元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万","50万鱼币","抽奖券*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,500000,30</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳498元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万","200万鱼币","抽奖券*50",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,2000000,50</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>620000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费用户1元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万金币","10万金币","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_hammer_1",</t>
+  </si>
+  <si>
+    <t>200000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费用户3元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万金币","20万金币","玩具锤*2",</t>
+  </si>
+  <si>
+    <t>500000,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","30万金币","玩具锤*3",</t>
+  </si>
+  <si>
+    <t>900000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小额用户6元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","20万金币","玩具锤*3",</t>
+  </si>
+  <si>
+    <t>800000,3,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7193,7 +7112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7248,6 +7167,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -7291,7 +7216,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7442,23 +7367,17 @@
     <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9910,13 +9829,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM424"/>
+  <dimension ref="A1:AM418"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="P54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H399" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q68" sqref="Q68"/>
+      <selection pane="bottomRight" activeCell="A419" sqref="A419:XFD424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -13786,7 +13705,7 @@
         <v>80</v>
       </c>
       <c r="Q68" s="5" t="s">
-        <v>1563</v>
+        <v>1511</v>
       </c>
       <c r="V68" s="5" t="s">
         <v>528</v>
@@ -35694,1153 +35613,721 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A408" s="50">
+    <row r="408" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A408" s="52">
         <v>407</v>
       </c>
-      <c r="B408" s="50">
+      <c r="B408" s="52">
         <v>10324</v>
       </c>
-      <c r="F408" s="50">
-        <v>1</v>
-      </c>
-      <c r="G408" s="50" t="s">
+      <c r="F408" s="52">
+        <v>1</v>
+      </c>
+      <c r="G408" s="52" t="s">
+        <v>1512</v>
+      </c>
+      <c r="I408" s="52" t="s">
+        <v>1513</v>
+      </c>
+      <c r="K408" s="52">
+        <v>-31</v>
+      </c>
+      <c r="L408" s="52">
+        <v>0</v>
+      </c>
+      <c r="M408" s="52">
+        <v>0</v>
+      </c>
+      <c r="N408" s="52" t="s">
+        <v>1514</v>
+      </c>
+      <c r="O408" s="52">
+        <v>600</v>
+      </c>
+      <c r="P408" s="52" t="s">
+        <v>1515</v>
+      </c>
+      <c r="Q408" s="53" t="s">
+        <v>1516</v>
+      </c>
+      <c r="V408" s="52" t="s">
+        <v>570</v>
+      </c>
+      <c r="W408" s="52">
+        <v>99999999</v>
+      </c>
+      <c r="X408" s="52">
+        <v>1603152000</v>
+      </c>
+      <c r="Y408" s="52">
+        <v>1603727999</v>
+      </c>
+      <c r="Z408" s="52">
+        <v>48</v>
+      </c>
+      <c r="AG408" s="52">
+        <v>1</v>
+      </c>
+      <c r="AH408" s="52">
+        <v>1</v>
+      </c>
+      <c r="AK408" s="52">
+        <v>1</v>
+      </c>
+      <c r="AL408" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A409" s="52">
+        <v>408</v>
+      </c>
+      <c r="B409" s="52">
+        <v>10325</v>
+      </c>
+      <c r="F409" s="52">
+        <v>1</v>
+      </c>
+      <c r="G409" s="52" t="s">
+        <v>1503</v>
+      </c>
+      <c r="I409" s="52" t="s">
+        <v>1517</v>
+      </c>
+      <c r="K409" s="52">
+        <v>-31</v>
+      </c>
+      <c r="L409" s="52">
+        <v>0</v>
+      </c>
+      <c r="M409" s="52">
+        <v>0</v>
+      </c>
+      <c r="N409" s="52" t="s">
+        <v>1514</v>
+      </c>
+      <c r="O409" s="52">
+        <v>2000</v>
+      </c>
+      <c r="P409" s="52" t="s">
+        <v>1515</v>
+      </c>
+      <c r="Q409" s="53" t="s">
+        <v>1518</v>
+      </c>
+      <c r="V409" s="52" t="s">
+        <v>1519</v>
+      </c>
+      <c r="W409" s="52">
+        <v>99999999</v>
+      </c>
+      <c r="X409" s="52">
+        <v>1603152000</v>
+      </c>
+      <c r="Y409" s="52">
+        <v>1603727999</v>
+      </c>
+      <c r="Z409" s="52">
+        <v>48</v>
+      </c>
+      <c r="AG409" s="52">
+        <v>1</v>
+      </c>
+      <c r="AH409" s="52">
+        <v>1</v>
+      </c>
+      <c r="AK409" s="52">
+        <v>1</v>
+      </c>
+      <c r="AL409" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A410" s="52">
+        <v>409</v>
+      </c>
+      <c r="B410" s="52">
+        <v>10326</v>
+      </c>
+      <c r="F410" s="52">
+        <v>1</v>
+      </c>
+      <c r="G410" s="52" t="s">
+        <v>1504</v>
+      </c>
+      <c r="I410" s="52" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K410" s="52">
+        <v>-31</v>
+      </c>
+      <c r="L410" s="52">
+        <v>0</v>
+      </c>
+      <c r="M410" s="52">
+        <v>0</v>
+      </c>
+      <c r="N410" s="52" t="s">
+        <v>1514</v>
+      </c>
+      <c r="O410" s="52">
+        <v>4800</v>
+      </c>
+      <c r="P410" s="52" t="s">
+        <v>1515</v>
+      </c>
+      <c r="Q410" s="53" t="s">
+        <v>1521</v>
+      </c>
+      <c r="V410" s="52" t="s">
+        <v>570</v>
+      </c>
+      <c r="W410" s="52">
+        <v>99999999</v>
+      </c>
+      <c r="X410" s="52">
+        <v>1603152000</v>
+      </c>
+      <c r="Y410" s="52">
+        <v>1603727999</v>
+      </c>
+      <c r="Z410" s="52">
+        <v>48</v>
+      </c>
+      <c r="AG410" s="52">
+        <v>1</v>
+      </c>
+      <c r="AH410" s="52">
+        <v>1</v>
+      </c>
+      <c r="AK410" s="52">
+        <v>1</v>
+      </c>
+      <c r="AL410" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A411" s="52">
+        <v>410</v>
+      </c>
+      <c r="B411" s="52">
+        <v>10327</v>
+      </c>
+      <c r="F411" s="52">
+        <v>1</v>
+      </c>
+      <c r="G411" s="52" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I411" s="52" t="s">
+        <v>1505</v>
+      </c>
+      <c r="K411" s="52">
+        <v>-31</v>
+      </c>
+      <c r="L411" s="52">
+        <v>0</v>
+      </c>
+      <c r="M411" s="52">
+        <v>0</v>
+      </c>
+      <c r="N411" s="52" t="s">
+        <v>486</v>
+      </c>
+      <c r="O411" s="52">
+        <v>9800</v>
+      </c>
+      <c r="P411" s="52" t="s">
+        <v>1515</v>
+      </c>
+      <c r="Q411" s="53" t="s">
+        <v>1523</v>
+      </c>
+      <c r="V411" s="52" t="s">
+        <v>1519</v>
+      </c>
+      <c r="W411" s="52">
+        <v>99999999</v>
+      </c>
+      <c r="X411" s="52">
+        <v>1603152000</v>
+      </c>
+      <c r="Y411" s="52">
+        <v>1603727999</v>
+      </c>
+      <c r="Z411" s="52">
+        <v>48</v>
+      </c>
+      <c r="AG411" s="52">
+        <v>1</v>
+      </c>
+      <c r="AH411" s="52">
+        <v>1</v>
+      </c>
+      <c r="AK411" s="52">
+        <v>1</v>
+      </c>
+      <c r="AL411" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A412" s="52">
+        <v>411</v>
+      </c>
+      <c r="B412" s="52">
+        <v>10328</v>
+      </c>
+      <c r="F412" s="52">
+        <v>1</v>
+      </c>
+      <c r="G412" s="52" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I412" s="52" t="s">
+        <v>1525</v>
+      </c>
+      <c r="K412" s="52">
+        <v>-31</v>
+      </c>
+      <c r="L412" s="52">
+        <v>0</v>
+      </c>
+      <c r="M412" s="52">
+        <v>0</v>
+      </c>
+      <c r="N412" s="52" t="s">
+        <v>486</v>
+      </c>
+      <c r="O412" s="52">
+        <v>19800</v>
+      </c>
+      <c r="P412" s="52" t="s">
         <v>1502</v>
       </c>
-      <c r="I408" s="50" t="s">
-        <v>1503</v>
-      </c>
-      <c r="K408" s="50">
+      <c r="Q412" s="53" t="s">
+        <v>1526</v>
+      </c>
+      <c r="V412" s="52" t="s">
+        <v>570</v>
+      </c>
+      <c r="W412" s="52">
+        <v>99999999</v>
+      </c>
+      <c r="X412" s="52">
+        <v>1603152000</v>
+      </c>
+      <c r="Y412" s="52">
+        <v>1603727999</v>
+      </c>
+      <c r="Z412" s="52">
+        <v>48</v>
+      </c>
+      <c r="AG412" s="52">
+        <v>1</v>
+      </c>
+      <c r="AH412" s="52">
+        <v>1</v>
+      </c>
+      <c r="AK412" s="52">
+        <v>1</v>
+      </c>
+      <c r="AL412" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A413" s="52">
+        <v>412</v>
+      </c>
+      <c r="B413" s="52">
+        <v>10329</v>
+      </c>
+      <c r="F413" s="52">
+        <v>1</v>
+      </c>
+      <c r="G413" s="52" t="s">
+        <v>1527</v>
+      </c>
+      <c r="I413" s="52" t="s">
+        <v>1528</v>
+      </c>
+      <c r="K413" s="52">
         <v>-31</v>
       </c>
-      <c r="L408" s="50">
-        <v>0</v>
-      </c>
-      <c r="M408" s="50">
-        <v>0</v>
-      </c>
-      <c r="N408" s="50" t="s">
-        <v>484</v>
-      </c>
-      <c r="O408" s="50">
+      <c r="L413" s="52">
+        <v>0</v>
+      </c>
+      <c r="M413" s="52">
+        <v>0</v>
+      </c>
+      <c r="N413" s="52" t="s">
+        <v>486</v>
+      </c>
+      <c r="O413" s="52">
+        <v>49800</v>
+      </c>
+      <c r="P413" s="52" t="s">
+        <v>1502</v>
+      </c>
+      <c r="Q413" s="53" t="s">
+        <v>1529</v>
+      </c>
+      <c r="V413" s="52" t="s">
+        <v>1519</v>
+      </c>
+      <c r="W413" s="52">
+        <v>99999999</v>
+      </c>
+      <c r="X413" s="52">
+        <v>1603152000</v>
+      </c>
+      <c r="Y413" s="52">
+        <v>1603727999</v>
+      </c>
+      <c r="Z413" s="52">
+        <v>48</v>
+      </c>
+      <c r="AG413" s="52">
+        <v>1</v>
+      </c>
+      <c r="AH413" s="52">
+        <v>1</v>
+      </c>
+      <c r="AK413" s="52">
+        <v>1</v>
+      </c>
+      <c r="AL413" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="5">
+        <v>413</v>
+      </c>
+      <c r="B414" s="5">
+        <v>10330</v>
+      </c>
+      <c r="D414" s="5">
+        <v>1</v>
+      </c>
+      <c r="F414" s="5">
+        <v>1</v>
+      </c>
+      <c r="G414" s="5" t="s">
+        <v>1506</v>
+      </c>
+      <c r="K414" s="5">
+        <v>-4</v>
+      </c>
+      <c r="L414" s="5">
+        <v>0</v>
+      </c>
+      <c r="M414" s="5">
+        <v>0</v>
+      </c>
+      <c r="N414" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O414" s="5">
         <v>600</v>
       </c>
-      <c r="P408" s="50" t="s">
-        <v>1505</v>
-      </c>
-      <c r="Q408" s="51" t="s">
-        <v>1506</v>
-      </c>
-      <c r="V408" s="50" t="s">
-        <v>570</v>
-      </c>
-      <c r="W408" s="50">
-        <v>99999999</v>
-      </c>
-      <c r="X408" s="50">
-        <v>1603152000</v>
-      </c>
-      <c r="Y408" s="50">
-        <v>1603727999</v>
-      </c>
-      <c r="Z408" s="50">
-        <v>48</v>
-      </c>
-      <c r="AG408" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH408" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK408" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL408" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="409" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A409" s="50">
-        <v>408</v>
-      </c>
-      <c r="B409" s="50">
-        <v>10325</v>
-      </c>
-      <c r="F409" s="50">
-        <v>1</v>
-      </c>
-      <c r="G409" s="50" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I409" s="50" t="s">
-        <v>1508</v>
-      </c>
-      <c r="K409" s="50">
-        <v>-31</v>
-      </c>
-      <c r="L409" s="50">
-        <v>0</v>
-      </c>
-      <c r="M409" s="50">
-        <v>0</v>
-      </c>
-      <c r="N409" s="50" t="s">
-        <v>1509</v>
-      </c>
-      <c r="O409" s="50">
-        <v>2000</v>
-      </c>
-      <c r="P409" s="50" t="s">
-        <v>1510</v>
-      </c>
-      <c r="Q409" s="51" t="s">
-        <v>1449</v>
-      </c>
-      <c r="V409" s="50" t="s">
-        <v>570</v>
-      </c>
-      <c r="W409" s="50">
-        <v>99999999</v>
-      </c>
-      <c r="X409" s="50">
-        <v>1603152000</v>
-      </c>
-      <c r="Y409" s="50">
-        <v>1603727999</v>
-      </c>
-      <c r="Z409" s="50">
-        <v>48</v>
-      </c>
-      <c r="AG409" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH409" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK409" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL409" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="410" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A410" s="50">
-        <v>409</v>
-      </c>
-      <c r="B410" s="50">
-        <v>10326</v>
-      </c>
-      <c r="F410" s="50">
-        <v>1</v>
-      </c>
-      <c r="G410" s="50" t="s">
-        <v>1511</v>
-      </c>
-      <c r="I410" s="50" t="s">
-        <v>1512</v>
-      </c>
-      <c r="K410" s="50">
-        <v>-31</v>
-      </c>
-      <c r="L410" s="50">
-        <v>0</v>
-      </c>
-      <c r="M410" s="50">
-        <v>0</v>
-      </c>
-      <c r="N410" s="50" t="s">
-        <v>1509</v>
-      </c>
-      <c r="O410" s="50">
-        <v>4800</v>
-      </c>
-      <c r="P410" s="50" t="s">
-        <v>1505</v>
-      </c>
-      <c r="Q410" s="51" t="s">
-        <v>1513</v>
-      </c>
-      <c r="V410" s="50" t="s">
-        <v>1514</v>
-      </c>
-      <c r="W410" s="50">
-        <v>99999999</v>
-      </c>
-      <c r="X410" s="50">
-        <v>1603152000</v>
-      </c>
-      <c r="Y410" s="50">
-        <v>1603727999</v>
-      </c>
-      <c r="Z410" s="50">
-        <v>48</v>
-      </c>
-      <c r="AG410" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH410" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK410" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL410" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="411" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A411" s="50">
-        <v>410</v>
-      </c>
-      <c r="B411" s="50">
-        <v>10327</v>
-      </c>
-      <c r="F411" s="50">
-        <v>1</v>
-      </c>
-      <c r="G411" s="50" t="s">
-        <v>1515</v>
-      </c>
-      <c r="I411" s="50" t="s">
-        <v>1516</v>
-      </c>
-      <c r="K411" s="50">
-        <v>-31</v>
-      </c>
-      <c r="L411" s="50">
-        <v>0</v>
-      </c>
-      <c r="M411" s="50">
-        <v>0</v>
-      </c>
-      <c r="N411" s="50" t="s">
-        <v>1509</v>
-      </c>
-      <c r="O411" s="50">
-        <v>9800</v>
-      </c>
-      <c r="P411" s="50" t="s">
-        <v>1504</v>
-      </c>
-      <c r="Q411" s="51" t="s">
-        <v>1517</v>
-      </c>
-      <c r="V411" s="50" t="s">
-        <v>570</v>
-      </c>
-      <c r="W411" s="50">
-        <v>99999999</v>
-      </c>
-      <c r="X411" s="50">
-        <v>1603152000</v>
-      </c>
-      <c r="Y411" s="50">
-        <v>1603727999</v>
-      </c>
-      <c r="Z411" s="50">
-        <v>48</v>
-      </c>
-      <c r="AG411" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH411" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK411" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL411" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="412" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A412" s="50">
-        <v>411</v>
-      </c>
-      <c r="B412" s="50">
-        <v>10328</v>
-      </c>
-      <c r="F412" s="50">
-        <v>1</v>
-      </c>
-      <c r="G412" s="50" t="s">
-        <v>1518</v>
-      </c>
-      <c r="I412" s="50" t="s">
+      <c r="P414" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q414" s="10" t="s">
+        <v>1530</v>
+      </c>
+      <c r="V414" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="W414" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="X414" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y414" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="AG414" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH414" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A415" s="5">
+        <v>414</v>
+      </c>
+      <c r="B415" s="19">
+        <v>10331</v>
+      </c>
+      <c r="F415" s="19">
+        <v>1</v>
+      </c>
+      <c r="G415" s="19" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H415" s="19" t="s">
+        <v>1532</v>
+      </c>
+      <c r="I415" s="19" t="s">
+        <v>1533</v>
+      </c>
+      <c r="K415" s="19">
+        <v>-28</v>
+      </c>
+      <c r="L415" s="19">
+        <v>0</v>
+      </c>
+      <c r="M415" s="19">
+        <v>0</v>
+      </c>
+      <c r="N415" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="O415" s="19">
+        <v>100</v>
+      </c>
+      <c r="P415" s="19" t="s">
+        <v>1534</v>
+      </c>
+      <c r="Q415" s="40" t="s">
+        <v>1535</v>
+      </c>
+      <c r="V415" s="19" t="s">
         <v>1519</v>
       </c>
-      <c r="K412" s="50">
-        <v>-31</v>
-      </c>
-      <c r="L412" s="50">
-        <v>0</v>
-      </c>
-      <c r="M412" s="50">
-        <v>0</v>
-      </c>
-      <c r="N412" s="50" t="s">
-        <v>1509</v>
-      </c>
-      <c r="O412" s="50">
-        <v>19800</v>
-      </c>
-      <c r="P412" s="50" t="s">
-        <v>1504</v>
-      </c>
-      <c r="Q412" s="51" t="s">
-        <v>1520</v>
-      </c>
-      <c r="V412" s="50" t="s">
-        <v>570</v>
-      </c>
-      <c r="W412" s="50">
-        <v>99999999</v>
-      </c>
-      <c r="X412" s="50">
-        <v>1603152000</v>
-      </c>
-      <c r="Y412" s="50">
-        <v>1603727999</v>
-      </c>
-      <c r="Z412" s="50">
-        <v>48</v>
-      </c>
-      <c r="AG412" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH412" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK412" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL412" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="413" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A413" s="50">
-        <v>412</v>
-      </c>
-      <c r="B413" s="50">
-        <v>10329</v>
-      </c>
-      <c r="F413" s="50">
-        <v>1</v>
-      </c>
-      <c r="G413" s="50" t="s">
-        <v>1521</v>
-      </c>
-      <c r="I413" s="50" t="s">
-        <v>1522</v>
-      </c>
-      <c r="K413" s="50">
-        <v>-31</v>
-      </c>
-      <c r="L413" s="50">
-        <v>0</v>
-      </c>
-      <c r="M413" s="50">
-        <v>0</v>
-      </c>
-      <c r="N413" s="50" t="s">
-        <v>1509</v>
-      </c>
-      <c r="O413" s="50">
-        <v>49800</v>
-      </c>
-      <c r="P413" s="50" t="s">
-        <v>1505</v>
-      </c>
-      <c r="Q413" s="51" t="s">
-        <v>1459</v>
-      </c>
-      <c r="V413" s="50" t="s">
-        <v>570</v>
-      </c>
-      <c r="W413" s="50">
-        <v>99999999</v>
-      </c>
-      <c r="X413" s="50">
-        <v>1603152000</v>
-      </c>
-      <c r="Y413" s="50">
-        <v>1603727999</v>
-      </c>
-      <c r="Z413" s="50">
-        <v>48</v>
-      </c>
-      <c r="AG413" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH413" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK413" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL413" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="414" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="50">
-        <v>413</v>
-      </c>
-      <c r="B414" s="50">
-        <v>10330</v>
-      </c>
-      <c r="D414" s="50">
-        <v>1</v>
-      </c>
-      <c r="F414" s="50">
-        <v>1</v>
-      </c>
-      <c r="G414" s="50" t="s">
-        <v>1523</v>
-      </c>
-      <c r="K414" s="50">
-        <v>-4</v>
-      </c>
-      <c r="L414" s="50">
-        <v>0</v>
-      </c>
-      <c r="M414" s="50">
-        <v>0</v>
-      </c>
-      <c r="N414" s="50" t="s">
+      <c r="W415" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="X415" s="19">
+        <v>1581377400</v>
+      </c>
+      <c r="Y415" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="Z415" s="19">
+        <v>14</v>
+      </c>
+      <c r="AG415" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH415" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK415" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL415" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A416" s="5">
+        <v>415</v>
+      </c>
+      <c r="B416" s="19">
+        <v>10332</v>
+      </c>
+      <c r="F416" s="19">
+        <v>1</v>
+      </c>
+      <c r="G416" s="19" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H416" s="19" t="s">
+        <v>1537</v>
+      </c>
+      <c r="I416" s="19" t="s">
+        <v>1538</v>
+      </c>
+      <c r="K416" s="19">
+        <v>-28</v>
+      </c>
+      <c r="L416" s="19">
+        <v>0</v>
+      </c>
+      <c r="M416" s="19">
+        <v>0</v>
+      </c>
+      <c r="N416" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="O414" s="50">
+      <c r="O416" s="19">
+        <v>300</v>
+      </c>
+      <c r="P416" s="19" t="s">
+        <v>1534</v>
+      </c>
+      <c r="Q416" s="40" t="s">
+        <v>1539</v>
+      </c>
+      <c r="V416" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="W416" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="X416" s="19">
+        <v>1581377400</v>
+      </c>
+      <c r="Y416" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="Z416" s="19">
+        <v>14</v>
+      </c>
+      <c r="AG416" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH416" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK416" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL416" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A417" s="5">
+        <v>416</v>
+      </c>
+      <c r="B417" s="19">
+        <v>10333</v>
+      </c>
+      <c r="F417" s="19">
+        <v>1</v>
+      </c>
+      <c r="G417" s="19" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H417" s="19" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I417" s="19" t="s">
+        <v>1540</v>
+      </c>
+      <c r="K417" s="19">
+        <v>-28</v>
+      </c>
+      <c r="L417" s="19">
+        <v>0</v>
+      </c>
+      <c r="M417" s="19">
+        <v>0</v>
+      </c>
+      <c r="N417" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="O417" s="19">
         <v>600</v>
       </c>
-      <c r="P414" s="50" t="s">
-        <v>583</v>
-      </c>
-      <c r="Q414" s="51" t="s">
-        <v>1524</v>
-      </c>
-      <c r="V414" s="50" t="s">
-        <v>1525</v>
-      </c>
-      <c r="W414" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="X414" s="53">
-        <v>0</v>
-      </c>
-      <c r="Y414" s="50">
+      <c r="P417" s="19" t="s">
+        <v>1534</v>
+      </c>
+      <c r="Q417" s="40" t="s">
+        <v>1541</v>
+      </c>
+      <c r="V417" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="W417" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="X417" s="19">
+        <v>1581377400</v>
+      </c>
+      <c r="Y417" s="19">
         <v>2552233600</v>
       </c>
-      <c r="AG414" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH414" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK414" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL414" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="415" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A415" s="50">
-        <v>414</v>
-      </c>
-      <c r="B415" s="50">
-        <v>10331</v>
-      </c>
-      <c r="F415" s="50">
-        <v>1</v>
-      </c>
-      <c r="G415" s="50" t="s">
-        <v>1526</v>
-      </c>
-      <c r="H415" s="50" t="s">
-        <v>1527</v>
-      </c>
-      <c r="I415" s="50" t="s">
-        <v>1528</v>
-      </c>
-      <c r="K415" s="50">
-        <v>-31</v>
-      </c>
-      <c r="L415" s="50">
-        <v>0</v>
-      </c>
-      <c r="M415" s="50">
-        <v>0</v>
-      </c>
-      <c r="N415" s="50" t="s">
+      <c r="Z417" s="19">
+        <v>14</v>
+      </c>
+      <c r="AG417" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH417" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK417" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL417" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A418" s="5">
+        <v>417</v>
+      </c>
+      <c r="B418" s="19">
+        <v>10334</v>
+      </c>
+      <c r="F418" s="19">
+        <v>1</v>
+      </c>
+      <c r="G418" s="19" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H418" s="19" t="s">
+        <v>1542</v>
+      </c>
+      <c r="I418" s="19" t="s">
+        <v>1543</v>
+      </c>
+      <c r="K418" s="19">
+        <v>-28</v>
+      </c>
+      <c r="L418" s="19">
+        <v>0</v>
+      </c>
+      <c r="M418" s="19">
+        <v>0</v>
+      </c>
+      <c r="N418" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="O415" s="50">
+      <c r="O418" s="19">
         <v>600</v>
       </c>
-      <c r="P415" s="50" t="s">
-        <v>1303</v>
-      </c>
-      <c r="Q415" s="51" t="s">
-        <v>1529</v>
-      </c>
-      <c r="V415" s="50" t="s">
-        <v>1530</v>
-      </c>
-      <c r="W415" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="X415" s="50">
-        <v>1603756800</v>
-      </c>
-      <c r="Y415" s="50">
-        <v>1604332799</v>
-      </c>
-      <c r="Z415" s="50">
-        <v>49</v>
-      </c>
-      <c r="AG415" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH415" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK415" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL415" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="416" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A416" s="50">
-        <v>415</v>
-      </c>
-      <c r="B416" s="50">
-        <v>10332</v>
-      </c>
-      <c r="F416" s="50">
-        <v>1</v>
-      </c>
-      <c r="G416" s="50" t="s">
-        <v>1531</v>
-      </c>
-      <c r="H416" s="50" t="s">
-        <v>1527</v>
-      </c>
-      <c r="I416" s="50" t="s">
-        <v>1528</v>
-      </c>
-      <c r="K416" s="50">
-        <v>-31</v>
-      </c>
-      <c r="L416" s="50">
-        <v>0</v>
-      </c>
-      <c r="M416" s="50">
-        <v>0</v>
-      </c>
-      <c r="N416" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="O416" s="50">
-        <v>1800</v>
-      </c>
-      <c r="P416" s="50" t="s">
-        <v>1532</v>
-      </c>
-      <c r="Q416" s="51" t="s">
-        <v>1529</v>
-      </c>
-      <c r="V416" s="50" t="s">
-        <v>1530</v>
-      </c>
-      <c r="W416" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="X416" s="50">
-        <v>1603756800</v>
-      </c>
-      <c r="Y416" s="50">
-        <v>1604332799</v>
-      </c>
-      <c r="Z416" s="50">
-        <v>49</v>
-      </c>
-      <c r="AG416" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH416" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK416" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL416" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A417" s="50">
-        <v>416</v>
-      </c>
-      <c r="B417" s="50">
-        <v>10333</v>
-      </c>
-      <c r="F417" s="50">
-        <v>1</v>
-      </c>
-      <c r="G417" s="50" t="s">
-        <v>1533</v>
-      </c>
-      <c r="H417" s="50" t="s">
-        <v>1527</v>
-      </c>
-      <c r="I417" s="50" t="s">
-        <v>1195</v>
-      </c>
-      <c r="K417" s="50">
-        <v>-31</v>
-      </c>
-      <c r="L417" s="50">
-        <v>0</v>
-      </c>
-      <c r="M417" s="50">
-        <v>0</v>
-      </c>
-      <c r="N417" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="O417" s="50">
-        <v>4800</v>
-      </c>
-      <c r="P417" s="50" t="s">
-        <v>1200</v>
-      </c>
-      <c r="Q417" s="51" t="s">
-        <v>1529</v>
-      </c>
-      <c r="V417" s="50" t="s">
-        <v>1203</v>
-      </c>
-      <c r="W417" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="X417" s="50">
-        <v>1603756800</v>
-      </c>
-      <c r="Y417" s="50">
-        <v>1604332799</v>
-      </c>
-      <c r="Z417" s="50">
-        <v>49</v>
-      </c>
-      <c r="AG417" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH417" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK417" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL417" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="418" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A418" s="50">
-        <v>417</v>
-      </c>
-      <c r="B418" s="50">
-        <v>10334</v>
-      </c>
-      <c r="F418" s="50">
-        <v>1</v>
-      </c>
-      <c r="G418" s="50" t="s">
-        <v>1526</v>
-      </c>
-      <c r="H418" s="50" t="s">
+      <c r="P418" s="19" t="s">
         <v>1534</v>
       </c>
-      <c r="I418" s="50" t="s">
-        <v>1195</v>
-      </c>
-      <c r="K418" s="50">
-        <v>-31</v>
-      </c>
-      <c r="L418" s="50">
-        <v>0</v>
-      </c>
-      <c r="M418" s="50">
-        <v>0</v>
-      </c>
-      <c r="N418" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="O418" s="50">
-        <v>9800</v>
-      </c>
-      <c r="P418" s="50" t="s">
-        <v>1202</v>
-      </c>
-      <c r="Q418" s="51" t="s">
-        <v>1529</v>
-      </c>
-      <c r="V418" s="50" t="s">
-        <v>1203</v>
-      </c>
-      <c r="W418" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="X418" s="50">
-        <v>1603756800</v>
-      </c>
-      <c r="Y418" s="50">
-        <v>1604332799</v>
-      </c>
-      <c r="Z418" s="50">
-        <v>50</v>
-      </c>
-      <c r="AG418" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH418" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK418" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL418" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="419" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A419" s="50">
-        <v>418</v>
-      </c>
-      <c r="B419" s="50">
-        <v>10335</v>
-      </c>
-      <c r="F419" s="50">
-        <v>1</v>
-      </c>
-      <c r="G419" s="50" t="s">
-        <v>1531</v>
-      </c>
-      <c r="H419" s="50" t="s">
-        <v>1534</v>
-      </c>
-      <c r="I419" s="50" t="s">
-        <v>1195</v>
-      </c>
-      <c r="K419" s="50">
-        <v>-31</v>
-      </c>
-      <c r="L419" s="50">
-        <v>0</v>
-      </c>
-      <c r="M419" s="50">
-        <v>0</v>
-      </c>
-      <c r="N419" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="O419" s="50">
-        <v>19800</v>
-      </c>
-      <c r="P419" s="50" t="s">
-        <v>1204</v>
-      </c>
-      <c r="Q419" s="51" t="s">
-        <v>1196</v>
-      </c>
-      <c r="V419" s="50" t="s">
-        <v>1203</v>
-      </c>
-      <c r="W419" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="X419" s="50">
-        <v>1603756800</v>
-      </c>
-      <c r="Y419" s="50">
-        <v>1604332799</v>
-      </c>
-      <c r="Z419" s="50">
-        <v>50</v>
-      </c>
-      <c r="AG419" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH419" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK419" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL419" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="420" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A420" s="50">
-        <v>419</v>
-      </c>
-      <c r="B420" s="50">
-        <v>10336</v>
-      </c>
-      <c r="F420" s="50">
-        <v>1</v>
-      </c>
-      <c r="G420" s="50" t="s">
-        <v>1533</v>
-      </c>
-      <c r="H420" s="50" t="s">
-        <v>1534</v>
-      </c>
-      <c r="I420" s="50" t="s">
-        <v>1195</v>
-      </c>
-      <c r="K420" s="50">
-        <v>-31</v>
-      </c>
-      <c r="L420" s="50">
-        <v>0</v>
-      </c>
-      <c r="M420" s="50">
-        <v>0</v>
-      </c>
-      <c r="N420" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="O420" s="50">
-        <v>49800</v>
-      </c>
-      <c r="P420" s="50" t="s">
-        <v>1205</v>
-      </c>
-      <c r="Q420" s="51" t="s">
-        <v>1529</v>
-      </c>
-      <c r="V420" s="50" t="s">
-        <v>1203</v>
-      </c>
-      <c r="W420" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="X420" s="50">
-        <v>1603756800</v>
-      </c>
-      <c r="Y420" s="50">
-        <v>1604332799</v>
-      </c>
-      <c r="Z420" s="50">
-        <v>50</v>
-      </c>
-      <c r="AG420" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH420" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK420" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL420" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="421" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A421" s="50">
-        <v>420</v>
-      </c>
-      <c r="B421" s="50">
-        <v>10337</v>
-      </c>
-      <c r="F421" s="50">
-        <v>1</v>
-      </c>
-      <c r="G421" s="50" t="s">
-        <v>1535</v>
-      </c>
-      <c r="I421" s="50" t="s">
-        <v>1536</v>
-      </c>
-      <c r="K421" s="50">
-        <v>-31</v>
-      </c>
-      <c r="L421" s="50">
-        <v>0</v>
-      </c>
-      <c r="M421" s="50">
-        <v>0</v>
-      </c>
-      <c r="N421" s="50" t="s">
-        <v>1537</v>
-      </c>
-      <c r="O421" s="50">
-        <v>1000</v>
-      </c>
-      <c r="P421" s="50" t="s">
-        <v>1538</v>
-      </c>
-      <c r="Q421" s="51" t="s">
-        <v>1539</v>
-      </c>
-      <c r="V421" s="50" t="s">
-        <v>1057</v>
-      </c>
-      <c r="W421" s="50">
+      <c r="Q418" s="40" t="s">
+        <v>1544</v>
+      </c>
+      <c r="V418" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="W418" s="19">
         <v>9999999</v>
       </c>
-      <c r="X421" s="50">
-        <v>1585609200</v>
-      </c>
-      <c r="Y421" s="50">
+      <c r="X418" s="19">
+        <v>1581377400</v>
+      </c>
+      <c r="Y418" s="19">
         <v>2552233600</v>
       </c>
-      <c r="AA421" s="50" t="s">
-        <v>1540</v>
-      </c>
-      <c r="AB421" s="50" t="s">
-        <v>1541</v>
-      </c>
-      <c r="AG421" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH421" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK421" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL421" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A422" s="50">
-        <v>421</v>
-      </c>
-      <c r="B422" s="50">
-        <v>10338</v>
-      </c>
-      <c r="F422" s="50">
-        <v>1</v>
-      </c>
-      <c r="G422" s="50" t="s">
-        <v>1542</v>
-      </c>
-      <c r="H422" s="50" t="s">
-        <v>1543</v>
-      </c>
-      <c r="I422" s="50" t="s">
-        <v>1544</v>
-      </c>
-      <c r="K422" s="50">
-        <v>-31</v>
-      </c>
-      <c r="L422" s="50">
-        <v>0</v>
-      </c>
-      <c r="M422" s="50">
-        <v>0</v>
-      </c>
-      <c r="N422" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="O422" s="50">
-        <v>2000</v>
-      </c>
-      <c r="P422" s="50" t="s">
-        <v>1546</v>
-      </c>
-      <c r="Q422" s="51" t="s">
-        <v>1547</v>
-      </c>
-      <c r="V422" s="50" t="s">
-        <v>1525</v>
-      </c>
-      <c r="W422" s="50">
-        <v>99999999</v>
-      </c>
-      <c r="X422" s="50">
-        <v>1603756800</v>
-      </c>
-      <c r="Y422" s="50">
-        <v>0</v>
-      </c>
-      <c r="Z422" s="50">
-        <v>51</v>
-      </c>
-      <c r="AA422" s="50" t="s">
-        <v>1548</v>
-      </c>
-      <c r="AB422" s="50" t="s">
-        <v>1549</v>
-      </c>
-      <c r="AG422" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH422" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK422" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL422" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="50">
-        <v>422</v>
-      </c>
-      <c r="B423" s="50">
-        <v>10339</v>
-      </c>
-      <c r="F423" s="50">
-        <v>1</v>
-      </c>
-      <c r="G423" s="50" t="s">
-        <v>1550</v>
-      </c>
-      <c r="H423" s="50" t="s">
-        <v>1543</v>
-      </c>
-      <c r="I423" s="50" t="s">
-        <v>1551</v>
-      </c>
-      <c r="K423" s="50">
-        <v>-31</v>
-      </c>
-      <c r="L423" s="50">
-        <v>0</v>
-      </c>
-      <c r="M423" s="50">
-        <v>0</v>
-      </c>
-      <c r="N423" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="O423" s="50">
-        <v>5800</v>
-      </c>
-      <c r="P423" s="50" t="s">
-        <v>1545</v>
-      </c>
-      <c r="Q423" s="51" t="s">
-        <v>1552</v>
-      </c>
-      <c r="V423" s="50" t="s">
-        <v>1057</v>
-      </c>
-      <c r="W423" s="50">
-        <v>99999999</v>
-      </c>
-      <c r="X423" s="50">
-        <v>1603756800</v>
-      </c>
-      <c r="Y423" s="50">
-        <v>0</v>
-      </c>
-      <c r="Z423" s="50">
-        <v>51</v>
-      </c>
-      <c r="AA423" s="50" t="s">
-        <v>1548</v>
-      </c>
-      <c r="AB423" s="50" t="s">
-        <v>1553</v>
-      </c>
-      <c r="AG423" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH423" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK423" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL423" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A424" s="50">
-        <v>423</v>
-      </c>
-      <c r="B424" s="50">
-        <v>10340</v>
-      </c>
-      <c r="F424" s="50">
-        <v>1</v>
-      </c>
-      <c r="G424" s="50" t="s">
-        <v>1554</v>
-      </c>
-      <c r="H424" s="50" t="s">
-        <v>1555</v>
-      </c>
-      <c r="I424" s="50" t="s">
-        <v>1556</v>
-      </c>
-      <c r="K424" s="50">
-        <v>-31</v>
-      </c>
-      <c r="L424" s="50">
-        <v>0</v>
-      </c>
-      <c r="M424" s="50">
-        <v>0</v>
-      </c>
-      <c r="N424" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="O424" s="50">
-        <v>12800</v>
-      </c>
-      <c r="P424" s="50" t="s">
-        <v>1545</v>
-      </c>
-      <c r="Q424" s="51" t="s">
-        <v>1557</v>
-      </c>
-      <c r="V424" s="50" t="s">
-        <v>1525</v>
-      </c>
-      <c r="W424" s="50">
-        <v>99999999</v>
-      </c>
-      <c r="X424" s="50">
-        <v>1603756800</v>
-      </c>
-      <c r="Y424" s="50">
-        <v>0</v>
-      </c>
-      <c r="Z424" s="50">
-        <v>51</v>
-      </c>
-      <c r="AA424" s="50" t="s">
-        <v>1548</v>
-      </c>
-      <c r="AB424" s="50" t="s">
-        <v>1558</v>
-      </c>
-      <c r="AG424" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH424" s="50">
-        <v>1</v>
-      </c>
-      <c r="AK424" s="50">
-        <v>1</v>
-      </c>
-      <c r="AL424" s="50">
+      <c r="Z418" s="19">
+        <v>14</v>
+      </c>
+      <c r="AG418" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH418" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK418" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL418" s="19">
         <v>1</v>
       </c>
     </row>
@@ -37531,73 +37018,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="54">
+    <row r="48" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="50">
         <v>47</v>
       </c>
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="51" t="s">
         <v>1491</v>
       </c>
-      <c r="C48" s="54">
-        <v>1</v>
-      </c>
-      <c r="D48" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="54">
+      <c r="C48" s="50">
+        <v>1</v>
+      </c>
+      <c r="D48" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="50">
         <v>48</v>
       </c>
-      <c r="B49" s="55" t="s">
-        <v>1559</v>
-      </c>
-      <c r="C49" s="54">
-        <v>1</v>
-      </c>
-      <c r="D49" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="54">
+      <c r="B49" s="51" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C49" s="50">
+        <v>1</v>
+      </c>
+      <c r="D49" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="50">
         <v>49</v>
       </c>
-      <c r="B50" s="55" t="s">
-        <v>1560</v>
-      </c>
-      <c r="C50" s="54">
-        <v>1</v>
-      </c>
-      <c r="D50" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="54">
+      <c r="B50" s="51" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C50" s="50">
+        <v>1</v>
+      </c>
+      <c r="D50" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="50">
         <v>50</v>
       </c>
-      <c r="B51" s="55" t="s">
-        <v>1561</v>
-      </c>
-      <c r="C51" s="54">
-        <v>1</v>
-      </c>
-      <c r="D51" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="54">
+      <c r="B51" s="51" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C51" s="50">
+        <v>1</v>
+      </c>
+      <c r="D51" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="50">
         <v>51</v>
       </c>
-      <c r="B52" s="55" t="s">
-        <v>1562</v>
-      </c>
-      <c r="C52" s="54">
-        <v>1</v>
-      </c>
-      <c r="D52" s="54">
+      <c r="B52" s="51" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C52" s="50">
+        <v>1</v>
+      </c>
+      <c r="D52" s="50">
         <v>0</v>
       </c>
     </row>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3418" uniqueCount="1503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3547" uniqueCount="1564">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6824,6 +6824,297 @@
   </si>
   <si>
     <t>16428888,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳6元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","3000鱼币","抽奖券*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_cyj_cjq",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_cyj_cjq",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,3000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳20元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万","1万鱼币","抽奖券*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_cyj_cjq",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳48元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万","3万鱼币","抽奖券*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,30000,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳98元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万","10万鱼币","抽奖券*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,100000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳198元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万","50万鱼币","抽奖券*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,500000,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳498元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万","200万鱼币","抽奖券*50",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>首冲6元加赠</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>620000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（v1-v3）及小额、免费</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"鲸币宝箱抽奖券",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,3,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_cjlb_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（v4-v10）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1直通礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","5话费碎片","30～1000福卡",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{40,50,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人专享</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万金币","冰冻*5","锁定*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_frozen","prop_fish_lock",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_frozen","prop_fish_lock",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,5,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{100000,140000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"580万金币","冰冻*10","锁定*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5800000,10,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{300000,400000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪华宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人专享</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1280万金币","冰冻*15","锁定*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>12800000,15,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{650000,850000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "cyfl_034_cylb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{type="permission_class",class_value = "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wsj_v1v3_040</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" }</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{type="permission_class",class_value = "wsj_v4v10_040</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" }</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{type="permission_class",class_value = "xrzx_040</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" }</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6902,7 +7193,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6953,13 +7244,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7006,7 +7291,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7157,25 +7442,22 @@
     <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9628,13 +9910,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM407"/>
+  <dimension ref="A1:AM424"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="M239" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="T397" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q267" sqref="Q267"/>
+      <selection pane="bottomRight" activeCell="X421" sqref="X421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -34313,1102 +34595,2252 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="48">
+    <row r="391" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="5">
         <v>390</v>
       </c>
-      <c r="B391" s="48">
+      <c r="B391" s="5">
         <v>10307</v>
       </c>
-      <c r="F391" s="48">
-        <v>1</v>
-      </c>
-      <c r="G391" s="48" t="s">
+      <c r="F391" s="5">
+        <v>1</v>
+      </c>
+      <c r="G391" s="5" t="s">
         <v>1406</v>
       </c>
-      <c r="H391" s="48" t="s">
+      <c r="H391" s="5" t="s">
         <v>1399</v>
       </c>
-      <c r="I391" s="48" t="s">
+      <c r="I391" s="5" t="s">
         <v>1407</v>
       </c>
-      <c r="K391" s="48">
+      <c r="K391" s="5">
         <v>-31</v>
       </c>
-      <c r="L391" s="48">
-        <v>0</v>
-      </c>
-      <c r="M391" s="48">
-        <v>0</v>
-      </c>
-      <c r="N391" s="48" t="s">
+      <c r="L391" s="5">
+        <v>0</v>
+      </c>
+      <c r="M391" s="5">
+        <v>0</v>
+      </c>
+      <c r="N391" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="O391" s="48">
+      <c r="O391" s="5">
         <v>19800</v>
       </c>
-      <c r="P391" s="48" t="s">
+      <c r="P391" s="5" t="s">
         <v>1408</v>
       </c>
-      <c r="Q391" s="49" t="s">
+      <c r="Q391" s="10" t="s">
         <v>1409</v>
       </c>
-      <c r="V391" s="48" t="s">
+      <c r="V391" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="W391" s="48">
+      <c r="W391" s="5">
         <v>9999999</v>
       </c>
-      <c r="X391" s="48">
+      <c r="X391" s="5">
         <v>1602547200</v>
       </c>
-      <c r="Y391" s="48">
+      <c r="Y391" s="5">
         <v>1603123199</v>
       </c>
-      <c r="Z391" s="48">
+      <c r="Z391" s="5">
         <v>45</v>
       </c>
-      <c r="AG391" s="48">
-        <v>1</v>
-      </c>
-      <c r="AH391" s="48">
-        <v>1</v>
-      </c>
-      <c r="AK391" s="48">
-        <v>1</v>
-      </c>
-      <c r="AL391" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="48">
+      <c r="AG391" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH391" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK391" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL391" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="5">
         <v>391</v>
       </c>
-      <c r="B392" s="48">
+      <c r="B392" s="5">
         <v>10308</v>
       </c>
-      <c r="F392" s="48">
-        <v>1</v>
-      </c>
-      <c r="G392" s="48" t="s">
+      <c r="F392" s="5">
+        <v>1</v>
+      </c>
+      <c r="G392" s="5" t="s">
         <v>1380</v>
       </c>
-      <c r="H392" s="48" t="s">
+      <c r="H392" s="5" t="s">
         <v>1410</v>
       </c>
-      <c r="I392" s="48" t="s">
+      <c r="I392" s="5" t="s">
         <v>1411</v>
       </c>
-      <c r="K392" s="48">
+      <c r="K392" s="5">
         <v>-31</v>
       </c>
-      <c r="L392" s="48">
-        <v>0</v>
-      </c>
-      <c r="M392" s="48">
-        <v>0</v>
-      </c>
-      <c r="N392" s="48" t="s">
+      <c r="L392" s="5">
+        <v>0</v>
+      </c>
+      <c r="M392" s="5">
+        <v>0</v>
+      </c>
+      <c r="N392" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="O392" s="48">
+      <c r="O392" s="5">
         <v>9800</v>
       </c>
-      <c r="P392" s="48" t="s">
+      <c r="P392" s="5" t="s">
         <v>1412</v>
       </c>
-      <c r="Q392" s="49" t="s">
+      <c r="Q392" s="10" t="s">
         <v>1413</v>
       </c>
-      <c r="V392" s="48" t="s">
+      <c r="V392" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="W392" s="48">
+      <c r="W392" s="5">
         <v>9999999</v>
       </c>
-      <c r="X392" s="48">
+      <c r="X392" s="5">
         <v>1602547200</v>
       </c>
-      <c r="Y392" s="48">
+      <c r="Y392" s="5">
         <v>1603123199</v>
       </c>
-      <c r="Z392" s="48">
+      <c r="Z392" s="5">
         <v>46</v>
       </c>
-      <c r="AG392" s="48">
-        <v>1</v>
-      </c>
-      <c r="AH392" s="48">
-        <v>1</v>
-      </c>
-      <c r="AK392" s="48">
-        <v>1</v>
-      </c>
-      <c r="AL392" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A393" s="48">
+      <c r="AG392" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH392" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK392" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL392" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="5">
         <v>392</v>
       </c>
-      <c r="B393" s="48">
+      <c r="B393" s="5">
         <v>10309</v>
       </c>
-      <c r="F393" s="48">
-        <v>1</v>
-      </c>
-      <c r="G393" s="48" t="s">
+      <c r="F393" s="5">
+        <v>1</v>
+      </c>
+      <c r="G393" s="5" t="s">
         <v>1385</v>
       </c>
-      <c r="H393" s="48" t="s">
+      <c r="H393" s="5" t="s">
         <v>1414</v>
       </c>
-      <c r="I393" s="48" t="s">
+      <c r="I393" s="5" t="s">
         <v>1415</v>
       </c>
-      <c r="K393" s="48">
+      <c r="K393" s="5">
         <v>-31</v>
       </c>
-      <c r="L393" s="48">
-        <v>0</v>
-      </c>
-      <c r="M393" s="48">
-        <v>0</v>
-      </c>
-      <c r="N393" s="48" t="s">
+      <c r="L393" s="5">
+        <v>0</v>
+      </c>
+      <c r="M393" s="5">
+        <v>0</v>
+      </c>
+      <c r="N393" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="O393" s="48">
+      <c r="O393" s="5">
         <v>19800</v>
       </c>
-      <c r="P393" s="48" t="s">
+      <c r="P393" s="5" t="s">
         <v>1416</v>
       </c>
-      <c r="Q393" s="49" t="s">
+      <c r="Q393" s="10" t="s">
         <v>1409</v>
       </c>
-      <c r="V393" s="48" t="s">
+      <c r="V393" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="W393" s="48">
+      <c r="W393" s="5">
         <v>9999999</v>
       </c>
-      <c r="X393" s="48">
+      <c r="X393" s="5">
         <v>1602547200</v>
       </c>
-      <c r="Y393" s="48">
+      <c r="Y393" s="5">
         <v>1603123199</v>
       </c>
-      <c r="Z393" s="48">
+      <c r="Z393" s="5">
         <v>46</v>
       </c>
-      <c r="AG393" s="48">
-        <v>1</v>
-      </c>
-      <c r="AH393" s="48">
-        <v>1</v>
-      </c>
-      <c r="AK393" s="48">
-        <v>1</v>
-      </c>
-      <c r="AL393" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:38" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A394" s="48">
+      <c r="AG393" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH393" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK393" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL393" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="5">
         <v>393</v>
       </c>
-      <c r="B394" s="48">
+      <c r="B394" s="5">
         <v>10310</v>
       </c>
-      <c r="F394" s="48">
-        <v>1</v>
-      </c>
-      <c r="G394" s="48" t="s">
+      <c r="F394" s="5">
+        <v>1</v>
+      </c>
+      <c r="G394" s="5" t="s">
         <v>1391</v>
       </c>
-      <c r="H394" s="48" t="s">
+      <c r="H394" s="5" t="s">
         <v>1417</v>
       </c>
-      <c r="I394" s="48" t="s">
+      <c r="I394" s="5" t="s">
         <v>1418</v>
       </c>
-      <c r="K394" s="48">
+      <c r="K394" s="5">
         <v>-31</v>
       </c>
-      <c r="L394" s="48">
-        <v>0</v>
-      </c>
-      <c r="M394" s="48">
-        <v>0</v>
-      </c>
-      <c r="N394" s="48" t="s">
+      <c r="L394" s="5">
+        <v>0</v>
+      </c>
+      <c r="M394" s="5">
+        <v>0</v>
+      </c>
+      <c r="N394" s="5" t="s">
         <v>1419</v>
       </c>
-      <c r="O394" s="48">
+      <c r="O394" s="5">
         <v>49800</v>
       </c>
-      <c r="P394" s="48" t="s">
+      <c r="P394" s="5" t="s">
         <v>1420</v>
       </c>
-      <c r="Q394" s="49" t="s">
+      <c r="Q394" s="10" t="s">
         <v>1421</v>
       </c>
-      <c r="V394" s="48" t="s">
+      <c r="V394" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="W394" s="48">
+      <c r="W394" s="5">
         <v>9999999</v>
       </c>
-      <c r="X394" s="48">
+      <c r="X394" s="5">
         <v>1602547200</v>
       </c>
-      <c r="Y394" s="48">
+      <c r="Y394" s="5">
         <v>1603123199</v>
       </c>
-      <c r="Z394" s="48">
+      <c r="Z394" s="5">
         <v>46</v>
       </c>
-      <c r="AG394" s="48">
-        <v>1</v>
-      </c>
-      <c r="AH394" s="48">
-        <v>1</v>
-      </c>
-      <c r="AK394" s="48">
-        <v>1</v>
-      </c>
-      <c r="AL394" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="395" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A395" s="52">
+      <c r="AG394" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH394" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK394" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL394" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A395" s="5">
         <v>394</v>
       </c>
-      <c r="B395" s="52">
+      <c r="B395" s="5">
         <v>10311</v>
       </c>
-      <c r="F395" s="52">
-        <v>1</v>
-      </c>
-      <c r="G395" s="52" t="s">
+      <c r="F395" s="5">
+        <v>1</v>
+      </c>
+      <c r="G395" s="5" t="s">
         <v>1441</v>
       </c>
-      <c r="I395" s="52" t="s">
+      <c r="I395" s="5" t="s">
         <v>1442</v>
       </c>
-      <c r="K395" s="52">
+      <c r="K395" s="5">
         <v>-31</v>
       </c>
-      <c r="L395" s="52">
-        <v>0</v>
-      </c>
-      <c r="M395" s="52">
-        <v>0</v>
-      </c>
-      <c r="N395" s="52" t="s">
+      <c r="L395" s="5">
+        <v>0</v>
+      </c>
+      <c r="M395" s="5">
+        <v>0</v>
+      </c>
+      <c r="N395" s="5" t="s">
         <v>1443</v>
       </c>
-      <c r="O395" s="52">
+      <c r="O395" s="5">
         <v>600</v>
       </c>
-      <c r="P395" s="52" t="s">
+      <c r="P395" s="5" t="s">
         <v>1445</v>
       </c>
-      <c r="Q395" s="53" t="s">
+      <c r="Q395" s="10" t="s">
         <v>1446</v>
       </c>
-      <c r="V395" s="52" t="s">
+      <c r="V395" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="W395" s="52">
+      <c r="W395" s="5">
         <v>9999999</v>
       </c>
-      <c r="X395" s="52">
+      <c r="X395" s="5">
         <v>1600732800</v>
       </c>
-      <c r="Y395" s="52">
+      <c r="Y395" s="5">
         <v>1601308799</v>
       </c>
-      <c r="AG395" s="52">
-        <v>1</v>
-      </c>
-      <c r="AH395" s="52">
-        <v>1</v>
-      </c>
-      <c r="AK395" s="52">
-        <v>1</v>
-      </c>
-      <c r="AL395" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="396" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A396" s="52">
+      <c r="AG395" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH395" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK395" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL395" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A396" s="5">
         <v>395</v>
       </c>
-      <c r="B396" s="52">
+      <c r="B396" s="5">
         <v>10312</v>
       </c>
-      <c r="F396" s="52">
-        <v>1</v>
-      </c>
-      <c r="G396" s="52" t="s">
+      <c r="F396" s="5">
+        <v>1</v>
+      </c>
+      <c r="G396" s="5" t="s">
         <v>1447</v>
       </c>
-      <c r="I396" s="52" t="s">
+      <c r="I396" s="5" t="s">
         <v>1448</v>
       </c>
-      <c r="K396" s="52">
+      <c r="K396" s="5">
         <v>-31</v>
       </c>
-      <c r="L396" s="52">
-        <v>0</v>
-      </c>
-      <c r="M396" s="52">
-        <v>0</v>
-      </c>
-      <c r="N396" s="52" t="s">
+      <c r="L396" s="5">
+        <v>0</v>
+      </c>
+      <c r="M396" s="5">
+        <v>0</v>
+      </c>
+      <c r="N396" s="5" t="s">
         <v>1443</v>
       </c>
-      <c r="O396" s="52">
+      <c r="O396" s="5">
         <v>2000</v>
       </c>
-      <c r="P396" s="52" t="s">
+      <c r="P396" s="5" t="s">
         <v>1444</v>
       </c>
-      <c r="Q396" s="53" t="s">
+      <c r="Q396" s="10" t="s">
         <v>1449</v>
       </c>
-      <c r="V396" s="52" t="s">
+      <c r="V396" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="W396" s="52">
+      <c r="W396" s="5">
         <v>9999999</v>
       </c>
-      <c r="X396" s="52">
+      <c r="X396" s="5">
         <v>1600732800</v>
       </c>
-      <c r="Y396" s="52">
+      <c r="Y396" s="5">
         <v>1601308799</v>
       </c>
-      <c r="AG396" s="52">
-        <v>1</v>
-      </c>
-      <c r="AH396" s="52">
-        <v>1</v>
-      </c>
-      <c r="AK396" s="52">
-        <v>1</v>
-      </c>
-      <c r="AL396" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="397" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A397" s="52">
+      <c r="AG396" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH396" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK396" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL396" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A397" s="5">
         <v>396</v>
       </c>
-      <c r="B397" s="52">
+      <c r="B397" s="5">
         <v>10313</v>
       </c>
-      <c r="F397" s="52">
-        <v>1</v>
-      </c>
-      <c r="G397" s="52" t="s">
+      <c r="F397" s="5">
+        <v>1</v>
+      </c>
+      <c r="G397" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="I397" s="52" t="s">
+      <c r="I397" s="5" t="s">
         <v>1450</v>
       </c>
-      <c r="K397" s="52">
+      <c r="K397" s="5">
         <v>-31</v>
       </c>
-      <c r="L397" s="52">
-        <v>0</v>
-      </c>
-      <c r="M397" s="52">
-        <v>0</v>
-      </c>
-      <c r="N397" s="52" t="s">
+      <c r="L397" s="5">
+        <v>0</v>
+      </c>
+      <c r="M397" s="5">
+        <v>0</v>
+      </c>
+      <c r="N397" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="O397" s="52">
+      <c r="O397" s="5">
         <v>4800</v>
       </c>
-      <c r="P397" s="52" t="s">
+      <c r="P397" s="5" t="s">
         <v>1444</v>
       </c>
-      <c r="Q397" s="53" t="s">
+      <c r="Q397" s="10" t="s">
         <v>1451</v>
       </c>
-      <c r="V397" s="52" t="s">
+      <c r="V397" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="W397" s="52">
+      <c r="W397" s="5">
         <v>9999999</v>
       </c>
-      <c r="X397" s="52">
+      <c r="X397" s="5">
         <v>1600732800</v>
       </c>
-      <c r="Y397" s="52">
+      <c r="Y397" s="5">
         <v>1601308799</v>
       </c>
-      <c r="AG397" s="52">
-        <v>1</v>
-      </c>
-      <c r="AH397" s="52">
-        <v>1</v>
-      </c>
-      <c r="AK397" s="52">
-        <v>1</v>
-      </c>
-      <c r="AL397" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="398" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A398" s="52">
+      <c r="AG397" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH397" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK397" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL397" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A398" s="5">
         <v>397</v>
       </c>
-      <c r="B398" s="52">
+      <c r="B398" s="5">
         <v>10314</v>
       </c>
-      <c r="F398" s="52">
-        <v>1</v>
-      </c>
-      <c r="G398" s="52" t="s">
+      <c r="F398" s="5">
+        <v>1</v>
+      </c>
+      <c r="G398" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="I398" s="52" t="s">
+      <c r="I398" s="5" t="s">
         <v>1452</v>
       </c>
-      <c r="K398" s="52">
+      <c r="K398" s="5">
         <v>-31</v>
       </c>
-      <c r="L398" s="52">
-        <v>0</v>
-      </c>
-      <c r="M398" s="52">
-        <v>0</v>
-      </c>
-      <c r="N398" s="52" t="s">
+      <c r="L398" s="5">
+        <v>0</v>
+      </c>
+      <c r="M398" s="5">
+        <v>0</v>
+      </c>
+      <c r="N398" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="O398" s="52">
+      <c r="O398" s="5">
         <v>9800</v>
       </c>
-      <c r="P398" s="52" t="s">
+      <c r="P398" s="5" t="s">
         <v>1444</v>
       </c>
-      <c r="Q398" s="53" t="s">
+      <c r="Q398" s="10" t="s">
         <v>1453</v>
       </c>
-      <c r="V398" s="52" t="s">
+      <c r="V398" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="W398" s="52">
+      <c r="W398" s="5">
         <v>9999999</v>
       </c>
-      <c r="X398" s="52">
+      <c r="X398" s="5">
         <v>1600732800</v>
       </c>
-      <c r="Y398" s="52">
+      <c r="Y398" s="5">
         <v>1601308799</v>
       </c>
-      <c r="AG398" s="52">
-        <v>1</v>
-      </c>
-      <c r="AH398" s="52">
-        <v>1</v>
-      </c>
-      <c r="AK398" s="52">
-        <v>1</v>
-      </c>
-      <c r="AL398" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="399" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A399" s="52">
+      <c r="AG398" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH398" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK398" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL398" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A399" s="5">
         <v>398</v>
       </c>
-      <c r="B399" s="52">
+      <c r="B399" s="5">
         <v>10315</v>
       </c>
-      <c r="F399" s="52">
-        <v>1</v>
-      </c>
-      <c r="G399" s="52" t="s">
+      <c r="F399" s="5">
+        <v>1</v>
+      </c>
+      <c r="G399" s="5" t="s">
         <v>1454</v>
       </c>
-      <c r="I399" s="52" t="s">
+      <c r="I399" s="5" t="s">
         <v>1455</v>
       </c>
-      <c r="K399" s="52">
+      <c r="K399" s="5">
         <v>-31</v>
       </c>
-      <c r="L399" s="52">
-        <v>0</v>
-      </c>
-      <c r="M399" s="52">
-        <v>0</v>
-      </c>
-      <c r="N399" s="52" t="s">
+      <c r="L399" s="5">
+        <v>0</v>
+      </c>
+      <c r="M399" s="5">
+        <v>0</v>
+      </c>
+      <c r="N399" s="5" t="s">
         <v>1443</v>
       </c>
-      <c r="O399" s="52">
+      <c r="O399" s="5">
         <v>19800</v>
       </c>
-      <c r="P399" s="52" t="s">
+      <c r="P399" s="5" t="s">
         <v>1445</v>
       </c>
-      <c r="Q399" s="53" t="s">
+      <c r="Q399" s="10" t="s">
         <v>1456</v>
       </c>
-      <c r="V399" s="52" t="s">
+      <c r="V399" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="W399" s="52">
+      <c r="W399" s="5">
         <v>9999999</v>
       </c>
-      <c r="X399" s="52">
+      <c r="X399" s="5">
         <v>1600732800</v>
       </c>
-      <c r="Y399" s="52">
+      <c r="Y399" s="5">
         <v>1601308799</v>
       </c>
-      <c r="AG399" s="52">
-        <v>1</v>
-      </c>
-      <c r="AH399" s="52">
-        <v>1</v>
-      </c>
-      <c r="AK399" s="52">
-        <v>1</v>
-      </c>
-      <c r="AL399" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="400" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A400" s="52">
+      <c r="AG399" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH399" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK399" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL399" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A400" s="5">
         <v>399</v>
       </c>
-      <c r="B400" s="52">
+      <c r="B400" s="5">
         <v>10316</v>
       </c>
-      <c r="F400" s="52">
-        <v>1</v>
-      </c>
-      <c r="G400" s="52" t="s">
+      <c r="F400" s="5">
+        <v>1</v>
+      </c>
+      <c r="G400" s="5" t="s">
         <v>1457</v>
       </c>
-      <c r="I400" s="52" t="s">
+      <c r="I400" s="5" t="s">
         <v>1458</v>
       </c>
-      <c r="K400" s="52">
+      <c r="K400" s="5">
         <v>-31</v>
       </c>
-      <c r="L400" s="52">
-        <v>0</v>
-      </c>
-      <c r="M400" s="52">
-        <v>0</v>
-      </c>
-      <c r="N400" s="52" t="s">
+      <c r="L400" s="5">
+        <v>0</v>
+      </c>
+      <c r="M400" s="5">
+        <v>0</v>
+      </c>
+      <c r="N400" s="5" t="s">
         <v>1443</v>
       </c>
-      <c r="O400" s="52">
+      <c r="O400" s="5">
         <v>49800</v>
       </c>
-      <c r="P400" s="52" t="s">
+      <c r="P400" s="5" t="s">
         <v>1445</v>
       </c>
-      <c r="Q400" s="53" t="s">
+      <c r="Q400" s="10" t="s">
         <v>1459</v>
       </c>
-      <c r="V400" s="52" t="s">
+      <c r="V400" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="W400" s="52">
+      <c r="W400" s="5">
         <v>9999999</v>
       </c>
-      <c r="X400" s="52">
+      <c r="X400" s="5">
         <v>1600732800</v>
       </c>
-      <c r="Y400" s="52">
+      <c r="Y400" s="5">
         <v>1601308799</v>
       </c>
-      <c r="AG400" s="52">
-        <v>1</v>
-      </c>
-      <c r="AH400" s="52">
-        <v>1</v>
-      </c>
-      <c r="AK400" s="52">
-        <v>1</v>
-      </c>
-      <c r="AL400" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="401" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A401" s="54">
+      <c r="AG400" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH400" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK400" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL400" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A401" s="5">
         <v>400</v>
       </c>
-      <c r="B401" s="54">
+      <c r="B401" s="5">
         <v>10317</v>
       </c>
-      <c r="F401" s="54">
-        <v>1</v>
-      </c>
-      <c r="G401" s="54" t="s">
+      <c r="F401" s="5">
+        <v>1</v>
+      </c>
+      <c r="G401" s="5" t="s">
         <v>1460</v>
       </c>
-      <c r="I401" s="54" t="s">
+      <c r="I401" s="5" t="s">
         <v>1461</v>
       </c>
-      <c r="K401" s="54">
+      <c r="K401" s="5">
         <v>-31</v>
       </c>
-      <c r="L401" s="54">
-        <v>0</v>
-      </c>
-      <c r="M401" s="54">
-        <v>0</v>
-      </c>
-      <c r="N401" s="54" t="s">
+      <c r="L401" s="5">
+        <v>0</v>
+      </c>
+      <c r="M401" s="5">
+        <v>0</v>
+      </c>
+      <c r="N401" s="5" t="s">
         <v>1014</v>
       </c>
-      <c r="O401" s="54">
+      <c r="O401" s="5">
         <v>1800</v>
       </c>
-      <c r="P401" s="54" t="s">
+      <c r="P401" s="5" t="s">
         <v>1463</v>
       </c>
-      <c r="Q401" s="54" t="s">
+      <c r="Q401" s="5" t="s">
         <v>1464</v>
       </c>
-      <c r="V401" s="54" t="s">
+      <c r="V401" s="5" t="s">
         <v>1271</v>
       </c>
-      <c r="W401" s="54">
+      <c r="W401" s="5">
         <v>99999999</v>
       </c>
-      <c r="X401" s="54">
+      <c r="X401" s="5">
         <v>1601335800</v>
       </c>
-      <c r="Y401" s="54">
+      <c r="Y401" s="5">
         <v>1601913599</v>
       </c>
-      <c r="Z401" s="54">
+      <c r="Z401" s="5">
         <v>47</v>
       </c>
-      <c r="AG401" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH401" s="54">
-        <v>1</v>
-      </c>
-      <c r="AK401" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL401" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="402" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A402" s="54">
+      <c r="AG401" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH401" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK401" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL401" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A402" s="5">
         <v>401</v>
       </c>
-      <c r="B402" s="54">
+      <c r="B402" s="5">
         <v>10318</v>
       </c>
-      <c r="F402" s="54">
-        <v>1</v>
-      </c>
-      <c r="G402" s="54" t="s">
+      <c r="F402" s="5">
+        <v>1</v>
+      </c>
+      <c r="G402" s="5" t="s">
         <v>1465</v>
       </c>
-      <c r="I402" s="54" t="s">
+      <c r="I402" s="5" t="s">
         <v>1466</v>
       </c>
-      <c r="K402" s="54">
+      <c r="K402" s="5">
         <v>-31</v>
       </c>
-      <c r="L402" s="54">
-        <v>0</v>
-      </c>
-      <c r="M402" s="54">
-        <v>0</v>
-      </c>
-      <c r="N402" s="54" t="s">
+      <c r="L402" s="5">
+        <v>0</v>
+      </c>
+      <c r="M402" s="5">
+        <v>0</v>
+      </c>
+      <c r="N402" s="5" t="s">
         <v>1467</v>
       </c>
-      <c r="O402" s="54">
+      <c r="O402" s="5">
         <v>4800</v>
       </c>
-      <c r="P402" s="54" t="s">
+      <c r="P402" s="5" t="s">
         <v>1462</v>
       </c>
-      <c r="Q402" s="54" t="s">
+      <c r="Q402" s="5" t="s">
         <v>1468</v>
       </c>
-      <c r="V402" s="54" t="s">
+      <c r="V402" s="5" t="s">
         <v>1271</v>
       </c>
-      <c r="W402" s="54">
+      <c r="W402" s="5">
         <v>99999999</v>
       </c>
-      <c r="X402" s="54">
+      <c r="X402" s="5">
         <v>1601335800</v>
       </c>
-      <c r="Y402" s="54">
+      <c r="Y402" s="5">
         <v>1601913599</v>
       </c>
-      <c r="Z402" s="54">
+      <c r="Z402" s="5">
         <v>47</v>
       </c>
-      <c r="AG402" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH402" s="54">
-        <v>1</v>
-      </c>
-      <c r="AK402" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL402" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="403" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A403" s="54">
+      <c r="AG402" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH402" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK402" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL402" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A403" s="5">
         <v>402</v>
       </c>
-      <c r="B403" s="54">
+      <c r="B403" s="5">
         <v>10319</v>
       </c>
-      <c r="F403" s="54">
-        <v>1</v>
-      </c>
-      <c r="G403" s="54" t="s">
+      <c r="F403" s="5">
+        <v>1</v>
+      </c>
+      <c r="G403" s="5" t="s">
         <v>1469</v>
       </c>
-      <c r="I403" s="54" t="s">
+      <c r="I403" s="5" t="s">
         <v>1470</v>
       </c>
-      <c r="K403" s="54">
+      <c r="K403" s="5">
         <v>-31</v>
       </c>
-      <c r="L403" s="54">
-        <v>0</v>
-      </c>
-      <c r="M403" s="54">
-        <v>0</v>
-      </c>
-      <c r="N403" s="54" t="s">
+      <c r="L403" s="5">
+        <v>0</v>
+      </c>
+      <c r="M403" s="5">
+        <v>0</v>
+      </c>
+      <c r="N403" s="5" t="s">
         <v>1014</v>
       </c>
-      <c r="O403" s="54">
+      <c r="O403" s="5">
         <v>9800</v>
       </c>
-      <c r="P403" s="54" t="s">
+      <c r="P403" s="5" t="s">
         <v>1472</v>
       </c>
-      <c r="Q403" s="54" t="s">
+      <c r="Q403" s="5" t="s">
         <v>1473</v>
       </c>
-      <c r="V403" s="54" t="s">
+      <c r="V403" s="5" t="s">
         <v>1271</v>
       </c>
-      <c r="W403" s="54">
+      <c r="W403" s="5">
         <v>99999999</v>
       </c>
-      <c r="X403" s="54">
+      <c r="X403" s="5">
         <v>1601335800</v>
       </c>
-      <c r="Y403" s="54">
+      <c r="Y403" s="5">
         <v>1601913599</v>
       </c>
-      <c r="Z403" s="54">
+      <c r="Z403" s="5">
         <v>47</v>
       </c>
-      <c r="AG403" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH403" s="54">
-        <v>1</v>
-      </c>
-      <c r="AK403" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL403" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="404" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A404" s="54">
+      <c r="AG403" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH403" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK403" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL403" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A404" s="5">
         <v>403</v>
       </c>
-      <c r="B404" s="54">
+      <c r="B404" s="5">
         <v>10320</v>
       </c>
-      <c r="F404" s="54">
-        <v>1</v>
-      </c>
-      <c r="G404" s="54" t="s">
+      <c r="F404" s="5">
+        <v>1</v>
+      </c>
+      <c r="G404" s="5" t="s">
         <v>1474</v>
       </c>
-      <c r="I404" s="54" t="s">
+      <c r="I404" s="5" t="s">
         <v>1475</v>
       </c>
-      <c r="K404" s="54">
+      <c r="K404" s="5">
         <v>-31</v>
       </c>
-      <c r="L404" s="54">
-        <v>0</v>
-      </c>
-      <c r="M404" s="54">
-        <v>0</v>
-      </c>
-      <c r="N404" s="54" t="s">
+      <c r="L404" s="5">
+        <v>0</v>
+      </c>
+      <c r="M404" s="5">
+        <v>0</v>
+      </c>
+      <c r="N404" s="5" t="s">
         <v>1014</v>
       </c>
-      <c r="O404" s="54">
+      <c r="O404" s="5">
         <v>19800</v>
       </c>
-      <c r="P404" s="54" t="s">
+      <c r="P404" s="5" t="s">
         <v>1471</v>
       </c>
-      <c r="Q404" s="54" t="s">
+      <c r="Q404" s="5" t="s">
         <v>1476</v>
       </c>
-      <c r="V404" s="54" t="s">
+      <c r="V404" s="5" t="s">
         <v>1271</v>
       </c>
-      <c r="W404" s="54">
+      <c r="W404" s="5">
         <v>99999999</v>
       </c>
-      <c r="X404" s="54">
+      <c r="X404" s="5">
         <v>1601335800</v>
       </c>
-      <c r="Y404" s="54">
+      <c r="Y404" s="5">
         <v>1601913599</v>
       </c>
-      <c r="Z404" s="54">
+      <c r="Z404" s="5">
         <v>47</v>
       </c>
-      <c r="AG404" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH404" s="54">
-        <v>1</v>
-      </c>
-      <c r="AK404" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL404" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="405" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A405" s="54">
+      <c r="AG404" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH404" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK404" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL404" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A405" s="5">
         <v>404</v>
       </c>
-      <c r="B405" s="54">
+      <c r="B405" s="5">
         <v>10321</v>
       </c>
-      <c r="F405" s="54">
-        <v>1</v>
-      </c>
-      <c r="G405" s="54" t="s">
+      <c r="F405" s="5">
+        <v>1</v>
+      </c>
+      <c r="G405" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="I405" s="54" t="s">
+      <c r="I405" s="5" t="s">
         <v>1478</v>
       </c>
-      <c r="K405" s="54">
+      <c r="K405" s="5">
         <v>-31</v>
       </c>
-      <c r="L405" s="54">
-        <v>0</v>
-      </c>
-      <c r="M405" s="54">
-        <v>0</v>
-      </c>
-      <c r="N405" s="54" t="s">
+      <c r="L405" s="5">
+        <v>0</v>
+      </c>
+      <c r="M405" s="5">
+        <v>0</v>
+      </c>
+      <c r="N405" s="5" t="s">
         <v>1014</v>
       </c>
-      <c r="O405" s="54">
+      <c r="O405" s="5">
         <v>29800</v>
       </c>
-      <c r="P405" s="54" t="s">
+      <c r="P405" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="Q405" s="54" t="s">
+      <c r="Q405" s="5" t="s">
         <v>1480</v>
       </c>
-      <c r="V405" s="54" t="s">
+      <c r="V405" s="5" t="s">
         <v>1271</v>
       </c>
-      <c r="W405" s="54">
+      <c r="W405" s="5">
         <v>99999999</v>
       </c>
-      <c r="X405" s="54">
+      <c r="X405" s="5">
         <v>1601335800</v>
       </c>
-      <c r="Y405" s="54">
+      <c r="Y405" s="5">
         <v>1601913599</v>
       </c>
-      <c r="Z405" s="54">
+      <c r="Z405" s="5">
         <v>47</v>
       </c>
-      <c r="AG405" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH405" s="54">
-        <v>1</v>
-      </c>
-      <c r="AK405" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL405" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="406" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A406" s="54">
+      <c r="AG405" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH405" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK405" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL405" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A406" s="5">
         <v>405</v>
       </c>
-      <c r="B406" s="54">
+      <c r="B406" s="5">
         <v>10322</v>
       </c>
-      <c r="F406" s="54">
-        <v>1</v>
-      </c>
-      <c r="G406" s="54" t="s">
+      <c r="F406" s="5">
+        <v>1</v>
+      </c>
+      <c r="G406" s="5" t="s">
         <v>1481</v>
       </c>
-      <c r="I406" s="54" t="s">
+      <c r="I406" s="5" t="s">
         <v>1482</v>
       </c>
-      <c r="K406" s="54">
+      <c r="K406" s="5">
         <v>-31</v>
       </c>
-      <c r="L406" s="54">
-        <v>0</v>
-      </c>
-      <c r="M406" s="54">
-        <v>0</v>
-      </c>
-      <c r="N406" s="54" t="s">
+      <c r="L406" s="5">
+        <v>0</v>
+      </c>
+      <c r="M406" s="5">
+        <v>0</v>
+      </c>
+      <c r="N406" s="5" t="s">
         <v>1014</v>
       </c>
-      <c r="O406" s="54">
+      <c r="O406" s="5">
         <v>49800</v>
       </c>
-      <c r="P406" s="54" t="s">
+      <c r="P406" s="5" t="s">
         <v>1484</v>
       </c>
-      <c r="Q406" s="54" t="s">
+      <c r="Q406" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="V406" s="54" t="s">
+      <c r="V406" s="5" t="s">
         <v>1486</v>
       </c>
-      <c r="W406" s="54">
+      <c r="W406" s="5">
         <v>99999999</v>
       </c>
-      <c r="X406" s="54">
+      <c r="X406" s="5">
         <v>1601335800</v>
       </c>
-      <c r="Y406" s="54">
+      <c r="Y406" s="5">
         <v>1601913599</v>
       </c>
-      <c r="Z406" s="54">
+      <c r="Z406" s="5">
         <v>47</v>
       </c>
-      <c r="AG406" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH406" s="54">
-        <v>1</v>
-      </c>
-      <c r="AK406" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL406" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="407" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A407" s="54">
+      <c r="AG406" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH406" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK406" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL406" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A407" s="5">
         <v>406</v>
       </c>
-      <c r="B407" s="54">
+      <c r="B407" s="5">
         <v>10323</v>
       </c>
-      <c r="F407" s="54">
-        <v>1</v>
-      </c>
-      <c r="G407" s="54" t="s">
+      <c r="F407" s="5">
+        <v>1</v>
+      </c>
+      <c r="G407" s="5" t="s">
         <v>1487</v>
       </c>
-      <c r="I407" s="54" t="s">
+      <c r="I407" s="5" t="s">
         <v>1488</v>
       </c>
-      <c r="K407" s="54">
+      <c r="K407" s="5">
         <v>-31</v>
       </c>
-      <c r="L407" s="54">
-        <v>0</v>
-      </c>
-      <c r="M407" s="54">
-        <v>0</v>
-      </c>
-      <c r="N407" s="54" t="s">
+      <c r="L407" s="5">
+        <v>0</v>
+      </c>
+      <c r="M407" s="5">
+        <v>0</v>
+      </c>
+      <c r="N407" s="5" t="s">
         <v>1489</v>
       </c>
-      <c r="O407" s="54">
+      <c r="O407" s="5">
         <v>99800</v>
       </c>
-      <c r="P407" s="54" t="s">
+      <c r="P407" s="5" t="s">
         <v>1483</v>
       </c>
-      <c r="Q407" s="54" t="s">
+      <c r="Q407" s="5" t="s">
         <v>1490</v>
       </c>
-      <c r="V407" s="54" t="s">
+      <c r="V407" s="5" t="s">
         <v>1271</v>
       </c>
-      <c r="W407" s="54">
+      <c r="W407" s="5">
         <v>99999999</v>
       </c>
-      <c r="X407" s="54">
+      <c r="X407" s="5">
         <v>1601335800</v>
       </c>
-      <c r="Y407" s="54">
+      <c r="Y407" s="5">
         <v>1601913599</v>
       </c>
-      <c r="Z407" s="54">
+      <c r="Z407" s="5">
         <v>47</v>
       </c>
-      <c r="AG407" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH407" s="54">
-        <v>1</v>
-      </c>
-      <c r="AK407" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL407" s="54">
+      <c r="AG407" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH407" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK407" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL407" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A408" s="50">
+        <v>407</v>
+      </c>
+      <c r="B408" s="50">
+        <v>10324</v>
+      </c>
+      <c r="F408" s="50">
+        <v>1</v>
+      </c>
+      <c r="G408" s="50" t="s">
+        <v>1503</v>
+      </c>
+      <c r="I408" s="50" t="s">
+        <v>1504</v>
+      </c>
+      <c r="K408" s="50">
+        <v>-31</v>
+      </c>
+      <c r="L408" s="50">
+        <v>0</v>
+      </c>
+      <c r="M408" s="50">
+        <v>0</v>
+      </c>
+      <c r="N408" s="50" t="s">
+        <v>484</v>
+      </c>
+      <c r="O408" s="50">
+        <v>600</v>
+      </c>
+      <c r="P408" s="50" t="s">
+        <v>1506</v>
+      </c>
+      <c r="Q408" s="51" t="s">
+        <v>1507</v>
+      </c>
+      <c r="V408" s="50" t="s">
+        <v>570</v>
+      </c>
+      <c r="W408" s="50">
+        <v>99999999</v>
+      </c>
+      <c r="X408" s="50">
+        <v>1603152000</v>
+      </c>
+      <c r="Y408" s="50">
+        <v>1603727999</v>
+      </c>
+      <c r="Z408" s="50">
+        <v>48</v>
+      </c>
+      <c r="AG408" s="50">
+        <v>1</v>
+      </c>
+      <c r="AH408" s="50">
+        <v>1</v>
+      </c>
+      <c r="AK408" s="50">
+        <v>1</v>
+      </c>
+      <c r="AL408" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A409" s="50">
+        <v>408</v>
+      </c>
+      <c r="B409" s="50">
+        <v>10325</v>
+      </c>
+      <c r="F409" s="50">
+        <v>1</v>
+      </c>
+      <c r="G409" s="50" t="s">
+        <v>1508</v>
+      </c>
+      <c r="I409" s="50" t="s">
+        <v>1509</v>
+      </c>
+      <c r="K409" s="50">
+        <v>-31</v>
+      </c>
+      <c r="L409" s="50">
+        <v>0</v>
+      </c>
+      <c r="M409" s="50">
+        <v>0</v>
+      </c>
+      <c r="N409" s="50" t="s">
+        <v>1510</v>
+      </c>
+      <c r="O409" s="50">
+        <v>2000</v>
+      </c>
+      <c r="P409" s="50" t="s">
+        <v>1511</v>
+      </c>
+      <c r="Q409" s="51" t="s">
+        <v>1449</v>
+      </c>
+      <c r="V409" s="50" t="s">
+        <v>570</v>
+      </c>
+      <c r="W409" s="50">
+        <v>99999999</v>
+      </c>
+      <c r="X409" s="50">
+        <v>1603152000</v>
+      </c>
+      <c r="Y409" s="50">
+        <v>1603727999</v>
+      </c>
+      <c r="Z409" s="50">
+        <v>48</v>
+      </c>
+      <c r="AG409" s="50">
+        <v>1</v>
+      </c>
+      <c r="AH409" s="50">
+        <v>1</v>
+      </c>
+      <c r="AK409" s="50">
+        <v>1</v>
+      </c>
+      <c r="AL409" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A410" s="50">
+        <v>409</v>
+      </c>
+      <c r="B410" s="50">
+        <v>10326</v>
+      </c>
+      <c r="F410" s="50">
+        <v>1</v>
+      </c>
+      <c r="G410" s="50" t="s">
+        <v>1512</v>
+      </c>
+      <c r="I410" s="50" t="s">
+        <v>1513</v>
+      </c>
+      <c r="K410" s="50">
+        <v>-31</v>
+      </c>
+      <c r="L410" s="50">
+        <v>0</v>
+      </c>
+      <c r="M410" s="50">
+        <v>0</v>
+      </c>
+      <c r="N410" s="50" t="s">
+        <v>1510</v>
+      </c>
+      <c r="O410" s="50">
+        <v>4800</v>
+      </c>
+      <c r="P410" s="50" t="s">
+        <v>1506</v>
+      </c>
+      <c r="Q410" s="51" t="s">
+        <v>1514</v>
+      </c>
+      <c r="V410" s="50" t="s">
+        <v>1515</v>
+      </c>
+      <c r="W410" s="50">
+        <v>99999999</v>
+      </c>
+      <c r="X410" s="50">
+        <v>1603152000</v>
+      </c>
+      <c r="Y410" s="50">
+        <v>1603727999</v>
+      </c>
+      <c r="Z410" s="50">
+        <v>48</v>
+      </c>
+      <c r="AG410" s="50">
+        <v>1</v>
+      </c>
+      <c r="AH410" s="50">
+        <v>1</v>
+      </c>
+      <c r="AK410" s="50">
+        <v>1</v>
+      </c>
+      <c r="AL410" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A411" s="50">
+        <v>410</v>
+      </c>
+      <c r="B411" s="50">
+        <v>10327</v>
+      </c>
+      <c r="F411" s="50">
+        <v>1</v>
+      </c>
+      <c r="G411" s="50" t="s">
+        <v>1516</v>
+      </c>
+      <c r="I411" s="50" t="s">
+        <v>1517</v>
+      </c>
+      <c r="K411" s="50">
+        <v>-31</v>
+      </c>
+      <c r="L411" s="50">
+        <v>0</v>
+      </c>
+      <c r="M411" s="50">
+        <v>0</v>
+      </c>
+      <c r="N411" s="50" t="s">
+        <v>1510</v>
+      </c>
+      <c r="O411" s="50">
+        <v>9800</v>
+      </c>
+      <c r="P411" s="50" t="s">
+        <v>1505</v>
+      </c>
+      <c r="Q411" s="51" t="s">
+        <v>1518</v>
+      </c>
+      <c r="V411" s="50" t="s">
+        <v>570</v>
+      </c>
+      <c r="W411" s="50">
+        <v>99999999</v>
+      </c>
+      <c r="X411" s="50">
+        <v>1603152000</v>
+      </c>
+      <c r="Y411" s="50">
+        <v>1603727999</v>
+      </c>
+      <c r="Z411" s="50">
+        <v>48</v>
+      </c>
+      <c r="AG411" s="50">
+        <v>1</v>
+      </c>
+      <c r="AH411" s="50">
+        <v>1</v>
+      </c>
+      <c r="AK411" s="50">
+        <v>1</v>
+      </c>
+      <c r="AL411" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A412" s="50">
+        <v>411</v>
+      </c>
+      <c r="B412" s="50">
+        <v>10328</v>
+      </c>
+      <c r="F412" s="50">
+        <v>1</v>
+      </c>
+      <c r="G412" s="50" t="s">
+        <v>1519</v>
+      </c>
+      <c r="I412" s="50" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K412" s="50">
+        <v>-31</v>
+      </c>
+      <c r="L412" s="50">
+        <v>0</v>
+      </c>
+      <c r="M412" s="50">
+        <v>0</v>
+      </c>
+      <c r="N412" s="50" t="s">
+        <v>1510</v>
+      </c>
+      <c r="O412" s="50">
+        <v>19800</v>
+      </c>
+      <c r="P412" s="50" t="s">
+        <v>1505</v>
+      </c>
+      <c r="Q412" s="51" t="s">
+        <v>1521</v>
+      </c>
+      <c r="V412" s="50" t="s">
+        <v>570</v>
+      </c>
+      <c r="W412" s="50">
+        <v>99999999</v>
+      </c>
+      <c r="X412" s="50">
+        <v>1603152000</v>
+      </c>
+      <c r="Y412" s="50">
+        <v>1603727999</v>
+      </c>
+      <c r="Z412" s="50">
+        <v>48</v>
+      </c>
+      <c r="AG412" s="50">
+        <v>1</v>
+      </c>
+      <c r="AH412" s="50">
+        <v>1</v>
+      </c>
+      <c r="AK412" s="50">
+        <v>1</v>
+      </c>
+      <c r="AL412" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A413" s="50">
+        <v>412</v>
+      </c>
+      <c r="B413" s="50">
+        <v>10329</v>
+      </c>
+      <c r="F413" s="50">
+        <v>1</v>
+      </c>
+      <c r="G413" s="50" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I413" s="50" t="s">
+        <v>1523</v>
+      </c>
+      <c r="K413" s="50">
+        <v>-31</v>
+      </c>
+      <c r="L413" s="50">
+        <v>0</v>
+      </c>
+      <c r="M413" s="50">
+        <v>0</v>
+      </c>
+      <c r="N413" s="50" t="s">
+        <v>1510</v>
+      </c>
+      <c r="O413" s="50">
+        <v>49800</v>
+      </c>
+      <c r="P413" s="50" t="s">
+        <v>1506</v>
+      </c>
+      <c r="Q413" s="51" t="s">
+        <v>1459</v>
+      </c>
+      <c r="V413" s="50" t="s">
+        <v>570</v>
+      </c>
+      <c r="W413" s="50">
+        <v>99999999</v>
+      </c>
+      <c r="X413" s="50">
+        <v>1603152000</v>
+      </c>
+      <c r="Y413" s="50">
+        <v>1603727999</v>
+      </c>
+      <c r="Z413" s="50">
+        <v>48</v>
+      </c>
+      <c r="AG413" s="50">
+        <v>1</v>
+      </c>
+      <c r="AH413" s="50">
+        <v>1</v>
+      </c>
+      <c r="AK413" s="50">
+        <v>1</v>
+      </c>
+      <c r="AL413" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="50">
+        <v>413</v>
+      </c>
+      <c r="B414" s="50">
+        <v>10330</v>
+      </c>
+      <c r="D414" s="50">
+        <v>1</v>
+      </c>
+      <c r="F414" s="50">
+        <v>1</v>
+      </c>
+      <c r="G414" s="50" t="s">
+        <v>1524</v>
+      </c>
+      <c r="K414" s="50">
+        <v>-4</v>
+      </c>
+      <c r="L414" s="50">
+        <v>0</v>
+      </c>
+      <c r="M414" s="50">
+        <v>0</v>
+      </c>
+      <c r="N414" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="O414" s="50">
+        <v>600</v>
+      </c>
+      <c r="P414" s="50" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q414" s="51" t="s">
+        <v>1525</v>
+      </c>
+      <c r="V414" s="50" t="s">
+        <v>1526</v>
+      </c>
+      <c r="W414" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="X414" s="53">
+        <v>0</v>
+      </c>
+      <c r="Y414" s="50">
+        <v>2552233600</v>
+      </c>
+      <c r="AG414" s="50">
+        <v>1</v>
+      </c>
+      <c r="AH414" s="50">
+        <v>1</v>
+      </c>
+      <c r="AK414" s="50">
+        <v>1</v>
+      </c>
+      <c r="AL414" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A415" s="50">
+        <v>414</v>
+      </c>
+      <c r="B415" s="50">
+        <v>10331</v>
+      </c>
+      <c r="F415" s="50">
+        <v>1</v>
+      </c>
+      <c r="G415" s="50" t="s">
+        <v>1527</v>
+      </c>
+      <c r="H415" s="50" t="s">
+        <v>1528</v>
+      </c>
+      <c r="I415" s="50" t="s">
+        <v>1529</v>
+      </c>
+      <c r="K415" s="50">
+        <v>-31</v>
+      </c>
+      <c r="L415" s="50">
+        <v>0</v>
+      </c>
+      <c r="M415" s="50">
+        <v>0</v>
+      </c>
+      <c r="N415" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="O415" s="50">
+        <v>600</v>
+      </c>
+      <c r="P415" s="50" t="s">
+        <v>1303</v>
+      </c>
+      <c r="Q415" s="51" t="s">
+        <v>1530</v>
+      </c>
+      <c r="V415" s="50" t="s">
+        <v>1531</v>
+      </c>
+      <c r="W415" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="X415" s="50">
+        <v>1603756800</v>
+      </c>
+      <c r="Y415" s="50">
+        <v>1604332799</v>
+      </c>
+      <c r="Z415" s="50">
+        <v>49</v>
+      </c>
+      <c r="AG415" s="50">
+        <v>1</v>
+      </c>
+      <c r="AH415" s="50">
+        <v>1</v>
+      </c>
+      <c r="AK415" s="50">
+        <v>1</v>
+      </c>
+      <c r="AL415" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A416" s="50">
+        <v>415</v>
+      </c>
+      <c r="B416" s="50">
+        <v>10332</v>
+      </c>
+      <c r="F416" s="50">
+        <v>1</v>
+      </c>
+      <c r="G416" s="50" t="s">
+        <v>1532</v>
+      </c>
+      <c r="H416" s="50" t="s">
+        <v>1528</v>
+      </c>
+      <c r="I416" s="50" t="s">
+        <v>1529</v>
+      </c>
+      <c r="K416" s="50">
+        <v>-31</v>
+      </c>
+      <c r="L416" s="50">
+        <v>0</v>
+      </c>
+      <c r="M416" s="50">
+        <v>0</v>
+      </c>
+      <c r="N416" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="O416" s="50">
+        <v>1800</v>
+      </c>
+      <c r="P416" s="50" t="s">
+        <v>1533</v>
+      </c>
+      <c r="Q416" s="51" t="s">
+        <v>1530</v>
+      </c>
+      <c r="V416" s="50" t="s">
+        <v>1531</v>
+      </c>
+      <c r="W416" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="X416" s="50">
+        <v>1603756800</v>
+      </c>
+      <c r="Y416" s="50">
+        <v>1604332799</v>
+      </c>
+      <c r="Z416" s="50">
+        <v>49</v>
+      </c>
+      <c r="AG416" s="50">
+        <v>1</v>
+      </c>
+      <c r="AH416" s="50">
+        <v>1</v>
+      </c>
+      <c r="AK416" s="50">
+        <v>1</v>
+      </c>
+      <c r="AL416" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A417" s="50">
+        <v>416</v>
+      </c>
+      <c r="B417" s="50">
+        <v>10333</v>
+      </c>
+      <c r="F417" s="50">
+        <v>1</v>
+      </c>
+      <c r="G417" s="50" t="s">
+        <v>1534</v>
+      </c>
+      <c r="H417" s="50" t="s">
+        <v>1528</v>
+      </c>
+      <c r="I417" s="50" t="s">
+        <v>1195</v>
+      </c>
+      <c r="K417" s="50">
+        <v>-31</v>
+      </c>
+      <c r="L417" s="50">
+        <v>0</v>
+      </c>
+      <c r="M417" s="50">
+        <v>0</v>
+      </c>
+      <c r="N417" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="O417" s="50">
+        <v>4800</v>
+      </c>
+      <c r="P417" s="50" t="s">
+        <v>1200</v>
+      </c>
+      <c r="Q417" s="51" t="s">
+        <v>1530</v>
+      </c>
+      <c r="V417" s="50" t="s">
+        <v>1203</v>
+      </c>
+      <c r="W417" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="X417" s="50">
+        <v>1603756800</v>
+      </c>
+      <c r="Y417" s="50">
+        <v>1604332799</v>
+      </c>
+      <c r="Z417" s="50">
+        <v>49</v>
+      </c>
+      <c r="AG417" s="50">
+        <v>1</v>
+      </c>
+      <c r="AH417" s="50">
+        <v>1</v>
+      </c>
+      <c r="AK417" s="50">
+        <v>1</v>
+      </c>
+      <c r="AL417" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A418" s="50">
+        <v>417</v>
+      </c>
+      <c r="B418" s="50">
+        <v>10334</v>
+      </c>
+      <c r="F418" s="50">
+        <v>1</v>
+      </c>
+      <c r="G418" s="50" t="s">
+        <v>1527</v>
+      </c>
+      <c r="H418" s="50" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I418" s="50" t="s">
+        <v>1195</v>
+      </c>
+      <c r="K418" s="50">
+        <v>-31</v>
+      </c>
+      <c r="L418" s="50">
+        <v>0</v>
+      </c>
+      <c r="M418" s="50">
+        <v>0</v>
+      </c>
+      <c r="N418" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="O418" s="50">
+        <v>9800</v>
+      </c>
+      <c r="P418" s="50" t="s">
+        <v>1202</v>
+      </c>
+      <c r="Q418" s="51" t="s">
+        <v>1530</v>
+      </c>
+      <c r="V418" s="50" t="s">
+        <v>1203</v>
+      </c>
+      <c r="W418" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="X418" s="50">
+        <v>1603756800</v>
+      </c>
+      <c r="Y418" s="50">
+        <v>1604332799</v>
+      </c>
+      <c r="Z418" s="50">
+        <v>50</v>
+      </c>
+      <c r="AG418" s="50">
+        <v>1</v>
+      </c>
+      <c r="AH418" s="50">
+        <v>1</v>
+      </c>
+      <c r="AK418" s="50">
+        <v>1</v>
+      </c>
+      <c r="AL418" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A419" s="50">
+        <v>418</v>
+      </c>
+      <c r="B419" s="50">
+        <v>10335</v>
+      </c>
+      <c r="F419" s="50">
+        <v>1</v>
+      </c>
+      <c r="G419" s="50" t="s">
+        <v>1532</v>
+      </c>
+      <c r="H419" s="50" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I419" s="50" t="s">
+        <v>1195</v>
+      </c>
+      <c r="K419" s="50">
+        <v>-31</v>
+      </c>
+      <c r="L419" s="50">
+        <v>0</v>
+      </c>
+      <c r="M419" s="50">
+        <v>0</v>
+      </c>
+      <c r="N419" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="O419" s="50">
+        <v>19800</v>
+      </c>
+      <c r="P419" s="50" t="s">
+        <v>1204</v>
+      </c>
+      <c r="Q419" s="51" t="s">
+        <v>1196</v>
+      </c>
+      <c r="V419" s="50" t="s">
+        <v>1203</v>
+      </c>
+      <c r="W419" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="X419" s="50">
+        <v>1603756800</v>
+      </c>
+      <c r="Y419" s="50">
+        <v>1604332799</v>
+      </c>
+      <c r="Z419" s="50">
+        <v>50</v>
+      </c>
+      <c r="AG419" s="50">
+        <v>1</v>
+      </c>
+      <c r="AH419" s="50">
+        <v>1</v>
+      </c>
+      <c r="AK419" s="50">
+        <v>1</v>
+      </c>
+      <c r="AL419" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A420" s="50">
+        <v>419</v>
+      </c>
+      <c r="B420" s="50">
+        <v>10336</v>
+      </c>
+      <c r="F420" s="50">
+        <v>1</v>
+      </c>
+      <c r="G420" s="50" t="s">
+        <v>1534</v>
+      </c>
+      <c r="H420" s="50" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I420" s="50" t="s">
+        <v>1195</v>
+      </c>
+      <c r="K420" s="50">
+        <v>-31</v>
+      </c>
+      <c r="L420" s="50">
+        <v>0</v>
+      </c>
+      <c r="M420" s="50">
+        <v>0</v>
+      </c>
+      <c r="N420" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="O420" s="50">
+        <v>49800</v>
+      </c>
+      <c r="P420" s="50" t="s">
+        <v>1205</v>
+      </c>
+      <c r="Q420" s="51" t="s">
+        <v>1530</v>
+      </c>
+      <c r="V420" s="50" t="s">
+        <v>1203</v>
+      </c>
+      <c r="W420" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="X420" s="50">
+        <v>1603756800</v>
+      </c>
+      <c r="Y420" s="50">
+        <v>1604332799</v>
+      </c>
+      <c r="Z420" s="50">
+        <v>50</v>
+      </c>
+      <c r="AG420" s="50">
+        <v>1</v>
+      </c>
+      <c r="AH420" s="50">
+        <v>1</v>
+      </c>
+      <c r="AK420" s="50">
+        <v>1</v>
+      </c>
+      <c r="AL420" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="50">
+        <v>420</v>
+      </c>
+      <c r="B421" s="50">
+        <v>10337</v>
+      </c>
+      <c r="F421" s="50">
+        <v>1</v>
+      </c>
+      <c r="G421" s="50" t="s">
+        <v>1536</v>
+      </c>
+      <c r="I421" s="50" t="s">
+        <v>1537</v>
+      </c>
+      <c r="K421" s="50">
+        <v>-31</v>
+      </c>
+      <c r="L421" s="50">
+        <v>0</v>
+      </c>
+      <c r="M421" s="50">
+        <v>0</v>
+      </c>
+      <c r="N421" s="50" t="s">
+        <v>1538</v>
+      </c>
+      <c r="O421" s="50">
+        <v>1000</v>
+      </c>
+      <c r="P421" s="50" t="s">
+        <v>1539</v>
+      </c>
+      <c r="Q421" s="51" t="s">
+        <v>1540</v>
+      </c>
+      <c r="V421" s="50" t="s">
+        <v>1057</v>
+      </c>
+      <c r="W421" s="50">
+        <v>9999999</v>
+      </c>
+      <c r="X421" s="50">
+        <v>1585609200</v>
+      </c>
+      <c r="Y421" s="50">
+        <v>2552233600</v>
+      </c>
+      <c r="AA421" s="50" t="s">
+        <v>1541</v>
+      </c>
+      <c r="AB421" s="50" t="s">
+        <v>1542</v>
+      </c>
+      <c r="AG421" s="50">
+        <v>1</v>
+      </c>
+      <c r="AH421" s="50">
+        <v>1</v>
+      </c>
+      <c r="AK421" s="50">
+        <v>1</v>
+      </c>
+      <c r="AL421" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="50">
+        <v>421</v>
+      </c>
+      <c r="B422" s="50">
+        <v>10338</v>
+      </c>
+      <c r="F422" s="50">
+        <v>1</v>
+      </c>
+      <c r="G422" s="50" t="s">
+        <v>1543</v>
+      </c>
+      <c r="H422" s="50" t="s">
+        <v>1544</v>
+      </c>
+      <c r="I422" s="50" t="s">
+        <v>1545</v>
+      </c>
+      <c r="K422" s="50">
+        <v>-31</v>
+      </c>
+      <c r="L422" s="50">
+        <v>0</v>
+      </c>
+      <c r="M422" s="50">
+        <v>0</v>
+      </c>
+      <c r="N422" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="O422" s="50">
+        <v>2000</v>
+      </c>
+      <c r="P422" s="50" t="s">
+        <v>1547</v>
+      </c>
+      <c r="Q422" s="51" t="s">
+        <v>1548</v>
+      </c>
+      <c r="V422" s="50" t="s">
+        <v>1526</v>
+      </c>
+      <c r="W422" s="50">
+        <v>99999999</v>
+      </c>
+      <c r="X422" s="50">
+        <v>1603756800</v>
+      </c>
+      <c r="Y422" s="50">
+        <v>0</v>
+      </c>
+      <c r="Z422" s="50">
+        <v>51</v>
+      </c>
+      <c r="AA422" s="50" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AB422" s="50" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AG422" s="50">
+        <v>1</v>
+      </c>
+      <c r="AH422" s="50">
+        <v>1</v>
+      </c>
+      <c r="AK422" s="50">
+        <v>1</v>
+      </c>
+      <c r="AL422" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="50">
+        <v>422</v>
+      </c>
+      <c r="B423" s="50">
+        <v>10339</v>
+      </c>
+      <c r="F423" s="50">
+        <v>1</v>
+      </c>
+      <c r="G423" s="50" t="s">
+        <v>1551</v>
+      </c>
+      <c r="H423" s="50" t="s">
+        <v>1544</v>
+      </c>
+      <c r="I423" s="50" t="s">
+        <v>1552</v>
+      </c>
+      <c r="K423" s="50">
+        <v>-31</v>
+      </c>
+      <c r="L423" s="50">
+        <v>0</v>
+      </c>
+      <c r="M423" s="50">
+        <v>0</v>
+      </c>
+      <c r="N423" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="O423" s="50">
+        <v>5800</v>
+      </c>
+      <c r="P423" s="50" t="s">
+        <v>1546</v>
+      </c>
+      <c r="Q423" s="51" t="s">
+        <v>1553</v>
+      </c>
+      <c r="V423" s="50" t="s">
+        <v>1057</v>
+      </c>
+      <c r="W423" s="50">
+        <v>99999999</v>
+      </c>
+      <c r="X423" s="50">
+        <v>1603756800</v>
+      </c>
+      <c r="Y423" s="50">
+        <v>0</v>
+      </c>
+      <c r="Z423" s="50">
+        <v>51</v>
+      </c>
+      <c r="AA423" s="50" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AB423" s="50" t="s">
+        <v>1554</v>
+      </c>
+      <c r="AG423" s="50">
+        <v>1</v>
+      </c>
+      <c r="AH423" s="50">
+        <v>1</v>
+      </c>
+      <c r="AK423" s="50">
+        <v>1</v>
+      </c>
+      <c r="AL423" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:38" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="50">
+        <v>423</v>
+      </c>
+      <c r="B424" s="50">
+        <v>10340</v>
+      </c>
+      <c r="F424" s="50">
+        <v>1</v>
+      </c>
+      <c r="G424" s="50" t="s">
+        <v>1555</v>
+      </c>
+      <c r="H424" s="50" t="s">
+        <v>1556</v>
+      </c>
+      <c r="I424" s="50" t="s">
+        <v>1557</v>
+      </c>
+      <c r="K424" s="50">
+        <v>-31</v>
+      </c>
+      <c r="L424" s="50">
+        <v>0</v>
+      </c>
+      <c r="M424" s="50">
+        <v>0</v>
+      </c>
+      <c r="N424" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="O424" s="50">
+        <v>12800</v>
+      </c>
+      <c r="P424" s="50" t="s">
+        <v>1546</v>
+      </c>
+      <c r="Q424" s="51" t="s">
+        <v>1558</v>
+      </c>
+      <c r="V424" s="50" t="s">
+        <v>1526</v>
+      </c>
+      <c r="W424" s="50">
+        <v>99999999</v>
+      </c>
+      <c r="X424" s="50">
+        <v>1603756800</v>
+      </c>
+      <c r="Y424" s="50">
+        <v>0</v>
+      </c>
+      <c r="Z424" s="50">
+        <v>51</v>
+      </c>
+      <c r="AA424" s="50" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AB424" s="50" t="s">
+        <v>1559</v>
+      </c>
+      <c r="AG424" s="50">
+        <v>1</v>
+      </c>
+      <c r="AH424" s="50">
+        <v>1</v>
+      </c>
+      <c r="AK424" s="50">
+        <v>1</v>
+      </c>
+      <c r="AL424" s="50">
         <v>1</v>
       </c>
     </row>
@@ -35422,10 +36854,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36057,59 +37489,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="50">
+    <row r="45" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="12">
         <v>44</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="18" t="s">
         <v>1422</v>
       </c>
-      <c r="C45" s="50">
-        <v>1</v>
-      </c>
-      <c r="D45" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="50">
+      <c r="C45" s="12">
+        <v>1</v>
+      </c>
+      <c r="D45" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="12">
         <v>45</v>
       </c>
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="18" t="s">
         <v>1423</v>
       </c>
-      <c r="C46" s="50">
-        <v>1</v>
-      </c>
-      <c r="D46" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="50">
+      <c r="C46" s="12">
+        <v>1</v>
+      </c>
+      <c r="D46" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="12">
         <v>46</v>
       </c>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="18" t="s">
         <v>1424</v>
       </c>
-      <c r="C47" s="50">
-        <v>1</v>
-      </c>
-      <c r="D47" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="55">
+      <c r="C47" s="12">
+        <v>1</v>
+      </c>
+      <c r="D47" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="54">
         <v>47</v>
       </c>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="55" t="s">
         <v>1491</v>
       </c>
-      <c r="C48" s="55">
-        <v>1</v>
-      </c>
-      <c r="D48" s="55">
+      <c r="C48" s="54">
+        <v>1</v>
+      </c>
+      <c r="D48" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="54">
+        <v>48</v>
+      </c>
+      <c r="B49" s="55" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C49" s="54">
+        <v>1</v>
+      </c>
+      <c r="D49" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="54">
+        <v>49</v>
+      </c>
+      <c r="B50" s="55" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C50" s="54">
+        <v>1</v>
+      </c>
+      <c r="D50" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="54">
+        <v>50</v>
+      </c>
+      <c r="B51" s="55" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C51" s="54">
+        <v>1</v>
+      </c>
+      <c r="D51" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="54">
+        <v>51</v>
+      </c>
+      <c r="B52" s="55" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C52" s="54">
+        <v>1</v>
+      </c>
+      <c r="D52" s="54">
         <v>0</v>
       </c>
     </row>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -6799,10 +6799,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>2438888,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>4188888,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7115,6 +7111,10 @@
       </rPr>
       <t>" }</t>
     </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2488888,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9912,11 +9912,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM424"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="T397" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="P54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X421" sqref="X421"/>
+      <selection pane="bottomRight" activeCell="Q68" sqref="Q68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -13786,7 +13786,7 @@
         <v>80</v>
       </c>
       <c r="Q68" s="5" t="s">
-        <v>1496</v>
+        <v>1563</v>
       </c>
       <c r="V68" s="5" t="s">
         <v>528</v>
@@ -13842,7 +13842,7 @@
         <v>80</v>
       </c>
       <c r="Q69" s="5" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="V69" s="5" t="s">
         <v>528</v>
@@ -13898,7 +13898,7 @@
         <v>80</v>
       </c>
       <c r="Q70" s="5" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="V70" s="5" t="s">
         <v>528</v>
@@ -13954,7 +13954,7 @@
         <v>80</v>
       </c>
       <c r="Q71" s="5" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="V71" s="5" t="s">
         <v>528</v>
@@ -17321,7 +17321,7 @@
         <v>80</v>
       </c>
       <c r="Q128" s="5" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="V128" s="5" t="s">
         <v>528</v>
@@ -17377,7 +17377,7 @@
         <v>80</v>
       </c>
       <c r="Q129" s="5" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="V129" s="5" t="s">
         <v>528</v>
@@ -26662,7 +26662,7 @@
         <v>80</v>
       </c>
       <c r="Q273" s="5" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="V273" s="5" t="s">
         <v>528</v>
@@ -35705,10 +35705,10 @@
         <v>1</v>
       </c>
       <c r="G408" s="50" t="s">
+        <v>1502</v>
+      </c>
+      <c r="I408" s="50" t="s">
         <v>1503</v>
-      </c>
-      <c r="I408" s="50" t="s">
-        <v>1504</v>
       </c>
       <c r="K408" s="50">
         <v>-31</v>
@@ -35726,10 +35726,10 @@
         <v>600</v>
       </c>
       <c r="P408" s="50" t="s">
+        <v>1505</v>
+      </c>
+      <c r="Q408" s="51" t="s">
         <v>1506</v>
-      </c>
-      <c r="Q408" s="51" t="s">
-        <v>1507</v>
       </c>
       <c r="V408" s="50" t="s">
         <v>570</v>
@@ -35770,10 +35770,10 @@
         <v>1</v>
       </c>
       <c r="G409" s="50" t="s">
+        <v>1507</v>
+      </c>
+      <c r="I409" s="50" t="s">
         <v>1508</v>
-      </c>
-      <c r="I409" s="50" t="s">
-        <v>1509</v>
       </c>
       <c r="K409" s="50">
         <v>-31</v>
@@ -35785,13 +35785,13 @@
         <v>0</v>
       </c>
       <c r="N409" s="50" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="O409" s="50">
         <v>2000</v>
       </c>
       <c r="P409" s="50" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="Q409" s="51" t="s">
         <v>1449</v>
@@ -35835,10 +35835,10 @@
         <v>1</v>
       </c>
       <c r="G410" s="50" t="s">
+        <v>1511</v>
+      </c>
+      <c r="I410" s="50" t="s">
         <v>1512</v>
-      </c>
-      <c r="I410" s="50" t="s">
-        <v>1513</v>
       </c>
       <c r="K410" s="50">
         <v>-31</v>
@@ -35850,19 +35850,19 @@
         <v>0</v>
       </c>
       <c r="N410" s="50" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="O410" s="50">
         <v>4800</v>
       </c>
       <c r="P410" s="50" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="Q410" s="51" t="s">
+        <v>1513</v>
+      </c>
+      <c r="V410" s="50" t="s">
         <v>1514</v>
-      </c>
-      <c r="V410" s="50" t="s">
-        <v>1515</v>
       </c>
       <c r="W410" s="50">
         <v>99999999</v>
@@ -35900,10 +35900,10 @@
         <v>1</v>
       </c>
       <c r="G411" s="50" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I411" s="50" t="s">
         <v>1516</v>
-      </c>
-      <c r="I411" s="50" t="s">
-        <v>1517</v>
       </c>
       <c r="K411" s="50">
         <v>-31</v>
@@ -35915,16 +35915,16 @@
         <v>0</v>
       </c>
       <c r="N411" s="50" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="O411" s="50">
         <v>9800</v>
       </c>
       <c r="P411" s="50" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="Q411" s="51" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="V411" s="50" t="s">
         <v>570</v>
@@ -35965,10 +35965,10 @@
         <v>1</v>
       </c>
       <c r="G412" s="50" t="s">
+        <v>1518</v>
+      </c>
+      <c r="I412" s="50" t="s">
         <v>1519</v>
-      </c>
-      <c r="I412" s="50" t="s">
-        <v>1520</v>
       </c>
       <c r="K412" s="50">
         <v>-31</v>
@@ -35980,16 +35980,16 @@
         <v>0</v>
       </c>
       <c r="N412" s="50" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="O412" s="50">
         <v>19800</v>
       </c>
       <c r="P412" s="50" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="Q412" s="51" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="V412" s="50" t="s">
         <v>570</v>
@@ -36030,10 +36030,10 @@
         <v>1</v>
       </c>
       <c r="G413" s="50" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I413" s="50" t="s">
         <v>1522</v>
-      </c>
-      <c r="I413" s="50" t="s">
-        <v>1523</v>
       </c>
       <c r="K413" s="50">
         <v>-31</v>
@@ -36045,13 +36045,13 @@
         <v>0</v>
       </c>
       <c r="N413" s="50" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="O413" s="50">
         <v>49800</v>
       </c>
       <c r="P413" s="50" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="Q413" s="51" t="s">
         <v>1459</v>
@@ -36098,7 +36098,7 @@
         <v>1</v>
       </c>
       <c r="G414" s="50" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="K414" s="50">
         <v>-4</v>
@@ -36119,10 +36119,10 @@
         <v>583</v>
       </c>
       <c r="Q414" s="51" t="s">
+        <v>1524</v>
+      </c>
+      <c r="V414" s="50" t="s">
         <v>1525</v>
-      </c>
-      <c r="V414" s="50" t="s">
-        <v>1526</v>
       </c>
       <c r="W414" s="52" t="s">
         <v>111</v>
@@ -36157,13 +36157,13 @@
         <v>1</v>
       </c>
       <c r="G415" s="50" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H415" s="50" t="s">
         <v>1527</v>
       </c>
-      <c r="H415" s="50" t="s">
+      <c r="I415" s="50" t="s">
         <v>1528</v>
-      </c>
-      <c r="I415" s="50" t="s">
-        <v>1529</v>
       </c>
       <c r="K415" s="50">
         <v>-31</v>
@@ -36184,10 +36184,10 @@
         <v>1303</v>
       </c>
       <c r="Q415" s="51" t="s">
+        <v>1529</v>
+      </c>
+      <c r="V415" s="50" t="s">
         <v>1530</v>
-      </c>
-      <c r="V415" s="50" t="s">
-        <v>1531</v>
       </c>
       <c r="W415" s="52" t="s">
         <v>111</v>
@@ -36225,13 +36225,13 @@
         <v>1</v>
       </c>
       <c r="G416" s="50" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H416" s="50" t="s">
+        <v>1527</v>
+      </c>
+      <c r="I416" s="50" t="s">
         <v>1528</v>
-      </c>
-      <c r="I416" s="50" t="s">
-        <v>1529</v>
       </c>
       <c r="K416" s="50">
         <v>-31</v>
@@ -36249,13 +36249,13 @@
         <v>1800</v>
       </c>
       <c r="P416" s="50" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="Q416" s="51" t="s">
+        <v>1529</v>
+      </c>
+      <c r="V416" s="50" t="s">
         <v>1530</v>
-      </c>
-      <c r="V416" s="50" t="s">
-        <v>1531</v>
       </c>
       <c r="W416" s="52" t="s">
         <v>111</v>
@@ -36293,10 +36293,10 @@
         <v>1</v>
       </c>
       <c r="G417" s="50" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H417" s="50" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="I417" s="50" t="s">
         <v>1195</v>
@@ -36320,7 +36320,7 @@
         <v>1200</v>
       </c>
       <c r="Q417" s="51" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="V417" s="50" t="s">
         <v>1203</v>
@@ -36361,10 +36361,10 @@
         <v>1</v>
       </c>
       <c r="G418" s="50" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H418" s="50" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="I418" s="50" t="s">
         <v>1195</v>
@@ -36388,7 +36388,7 @@
         <v>1202</v>
       </c>
       <c r="Q418" s="51" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="V418" s="50" t="s">
         <v>1203</v>
@@ -36429,10 +36429,10 @@
         <v>1</v>
       </c>
       <c r="G419" s="50" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H419" s="50" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="I419" s="50" t="s">
         <v>1195</v>
@@ -36497,10 +36497,10 @@
         <v>1</v>
       </c>
       <c r="G420" s="50" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H420" s="50" t="s">
         <v>1534</v>
-      </c>
-      <c r="H420" s="50" t="s">
-        <v>1535</v>
       </c>
       <c r="I420" s="50" t="s">
         <v>1195</v>
@@ -36524,7 +36524,7 @@
         <v>1205</v>
       </c>
       <c r="Q420" s="51" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="V420" s="50" t="s">
         <v>1203</v>
@@ -36565,10 +36565,10 @@
         <v>1</v>
       </c>
       <c r="G421" s="50" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I421" s="50" t="s">
         <v>1536</v>
-      </c>
-      <c r="I421" s="50" t="s">
-        <v>1537</v>
       </c>
       <c r="K421" s="50">
         <v>-31</v>
@@ -36580,16 +36580,16 @@
         <v>0</v>
       </c>
       <c r="N421" s="50" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="O421" s="50">
         <v>1000</v>
       </c>
       <c r="P421" s="50" t="s">
+        <v>1538</v>
+      </c>
+      <c r="Q421" s="51" t="s">
         <v>1539</v>
-      </c>
-      <c r="Q421" s="51" t="s">
-        <v>1540</v>
       </c>
       <c r="V421" s="50" t="s">
         <v>1057</v>
@@ -36604,10 +36604,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA421" s="50" t="s">
+        <v>1540</v>
+      </c>
+      <c r="AB421" s="50" t="s">
         <v>1541</v>
-      </c>
-      <c r="AB421" s="50" t="s">
-        <v>1542</v>
       </c>
       <c r="AG421" s="50">
         <v>1</v>
@@ -36633,13 +36633,13 @@
         <v>1</v>
       </c>
       <c r="G422" s="50" t="s">
+        <v>1542</v>
+      </c>
+      <c r="H422" s="50" t="s">
         <v>1543</v>
       </c>
-      <c r="H422" s="50" t="s">
+      <c r="I422" s="50" t="s">
         <v>1544</v>
-      </c>
-      <c r="I422" s="50" t="s">
-        <v>1545</v>
       </c>
       <c r="K422" s="50">
         <v>-31</v>
@@ -36657,13 +36657,13 @@
         <v>2000</v>
       </c>
       <c r="P422" s="50" t="s">
+        <v>1546</v>
+      </c>
+      <c r="Q422" s="51" t="s">
         <v>1547</v>
       </c>
-      <c r="Q422" s="51" t="s">
-        <v>1548</v>
-      </c>
       <c r="V422" s="50" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="W422" s="50">
         <v>99999999</v>
@@ -36678,10 +36678,10 @@
         <v>51</v>
       </c>
       <c r="AA422" s="50" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AB422" s="50" t="s">
         <v>1549</v>
-      </c>
-      <c r="AB422" s="50" t="s">
-        <v>1550</v>
       </c>
       <c r="AG422" s="50">
         <v>1</v>
@@ -36707,13 +36707,13 @@
         <v>1</v>
       </c>
       <c r="G423" s="50" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H423" s="50" t="s">
+        <v>1543</v>
+      </c>
+      <c r="I423" s="50" t="s">
         <v>1551</v>
-      </c>
-      <c r="H423" s="50" t="s">
-        <v>1544</v>
-      </c>
-      <c r="I423" s="50" t="s">
-        <v>1552</v>
       </c>
       <c r="K423" s="50">
         <v>-31</v>
@@ -36731,10 +36731,10 @@
         <v>5800</v>
       </c>
       <c r="P423" s="50" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="Q423" s="51" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="V423" s="50" t="s">
         <v>1057</v>
@@ -36752,10 +36752,10 @@
         <v>51</v>
       </c>
       <c r="AA423" s="50" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="AB423" s="50" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="AG423" s="50">
         <v>1</v>
@@ -36781,13 +36781,13 @@
         <v>1</v>
       </c>
       <c r="G424" s="50" t="s">
+        <v>1554</v>
+      </c>
+      <c r="H424" s="50" t="s">
         <v>1555</v>
       </c>
-      <c r="H424" s="50" t="s">
+      <c r="I424" s="50" t="s">
         <v>1556</v>
-      </c>
-      <c r="I424" s="50" t="s">
-        <v>1557</v>
       </c>
       <c r="K424" s="50">
         <v>-31</v>
@@ -36805,13 +36805,13 @@
         <v>12800</v>
       </c>
       <c r="P424" s="50" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="Q424" s="51" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="V424" s="50" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="W424" s="50">
         <v>99999999</v>
@@ -36826,10 +36826,10 @@
         <v>51</v>
       </c>
       <c r="AA424" s="50" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="AB424" s="50" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="AG424" s="50">
         <v>1</v>
@@ -36856,7 +36856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
@@ -37550,7 +37550,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="55" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="C49" s="54">
         <v>1</v>
@@ -37564,7 +37564,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="55" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="C50" s="54">
         <v>1</v>
@@ -37578,7 +37578,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="55" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="C51" s="54">
         <v>1</v>
@@ -37592,7 +37592,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="55" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C52" s="54">
         <v>1</v>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3840,10 +3840,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","shop_gold_sum","prop_3d_fish_lock"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","fish_coin","prop_3d_fish_lock",</t>
   </si>
   <si>
@@ -6488,14 +6484,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"10万金币","5福利券","锁定*1"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,5,1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"100万金币","10万-120万随机金币","话费碎片*20"</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7246,6 +7234,18 @@
   </si>
   <si>
     <t>12800000,15,15,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万金币","5福利券","话费碎片*3"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","shop_gold_sum","prop_web_chip_huafei"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,5,3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8003,16 +8003,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -8111,7 +8111,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -8162,7 +8162,7 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>29</v>
@@ -8226,7 +8226,7 @@
         <v>43</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>44</v>
@@ -8256,14 +8256,14 @@
         <v>1</v>
       </c>
       <c r="T2" s="33" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="U2" s="33" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="V2" s="11"/>
       <c r="W2" s="33" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="X2" s="11" t="s">
         <v>47</v>
@@ -8272,7 +8272,7 @@
         <v>634</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AC2" s="11">
         <v>1</v>
@@ -8308,7 +8308,7 @@
         <v>43</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>44</v>
@@ -8338,14 +8338,14 @@
         <v>2</v>
       </c>
       <c r="T3" s="33" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="U3" s="33" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="V3" s="11"/>
       <c r="W3" s="33" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="X3" s="11" t="s">
         <v>49</v>
@@ -8390,7 +8390,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>44</v>
@@ -8420,14 +8420,14 @@
         <v>3</v>
       </c>
       <c r="T4" s="33" t="s">
+        <v>1110</v>
+      </c>
+      <c r="U4" s="33" t="s">
         <v>1111</v>
-      </c>
-      <c r="U4" s="33" t="s">
-        <v>1112</v>
       </c>
       <c r="V4" s="11"/>
       <c r="W4" s="33" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="X4" s="11" t="s">
         <v>50</v>
@@ -8472,7 +8472,7 @@
         <v>43</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>44</v>
@@ -8502,14 +8502,14 @@
         <v>4</v>
       </c>
       <c r="T5" s="33" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="U5" s="33" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="V5" s="11"/>
       <c r="W5" s="33" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="X5" s="11" t="s">
         <v>51</v>
@@ -8554,7 +8554,7 @@
         <v>43</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>44</v>
@@ -8584,14 +8584,14 @@
         <v>5</v>
       </c>
       <c r="T6" s="33" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="U6" s="33" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="V6" s="11"/>
       <c r="W6" s="33" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="X6" s="11" t="s">
         <v>52</v>
@@ -8636,7 +8636,7 @@
         <v>43</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>44</v>
@@ -8666,14 +8666,14 @@
         <v>7</v>
       </c>
       <c r="T7" s="33" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="U7" s="33" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="V7" s="11"/>
       <c r="W7" s="33" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="X7" s="11" t="s">
         <v>53</v>
@@ -8718,7 +8718,7 @@
         <v>43</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>44</v>
@@ -8748,14 +8748,14 @@
         <v>8</v>
       </c>
       <c r="T8" s="33" t="s">
+        <v>1115</v>
+      </c>
+      <c r="U8" s="33" t="s">
         <v>1116</v>
-      </c>
-      <c r="U8" s="33" t="s">
-        <v>1117</v>
       </c>
       <c r="V8" s="11"/>
       <c r="W8" s="33" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="X8" s="11" t="s">
         <v>54</v>
@@ -8800,7 +8800,7 @@
         <v>43</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>44</v>
@@ -8830,13 +8830,13 @@
         <v>9</v>
       </c>
       <c r="T9" s="33" t="s">
+        <v>1117</v>
+      </c>
+      <c r="U9" s="33" t="s">
+        <v>1117</v>
+      </c>
+      <c r="W9" s="33" t="s">
         <v>1118</v>
-      </c>
-      <c r="U9" s="33" t="s">
-        <v>1118</v>
-      </c>
-      <c r="W9" s="33" t="s">
-        <v>1119</v>
       </c>
       <c r="X9" s="11" t="s">
         <v>55</v>
@@ -8881,7 +8881,7 @@
         <v>43</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>44</v>
@@ -8911,13 +8911,13 @@
         <v>10</v>
       </c>
       <c r="T10" s="33" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="U10" s="33" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="W10" s="33" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="X10" s="11" t="s">
         <v>56</v>
@@ -8964,7 +8964,7 @@
         <v>43</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>44</v>
@@ -9045,7 +9045,7 @@
         <v>43</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>44</v>
@@ -9126,7 +9126,7 @@
         <v>43</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>44</v>
@@ -9207,7 +9207,7 @@
         <v>43</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>44</v>
@@ -9288,7 +9288,7 @@
         <v>43</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>44</v>
@@ -9369,7 +9369,7 @@
         <v>43</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>44</v>
@@ -9399,7 +9399,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="U16" s="2">
         <v>66</v>
@@ -9443,7 +9443,7 @@
         <v>78</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>44</v>
@@ -9473,10 +9473,10 @@
         <v>1</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="W17" s="2" t="s">
         <v>46</v>
@@ -9517,7 +9517,7 @@
         <v>78</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>44</v>
@@ -9547,10 +9547,10 @@
         <v>2</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="W18" s="2" t="s">
         <v>46</v>
@@ -9591,7 +9591,7 @@
         <v>78</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>44</v>
@@ -9621,10 +9621,10 @@
         <v>3</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>46</v>
@@ -9665,7 +9665,7 @@
         <v>78</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>44</v>
@@ -9695,10 +9695,10 @@
         <v>4</v>
       </c>
       <c r="T20" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="U20" s="3" t="s">
         <v>1130</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>1131</v>
       </c>
       <c r="W20" s="2" t="s">
         <v>46</v>
@@ -9739,7 +9739,7 @@
         <v>78</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>44</v>
@@ -9769,10 +9769,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>46</v>
@@ -9813,7 +9813,7 @@
         <v>78</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>44</v>
@@ -9843,10 +9843,10 @@
         <v>6</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="W22" s="2" t="s">
         <v>46</v>
@@ -9887,7 +9887,7 @@
         <v>78</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>44</v>
@@ -9917,10 +9917,10 @@
         <v>7</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="W23" s="2" t="s">
         <v>46</v>
@@ -9959,25 +9959,25 @@
         <v>10189</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H24" s="11">
         <v>19800</v>
       </c>
       <c r="I24" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>1139</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>1489</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>1140</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>1141</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>1142</v>
       </c>
       <c r="N24" s="2">
         <v>1</v>
@@ -9998,16 +9998,16 @@
         <v>6</v>
       </c>
       <c r="T24" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="W24" s="33" t="s">
+        <v>1096</v>
+      </c>
+      <c r="X24" s="3" t="s">
         <v>1143</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>1143</v>
-      </c>
-      <c r="W24" s="33" t="s">
-        <v>1097</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>1144</v>
       </c>
       <c r="Y24" s="11" t="s">
         <v>642</v>
@@ -10059,10 +10059,10 @@
   <dimension ref="A1:AM433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H405" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D427" sqref="D427"/>
+      <selection pane="bottomRight" activeCell="A77" sqref="A77:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -10124,10 +10124,10 @@
         <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>83</v>
@@ -10457,7 +10457,7 @@
         <v>110</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="AG5" s="5">
         <v>1</v>
@@ -11280,7 +11280,7 @@
         <v>600</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>661</v>
@@ -13137,7 +13137,7 @@
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K54" s="5">
         <v>-13</v>
@@ -13158,7 +13158,7 @@
         <v>208</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="V54" s="5" t="s">
         <v>527</v>
@@ -13793,7 +13793,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>960</v>
@@ -13876,7 +13876,7 @@
         <v>78</v>
       </c>
       <c r="Q67" s="5" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="V67" s="5" t="s">
         <v>526</v>
@@ -13932,7 +13932,7 @@
         <v>78</v>
       </c>
       <c r="Q68" s="5" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="V68" s="5" t="s">
         <v>526</v>
@@ -13988,7 +13988,7 @@
         <v>78</v>
       </c>
       <c r="Q69" s="5" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="V69" s="5" t="s">
         <v>526</v>
@@ -14044,7 +14044,7 @@
         <v>78</v>
       </c>
       <c r="Q70" s="5" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="V70" s="5" t="s">
         <v>526</v>
@@ -14100,7 +14100,7 @@
         <v>78</v>
       </c>
       <c r="Q71" s="5" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="V71" s="5" t="s">
         <v>526</v>
@@ -14433,7 +14433,7 @@
         <v>236</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>1426</v>
+        <v>1591</v>
       </c>
       <c r="K77" s="19">
         <v>-20</v>
@@ -14451,10 +14451,10 @@
         <v>100</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>968</v>
+        <v>1592</v>
       </c>
       <c r="Q77" s="39" t="s">
-        <v>1427</v>
+        <v>1593</v>
       </c>
       <c r="V77" s="19" t="s">
         <v>526</v>
@@ -14489,7 +14489,7 @@
         <v>237</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="K78" s="19">
         <v>-20</v>
@@ -14507,10 +14507,10 @@
         <v>1000</v>
       </c>
       <c r="P78" s="19" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="Q78" s="39" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="V78" s="19" t="s">
         <v>526</v>
@@ -14528,10 +14528,10 @@
         <v>78</v>
       </c>
       <c r="AB78" s="19" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="AC78" s="39" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="AG78" s="19">
         <v>1</v>
@@ -14551,7 +14551,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>824</v>
@@ -14705,10 +14705,10 @@
         <v>4800</v>
       </c>
       <c r="P81" s="19" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="Q81" s="39" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="V81" s="19" t="s">
         <v>526</v>
@@ -14723,10 +14723,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA81" s="19" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="AB81" s="19" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="AG81" s="19">
         <v>1</v>
@@ -14823,7 +14823,7 @@
         <v>4800</v>
       </c>
       <c r="P83" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q83" s="5" t="s">
         <v>688</v>
@@ -14879,7 +14879,7 @@
         <v>4800</v>
       </c>
       <c r="P84" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q84" s="5" t="s">
         <v>689</v>
@@ -14935,10 +14935,10 @@
         <v>4800</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="V85" s="5" t="s">
         <v>528</v>
@@ -15041,10 +15041,10 @@
         <v>9600</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="V87" s="5" t="s">
         <v>528</v>
@@ -15321,7 +15321,7 @@
         <v>4800</v>
       </c>
       <c r="P92" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q92" s="5" t="s">
         <v>693</v>
@@ -15601,13 +15601,13 @@
         <v>4800</v>
       </c>
       <c r="P97" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="Q97" s="5" t="s">
         <v>258</v>
       </c>
       <c r="S97" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="T97" s="5" t="s">
         <v>259</v>
@@ -15663,13 +15663,13 @@
         <v>9800</v>
       </c>
       <c r="P98" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="Q98" s="5" t="s">
         <v>261</v>
       </c>
       <c r="S98" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="T98" s="5" t="s">
         <v>262</v>
@@ -15725,13 +15725,13 @@
         <v>19800</v>
       </c>
       <c r="P99" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="Q99" s="5" t="s">
         <v>264</v>
       </c>
       <c r="S99" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="T99" s="5" t="s">
         <v>265</v>
@@ -16411,13 +16411,13 @@
         <v>3800</v>
       </c>
       <c r="P110" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="Q110" s="5" t="s">
         <v>274</v>
       </c>
       <c r="S110" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="T110" s="5" t="s">
         <v>275</v>
@@ -16473,13 +16473,13 @@
         <v>8800</v>
       </c>
       <c r="P111" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="Q111" s="5" t="s">
         <v>277</v>
       </c>
       <c r="S111" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="T111" s="5" t="s">
         <v>278</v>
@@ -16535,13 +16535,13 @@
         <v>18800</v>
       </c>
       <c r="P112" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="Q112" s="5" t="s">
         <v>280</v>
       </c>
       <c r="S112" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="T112" s="5" t="s">
         <v>281</v>
@@ -16709,7 +16709,7 @@
         <v>9800</v>
       </c>
       <c r="P115" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q115" s="5" t="s">
         <v>288</v>
@@ -16765,13 +16765,13 @@
         <v>4800</v>
       </c>
       <c r="P116" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q116" s="5" t="s">
         <v>290</v>
       </c>
       <c r="S116" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="T116" s="5" t="s">
         <v>291</v>
@@ -16827,13 +16827,13 @@
         <v>9800</v>
       </c>
       <c r="P117" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="Q117" s="5" t="s">
         <v>261</v>
       </c>
       <c r="S117" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="T117" s="5" t="s">
         <v>262</v>
@@ -17467,7 +17467,7 @@
         <v>78</v>
       </c>
       <c r="Q128" s="5" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="V128" s="5" t="s">
         <v>526</v>
@@ -17502,7 +17502,7 @@
         <v>1</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="K129" s="5">
         <v>-11</v>
@@ -17523,7 +17523,7 @@
         <v>78</v>
       </c>
       <c r="Q129" s="5" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="V129" s="5" t="s">
         <v>526</v>
@@ -18107,7 +18107,7 @@
         <v>1</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="5" t="s">
@@ -18167,7 +18167,7 @@
         <v>1</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="5" t="s">
@@ -19925,7 +19925,7 @@
         <v>360</v>
       </c>
       <c r="I168" s="19" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="K168" s="19">
         <v>-28</v>
@@ -19943,10 +19943,10 @@
         <v>600</v>
       </c>
       <c r="P168" s="19" t="s">
+        <v>1059</v>
+      </c>
+      <c r="Q168" s="19" t="s">
         <v>1060</v>
-      </c>
-      <c r="Q168" s="19" t="s">
-        <v>1061</v>
       </c>
       <c r="V168" s="19" t="s">
         <v>526</v>
@@ -19987,10 +19987,10 @@
         <v>1</v>
       </c>
       <c r="G169" s="19" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I169" s="19" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="K169" s="19">
         <v>-28</v>
@@ -20008,10 +20008,10 @@
         <v>3000</v>
       </c>
       <c r="P169" s="19" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="Q169" s="19" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="V169" s="19" t="s">
         <v>600</v>
@@ -20052,7 +20052,7 @@
         <v>361</v>
       </c>
       <c r="I170" s="19" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="K170" s="19">
         <v>-28</v>
@@ -20070,10 +20070,10 @@
         <v>19800</v>
       </c>
       <c r="P170" s="19" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="Q170" s="19" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="V170" s="19" t="s">
         <v>600</v>
@@ -20111,13 +20111,13 @@
         <v>1</v>
       </c>
       <c r="G171" s="19" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H171" s="19" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="I171" s="19" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="K171" s="19">
         <v>-28</v>
@@ -20135,7 +20135,7 @@
         <v>100</v>
       </c>
       <c r="P171" s="19" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="Q171" s="19" t="s">
         <v>722</v>
@@ -20179,13 +20179,13 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H172" s="19" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I172" s="19" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="K172" s="19">
         <v>-28</v>
@@ -20203,7 +20203,7 @@
         <v>300</v>
       </c>
       <c r="P172" s="19" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="Q172" s="19" t="s">
         <v>723</v>
@@ -20247,13 +20247,13 @@
         <v>1</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I173" s="19" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="K173" s="19">
         <v>-28</v>
@@ -20271,7 +20271,7 @@
         <v>600</v>
       </c>
       <c r="P173" s="19" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="Q173" s="19" t="s">
         <v>724</v>
@@ -20315,13 +20315,13 @@
         <v>1</v>
       </c>
       <c r="G174" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H174" s="19" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="I174" s="19" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="K174" s="19">
         <v>-28</v>
@@ -20339,7 +20339,7 @@
         <v>600</v>
       </c>
       <c r="P174" s="19" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="Q174" s="19" t="s">
         <v>725</v>
@@ -20383,13 +20383,13 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="I175" s="19" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="K175" s="19">
         <v>-28</v>
@@ -20407,10 +20407,10 @@
         <v>1000</v>
       </c>
       <c r="P175" s="19" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="Q175" s="19" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="V175" s="19" t="s">
         <v>529</v>
@@ -20451,13 +20451,13 @@
         <v>1</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I176" s="19" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="K176" s="19">
         <v>-28</v>
@@ -20475,7 +20475,7 @@
         <v>1800</v>
       </c>
       <c r="P176" s="19" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="Q176" s="19" t="s">
         <v>726</v>
@@ -20519,13 +20519,13 @@
         <v>1</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="I177" s="19" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="K177" s="19">
         <v>-28</v>
@@ -20543,7 +20543,7 @@
         <v>1800</v>
       </c>
       <c r="P177" s="19" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="Q177" s="19" t="s">
         <v>727</v>
@@ -20587,13 +20587,13 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H178" s="19" t="s">
         <v>490</v>
       </c>
       <c r="I178" s="19" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="K178" s="19">
         <v>-28</v>
@@ -20611,7 +20611,7 @@
         <v>4800</v>
       </c>
       <c r="P178" s="19" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="Q178" s="19" t="s">
         <v>728</v>
@@ -20655,13 +20655,13 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I179" s="19" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="K179" s="19">
         <v>-28</v>
@@ -20679,7 +20679,7 @@
         <v>9800</v>
       </c>
       <c r="P179" s="19" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="Q179" s="19" t="s">
         <v>729</v>
@@ -20723,13 +20723,13 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H180" s="19" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="I180" s="19" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="K180" s="19">
         <v>-28</v>
@@ -20747,7 +20747,7 @@
         <v>4800</v>
       </c>
       <c r="P180" s="19" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="Q180" s="19" t="s">
         <v>728</v>
@@ -20791,13 +20791,13 @@
         <v>1</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I181" s="19" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="K181" s="19">
         <v>-28</v>
@@ -20815,7 +20815,7 @@
         <v>9800</v>
       </c>
       <c r="P181" s="19" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="Q181" s="19" t="s">
         <v>730</v>
@@ -20859,13 +20859,13 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="I182" s="19" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="K182" s="19">
         <v>-28</v>
@@ -20883,7 +20883,7 @@
         <v>19800</v>
       </c>
       <c r="P182" s="19" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="Q182" s="19" t="s">
         <v>731</v>
@@ -20927,13 +20927,13 @@
         <v>1</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="I183" s="19" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="K183" s="19">
         <v>-28</v>
@@ -20951,7 +20951,7 @@
         <v>9800</v>
       </c>
       <c r="P183" s="19" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="Q183" s="19" t="s">
         <v>729</v>
@@ -20995,13 +20995,13 @@
         <v>1</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="I184" s="19" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="K184" s="19">
         <v>-28</v>
@@ -21019,7 +21019,7 @@
         <v>19800</v>
       </c>
       <c r="P184" s="19" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="Q184" s="19" t="s">
         <v>732</v>
@@ -21063,13 +21063,13 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I185" s="19" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="K185" s="19">
         <v>-28</v>
@@ -21087,7 +21087,7 @@
         <v>49800</v>
       </c>
       <c r="P185" s="19" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="Q185" s="19" t="s">
         <v>733</v>
@@ -25295,7 +25295,7 @@
       </c>
       <c r="H250" s="42"/>
       <c r="I250" s="19" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="K250" s="19">
         <v>-28</v>
@@ -25316,7 +25316,7 @@
         <v>446</v>
       </c>
       <c r="Q250" s="19" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="V250" s="19" t="s">
         <v>526</v>
@@ -25375,7 +25375,7 @@
         <v>600</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="Q251" s="5" t="s">
         <v>784</v>
@@ -25546,7 +25546,7 @@
         <v>1</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I254" s="5" t="s">
         <v>948</v>
@@ -25741,7 +25741,7 @@
         <v>0</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I257" s="5" t="s">
         <v>883</v>
@@ -26264,7 +26264,7 @@
         <v>0</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="I265" s="5" t="s">
         <v>889</v>
@@ -26524,7 +26524,7 @@
         <v>0</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="I269" s="5" t="s">
         <v>891</v>
@@ -26808,7 +26808,7 @@
         <v>78</v>
       </c>
       <c r="Q273" s="5" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="V273" s="5" t="s">
         <v>526</v>
@@ -27046,7 +27046,7 @@
         <v>0</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="I277" s="5" t="s">
         <v>895</v>
@@ -27111,7 +27111,7 @@
         <v>0</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="I278" s="5" t="s">
         <v>896</v>
@@ -27176,7 +27176,7 @@
         <v>0</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="I279" s="5" t="s">
         <v>897</v>
@@ -27241,7 +27241,7 @@
         <v>0</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="I280" s="5" t="s">
         <v>894</v>
@@ -29730,10 +29730,10 @@
         <v>1</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="I320" s="5" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="K320" s="5">
         <v>-25</v>
@@ -29786,7 +29786,7 @@
         <v>1</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="I321" s="5" t="s">
         <v>921</v>
@@ -29848,7 +29848,7 @@
         <v>1</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="I322" s="5" t="s">
         <v>625</v>
@@ -29913,11 +29913,11 @@
         <v>1</v>
       </c>
       <c r="G323" s="19" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H323" s="19"/>
       <c r="I323" s="19" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="J323" s="19"/>
       <c r="K323" s="19">
@@ -29936,10 +29936,10 @@
         <v>600</v>
       </c>
       <c r="P323" s="19" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="Q323" s="19" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="R323" s="19"/>
       <c r="S323" s="19"/>
@@ -29996,11 +29996,11 @@
         <v>1</v>
       </c>
       <c r="G324" s="19" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H324" s="19"/>
       <c r="I324" s="19" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="J324" s="19"/>
       <c r="K324" s="19">
@@ -30019,7 +30019,7 @@
         <v>4800</v>
       </c>
       <c r="P324" s="19" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="Q324" s="19" t="s">
         <v>728</v>
@@ -30079,11 +30079,11 @@
         <v>1</v>
       </c>
       <c r="G325" s="19" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="J325" s="19"/>
       <c r="K325" s="19">
@@ -30102,7 +30102,7 @@
         <v>9800</v>
       </c>
       <c r="P325" s="19" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="Q325" s="19" t="s">
         <v>729</v>
@@ -30159,10 +30159,10 @@
         <v>1</v>
       </c>
       <c r="G326" s="40" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="I326" s="40" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="K326" s="40">
         <v>-4</v>
@@ -30174,13 +30174,13 @@
         <v>0</v>
       </c>
       <c r="N326" s="40" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O326" s="40">
         <v>100</v>
       </c>
       <c r="V326" s="40" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="W326" s="40">
         <v>9999999</v>
@@ -30192,13 +30192,13 @@
         <v>2552233600</v>
       </c>
       <c r="AA326" s="40" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="AB326" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="AC326" s="41" t="s">
         <v>1013</v>
-      </c>
-      <c r="AC326" s="41" t="s">
-        <v>1014</v>
       </c>
       <c r="AG326" s="40">
         <v>1</v>
@@ -30218,10 +30218,10 @@
         <v>1</v>
       </c>
       <c r="G327" s="43" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I327" s="43" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="K327" s="43">
         <v>-31</v>
@@ -30233,19 +30233,19 @@
         <v>0</v>
       </c>
       <c r="N327" s="43" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O327" s="43">
         <v>9900</v>
       </c>
       <c r="P327" s="43" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q327" s="43" t="s">
+        <v>1054</v>
+      </c>
+      <c r="V327" s="43" t="s">
         <v>1019</v>
-      </c>
-      <c r="Q327" s="43" t="s">
-        <v>1055</v>
-      </c>
-      <c r="V327" s="43" t="s">
-        <v>1020</v>
       </c>
       <c r="W327" s="43">
         <v>99999999</v>
@@ -30283,11 +30283,11 @@
         <v>1</v>
       </c>
       <c r="G328" s="43" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H328" s="43"/>
       <c r="I328" s="43" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="J328" s="43"/>
       <c r="K328" s="43">
@@ -30300,23 +30300,23 @@
         <v>0</v>
       </c>
       <c r="N328" s="43" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O328" s="43">
         <v>600</v>
       </c>
       <c r="P328" s="43" t="s">
+        <v>1041</v>
+      </c>
+      <c r="Q328" s="43" t="s">
         <v>1042</v>
-      </c>
-      <c r="Q328" s="43" t="s">
-        <v>1043</v>
       </c>
       <c r="R328" s="43"/>
       <c r="S328" s="43"/>
       <c r="T328" s="43"/>
       <c r="U328" s="43"/>
       <c r="V328" s="43" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="W328" s="43">
         <v>99999999</v>
@@ -30365,11 +30365,11 @@
         <v>1</v>
       </c>
       <c r="G329" s="43" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H329" s="43"/>
       <c r="I329" s="43" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="J329" s="43"/>
       <c r="K329" s="43">
@@ -30382,23 +30382,23 @@
         <v>0</v>
       </c>
       <c r="N329" s="43" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O329" s="43">
         <v>2800</v>
       </c>
       <c r="P329" s="43" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Q329" s="43" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="R329" s="43"/>
       <c r="S329" s="43"/>
       <c r="T329" s="43"/>
       <c r="U329" s="43"/>
       <c r="V329" s="43" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="W329" s="43">
         <v>99999999</v>
@@ -30447,11 +30447,11 @@
         <v>1</v>
       </c>
       <c r="G330" s="43" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H330" s="43"/>
       <c r="I330" s="43" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="J330" s="43"/>
       <c r="K330" s="43">
@@ -30464,23 +30464,23 @@
         <v>0</v>
       </c>
       <c r="N330" s="43" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O330" s="43">
         <v>4800</v>
       </c>
       <c r="P330" s="43" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Q330" s="43" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="R330" s="43"/>
       <c r="S330" s="43"/>
       <c r="T330" s="43"/>
       <c r="U330" s="43"/>
       <c r="V330" s="43" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="W330" s="43">
         <v>99999999</v>
@@ -30529,11 +30529,11 @@
         <v>1</v>
       </c>
       <c r="G331" s="43" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H331" s="43"/>
       <c r="I331" s="43" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="J331" s="43"/>
       <c r="K331" s="43">
@@ -30546,23 +30546,23 @@
         <v>0</v>
       </c>
       <c r="N331" s="43" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O331" s="43">
         <v>9900</v>
       </c>
       <c r="P331" s="43" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Q331" s="43" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="R331" s="43"/>
       <c r="S331" s="43"/>
       <c r="T331" s="43"/>
       <c r="U331" s="43"/>
       <c r="V331" s="43" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="W331" s="43">
         <v>99999999</v>
@@ -30611,11 +30611,11 @@
         <v>1</v>
       </c>
       <c r="G332" s="43" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H332" s="43"/>
       <c r="I332" s="43" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="J332" s="43"/>
       <c r="K332" s="43">
@@ -30628,23 +30628,23 @@
         <v>0</v>
       </c>
       <c r="N332" s="43" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O332" s="43">
         <v>19800</v>
       </c>
       <c r="P332" s="43" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Q332" s="43" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="R332" s="43"/>
       <c r="S332" s="43"/>
       <c r="T332" s="43"/>
       <c r="U332" s="43"/>
       <c r="V332" s="43" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="W332" s="43">
         <v>99999999</v>
@@ -30693,11 +30693,11 @@
         <v>1</v>
       </c>
       <c r="G333" s="43" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H333" s="43"/>
       <c r="I333" s="43" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="J333" s="43"/>
       <c r="K333" s="43">
@@ -30710,23 +30710,23 @@
         <v>0</v>
       </c>
       <c r="N333" s="43" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O333" s="43">
         <v>29800</v>
       </c>
       <c r="P333" s="43" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Q333" s="43" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="R333" s="43"/>
       <c r="S333" s="43"/>
       <c r="T333" s="43"/>
       <c r="U333" s="43"/>
       <c r="V333" s="43" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="W333" s="43">
         <v>99999999</v>
@@ -30775,11 +30775,11 @@
         <v>1</v>
       </c>
       <c r="G334" s="43" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H334" s="43"/>
       <c r="I334" s="43" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="J334" s="43"/>
       <c r="K334" s="43">
@@ -30792,23 +30792,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="43" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O334" s="43">
         <v>39800</v>
       </c>
       <c r="P334" s="43" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Q334" s="43" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="R334" s="43"/>
       <c r="S334" s="43"/>
       <c r="T334" s="43"/>
       <c r="U334" s="43"/>
       <c r="V334" s="43" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="W334" s="43">
         <v>99999999</v>
@@ -30857,11 +30857,11 @@
         <v>1</v>
       </c>
       <c r="G335" s="43" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H335" s="43"/>
       <c r="I335" s="43" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="J335" s="43"/>
       <c r="K335" s="43">
@@ -30874,23 +30874,23 @@
         <v>0</v>
       </c>
       <c r="N335" s="43" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O335" s="43">
         <v>49800</v>
       </c>
       <c r="P335" s="43" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Q335" s="43" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="R335" s="43"/>
       <c r="S335" s="43"/>
       <c r="T335" s="43"/>
       <c r="U335" s="43"/>
       <c r="V335" s="43" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="W335" s="43">
         <v>99999999</v>
@@ -30939,11 +30939,11 @@
         <v>1</v>
       </c>
       <c r="G336" s="43" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H336" s="43"/>
       <c r="I336" s="43" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="J336" s="43"/>
       <c r="K336" s="43">
@@ -30956,23 +30956,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="43" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O336" s="43">
         <v>59800</v>
       </c>
       <c r="P336" s="43" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Q336" s="43" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="R336" s="43"/>
       <c r="S336" s="43"/>
       <c r="T336" s="43"/>
       <c r="U336" s="43"/>
       <c r="V336" s="43" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="W336" s="43">
         <v>99999999</v>
@@ -31021,11 +31021,11 @@
         <v>1</v>
       </c>
       <c r="G337" s="43" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H337" s="43"/>
       <c r="I337" s="43" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="J337" s="43"/>
       <c r="K337" s="43">
@@ -31038,23 +31038,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="43" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O337" s="43">
         <v>69800</v>
       </c>
       <c r="P337" s="43" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Q337" s="43" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="R337" s="43"/>
       <c r="S337" s="43"/>
       <c r="T337" s="43"/>
       <c r="U337" s="43"/>
       <c r="V337" s="43" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="W337" s="43">
         <v>99999999</v>
@@ -31100,10 +31100,10 @@
         <v>1</v>
       </c>
       <c r="G338" s="19" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I338" s="19" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="K338" s="19">
         <v>-31</v>
@@ -31121,10 +31121,10 @@
         <v>19800</v>
       </c>
       <c r="P338" s="19" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="Q338" s="19" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="V338" s="19" t="s">
         <v>526</v>
@@ -31139,10 +31139,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA338" s="19" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="AB338" s="19" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AG338" s="19">
         <v>1</v>
@@ -31175,7 +31175,7 @@
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="J339" s="19"/>
       <c r="K339" s="19">
@@ -31194,10 +31194,10 @@
         <v>30000</v>
       </c>
       <c r="P339" s="19" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="Q339" s="19" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="R339" s="19"/>
       <c r="S339" s="19"/>
@@ -31217,10 +31217,10 @@
       </c>
       <c r="Z339" s="19"/>
       <c r="AA339" s="19" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="AB339" s="19" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="AC339" s="19"/>
       <c r="AD339" s="19"/>
@@ -31255,11 +31255,11 @@
         <v>1</v>
       </c>
       <c r="G340" s="19" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="J340" s="19"/>
       <c r="K340" s="19">
@@ -31278,10 +31278,10 @@
         <v>78000</v>
       </c>
       <c r="P340" s="19" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="Q340" s="19" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="R340" s="19"/>
       <c r="S340" s="19"/>
@@ -31301,10 +31301,10 @@
       </c>
       <c r="Z340" s="19"/>
       <c r="AA340" s="19" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="AB340" s="19" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AC340" s="19"/>
       <c r="AD340" s="19"/>
@@ -31336,11 +31336,11 @@
         <v>1</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H341" s="6"/>
       <c r="I341" s="5" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="K341" s="5">
         <v>-31</v>
@@ -31352,19 +31352,19 @@
         <v>0</v>
       </c>
       <c r="N341" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O341" s="5">
         <v>600</v>
       </c>
       <c r="P341" s="5" t="s">
+        <v>1264</v>
+      </c>
+      <c r="Q341" s="10" t="s">
         <v>1265</v>
       </c>
-      <c r="Q341" s="10" t="s">
+      <c r="V341" s="5" t="s">
         <v>1266</v>
-      </c>
-      <c r="V341" s="5" t="s">
-        <v>1267</v>
       </c>
       <c r="W341" s="5">
         <v>9999999</v>
@@ -31379,10 +31379,10 @@
         <v>26</v>
       </c>
       <c r="AA341" s="5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AB341" s="5" t="s">
         <v>1268</v>
-      </c>
-      <c r="AB341" s="5" t="s">
-        <v>1269</v>
       </c>
       <c r="AG341" s="5">
         <v>1</v>
@@ -31408,10 +31408,10 @@
         <v>1</v>
       </c>
       <c r="G342" s="6" t="s">
+        <v>1269</v>
+      </c>
+      <c r="I342" s="5" t="s">
         <v>1270</v>
-      </c>
-      <c r="I342" s="5" t="s">
-        <v>1271</v>
       </c>
       <c r="K342" s="5">
         <v>-31</v>
@@ -31423,19 +31423,19 @@
         <v>0</v>
       </c>
       <c r="N342" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O342" s="5">
         <v>600</v>
       </c>
       <c r="P342" s="5" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Q342" s="10" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="V342" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W342" s="5">
         <v>9999999</v>
@@ -31450,10 +31450,10 @@
         <v>27</v>
       </c>
       <c r="AA342" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="AB342" s="5" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="AG342" s="5">
         <v>1</v>
@@ -31479,10 +31479,10 @@
         <v>1</v>
       </c>
       <c r="G343" s="6" t="s">
+        <v>1272</v>
+      </c>
+      <c r="I343" s="5" t="s">
         <v>1273</v>
-      </c>
-      <c r="I343" s="5" t="s">
-        <v>1274</v>
       </c>
       <c r="K343" s="5">
         <v>-31</v>
@@ -31494,19 +31494,19 @@
         <v>0</v>
       </c>
       <c r="N343" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O343" s="5">
         <v>600</v>
       </c>
       <c r="P343" s="5" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Q343" s="10" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="V343" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W343" s="5">
         <v>9999999</v>
@@ -31521,10 +31521,10 @@
         <v>28</v>
       </c>
       <c r="AA343" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="AB343" s="5" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="AG343" s="5">
         <v>1</v>
@@ -31550,10 +31550,10 @@
         <v>1</v>
       </c>
       <c r="G344" s="6" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I344" s="5" t="s">
         <v>1276</v>
-      </c>
-      <c r="I344" s="5" t="s">
-        <v>1277</v>
       </c>
       <c r="K344" s="5">
         <v>-31</v>
@@ -31565,19 +31565,19 @@
         <v>0</v>
       </c>
       <c r="N344" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O344" s="5">
         <v>4800</v>
       </c>
       <c r="P344" s="5" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Q344" s="10" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="V344" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W344" s="5">
         <v>9999999</v>
@@ -31592,10 +31592,10 @@
         <v>29</v>
       </c>
       <c r="AA344" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="AB344" s="5" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="AG344" s="5">
         <v>1</v>
@@ -31621,10 +31621,10 @@
         <v>1</v>
       </c>
       <c r="G345" s="6" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="I345" s="5" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K345" s="5">
         <v>-31</v>
@@ -31636,19 +31636,19 @@
         <v>0</v>
       </c>
       <c r="N345" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O345" s="5">
         <v>4800</v>
       </c>
       <c r="P345" s="5" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Q345" s="10" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="V345" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W345" s="5">
         <v>9999999</v>
@@ -31663,10 +31663,10 @@
         <v>30</v>
       </c>
       <c r="AA345" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="AB345" s="5" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="AG345" s="5">
         <v>1</v>
@@ -31692,10 +31692,10 @@
         <v>1</v>
       </c>
       <c r="G346" s="6" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I346" s="5" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="K346" s="5">
         <v>-31</v>
@@ -31707,19 +31707,19 @@
         <v>0</v>
       </c>
       <c r="N346" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O346" s="5">
         <v>4800</v>
       </c>
       <c r="P346" s="5" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Q346" s="10" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="V346" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W346" s="5">
         <v>9999999</v>
@@ -31734,10 +31734,10 @@
         <v>31</v>
       </c>
       <c r="AA346" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="AB346" s="5" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="AG346" s="5">
         <v>1</v>
@@ -31763,10 +31763,10 @@
         <v>1</v>
       </c>
       <c r="G347" s="6" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I347" s="5" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="K347" s="5">
         <v>-31</v>
@@ -31778,19 +31778,19 @@
         <v>0</v>
       </c>
       <c r="N347" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O347" s="5">
         <v>9800</v>
       </c>
       <c r="P347" s="5" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Q347" s="10" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="V347" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W347" s="5">
         <v>9999999</v>
@@ -31805,10 +31805,10 @@
         <v>32</v>
       </c>
       <c r="AA347" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="AB347" s="5" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AG347" s="5">
         <v>1</v>
@@ -31834,10 +31834,10 @@
         <v>1</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I348" s="5" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="K348" s="5">
         <v>-31</v>
@@ -31849,19 +31849,19 @@
         <v>0</v>
       </c>
       <c r="N348" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O348" s="5">
         <v>9800</v>
       </c>
       <c r="P348" s="5" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Q348" s="10" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="V348" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W348" s="5">
         <v>9999999</v>
@@ -31876,10 +31876,10 @@
         <v>33</v>
       </c>
       <c r="AA348" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="AB348" s="5" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AG348" s="5">
         <v>1</v>
@@ -31905,10 +31905,10 @@
         <v>1</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="I349" s="5" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="K349" s="5">
         <v>-31</v>
@@ -31926,13 +31926,13 @@
         <v>9800</v>
       </c>
       <c r="P349" s="5" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Q349" s="10" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="V349" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W349" s="5">
         <v>9999999</v>
@@ -31947,10 +31947,10 @@
         <v>34</v>
       </c>
       <c r="AA349" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="AB349" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AG349" s="5">
         <v>1</v>
@@ -31976,10 +31976,10 @@
         <v>1</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I350" s="5" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="K350" s="5">
         <v>-31</v>
@@ -31997,13 +31997,13 @@
         <v>19800</v>
       </c>
       <c r="P350" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="Q350" s="10" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="V350" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W350" s="5">
         <v>9999999</v>
@@ -32021,7 +32021,7 @@
         <v>446</v>
       </c>
       <c r="AB350" s="5" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="AG350" s="5">
         <v>1</v>
@@ -32047,10 +32047,10 @@
         <v>1</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I351" s="5" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="K351" s="5">
         <v>-31</v>
@@ -32062,19 +32062,19 @@
         <v>0</v>
       </c>
       <c r="N351" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O351" s="5">
         <v>19800</v>
       </c>
       <c r="P351" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="Q351" s="10" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="V351" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W351" s="5">
         <v>9999999</v>
@@ -32092,7 +32092,7 @@
         <v>446</v>
       </c>
       <c r="AB351" s="5" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="AG351" s="5">
         <v>1</v>
@@ -32118,10 +32118,10 @@
         <v>1</v>
       </c>
       <c r="G352" s="6" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I352" s="5" t="s">
         <v>1186</v>
-      </c>
-      <c r="I352" s="5" t="s">
-        <v>1187</v>
       </c>
       <c r="K352" s="5">
         <v>-31</v>
@@ -32139,10 +32139,10 @@
         <v>19800</v>
       </c>
       <c r="P352" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="Q352" s="10" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="V352" s="5" t="s">
         <v>568</v>
@@ -32160,10 +32160,10 @@
         <v>37</v>
       </c>
       <c r="AA352" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="AB352" s="5" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="AG352" s="5">
         <v>1</v>
@@ -32189,13 +32189,13 @@
         <v>0</v>
       </c>
       <c r="G353" s="5" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H353" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I353" s="5" t="s">
         <v>1190</v>
-      </c>
-      <c r="I353" s="5" t="s">
-        <v>1191</v>
       </c>
       <c r="K353" s="5">
         <v>-31</v>
@@ -32213,13 +32213,13 @@
         <v>600</v>
       </c>
       <c r="P353" s="5" t="s">
+        <v>1298</v>
+      </c>
+      <c r="Q353" s="10" t="s">
         <v>1299</v>
       </c>
-      <c r="Q353" s="10" t="s">
+      <c r="V353" s="5" t="s">
         <v>1300</v>
-      </c>
-      <c r="V353" s="5" t="s">
-        <v>1301</v>
       </c>
       <c r="W353" s="5">
         <v>9999999</v>
@@ -32257,13 +32257,13 @@
         <v>0</v>
       </c>
       <c r="G354" s="5" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H354" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I354" s="5" t="s">
         <v>1302</v>
-      </c>
-      <c r="H354" s="5" t="s">
-        <v>1190</v>
-      </c>
-      <c r="I354" s="5" t="s">
-        <v>1303</v>
       </c>
       <c r="K354" s="5">
         <v>-31</v>
@@ -32275,19 +32275,19 @@
         <v>0</v>
       </c>
       <c r="N354" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O354" s="5">
         <v>1200</v>
       </c>
       <c r="P354" s="5" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="Q354" s="10" t="s">
+        <v>1299</v>
+      </c>
+      <c r="V354" s="5" t="s">
         <v>1300</v>
-      </c>
-      <c r="V354" s="5" t="s">
-        <v>1301</v>
       </c>
       <c r="W354" s="5">
         <v>9999999</v>
@@ -32325,13 +32325,13 @@
         <v>0</v>
       </c>
       <c r="G355" s="5" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H355" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="H355" s="5" t="s">
-        <v>1305</v>
-      </c>
       <c r="I355" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="K355" s="5">
         <v>-31</v>
@@ -32343,16 +32343,16 @@
         <v>0</v>
       </c>
       <c r="N355" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O355" s="5">
         <v>1800</v>
       </c>
       <c r="P355" s="5" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="Q355" s="10" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="V355" s="5" t="s">
         <v>597</v>
@@ -32393,13 +32393,13 @@
         <v>0</v>
       </c>
       <c r="G356" s="5" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="H356" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I356" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="K356" s="5">
         <v>-31</v>
@@ -32417,13 +32417,13 @@
         <v>4800</v>
       </c>
       <c r="P356" s="5" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="Q356" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V356" s="5" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="W356" s="5">
         <v>9999999</v>
@@ -32461,13 +32461,13 @@
         <v>0</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H357" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="K357" s="5">
         <v>-31</v>
@@ -32479,19 +32479,19 @@
         <v>0</v>
       </c>
       <c r="N357" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O357" s="5">
         <v>9800</v>
       </c>
       <c r="P357" s="5" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="Q357" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V357" s="5" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="W357" s="5">
         <v>9999999</v>
@@ -32529,13 +32529,13 @@
         <v>0</v>
       </c>
       <c r="G358" s="5" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H358" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I358" s="5" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="K358" s="5">
         <v>-31</v>
@@ -32547,13 +32547,13 @@
         <v>0</v>
       </c>
       <c r="N358" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O358" s="5">
         <v>19800</v>
       </c>
       <c r="P358" s="5" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="Q358" s="10" t="s">
         <v>272</v>
@@ -32597,13 +32597,13 @@
         <v>0</v>
       </c>
       <c r="G359" s="5" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="H359" s="5" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I359" s="5" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="K359" s="5">
         <v>-31</v>
@@ -32615,19 +32615,19 @@
         <v>0</v>
       </c>
       <c r="N359" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O359" s="5">
         <v>9800</v>
       </c>
       <c r="P359" s="5" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="Q359" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V359" s="5" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="W359" s="5">
         <v>9999999</v>
@@ -32665,13 +32665,13 @@
         <v>0</v>
       </c>
       <c r="G360" s="5" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H360" s="5" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I360" s="5" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="K360" s="5">
         <v>-31</v>
@@ -32683,19 +32683,19 @@
         <v>0</v>
       </c>
       <c r="N360" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O360" s="5">
         <v>19800</v>
       </c>
       <c r="P360" s="5" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="Q360" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V360" s="5" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="W360" s="5">
         <v>9999999</v>
@@ -32733,13 +32733,13 @@
         <v>0</v>
       </c>
       <c r="G361" s="5" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H361" s="5" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="K361" s="5">
         <v>-31</v>
@@ -32751,19 +32751,19 @@
         <v>0</v>
       </c>
       <c r="N361" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O361" s="5">
         <v>49800</v>
       </c>
       <c r="P361" s="5" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="Q361" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V361" s="5" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="W361" s="5">
         <v>9999999</v>
@@ -32801,13 +32801,13 @@
         <v>0</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H362" s="5" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="I362" s="5" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="K362" s="5">
         <v>-31</v>
@@ -32825,10 +32825,10 @@
         <v>1800</v>
       </c>
       <c r="P362" s="5" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="Q362" s="10" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="V362" s="5" t="s">
         <v>568</v>
@@ -32846,10 +32846,10 @@
         <v>38</v>
       </c>
       <c r="AA362" s="5" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="AB362" s="5" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="AG362" s="5">
         <v>1</v>
@@ -32875,13 +32875,13 @@
         <v>0</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H363" s="5" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="K363" s="5">
         <v>-31</v>
@@ -32893,19 +32893,19 @@
         <v>0</v>
       </c>
       <c r="N363" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O363" s="5">
         <v>19800</v>
       </c>
       <c r="P363" s="5" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="Q363" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V363" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W363" s="5">
         <v>9999999</v>
@@ -32920,10 +32920,10 @@
         <v>39</v>
       </c>
       <c r="AA363" s="5" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="AB363" s="5" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="AG363" s="5">
         <v>1</v>
@@ -32949,13 +32949,13 @@
         <v>0</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H364" s="5" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I364" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="K364" s="5">
         <v>-31</v>
@@ -32967,19 +32967,19 @@
         <v>0</v>
       </c>
       <c r="N364" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O364" s="5">
         <v>49800</v>
       </c>
       <c r="P364" s="5" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="Q364" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V364" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W364" s="5">
         <v>9999999</v>
@@ -32994,10 +32994,10 @@
         <v>40</v>
       </c>
       <c r="AA364" s="5" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="AB364" s="5" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="AG364" s="5">
         <v>1</v>
@@ -33023,10 +33023,10 @@
         <v>1</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I365" s="5" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K365" s="5">
         <v>-31</v>
@@ -33038,16 +33038,16 @@
         <v>0</v>
       </c>
       <c r="N365" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O365" s="5">
         <v>131400</v>
       </c>
       <c r="P365" s="5" t="s">
+        <v>1309</v>
+      </c>
+      <c r="Q365" s="10" t="s">
         <v>1310</v>
-      </c>
-      <c r="Q365" s="10" t="s">
-        <v>1311</v>
       </c>
       <c r="V365" s="5" t="s">
         <v>568</v>
@@ -33088,10 +33088,10 @@
         <v>1</v>
       </c>
       <c r="G366" s="5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="I366" s="5" t="s">
         <v>1312</v>
-      </c>
-      <c r="I366" s="5" t="s">
-        <v>1313</v>
       </c>
       <c r="K366" s="5">
         <v>-31</v>
@@ -33103,16 +33103,16 @@
         <v>0</v>
       </c>
       <c r="N366" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O366" s="5">
         <v>52000</v>
       </c>
       <c r="P366" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="Q366" s="10" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="V366" s="5" t="s">
         <v>568</v>
@@ -33153,10 +33153,10 @@
         <v>1</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="I367" s="5" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="K367" s="5">
         <v>-31</v>
@@ -33168,19 +33168,19 @@
         <v>0</v>
       </c>
       <c r="N367" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O367" s="5">
         <v>25800</v>
       </c>
       <c r="P367" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="Q367" s="10" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="V367" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W367" s="5">
         <v>9999999</v>
@@ -33218,10 +33218,10 @@
         <v>1</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I368" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="K368" s="5">
         <v>-31</v>
@@ -33233,16 +33233,16 @@
         <v>0</v>
       </c>
       <c r="N368" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O368" s="5">
         <v>14700</v>
       </c>
       <c r="P368" s="5" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="Q368" s="10" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="V368" s="5" t="s">
         <v>568</v>
@@ -33283,10 +33283,10 @@
         <v>1</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I369" s="5" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="K369" s="5">
         <v>-31</v>
@@ -33304,13 +33304,13 @@
         <v>5200</v>
       </c>
       <c r="P369" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="Q369" s="10" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="V369" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W369" s="5">
         <v>9999999</v>
@@ -33348,10 +33348,10 @@
         <v>1</v>
       </c>
       <c r="G370" s="5" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I370" s="5" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="K370" s="5">
         <v>-31</v>
@@ -33369,7 +33369,7 @@
         <v>1800</v>
       </c>
       <c r="P370" s="5" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="Q370" s="10" t="s">
         <v>745</v>
@@ -33410,10 +33410,10 @@
         <v>1</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I371" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="K371" s="5">
         <v>-31</v>
@@ -33431,10 +33431,10 @@
         <v>4800</v>
       </c>
       <c r="P371" s="5" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="Q371" s="10" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="V371" s="5" t="s">
         <v>598</v>
@@ -33472,10 +33472,10 @@
         <v>1</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="I372" s="5" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="K372" s="5">
         <v>-31</v>
@@ -33493,7 +33493,7 @@
         <v>9800</v>
       </c>
       <c r="P372" s="5" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="Q372" s="10" t="s">
         <v>749</v>
@@ -33534,10 +33534,10 @@
         <v>1</v>
       </c>
       <c r="G373" s="5" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I373" s="5" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="K373" s="5">
         <v>-31</v>
@@ -33555,13 +33555,13 @@
         <v>19800</v>
       </c>
       <c r="P373" s="5" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="Q373" s="10" t="s">
         <v>750</v>
       </c>
       <c r="V373" s="5" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="W373" s="5">
         <v>9999999</v>
@@ -33596,13 +33596,13 @@
         <v>1</v>
       </c>
       <c r="G374" s="5" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H374" s="5" t="s">
         <v>1220</v>
       </c>
-      <c r="H374" s="5" t="s">
-        <v>1221</v>
-      </c>
       <c r="I374" s="5" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="K374" s="5">
         <v>-31</v>
@@ -33614,7 +33614,7 @@
         <v>0</v>
       </c>
       <c r="N374" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O374" s="5">
         <v>600</v>
@@ -33623,7 +33623,7 @@
         <v>525</v>
       </c>
       <c r="Q374" s="10" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="V374" s="5" t="s">
         <v>568</v>
@@ -33664,13 +33664,13 @@
         <v>1</v>
       </c>
       <c r="G375" s="5" t="s">
+        <v>1342</v>
+      </c>
+      <c r="H375" s="5" t="s">
         <v>1343</v>
       </c>
-      <c r="H375" s="5" t="s">
+      <c r="I375" s="5" t="s">
         <v>1344</v>
-      </c>
-      <c r="I375" s="5" t="s">
-        <v>1345</v>
       </c>
       <c r="K375" s="5">
         <v>-31</v>
@@ -33682,19 +33682,19 @@
         <v>0</v>
       </c>
       <c r="N375" s="5" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="O375" s="5">
         <v>300</v>
       </c>
       <c r="P375" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="Q375" s="10" t="s">
         <v>1347</v>
       </c>
-      <c r="Q375" s="10" t="s">
+      <c r="V375" s="5" t="s">
         <v>1348</v>
-      </c>
-      <c r="V375" s="5" t="s">
-        <v>1349</v>
       </c>
       <c r="W375" s="5">
         <v>9999999</v>
@@ -33732,13 +33732,13 @@
         <v>1</v>
       </c>
       <c r="G376" s="5" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H376" s="5" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I376" s="5" t="s">
         <v>1353</v>
-      </c>
-      <c r="I376" s="5" t="s">
-        <v>1354</v>
       </c>
       <c r="K376" s="5">
         <v>-31</v>
@@ -33750,19 +33750,19 @@
         <v>0</v>
       </c>
       <c r="N376" s="5" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="O376" s="5">
         <v>0</v>
       </c>
       <c r="P376" s="5" t="s">
+        <v>1355</v>
+      </c>
+      <c r="Q376" s="10" t="s">
         <v>1356</v>
       </c>
-      <c r="Q376" s="10" t="s">
+      <c r="V376" s="5" t="s">
         <v>1357</v>
-      </c>
-      <c r="V376" s="5" t="s">
-        <v>1358</v>
       </c>
       <c r="W376" s="5">
         <v>9999999</v>
@@ -33800,13 +33800,13 @@
         <v>1</v>
       </c>
       <c r="G377" s="5" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H377" s="5" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="I377" s="5" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="K377" s="5">
         <v>-31</v>
@@ -33818,19 +33818,19 @@
         <v>0</v>
       </c>
       <c r="N377" s="5" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="O377" s="5">
         <v>300</v>
       </c>
       <c r="P377" s="5" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="Q377" s="10" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="V377" s="5" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="W377" s="5">
         <v>9999999</v>
@@ -33868,13 +33868,13 @@
         <v>1</v>
       </c>
       <c r="G378" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="H378" s="5" t="s">
         <v>1351</v>
       </c>
-      <c r="H378" s="5" t="s">
-        <v>1352</v>
-      </c>
       <c r="I378" s="5" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="K378" s="5">
         <v>-31</v>
@@ -33892,13 +33892,13 @@
         <v>600</v>
       </c>
       <c r="P378" s="5" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="Q378" s="10" t="s">
+        <v>1360</v>
+      </c>
+      <c r="V378" s="5" t="s">
         <v>1361</v>
-      </c>
-      <c r="V378" s="5" t="s">
-        <v>1362</v>
       </c>
       <c r="W378" s="5">
         <v>9999999</v>
@@ -33936,10 +33936,10 @@
         <v>1</v>
       </c>
       <c r="G379" s="5" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H379" s="5" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="I379" s="5" t="s">
         <v>896</v>
@@ -33954,19 +33954,19 @@
         <v>0</v>
       </c>
       <c r="N379" s="5" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="O379" s="5">
         <v>1800</v>
       </c>
       <c r="P379" s="5" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="Q379" s="10" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="V379" s="5" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="W379" s="5">
         <v>9999999</v>
@@ -34004,10 +34004,10 @@
         <v>1</v>
       </c>
       <c r="G380" s="5" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H380" s="5" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="I380" s="5" t="s">
         <v>897</v>
@@ -34022,19 +34022,19 @@
         <v>0</v>
       </c>
       <c r="N380" s="5" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="O380" s="5">
         <v>4800</v>
       </c>
       <c r="P380" s="5" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="Q380" s="10" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="V380" s="5" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="W380" s="5">
         <v>9999999</v>
@@ -34072,13 +34072,13 @@
         <v>1</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H381" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="I381" s="5" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="K381" s="5">
         <v>-31</v>
@@ -34096,10 +34096,10 @@
         <v>0</v>
       </c>
       <c r="P381" s="5" t="s">
+        <v>1355</v>
+      </c>
+      <c r="Q381" s="10" t="s">
         <v>1356</v>
-      </c>
-      <c r="Q381" s="10" t="s">
-        <v>1357</v>
       </c>
       <c r="V381" s="5" t="s">
         <v>570</v>
@@ -34140,13 +34140,13 @@
         <v>1</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H382" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="K382" s="5">
         <v>-31</v>
@@ -34164,13 +34164,13 @@
         <v>1800</v>
       </c>
       <c r="P382" s="5" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="Q382" s="10" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="V382" s="5" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="W382" s="5">
         <v>9999999</v>
@@ -34208,13 +34208,13 @@
         <v>1</v>
       </c>
       <c r="G383" s="5" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H383" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="I383" s="5" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="K383" s="5">
         <v>-31</v>
@@ -34232,10 +34232,10 @@
         <v>4800</v>
       </c>
       <c r="P383" s="5" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="Q383" s="10" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="V383" s="5" t="s">
         <v>536</v>
@@ -34276,13 +34276,13 @@
         <v>1</v>
       </c>
       <c r="G384" s="5" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H384" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="I384" s="5" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="K384" s="5">
         <v>-31</v>
@@ -34294,13 +34294,13 @@
         <v>0</v>
       </c>
       <c r="N384" s="5" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="O384" s="5">
         <v>9800</v>
       </c>
       <c r="P384" s="5" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="Q384" s="10" t="s">
         <v>749</v>
@@ -34344,13 +34344,13 @@
         <v>1</v>
       </c>
       <c r="G385" s="5" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H385" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="K385" s="5">
         <v>-31</v>
@@ -34362,19 +34362,19 @@
         <v>0</v>
       </c>
       <c r="N385" s="5" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="O385" s="5">
         <v>19800</v>
       </c>
       <c r="P385" s="5" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="Q385" s="10" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="V385" s="5" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="W385" s="5">
         <v>9999999</v>
@@ -34412,13 +34412,13 @@
         <v>1</v>
       </c>
       <c r="G386" s="47" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H386" s="47" t="s">
         <v>1376</v>
       </c>
-      <c r="H386" s="47" t="s">
+      <c r="I386" s="47" t="s">
         <v>1377</v>
-      </c>
-      <c r="I386" s="47" t="s">
-        <v>1378</v>
       </c>
       <c r="K386" s="47">
         <v>-31</v>
@@ -34436,10 +34436,10 @@
         <v>1800</v>
       </c>
       <c r="P386" s="47" t="s">
+        <v>1378</v>
+      </c>
+      <c r="Q386" s="48" t="s">
         <v>1379</v>
-      </c>
-      <c r="Q386" s="48" t="s">
-        <v>1380</v>
       </c>
       <c r="V386" s="47" t="s">
         <v>536</v>
@@ -34480,13 +34480,13 @@
         <v>1</v>
       </c>
       <c r="G387" s="47" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H387" s="47" t="s">
         <v>1381</v>
       </c>
-      <c r="H387" s="47" t="s">
+      <c r="I387" s="47" t="s">
         <v>1382</v>
-      </c>
-      <c r="I387" s="47" t="s">
-        <v>1383</v>
       </c>
       <c r="K387" s="47">
         <v>-31</v>
@@ -34498,16 +34498,16 @@
         <v>0</v>
       </c>
       <c r="N387" s="47" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="O387" s="47">
         <v>3000</v>
       </c>
       <c r="P387" s="47" t="s">
+        <v>1384</v>
+      </c>
+      <c r="Q387" s="48" t="s">
         <v>1385</v>
-      </c>
-      <c r="Q387" s="48" t="s">
-        <v>1386</v>
       </c>
       <c r="V387" s="47" t="s">
         <v>536</v>
@@ -34548,13 +34548,13 @@
         <v>1</v>
       </c>
       <c r="G388" s="47" t="s">
+        <v>1386</v>
+      </c>
+      <c r="H388" s="47" t="s">
         <v>1387</v>
       </c>
-      <c r="H388" s="47" t="s">
+      <c r="I388" s="47" t="s">
         <v>1388</v>
-      </c>
-      <c r="I388" s="47" t="s">
-        <v>1389</v>
       </c>
       <c r="K388" s="47">
         <v>-31</v>
@@ -34566,19 +34566,19 @@
         <v>0</v>
       </c>
       <c r="N388" s="47" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="O388" s="47">
         <v>4800</v>
       </c>
       <c r="P388" s="47" t="s">
+        <v>1390</v>
+      </c>
+      <c r="Q388" s="48" t="s">
         <v>1391</v>
       </c>
-      <c r="Q388" s="48" t="s">
+      <c r="V388" s="47" t="s">
         <v>1392</v>
-      </c>
-      <c r="V388" s="47" t="s">
-        <v>1393</v>
       </c>
       <c r="W388" s="47">
         <v>9999999</v>
@@ -34616,13 +34616,13 @@
         <v>1</v>
       </c>
       <c r="G389" s="47" t="s">
+        <v>1393</v>
+      </c>
+      <c r="H389" s="47" t="s">
         <v>1394</v>
       </c>
-      <c r="H389" s="47" t="s">
+      <c r="I389" s="47" t="s">
         <v>1395</v>
-      </c>
-      <c r="I389" s="47" t="s">
-        <v>1396</v>
       </c>
       <c r="K389" s="47">
         <v>-31</v>
@@ -34634,16 +34634,16 @@
         <v>0</v>
       </c>
       <c r="N389" s="47" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="O389" s="47">
         <v>4800</v>
       </c>
       <c r="P389" s="47" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="Q389" s="48" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="V389" s="47" t="s">
         <v>536</v>
@@ -34684,13 +34684,13 @@
         <v>1</v>
       </c>
       <c r="G390" s="47" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="H390" s="47" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I390" s="47" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="K390" s="47">
         <v>-31</v>
@@ -34708,10 +34708,10 @@
         <v>9800</v>
       </c>
       <c r="P390" s="47" t="s">
+        <v>1399</v>
+      </c>
+      <c r="Q390" s="48" t="s">
         <v>1400</v>
-      </c>
-      <c r="Q390" s="48" t="s">
-        <v>1401</v>
       </c>
       <c r="V390" s="47" t="s">
         <v>536</v>
@@ -34752,13 +34752,13 @@
         <v>1</v>
       </c>
       <c r="G391" s="5" t="s">
+        <v>1401</v>
+      </c>
+      <c r="H391" s="5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I391" s="5" t="s">
         <v>1402</v>
-      </c>
-      <c r="H391" s="5" t="s">
-        <v>1395</v>
-      </c>
-      <c r="I391" s="5" t="s">
-        <v>1403</v>
       </c>
       <c r="K391" s="5">
         <v>-31</v>
@@ -34776,10 +34776,10 @@
         <v>19800</v>
       </c>
       <c r="P391" s="5" t="s">
+        <v>1403</v>
+      </c>
+      <c r="Q391" s="10" t="s">
         <v>1404</v>
-      </c>
-      <c r="Q391" s="10" t="s">
-        <v>1405</v>
       </c>
       <c r="V391" s="5" t="s">
         <v>536</v>
@@ -34820,13 +34820,13 @@
         <v>1</v>
       </c>
       <c r="G392" s="5" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H392" s="5" t="s">
+        <v>1405</v>
+      </c>
+      <c r="I392" s="5" t="s">
         <v>1406</v>
-      </c>
-      <c r="I392" s="5" t="s">
-        <v>1407</v>
       </c>
       <c r="K392" s="5">
         <v>-31</v>
@@ -34844,10 +34844,10 @@
         <v>9800</v>
       </c>
       <c r="P392" s="5" t="s">
+        <v>1407</v>
+      </c>
+      <c r="Q392" s="10" t="s">
         <v>1408</v>
-      </c>
-      <c r="Q392" s="10" t="s">
-        <v>1409</v>
       </c>
       <c r="V392" s="5" t="s">
         <v>536</v>
@@ -34888,13 +34888,13 @@
         <v>1</v>
       </c>
       <c r="G393" s="5" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="H393" s="5" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I393" s="5" t="s">
         <v>1410</v>
-      </c>
-      <c r="I393" s="5" t="s">
-        <v>1411</v>
       </c>
       <c r="K393" s="5">
         <v>-31</v>
@@ -34912,10 +34912,10 @@
         <v>19800</v>
       </c>
       <c r="P393" s="5" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="Q393" s="10" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="V393" s="5" t="s">
         <v>536</v>
@@ -34956,13 +34956,13 @@
         <v>1</v>
       </c>
       <c r="G394" s="5" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="H394" s="5" t="s">
+        <v>1412</v>
+      </c>
+      <c r="I394" s="5" t="s">
         <v>1413</v>
-      </c>
-      <c r="I394" s="5" t="s">
-        <v>1414</v>
       </c>
       <c r="K394" s="5">
         <v>-31</v>
@@ -34974,16 +34974,16 @@
         <v>0</v>
       </c>
       <c r="N394" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="O394" s="5">
         <v>49800</v>
       </c>
       <c r="P394" s="5" t="s">
+        <v>1415</v>
+      </c>
+      <c r="Q394" s="10" t="s">
         <v>1416</v>
-      </c>
-      <c r="Q394" s="10" t="s">
-        <v>1417</v>
       </c>
       <c r="V394" s="5" t="s">
         <v>536</v>
@@ -35024,10 +35024,10 @@
         <v>1</v>
       </c>
       <c r="G395" s="5" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="I395" s="5" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="K395" s="5">
         <v>-31</v>
@@ -35039,16 +35039,16 @@
         <v>0</v>
       </c>
       <c r="N395" s="5" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="O395" s="5">
         <v>600</v>
       </c>
       <c r="P395" s="5" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="Q395" s="10" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="V395" s="5" t="s">
         <v>529</v>
@@ -35086,10 +35086,10 @@
         <v>1</v>
       </c>
       <c r="G396" s="5" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="I396" s="5" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="K396" s="5">
         <v>-31</v>
@@ -35101,16 +35101,16 @@
         <v>0</v>
       </c>
       <c r="N396" s="5" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="O396" s="5">
         <v>2000</v>
       </c>
       <c r="P396" s="5" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="Q396" s="10" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="V396" s="5" t="s">
         <v>529</v>
@@ -35151,7 +35151,7 @@
         <v>289</v>
       </c>
       <c r="I397" s="5" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="K397" s="5">
         <v>-31</v>
@@ -35169,10 +35169,10 @@
         <v>4800</v>
       </c>
       <c r="P397" s="5" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="Q397" s="10" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="V397" s="5" t="s">
         <v>529</v>
@@ -35213,7 +35213,7 @@
         <v>292</v>
       </c>
       <c r="I398" s="5" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="K398" s="5">
         <v>-31</v>
@@ -35231,10 +35231,10 @@
         <v>9800</v>
       </c>
       <c r="P398" s="5" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="Q398" s="10" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="V398" s="5" t="s">
         <v>529</v>
@@ -35272,10 +35272,10 @@
         <v>1</v>
       </c>
       <c r="G399" s="5" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="I399" s="5" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="K399" s="5">
         <v>-31</v>
@@ -35287,16 +35287,16 @@
         <v>0</v>
       </c>
       <c r="N399" s="5" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="O399" s="5">
         <v>19800</v>
       </c>
       <c r="P399" s="5" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="Q399" s="10" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="V399" s="5" t="s">
         <v>529</v>
@@ -35334,10 +35334,10 @@
         <v>1</v>
       </c>
       <c r="G400" s="5" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="I400" s="5" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="K400" s="5">
         <v>-31</v>
@@ -35349,16 +35349,16 @@
         <v>0</v>
       </c>
       <c r="N400" s="5" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="O400" s="5">
         <v>49800</v>
       </c>
       <c r="P400" s="5" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="Q400" s="10" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="V400" s="5" t="s">
         <v>529</v>
@@ -35396,10 +35396,10 @@
         <v>1</v>
       </c>
       <c r="G401" s="5" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="I401" s="5" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="K401" s="5">
         <v>-31</v>
@@ -35411,19 +35411,19 @@
         <v>0</v>
       </c>
       <c r="N401" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O401" s="5">
         <v>1800</v>
       </c>
       <c r="P401" s="5" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="Q401" s="5" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="V401" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W401" s="5">
         <v>99999999</v>
@@ -35461,10 +35461,10 @@
         <v>1</v>
       </c>
       <c r="G402" s="5" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="I402" s="5" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="K402" s="5">
         <v>-31</v>
@@ -35476,19 +35476,19 @@
         <v>0</v>
       </c>
       <c r="N402" s="5" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="O402" s="5">
         <v>4800</v>
       </c>
       <c r="P402" s="5" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="Q402" s="5" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="V402" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W402" s="5">
         <v>99999999</v>
@@ -35526,10 +35526,10 @@
         <v>1</v>
       </c>
       <c r="G403" s="5" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="I403" s="5" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="K403" s="5">
         <v>-31</v>
@@ -35541,19 +35541,19 @@
         <v>0</v>
       </c>
       <c r="N403" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O403" s="5">
         <v>9800</v>
       </c>
       <c r="P403" s="5" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="Q403" s="5" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="V403" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W403" s="5">
         <v>99999999</v>
@@ -35591,10 +35591,10 @@
         <v>1</v>
       </c>
       <c r="G404" s="5" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="I404" s="5" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="K404" s="5">
         <v>-31</v>
@@ -35606,19 +35606,19 @@
         <v>0</v>
       </c>
       <c r="N404" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O404" s="5">
         <v>19800</v>
       </c>
       <c r="P404" s="5" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="Q404" s="5" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="V404" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W404" s="5">
         <v>99999999</v>
@@ -35656,10 +35656,10 @@
         <v>1</v>
       </c>
       <c r="G405" s="5" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="I405" s="5" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="K405" s="5">
         <v>-31</v>
@@ -35671,19 +35671,19 @@
         <v>0</v>
       </c>
       <c r="N405" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O405" s="5">
         <v>29800</v>
       </c>
       <c r="P405" s="5" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="Q405" s="5" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="V405" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W405" s="5">
         <v>99999999</v>
@@ -35721,10 +35721,10 @@
         <v>1</v>
       </c>
       <c r="G406" s="5" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="I406" s="5" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="K406" s="5">
         <v>-31</v>
@@ -35736,19 +35736,19 @@
         <v>0</v>
       </c>
       <c r="N406" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O406" s="5">
         <v>49800</v>
       </c>
       <c r="P406" s="5" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="Q406" s="5" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="V406" s="5" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="W406" s="5">
         <v>99999999</v>
@@ -35786,10 +35786,10 @@
         <v>1</v>
       </c>
       <c r="G407" s="5" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="I407" s="5" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="K407" s="5">
         <v>-31</v>
@@ -35801,19 +35801,19 @@
         <v>0</v>
       </c>
       <c r="N407" s="5" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="O407" s="5">
         <v>99800</v>
       </c>
       <c r="P407" s="5" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="Q407" s="5" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="V407" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W407" s="5">
         <v>99999999</v>
@@ -35851,10 +35851,10 @@
         <v>1</v>
       </c>
       <c r="G408" s="51" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="I408" s="51" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="K408" s="51">
         <v>-31</v>
@@ -35866,16 +35866,16 @@
         <v>0</v>
       </c>
       <c r="N408" s="51" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="O408" s="51">
         <v>600</v>
       </c>
       <c r="P408" s="51" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="Q408" s="52" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="V408" s="51" t="s">
         <v>568</v>
@@ -35916,10 +35916,10 @@
         <v>1</v>
       </c>
       <c r="G409" s="51" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="I409" s="51" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="K409" s="51">
         <v>-31</v>
@@ -35931,19 +35931,19 @@
         <v>0</v>
       </c>
       <c r="N409" s="51" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="O409" s="51">
         <v>2000</v>
       </c>
       <c r="P409" s="51" t="s">
+        <v>1508</v>
+      </c>
+      <c r="Q409" s="52" t="s">
         <v>1511</v>
       </c>
-      <c r="Q409" s="52" t="s">
-        <v>1514</v>
-      </c>
       <c r="V409" s="51" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="W409" s="51">
         <v>99999999</v>
@@ -35981,10 +35981,10 @@
         <v>1</v>
       </c>
       <c r="G410" s="51" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="I410" s="51" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="K410" s="51">
         <v>-31</v>
@@ -35996,16 +35996,16 @@
         <v>0</v>
       </c>
       <c r="N410" s="51" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="O410" s="51">
         <v>4800</v>
       </c>
       <c r="P410" s="51" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="Q410" s="52" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="V410" s="51" t="s">
         <v>568</v>
@@ -36046,10 +36046,10 @@
         <v>1</v>
       </c>
       <c r="G411" s="51" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="I411" s="51" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="K411" s="51">
         <v>-31</v>
@@ -36067,13 +36067,13 @@
         <v>9800</v>
       </c>
       <c r="P411" s="51" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="Q411" s="52" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="V411" s="51" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="W411" s="51">
         <v>99999999</v>
@@ -36111,10 +36111,10 @@
         <v>1</v>
       </c>
       <c r="G412" s="51" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="I412" s="51" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="K412" s="51">
         <v>-31</v>
@@ -36132,10 +36132,10 @@
         <v>19800</v>
       </c>
       <c r="P412" s="51" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="Q412" s="52" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="V412" s="51" t="s">
         <v>568</v>
@@ -36176,10 +36176,10 @@
         <v>1</v>
       </c>
       <c r="G413" s="51" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="I413" s="51" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="K413" s="51">
         <v>-31</v>
@@ -36197,13 +36197,13 @@
         <v>49800</v>
       </c>
       <c r="P413" s="51" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="Q413" s="52" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="V413" s="51" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="W413" s="51">
         <v>99999999</v>
@@ -36244,7 +36244,7 @@
         <v>1</v>
       </c>
       <c r="G414" s="5" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="K414" s="5">
         <v>-4</v>
@@ -36265,7 +36265,7 @@
         <v>78</v>
       </c>
       <c r="Q414" s="10" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="V414" s="5" t="s">
         <v>526</v>
@@ -36297,13 +36297,13 @@
         <v>1</v>
       </c>
       <c r="G415" s="6" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="H415" s="6" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="I415" s="6" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="K415" s="6">
         <v>-31</v>
@@ -36321,10 +36321,10 @@
         <v>600</v>
       </c>
       <c r="P415" s="5" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="Q415" s="54" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="V415" s="6" t="s">
         <v>536</v>
@@ -36365,13 +36365,13 @@
         <v>1</v>
       </c>
       <c r="G416" s="6" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="H416" s="6" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="I416" s="6" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="K416" s="6">
         <v>-31</v>
@@ -36389,13 +36389,13 @@
         <v>1800</v>
       </c>
       <c r="P416" s="5" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="Q416" s="54" t="s">
+        <v>1539</v>
+      </c>
+      <c r="V416" s="6" t="s">
         <v>1542</v>
-      </c>
-      <c r="V416" s="6" t="s">
-        <v>1545</v>
       </c>
       <c r="W416" s="14" t="s">
         <v>109</v>
@@ -36433,13 +36433,13 @@
         <v>1</v>
       </c>
       <c r="G417" s="6" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="H417" s="6" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="I417" s="6" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="K417" s="6">
         <v>-31</v>
@@ -36457,13 +36457,13 @@
         <v>4800</v>
       </c>
       <c r="P417" s="5" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="Q417" s="54" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="V417" s="6" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="W417" s="14" t="s">
         <v>109</v>
@@ -36501,13 +36501,13 @@
         <v>1</v>
       </c>
       <c r="G418" s="6" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="H418" s="6" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="I418" s="6" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="K418" s="6">
         <v>-31</v>
@@ -36525,13 +36525,13 @@
         <v>9800</v>
       </c>
       <c r="P418" s="5" t="s">
+        <v>1197</v>
+      </c>
+      <c r="Q418" s="54" t="s">
+        <v>1191</v>
+      </c>
+      <c r="V418" s="6" t="s">
         <v>1198</v>
-      </c>
-      <c r="Q418" s="54" t="s">
-        <v>1192</v>
-      </c>
-      <c r="V418" s="6" t="s">
-        <v>1199</v>
       </c>
       <c r="W418" s="14" t="s">
         <v>109</v>
@@ -36569,13 +36569,13 @@
         <v>1</v>
       </c>
       <c r="G419" s="6" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="H419" s="6" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="I419" s="6" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="K419" s="6">
         <v>-31</v>
@@ -36593,13 +36593,13 @@
         <v>19800</v>
       </c>
       <c r="P419" s="5" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="Q419" s="54" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="V419" s="6" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="W419" s="14" t="s">
         <v>109</v>
@@ -36637,13 +36637,13 @@
         <v>1</v>
       </c>
       <c r="G420" s="6" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="H420" s="6" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="I420" s="6" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="K420" s="6">
         <v>-31</v>
@@ -36661,13 +36661,13 @@
         <v>49800</v>
       </c>
       <c r="P420" s="5" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="Q420" s="54" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="V420" s="6" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="W420" s="14" t="s">
         <v>109</v>
@@ -36705,10 +36705,10 @@
         <v>1</v>
       </c>
       <c r="G421" s="19" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="I421" s="19" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="K421" s="19">
         <v>-31</v>
@@ -36720,19 +36720,19 @@
         <v>0</v>
       </c>
       <c r="N421" s="19" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="O421" s="19">
         <v>1000</v>
       </c>
       <c r="P421" s="19" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="Q421" s="39" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="V421" s="19" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="W421" s="19">
         <v>9999999</v>
@@ -36744,10 +36744,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA421" s="19" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="AB421" s="19" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="AG421" s="19">
         <v>1</v>
@@ -36773,13 +36773,13 @@
         <v>1</v>
       </c>
       <c r="G422" s="55" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="H422" s="55" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="I422" s="55" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="K422" s="55">
         <v>-31</v>
@@ -36797,13 +36797,13 @@
         <v>2000</v>
       </c>
       <c r="P422" s="55" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="Q422" s="56" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="V422" s="55" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="W422" s="55">
         <v>99999999</v>
@@ -36841,13 +36841,13 @@
         <v>1</v>
       </c>
       <c r="G423" s="55" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="H423" s="55" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="I423" s="55" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="K423" s="55">
         <v>-31</v>
@@ -36865,13 +36865,13 @@
         <v>5800</v>
       </c>
       <c r="P423" s="55" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="Q423" s="56" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="V423" s="55" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="W423" s="55">
         <v>99999999</v>
@@ -36909,13 +36909,13 @@
         <v>1</v>
       </c>
       <c r="G424" s="55" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="H424" s="55" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="I424" s="55" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="K424" s="55">
         <v>-31</v>
@@ -36933,13 +36933,13 @@
         <v>12800</v>
       </c>
       <c r="P424" s="55" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="Q424" s="56" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="V424" s="55" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="W424" s="55">
         <v>99999999</v>
@@ -36977,10 +36977,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="6" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="I425" s="6" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="K425" s="6">
         <v>-31</v>
@@ -36998,10 +36998,10 @@
         <v>49800</v>
       </c>
       <c r="P425" s="6" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="Q425" s="54" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="V425" s="6" t="s">
         <v>570</v>
@@ -37033,10 +37033,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="I426" s="6" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="K426" s="6">
         <v>-31</v>
@@ -37054,13 +37054,13 @@
         <v>19800</v>
       </c>
       <c r="P426" s="6" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="Q426" s="54" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="V426" s="6" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="W426" s="6">
         <v>9999999</v>
@@ -37089,10 +37089,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="6" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="I427" s="6" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="K427" s="6">
         <v>-31</v>
@@ -37110,13 +37110,13 @@
         <v>9800</v>
       </c>
       <c r="P427" s="6" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="Q427" s="54" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="V427" s="6" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="W427" s="6">
         <v>9999999</v>
@@ -37145,10 +37145,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="I428" s="6" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="K428" s="6">
         <v>-31</v>
@@ -37166,13 +37166,13 @@
         <v>9800</v>
       </c>
       <c r="P428" s="6" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="Q428" s="54" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="V428" s="6" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="W428" s="6">
         <v>9999999</v>
@@ -37201,10 +37201,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="6" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="I429" s="6" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="K429" s="6">
         <v>-31</v>
@@ -37222,13 +37222,13 @@
         <v>4800</v>
       </c>
       <c r="P429" s="6" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="Q429" s="54" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="V429" s="6" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="W429" s="6">
         <v>9999999</v>
@@ -37257,13 +37257,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="19" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="H430" s="19" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="I430" s="19" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="K430" s="19">
         <v>-28</v>
@@ -37281,13 +37281,13 @@
         <v>100</v>
       </c>
       <c r="P430" s="19" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="Q430" s="39" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="V430" s="19" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="W430" s="19">
         <v>9999999</v>
@@ -37325,13 +37325,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="19" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="H431" s="19" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="I431" s="19" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="K431" s="19">
         <v>-28</v>
@@ -37349,10 +37349,10 @@
         <v>300</v>
       </c>
       <c r="P431" s="19" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="Q431" s="39" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="V431" s="19" t="s">
         <v>529</v>
@@ -37393,13 +37393,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="19" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="H432" s="19" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="I432" s="19" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="K432" s="19">
         <v>-28</v>
@@ -37417,10 +37417,10 @@
         <v>600</v>
       </c>
       <c r="P432" s="19" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="Q432" s="39" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="V432" s="19" t="s">
         <v>529</v>
@@ -37461,13 +37461,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="19" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="H433" s="19" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="I433" s="19" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="K433" s="19">
         <v>-28</v>
@@ -37485,7 +37485,7 @@
         <v>600</v>
       </c>
       <c r="P433" s="19" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="Q433" s="39" t="s">
         <v>725</v>
@@ -37546,7 +37546,7 @@
         <v>390</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>391</v>
@@ -37563,7 +37563,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -37580,7 +37580,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -37594,7 +37594,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -37608,7 +37608,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -37762,7 +37762,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -37916,7 +37916,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -37930,7 +37930,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -37944,7 +37944,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -37958,7 +37958,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
@@ -37972,7 +37972,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
@@ -37986,7 +37986,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
@@ -38000,7 +38000,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C33" s="12">
         <v>1</v>
@@ -38014,7 +38014,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
@@ -38028,7 +38028,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
@@ -38042,7 +38042,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
@@ -38056,7 +38056,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -38070,7 +38070,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
@@ -38084,7 +38084,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
@@ -38098,7 +38098,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -38112,7 +38112,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -38126,7 +38126,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
@@ -38140,7 +38140,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C43" s="12">
         <v>1</v>
@@ -38154,7 +38154,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -38168,7 +38168,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -38182,7 +38182,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
@@ -38196,7 +38196,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -38210,7 +38210,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="50" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="C48" s="49">
         <v>1</v>
@@ -38224,7 +38224,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="50" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="C49" s="49">
         <v>1</v>
@@ -38238,7 +38238,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="50" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="C50" s="49">
         <v>1</v>
@@ -38252,7 +38252,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="C51" s="49">
         <v>1</v>
@@ -38266,7 +38266,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="50" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="C52" s="49">
         <v>1</v>
@@ -38442,16 +38442,16 @@
         <v>3</v>
       </c>
       <c r="P2" s="33" t="s">
+        <v>1146</v>
+      </c>
+      <c r="R2" s="33" t="s">
         <v>1147</v>
-      </c>
-      <c r="R2" s="33" t="s">
-        <v>1148</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>47</v>
       </c>
       <c r="T2" s="33" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="U2" s="11" t="s">
         <v>407</v>
@@ -38507,16 +38507,16 @@
         <v>4</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="R3" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="S3" s="11" t="s">
         <v>49</v>
       </c>
       <c r="T3" s="33" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="U3" s="11" t="s">
         <v>407</v>
@@ -38572,10 +38572,10 @@
         <v>5</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="R4" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>50</v>
@@ -38637,16 +38637,16 @@
         <v>6</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>51</v>
       </c>
       <c r="T5" s="33" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="U5" s="11" t="s">
         <v>407</v>
@@ -38702,10 +38702,10 @@
         <v>7</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="R6" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="S6" s="11" t="s">
         <v>52</v>
@@ -38767,10 +38767,10 @@
         <v>9</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="R7" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>53</v>
@@ -38829,16 +38829,16 @@
         <v>0</v>
       </c>
       <c r="P8" s="33" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="R8" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>47</v>
       </c>
       <c r="T8" s="33" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="U8" s="11" t="s">
         <v>407</v>
@@ -38917,7 +38917,7 @@
       <c r="Z9" s="34"/>
       <c r="AA9" s="34"/>
       <c r="AB9" s="35" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -38987,7 +38987,7 @@
       <c r="Z10" s="34"/>
       <c r="AA10" s="34"/>
       <c r="AB10" s="35" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -39031,10 +39031,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>49</v>
@@ -39060,7 +39060,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D12" s="11">
         <v>109</v>
@@ -39096,10 +39096,10 @@
         <v>9</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="R12" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="S12" s="11" t="s">
         <v>54</v>
@@ -39161,10 +39161,10 @@
         <v>10</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="R13" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>409</v>
@@ -39226,10 +39226,10 @@
         <v>11</v>
       </c>
       <c r="P14" s="33" t="s">
+        <v>1162</v>
+      </c>
+      <c r="R14" s="33" t="s">
         <v>1163</v>
-      </c>
-      <c r="R14" s="33" t="s">
-        <v>1164</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>410</v>
@@ -39262,7 +39262,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G15" s="34">
         <v>100</v>
@@ -39300,7 +39300,7 @@
         <v>100</v>
       </c>
       <c r="T15" s="35" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="U15" s="34" t="s">
         <v>407</v>
@@ -39316,7 +39316,7 @@
       <c r="Z15" s="34"/>
       <c r="AA15" s="34"/>
       <c r="AB15" s="35" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -39363,17 +39363,17 @@
         <v>3</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q16" s="12"/>
       <c r="R16" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>61</v>
       </c>
       <c r="T16" s="33" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="U16" s="11" t="s">
         <v>407</v>
@@ -39428,11 +39428,11 @@
         <v>4</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="Q17" s="12"/>
       <c r="R17" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>64</v>
@@ -39493,11 +39493,11 @@
         <v>5</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="Q18" s="12"/>
       <c r="R18" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>67</v>
@@ -39558,11 +39558,11 @@
         <v>6</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="Q19" s="12"/>
       <c r="R19" s="33" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>71</v>
@@ -39623,7 +39623,7 @@
         <v>7</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="R20" s="33" t="s">
         <v>955</v>
@@ -39687,11 +39687,11 @@
         <v>0</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="Q21" s="11"/>
       <c r="R21" s="33" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="S21" s="11" t="s">
         <v>77</v>
@@ -39765,7 +39765,7 @@
         <v>5000</v>
       </c>
       <c r="T22" s="35" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="U22" s="34" t="s">
         <v>407</v>
@@ -39903,7 +39903,7 @@
         <v>100</v>
       </c>
       <c r="T24" s="35" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="U24" s="34" t="s">
         <v>407</v>
@@ -39919,7 +39919,7 @@
       <c r="Z24" s="34"/>
       <c r="AA24" s="34"/>
       <c r="AB24" s="35" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -39939,7 +39939,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G25" s="11">
         <v>15840</v>
@@ -39966,7 +39966,7 @@
         <v>8</v>
       </c>
       <c r="P25" s="33" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="R25" s="33" t="s">
         <v>956</v>
@@ -40427,7 +40427,7 @@
         <v>78</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="L8" s="12">
         <v>57</v>
@@ -40620,7 +40620,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>471</v>
@@ -40667,7 +40667,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>471</v>
@@ -40714,7 +40714,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>475</v>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="1596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3599" uniqueCount="1594">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7097,6 +7097,106 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>新人专享</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>神龙之力</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"神龙之力",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"gun_barrel_7",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡之灵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"死亡之灵",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"gun_barrel_6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>核能风暴</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"gun_barrel_5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币使者</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币使者",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"gun_barrel_4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"闪耀风暴",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"gun_barrel_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费用户1元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费用户3元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费用户6元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>900000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小额用户6元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>新手宝箱</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7105,39 +7205,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"200万金币","冰冻*5","锁定*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,5,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{100000,140000,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人专享</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"580万金币","冰冻*10","锁定*10",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5800000,10,10,</t>
+    <t>"200万金币","冰冻*5","锁定*5","新人宝箱",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock","prop_cjlb_10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,5,5,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -7145,7 +7221,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{300000,400000,100},</t>
+    <t>"580万金币","冰冻*10","锁定*10","高级宝箱",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock","prop_cjlb_11",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5800000,10,10,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -7153,107 +7237,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"1280万金币","冰冻*15","锁定*15",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>12800000,15,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{650000,850000,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>神龙之力</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"神龙之力",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"gun_barrel_7",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡之灵</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"死亡之灵",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"gun_barrel_6",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>核能风暴</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"gun_barrel_5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币使者</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金币使者",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"gun_barrel_4",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"闪耀风暴",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"gun_barrel_3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包-冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费用户1元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>200000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费用户3元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费用户6元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>900000,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>小额用户6元</t>
+    <t>"1280万金币","冰冻*15","锁定*15","豪华宝箱",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock","prop_cjlb_12",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>12800000,15,15,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7332,7 +7324,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7393,6 +7385,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -7436,7 +7434,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7600,6 +7598,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10058,7 +10062,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="H405" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A415" sqref="A415:XFD433"/>
+      <selection pane="bottomRight" activeCell="D427" sqref="D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -36758,225 +36762,207 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A422" s="6">
+    <row r="422" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="55">
         <v>421</v>
       </c>
-      <c r="B422" s="5">
+      <c r="B422" s="55">
         <v>10338</v>
       </c>
-      <c r="F422" s="6">
-        <v>1</v>
-      </c>
-      <c r="G422" s="6" t="s">
+      <c r="F422" s="55">
+        <v>1</v>
+      </c>
+      <c r="G422" s="55" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H422" s="55" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I422" s="55" t="s">
+        <v>1583</v>
+      </c>
+      <c r="K422" s="55">
+        <v>-31</v>
+      </c>
+      <c r="L422" s="55">
+        <v>0</v>
+      </c>
+      <c r="M422" s="55">
+        <v>0</v>
+      </c>
+      <c r="N422" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="O422" s="55">
+        <v>2000</v>
+      </c>
+      <c r="P422" s="55" t="s">
+        <v>1584</v>
+      </c>
+      <c r="Q422" s="56" t="s">
+        <v>1585</v>
+      </c>
+      <c r="V422" s="55" t="s">
+        <v>1586</v>
+      </c>
+      <c r="W422" s="55">
+        <v>99999999</v>
+      </c>
+      <c r="X422" s="55">
+        <v>1603756800</v>
+      </c>
+      <c r="Y422" s="55">
+        <v>2552233600</v>
+      </c>
+      <c r="Z422" s="55">
+        <v>51</v>
+      </c>
+      <c r="AG422" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH422" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK422" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL422" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="55">
+        <v>422</v>
+      </c>
+      <c r="B423" s="55">
+        <v>10339</v>
+      </c>
+      <c r="F423" s="55">
+        <v>1</v>
+      </c>
+      <c r="G423" s="55" t="s">
+        <v>1557</v>
+      </c>
+      <c r="H423" s="55" t="s">
         <v>1556</v>
       </c>
-      <c r="H422" s="6" t="s">
-        <v>1557</v>
-      </c>
-      <c r="I422" s="6" t="s">
-        <v>1558</v>
-      </c>
-      <c r="K422" s="6">
+      <c r="I423" s="55" t="s">
+        <v>1587</v>
+      </c>
+      <c r="K423" s="55">
         <v>-31</v>
       </c>
-      <c r="L422" s="6">
-        <v>0</v>
-      </c>
-      <c r="M422" s="6">
-        <v>0</v>
-      </c>
-      <c r="N422" s="5" t="s">
+      <c r="L423" s="55">
+        <v>0</v>
+      </c>
+      <c r="M423" s="55">
+        <v>0</v>
+      </c>
+      <c r="N423" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="O422" s="6">
-        <v>2000</v>
-      </c>
-      <c r="P422" s="6" t="s">
-        <v>1559</v>
-      </c>
-      <c r="Q422" s="54" t="s">
-        <v>1560</v>
-      </c>
-      <c r="V422" s="6" t="s">
-        <v>1553</v>
-      </c>
-      <c r="W422" s="6">
+      <c r="O423" s="55">
+        <v>5800</v>
+      </c>
+      <c r="P423" s="55" t="s">
+        <v>1588</v>
+      </c>
+      <c r="Q423" s="56" t="s">
+        <v>1589</v>
+      </c>
+      <c r="V423" s="55" t="s">
+        <v>1053</v>
+      </c>
+      <c r="W423" s="55">
         <v>99999999</v>
       </c>
-      <c r="X422" s="6">
+      <c r="X423" s="55">
         <v>1603756800</v>
       </c>
-      <c r="Y422" s="6">
+      <c r="Y423" s="55">
         <v>2552233600</v>
       </c>
-      <c r="Z422" s="6">
+      <c r="Z423" s="55">
         <v>51</v>
       </c>
-      <c r="AA422" s="6" t="s">
-        <v>1561</v>
-      </c>
-      <c r="AB422" s="6" t="s">
-        <v>1562</v>
-      </c>
-      <c r="AG422" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH422" s="6">
-        <v>1</v>
-      </c>
-      <c r="AK422" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL422" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A423" s="6">
-        <v>422</v>
-      </c>
-      <c r="B423" s="5">
-        <v>10339</v>
-      </c>
-      <c r="F423" s="6">
-        <v>1</v>
-      </c>
-      <c r="G423" s="6" t="s">
-        <v>1563</v>
-      </c>
-      <c r="H423" s="6" t="s">
-        <v>1564</v>
-      </c>
-      <c r="I423" s="6" t="s">
-        <v>1565</v>
-      </c>
-      <c r="K423" s="6">
+      <c r="AG423" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH423" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK423" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL423" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="55">
+        <v>423</v>
+      </c>
+      <c r="B424" s="55">
+        <v>10340</v>
+      </c>
+      <c r="F424" s="55">
+        <v>1</v>
+      </c>
+      <c r="G424" s="55" t="s">
+        <v>1590</v>
+      </c>
+      <c r="H424" s="55" t="s">
+        <v>1556</v>
+      </c>
+      <c r="I424" s="55" t="s">
+        <v>1591</v>
+      </c>
+      <c r="K424" s="55">
         <v>-31</v>
       </c>
-      <c r="L423" s="6">
-        <v>0</v>
-      </c>
-      <c r="M423" s="6">
-        <v>0</v>
-      </c>
-      <c r="N423" s="5" t="s">
+      <c r="L424" s="55">
+        <v>0</v>
+      </c>
+      <c r="M424" s="55">
+        <v>0</v>
+      </c>
+      <c r="N424" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="O423" s="6">
-        <v>5800</v>
-      </c>
-      <c r="P423" s="6" t="s">
-        <v>1559</v>
-      </c>
-      <c r="Q423" s="54" t="s">
-        <v>1566</v>
-      </c>
-      <c r="V423" s="6" t="s">
-        <v>1567</v>
-      </c>
-      <c r="W423" s="6">
+      <c r="O424" s="55">
+        <v>12800</v>
+      </c>
+      <c r="P424" s="55" t="s">
+        <v>1592</v>
+      </c>
+      <c r="Q424" s="56" t="s">
+        <v>1593</v>
+      </c>
+      <c r="V424" s="55" t="s">
+        <v>1053</v>
+      </c>
+      <c r="W424" s="55">
         <v>99999999</v>
       </c>
-      <c r="X423" s="6">
+      <c r="X424" s="55">
         <v>1603756800</v>
       </c>
-      <c r="Y423" s="6">
+      <c r="Y424" s="55">
         <v>2552233600</v>
       </c>
-      <c r="Z423" s="6">
+      <c r="Z424" s="55">
         <v>51</v>
       </c>
-      <c r="AA423" s="6" t="s">
-        <v>1561</v>
-      </c>
-      <c r="AB423" s="6" t="s">
-        <v>1568</v>
-      </c>
-      <c r="AG423" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH423" s="6">
-        <v>1</v>
-      </c>
-      <c r="AK423" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL423" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A424" s="6">
-        <v>423</v>
-      </c>
-      <c r="B424" s="5">
-        <v>10340</v>
-      </c>
-      <c r="F424" s="6">
-        <v>1</v>
-      </c>
-      <c r="G424" s="6" t="s">
-        <v>1569</v>
-      </c>
-      <c r="H424" s="6" t="s">
-        <v>1557</v>
-      </c>
-      <c r="I424" s="6" t="s">
-        <v>1570</v>
-      </c>
-      <c r="K424" s="6">
-        <v>-31</v>
-      </c>
-      <c r="L424" s="6">
-        <v>0</v>
-      </c>
-      <c r="M424" s="6">
-        <v>0</v>
-      </c>
-      <c r="N424" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="O424" s="6">
-        <v>12800</v>
-      </c>
-      <c r="P424" s="6" t="s">
-        <v>1559</v>
-      </c>
-      <c r="Q424" s="54" t="s">
-        <v>1571</v>
-      </c>
-      <c r="V424" s="6" t="s">
-        <v>1553</v>
-      </c>
-      <c r="W424" s="6">
-        <v>99999999</v>
-      </c>
-      <c r="X424" s="6">
-        <v>1603756800</v>
-      </c>
-      <c r="Y424" s="6">
-        <v>2552233600</v>
-      </c>
-      <c r="Z424" s="6">
-        <v>51</v>
-      </c>
-      <c r="AA424" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="AB424" s="6" t="s">
-        <v>1572</v>
-      </c>
-      <c r="AG424" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH424" s="6">
-        <v>1</v>
-      </c>
-      <c r="AK424" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL424" s="6">
+      <c r="AG424" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH424" s="55">
+        <v>1</v>
+      </c>
+      <c r="AK424" s="55">
+        <v>1</v>
+      </c>
+      <c r="AL424" s="55">
         <v>1</v>
       </c>
     </row>
@@ -36991,10 +36977,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="6" t="s">
-        <v>1573</v>
+        <v>1558</v>
       </c>
       <c r="I425" s="6" t="s">
-        <v>1574</v>
+        <v>1559</v>
       </c>
       <c r="K425" s="6">
         <v>-31</v>
@@ -37012,10 +36998,10 @@
         <v>49800</v>
       </c>
       <c r="P425" s="6" t="s">
-        <v>1575</v>
+        <v>1560</v>
       </c>
       <c r="Q425" s="54" t="s">
-        <v>1576</v>
+        <v>1561</v>
       </c>
       <c r="V425" s="6" t="s">
         <v>570</v>
@@ -37047,10 +37033,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>1577</v>
+        <v>1562</v>
       </c>
       <c r="I426" s="6" t="s">
-        <v>1578</v>
+        <v>1563</v>
       </c>
       <c r="K426" s="6">
         <v>-31</v>
@@ -37068,10 +37054,10 @@
         <v>19800</v>
       </c>
       <c r="P426" s="6" t="s">
-        <v>1579</v>
+        <v>1564</v>
       </c>
       <c r="Q426" s="54" t="s">
-        <v>1576</v>
+        <v>1561</v>
       </c>
       <c r="V426" s="6" t="s">
         <v>1553</v>
@@ -37103,7 +37089,7 @@
         <v>1</v>
       </c>
       <c r="G427" s="6" t="s">
-        <v>1580</v>
+        <v>1565</v>
       </c>
       <c r="I427" s="6" t="s">
         <v>1536</v>
@@ -37124,10 +37110,10 @@
         <v>9800</v>
       </c>
       <c r="P427" s="6" t="s">
-        <v>1581</v>
+        <v>1566</v>
       </c>
       <c r="Q427" s="54" t="s">
-        <v>1576</v>
+        <v>1561</v>
       </c>
       <c r="V427" s="6" t="s">
         <v>1553</v>
@@ -37159,10 +37145,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>1582</v>
+        <v>1567</v>
       </c>
       <c r="I428" s="6" t="s">
-        <v>1583</v>
+        <v>1568</v>
       </c>
       <c r="K428" s="6">
         <v>-31</v>
@@ -37180,10 +37166,10 @@
         <v>9800</v>
       </c>
       <c r="P428" s="6" t="s">
-        <v>1584</v>
+        <v>1569</v>
       </c>
       <c r="Q428" s="54" t="s">
-        <v>1576</v>
+        <v>1561</v>
       </c>
       <c r="V428" s="6" t="s">
         <v>1553</v>
@@ -37218,7 +37204,7 @@
         <v>1537</v>
       </c>
       <c r="I429" s="6" t="s">
-        <v>1585</v>
+        <v>1570</v>
       </c>
       <c r="K429" s="6">
         <v>-31</v>
@@ -37236,10 +37222,10 @@
         <v>4800</v>
       </c>
       <c r="P429" s="6" t="s">
-        <v>1586</v>
+        <v>1571</v>
       </c>
       <c r="Q429" s="54" t="s">
-        <v>1576</v>
+        <v>1561</v>
       </c>
       <c r="V429" s="6" t="s">
         <v>1553</v>
@@ -37271,10 +37257,10 @@
         <v>1</v>
       </c>
       <c r="G430" s="19" t="s">
-        <v>1587</v>
+        <v>1572</v>
       </c>
       <c r="H430" s="19" t="s">
-        <v>1588</v>
+        <v>1573</v>
       </c>
       <c r="I430" s="19" t="s">
         <v>1527</v>
@@ -37298,10 +37284,10 @@
         <v>1528</v>
       </c>
       <c r="Q430" s="39" t="s">
-        <v>1589</v>
+        <v>1574</v>
       </c>
       <c r="V430" s="19" t="s">
-        <v>1590</v>
+        <v>1575</v>
       </c>
       <c r="W430" s="19">
         <v>9999999</v>
@@ -37339,10 +37325,10 @@
         <v>1</v>
       </c>
       <c r="G431" s="19" t="s">
-        <v>1587</v>
+        <v>1572</v>
       </c>
       <c r="H431" s="19" t="s">
-        <v>1591</v>
+        <v>1576</v>
       </c>
       <c r="I431" s="19" t="s">
         <v>1529</v>
@@ -37366,7 +37352,7 @@
         <v>1528</v>
       </c>
       <c r="Q431" s="39" t="s">
-        <v>1592</v>
+        <v>1577</v>
       </c>
       <c r="V431" s="19" t="s">
         <v>529</v>
@@ -37407,10 +37393,10 @@
         <v>1</v>
       </c>
       <c r="G432" s="19" t="s">
-        <v>1587</v>
+        <v>1572</v>
       </c>
       <c r="H432" s="19" t="s">
-        <v>1593</v>
+        <v>1578</v>
       </c>
       <c r="I432" s="19" t="s">
         <v>1530</v>
@@ -37434,7 +37420,7 @@
         <v>1528</v>
       </c>
       <c r="Q432" s="39" t="s">
-        <v>1594</v>
+        <v>1579</v>
       </c>
       <c r="V432" s="19" t="s">
         <v>529</v>
@@ -37475,10 +37461,10 @@
         <v>1</v>
       </c>
       <c r="G433" s="19" t="s">
-        <v>1587</v>
+        <v>1572</v>
       </c>
       <c r="H433" s="19" t="s">
-        <v>1595</v>
+        <v>1580</v>
       </c>
       <c r="I433" s="19" t="s">
         <v>1531</v>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3901" uniqueCount="1768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="1791">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -4072,81 +4072,7 @@
     <t>"50万金币",</t>
   </si>
   <si>
-    <t>"75万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"318万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"538万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1108万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2218万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3288万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4388万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5488万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"6488万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"7688万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_summon_fish","prop_3d_fish_lock",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>750000,1,1,</t>
-  </si>
-  <si>
-    <t>3180000,5,5,</t>
-  </si>
-  <si>
-    <t>22180000,40,40,</t>
-  </si>
-  <si>
-    <t>32880000,68,60,</t>
-  </si>
-  <si>
-    <t>54880000,110,100,</t>
-  </si>
-  <si>
-    <t>64880000,148,100,</t>
-  </si>
-  <si>
-    <t>76880000,158,100,</t>
-  </si>
-  <si>
-    <t>5380000,10,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>11080000,20,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>43880000,88,80,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>9999999999,1,0</t>
@@ -7558,6 +7484,10 @@
     <t>"980万金币","58.8万金币","9.8万",</t>
   </si>
   <si>
+    <t>10478000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>聚划算198元-1</t>
   </si>
   <si>
@@ -7833,6 +7763,14 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>"2.4亿金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>249800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>{next=10365,trigger="start_trigger",reset_time=0}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7889,15 +7827,175 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>250000000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2.5亿金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>10486000,</t>
+    <t>"75万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"318万金币","水滴*2","玩具锤*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3180000,2,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"538万金币","水滴*3","玩具锤*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5380000,3,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1108万金币","水滴*4","玩具锤*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>11080000,4,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2218万金币","水滴*5","玩具锤*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>22180000,5,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3288万金币","水滴*6","玩具锤*6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>32880000,6,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4388万金币","水滴*7","玩具锤*7",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>43880000,7,7,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5488万金币","水滴*8","玩具锤*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>54880000,8,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"6488万金币","水滴*10","玩具锤*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>64880000,10,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"7688万金币","水滴*20","玩具锤*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>76880000,20,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>498元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","40万鱼币","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_cs",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,400000,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>198元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","30万鱼币","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,300000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","20万鱼币","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_ss",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","10万鱼币","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_xy",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,100000,3,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7976,7 +8074,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8055,6 +8153,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8098,7 +8208,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8296,6 +8406,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8694,16 +8825,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1530</v>
+        <v>1510</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>1531</v>
+        <v>1511</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>1532</v>
+        <v>1512</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>1529</v>
+        <v>1509</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -8761,7 +8892,7 @@
   <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F2" sqref="F2:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8802,7 +8933,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1084</v>
+        <v>1064</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -8853,7 +8984,7 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1105</v>
+        <v>1085</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>29</v>
@@ -8917,7 +9048,7 @@
         <v>43</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>1085</v>
+        <v>1065</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>44</v>
@@ -8947,14 +9078,14 @@
         <v>1</v>
       </c>
       <c r="T2" s="33" t="s">
-        <v>1106</v>
+        <v>1086</v>
       </c>
       <c r="U2" s="33" t="s">
-        <v>1086</v>
+        <v>1066</v>
       </c>
       <c r="V2" s="11"/>
       <c r="W2" s="33" t="s">
-        <v>1107</v>
+        <v>1087</v>
       </c>
       <c r="X2" s="11" t="s">
         <v>47</v>
@@ -8963,7 +9094,7 @@
         <v>634</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>1108</v>
+        <v>1088</v>
       </c>
       <c r="AC2" s="11">
         <v>1</v>
@@ -8986,9 +9117,7 @@
         <v>41</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="2">
-        <v>85</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="11" t="s">
         <v>42</v>
       </c>
@@ -8999,7 +9128,7 @@
         <v>43</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>1087</v>
+        <v>1067</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>44</v>
@@ -9029,14 +9158,14 @@
         <v>2</v>
       </c>
       <c r="T3" s="33" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="U3" s="33" t="s">
-        <v>1088</v>
+        <v>1068</v>
       </c>
       <c r="V3" s="11"/>
       <c r="W3" s="33" t="s">
-        <v>1107</v>
+        <v>1087</v>
       </c>
       <c r="X3" s="11" t="s">
         <v>49</v>
@@ -9068,9 +9197,7 @@
         <v>41</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="2">
-        <v>86</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="11" t="s">
         <v>42</v>
       </c>
@@ -9081,7 +9208,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>1089</v>
+        <v>1069</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>44</v>
@@ -9111,14 +9238,14 @@
         <v>3</v>
       </c>
       <c r="T4" s="33" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="U4" s="33" t="s">
-        <v>1111</v>
+        <v>1091</v>
       </c>
       <c r="V4" s="11"/>
       <c r="W4" s="33" t="s">
-        <v>1107</v>
+        <v>1087</v>
       </c>
       <c r="X4" s="11" t="s">
         <v>50</v>
@@ -9150,9 +9277,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="2">
-        <v>87</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="11" t="s">
         <v>42</v>
       </c>
@@ -9163,7 +9288,7 @@
         <v>43</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>1090</v>
+        <v>1070</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>44</v>
@@ -9193,14 +9318,14 @@
         <v>4</v>
       </c>
       <c r="T5" s="33" t="s">
-        <v>1091</v>
+        <v>1071</v>
       </c>
       <c r="U5" s="33" t="s">
-        <v>1112</v>
+        <v>1092</v>
       </c>
       <c r="V5" s="11"/>
       <c r="W5" s="33" t="s">
-        <v>1107</v>
+        <v>1087</v>
       </c>
       <c r="X5" s="11" t="s">
         <v>51</v>
@@ -9232,9 +9357,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="2">
-        <v>88</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="11" t="s">
         <v>42</v>
       </c>
@@ -9245,7 +9368,7 @@
         <v>43</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>1092</v>
+        <v>1072</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>44</v>
@@ -9275,14 +9398,14 @@
         <v>5</v>
       </c>
       <c r="T6" s="33" t="s">
-        <v>1113</v>
+        <v>1093</v>
       </c>
       <c r="U6" s="33" t="s">
-        <v>1113</v>
+        <v>1093</v>
       </c>
       <c r="V6" s="11"/>
       <c r="W6" s="33" t="s">
-        <v>1107</v>
+        <v>1087</v>
       </c>
       <c r="X6" s="11" t="s">
         <v>52</v>
@@ -9314,9 +9437,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="2">
-        <v>89</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="11" t="s">
         <v>42</v>
       </c>
@@ -9327,7 +9448,7 @@
         <v>43</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>1093</v>
+        <v>1073</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>44</v>
@@ -9357,14 +9478,14 @@
         <v>7</v>
       </c>
       <c r="T7" s="33" t="s">
+        <v>1074</v>
+      </c>
+      <c r="U7" s="33" t="s">
         <v>1094</v>
-      </c>
-      <c r="U7" s="33" t="s">
-        <v>1114</v>
       </c>
       <c r="V7" s="11"/>
       <c r="W7" s="33" t="s">
-        <v>1107</v>
+        <v>1087</v>
       </c>
       <c r="X7" s="11" t="s">
         <v>53</v>
@@ -9396,9 +9517,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="2">
-        <v>109</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="11" t="s">
         <v>42</v>
       </c>
@@ -9409,7 +9528,7 @@
         <v>43</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>1095</v>
+        <v>1075</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>44</v>
@@ -9439,14 +9558,14 @@
         <v>8</v>
       </c>
       <c r="T8" s="33" t="s">
-        <v>1115</v>
+        <v>1095</v>
       </c>
       <c r="U8" s="33" t="s">
-        <v>1116</v>
+        <v>1096</v>
       </c>
       <c r="V8" s="11"/>
       <c r="W8" s="33" t="s">
-        <v>1107</v>
+        <v>1087</v>
       </c>
       <c r="X8" s="11" t="s">
         <v>54</v>
@@ -9478,9 +9597,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="2">
-        <v>10044</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="11" t="s">
         <v>42</v>
       </c>
@@ -9491,7 +9608,7 @@
         <v>43</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>1103</v>
+        <v>1083</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>44</v>
@@ -9521,13 +9638,13 @@
         <v>9</v>
       </c>
       <c r="T9" s="33" t="s">
-        <v>1117</v>
+        <v>1097</v>
       </c>
       <c r="U9" s="33" t="s">
-        <v>1117</v>
+        <v>1097</v>
       </c>
       <c r="W9" s="33" t="s">
-        <v>1118</v>
+        <v>1098</v>
       </c>
       <c r="X9" s="11" t="s">
         <v>55</v>
@@ -9559,9 +9676,6 @@
         <v>41</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="11">
-        <v>10045</v>
-      </c>
       <c r="G10" s="11" t="s">
         <v>42</v>
       </c>
@@ -9572,7 +9686,7 @@
         <v>43</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>1119</v>
+        <v>1099</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>44</v>
@@ -9602,13 +9716,13 @@
         <v>10</v>
       </c>
       <c r="T10" s="33" t="s">
-        <v>1120</v>
+        <v>1100</v>
       </c>
       <c r="U10" s="33" t="s">
-        <v>1120</v>
+        <v>1100</v>
       </c>
       <c r="W10" s="33" t="s">
-        <v>1118</v>
+        <v>1098</v>
       </c>
       <c r="X10" s="11" t="s">
         <v>56</v>
@@ -9642,9 +9756,7 @@
       <c r="E11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="11">
-        <v>90</v>
-      </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="2" t="s">
         <v>42</v>
       </c>
@@ -9655,7 +9767,7 @@
         <v>43</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>1097</v>
+        <v>1077</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>44</v>
@@ -9736,7 +9848,7 @@
         <v>43</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>1098</v>
+        <v>1078</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>44</v>
@@ -9817,7 +9929,7 @@
         <v>43</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>44</v>
@@ -9898,7 +10010,7 @@
         <v>43</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>1100</v>
+        <v>1080</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>44</v>
@@ -9979,7 +10091,7 @@
         <v>43</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>1101</v>
+        <v>1081</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>44</v>
@@ -10060,7 +10172,7 @@
         <v>43</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1104</v>
+        <v>1084</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>44</v>
@@ -10090,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>1121</v>
+        <v>1101</v>
       </c>
       <c r="U16" s="2">
         <v>66</v>
@@ -10134,7 +10246,7 @@
         <v>78</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>1122</v>
+        <v>1102</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>44</v>
@@ -10164,10 +10276,10 @@
         <v>1</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>1123</v>
+        <v>1103</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>1123</v>
+        <v>1103</v>
       </c>
       <c r="W17" s="2" t="s">
         <v>46</v>
@@ -10208,7 +10320,7 @@
         <v>78</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>1124</v>
+        <v>1104</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>44</v>
@@ -10238,10 +10350,10 @@
         <v>2</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>1125</v>
+        <v>1105</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>1125</v>
+        <v>1105</v>
       </c>
       <c r="W18" s="2" t="s">
         <v>46</v>
@@ -10282,7 +10394,7 @@
         <v>78</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>1126</v>
+        <v>1106</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>44</v>
@@ -10312,10 +10424,10 @@
         <v>3</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>1102</v>
+        <v>1082</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>1127</v>
+        <v>1107</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>46</v>
@@ -10356,7 +10468,7 @@
         <v>78</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>1128</v>
+        <v>1108</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>44</v>
@@ -10386,10 +10498,10 @@
         <v>4</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>1129</v>
+        <v>1109</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>1130</v>
+        <v>1110</v>
       </c>
       <c r="W20" s="2" t="s">
         <v>46</v>
@@ -10430,7 +10542,7 @@
         <v>78</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>1131</v>
+        <v>1111</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>44</v>
@@ -10460,10 +10572,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>1132</v>
+        <v>1112</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>1132</v>
+        <v>1112</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>46</v>
@@ -10504,7 +10616,7 @@
         <v>78</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>1133</v>
+        <v>1113</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>44</v>
@@ -10534,10 +10646,10 @@
         <v>6</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>1134</v>
+        <v>1114</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>1134</v>
+        <v>1114</v>
       </c>
       <c r="W22" s="2" t="s">
         <v>46</v>
@@ -10578,7 +10690,7 @@
         <v>78</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>1135</v>
+        <v>1115</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>44</v>
@@ -10608,10 +10720,10 @@
         <v>7</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>1136</v>
+        <v>1116</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>1136</v>
+        <v>1116</v>
       </c>
       <c r="W23" s="2" t="s">
         <v>46</v>
@@ -10646,29 +10758,27 @@
         <v>41</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="11">
-        <v>10189</v>
-      </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="2" t="s">
-        <v>1137</v>
+        <v>1117</v>
       </c>
       <c r="H24" s="11">
         <v>19800</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>1138</v>
+        <v>1118</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1486</v>
+        <v>1466</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>1139</v>
+        <v>1119</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>1140</v>
+        <v>1120</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>1141</v>
+        <v>1121</v>
       </c>
       <c r="N24" s="2">
         <v>1</v>
@@ -10689,16 +10799,16 @@
         <v>6</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>1142</v>
+        <v>1122</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>1142</v>
+        <v>1122</v>
       </c>
       <c r="W24" s="33" t="s">
-        <v>1096</v>
+        <v>1076</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>1143</v>
+        <v>1123</v>
       </c>
       <c r="Y24" s="11" t="s">
         <v>642</v>
@@ -10747,13 +10857,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM475"/>
+  <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="O444" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="V242" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q455" sqref="Q455"/>
+      <selection pane="bottomRight" activeCell="F273" sqref="F273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -10815,10 +10925,10 @@
         <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1221</v>
+        <v>1201</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1246</v>
+        <v>1226</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>83</v>
@@ -11148,7 +11258,7 @@
         <v>110</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>1066</v>
+        <v>1046</v>
       </c>
       <c r="AG5" s="5">
         <v>1</v>
@@ -14484,7 +14594,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1222</v>
+        <v>1202</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>960</v>
@@ -14532,283 +14642,283 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="5">
+    <row r="67" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="69">
         <v>66</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="69">
         <v>85</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="69">
         <v>2</v>
       </c>
-      <c r="F67" s="5">
-        <v>1</v>
-      </c>
-      <c r="G67" s="5" t="s">
+      <c r="F67" s="69">
+        <v>0</v>
+      </c>
+      <c r="G67" s="69" t="s">
         <v>223</v>
       </c>
-      <c r="K67" s="5">
+      <c r="K67" s="69">
         <v>-4</v>
       </c>
-      <c r="L67" s="5">
-        <v>0</v>
-      </c>
-      <c r="M67" s="5">
-        <v>0</v>
-      </c>
-      <c r="N67" s="5" t="s">
+      <c r="L67" s="69">
+        <v>0</v>
+      </c>
+      <c r="M67" s="69">
+        <v>0</v>
+      </c>
+      <c r="N67" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O67" s="5">
+      <c r="O67" s="69">
         <v>1500</v>
       </c>
-      <c r="P67" s="5" t="s">
+      <c r="P67" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q67" s="5" t="s">
-        <v>1488</v>
-      </c>
-      <c r="V67" s="5" t="s">
+      <c r="Q67" s="69" t="s">
+        <v>1468</v>
+      </c>
+      <c r="V67" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W67" s="14" t="s">
+      <c r="W67" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X67" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="5">
+      <c r="X67" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG67" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH67" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5">
+      <c r="AG67" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH67" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="69">
         <v>67</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="69">
         <v>86</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="69">
         <v>3</v>
       </c>
-      <c r="F68" s="5">
-        <v>1</v>
-      </c>
-      <c r="G68" s="5" t="s">
+      <c r="F68" s="69">
+        <v>0</v>
+      </c>
+      <c r="G68" s="69" t="s">
         <v>225</v>
       </c>
-      <c r="K68" s="5">
+      <c r="K68" s="69">
         <v>-4</v>
       </c>
-      <c r="L68" s="5">
-        <v>0</v>
-      </c>
-      <c r="M68" s="5">
-        <v>0</v>
-      </c>
-      <c r="N68" s="5" t="s">
+      <c r="L68" s="69">
+        <v>0</v>
+      </c>
+      <c r="M68" s="69">
+        <v>0</v>
+      </c>
+      <c r="N68" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O68" s="5">
+      <c r="O68" s="69">
         <v>3000</v>
       </c>
-      <c r="P68" s="5" t="s">
+      <c r="P68" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q68" s="5" t="s">
-        <v>1504</v>
-      </c>
-      <c r="V68" s="5" t="s">
+      <c r="Q68" s="69" t="s">
+        <v>1484</v>
+      </c>
+      <c r="V68" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W68" s="14" t="s">
+      <c r="W68" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X68" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="5">
+      <c r="X68" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG68" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH68" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
+      <c r="AG68" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH68" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="69">
         <v>68</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="69">
         <v>87</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="69">
         <v>4</v>
       </c>
-      <c r="F69" s="5">
-        <v>1</v>
-      </c>
-      <c r="G69" s="5" t="s">
+      <c r="F69" s="69">
+        <v>0</v>
+      </c>
+      <c r="G69" s="69" t="s">
         <v>227</v>
       </c>
-      <c r="K69" s="5">
+      <c r="K69" s="69">
         <v>-4</v>
       </c>
-      <c r="L69" s="5">
-        <v>0</v>
-      </c>
-      <c r="M69" s="5">
-        <v>0</v>
-      </c>
-      <c r="N69" s="5" t="s">
+      <c r="L69" s="69">
+        <v>0</v>
+      </c>
+      <c r="M69" s="69">
+        <v>0</v>
+      </c>
+      <c r="N69" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O69" s="5">
+      <c r="O69" s="69">
         <v>5000</v>
       </c>
-      <c r="P69" s="5" t="s">
+      <c r="P69" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q69" s="5" t="s">
-        <v>1489</v>
-      </c>
-      <c r="V69" s="5" t="s">
+      <c r="Q69" s="69" t="s">
+        <v>1469</v>
+      </c>
+      <c r="V69" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W69" s="14" t="s">
+      <c r="W69" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X69" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="5">
+      <c r="X69" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG69" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH69" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
+      <c r="AG69" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH69" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="69">
         <v>69</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="69">
         <v>88</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="69">
         <v>5</v>
       </c>
-      <c r="F70" s="5">
-        <v>1</v>
-      </c>
-      <c r="G70" s="5" t="s">
+      <c r="F70" s="69">
+        <v>0</v>
+      </c>
+      <c r="G70" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="K70" s="5">
+      <c r="K70" s="69">
         <v>-4</v>
       </c>
-      <c r="L70" s="5">
-        <v>0</v>
-      </c>
-      <c r="M70" s="5">
-        <v>0</v>
-      </c>
-      <c r="N70" s="5" t="s">
+      <c r="L70" s="69">
+        <v>0</v>
+      </c>
+      <c r="M70" s="69">
+        <v>0</v>
+      </c>
+      <c r="N70" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O70" s="5">
+      <c r="O70" s="69">
         <v>9800</v>
       </c>
-      <c r="P70" s="5" t="s">
+      <c r="P70" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q70" s="5" t="s">
-        <v>1490</v>
-      </c>
-      <c r="V70" s="5" t="s">
+      <c r="Q70" s="69" t="s">
+        <v>1470</v>
+      </c>
+      <c r="V70" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W70" s="14" t="s">
+      <c r="W70" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X70" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="5">
+      <c r="X70" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG70" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH70" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
+      <c r="AG70" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH70" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="69">
         <v>70</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="69">
         <v>89</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="69">
         <v>6</v>
       </c>
-      <c r="F71" s="5">
-        <v>1</v>
-      </c>
-      <c r="G71" s="5" t="s">
+      <c r="F71" s="69">
+        <v>0</v>
+      </c>
+      <c r="G71" s="69" t="s">
         <v>230</v>
       </c>
-      <c r="K71" s="5">
+      <c r="K71" s="69">
         <v>-4</v>
       </c>
-      <c r="L71" s="5">
-        <v>0</v>
-      </c>
-      <c r="M71" s="5">
-        <v>0</v>
-      </c>
-      <c r="N71" s="5" t="s">
+      <c r="L71" s="69">
+        <v>0</v>
+      </c>
+      <c r="M71" s="69">
+        <v>0</v>
+      </c>
+      <c r="N71" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O71" s="5">
+      <c r="O71" s="69">
         <v>49800</v>
       </c>
-      <c r="P71" s="5" t="s">
+      <c r="P71" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q71" s="5" t="s">
-        <v>1491</v>
-      </c>
-      <c r="V71" s="5" t="s">
+      <c r="Q71" s="69" t="s">
+        <v>1471</v>
+      </c>
+      <c r="V71" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W71" s="14" t="s">
+      <c r="W71" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X71" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y71" s="5">
+      <c r="X71" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG71" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH71" s="5">
+      <c r="AG71" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH71" s="69">
         <v>1</v>
       </c>
     </row>
@@ -15124,7 +15234,7 @@
         <v>236</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>1591</v>
+        <v>1571</v>
       </c>
       <c r="K77" s="19">
         <v>-20</v>
@@ -15142,10 +15252,10 @@
         <v>100</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>1592</v>
+        <v>1572</v>
       </c>
       <c r="Q77" s="39" t="s">
-        <v>1593</v>
+        <v>1573</v>
       </c>
       <c r="V77" s="19" t="s">
         <v>526</v>
@@ -15180,7 +15290,7 @@
         <v>237</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>1425</v>
+        <v>1405</v>
       </c>
       <c r="K78" s="19">
         <v>-20</v>
@@ -15198,10 +15308,10 @@
         <v>1000</v>
       </c>
       <c r="P78" s="19" t="s">
-        <v>1426</v>
+        <v>1406</v>
       </c>
       <c r="Q78" s="39" t="s">
-        <v>1427</v>
+        <v>1407</v>
       </c>
       <c r="V78" s="19" t="s">
         <v>526</v>
@@ -15219,10 +15329,10 @@
         <v>78</v>
       </c>
       <c r="AB78" s="19" t="s">
-        <v>1428</v>
+        <v>1408</v>
       </c>
       <c r="AC78" s="39" t="s">
-        <v>1429</v>
+        <v>1409</v>
       </c>
       <c r="AG78" s="19">
         <v>1</v>
@@ -15242,7 +15352,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1223</v>
+        <v>1203</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>824</v>
@@ -15396,10 +15506,10 @@
         <v>4800</v>
       </c>
       <c r="P81" s="19" t="s">
-        <v>1430</v>
+        <v>1410</v>
       </c>
       <c r="Q81" s="39" t="s">
-        <v>1431</v>
+        <v>1411</v>
       </c>
       <c r="V81" s="19" t="s">
         <v>526</v>
@@ -15414,10 +15524,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA81" s="19" t="s">
-        <v>1432</v>
+        <v>1412</v>
       </c>
       <c r="AB81" s="19" t="s">
-        <v>1433</v>
+        <v>1413</v>
       </c>
       <c r="AG81" s="19">
         <v>1</v>
@@ -15626,10 +15736,10 @@
         <v>4800</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>1420</v>
+        <v>1400</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>1423</v>
+        <v>1403</v>
       </c>
       <c r="V85" s="5" t="s">
         <v>528</v>
@@ -15732,10 +15842,10 @@
         <v>9600</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>1421</v>
+        <v>1401</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>1424</v>
+        <v>1404</v>
       </c>
       <c r="V87" s="5" t="s">
         <v>528</v>
@@ -16092,56 +16202,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="5">
+    <row r="94" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="69">
         <v>93</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="69">
         <v>109</v>
       </c>
-      <c r="F94" s="5">
-        <v>1</v>
-      </c>
-      <c r="G94" s="5" t="s">
+      <c r="F94" s="69">
+        <v>0</v>
+      </c>
+      <c r="G94" s="69" t="s">
         <v>254</v>
       </c>
-      <c r="K94" s="5">
+      <c r="K94" s="69">
         <v>-4</v>
       </c>
-      <c r="L94" s="5">
-        <v>0</v>
-      </c>
-      <c r="M94" s="5">
-        <v>0</v>
-      </c>
-      <c r="N94" s="5" t="s">
+      <c r="L94" s="69">
+        <v>0</v>
+      </c>
+      <c r="M94" s="69">
+        <v>0</v>
+      </c>
+      <c r="N94" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O94" s="5">
+      <c r="O94" s="69">
         <v>100000</v>
       </c>
-      <c r="P94" s="5" t="s">
+      <c r="P94" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q94" s="5" t="s">
+      <c r="Q94" s="69" t="s">
         <v>695</v>
       </c>
-      <c r="V94" s="5" t="s">
+      <c r="V94" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W94" s="14" t="s">
+      <c r="W94" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X94" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="5">
+      <c r="X94" s="69">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG94" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH94" s="5">
+      <c r="AG94" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH94" s="69">
         <v>1</v>
       </c>
     </row>
@@ -18123,115 +18233,115 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="5">
+    <row r="128" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="69">
         <v>127</v>
       </c>
-      <c r="B128" s="5">
+      <c r="B128" s="69">
         <v>10044</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128" s="69">
         <v>108</v>
       </c>
-      <c r="F128" s="5">
-        <v>1</v>
-      </c>
-      <c r="G128" s="5" t="s">
+      <c r="F128" s="69">
+        <v>0</v>
+      </c>
+      <c r="G128" s="69" t="s">
         <v>320</v>
       </c>
-      <c r="K128" s="5">
+      <c r="K128" s="69">
         <v>-10</v>
       </c>
-      <c r="L128" s="5">
-        <v>0</v>
-      </c>
-      <c r="M128" s="5">
-        <v>0</v>
-      </c>
-      <c r="N128" s="5" t="s">
+      <c r="L128" s="69">
+        <v>0</v>
+      </c>
+      <c r="M128" s="69">
+        <v>0</v>
+      </c>
+      <c r="N128" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O128" s="5">
+      <c r="O128" s="69">
         <v>99800</v>
       </c>
-      <c r="P128" s="5" t="s">
+      <c r="P128" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q128" s="5" t="s">
-        <v>1493</v>
-      </c>
-      <c r="V128" s="5" t="s">
+      <c r="Q128" s="69" t="s">
+        <v>1473</v>
+      </c>
+      <c r="V128" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W128" s="14" t="s">
+      <c r="W128" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X128" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y128" s="5">
+      <c r="X128" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y128" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG128" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH128" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="5">
+      <c r="AG128" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH128" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="69">
         <v>128</v>
       </c>
-      <c r="B129" s="5">
+      <c r="B129" s="69">
         <v>10045</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D129" s="69">
         <v>110</v>
       </c>
-      <c r="F129" s="5">
-        <v>1</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>1224</v>
-      </c>
-      <c r="K129" s="5">
+      <c r="F129" s="69">
+        <v>0</v>
+      </c>
+      <c r="G129" s="69" t="s">
+        <v>1204</v>
+      </c>
+      <c r="K129" s="69">
         <v>-11</v>
       </c>
-      <c r="L129" s="5">
-        <v>0</v>
-      </c>
-      <c r="M129" s="5">
-        <v>0</v>
-      </c>
-      <c r="N129" s="5" t="s">
+      <c r="L129" s="69">
+        <v>0</v>
+      </c>
+      <c r="M129" s="69">
+        <v>0</v>
+      </c>
+      <c r="N129" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O129" s="5">
+      <c r="O129" s="69">
         <v>249800</v>
       </c>
-      <c r="P129" s="5" t="s">
+      <c r="P129" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q129" s="5" t="s">
-        <v>1492</v>
-      </c>
-      <c r="V129" s="5" t="s">
+      <c r="Q129" s="69" t="s">
+        <v>1472</v>
+      </c>
+      <c r="V129" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W129" s="14" t="s">
+      <c r="W129" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X129" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y129" s="5">
+      <c r="X129" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y129" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG129" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH129" s="5">
+      <c r="AG129" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH129" s="69">
         <v>1</v>
       </c>
     </row>
@@ -18798,7 +18908,7 @@
         <v>1</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>1225</v>
+        <v>1205</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="5" t="s">
@@ -18858,7 +18968,7 @@
         <v>1</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>1226</v>
+        <v>1206</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="5" t="s">
@@ -20616,7 +20726,7 @@
         <v>360</v>
       </c>
       <c r="I168" s="19" t="s">
-        <v>1056</v>
+        <v>1036</v>
       </c>
       <c r="K168" s="19">
         <v>-28</v>
@@ -20634,10 +20744,10 @@
         <v>600</v>
       </c>
       <c r="P168" s="19" t="s">
-        <v>1059</v>
+        <v>1039</v>
       </c>
       <c r="Q168" s="19" t="s">
-        <v>1060</v>
+        <v>1040</v>
       </c>
       <c r="V168" s="19" t="s">
         <v>526</v>
@@ -20678,10 +20788,10 @@
         <v>1</v>
       </c>
       <c r="G169" s="19" t="s">
-        <v>1227</v>
+        <v>1207</v>
       </c>
       <c r="I169" s="19" t="s">
-        <v>1057</v>
+        <v>1037</v>
       </c>
       <c r="K169" s="19">
         <v>-28</v>
@@ -20699,10 +20809,10 @@
         <v>3000</v>
       </c>
       <c r="P169" s="19" t="s">
-        <v>1059</v>
+        <v>1039</v>
       </c>
       <c r="Q169" s="19" t="s">
-        <v>1061</v>
+        <v>1041</v>
       </c>
       <c r="V169" s="19" t="s">
         <v>600</v>
@@ -20743,7 +20853,7 @@
         <v>361</v>
       </c>
       <c r="I170" s="19" t="s">
-        <v>1058</v>
+        <v>1038</v>
       </c>
       <c r="K170" s="19">
         <v>-28</v>
@@ -20761,10 +20871,10 @@
         <v>19800</v>
       </c>
       <c r="P170" s="19" t="s">
-        <v>1059</v>
+        <v>1039</v>
       </c>
       <c r="Q170" s="19" t="s">
-        <v>1062</v>
+        <v>1042</v>
       </c>
       <c r="V170" s="19" t="s">
         <v>600</v>
@@ -20802,10 +20912,10 @@
         <v>1</v>
       </c>
       <c r="G171" s="19" t="s">
-        <v>1228</v>
+        <v>1208</v>
       </c>
       <c r="H171" s="19" t="s">
-        <v>1247</v>
+        <v>1227</v>
       </c>
       <c r="I171" s="19" t="s">
         <v>983</v>
@@ -20870,10 +20980,10 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H172" s="19" t="s">
         <v>1228</v>
-      </c>
-      <c r="H172" s="19" t="s">
-        <v>1248</v>
       </c>
       <c r="I172" s="19" t="s">
         <v>984</v>
@@ -20938,10 +21048,10 @@
         <v>1</v>
       </c>
       <c r="G173" s="19" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H173" s="19" t="s">
         <v>1229</v>
-      </c>
-      <c r="H173" s="19" t="s">
-        <v>1249</v>
       </c>
       <c r="I173" s="19" t="s">
         <v>985</v>
@@ -21006,10 +21116,10 @@
         <v>1</v>
       </c>
       <c r="G174" s="19" t="s">
-        <v>1229</v>
+        <v>1209</v>
       </c>
       <c r="H174" s="19" t="s">
-        <v>1250</v>
+        <v>1230</v>
       </c>
       <c r="I174" s="19" t="s">
         <v>986</v>
@@ -21074,10 +21184,10 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1229</v>
+        <v>1209</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>1251</v>
+        <v>1231</v>
       </c>
       <c r="I175" s="19" t="s">
         <v>997</v>
@@ -21142,10 +21252,10 @@
         <v>1</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1229</v>
+        <v>1209</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>1252</v>
+        <v>1232</v>
       </c>
       <c r="I176" s="19" t="s">
         <v>998</v>
@@ -21210,10 +21320,10 @@
         <v>1</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1228</v>
+        <v>1208</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1253</v>
+        <v>1233</v>
       </c>
       <c r="I177" s="19" t="s">
         <v>999</v>
@@ -21278,7 +21388,7 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1229</v>
+        <v>1209</v>
       </c>
       <c r="H178" s="19" t="s">
         <v>490</v>
@@ -21346,10 +21456,10 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1228</v>
+        <v>1208</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1254</v>
+        <v>1234</v>
       </c>
       <c r="I179" s="19" t="s">
         <v>1001</v>
@@ -21414,10 +21524,10 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
-        <v>1229</v>
+        <v>1209</v>
       </c>
       <c r="H180" s="19" t="s">
-        <v>1255</v>
+        <v>1235</v>
       </c>
       <c r="I180" s="19" t="s">
         <v>991</v>
@@ -21482,10 +21592,10 @@
         <v>1</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1229</v>
+        <v>1209</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1256</v>
+        <v>1236</v>
       </c>
       <c r="I181" s="19" t="s">
         <v>1002</v>
@@ -21550,10 +21660,10 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>1228</v>
+        <v>1208</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1257</v>
+        <v>1237</v>
       </c>
       <c r="I182" s="19" t="s">
         <v>1003</v>
@@ -21618,10 +21728,10 @@
         <v>1</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1229</v>
+        <v>1209</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1258</v>
+        <v>1238</v>
       </c>
       <c r="I183" s="19" t="s">
         <v>1004</v>
@@ -21686,10 +21796,10 @@
         <v>1</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1229</v>
+        <v>1209</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1259</v>
+        <v>1239</v>
       </c>
       <c r="I184" s="19" t="s">
         <v>1003</v>
@@ -21754,10 +21864,10 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
-        <v>1228</v>
+        <v>1208</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>1260</v>
+        <v>1240</v>
       </c>
       <c r="I185" s="19" t="s">
         <v>1005</v>
@@ -26066,7 +26176,7 @@
         <v>600</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>1075</v>
+        <v>1055</v>
       </c>
       <c r="Q251" s="5" t="s">
         <v>784</v>
@@ -26237,7 +26347,7 @@
         <v>1</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>1230</v>
+        <v>1210</v>
       </c>
       <c r="I254" s="5" t="s">
         <v>948</v>
@@ -26432,7 +26542,7 @@
         <v>0</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>1231</v>
+        <v>1211</v>
       </c>
       <c r="I257" s="5" t="s">
         <v>883</v>
@@ -26955,7 +27065,7 @@
         <v>0</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>1232</v>
+        <v>1212</v>
       </c>
       <c r="I265" s="5" t="s">
         <v>889</v>
@@ -27215,7 +27325,7 @@
         <v>0</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>1233</v>
+        <v>1213</v>
       </c>
       <c r="I269" s="5" t="s">
         <v>891</v>
@@ -27464,59 +27574,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A273" s="5">
+    <row r="273" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A273" s="69">
         <v>272</v>
       </c>
-      <c r="B273" s="5">
+      <c r="B273" s="69">
         <v>10189</v>
       </c>
-      <c r="D273" s="11">
+      <c r="D273" s="72">
         <v>111</v>
       </c>
-      <c r="F273" s="5">
-        <v>1</v>
-      </c>
-      <c r="G273" s="5" t="s">
+      <c r="F273" s="69">
+        <v>0</v>
+      </c>
+      <c r="G273" s="69" t="s">
         <v>522</v>
       </c>
-      <c r="K273" s="5">
+      <c r="K273" s="69">
         <v>-10</v>
       </c>
-      <c r="L273" s="5">
-        <v>0</v>
-      </c>
-      <c r="M273" s="5">
-        <v>0</v>
-      </c>
-      <c r="N273" s="5" t="s">
+      <c r="L273" s="69">
+        <v>0</v>
+      </c>
+      <c r="M273" s="69">
+        <v>0</v>
+      </c>
+      <c r="N273" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="O273" s="5">
+      <c r="O273" s="69">
         <v>19800</v>
       </c>
-      <c r="P273" s="5" t="s">
+      <c r="P273" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q273" s="5" t="s">
-        <v>1494</v>
-      </c>
-      <c r="V273" s="5" t="s">
+      <c r="Q273" s="69" t="s">
+        <v>1474</v>
+      </c>
+      <c r="V273" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="W273" s="14" t="s">
+      <c r="W273" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="X273" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y273" s="5">
+      <c r="X273" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y273" s="69">
         <v>2552233600</v>
       </c>
-      <c r="AG273" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH273" s="5">
+      <c r="AG273" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH273" s="69">
         <v>1</v>
       </c>
     </row>
@@ -27737,7 +27847,7 @@
         <v>0</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>1234</v>
+        <v>1214</v>
       </c>
       <c r="I277" s="5" t="s">
         <v>895</v>
@@ -27802,7 +27912,7 @@
         <v>0</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>1235</v>
+        <v>1215</v>
       </c>
       <c r="I278" s="5" t="s">
         <v>896</v>
@@ -27867,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>1236</v>
+        <v>1216</v>
       </c>
       <c r="I279" s="5" t="s">
         <v>897</v>
@@ -27932,7 +28042,7 @@
         <v>0</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>1237</v>
+        <v>1217</v>
       </c>
       <c r="I280" s="5" t="s">
         <v>894</v>
@@ -30421,10 +30531,10 @@
         <v>1</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>1238</v>
+        <v>1218</v>
       </c>
       <c r="I320" s="5" t="s">
-        <v>1422</v>
+        <v>1402</v>
       </c>
       <c r="K320" s="5">
         <v>-25</v>
@@ -30477,7 +30587,7 @@
         <v>1</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>1239</v>
+        <v>1219</v>
       </c>
       <c r="I321" s="5" t="s">
         <v>921</v>
@@ -30539,7 +30649,7 @@
         <v>1</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>1240</v>
+        <v>1220</v>
       </c>
       <c r="I322" s="5" t="s">
         <v>625</v>
@@ -30770,7 +30880,7 @@
         <v>1</v>
       </c>
       <c r="G325" s="19" t="s">
-        <v>1241</v>
+        <v>1221</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19" t="s">
@@ -30850,7 +30960,7 @@
         <v>1</v>
       </c>
       <c r="G326" s="40" t="s">
-        <v>1242</v>
+        <v>1222</v>
       </c>
       <c r="I326" s="40" t="s">
         <v>1011</v>
@@ -30871,7 +30981,7 @@
         <v>100</v>
       </c>
       <c r="V326" s="40" t="s">
-        <v>1052</v>
+        <v>1032</v>
       </c>
       <c r="W326" s="40">
         <v>9999999</v>
@@ -30909,7 +31019,7 @@
         <v>1</v>
       </c>
       <c r="G327" s="43" t="s">
-        <v>1243</v>
+        <v>1223</v>
       </c>
       <c r="I327" s="43" t="s">
         <v>1030</v>
@@ -30933,7 +31043,7 @@
         <v>1018</v>
       </c>
       <c r="Q327" s="43" t="s">
-        <v>1054</v>
+        <v>1034</v>
       </c>
       <c r="V327" s="43" t="s">
         <v>1019</v>
@@ -30978,7 +31088,7 @@
       </c>
       <c r="H328" s="43"/>
       <c r="I328" s="43" t="s">
-        <v>1031</v>
+        <v>1748</v>
       </c>
       <c r="J328" s="43"/>
       <c r="K328" s="43">
@@ -30991,23 +31101,23 @@
         <v>0</v>
       </c>
       <c r="N328" s="43" t="s">
-        <v>1009</v>
+        <v>1749</v>
       </c>
       <c r="O328" s="43">
         <v>600</v>
       </c>
       <c r="P328" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q328" s="43" t="s">
-        <v>1042</v>
+        <v>1750</v>
+      </c>
+      <c r="Q328" s="66" t="s">
+        <v>1031</v>
       </c>
       <c r="R328" s="43"/>
       <c r="S328" s="43"/>
       <c r="T328" s="43"/>
       <c r="U328" s="43"/>
       <c r="V328" s="43" t="s">
-        <v>1052</v>
+        <v>1751</v>
       </c>
       <c r="W328" s="43">
         <v>99999999</v>
@@ -31060,7 +31170,7 @@
       </c>
       <c r="H329" s="43"/>
       <c r="I329" s="43" t="s">
-        <v>1032</v>
+        <v>1752</v>
       </c>
       <c r="J329" s="43"/>
       <c r="K329" s="43">
@@ -31073,23 +31183,23 @@
         <v>0</v>
       </c>
       <c r="N329" s="43" t="s">
-        <v>1009</v>
+        <v>1753</v>
       </c>
       <c r="O329" s="43">
         <v>2800</v>
       </c>
       <c r="P329" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q329" s="43" t="s">
-        <v>1043</v>
+        <v>1754</v>
+      </c>
+      <c r="Q329" s="66" t="s">
+        <v>1755</v>
       </c>
       <c r="R329" s="43"/>
       <c r="S329" s="43"/>
       <c r="T329" s="43"/>
       <c r="U329" s="43"/>
       <c r="V329" s="43" t="s">
-        <v>1052</v>
+        <v>1530</v>
       </c>
       <c r="W329" s="43">
         <v>99999999</v>
@@ -31142,7 +31252,7 @@
       </c>
       <c r="H330" s="43"/>
       <c r="I330" s="43" t="s">
-        <v>1033</v>
+        <v>1756</v>
       </c>
       <c r="J330" s="43"/>
       <c r="K330" s="43">
@@ -31155,23 +31265,23 @@
         <v>0</v>
       </c>
       <c r="N330" s="43" t="s">
-        <v>1009</v>
+        <v>1753</v>
       </c>
       <c r="O330" s="43">
         <v>4800</v>
       </c>
       <c r="P330" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q330" s="43" t="s">
-        <v>1049</v>
+        <v>1750</v>
+      </c>
+      <c r="Q330" s="66" t="s">
+        <v>1757</v>
       </c>
       <c r="R330" s="43"/>
       <c r="S330" s="43"/>
       <c r="T330" s="43"/>
       <c r="U330" s="43"/>
       <c r="V330" s="43" t="s">
-        <v>1052</v>
+        <v>1530</v>
       </c>
       <c r="W330" s="43">
         <v>99999999</v>
@@ -31224,7 +31334,7 @@
       </c>
       <c r="H331" s="43"/>
       <c r="I331" s="43" t="s">
-        <v>1034</v>
+        <v>1758</v>
       </c>
       <c r="J331" s="43"/>
       <c r="K331" s="43">
@@ -31243,17 +31353,17 @@
         <v>9900</v>
       </c>
       <c r="P331" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q331" s="43" t="s">
-        <v>1050</v>
+        <v>1759</v>
+      </c>
+      <c r="Q331" s="66" t="s">
+        <v>1760</v>
       </c>
       <c r="R331" s="43"/>
       <c r="S331" s="43"/>
       <c r="T331" s="43"/>
       <c r="U331" s="43"/>
       <c r="V331" s="43" t="s">
-        <v>1052</v>
+        <v>1530</v>
       </c>
       <c r="W331" s="43">
         <v>99999999</v>
@@ -31306,7 +31416,7 @@
       </c>
       <c r="H332" s="43"/>
       <c r="I332" s="43" t="s">
-        <v>1035</v>
+        <v>1761</v>
       </c>
       <c r="J332" s="43"/>
       <c r="K332" s="43">
@@ -31319,23 +31429,23 @@
         <v>0</v>
       </c>
       <c r="N332" s="43" t="s">
-        <v>1009</v>
+        <v>1753</v>
       </c>
       <c r="O332" s="43">
         <v>19800</v>
       </c>
       <c r="P332" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q332" s="43" t="s">
-        <v>1044</v>
+        <v>1750</v>
+      </c>
+      <c r="Q332" s="66" t="s">
+        <v>1762</v>
       </c>
       <c r="R332" s="43"/>
       <c r="S332" s="43"/>
       <c r="T332" s="43"/>
       <c r="U332" s="43"/>
       <c r="V332" s="43" t="s">
-        <v>1052</v>
+        <v>1530</v>
       </c>
       <c r="W332" s="43">
         <v>99999999</v>
@@ -31388,7 +31498,7 @@
       </c>
       <c r="H333" s="43"/>
       <c r="I333" s="43" t="s">
-        <v>1036</v>
+        <v>1763</v>
       </c>
       <c r="J333" s="43"/>
       <c r="K333" s="43">
@@ -31407,17 +31517,17 @@
         <v>29800</v>
       </c>
       <c r="P333" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q333" s="43" t="s">
-        <v>1045</v>
+        <v>1750</v>
+      </c>
+      <c r="Q333" s="66" t="s">
+        <v>1764</v>
       </c>
       <c r="R333" s="43"/>
       <c r="S333" s="43"/>
       <c r="T333" s="43"/>
       <c r="U333" s="43"/>
       <c r="V333" s="43" t="s">
-        <v>1052</v>
+        <v>1765</v>
       </c>
       <c r="W333" s="43">
         <v>99999999</v>
@@ -31470,7 +31580,7 @@
       </c>
       <c r="H334" s="43"/>
       <c r="I334" s="43" t="s">
-        <v>1037</v>
+        <v>1766</v>
       </c>
       <c r="J334" s="43"/>
       <c r="K334" s="43">
@@ -31483,23 +31593,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="43" t="s">
-        <v>1009</v>
+        <v>1767</v>
       </c>
       <c r="O334" s="43">
         <v>39800</v>
       </c>
       <c r="P334" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q334" s="43" t="s">
-        <v>1051</v>
+        <v>1768</v>
+      </c>
+      <c r="Q334" s="66" t="s">
+        <v>1769</v>
       </c>
       <c r="R334" s="43"/>
       <c r="S334" s="43"/>
       <c r="T334" s="43"/>
       <c r="U334" s="43"/>
       <c r="V334" s="43" t="s">
-        <v>1052</v>
+        <v>1765</v>
       </c>
       <c r="W334" s="43">
         <v>99999999</v>
@@ -31552,7 +31662,7 @@
       </c>
       <c r="H335" s="43"/>
       <c r="I335" s="43" t="s">
-        <v>1038</v>
+        <v>1770</v>
       </c>
       <c r="J335" s="43"/>
       <c r="K335" s="43">
@@ -31565,23 +31675,23 @@
         <v>0</v>
       </c>
       <c r="N335" s="43" t="s">
-        <v>1009</v>
+        <v>1753</v>
       </c>
       <c r="O335" s="43">
         <v>49800</v>
       </c>
       <c r="P335" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q335" s="43" t="s">
-        <v>1046</v>
+        <v>1750</v>
+      </c>
+      <c r="Q335" s="66" t="s">
+        <v>1771</v>
       </c>
       <c r="R335" s="43"/>
       <c r="S335" s="43"/>
       <c r="T335" s="43"/>
       <c r="U335" s="43"/>
       <c r="V335" s="43" t="s">
-        <v>1052</v>
+        <v>1530</v>
       </c>
       <c r="W335" s="43">
         <v>99999999</v>
@@ -31634,7 +31744,7 @@
       </c>
       <c r="H336" s="43"/>
       <c r="I336" s="43" t="s">
-        <v>1039</v>
+        <v>1772</v>
       </c>
       <c r="J336" s="43"/>
       <c r="K336" s="43">
@@ -31647,23 +31757,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="43" t="s">
-        <v>1009</v>
+        <v>1753</v>
       </c>
       <c r="O336" s="43">
         <v>59800</v>
       </c>
       <c r="P336" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q336" s="43" t="s">
-        <v>1047</v>
+        <v>1759</v>
+      </c>
+      <c r="Q336" s="66" t="s">
+        <v>1773</v>
       </c>
       <c r="R336" s="43"/>
       <c r="S336" s="43"/>
       <c r="T336" s="43"/>
       <c r="U336" s="43"/>
       <c r="V336" s="43" t="s">
-        <v>1052</v>
+        <v>1751</v>
       </c>
       <c r="W336" s="43">
         <v>99999999</v>
@@ -31716,7 +31826,7 @@
       </c>
       <c r="H337" s="43"/>
       <c r="I337" s="43" t="s">
-        <v>1040</v>
+        <v>1774</v>
       </c>
       <c r="J337" s="43"/>
       <c r="K337" s="43">
@@ -31729,23 +31839,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="43" t="s">
-        <v>1009</v>
+        <v>1753</v>
       </c>
       <c r="O337" s="43">
         <v>69800</v>
       </c>
       <c r="P337" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="Q337" s="43" t="s">
-        <v>1048</v>
+        <v>1759</v>
+      </c>
+      <c r="Q337" s="66" t="s">
+        <v>1775</v>
       </c>
       <c r="R337" s="43"/>
       <c r="S337" s="43"/>
       <c r="T337" s="43"/>
       <c r="U337" s="43"/>
       <c r="V337" s="43" t="s">
-        <v>1052</v>
+        <v>1751</v>
       </c>
       <c r="W337" s="43">
         <v>99999999</v>
@@ -31791,10 +31901,10 @@
         <v>1</v>
       </c>
       <c r="G338" s="19" t="s">
-        <v>1244</v>
+        <v>1224</v>
       </c>
       <c r="I338" s="19" t="s">
-        <v>1069</v>
+        <v>1049</v>
       </c>
       <c r="K338" s="19">
         <v>-31</v>
@@ -31812,10 +31922,10 @@
         <v>19800</v>
       </c>
       <c r="P338" s="19" t="s">
-        <v>1067</v>
+        <v>1047</v>
       </c>
       <c r="Q338" s="19" t="s">
-        <v>1073</v>
+        <v>1053</v>
       </c>
       <c r="V338" s="19" t="s">
         <v>526</v>
@@ -31830,10 +31940,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA338" s="19" t="s">
-        <v>1068</v>
+        <v>1048</v>
       </c>
       <c r="AB338" s="19" t="s">
-        <v>1076</v>
+        <v>1056</v>
       </c>
       <c r="AG338" s="19">
         <v>1</v>
@@ -31866,7 +31976,7 @@
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19" t="s">
-        <v>1071</v>
+        <v>1051</v>
       </c>
       <c r="J339" s="19"/>
       <c r="K339" s="19">
@@ -31885,10 +31995,10 @@
         <v>30000</v>
       </c>
       <c r="P339" s="19" t="s">
-        <v>1067</v>
+        <v>1047</v>
       </c>
       <c r="Q339" s="19" t="s">
-        <v>1074</v>
+        <v>1054</v>
       </c>
       <c r="R339" s="19"/>
       <c r="S339" s="19"/>
@@ -31908,10 +32018,10 @@
       </c>
       <c r="Z339" s="19"/>
       <c r="AA339" s="19" t="s">
-        <v>1068</v>
+        <v>1048</v>
       </c>
       <c r="AB339" s="19" t="s">
-        <v>1077</v>
+        <v>1057</v>
       </c>
       <c r="AC339" s="19"/>
       <c r="AD339" s="19"/>
@@ -31946,11 +32056,11 @@
         <v>1</v>
       </c>
       <c r="G340" s="19" t="s">
-        <v>1245</v>
+        <v>1225</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19" t="s">
-        <v>1070</v>
+        <v>1050</v>
       </c>
       <c r="J340" s="19"/>
       <c r="K340" s="19">
@@ -31969,10 +32079,10 @@
         <v>78000</v>
       </c>
       <c r="P340" s="19" t="s">
-        <v>1067</v>
+        <v>1047</v>
       </c>
       <c r="Q340" s="19" t="s">
-        <v>1072</v>
+        <v>1052</v>
       </c>
       <c r="R340" s="19"/>
       <c r="S340" s="19"/>
@@ -31992,10 +32102,10 @@
       </c>
       <c r="Z340" s="19"/>
       <c r="AA340" s="19" t="s">
-        <v>1068</v>
+        <v>1048</v>
       </c>
       <c r="AB340" s="19" t="s">
-        <v>1078</v>
+        <v>1058</v>
       </c>
       <c r="AC340" s="19"/>
       <c r="AD340" s="19"/>
@@ -32027,11 +32137,11 @@
         <v>1</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>1261</v>
+        <v>1241</v>
       </c>
       <c r="H341" s="6"/>
       <c r="I341" s="5" t="s">
-        <v>1262</v>
+        <v>1242</v>
       </c>
       <c r="K341" s="5">
         <v>-31</v>
@@ -32043,19 +32153,19 @@
         <v>0</v>
       </c>
       <c r="N341" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O341" s="5">
         <v>600</v>
       </c>
       <c r="P341" s="5" t="s">
-        <v>1264</v>
+        <v>1244</v>
       </c>
       <c r="Q341" s="10" t="s">
-        <v>1265</v>
+        <v>1245</v>
       </c>
       <c r="V341" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W341" s="5">
         <v>9999999</v>
@@ -32070,10 +32180,10 @@
         <v>26</v>
       </c>
       <c r="AA341" s="5" t="s">
-        <v>1267</v>
+        <v>1247</v>
       </c>
       <c r="AB341" s="5" t="s">
-        <v>1268</v>
+        <v>1248</v>
       </c>
       <c r="AG341" s="5">
         <v>1</v>
@@ -32099,10 +32209,10 @@
         <v>1</v>
       </c>
       <c r="G342" s="6" t="s">
-        <v>1269</v>
+        <v>1249</v>
       </c>
       <c r="I342" s="5" t="s">
-        <v>1270</v>
+        <v>1250</v>
       </c>
       <c r="K342" s="5">
         <v>-31</v>
@@ -32114,19 +32224,19 @@
         <v>0</v>
       </c>
       <c r="N342" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O342" s="5">
         <v>600</v>
       </c>
       <c r="P342" s="5" t="s">
-        <v>1264</v>
+        <v>1244</v>
       </c>
       <c r="Q342" s="10" t="s">
-        <v>1172</v>
+        <v>1152</v>
       </c>
       <c r="V342" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W342" s="5">
         <v>9999999</v>
@@ -32141,10 +32251,10 @@
         <v>27</v>
       </c>
       <c r="AA342" s="5" t="s">
-        <v>1267</v>
+        <v>1247</v>
       </c>
       <c r="AB342" s="5" t="s">
-        <v>1271</v>
+        <v>1251</v>
       </c>
       <c r="AG342" s="5">
         <v>1</v>
@@ -32170,10 +32280,10 @@
         <v>1</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>1272</v>
+        <v>1252</v>
       </c>
       <c r="I343" s="5" t="s">
-        <v>1273</v>
+        <v>1253</v>
       </c>
       <c r="K343" s="5">
         <v>-31</v>
@@ -32185,19 +32295,19 @@
         <v>0</v>
       </c>
       <c r="N343" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O343" s="5">
         <v>600</v>
       </c>
       <c r="P343" s="5" t="s">
-        <v>1264</v>
+        <v>1244</v>
       </c>
       <c r="Q343" s="10" t="s">
-        <v>1173</v>
+        <v>1153</v>
       </c>
       <c r="V343" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W343" s="5">
         <v>9999999</v>
@@ -32212,10 +32322,10 @@
         <v>28</v>
       </c>
       <c r="AA343" s="5" t="s">
-        <v>1267</v>
+        <v>1247</v>
       </c>
       <c r="AB343" s="5" t="s">
-        <v>1274</v>
+        <v>1254</v>
       </c>
       <c r="AG343" s="5">
         <v>1</v>
@@ -32241,10 +32351,10 @@
         <v>1</v>
       </c>
       <c r="G344" s="6" t="s">
-        <v>1275</v>
+        <v>1255</v>
       </c>
       <c r="I344" s="5" t="s">
-        <v>1276</v>
+        <v>1256</v>
       </c>
       <c r="K344" s="5">
         <v>-31</v>
@@ -32256,19 +32366,19 @@
         <v>0</v>
       </c>
       <c r="N344" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O344" s="5">
         <v>4800</v>
       </c>
       <c r="P344" s="5" t="s">
-        <v>1264</v>
+        <v>1244</v>
       </c>
       <c r="Q344" s="10" t="s">
-        <v>1277</v>
+        <v>1257</v>
       </c>
       <c r="V344" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W344" s="5">
         <v>9999999</v>
@@ -32283,10 +32393,10 @@
         <v>29</v>
       </c>
       <c r="AA344" s="5" t="s">
-        <v>1267</v>
+        <v>1247</v>
       </c>
       <c r="AB344" s="5" t="s">
-        <v>1278</v>
+        <v>1258</v>
       </c>
       <c r="AG344" s="5">
         <v>1</v>
@@ -32312,10 +32422,10 @@
         <v>1</v>
       </c>
       <c r="G345" s="6" t="s">
-        <v>1174</v>
+        <v>1154</v>
       </c>
       <c r="I345" s="5" t="s">
-        <v>1279</v>
+        <v>1259</v>
       </c>
       <c r="K345" s="5">
         <v>-31</v>
@@ -32327,19 +32437,19 @@
         <v>0</v>
       </c>
       <c r="N345" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O345" s="5">
         <v>4800</v>
       </c>
       <c r="P345" s="5" t="s">
-        <v>1264</v>
+        <v>1244</v>
       </c>
       <c r="Q345" s="10" t="s">
-        <v>1175</v>
+        <v>1155</v>
       </c>
       <c r="V345" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W345" s="5">
         <v>9999999</v>
@@ -32354,10 +32464,10 @@
         <v>30</v>
       </c>
       <c r="AA345" s="5" t="s">
-        <v>1267</v>
+        <v>1247</v>
       </c>
       <c r="AB345" s="5" t="s">
-        <v>1280</v>
+        <v>1260</v>
       </c>
       <c r="AG345" s="5">
         <v>1</v>
@@ -32383,10 +32493,10 @@
         <v>1</v>
       </c>
       <c r="G346" s="6" t="s">
-        <v>1176</v>
+        <v>1156</v>
       </c>
       <c r="I346" s="5" t="s">
-        <v>1281</v>
+        <v>1261</v>
       </c>
       <c r="K346" s="5">
         <v>-31</v>
@@ -32398,19 +32508,19 @@
         <v>0</v>
       </c>
       <c r="N346" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O346" s="5">
         <v>4800</v>
       </c>
       <c r="P346" s="5" t="s">
-        <v>1264</v>
+        <v>1244</v>
       </c>
       <c r="Q346" s="10" t="s">
-        <v>1177</v>
+        <v>1157</v>
       </c>
       <c r="V346" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W346" s="5">
         <v>9999999</v>
@@ -32425,10 +32535,10 @@
         <v>31</v>
       </c>
       <c r="AA346" s="5" t="s">
-        <v>1267</v>
+        <v>1247</v>
       </c>
       <c r="AB346" s="5" t="s">
-        <v>1282</v>
+        <v>1262</v>
       </c>
       <c r="AG346" s="5">
         <v>1</v>
@@ -32454,10 +32564,10 @@
         <v>1</v>
       </c>
       <c r="G347" s="6" t="s">
-        <v>1178</v>
+        <v>1158</v>
       </c>
       <c r="I347" s="5" t="s">
-        <v>1283</v>
+        <v>1263</v>
       </c>
       <c r="K347" s="5">
         <v>-31</v>
@@ -32469,19 +32579,19 @@
         <v>0</v>
       </c>
       <c r="N347" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O347" s="5">
         <v>9800</v>
       </c>
       <c r="P347" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="Q347" s="10" t="s">
         <v>1264</v>
       </c>
-      <c r="Q347" s="10" t="s">
-        <v>1284</v>
-      </c>
       <c r="V347" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W347" s="5">
         <v>9999999</v>
@@ -32496,10 +32606,10 @@
         <v>32</v>
       </c>
       <c r="AA347" s="5" t="s">
-        <v>1267</v>
+        <v>1247</v>
       </c>
       <c r="AB347" s="5" t="s">
-        <v>1285</v>
+        <v>1265</v>
       </c>
       <c r="AG347" s="5">
         <v>1</v>
@@ -32525,10 +32635,10 @@
         <v>1</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>1179</v>
+        <v>1159</v>
       </c>
       <c r="I348" s="5" t="s">
-        <v>1286</v>
+        <v>1266</v>
       </c>
       <c r="K348" s="5">
         <v>-31</v>
@@ -32540,19 +32650,19 @@
         <v>0</v>
       </c>
       <c r="N348" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O348" s="5">
         <v>9800</v>
       </c>
       <c r="P348" s="5" t="s">
-        <v>1264</v>
+        <v>1244</v>
       </c>
       <c r="Q348" s="10" t="s">
-        <v>1287</v>
+        <v>1267</v>
       </c>
       <c r="V348" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W348" s="5">
         <v>9999999</v>
@@ -32567,10 +32677,10 @@
         <v>33</v>
       </c>
       <c r="AA348" s="5" t="s">
-        <v>1267</v>
+        <v>1247</v>
       </c>
       <c r="AB348" s="5" t="s">
-        <v>1288</v>
+        <v>1268</v>
       </c>
       <c r="AG348" s="5">
         <v>1</v>
@@ -32596,10 +32706,10 @@
         <v>1</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>1180</v>
+        <v>1160</v>
       </c>
       <c r="I349" s="5" t="s">
-        <v>1289</v>
+        <v>1269</v>
       </c>
       <c r="K349" s="5">
         <v>-31</v>
@@ -32617,13 +32727,13 @@
         <v>9800</v>
       </c>
       <c r="P349" s="5" t="s">
-        <v>1264</v>
+        <v>1244</v>
       </c>
       <c r="Q349" s="10" t="s">
-        <v>1290</v>
+        <v>1270</v>
       </c>
       <c r="V349" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W349" s="5">
         <v>9999999</v>
@@ -32638,10 +32748,10 @@
         <v>34</v>
       </c>
       <c r="AA349" s="5" t="s">
-        <v>1267</v>
+        <v>1247</v>
       </c>
       <c r="AB349" s="5" t="s">
-        <v>1181</v>
+        <v>1161</v>
       </c>
       <c r="AG349" s="5">
         <v>1</v>
@@ -32667,10 +32777,10 @@
         <v>1</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>1182</v>
+        <v>1162</v>
       </c>
       <c r="I350" s="5" t="s">
-        <v>1291</v>
+        <v>1271</v>
       </c>
       <c r="K350" s="5">
         <v>-31</v>
@@ -32691,10 +32801,10 @@
         <v>987</v>
       </c>
       <c r="Q350" s="10" t="s">
-        <v>1292</v>
+        <v>1272</v>
       </c>
       <c r="V350" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W350" s="5">
         <v>9999999</v>
@@ -32712,7 +32822,7 @@
         <v>446</v>
       </c>
       <c r="AB350" s="5" t="s">
-        <v>1293</v>
+        <v>1273</v>
       </c>
       <c r="AG350" s="5">
         <v>1</v>
@@ -32738,10 +32848,10 @@
         <v>1</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>1183</v>
+        <v>1163</v>
       </c>
       <c r="I351" s="5" t="s">
-        <v>1294</v>
+        <v>1274</v>
       </c>
       <c r="K351" s="5">
         <v>-31</v>
@@ -32753,7 +32863,7 @@
         <v>0</v>
       </c>
       <c r="N351" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O351" s="5">
         <v>19800</v>
@@ -32762,10 +32872,10 @@
         <v>987</v>
       </c>
       <c r="Q351" s="10" t="s">
-        <v>1184</v>
+        <v>1164</v>
       </c>
       <c r="V351" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W351" s="5">
         <v>9999999</v>
@@ -32783,7 +32893,7 @@
         <v>446</v>
       </c>
       <c r="AB351" s="5" t="s">
-        <v>1295</v>
+        <v>1275</v>
       </c>
       <c r="AG351" s="5">
         <v>1</v>
@@ -32809,10 +32919,10 @@
         <v>1</v>
       </c>
       <c r="G352" s="6" t="s">
-        <v>1185</v>
+        <v>1165</v>
       </c>
       <c r="I352" s="5" t="s">
-        <v>1186</v>
+        <v>1166</v>
       </c>
       <c r="K352" s="5">
         <v>-31</v>
@@ -32833,7 +32943,7 @@
         <v>987</v>
       </c>
       <c r="Q352" s="10" t="s">
-        <v>1296</v>
+        <v>1276</v>
       </c>
       <c r="V352" s="5" t="s">
         <v>568</v>
@@ -32851,10 +32961,10 @@
         <v>37</v>
       </c>
       <c r="AA352" s="5" t="s">
-        <v>1267</v>
+        <v>1247</v>
       </c>
       <c r="AB352" s="5" t="s">
-        <v>1187</v>
+        <v>1167</v>
       </c>
       <c r="AG352" s="5">
         <v>1</v>
@@ -32880,13 +32990,13 @@
         <v>0</v>
       </c>
       <c r="G353" s="5" t="s">
-        <v>1297</v>
+        <v>1277</v>
       </c>
       <c r="H353" s="5" t="s">
-        <v>1189</v>
+        <v>1169</v>
       </c>
       <c r="I353" s="5" t="s">
-        <v>1190</v>
+        <v>1170</v>
       </c>
       <c r="K353" s="5">
         <v>-31</v>
@@ -32904,13 +33014,13 @@
         <v>600</v>
       </c>
       <c r="P353" s="5" t="s">
-        <v>1298</v>
+        <v>1278</v>
       </c>
       <c r="Q353" s="10" t="s">
-        <v>1299</v>
+        <v>1279</v>
       </c>
       <c r="V353" s="5" t="s">
-        <v>1300</v>
+        <v>1280</v>
       </c>
       <c r="W353" s="5">
         <v>9999999</v>
@@ -32948,13 +33058,13 @@
         <v>0</v>
       </c>
       <c r="G354" s="5" t="s">
-        <v>1301</v>
+        <v>1281</v>
       </c>
       <c r="H354" s="5" t="s">
-        <v>1189</v>
+        <v>1169</v>
       </c>
       <c r="I354" s="5" t="s">
-        <v>1302</v>
+        <v>1282</v>
       </c>
       <c r="K354" s="5">
         <v>-31</v>
@@ -32966,19 +33076,19 @@
         <v>0</v>
       </c>
       <c r="N354" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O354" s="5">
         <v>1200</v>
       </c>
       <c r="P354" s="5" t="s">
-        <v>1193</v>
+        <v>1173</v>
       </c>
       <c r="Q354" s="10" t="s">
-        <v>1299</v>
+        <v>1279</v>
       </c>
       <c r="V354" s="5" t="s">
-        <v>1300</v>
+        <v>1280</v>
       </c>
       <c r="W354" s="5">
         <v>9999999</v>
@@ -33016,13 +33126,13 @@
         <v>0</v>
       </c>
       <c r="G355" s="5" t="s">
-        <v>1303</v>
+        <v>1283</v>
       </c>
       <c r="H355" s="5" t="s">
-        <v>1304</v>
+        <v>1284</v>
       </c>
       <c r="I355" s="5" t="s">
-        <v>1190</v>
+        <v>1170</v>
       </c>
       <c r="K355" s="5">
         <v>-31</v>
@@ -33034,16 +33144,16 @@
         <v>0</v>
       </c>
       <c r="N355" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O355" s="5">
         <v>1800</v>
       </c>
       <c r="P355" s="5" t="s">
-        <v>1195</v>
+        <v>1175</v>
       </c>
       <c r="Q355" s="10" t="s">
-        <v>1191</v>
+        <v>1171</v>
       </c>
       <c r="V355" s="5" t="s">
         <v>597</v>
@@ -33084,13 +33194,13 @@
         <v>0</v>
       </c>
       <c r="G356" s="5" t="s">
-        <v>1188</v>
+        <v>1168</v>
       </c>
       <c r="H356" s="5" t="s">
-        <v>1196</v>
+        <v>1176</v>
       </c>
       <c r="I356" s="5" t="s">
-        <v>1190</v>
+        <v>1170</v>
       </c>
       <c r="K356" s="5">
         <v>-31</v>
@@ -33108,13 +33218,13 @@
         <v>4800</v>
       </c>
       <c r="P356" s="5" t="s">
-        <v>1197</v>
+        <v>1177</v>
       </c>
       <c r="Q356" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V356" s="5" t="s">
-        <v>1198</v>
+        <v>1178</v>
       </c>
       <c r="W356" s="5">
         <v>9999999</v>
@@ -33152,13 +33262,13 @@
         <v>0</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>1301</v>
+        <v>1281</v>
       </c>
       <c r="H357" s="5" t="s">
-        <v>1196</v>
+        <v>1176</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1190</v>
+        <v>1170</v>
       </c>
       <c r="K357" s="5">
         <v>-31</v>
@@ -33170,19 +33280,19 @@
         <v>0</v>
       </c>
       <c r="N357" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O357" s="5">
         <v>9800</v>
       </c>
       <c r="P357" s="5" t="s">
-        <v>1199</v>
+        <v>1179</v>
       </c>
       <c r="Q357" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V357" s="5" t="s">
-        <v>1198</v>
+        <v>1178</v>
       </c>
       <c r="W357" s="5">
         <v>9999999</v>
@@ -33220,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G358" s="5" t="s">
-        <v>1194</v>
+        <v>1174</v>
       </c>
       <c r="H358" s="5" t="s">
-        <v>1196</v>
+        <v>1176</v>
       </c>
       <c r="I358" s="5" t="s">
-        <v>1302</v>
+        <v>1282</v>
       </c>
       <c r="K358" s="5">
         <v>-31</v>
@@ -33238,13 +33348,13 @@
         <v>0</v>
       </c>
       <c r="N358" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O358" s="5">
         <v>19800</v>
       </c>
       <c r="P358" s="5" t="s">
-        <v>1200</v>
+        <v>1180</v>
       </c>
       <c r="Q358" s="10" t="s">
         <v>272</v>
@@ -33288,13 +33398,13 @@
         <v>0</v>
       </c>
       <c r="G359" s="5" t="s">
-        <v>1188</v>
+        <v>1168</v>
       </c>
       <c r="H359" s="5" t="s">
-        <v>1201</v>
+        <v>1181</v>
       </c>
       <c r="I359" s="5" t="s">
-        <v>1302</v>
+        <v>1282</v>
       </c>
       <c r="K359" s="5">
         <v>-31</v>
@@ -33306,19 +33416,19 @@
         <v>0</v>
       </c>
       <c r="N359" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O359" s="5">
         <v>9800</v>
       </c>
       <c r="P359" s="5" t="s">
-        <v>1202</v>
+        <v>1182</v>
       </c>
       <c r="Q359" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V359" s="5" t="s">
-        <v>1198</v>
+        <v>1178</v>
       </c>
       <c r="W359" s="5">
         <v>9999999</v>
@@ -33356,13 +33466,13 @@
         <v>0</v>
       </c>
       <c r="G360" s="5" t="s">
-        <v>1192</v>
+        <v>1172</v>
       </c>
       <c r="H360" s="5" t="s">
-        <v>1201</v>
+        <v>1181</v>
       </c>
       <c r="I360" s="5" t="s">
-        <v>1302</v>
+        <v>1282</v>
       </c>
       <c r="K360" s="5">
         <v>-31</v>
@@ -33374,19 +33484,19 @@
         <v>0</v>
       </c>
       <c r="N360" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O360" s="5">
         <v>19800</v>
       </c>
       <c r="P360" s="5" t="s">
-        <v>1203</v>
+        <v>1183</v>
       </c>
       <c r="Q360" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V360" s="5" t="s">
-        <v>1198</v>
+        <v>1178</v>
       </c>
       <c r="W360" s="5">
         <v>9999999</v>
@@ -33424,13 +33534,13 @@
         <v>0</v>
       </c>
       <c r="G361" s="5" t="s">
-        <v>1194</v>
+        <v>1174</v>
       </c>
       <c r="H361" s="5" t="s">
-        <v>1201</v>
+        <v>1181</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>1302</v>
+        <v>1282</v>
       </c>
       <c r="K361" s="5">
         <v>-31</v>
@@ -33442,19 +33552,19 @@
         <v>0</v>
       </c>
       <c r="N361" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O361" s="5">
         <v>49800</v>
       </c>
       <c r="P361" s="5" t="s">
-        <v>1204</v>
+        <v>1184</v>
       </c>
       <c r="Q361" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V361" s="5" t="s">
-        <v>1305</v>
+        <v>1285</v>
       </c>
       <c r="W361" s="5">
         <v>9999999</v>
@@ -33492,13 +33602,13 @@
         <v>0</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>1303</v>
+        <v>1283</v>
       </c>
       <c r="H362" s="5" t="s">
-        <v>1189</v>
+        <v>1169</v>
       </c>
       <c r="I362" s="5" t="s">
-        <v>1302</v>
+        <v>1282</v>
       </c>
       <c r="K362" s="5">
         <v>-31</v>
@@ -33516,10 +33626,10 @@
         <v>1800</v>
       </c>
       <c r="P362" s="5" t="s">
-        <v>1195</v>
+        <v>1175</v>
       </c>
       <c r="Q362" s="10" t="s">
-        <v>1299</v>
+        <v>1279</v>
       </c>
       <c r="V362" s="5" t="s">
         <v>568</v>
@@ -33537,10 +33647,10 @@
         <v>38</v>
       </c>
       <c r="AA362" s="5" t="s">
-        <v>1306</v>
+        <v>1286</v>
       </c>
       <c r="AB362" s="5" t="s">
-        <v>1206</v>
+        <v>1186</v>
       </c>
       <c r="AG362" s="5">
         <v>1</v>
@@ -33566,13 +33676,13 @@
         <v>0</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>1303</v>
+        <v>1283</v>
       </c>
       <c r="H363" s="5" t="s">
-        <v>1207</v>
+        <v>1187</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>1302</v>
+        <v>1282</v>
       </c>
       <c r="K363" s="5">
         <v>-31</v>
@@ -33584,19 +33694,19 @@
         <v>0</v>
       </c>
       <c r="N363" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O363" s="5">
         <v>19800</v>
       </c>
       <c r="P363" s="5" t="s">
-        <v>1200</v>
+        <v>1180</v>
       </c>
       <c r="Q363" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V363" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W363" s="5">
         <v>9999999</v>
@@ -33611,10 +33721,10 @@
         <v>39</v>
       </c>
       <c r="AA363" s="5" t="s">
-        <v>1306</v>
+        <v>1286</v>
       </c>
       <c r="AB363" s="5" t="s">
-        <v>1208</v>
+        <v>1188</v>
       </c>
       <c r="AG363" s="5">
         <v>1</v>
@@ -33640,13 +33750,13 @@
         <v>0</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>1303</v>
+        <v>1283</v>
       </c>
       <c r="H364" s="5" t="s">
-        <v>1201</v>
+        <v>1181</v>
       </c>
       <c r="I364" s="5" t="s">
-        <v>1190</v>
+        <v>1170</v>
       </c>
       <c r="K364" s="5">
         <v>-31</v>
@@ -33658,19 +33768,19 @@
         <v>0</v>
       </c>
       <c r="N364" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O364" s="5">
         <v>49800</v>
       </c>
       <c r="P364" s="5" t="s">
-        <v>1204</v>
+        <v>1184</v>
       </c>
       <c r="Q364" s="10" t="s">
         <v>272</v>
       </c>
       <c r="V364" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W364" s="5">
         <v>9999999</v>
@@ -33685,10 +33795,10 @@
         <v>40</v>
       </c>
       <c r="AA364" s="5" t="s">
-        <v>1205</v>
+        <v>1185</v>
       </c>
       <c r="AB364" s="5" t="s">
-        <v>1307</v>
+        <v>1287</v>
       </c>
       <c r="AG364" s="5">
         <v>1</v>
@@ -33714,10 +33824,10 @@
         <v>1</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>1308</v>
+        <v>1288</v>
       </c>
       <c r="I365" s="5" t="s">
-        <v>1209</v>
+        <v>1189</v>
       </c>
       <c r="K365" s="5">
         <v>-31</v>
@@ -33729,16 +33839,16 @@
         <v>0</v>
       </c>
       <c r="N365" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O365" s="5">
         <v>131400</v>
       </c>
       <c r="P365" s="5" t="s">
-        <v>1309</v>
+        <v>1289</v>
       </c>
       <c r="Q365" s="10" t="s">
-        <v>1310</v>
+        <v>1290</v>
       </c>
       <c r="V365" s="5" t="s">
         <v>568</v>
@@ -33779,10 +33889,10 @@
         <v>1</v>
       </c>
       <c r="G366" s="5" t="s">
-        <v>1311</v>
+        <v>1291</v>
       </c>
       <c r="I366" s="5" t="s">
-        <v>1312</v>
+        <v>1292</v>
       </c>
       <c r="K366" s="5">
         <v>-31</v>
@@ -33794,16 +33904,16 @@
         <v>0</v>
       </c>
       <c r="N366" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O366" s="5">
         <v>52000</v>
       </c>
       <c r="P366" s="5" t="s">
-        <v>1210</v>
+        <v>1190</v>
       </c>
       <c r="Q366" s="10" t="s">
-        <v>1313</v>
+        <v>1293</v>
       </c>
       <c r="V366" s="5" t="s">
         <v>568</v>
@@ -33844,10 +33954,10 @@
         <v>1</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>1314</v>
+        <v>1294</v>
       </c>
       <c r="I367" s="5" t="s">
-        <v>1211</v>
+        <v>1191</v>
       </c>
       <c r="K367" s="5">
         <v>-31</v>
@@ -33859,19 +33969,19 @@
         <v>0</v>
       </c>
       <c r="N367" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O367" s="5">
         <v>25800</v>
       </c>
       <c r="P367" s="5" t="s">
-        <v>1210</v>
+        <v>1190</v>
       </c>
       <c r="Q367" s="10" t="s">
-        <v>1315</v>
+        <v>1295</v>
       </c>
       <c r="V367" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W367" s="5">
         <v>9999999</v>
@@ -33909,10 +34019,10 @@
         <v>1</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>1316</v>
+        <v>1296</v>
       </c>
       <c r="I368" s="5" t="s">
-        <v>1212</v>
+        <v>1192</v>
       </c>
       <c r="K368" s="5">
         <v>-31</v>
@@ -33924,16 +34034,16 @@
         <v>0</v>
       </c>
       <c r="N368" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O368" s="5">
         <v>14700</v>
       </c>
       <c r="P368" s="5" t="s">
-        <v>1309</v>
+        <v>1289</v>
       </c>
       <c r="Q368" s="10" t="s">
-        <v>1317</v>
+        <v>1297</v>
       </c>
       <c r="V368" s="5" t="s">
         <v>568</v>
@@ -33974,10 +34084,10 @@
         <v>1</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>1318</v>
+        <v>1298</v>
       </c>
       <c r="I369" s="5" t="s">
-        <v>1213</v>
+        <v>1193</v>
       </c>
       <c r="K369" s="5">
         <v>-31</v>
@@ -33995,13 +34105,13 @@
         <v>5200</v>
       </c>
       <c r="P369" s="5" t="s">
-        <v>1210</v>
+        <v>1190</v>
       </c>
       <c r="Q369" s="10" t="s">
-        <v>1214</v>
+        <v>1194</v>
       </c>
       <c r="V369" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W369" s="5">
         <v>9999999</v>
@@ -34039,10 +34149,10 @@
         <v>1</v>
       </c>
       <c r="G370" s="5" t="s">
-        <v>1215</v>
+        <v>1195</v>
       </c>
       <c r="I370" s="5" t="s">
-        <v>1319</v>
+        <v>1299</v>
       </c>
       <c r="K370" s="5">
         <v>-31</v>
@@ -34060,7 +34170,7 @@
         <v>1800</v>
       </c>
       <c r="P370" s="5" t="s">
-        <v>1320</v>
+        <v>1300</v>
       </c>
       <c r="Q370" s="10" t="s">
         <v>745</v>
@@ -34101,10 +34211,10 @@
         <v>1</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>1321</v>
+        <v>1301</v>
       </c>
       <c r="I371" s="5" t="s">
-        <v>1216</v>
+        <v>1196</v>
       </c>
       <c r="K371" s="5">
         <v>-31</v>
@@ -34122,10 +34232,10 @@
         <v>4800</v>
       </c>
       <c r="P371" s="5" t="s">
-        <v>1320</v>
+        <v>1300</v>
       </c>
       <c r="Q371" s="10" t="s">
-        <v>1322</v>
+        <v>1302</v>
       </c>
       <c r="V371" s="5" t="s">
         <v>598</v>
@@ -34163,10 +34273,10 @@
         <v>1</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>1217</v>
+        <v>1197</v>
       </c>
       <c r="I372" s="5" t="s">
-        <v>1323</v>
+        <v>1303</v>
       </c>
       <c r="K372" s="5">
         <v>-31</v>
@@ -34184,7 +34294,7 @@
         <v>9800</v>
       </c>
       <c r="P372" s="5" t="s">
-        <v>1320</v>
+        <v>1300</v>
       </c>
       <c r="Q372" s="10" t="s">
         <v>749</v>
@@ -34225,10 +34335,10 @@
         <v>1</v>
       </c>
       <c r="G373" s="5" t="s">
-        <v>1218</v>
+        <v>1198</v>
       </c>
       <c r="I373" s="5" t="s">
-        <v>1324</v>
+        <v>1304</v>
       </c>
       <c r="K373" s="5">
         <v>-31</v>
@@ -34246,13 +34356,13 @@
         <v>19800</v>
       </c>
       <c r="P373" s="5" t="s">
-        <v>1320</v>
+        <v>1300</v>
       </c>
       <c r="Q373" s="10" t="s">
         <v>750</v>
       </c>
       <c r="V373" s="5" t="s">
-        <v>1325</v>
+        <v>1305</v>
       </c>
       <c r="W373" s="5">
         <v>9999999</v>
@@ -34287,13 +34397,13 @@
         <v>1</v>
       </c>
       <c r="G374" s="5" t="s">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="H374" s="5" t="s">
-        <v>1220</v>
+        <v>1200</v>
       </c>
       <c r="I374" s="5" t="s">
-        <v>1485</v>
+        <v>1465</v>
       </c>
       <c r="K374" s="5">
         <v>-31</v>
@@ -34305,7 +34415,7 @@
         <v>0</v>
       </c>
       <c r="N374" s="5" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="O374" s="5">
         <v>600</v>
@@ -34314,7 +34424,7 @@
         <v>525</v>
       </c>
       <c r="Q374" s="10" t="s">
-        <v>1265</v>
+        <v>1245</v>
       </c>
       <c r="V374" s="5" t="s">
         <v>568</v>
@@ -34355,13 +34465,13 @@
         <v>1</v>
       </c>
       <c r="G375" s="5" t="s">
-        <v>1342</v>
+        <v>1322</v>
       </c>
       <c r="H375" s="5" t="s">
-        <v>1343</v>
+        <v>1323</v>
       </c>
       <c r="I375" s="5" t="s">
-        <v>1344</v>
+        <v>1324</v>
       </c>
       <c r="K375" s="5">
         <v>-31</v>
@@ -34373,19 +34483,19 @@
         <v>0</v>
       </c>
       <c r="N375" s="5" t="s">
-        <v>1345</v>
+        <v>1325</v>
       </c>
       <c r="O375" s="5">
         <v>300</v>
       </c>
       <c r="P375" s="5" t="s">
-        <v>1346</v>
+        <v>1326</v>
       </c>
       <c r="Q375" s="10" t="s">
-        <v>1347</v>
+        <v>1327</v>
       </c>
       <c r="V375" s="5" t="s">
-        <v>1348</v>
+        <v>1328</v>
       </c>
       <c r="W375" s="5">
         <v>9999999</v>
@@ -34423,13 +34533,13 @@
         <v>1</v>
       </c>
       <c r="G376" s="5" t="s">
-        <v>1350</v>
+        <v>1330</v>
       </c>
       <c r="H376" s="5" t="s">
-        <v>1352</v>
+        <v>1332</v>
       </c>
       <c r="I376" s="5" t="s">
-        <v>1353</v>
+        <v>1333</v>
       </c>
       <c r="K376" s="5">
         <v>-31</v>
@@ -34441,19 +34551,19 @@
         <v>0</v>
       </c>
       <c r="N376" s="5" t="s">
-        <v>1345</v>
+        <v>1325</v>
       </c>
       <c r="O376" s="5">
         <v>0</v>
       </c>
       <c r="P376" s="5" t="s">
-        <v>1355</v>
+        <v>1335</v>
       </c>
       <c r="Q376" s="10" t="s">
-        <v>1356</v>
+        <v>1336</v>
       </c>
       <c r="V376" s="5" t="s">
-        <v>1357</v>
+        <v>1337</v>
       </c>
       <c r="W376" s="5">
         <v>9999999</v>
@@ -34491,10 +34601,10 @@
         <v>1</v>
       </c>
       <c r="G377" s="5" t="s">
-        <v>1350</v>
+        <v>1330</v>
       </c>
       <c r="H377" s="5" t="s">
-        <v>1352</v>
+        <v>1332</v>
       </c>
       <c r="I377" s="5" t="s">
         <v>1014</v>
@@ -34509,19 +34619,19 @@
         <v>0</v>
       </c>
       <c r="N377" s="5" t="s">
-        <v>1345</v>
+        <v>1325</v>
       </c>
       <c r="O377" s="5">
         <v>300</v>
       </c>
       <c r="P377" s="5" t="s">
-        <v>1354</v>
+        <v>1334</v>
       </c>
       <c r="Q377" s="10" t="s">
-        <v>1358</v>
+        <v>1338</v>
       </c>
       <c r="V377" s="5" t="s">
-        <v>1348</v>
+        <v>1328</v>
       </c>
       <c r="W377" s="5">
         <v>9999999</v>
@@ -34559,13 +34669,13 @@
         <v>1</v>
       </c>
       <c r="G378" s="5" t="s">
-        <v>1350</v>
+        <v>1330</v>
       </c>
       <c r="H378" s="5" t="s">
-        <v>1351</v>
+        <v>1331</v>
       </c>
       <c r="I378" s="5" t="s">
-        <v>1359</v>
+        <v>1339</v>
       </c>
       <c r="K378" s="5">
         <v>-31</v>
@@ -34583,13 +34693,13 @@
         <v>600</v>
       </c>
       <c r="P378" s="5" t="s">
-        <v>1355</v>
+        <v>1335</v>
       </c>
       <c r="Q378" s="10" t="s">
-        <v>1360</v>
+        <v>1340</v>
       </c>
       <c r="V378" s="5" t="s">
-        <v>1361</v>
+        <v>1341</v>
       </c>
       <c r="W378" s="5">
         <v>9999999</v>
@@ -34627,10 +34737,10 @@
         <v>1</v>
       </c>
       <c r="G379" s="5" t="s">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="H379" s="5" t="s">
-        <v>1352</v>
+        <v>1332</v>
       </c>
       <c r="I379" s="5" t="s">
         <v>896</v>
@@ -34645,19 +34755,19 @@
         <v>0</v>
       </c>
       <c r="N379" s="5" t="s">
-        <v>1345</v>
+        <v>1325</v>
       </c>
       <c r="O379" s="5">
         <v>1800</v>
       </c>
       <c r="P379" s="5" t="s">
-        <v>1355</v>
+        <v>1335</v>
       </c>
       <c r="Q379" s="10" t="s">
-        <v>1373</v>
+        <v>1353</v>
       </c>
       <c r="V379" s="5" t="s">
-        <v>1362</v>
+        <v>1342</v>
       </c>
       <c r="W379" s="5">
         <v>9999999</v>
@@ -34695,10 +34805,10 @@
         <v>1</v>
       </c>
       <c r="G380" s="5" t="s">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="H380" s="5" t="s">
-        <v>1351</v>
+        <v>1331</v>
       </c>
       <c r="I380" s="5" t="s">
         <v>897</v>
@@ -34713,19 +34823,19 @@
         <v>0</v>
       </c>
       <c r="N380" s="5" t="s">
-        <v>1345</v>
+        <v>1325</v>
       </c>
       <c r="O380" s="5">
         <v>4800</v>
       </c>
       <c r="P380" s="5" t="s">
-        <v>1355</v>
+        <v>1335</v>
       </c>
       <c r="Q380" s="10" t="s">
-        <v>1374</v>
+        <v>1354</v>
       </c>
       <c r="V380" s="5" t="s">
-        <v>1363</v>
+        <v>1343</v>
       </c>
       <c r="W380" s="5">
         <v>9999999</v>
@@ -34763,13 +34873,13 @@
         <v>1</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>1350</v>
+        <v>1330</v>
       </c>
       <c r="H381" s="5" t="s">
-        <v>1364</v>
+        <v>1344</v>
       </c>
       <c r="I381" s="5" t="s">
-        <v>1353</v>
+        <v>1333</v>
       </c>
       <c r="K381" s="5">
         <v>-31</v>
@@ -34787,10 +34897,10 @@
         <v>0</v>
       </c>
       <c r="P381" s="5" t="s">
-        <v>1355</v>
+        <v>1335</v>
       </c>
       <c r="Q381" s="10" t="s">
-        <v>1356</v>
+        <v>1336</v>
       </c>
       <c r="V381" s="5" t="s">
         <v>570</v>
@@ -34831,13 +34941,13 @@
         <v>1</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="H382" s="5" t="s">
-        <v>1364</v>
+        <v>1344</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>1319</v>
+        <v>1299</v>
       </c>
       <c r="K382" s="5">
         <v>-31</v>
@@ -34855,13 +34965,13 @@
         <v>1800</v>
       </c>
       <c r="P382" s="5" t="s">
-        <v>1354</v>
+        <v>1334</v>
       </c>
       <c r="Q382" s="10" t="s">
-        <v>1365</v>
+        <v>1345</v>
       </c>
       <c r="V382" s="5" t="s">
-        <v>1348</v>
+        <v>1328</v>
       </c>
       <c r="W382" s="5">
         <v>9999999</v>
@@ -34899,13 +35009,13 @@
         <v>1</v>
       </c>
       <c r="G383" s="5" t="s">
-        <v>1350</v>
+        <v>1330</v>
       </c>
       <c r="H383" s="5" t="s">
-        <v>1364</v>
+        <v>1344</v>
       </c>
       <c r="I383" s="5" t="s">
-        <v>1366</v>
+        <v>1346</v>
       </c>
       <c r="K383" s="5">
         <v>-31</v>
@@ -34923,10 +35033,10 @@
         <v>4800</v>
       </c>
       <c r="P383" s="5" t="s">
-        <v>1355</v>
+        <v>1335</v>
       </c>
       <c r="Q383" s="10" t="s">
-        <v>1367</v>
+        <v>1347</v>
       </c>
       <c r="V383" s="5" t="s">
         <v>536</v>
@@ -34967,13 +35077,13 @@
         <v>1</v>
       </c>
       <c r="G384" s="5" t="s">
-        <v>1349</v>
+        <v>1329</v>
       </c>
       <c r="H384" s="5" t="s">
-        <v>1364</v>
+        <v>1344</v>
       </c>
       <c r="I384" s="5" t="s">
-        <v>1368</v>
+        <v>1348</v>
       </c>
       <c r="K384" s="5">
         <v>-31</v>
@@ -34985,13 +35095,13 @@
         <v>0</v>
       </c>
       <c r="N384" s="5" t="s">
-        <v>1345</v>
+        <v>1325</v>
       </c>
       <c r="O384" s="5">
         <v>9800</v>
       </c>
       <c r="P384" s="5" t="s">
-        <v>1355</v>
+        <v>1335</v>
       </c>
       <c r="Q384" s="10" t="s">
         <v>749</v>
@@ -35035,13 +35145,13 @@
         <v>1</v>
       </c>
       <c r="G385" s="5" t="s">
-        <v>1350</v>
+        <v>1330</v>
       </c>
       <c r="H385" s="5" t="s">
-        <v>1364</v>
+        <v>1344</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>1369</v>
+        <v>1349</v>
       </c>
       <c r="K385" s="5">
         <v>-31</v>
@@ -35053,19 +35163,19 @@
         <v>0</v>
       </c>
       <c r="N385" s="5" t="s">
-        <v>1345</v>
+        <v>1325</v>
       </c>
       <c r="O385" s="5">
         <v>19800</v>
       </c>
       <c r="P385" s="5" t="s">
-        <v>1354</v>
+        <v>1334</v>
       </c>
       <c r="Q385" s="10" t="s">
-        <v>1370</v>
+        <v>1350</v>
       </c>
       <c r="V385" s="5" t="s">
-        <v>1363</v>
+        <v>1343</v>
       </c>
       <c r="W385" s="5">
         <v>9999999</v>
@@ -35103,13 +35213,13 @@
         <v>1</v>
       </c>
       <c r="G386" s="19" t="s">
-        <v>1375</v>
+        <v>1355</v>
       </c>
       <c r="H386" s="19" t="s">
-        <v>1376</v>
+        <v>1356</v>
       </c>
       <c r="I386" s="19" t="s">
-        <v>1377</v>
+        <v>1357</v>
       </c>
       <c r="K386" s="19">
         <v>-31</v>
@@ -35127,10 +35237,10 @@
         <v>1800</v>
       </c>
       <c r="P386" s="19" t="s">
-        <v>1378</v>
+        <v>1358</v>
       </c>
       <c r="Q386" s="39" t="s">
-        <v>1379</v>
+        <v>1359</v>
       </c>
       <c r="V386" s="19" t="s">
         <v>536</v>
@@ -35171,13 +35281,13 @@
         <v>1</v>
       </c>
       <c r="G387" s="19" t="s">
-        <v>1380</v>
+        <v>1360</v>
       </c>
       <c r="H387" s="19" t="s">
-        <v>1381</v>
+        <v>1361</v>
       </c>
       <c r="I387" s="19" t="s">
-        <v>1382</v>
+        <v>1362</v>
       </c>
       <c r="K387" s="19">
         <v>-31</v>
@@ -35189,16 +35299,16 @@
         <v>0</v>
       </c>
       <c r="N387" s="19" t="s">
-        <v>1383</v>
+        <v>1363</v>
       </c>
       <c r="O387" s="19">
         <v>3000</v>
       </c>
       <c r="P387" s="19" t="s">
-        <v>1384</v>
+        <v>1364</v>
       </c>
       <c r="Q387" s="39" t="s">
-        <v>1385</v>
+        <v>1365</v>
       </c>
       <c r="V387" s="19" t="s">
         <v>536</v>
@@ -35239,13 +35349,13 @@
         <v>1</v>
       </c>
       <c r="G388" s="19" t="s">
-        <v>1386</v>
+        <v>1366</v>
       </c>
       <c r="H388" s="19" t="s">
-        <v>1387</v>
+        <v>1367</v>
       </c>
       <c r="I388" s="19" t="s">
-        <v>1388</v>
+        <v>1368</v>
       </c>
       <c r="K388" s="19">
         <v>-31</v>
@@ -35257,19 +35367,19 @@
         <v>0</v>
       </c>
       <c r="N388" s="19" t="s">
-        <v>1389</v>
+        <v>1369</v>
       </c>
       <c r="O388" s="19">
         <v>4800</v>
       </c>
       <c r="P388" s="19" t="s">
-        <v>1390</v>
+        <v>1370</v>
       </c>
       <c r="Q388" s="39" t="s">
-        <v>1391</v>
+        <v>1371</v>
       </c>
       <c r="V388" s="19" t="s">
-        <v>1392</v>
+        <v>1372</v>
       </c>
       <c r="W388" s="19">
         <v>9999999</v>
@@ -35307,13 +35417,13 @@
         <v>1</v>
       </c>
       <c r="G389" s="19" t="s">
-        <v>1393</v>
+        <v>1373</v>
       </c>
       <c r="H389" s="19" t="s">
-        <v>1394</v>
+        <v>1374</v>
       </c>
       <c r="I389" s="19" t="s">
-        <v>1395</v>
+        <v>1375</v>
       </c>
       <c r="K389" s="19">
         <v>-31</v>
@@ -35325,16 +35435,16 @@
         <v>0</v>
       </c>
       <c r="N389" s="19" t="s">
-        <v>1396</v>
+        <v>1376</v>
       </c>
       <c r="O389" s="19">
         <v>4800</v>
       </c>
       <c r="P389" s="19" t="s">
-        <v>1397</v>
+        <v>1377</v>
       </c>
       <c r="Q389" s="39" t="s">
-        <v>1391</v>
+        <v>1371</v>
       </c>
       <c r="V389" s="19" t="s">
         <v>536</v>
@@ -35375,13 +35485,13 @@
         <v>1</v>
       </c>
       <c r="G390" s="19" t="s">
-        <v>1380</v>
+        <v>1360</v>
       </c>
       <c r="H390" s="19" t="s">
-        <v>1207</v>
+        <v>1187</v>
       </c>
       <c r="I390" s="19" t="s">
-        <v>1398</v>
+        <v>1378</v>
       </c>
       <c r="K390" s="19">
         <v>-31</v>
@@ -35399,10 +35509,10 @@
         <v>9800</v>
       </c>
       <c r="P390" s="19" t="s">
-        <v>1399</v>
+        <v>1379</v>
       </c>
       <c r="Q390" s="39" t="s">
-        <v>1400</v>
+        <v>1380</v>
       </c>
       <c r="V390" s="19" t="s">
         <v>536</v>
@@ -35443,13 +35553,13 @@
         <v>1</v>
       </c>
       <c r="G391" s="19" t="s">
-        <v>1401</v>
+        <v>1381</v>
       </c>
       <c r="H391" s="19" t="s">
-        <v>1394</v>
+        <v>1374</v>
       </c>
       <c r="I391" s="19" t="s">
-        <v>1402</v>
+        <v>1382</v>
       </c>
       <c r="K391" s="19">
         <v>-31</v>
@@ -35467,10 +35577,10 @@
         <v>19800</v>
       </c>
       <c r="P391" s="19" t="s">
-        <v>1403</v>
+        <v>1383</v>
       </c>
       <c r="Q391" s="39" t="s">
-        <v>1404</v>
+        <v>1384</v>
       </c>
       <c r="V391" s="19" t="s">
         <v>536</v>
@@ -35511,13 +35621,13 @@
         <v>1</v>
       </c>
       <c r="G392" s="19" t="s">
-        <v>1375</v>
+        <v>1355</v>
       </c>
       <c r="H392" s="19" t="s">
-        <v>1405</v>
+        <v>1385</v>
       </c>
       <c r="I392" s="19" t="s">
-        <v>1406</v>
+        <v>1386</v>
       </c>
       <c r="K392" s="19">
         <v>-31</v>
@@ -35535,10 +35645,10 @@
         <v>9800</v>
       </c>
       <c r="P392" s="19" t="s">
-        <v>1407</v>
+        <v>1387</v>
       </c>
       <c r="Q392" s="39" t="s">
-        <v>1408</v>
+        <v>1388</v>
       </c>
       <c r="V392" s="19" t="s">
         <v>536</v>
@@ -35579,13 +35689,13 @@
         <v>1</v>
       </c>
       <c r="G393" s="19" t="s">
-        <v>1380</v>
+        <v>1360</v>
       </c>
       <c r="H393" s="19" t="s">
-        <v>1409</v>
+        <v>1389</v>
       </c>
       <c r="I393" s="19" t="s">
-        <v>1410</v>
+        <v>1390</v>
       </c>
       <c r="K393" s="19">
         <v>-31</v>
@@ -35603,10 +35713,10 @@
         <v>19800</v>
       </c>
       <c r="P393" s="19" t="s">
-        <v>1411</v>
+        <v>1391</v>
       </c>
       <c r="Q393" s="39" t="s">
-        <v>1404</v>
+        <v>1384</v>
       </c>
       <c r="V393" s="19" t="s">
         <v>536</v>
@@ -35647,13 +35757,13 @@
         <v>1</v>
       </c>
       <c r="G394" s="19" t="s">
-        <v>1386</v>
+        <v>1366</v>
       </c>
       <c r="H394" s="19" t="s">
-        <v>1412</v>
+        <v>1392</v>
       </c>
       <c r="I394" s="19" t="s">
-        <v>1413</v>
+        <v>1393</v>
       </c>
       <c r="K394" s="19">
         <v>-31</v>
@@ -35665,16 +35775,16 @@
         <v>0</v>
       </c>
       <c r="N394" s="19" t="s">
-        <v>1414</v>
+        <v>1394</v>
       </c>
       <c r="O394" s="19">
         <v>49800</v>
       </c>
       <c r="P394" s="19" t="s">
-        <v>1415</v>
+        <v>1395</v>
       </c>
       <c r="Q394" s="39" t="s">
-        <v>1416</v>
+        <v>1396</v>
       </c>
       <c r="V394" s="19" t="s">
         <v>536</v>
@@ -35715,10 +35825,10 @@
         <v>1</v>
       </c>
       <c r="G395" s="5" t="s">
-        <v>1434</v>
+        <v>1414</v>
       </c>
       <c r="I395" s="5" t="s">
-        <v>1435</v>
+        <v>1415</v>
       </c>
       <c r="K395" s="5">
         <v>-31</v>
@@ -35730,16 +35840,16 @@
         <v>0</v>
       </c>
       <c r="N395" s="5" t="s">
-        <v>1436</v>
+        <v>1416</v>
       </c>
       <c r="O395" s="5">
         <v>600</v>
       </c>
       <c r="P395" s="5" t="s">
-        <v>1438</v>
+        <v>1418</v>
       </c>
       <c r="Q395" s="10" t="s">
-        <v>1439</v>
+        <v>1419</v>
       </c>
       <c r="V395" s="5" t="s">
         <v>529</v>
@@ -35777,10 +35887,10 @@
         <v>1</v>
       </c>
       <c r="G396" s="5" t="s">
-        <v>1440</v>
+        <v>1420</v>
       </c>
       <c r="I396" s="5" t="s">
-        <v>1441</v>
+        <v>1421</v>
       </c>
       <c r="K396" s="5">
         <v>-31</v>
@@ -35792,16 +35902,16 @@
         <v>0</v>
       </c>
       <c r="N396" s="5" t="s">
-        <v>1436</v>
+        <v>1416</v>
       </c>
       <c r="O396" s="5">
         <v>2000</v>
       </c>
       <c r="P396" s="5" t="s">
-        <v>1437</v>
+        <v>1417</v>
       </c>
       <c r="Q396" s="10" t="s">
-        <v>1442</v>
+        <v>1422</v>
       </c>
       <c r="V396" s="5" t="s">
         <v>529</v>
@@ -35842,7 +35952,7 @@
         <v>289</v>
       </c>
       <c r="I397" s="5" t="s">
-        <v>1443</v>
+        <v>1423</v>
       </c>
       <c r="K397" s="5">
         <v>-31</v>
@@ -35860,10 +35970,10 @@
         <v>4800</v>
       </c>
       <c r="P397" s="5" t="s">
-        <v>1437</v>
+        <v>1417</v>
       </c>
       <c r="Q397" s="10" t="s">
-        <v>1444</v>
+        <v>1424</v>
       </c>
       <c r="V397" s="5" t="s">
         <v>529</v>
@@ -35904,7 +36014,7 @@
         <v>292</v>
       </c>
       <c r="I398" s="5" t="s">
-        <v>1445</v>
+        <v>1425</v>
       </c>
       <c r="K398" s="5">
         <v>-31</v>
@@ -35922,10 +36032,10 @@
         <v>9800</v>
       </c>
       <c r="P398" s="5" t="s">
-        <v>1437</v>
+        <v>1417</v>
       </c>
       <c r="Q398" s="10" t="s">
-        <v>1446</v>
+        <v>1426</v>
       </c>
       <c r="V398" s="5" t="s">
         <v>529</v>
@@ -35963,10 +36073,10 @@
         <v>1</v>
       </c>
       <c r="G399" s="5" t="s">
-        <v>1447</v>
+        <v>1427</v>
       </c>
       <c r="I399" s="5" t="s">
-        <v>1448</v>
+        <v>1428</v>
       </c>
       <c r="K399" s="5">
         <v>-31</v>
@@ -35978,16 +36088,16 @@
         <v>0</v>
       </c>
       <c r="N399" s="5" t="s">
-        <v>1436</v>
+        <v>1416</v>
       </c>
       <c r="O399" s="5">
         <v>19800</v>
       </c>
       <c r="P399" s="5" t="s">
-        <v>1438</v>
+        <v>1418</v>
       </c>
       <c r="Q399" s="10" t="s">
-        <v>1449</v>
+        <v>1429</v>
       </c>
       <c r="V399" s="5" t="s">
         <v>529</v>
@@ -36025,10 +36135,10 @@
         <v>1</v>
       </c>
       <c r="G400" s="5" t="s">
-        <v>1450</v>
+        <v>1430</v>
       </c>
       <c r="I400" s="5" t="s">
-        <v>1451</v>
+        <v>1431</v>
       </c>
       <c r="K400" s="5">
         <v>-31</v>
@@ -36040,16 +36150,16 @@
         <v>0</v>
       </c>
       <c r="N400" s="5" t="s">
-        <v>1436</v>
+        <v>1416</v>
       </c>
       <c r="O400" s="5">
         <v>49800</v>
       </c>
       <c r="P400" s="5" t="s">
-        <v>1438</v>
+        <v>1418</v>
       </c>
       <c r="Q400" s="10" t="s">
-        <v>1452</v>
+        <v>1432</v>
       </c>
       <c r="V400" s="5" t="s">
         <v>529</v>
@@ -36087,10 +36197,10 @@
         <v>1</v>
       </c>
       <c r="G401" s="5" t="s">
-        <v>1453</v>
+        <v>1433</v>
       </c>
       <c r="I401" s="5" t="s">
-        <v>1454</v>
+        <v>1434</v>
       </c>
       <c r="K401" s="5">
         <v>-31</v>
@@ -36108,13 +36218,13 @@
         <v>1800</v>
       </c>
       <c r="P401" s="5" t="s">
-        <v>1456</v>
+        <v>1436</v>
       </c>
       <c r="Q401" s="5" t="s">
-        <v>1457</v>
+        <v>1437</v>
       </c>
       <c r="V401" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W401" s="5">
         <v>99999999</v>
@@ -36152,10 +36262,10 @@
         <v>1</v>
       </c>
       <c r="G402" s="5" t="s">
-        <v>1458</v>
+        <v>1438</v>
       </c>
       <c r="I402" s="5" t="s">
-        <v>1459</v>
+        <v>1439</v>
       </c>
       <c r="K402" s="5">
         <v>-31</v>
@@ -36167,19 +36277,19 @@
         <v>0</v>
       </c>
       <c r="N402" s="5" t="s">
-        <v>1460</v>
+        <v>1440</v>
       </c>
       <c r="O402" s="5">
         <v>4800</v>
       </c>
       <c r="P402" s="5" t="s">
-        <v>1455</v>
+        <v>1435</v>
       </c>
       <c r="Q402" s="5" t="s">
-        <v>1461</v>
+        <v>1441</v>
       </c>
       <c r="V402" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W402" s="5">
         <v>99999999</v>
@@ -36217,10 +36327,10 @@
         <v>1</v>
       </c>
       <c r="G403" s="5" t="s">
-        <v>1462</v>
+        <v>1442</v>
       </c>
       <c r="I403" s="5" t="s">
-        <v>1463</v>
+        <v>1443</v>
       </c>
       <c r="K403" s="5">
         <v>-31</v>
@@ -36238,13 +36348,13 @@
         <v>9800</v>
       </c>
       <c r="P403" s="5" t="s">
-        <v>1465</v>
+        <v>1445</v>
       </c>
       <c r="Q403" s="5" t="s">
-        <v>1466</v>
+        <v>1446</v>
       </c>
       <c r="V403" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W403" s="5">
         <v>99999999</v>
@@ -36282,10 +36392,10 @@
         <v>1</v>
       </c>
       <c r="G404" s="5" t="s">
-        <v>1467</v>
+        <v>1447</v>
       </c>
       <c r="I404" s="5" t="s">
-        <v>1468</v>
+        <v>1448</v>
       </c>
       <c r="K404" s="5">
         <v>-31</v>
@@ -36303,13 +36413,13 @@
         <v>19800</v>
       </c>
       <c r="P404" s="5" t="s">
-        <v>1464</v>
+        <v>1444</v>
       </c>
       <c r="Q404" s="5" t="s">
-        <v>1469</v>
+        <v>1449</v>
       </c>
       <c r="V404" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W404" s="5">
         <v>99999999</v>
@@ -36347,10 +36457,10 @@
         <v>1</v>
       </c>
       <c r="G405" s="5" t="s">
-        <v>1470</v>
+        <v>1450</v>
       </c>
       <c r="I405" s="5" t="s">
-        <v>1471</v>
+        <v>1451</v>
       </c>
       <c r="K405" s="5">
         <v>-31</v>
@@ -36368,13 +36478,13 @@
         <v>29800</v>
       </c>
       <c r="P405" s="5" t="s">
-        <v>1472</v>
+        <v>1452</v>
       </c>
       <c r="Q405" s="5" t="s">
-        <v>1473</v>
+        <v>1453</v>
       </c>
       <c r="V405" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W405" s="5">
         <v>99999999</v>
@@ -36412,10 +36522,10 @@
         <v>1</v>
       </c>
       <c r="G406" s="5" t="s">
-        <v>1474</v>
+        <v>1454</v>
       </c>
       <c r="I406" s="5" t="s">
-        <v>1475</v>
+        <v>1455</v>
       </c>
       <c r="K406" s="5">
         <v>-31</v>
@@ -36433,13 +36543,13 @@
         <v>49800</v>
       </c>
       <c r="P406" s="5" t="s">
-        <v>1477</v>
+        <v>1457</v>
       </c>
       <c r="Q406" s="5" t="s">
-        <v>1478</v>
+        <v>1458</v>
       </c>
       <c r="V406" s="5" t="s">
-        <v>1479</v>
+        <v>1459</v>
       </c>
       <c r="W406" s="5">
         <v>99999999</v>
@@ -36477,10 +36587,10 @@
         <v>1</v>
       </c>
       <c r="G407" s="5" t="s">
-        <v>1480</v>
+        <v>1460</v>
       </c>
       <c r="I407" s="5" t="s">
-        <v>1481</v>
+        <v>1461</v>
       </c>
       <c r="K407" s="5">
         <v>-31</v>
@@ -36492,19 +36602,19 @@
         <v>0</v>
       </c>
       <c r="N407" s="5" t="s">
-        <v>1482</v>
+        <v>1462</v>
       </c>
       <c r="O407" s="5">
         <v>99800</v>
       </c>
       <c r="P407" s="5" t="s">
-        <v>1476</v>
+        <v>1456</v>
       </c>
       <c r="Q407" s="5" t="s">
-        <v>1483</v>
+        <v>1463</v>
       </c>
       <c r="V407" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W407" s="5">
         <v>99999999</v>
@@ -36542,10 +36652,10 @@
         <v>1</v>
       </c>
       <c r="G408" s="49" t="s">
-        <v>1505</v>
+        <v>1485</v>
       </c>
       <c r="I408" s="49" t="s">
-        <v>1506</v>
+        <v>1486</v>
       </c>
       <c r="K408" s="49">
         <v>-31</v>
@@ -36557,16 +36667,16 @@
         <v>0</v>
       </c>
       <c r="N408" s="49" t="s">
-        <v>1507</v>
+        <v>1487</v>
       </c>
       <c r="O408" s="49">
         <v>600</v>
       </c>
       <c r="P408" s="49" t="s">
-        <v>1508</v>
+        <v>1488</v>
       </c>
       <c r="Q408" s="50" t="s">
-        <v>1509</v>
+        <v>1489</v>
       </c>
       <c r="V408" s="49" t="s">
         <v>568</v>
@@ -36607,10 +36717,10 @@
         <v>1</v>
       </c>
       <c r="G409" s="49" t="s">
-        <v>1496</v>
+        <v>1476</v>
       </c>
       <c r="I409" s="49" t="s">
-        <v>1510</v>
+        <v>1490</v>
       </c>
       <c r="K409" s="49">
         <v>-31</v>
@@ -36622,19 +36732,19 @@
         <v>0</v>
       </c>
       <c r="N409" s="49" t="s">
-        <v>1507</v>
+        <v>1487</v>
       </c>
       <c r="O409" s="49">
         <v>2000</v>
       </c>
       <c r="P409" s="49" t="s">
-        <v>1508</v>
+        <v>1488</v>
       </c>
       <c r="Q409" s="50" t="s">
-        <v>1511</v>
+        <v>1491</v>
       </c>
       <c r="V409" s="49" t="s">
-        <v>1512</v>
+        <v>1492</v>
       </c>
       <c r="W409" s="49">
         <v>99999999</v>
@@ -36672,10 +36782,10 @@
         <v>1</v>
       </c>
       <c r="G410" s="49" t="s">
-        <v>1497</v>
+        <v>1477</v>
       </c>
       <c r="I410" s="49" t="s">
-        <v>1513</v>
+        <v>1493</v>
       </c>
       <c r="K410" s="49">
         <v>-31</v>
@@ -36687,16 +36797,16 @@
         <v>0</v>
       </c>
       <c r="N410" s="49" t="s">
-        <v>1507</v>
+        <v>1487</v>
       </c>
       <c r="O410" s="49">
         <v>4800</v>
       </c>
       <c r="P410" s="49" t="s">
-        <v>1508</v>
+        <v>1488</v>
       </c>
       <c r="Q410" s="50" t="s">
-        <v>1514</v>
+        <v>1494</v>
       </c>
       <c r="V410" s="49" t="s">
         <v>568</v>
@@ -36737,10 +36847,10 @@
         <v>1</v>
       </c>
       <c r="G411" s="49" t="s">
-        <v>1515</v>
+        <v>1495</v>
       </c>
       <c r="I411" s="49" t="s">
-        <v>1498</v>
+        <v>1478</v>
       </c>
       <c r="K411" s="49">
         <v>-31</v>
@@ -36758,13 +36868,13 @@
         <v>9800</v>
       </c>
       <c r="P411" s="49" t="s">
-        <v>1508</v>
+        <v>1488</v>
       </c>
       <c r="Q411" s="50" t="s">
-        <v>1516</v>
+        <v>1496</v>
       </c>
       <c r="V411" s="49" t="s">
-        <v>1512</v>
+        <v>1492</v>
       </c>
       <c r="W411" s="49">
         <v>99999999</v>
@@ -36802,10 +36912,10 @@
         <v>1</v>
       </c>
       <c r="G412" s="49" t="s">
-        <v>1517</v>
+        <v>1497</v>
       </c>
       <c r="I412" s="49" t="s">
-        <v>1518</v>
+        <v>1498</v>
       </c>
       <c r="K412" s="49">
         <v>-31</v>
@@ -36823,10 +36933,10 @@
         <v>19800</v>
       </c>
       <c r="P412" s="49" t="s">
-        <v>1495</v>
+        <v>1475</v>
       </c>
       <c r="Q412" s="50" t="s">
-        <v>1519</v>
+        <v>1499</v>
       </c>
       <c r="V412" s="49" t="s">
         <v>568</v>
@@ -36867,10 +36977,10 @@
         <v>1</v>
       </c>
       <c r="G413" s="49" t="s">
-        <v>1520</v>
+        <v>1500</v>
       </c>
       <c r="I413" s="49" t="s">
-        <v>1521</v>
+        <v>1501</v>
       </c>
       <c r="K413" s="49">
         <v>-31</v>
@@ -36888,13 +36998,13 @@
         <v>49800</v>
       </c>
       <c r="P413" s="49" t="s">
-        <v>1495</v>
+        <v>1475</v>
       </c>
       <c r="Q413" s="50" t="s">
-        <v>1522</v>
+        <v>1502</v>
       </c>
       <c r="V413" s="49" t="s">
-        <v>1512</v>
+        <v>1492</v>
       </c>
       <c r="W413" s="49">
         <v>99999999</v>
@@ -36935,7 +37045,7 @@
         <v>1</v>
       </c>
       <c r="G414" s="5" t="s">
-        <v>1499</v>
+        <v>1479</v>
       </c>
       <c r="K414" s="5">
         <v>-4</v>
@@ -36956,7 +37066,7 @@
         <v>78</v>
       </c>
       <c r="Q414" s="10" t="s">
-        <v>1523</v>
+        <v>1503</v>
       </c>
       <c r="V414" s="5" t="s">
         <v>526</v>
@@ -36988,13 +37098,13 @@
         <v>1</v>
       </c>
       <c r="G415" s="6" t="s">
-        <v>1535</v>
+        <v>1515</v>
       </c>
       <c r="H415" s="6" t="s">
-        <v>1536</v>
+        <v>1516</v>
       </c>
       <c r="I415" s="6" t="s">
-        <v>1537</v>
+        <v>1517</v>
       </c>
       <c r="K415" s="6">
         <v>-31</v>
@@ -37012,10 +37122,10 @@
         <v>600</v>
       </c>
       <c r="P415" s="5" t="s">
-        <v>1538</v>
+        <v>1518</v>
       </c>
       <c r="Q415" s="52" t="s">
-        <v>1539</v>
+        <v>1519</v>
       </c>
       <c r="V415" s="6" t="s">
         <v>536</v>
@@ -37056,13 +37166,13 @@
         <v>1</v>
       </c>
       <c r="G416" s="6" t="s">
-        <v>1540</v>
+        <v>1520</v>
       </c>
       <c r="H416" s="6" t="s">
-        <v>1536</v>
+        <v>1516</v>
       </c>
       <c r="I416" s="6" t="s">
-        <v>1537</v>
+        <v>1517</v>
       </c>
       <c r="K416" s="6">
         <v>-31</v>
@@ -37080,13 +37190,13 @@
         <v>1800</v>
       </c>
       <c r="P416" s="5" t="s">
-        <v>1541</v>
+        <v>1521</v>
       </c>
       <c r="Q416" s="52" t="s">
-        <v>1539</v>
+        <v>1519</v>
       </c>
       <c r="V416" s="6" t="s">
-        <v>1542</v>
+        <v>1522</v>
       </c>
       <c r="W416" s="14" t="s">
         <v>109</v>
@@ -37124,13 +37234,13 @@
         <v>1</v>
       </c>
       <c r="G417" s="6" t="s">
-        <v>1543</v>
+        <v>1523</v>
       </c>
       <c r="H417" s="6" t="s">
-        <v>1536</v>
+        <v>1516</v>
       </c>
       <c r="I417" s="6" t="s">
-        <v>1537</v>
+        <v>1517</v>
       </c>
       <c r="K417" s="6">
         <v>-31</v>
@@ -37148,13 +37258,13 @@
         <v>4800</v>
       </c>
       <c r="P417" s="5" t="s">
-        <v>1195</v>
+        <v>1175</v>
       </c>
       <c r="Q417" s="52" t="s">
-        <v>1539</v>
+        <v>1519</v>
       </c>
       <c r="V417" s="6" t="s">
-        <v>1198</v>
+        <v>1178</v>
       </c>
       <c r="W417" s="14" t="s">
         <v>109</v>
@@ -37192,13 +37302,13 @@
         <v>1</v>
       </c>
       <c r="G418" s="6" t="s">
-        <v>1535</v>
+        <v>1515</v>
       </c>
       <c r="H418" s="6" t="s">
-        <v>1544</v>
+        <v>1524</v>
       </c>
       <c r="I418" s="6" t="s">
-        <v>1537</v>
+        <v>1517</v>
       </c>
       <c r="K418" s="6">
         <v>-31</v>
@@ -37216,13 +37326,13 @@
         <v>9800</v>
       </c>
       <c r="P418" s="5" t="s">
-        <v>1197</v>
+        <v>1177</v>
       </c>
       <c r="Q418" s="52" t="s">
-        <v>1191</v>
+        <v>1171</v>
       </c>
       <c r="V418" s="6" t="s">
-        <v>1198</v>
+        <v>1178</v>
       </c>
       <c r="W418" s="14" t="s">
         <v>109</v>
@@ -37260,13 +37370,13 @@
         <v>1</v>
       </c>
       <c r="G419" s="6" t="s">
-        <v>1540</v>
+        <v>1520</v>
       </c>
       <c r="H419" s="6" t="s">
-        <v>1544</v>
+        <v>1524</v>
       </c>
       <c r="I419" s="6" t="s">
-        <v>1537</v>
+        <v>1517</v>
       </c>
       <c r="K419" s="6">
         <v>-31</v>
@@ -37284,13 +37394,13 @@
         <v>19800</v>
       </c>
       <c r="P419" s="5" t="s">
-        <v>1199</v>
+        <v>1179</v>
       </c>
       <c r="Q419" s="52" t="s">
-        <v>1539</v>
+        <v>1519</v>
       </c>
       <c r="V419" s="6" t="s">
-        <v>1198</v>
+        <v>1178</v>
       </c>
       <c r="W419" s="14" t="s">
         <v>109</v>
@@ -37328,13 +37438,13 @@
         <v>1</v>
       </c>
       <c r="G420" s="6" t="s">
-        <v>1543</v>
+        <v>1523</v>
       </c>
       <c r="H420" s="6" t="s">
-        <v>1544</v>
+        <v>1524</v>
       </c>
       <c r="I420" s="6" t="s">
-        <v>1190</v>
+        <v>1170</v>
       </c>
       <c r="K420" s="6">
         <v>-31</v>
@@ -37352,13 +37462,13 @@
         <v>49800</v>
       </c>
       <c r="P420" s="5" t="s">
-        <v>1200</v>
+        <v>1180</v>
       </c>
       <c r="Q420" s="52" t="s">
-        <v>1539</v>
+        <v>1519</v>
       </c>
       <c r="V420" s="6" t="s">
-        <v>1198</v>
+        <v>1178</v>
       </c>
       <c r="W420" s="14" t="s">
         <v>109</v>
@@ -37396,10 +37506,10 @@
         <v>1</v>
       </c>
       <c r="G421" s="19" t="s">
-        <v>1545</v>
+        <v>1525</v>
       </c>
       <c r="I421" s="19" t="s">
-        <v>1546</v>
+        <v>1526</v>
       </c>
       <c r="K421" s="19">
         <v>-31</v>
@@ -37411,19 +37521,19 @@
         <v>0</v>
       </c>
       <c r="N421" s="19" t="s">
-        <v>1547</v>
+        <v>1527</v>
       </c>
       <c r="O421" s="19">
         <v>1000</v>
       </c>
       <c r="P421" s="19" t="s">
-        <v>1548</v>
+        <v>1528</v>
       </c>
       <c r="Q421" s="39" t="s">
-        <v>1549</v>
+        <v>1529</v>
       </c>
       <c r="V421" s="19" t="s">
-        <v>1550</v>
+        <v>1530</v>
       </c>
       <c r="W421" s="19">
         <v>9999999</v>
@@ -37435,10 +37545,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA421" s="19" t="s">
-        <v>1551</v>
+        <v>1531</v>
       </c>
       <c r="AB421" s="19" t="s">
-        <v>1552</v>
+        <v>1532</v>
       </c>
       <c r="AG421" s="19">
         <v>1</v>
@@ -37464,13 +37574,13 @@
         <v>1</v>
       </c>
       <c r="G422" s="53" t="s">
-        <v>1578</v>
+        <v>1558</v>
       </c>
       <c r="H422" s="53" t="s">
-        <v>1579</v>
+        <v>1559</v>
       </c>
       <c r="I422" s="53" t="s">
-        <v>1580</v>
+        <v>1560</v>
       </c>
       <c r="K422" s="53">
         <v>-31</v>
@@ -37488,13 +37598,13 @@
         <v>2000</v>
       </c>
       <c r="P422" s="53" t="s">
-        <v>1581</v>
+        <v>1561</v>
       </c>
       <c r="Q422" s="54" t="s">
-        <v>1582</v>
+        <v>1562</v>
       </c>
       <c r="V422" s="53" t="s">
-        <v>1583</v>
+        <v>1563</v>
       </c>
       <c r="W422" s="53">
         <v>99999999</v>
@@ -37532,13 +37642,13 @@
         <v>1</v>
       </c>
       <c r="G423" s="53" t="s">
-        <v>1554</v>
+        <v>1534</v>
       </c>
       <c r="H423" s="53" t="s">
-        <v>1553</v>
+        <v>1533</v>
       </c>
       <c r="I423" s="53" t="s">
-        <v>1584</v>
+        <v>1564</v>
       </c>
       <c r="K423" s="53">
         <v>-31</v>
@@ -37556,13 +37666,13 @@
         <v>5800</v>
       </c>
       <c r="P423" s="53" t="s">
-        <v>1585</v>
+        <v>1565</v>
       </c>
       <c r="Q423" s="54" t="s">
-        <v>1586</v>
+        <v>1566</v>
       </c>
       <c r="V423" s="53" t="s">
-        <v>1052</v>
+        <v>1032</v>
       </c>
       <c r="W423" s="53">
         <v>99999999</v>
@@ -37600,13 +37710,13 @@
         <v>1</v>
       </c>
       <c r="G424" s="53" t="s">
-        <v>1587</v>
+        <v>1567</v>
       </c>
       <c r="H424" s="53" t="s">
-        <v>1553</v>
+        <v>1533</v>
       </c>
       <c r="I424" s="53" t="s">
-        <v>1588</v>
+        <v>1568</v>
       </c>
       <c r="K424" s="53">
         <v>-31</v>
@@ -37624,13 +37734,13 @@
         <v>12800</v>
       </c>
       <c r="P424" s="53" t="s">
-        <v>1589</v>
+        <v>1569</v>
       </c>
       <c r="Q424" s="54" t="s">
-        <v>1590</v>
+        <v>1570</v>
       </c>
       <c r="V424" s="53" t="s">
-        <v>1052</v>
+        <v>1032</v>
       </c>
       <c r="W424" s="53">
         <v>99999999</v>
@@ -37668,10 +37778,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="6" t="s">
-        <v>1555</v>
+        <v>1535</v>
       </c>
       <c r="I425" s="6" t="s">
-        <v>1556</v>
+        <v>1536</v>
       </c>
       <c r="K425" s="6">
         <v>-31</v>
@@ -37689,10 +37799,10 @@
         <v>49800</v>
       </c>
       <c r="P425" s="6" t="s">
-        <v>1557</v>
+        <v>1537</v>
       </c>
       <c r="Q425" s="52" t="s">
-        <v>1558</v>
+        <v>1538</v>
       </c>
       <c r="V425" s="6" t="s">
         <v>570</v>
@@ -37724,10 +37834,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>1559</v>
+        <v>1539</v>
       </c>
       <c r="I426" s="6" t="s">
-        <v>1560</v>
+        <v>1540</v>
       </c>
       <c r="K426" s="6">
         <v>-31</v>
@@ -37745,13 +37855,13 @@
         <v>19800</v>
       </c>
       <c r="P426" s="6" t="s">
-        <v>1561</v>
+        <v>1541</v>
       </c>
       <c r="Q426" s="52" t="s">
-        <v>1558</v>
+        <v>1538</v>
       </c>
       <c r="V426" s="6" t="s">
-        <v>1550</v>
+        <v>1530</v>
       </c>
       <c r="W426" s="6">
         <v>9999999</v>
@@ -37780,10 +37890,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="6" t="s">
-        <v>1562</v>
+        <v>1542</v>
       </c>
       <c r="I427" s="6" t="s">
-        <v>1533</v>
+        <v>1513</v>
       </c>
       <c r="K427" s="6">
         <v>-31</v>
@@ -37801,13 +37911,13 @@
         <v>9800</v>
       </c>
       <c r="P427" s="6" t="s">
-        <v>1563</v>
+        <v>1543</v>
       </c>
       <c r="Q427" s="52" t="s">
-        <v>1558</v>
+        <v>1538</v>
       </c>
       <c r="V427" s="6" t="s">
-        <v>1550</v>
+        <v>1530</v>
       </c>
       <c r="W427" s="6">
         <v>9999999</v>
@@ -37836,10 +37946,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>1564</v>
+        <v>1544</v>
       </c>
       <c r="I428" s="6" t="s">
-        <v>1565</v>
+        <v>1545</v>
       </c>
       <c r="K428" s="6">
         <v>-31</v>
@@ -37857,13 +37967,13 @@
         <v>9800</v>
       </c>
       <c r="P428" s="6" t="s">
-        <v>1566</v>
+        <v>1546</v>
       </c>
       <c r="Q428" s="52" t="s">
-        <v>1558</v>
+        <v>1538</v>
       </c>
       <c r="V428" s="6" t="s">
-        <v>1550</v>
+        <v>1530</v>
       </c>
       <c r="W428" s="6">
         <v>9999999</v>
@@ -37892,10 +38002,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="6" t="s">
-        <v>1534</v>
+        <v>1514</v>
       </c>
       <c r="I429" s="6" t="s">
-        <v>1567</v>
+        <v>1547</v>
       </c>
       <c r="K429" s="6">
         <v>-31</v>
@@ -37913,13 +38023,13 @@
         <v>4800</v>
       </c>
       <c r="P429" s="6" t="s">
-        <v>1568</v>
+        <v>1548</v>
       </c>
       <c r="Q429" s="52" t="s">
-        <v>1558</v>
+        <v>1538</v>
       </c>
       <c r="V429" s="6" t="s">
-        <v>1550</v>
+        <v>1530</v>
       </c>
       <c r="W429" s="6">
         <v>9999999</v>
@@ -37948,13 +38058,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="19" t="s">
-        <v>1569</v>
+        <v>1549</v>
       </c>
       <c r="H430" s="19" t="s">
-        <v>1570</v>
+        <v>1550</v>
       </c>
       <c r="I430" s="19" t="s">
-        <v>1524</v>
+        <v>1504</v>
       </c>
       <c r="K430" s="19">
         <v>-28</v>
@@ -37972,13 +38082,13 @@
         <v>100</v>
       </c>
       <c r="P430" s="19" t="s">
-        <v>1525</v>
+        <v>1505</v>
       </c>
       <c r="Q430" s="39" t="s">
-        <v>1571</v>
+        <v>1551</v>
       </c>
       <c r="V430" s="19" t="s">
-        <v>1572</v>
+        <v>1552</v>
       </c>
       <c r="W430" s="19">
         <v>9999999</v>
@@ -38016,13 +38126,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="19" t="s">
-        <v>1569</v>
+        <v>1549</v>
       </c>
       <c r="H431" s="19" t="s">
-        <v>1573</v>
+        <v>1553</v>
       </c>
       <c r="I431" s="19" t="s">
-        <v>1526</v>
+        <v>1506</v>
       </c>
       <c r="K431" s="19">
         <v>-28</v>
@@ -38040,10 +38150,10 @@
         <v>300</v>
       </c>
       <c r="P431" s="19" t="s">
-        <v>1525</v>
+        <v>1505</v>
       </c>
       <c r="Q431" s="39" t="s">
-        <v>1574</v>
+        <v>1554</v>
       </c>
       <c r="V431" s="19" t="s">
         <v>529</v>
@@ -38084,13 +38194,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="19" t="s">
-        <v>1569</v>
+        <v>1549</v>
       </c>
       <c r="H432" s="19" t="s">
-        <v>1575</v>
+        <v>1555</v>
       </c>
       <c r="I432" s="19" t="s">
-        <v>1527</v>
+        <v>1507</v>
       </c>
       <c r="K432" s="19">
         <v>-28</v>
@@ -38108,10 +38218,10 @@
         <v>600</v>
       </c>
       <c r="P432" s="19" t="s">
-        <v>1525</v>
+        <v>1505</v>
       </c>
       <c r="Q432" s="39" t="s">
-        <v>1576</v>
+        <v>1556</v>
       </c>
       <c r="V432" s="19" t="s">
         <v>529</v>
@@ -38152,13 +38262,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="19" t="s">
-        <v>1569</v>
+        <v>1549</v>
       </c>
       <c r="H433" s="19" t="s">
-        <v>1577</v>
+        <v>1557</v>
       </c>
       <c r="I433" s="19" t="s">
-        <v>1528</v>
+        <v>1508</v>
       </c>
       <c r="K433" s="19">
         <v>-28</v>
@@ -38176,7 +38286,7 @@
         <v>600</v>
       </c>
       <c r="P433" s="19" t="s">
-        <v>1525</v>
+        <v>1505</v>
       </c>
       <c r="Q433" s="39" t="s">
         <v>725</v>
@@ -38220,13 +38330,13 @@
         <v>1</v>
       </c>
       <c r="G434" s="55" t="s">
-        <v>1453</v>
+        <v>1433</v>
       </c>
       <c r="H434" s="55" t="s">
-        <v>1594</v>
+        <v>1574</v>
       </c>
       <c r="I434" s="55" t="s">
-        <v>1595</v>
+        <v>1575</v>
       </c>
       <c r="K434" s="55">
         <v>-31</v>
@@ -38244,10 +38354,10 @@
         <v>1800</v>
       </c>
       <c r="P434" s="55" t="s">
-        <v>1596</v>
+        <v>1576</v>
       </c>
       <c r="Q434" s="56" t="s">
-        <v>1457</v>
+        <v>1437</v>
       </c>
       <c r="V434" s="55" t="s">
         <v>529</v>
@@ -38285,13 +38395,13 @@
         <v>1</v>
       </c>
       <c r="G435" s="55" t="s">
-        <v>1597</v>
+        <v>1577</v>
       </c>
       <c r="H435" s="55" t="s">
-        <v>1598</v>
+        <v>1578</v>
       </c>
       <c r="I435" s="55" t="s">
-        <v>1599</v>
+        <v>1579</v>
       </c>
       <c r="K435" s="55">
         <v>-31</v>
@@ -38309,10 +38419,10 @@
         <v>4800</v>
       </c>
       <c r="P435" s="55" t="s">
-        <v>1596</v>
+        <v>1576</v>
       </c>
       <c r="Q435" s="56" t="s">
-        <v>1600</v>
+        <v>1580</v>
       </c>
       <c r="V435" s="55" t="s">
         <v>529</v>
@@ -38350,13 +38460,13 @@
         <v>1</v>
       </c>
       <c r="G436" s="55" t="s">
-        <v>1601</v>
+        <v>1581</v>
       </c>
       <c r="H436" s="55" t="s">
-        <v>1602</v>
+        <v>1582</v>
       </c>
       <c r="I436" s="55" t="s">
-        <v>1603</v>
+        <v>1583</v>
       </c>
       <c r="K436" s="55">
         <v>-31</v>
@@ -38374,10 +38484,10 @@
         <v>9800</v>
       </c>
       <c r="P436" s="55" t="s">
-        <v>1604</v>
+        <v>1584</v>
       </c>
       <c r="Q436" s="56" t="s">
-        <v>1605</v>
+        <v>1585</v>
       </c>
       <c r="V436" s="55" t="s">
         <v>529</v>
@@ -38415,13 +38525,13 @@
         <v>1</v>
       </c>
       <c r="G437" s="55" t="s">
-        <v>1467</v>
+        <v>1447</v>
       </c>
       <c r="H437" s="55" t="s">
-        <v>1594</v>
+        <v>1574</v>
       </c>
       <c r="I437" s="55" t="s">
-        <v>1606</v>
+        <v>1586</v>
       </c>
       <c r="K437" s="55">
         <v>-31</v>
@@ -38439,10 +38549,10 @@
         <v>19800</v>
       </c>
       <c r="P437" s="55" t="s">
-        <v>1607</v>
+        <v>1587</v>
       </c>
       <c r="Q437" s="56" t="s">
-        <v>1608</v>
+        <v>1588</v>
       </c>
       <c r="V437" s="55" t="s">
         <v>529</v>
@@ -38480,13 +38590,13 @@
         <v>1</v>
       </c>
       <c r="G438" s="55" t="s">
-        <v>1609</v>
+        <v>1589</v>
       </c>
       <c r="H438" s="55" t="s">
-        <v>1594</v>
+        <v>1574</v>
       </c>
       <c r="I438" s="55" t="s">
-        <v>1610</v>
+        <v>1590</v>
       </c>
       <c r="K438" s="55">
         <v>-31</v>
@@ -38504,10 +38614,10 @@
         <v>29800</v>
       </c>
       <c r="P438" s="55" t="s">
-        <v>1604</v>
+        <v>1584</v>
       </c>
       <c r="Q438" s="56" t="s">
-        <v>1473</v>
+        <v>1453</v>
       </c>
       <c r="V438" s="55" t="s">
         <v>529</v>
@@ -38545,13 +38655,13 @@
         <v>1</v>
       </c>
       <c r="G439" s="55" t="s">
-        <v>1611</v>
+        <v>1591</v>
       </c>
       <c r="H439" s="55" t="s">
-        <v>1594</v>
+        <v>1574</v>
       </c>
       <c r="I439" s="55" t="s">
-        <v>1612</v>
+        <v>1592</v>
       </c>
       <c r="K439" s="55">
         <v>-31</v>
@@ -38569,10 +38679,10 @@
         <v>49800</v>
       </c>
       <c r="P439" s="55" t="s">
-        <v>1613</v>
+        <v>1593</v>
       </c>
       <c r="Q439" s="56" t="s">
-        <v>1614</v>
+        <v>1594</v>
       </c>
       <c r="V439" s="55" t="s">
         <v>529</v>
@@ -38610,13 +38720,13 @@
         <v>1</v>
       </c>
       <c r="G440" s="55" t="s">
-        <v>1615</v>
+        <v>1595</v>
       </c>
       <c r="H440" s="55" t="s">
-        <v>1602</v>
+        <v>1582</v>
       </c>
       <c r="I440" s="55" t="s">
-        <v>1616</v>
+        <v>1596</v>
       </c>
       <c r="K440" s="55">
         <v>-31</v>
@@ -38634,10 +38744,10 @@
         <v>99800</v>
       </c>
       <c r="P440" s="55" t="s">
-        <v>1613</v>
+        <v>1593</v>
       </c>
       <c r="Q440" s="56" t="s">
-        <v>1617</v>
+        <v>1597</v>
       </c>
       <c r="V440" s="55" t="s">
         <v>529</v>
@@ -38675,10 +38785,10 @@
         <v>1</v>
       </c>
       <c r="G441" s="53" t="s">
-        <v>1618</v>
+        <v>1598</v>
       </c>
       <c r="I441" s="53" t="s">
-        <v>1619</v>
+        <v>1599</v>
       </c>
       <c r="K441" s="53">
         <v>-31</v>
@@ -38696,13 +38806,13 @@
         <v>49800</v>
       </c>
       <c r="P441" s="53" t="s">
-        <v>1620</v>
+        <v>1600</v>
       </c>
       <c r="Q441" s="54" t="s">
-        <v>1621</v>
+        <v>1601</v>
       </c>
       <c r="V441" s="53" t="s">
-        <v>1622</v>
+        <v>1602</v>
       </c>
       <c r="W441" s="53">
         <v>9999999</v>
@@ -38737,10 +38847,10 @@
         <v>1</v>
       </c>
       <c r="G442" s="53" t="s">
-        <v>1623</v>
+        <v>1603</v>
       </c>
       <c r="I442" s="53" t="s">
-        <v>1624</v>
+        <v>1604</v>
       </c>
       <c r="K442" s="53">
         <v>-31</v>
@@ -38758,13 +38868,13 @@
         <v>19800</v>
       </c>
       <c r="P442" s="53" t="s">
-        <v>1620</v>
+        <v>1600</v>
       </c>
       <c r="Q442" s="54" t="s">
-        <v>1625</v>
+        <v>1605</v>
       </c>
       <c r="V442" s="53" t="s">
-        <v>1622</v>
+        <v>1602</v>
       </c>
       <c r="W442" s="53">
         <v>9999999</v>
@@ -38799,10 +38909,10 @@
         <v>1</v>
       </c>
       <c r="G443" s="53" t="s">
-        <v>1626</v>
+        <v>1606</v>
       </c>
       <c r="I443" s="53" t="s">
-        <v>1627</v>
+        <v>1607</v>
       </c>
       <c r="K443" s="53">
         <v>-31</v>
@@ -38820,13 +38930,13 @@
         <v>9800</v>
       </c>
       <c r="P443" s="53" t="s">
-        <v>1620</v>
+        <v>1600</v>
       </c>
       <c r="Q443" s="54" t="s">
-        <v>1628</v>
+        <v>1608</v>
       </c>
       <c r="V443" s="53" t="s">
-        <v>1622</v>
+        <v>1602</v>
       </c>
       <c r="W443" s="53">
         <v>9999999</v>
@@ -38861,10 +38971,10 @@
         <v>1</v>
       </c>
       <c r="G444" s="53" t="s">
-        <v>1629</v>
+        <v>1609</v>
       </c>
       <c r="I444" s="53" t="s">
-        <v>1630</v>
+        <v>1610</v>
       </c>
       <c r="K444" s="53">
         <v>-31</v>
@@ -38882,13 +38992,13 @@
         <v>4800</v>
       </c>
       <c r="P444" s="53" t="s">
-        <v>1620</v>
+        <v>1600</v>
       </c>
       <c r="Q444" s="54" t="s">
-        <v>1631</v>
+        <v>1611</v>
       </c>
       <c r="V444" s="53" t="s">
-        <v>1632</v>
+        <v>1612</v>
       </c>
       <c r="W444" s="53">
         <v>9999999</v>
@@ -38923,10 +39033,10 @@
         <v>1</v>
       </c>
       <c r="G445" s="53" t="s">
-        <v>1633</v>
+        <v>1613</v>
       </c>
       <c r="I445" s="53" t="s">
-        <v>1634</v>
+        <v>1614</v>
       </c>
       <c r="K445" s="53">
         <v>-31</v>
@@ -38944,13 +39054,13 @@
         <v>2000</v>
       </c>
       <c r="P445" s="53" t="s">
-        <v>1620</v>
+        <v>1600</v>
       </c>
       <c r="Q445" s="54" t="s">
-        <v>1635</v>
+        <v>1615</v>
       </c>
       <c r="V445" s="53" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W445" s="53">
         <v>9999999</v>
@@ -38985,10 +39095,10 @@
         <v>1</v>
       </c>
       <c r="G446" s="53" t="s">
-        <v>1636</v>
+        <v>1616</v>
       </c>
       <c r="I446" s="53" t="s">
-        <v>1637</v>
+        <v>1617</v>
       </c>
       <c r="K446" s="53">
         <v>-31</v>
@@ -39006,13 +39116,13 @@
         <v>600</v>
       </c>
       <c r="P446" s="53" t="s">
-        <v>1620</v>
+        <v>1600</v>
       </c>
       <c r="Q446" s="54" t="s">
-        <v>1638</v>
+        <v>1618</v>
       </c>
       <c r="V446" s="53" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W446" s="53">
         <v>9999999</v>
@@ -39047,13 +39157,13 @@
         <v>1</v>
       </c>
       <c r="G447" s="57" t="s">
-        <v>1639</v>
+        <v>1619</v>
       </c>
       <c r="H447" s="57" t="s">
-        <v>1640</v>
+        <v>1620</v>
       </c>
       <c r="I447" s="57" t="s">
-        <v>1641</v>
+        <v>1621</v>
       </c>
       <c r="K447" s="57">
         <v>-31</v>
@@ -39071,13 +39181,13 @@
         <v>800</v>
       </c>
       <c r="P447" s="57" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q447" s="58" t="s">
-        <v>1643</v>
+        <v>1623</v>
       </c>
       <c r="V447" s="5" t="s">
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="W447" s="57">
         <v>9999999</v>
@@ -39115,13 +39225,13 @@
         <v>1</v>
       </c>
       <c r="G448" s="57" t="s">
-        <v>1644</v>
+        <v>1624</v>
       </c>
       <c r="H448" s="57" t="s">
-        <v>1645</v>
+        <v>1625</v>
       </c>
       <c r="I448" s="57" t="s">
-        <v>1646</v>
+        <v>1626</v>
       </c>
       <c r="K448" s="57">
         <v>-31</v>
@@ -39139,13 +39249,13 @@
         <v>800</v>
       </c>
       <c r="P448" s="57" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q448" s="58" t="s">
-        <v>1647</v>
+        <v>1627</v>
       </c>
       <c r="V448" s="5" t="s">
-        <v>1648</v>
+        <v>1628</v>
       </c>
       <c r="W448" s="57">
         <v>9999999</v>
@@ -39180,13 +39290,13 @@
         <v>1</v>
       </c>
       <c r="G449" s="57" t="s">
-        <v>1649</v>
+        <v>1629</v>
       </c>
       <c r="H449" s="57" t="s">
-        <v>1650</v>
+        <v>1630</v>
       </c>
       <c r="I449" s="57" t="s">
-        <v>1651</v>
+        <v>1631</v>
       </c>
       <c r="K449" s="57">
         <v>-31</v>
@@ -39204,10 +39314,10 @@
         <v>800</v>
       </c>
       <c r="P449" s="57" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q449" s="58" t="s">
-        <v>1652</v>
+        <v>1632</v>
       </c>
       <c r="V449" s="5" t="s">
         <v>529</v>
@@ -39248,13 +39358,13 @@
         <v>1</v>
       </c>
       <c r="G450" s="59" t="s">
-        <v>1653</v>
+        <v>1633</v>
       </c>
       <c r="H450" s="59" t="s">
-        <v>1654</v>
+        <v>1634</v>
       </c>
       <c r="I450" s="59" t="s">
-        <v>1655</v>
+        <v>1635</v>
       </c>
       <c r="K450" s="59">
         <v>-31</v>
@@ -39272,10 +39382,10 @@
         <v>3800</v>
       </c>
       <c r="P450" s="59" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q450" s="60" t="s">
-        <v>1656</v>
+        <v>1636</v>
       </c>
       <c r="V450" s="5" t="s">
         <v>529</v>
@@ -39316,13 +39426,13 @@
         <v>1</v>
       </c>
       <c r="G451" s="59" t="s">
-        <v>1657</v>
+        <v>1637</v>
       </c>
       <c r="H451" s="59" t="s">
-        <v>1658</v>
+        <v>1638</v>
       </c>
       <c r="I451" s="59" t="s">
-        <v>1659</v>
+        <v>1639</v>
       </c>
       <c r="K451" s="59">
         <v>-31</v>
@@ -39340,10 +39450,10 @@
         <v>3800</v>
       </c>
       <c r="P451" s="59" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q451" s="60" t="s">
-        <v>1660</v>
+        <v>1640</v>
       </c>
       <c r="V451" s="5" t="s">
         <v>529</v>
@@ -39381,13 +39491,13 @@
         <v>1</v>
       </c>
       <c r="G452" s="59" t="s">
-        <v>1661</v>
+        <v>1641</v>
       </c>
       <c r="H452" s="59" t="s">
-        <v>1662</v>
+        <v>1642</v>
       </c>
       <c r="I452" s="59" t="s">
-        <v>1663</v>
+        <v>1643</v>
       </c>
       <c r="K452" s="59">
         <v>-31</v>
@@ -39405,10 +39515,10 @@
         <v>3800</v>
       </c>
       <c r="P452" s="59" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q452" s="60" t="s">
-        <v>1664</v>
+        <v>1644</v>
       </c>
       <c r="V452" s="5" t="s">
         <v>529</v>
@@ -39449,13 +39559,13 @@
         <v>1</v>
       </c>
       <c r="G453" s="57" t="s">
-        <v>1665</v>
+        <v>1645</v>
       </c>
       <c r="H453" s="57" t="s">
-        <v>1666</v>
+        <v>1646</v>
       </c>
       <c r="I453" s="57" t="s">
-        <v>1667</v>
+        <v>1647</v>
       </c>
       <c r="K453" s="57">
         <v>-31</v>
@@ -39473,10 +39583,10 @@
         <v>9800</v>
       </c>
       <c r="P453" s="57" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q453" s="58" t="s">
-        <v>1668</v>
+        <v>1648</v>
       </c>
       <c r="V453" s="5" t="s">
         <v>529</v>
@@ -39517,13 +39627,13 @@
         <v>1</v>
       </c>
       <c r="G454" s="57" t="s">
-        <v>1669</v>
+        <v>1649</v>
       </c>
       <c r="H454" s="57" t="s">
-        <v>1670</v>
+        <v>1650</v>
       </c>
       <c r="I454" s="57" t="s">
-        <v>1671</v>
+        <v>1651</v>
       </c>
       <c r="K454" s="57">
         <v>-31</v>
@@ -39541,10 +39651,10 @@
         <v>9800</v>
       </c>
       <c r="P454" s="57" t="s">
-        <v>1059</v>
+        <v>1039</v>
       </c>
       <c r="Q454" s="58" t="s">
-        <v>1672</v>
+        <v>1652</v>
       </c>
       <c r="V454" s="5" t="s">
         <v>529</v>
@@ -39582,13 +39692,13 @@
         <v>1</v>
       </c>
       <c r="G455" s="57" t="s">
-        <v>1673</v>
+        <v>1653</v>
       </c>
       <c r="H455" s="57" t="s">
-        <v>1674</v>
+        <v>1654</v>
       </c>
       <c r="I455" s="57" t="s">
-        <v>1675</v>
+        <v>1655</v>
       </c>
       <c r="K455" s="57">
         <v>-31</v>
@@ -39606,10 +39716,10 @@
         <v>9800</v>
       </c>
       <c r="P455" s="57" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q455" s="58" t="s">
-        <v>1767</v>
+        <v>1656</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>529</v>
@@ -39650,13 +39760,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="59" t="s">
-        <v>1676</v>
+        <v>1657</v>
       </c>
       <c r="H456" s="59" t="s">
-        <v>1677</v>
+        <v>1658</v>
       </c>
       <c r="I456" s="59" t="s">
-        <v>1678</v>
+        <v>1659</v>
       </c>
       <c r="K456" s="59">
         <v>-31</v>
@@ -39674,10 +39784,10 @@
         <v>19800</v>
       </c>
       <c r="P456" s="59" t="s">
-        <v>1059</v>
+        <v>1039</v>
       </c>
       <c r="Q456" s="60" t="s">
-        <v>1679</v>
+        <v>1660</v>
       </c>
       <c r="V456" s="5" t="s">
         <v>529</v>
@@ -39718,13 +39828,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="59" t="s">
-        <v>1680</v>
+        <v>1661</v>
       </c>
       <c r="H457" s="59" t="s">
-        <v>1681</v>
+        <v>1662</v>
       </c>
       <c r="I457" s="59" t="s">
-        <v>1682</v>
+        <v>1663</v>
       </c>
       <c r="K457" s="59">
         <v>-31</v>
@@ -39742,10 +39852,10 @@
         <v>19800</v>
       </c>
       <c r="P457" s="59" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q457" s="60" t="s">
-        <v>1683</v>
+        <v>1664</v>
       </c>
       <c r="V457" s="5" t="s">
         <v>529</v>
@@ -39783,13 +39893,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="59" t="s">
-        <v>1684</v>
+        <v>1665</v>
       </c>
       <c r="H458" s="59" t="s">
-        <v>1685</v>
+        <v>1666</v>
       </c>
       <c r="I458" s="59" t="s">
-        <v>1686</v>
+        <v>1667</v>
       </c>
       <c r="K458" s="59">
         <v>-31</v>
@@ -39807,10 +39917,10 @@
         <v>19800</v>
       </c>
       <c r="P458" s="59" t="s">
-        <v>1059</v>
+        <v>1039</v>
       </c>
       <c r="Q458" s="60" t="s">
-        <v>1687</v>
+        <v>1668</v>
       </c>
       <c r="V458" s="5" t="s">
         <v>529</v>
@@ -39851,13 +39961,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="57" t="s">
-        <v>1688</v>
+        <v>1669</v>
       </c>
       <c r="H459" s="57" t="s">
-        <v>1689</v>
+        <v>1670</v>
       </c>
       <c r="I459" s="57" t="s">
-        <v>1690</v>
+        <v>1671</v>
       </c>
       <c r="K459" s="57">
         <v>-31</v>
@@ -39875,10 +39985,10 @@
         <v>49800</v>
       </c>
       <c r="P459" s="57" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q459" s="58" t="s">
-        <v>1691</v>
+        <v>1672</v>
       </c>
       <c r="V459" s="5" t="s">
         <v>529</v>
@@ -39919,13 +40029,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="57" t="s">
-        <v>1692</v>
+        <v>1673</v>
       </c>
       <c r="H460" s="57" t="s">
-        <v>1693</v>
+        <v>1674</v>
       </c>
       <c r="I460" s="57" t="s">
-        <v>1694</v>
+        <v>1675</v>
       </c>
       <c r="K460" s="57">
         <v>-31</v>
@@ -39943,10 +40053,10 @@
         <v>49800</v>
       </c>
       <c r="P460" s="57" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q460" s="58" t="s">
-        <v>1695</v>
+        <v>1676</v>
       </c>
       <c r="V460" s="5" t="s">
         <v>529</v>
@@ -39984,13 +40094,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="57" t="s">
-        <v>1696</v>
+        <v>1677</v>
       </c>
       <c r="H461" s="57" t="s">
-        <v>1697</v>
+        <v>1678</v>
       </c>
       <c r="I461" s="57" t="s">
-        <v>1698</v>
+        <v>1679</v>
       </c>
       <c r="K461" s="57">
         <v>-31</v>
@@ -40008,10 +40118,10 @@
         <v>49800</v>
       </c>
       <c r="P461" s="57" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q461" s="58" t="s">
-        <v>1699</v>
+        <v>1680</v>
       </c>
       <c r="V461" s="5" t="s">
         <v>529</v>
@@ -40052,13 +40162,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="59" t="s">
-        <v>1700</v>
+        <v>1681</v>
       </c>
       <c r="H462" s="59" t="s">
-        <v>1701</v>
+        <v>1682</v>
       </c>
       <c r="I462" s="59" t="s">
-        <v>1702</v>
+        <v>1683</v>
       </c>
       <c r="K462" s="59">
         <v>-31</v>
@@ -40076,10 +40186,10 @@
         <v>99800</v>
       </c>
       <c r="P462" s="59" t="s">
-        <v>1059</v>
+        <v>1039</v>
       </c>
       <c r="Q462" s="60" t="s">
-        <v>1703</v>
+        <v>1684</v>
       </c>
       <c r="V462" s="5" t="s">
         <v>529</v>
@@ -40120,13 +40230,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="59" t="s">
-        <v>1704</v>
+        <v>1685</v>
       </c>
       <c r="H463" s="59" t="s">
-        <v>1705</v>
+        <v>1686</v>
       </c>
       <c r="I463" s="59" t="s">
-        <v>1706</v>
+        <v>1687</v>
       </c>
       <c r="K463" s="59">
         <v>-31</v>
@@ -40144,10 +40254,10 @@
         <v>99800</v>
       </c>
       <c r="P463" s="59" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q463" s="60" t="s">
-        <v>1707</v>
+        <v>1688</v>
       </c>
       <c r="V463" s="5" t="s">
         <v>529</v>
@@ -40185,13 +40295,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="59" t="s">
-        <v>1708</v>
+        <v>1689</v>
       </c>
       <c r="H464" s="59" t="s">
-        <v>1709</v>
+        <v>1690</v>
       </c>
       <c r="I464" s="59" t="s">
-        <v>1710</v>
+        <v>1691</v>
       </c>
       <c r="K464" s="59">
         <v>-31</v>
@@ -40209,10 +40319,10 @@
         <v>99800</v>
       </c>
       <c r="P464" s="59" t="s">
-        <v>1059</v>
+        <v>1039</v>
       </c>
       <c r="Q464" s="60" t="s">
-        <v>1711</v>
+        <v>1692</v>
       </c>
       <c r="V464" s="5" t="s">
         <v>529</v>
@@ -40253,13 +40363,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="57" t="s">
-        <v>1712</v>
+        <v>1693</v>
       </c>
       <c r="H465" s="57" t="s">
-        <v>1713</v>
+        <v>1694</v>
       </c>
       <c r="I465" s="57" t="s">
-        <v>1714</v>
+        <v>1695</v>
       </c>
       <c r="K465" s="57">
         <v>-31</v>
@@ -40277,10 +40387,10 @@
         <v>249800</v>
       </c>
       <c r="P465" s="57" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q465" s="58" t="s">
-        <v>1715</v>
+        <v>1696</v>
       </c>
       <c r="V465" s="5" t="s">
         <v>529</v>
@@ -40321,13 +40431,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="57" t="s">
-        <v>1716</v>
+        <v>1697</v>
       </c>
       <c r="H466" s="57" t="s">
-        <v>1717</v>
+        <v>1698</v>
       </c>
       <c r="I466" s="57" t="s">
-        <v>1718</v>
+        <v>1699</v>
       </c>
       <c r="K466" s="57">
         <v>-31</v>
@@ -40345,10 +40455,10 @@
         <v>249800</v>
       </c>
       <c r="P466" s="57" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q466" s="58" t="s">
-        <v>1719</v>
+        <v>1700</v>
       </c>
       <c r="V466" s="5" t="s">
         <v>529</v>
@@ -40386,13 +40496,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="57" t="s">
-        <v>1720</v>
+        <v>1701</v>
       </c>
       <c r="H467" s="57" t="s">
-        <v>1721</v>
+        <v>1702</v>
       </c>
       <c r="I467" s="57" t="s">
-        <v>1722</v>
+        <v>1703</v>
       </c>
       <c r="K467" s="57">
         <v>-31</v>
@@ -40410,10 +40520,10 @@
         <v>249800</v>
       </c>
       <c r="P467" s="57" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q467" s="58" t="s">
-        <v>1723</v>
+        <v>1704</v>
       </c>
       <c r="V467" s="5" t="s">
         <v>529</v>
@@ -40454,13 +40564,13 @@
         <v>1</v>
       </c>
       <c r="G468" s="61" t="s">
-        <v>1724</v>
+        <v>1705</v>
       </c>
       <c r="H468" s="61" t="s">
-        <v>1725</v>
+        <v>1706</v>
       </c>
       <c r="I468" s="61" t="s">
-        <v>1726</v>
+        <v>1707</v>
       </c>
       <c r="K468" s="61">
         <v>-31</v>
@@ -40478,13 +40588,13 @@
         <v>600</v>
       </c>
       <c r="P468" s="61" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q468" s="62" t="s">
-        <v>1727</v>
+        <v>1708</v>
       </c>
       <c r="V468" s="61" t="s">
-        <v>1729</v>
+        <v>1710</v>
       </c>
       <c r="W468" s="61">
         <v>9999999</v>
@@ -40519,13 +40629,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="61" t="s">
-        <v>1730</v>
+        <v>1711</v>
       </c>
       <c r="H469" s="61" t="s">
-        <v>1731</v>
+        <v>1712</v>
       </c>
       <c r="I469" s="61" t="s">
-        <v>1732</v>
+        <v>1713</v>
       </c>
       <c r="K469" s="61">
         <v>-31</v>
@@ -40543,13 +40653,13 @@
         <v>3000</v>
       </c>
       <c r="P469" s="61" t="s">
-        <v>1059</v>
+        <v>1039</v>
       </c>
       <c r="Q469" s="62" t="s">
-        <v>1733</v>
+        <v>1714</v>
       </c>
       <c r="V469" s="61" t="s">
-        <v>1728</v>
+        <v>1709</v>
       </c>
       <c r="W469" s="61">
         <v>9999999</v>
@@ -40584,13 +40694,13 @@
         <v>1</v>
       </c>
       <c r="G470" s="61" t="s">
-        <v>1734</v>
+        <v>1715</v>
       </c>
       <c r="H470" s="61" t="s">
-        <v>1731</v>
+        <v>1712</v>
       </c>
       <c r="I470" s="61" t="s">
-        <v>1735</v>
+        <v>1716</v>
       </c>
       <c r="K470" s="61">
         <v>-31</v>
@@ -40608,13 +40718,13 @@
         <v>6800</v>
       </c>
       <c r="P470" s="61" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q470" s="62" t="s">
-        <v>1736</v>
+        <v>1717</v>
       </c>
       <c r="V470" s="61" t="s">
-        <v>1729</v>
+        <v>1710</v>
       </c>
       <c r="W470" s="61">
         <v>9999999</v>
@@ -40649,13 +40759,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="61" t="s">
-        <v>1737</v>
+        <v>1718</v>
       </c>
       <c r="H471" s="61" t="s">
-        <v>1725</v>
+        <v>1706</v>
       </c>
       <c r="I471" s="61" t="s">
-        <v>1738</v>
+        <v>1719</v>
       </c>
       <c r="K471" s="61">
         <v>-31</v>
@@ -40673,13 +40783,13 @@
         <v>9800</v>
       </c>
       <c r="P471" s="61" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q471" s="62" t="s">
-        <v>1739</v>
+        <v>1720</v>
       </c>
       <c r="V471" s="61" t="s">
-        <v>1740</v>
+        <v>1721</v>
       </c>
       <c r="W471" s="61">
         <v>9999999</v>
@@ -40714,13 +40824,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="61" t="s">
-        <v>1741</v>
+        <v>1722</v>
       </c>
       <c r="H472" s="61" t="s">
-        <v>1725</v>
+        <v>1706</v>
       </c>
       <c r="I472" s="61" t="s">
-        <v>1742</v>
+        <v>1723</v>
       </c>
       <c r="K472" s="61">
         <v>-31</v>
@@ -40738,13 +40848,13 @@
         <v>19800</v>
       </c>
       <c r="P472" s="61" t="s">
-        <v>1059</v>
+        <v>1039</v>
       </c>
       <c r="Q472" s="62" t="s">
-        <v>1743</v>
+        <v>1724</v>
       </c>
       <c r="V472" s="61" t="s">
-        <v>1740</v>
+        <v>1721</v>
       </c>
       <c r="W472" s="61">
         <v>9999999</v>
@@ -40779,13 +40889,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="61" t="s">
-        <v>1744</v>
+        <v>1725</v>
       </c>
       <c r="H473" s="61" t="s">
-        <v>1731</v>
+        <v>1712</v>
       </c>
       <c r="I473" s="61" t="s">
-        <v>1745</v>
+        <v>1726</v>
       </c>
       <c r="K473" s="61">
         <v>-31</v>
@@ -40803,13 +40913,13 @@
         <v>49800</v>
       </c>
       <c r="P473" s="61" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q473" s="62" t="s">
-        <v>1746</v>
+        <v>1727</v>
       </c>
       <c r="V473" s="61" t="s">
-        <v>1740</v>
+        <v>1721</v>
       </c>
       <c r="W473" s="61">
         <v>9999999</v>
@@ -40844,13 +40954,13 @@
         <v>1</v>
       </c>
       <c r="G474" s="55" t="s">
-        <v>1747</v>
+        <v>1728</v>
       </c>
       <c r="H474" s="55" t="s">
-        <v>1731</v>
+        <v>1712</v>
       </c>
       <c r="I474" s="55" t="s">
-        <v>1748</v>
+        <v>1729</v>
       </c>
       <c r="K474" s="55">
         <v>-31</v>
@@ -40868,13 +40978,13 @@
         <v>99800</v>
       </c>
       <c r="P474" s="55" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q474" s="56" t="s">
-        <v>1749</v>
+        <v>1730</v>
       </c>
       <c r="V474" s="61" t="s">
-        <v>1740</v>
+        <v>1721</v>
       </c>
       <c r="W474" s="55">
         <v>9999999</v>
@@ -40909,13 +41019,13 @@
         <v>1</v>
       </c>
       <c r="G475" s="55" t="s">
-        <v>1750</v>
+        <v>1731</v>
       </c>
       <c r="H475" s="55" t="s">
-        <v>1731</v>
+        <v>1712</v>
       </c>
       <c r="I475" s="55" t="s">
-        <v>1766</v>
+        <v>1732</v>
       </c>
       <c r="K475" s="55">
         <v>-31</v>
@@ -40933,13 +41043,13 @@
         <v>249800</v>
       </c>
       <c r="P475" s="55" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="Q475" s="56" t="s">
-        <v>1765</v>
+        <v>1733</v>
       </c>
       <c r="V475" s="61" t="s">
-        <v>1740</v>
+        <v>1721</v>
       </c>
       <c r="W475" s="55">
         <v>9999999</v>
@@ -40960,6 +41070,266 @@
         <v>1</v>
       </c>
       <c r="AL475" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A476" s="67">
+        <v>475</v>
+      </c>
+      <c r="B476" s="67">
+        <v>10392</v>
+      </c>
+      <c r="F476" s="67">
+        <v>1</v>
+      </c>
+      <c r="G476" s="67" t="s">
+        <v>1776</v>
+      </c>
+      <c r="H476" s="67" t="s">
+        <v>1777</v>
+      </c>
+      <c r="I476" s="67" t="s">
+        <v>1778</v>
+      </c>
+      <c r="K476" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L476" s="67">
+        <v>0</v>
+      </c>
+      <c r="M476" s="67">
+        <v>0</v>
+      </c>
+      <c r="N476" s="67" t="s">
+        <v>482</v>
+      </c>
+      <c r="O476" s="67">
+        <v>49800</v>
+      </c>
+      <c r="P476" s="67" t="s">
+        <v>1779</v>
+      </c>
+      <c r="Q476" s="68" t="s">
+        <v>1780</v>
+      </c>
+      <c r="V476" s="67" t="s">
+        <v>1246</v>
+      </c>
+      <c r="W476" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X476" s="67">
+        <v>1606176000</v>
+      </c>
+      <c r="Y476" s="67">
+        <v>1606751999</v>
+      </c>
+      <c r="AG476" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH476" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK476" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL476" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A477" s="67">
+        <v>476</v>
+      </c>
+      <c r="B477" s="67">
+        <v>10393</v>
+      </c>
+      <c r="F477" s="67">
+        <v>1</v>
+      </c>
+      <c r="G477" s="67" t="s">
+        <v>1776</v>
+      </c>
+      <c r="H477" s="67" t="s">
+        <v>1781</v>
+      </c>
+      <c r="I477" s="67" t="s">
+        <v>1782</v>
+      </c>
+      <c r="K477" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L477" s="67">
+        <v>0</v>
+      </c>
+      <c r="M477" s="67">
+        <v>0</v>
+      </c>
+      <c r="N477" s="67" t="s">
+        <v>482</v>
+      </c>
+      <c r="O477" s="67">
+        <v>19800</v>
+      </c>
+      <c r="P477" s="67" t="s">
+        <v>1779</v>
+      </c>
+      <c r="Q477" s="68" t="s">
+        <v>1783</v>
+      </c>
+      <c r="V477" s="67" t="s">
+        <v>1246</v>
+      </c>
+      <c r="W477" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X477" s="67">
+        <v>1606176000</v>
+      </c>
+      <c r="Y477" s="67">
+        <v>1606751999</v>
+      </c>
+      <c r="AG477" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH477" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK477" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL477" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A478" s="67">
+        <v>477</v>
+      </c>
+      <c r="B478" s="67">
+        <v>10394</v>
+      </c>
+      <c r="F478" s="67">
+        <v>1</v>
+      </c>
+      <c r="G478" s="67" t="s">
+        <v>1776</v>
+      </c>
+      <c r="H478" s="67" t="s">
+        <v>1784</v>
+      </c>
+      <c r="I478" s="67" t="s">
+        <v>1785</v>
+      </c>
+      <c r="K478" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L478" s="67">
+        <v>0</v>
+      </c>
+      <c r="M478" s="67">
+        <v>0</v>
+      </c>
+      <c r="N478" s="67" t="s">
+        <v>482</v>
+      </c>
+      <c r="O478" s="67">
+        <v>9800</v>
+      </c>
+      <c r="P478" s="67" t="s">
+        <v>1786</v>
+      </c>
+      <c r="Q478" s="68" t="s">
+        <v>770</v>
+      </c>
+      <c r="V478" s="67" t="s">
+        <v>529</v>
+      </c>
+      <c r="W478" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X478" s="67">
+        <v>1606176000</v>
+      </c>
+      <c r="Y478" s="67">
+        <v>1606751999</v>
+      </c>
+      <c r="AG478" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH478" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK478" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL478" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A479" s="67">
+        <v>478</v>
+      </c>
+      <c r="B479" s="67">
+        <v>10395</v>
+      </c>
+      <c r="F479" s="67">
+        <v>1</v>
+      </c>
+      <c r="G479" s="67" t="s">
+        <v>1776</v>
+      </c>
+      <c r="H479" s="67" t="s">
+        <v>1787</v>
+      </c>
+      <c r="I479" s="67" t="s">
+        <v>1788</v>
+      </c>
+      <c r="K479" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L479" s="67">
+        <v>0</v>
+      </c>
+      <c r="M479" s="67">
+        <v>0</v>
+      </c>
+      <c r="N479" s="67" t="s">
+        <v>482</v>
+      </c>
+      <c r="O479" s="67">
+        <v>4800</v>
+      </c>
+      <c r="P479" s="67" t="s">
+        <v>1789</v>
+      </c>
+      <c r="Q479" s="68" t="s">
+        <v>1790</v>
+      </c>
+      <c r="V479" s="67" t="s">
+        <v>1246</v>
+      </c>
+      <c r="W479" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X479" s="67">
+        <v>1606176000</v>
+      </c>
+      <c r="Y479" s="67">
+        <v>1606751999</v>
+      </c>
+      <c r="AG479" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH479" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK479" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL479" s="67">
         <v>1</v>
       </c>
     </row>
@@ -40991,7 +41361,7 @@
         <v>390</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1053</v>
+        <v>1033</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>391</v>
@@ -41008,7 +41378,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1079</v>
+        <v>1059</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -41025,7 +41395,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1080</v>
+        <v>1060</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -41039,7 +41409,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1081</v>
+        <v>1061</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -41053,7 +41423,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1082</v>
+        <v>1062</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -41207,7 +41577,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1083</v>
+        <v>1063</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -41361,7 +41731,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1326</v>
+        <v>1306</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -41375,7 +41745,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1327</v>
+        <v>1307</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -41389,7 +41759,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1328</v>
+        <v>1308</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -41403,7 +41773,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1329</v>
+        <v>1309</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
@@ -41417,7 +41787,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1330</v>
+        <v>1310</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
@@ -41431,7 +41801,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1331</v>
+        <v>1311</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
@@ -41445,7 +41815,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1332</v>
+        <v>1312</v>
       </c>
       <c r="C33" s="12">
         <v>1</v>
@@ -41459,7 +41829,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1333</v>
+        <v>1313</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
@@ -41473,7 +41843,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>1334</v>
+        <v>1314</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
@@ -41487,7 +41857,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>1335</v>
+        <v>1315</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
@@ -41501,7 +41871,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>1336</v>
+        <v>1316</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -41515,7 +41885,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>1337</v>
+        <v>1317</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
@@ -41529,7 +41899,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1338</v>
+        <v>1318</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
@@ -41543,7 +41913,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1339</v>
+        <v>1319</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -41557,7 +41927,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1340</v>
+        <v>1320</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -41571,7 +41941,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1341</v>
+        <v>1321</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
@@ -41585,7 +41955,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>1371</v>
+        <v>1351</v>
       </c>
       <c r="C43" s="12">
         <v>1</v>
@@ -41599,7 +41969,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1372</v>
+        <v>1352</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -41613,7 +41983,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>1417</v>
+        <v>1397</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -41627,7 +41997,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>1418</v>
+        <v>1398</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
@@ -41641,7 +42011,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>1419</v>
+        <v>1399</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -41655,7 +42025,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>1484</v>
+        <v>1464</v>
       </c>
       <c r="C48" s="47">
         <v>1</v>
@@ -41669,7 +42039,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>1500</v>
+        <v>1480</v>
       </c>
       <c r="C49" s="47">
         <v>1</v>
@@ -41683,7 +42053,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>1501</v>
+        <v>1481</v>
       </c>
       <c r="C50" s="47">
         <v>1</v>
@@ -41697,7 +42067,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>1502</v>
+        <v>1482</v>
       </c>
       <c r="C51" s="47">
         <v>1</v>
@@ -41711,7 +42081,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>1503</v>
+        <v>1483</v>
       </c>
       <c r="C52" s="47">
         <v>1</v>
@@ -41725,7 +42095,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="65" t="s">
-        <v>1751</v>
+        <v>1734</v>
       </c>
       <c r="C53" s="64">
         <v>1</v>
@@ -41739,7 +42109,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="65" t="s">
-        <v>1752</v>
+        <v>1735</v>
       </c>
       <c r="C54" s="64">
         <v>1</v>
@@ -41753,7 +42123,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="65" t="s">
-        <v>1753</v>
+        <v>1736</v>
       </c>
       <c r="C55" s="64">
         <v>1</v>
@@ -41767,7 +42137,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="65" t="s">
-        <v>1754</v>
+        <v>1737</v>
       </c>
       <c r="C56" s="64">
         <v>1</v>
@@ -41781,7 +42151,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="65" t="s">
-        <v>1755</v>
+        <v>1738</v>
       </c>
       <c r="C57" s="64">
         <v>1</v>
@@ -41795,7 +42165,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="65" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
       <c r="C58" s="64">
         <v>1</v>
@@ -41809,7 +42179,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="65" t="s">
-        <v>1757</v>
+        <v>1740</v>
       </c>
       <c r="C59" s="64">
         <v>1</v>
@@ -41823,7 +42193,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="65" t="s">
-        <v>1758</v>
+        <v>1741</v>
       </c>
       <c r="C60" s="64">
         <v>1</v>
@@ -41837,7 +42207,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>1759</v>
+        <v>1742</v>
       </c>
       <c r="C61" s="64">
         <v>1</v>
@@ -41851,7 +42221,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="65" t="s">
-        <v>1760</v>
+        <v>1743</v>
       </c>
       <c r="C62" s="64">
         <v>1</v>
@@ -41865,7 +42235,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="65" t="s">
-        <v>1761</v>
+        <v>1744</v>
       </c>
       <c r="C63" s="64">
         <v>1</v>
@@ -41879,7 +42249,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="65" t="s">
-        <v>1762</v>
+        <v>1745</v>
       </c>
       <c r="C64" s="64">
         <v>1</v>
@@ -41893,7 +42263,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="65" t="s">
-        <v>1763</v>
+        <v>1746</v>
       </c>
       <c r="C65" s="64">
         <v>1</v>
@@ -41907,7 +42277,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="65" t="s">
-        <v>1764</v>
+        <v>1747</v>
       </c>
       <c r="C66" s="64">
         <v>1</v>
@@ -42083,16 +42453,16 @@
         <v>3</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>1146</v>
+        <v>1126</v>
       </c>
       <c r="R2" s="33" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>47</v>
       </c>
       <c r="T2" s="33" t="s">
-        <v>1148</v>
+        <v>1128</v>
       </c>
       <c r="U2" s="11" t="s">
         <v>407</v>
@@ -42148,16 +42518,16 @@
         <v>4</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>1149</v>
+        <v>1129</v>
       </c>
       <c r="R3" s="33" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="S3" s="11" t="s">
         <v>49</v>
       </c>
       <c r="T3" s="33" t="s">
-        <v>1150</v>
+        <v>1130</v>
       </c>
       <c r="U3" s="11" t="s">
         <v>407</v>
@@ -42213,10 +42583,10 @@
         <v>5</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>1151</v>
+        <v>1131</v>
       </c>
       <c r="R4" s="33" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>50</v>
@@ -42278,16 +42648,16 @@
         <v>6</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>1152</v>
+        <v>1132</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>51</v>
       </c>
       <c r="T5" s="33" t="s">
-        <v>1153</v>
+        <v>1133</v>
       </c>
       <c r="U5" s="11" t="s">
         <v>407</v>
@@ -42343,10 +42713,10 @@
         <v>7</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>1154</v>
+        <v>1134</v>
       </c>
       <c r="R6" s="33" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="S6" s="11" t="s">
         <v>52</v>
@@ -42408,10 +42778,10 @@
         <v>9</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>1155</v>
+        <v>1135</v>
       </c>
       <c r="R7" s="33" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>53</v>
@@ -42470,16 +42840,16 @@
         <v>0</v>
       </c>
       <c r="P8" s="33" t="s">
-        <v>1156</v>
+        <v>1136</v>
       </c>
       <c r="R8" s="33" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>47</v>
       </c>
       <c r="T8" s="33" t="s">
-        <v>1148</v>
+        <v>1128</v>
       </c>
       <c r="U8" s="11" t="s">
         <v>407</v>
@@ -42558,7 +42928,7 @@
       <c r="Z9" s="34"/>
       <c r="AA9" s="34"/>
       <c r="AB9" s="35" t="s">
-        <v>1157</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -42628,7 +42998,7 @@
       <c r="Z10" s="34"/>
       <c r="AA10" s="34"/>
       <c r="AB10" s="35" t="s">
-        <v>1158</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -42672,10 +43042,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>1149</v>
+        <v>1129</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>49</v>
@@ -42701,7 +43071,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>1159</v>
+        <v>1139</v>
       </c>
       <c r="D12" s="11">
         <v>109</v>
@@ -42737,10 +43107,10 @@
         <v>9</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>1160</v>
+        <v>1140</v>
       </c>
       <c r="R12" s="33" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="S12" s="11" t="s">
         <v>54</v>
@@ -42802,10 +43172,10 @@
         <v>10</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>1161</v>
+        <v>1141</v>
       </c>
       <c r="R13" s="33" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>409</v>
@@ -42867,10 +43237,10 @@
         <v>11</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>1162</v>
+        <v>1142</v>
       </c>
       <c r="R14" s="33" t="s">
-        <v>1163</v>
+        <v>1143</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>410</v>
@@ -42903,7 +43273,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>1164</v>
+        <v>1144</v>
       </c>
       <c r="G15" s="34">
         <v>100</v>
@@ -42941,7 +43311,7 @@
         <v>100</v>
       </c>
       <c r="T15" s="35" t="s">
-        <v>1148</v>
+        <v>1128</v>
       </c>
       <c r="U15" s="34" t="s">
         <v>407</v>
@@ -42957,7 +43327,7 @@
       <c r="Z15" s="34"/>
       <c r="AA15" s="34"/>
       <c r="AB15" s="35" t="s">
-        <v>1165</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -43004,17 +43374,17 @@
         <v>3</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>1166</v>
+        <v>1146</v>
       </c>
       <c r="Q16" s="12"/>
       <c r="R16" s="33" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>61</v>
       </c>
       <c r="T16" s="33" t="s">
-        <v>1148</v>
+        <v>1128</v>
       </c>
       <c r="U16" s="11" t="s">
         <v>407</v>
@@ -43069,11 +43439,11 @@
         <v>4</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>1167</v>
+        <v>1147</v>
       </c>
       <c r="Q17" s="12"/>
       <c r="R17" s="33" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>64</v>
@@ -43134,11 +43504,11 @@
         <v>5</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>1168</v>
+        <v>1148</v>
       </c>
       <c r="Q18" s="12"/>
       <c r="R18" s="33" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>67</v>
@@ -43199,11 +43569,11 @@
         <v>6</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>1169</v>
+        <v>1149</v>
       </c>
       <c r="Q19" s="12"/>
       <c r="R19" s="33" t="s">
-        <v>1145</v>
+        <v>1125</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>71</v>
@@ -43264,7 +43634,7 @@
         <v>7</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>1144</v>
+        <v>1124</v>
       </c>
       <c r="R20" s="33" t="s">
         <v>955</v>
@@ -43328,11 +43698,11 @@
         <v>0</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>1170</v>
+        <v>1150</v>
       </c>
       <c r="Q21" s="11"/>
       <c r="R21" s="33" t="s">
-        <v>1145</v>
+        <v>1125</v>
       </c>
       <c r="S21" s="11" t="s">
         <v>77</v>
@@ -43406,7 +43776,7 @@
         <v>5000</v>
       </c>
       <c r="T22" s="35" t="s">
-        <v>1153</v>
+        <v>1133</v>
       </c>
       <c r="U22" s="34" t="s">
         <v>407</v>
@@ -43544,7 +43914,7 @@
         <v>100</v>
       </c>
       <c r="T24" s="35" t="s">
-        <v>1148</v>
+        <v>1128</v>
       </c>
       <c r="U24" s="34" t="s">
         <v>407</v>
@@ -43560,7 +43930,7 @@
       <c r="Z24" s="34"/>
       <c r="AA24" s="34"/>
       <c r="AB24" s="35" t="s">
-        <v>1171</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -43580,7 +43950,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>1055</v>
+        <v>1035</v>
       </c>
       <c r="G25" s="11">
         <v>15840</v>
@@ -43607,7 +43977,7 @@
         <v>8</v>
       </c>
       <c r="P25" s="33" t="s">
-        <v>1487</v>
+        <v>1467</v>
       </c>
       <c r="R25" s="33" t="s">
         <v>956</v>
@@ -44261,7 +44631,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>1063</v>
+        <v>1043</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>471</v>
@@ -44308,7 +44678,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>1064</v>
+        <v>1044</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>471</v>
@@ -44355,7 +44725,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>1065</v>
+        <v>1045</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>475</v>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -7837,14 +7837,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"2.4亿金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>249800000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>{next=10365,trigger="start_trigger",reset_time=0}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7898,6 +7890,14 @@
   </si>
   <si>
     <t>{last=10381,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2.5亿金币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10749,11 +10749,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM475"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V378" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H456" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X393" sqref="X393"/>
+      <selection pane="bottomRight" activeCell="I475" sqref="I475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -40915,7 +40915,7 @@
         <v>1732</v>
       </c>
       <c r="I475" s="55" t="s">
-        <v>1752</v>
+        <v>1767</v>
       </c>
       <c r="K475" s="55">
         <v>-31</v>
@@ -40936,7 +40936,7 @@
         <v>1642</v>
       </c>
       <c r="Q475" s="56" t="s">
-        <v>1753</v>
+        <v>1766</v>
       </c>
       <c r="V475" s="61" t="s">
         <v>1741</v>
@@ -40975,7 +40975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
@@ -41725,7 +41725,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="65" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="C53" s="64">
         <v>1</v>
@@ -41739,7 +41739,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="65" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="C54" s="64">
         <v>1</v>
@@ -41753,7 +41753,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="65" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="C55" s="64">
         <v>1</v>
@@ -41767,7 +41767,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="65" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="C56" s="64">
         <v>1</v>
@@ -41781,7 +41781,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="65" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="C57" s="64">
         <v>1</v>
@@ -41795,7 +41795,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="65" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="C58" s="64">
         <v>1</v>
@@ -41809,7 +41809,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="65" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="C59" s="64">
         <v>1</v>
@@ -41823,7 +41823,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="65" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="C60" s="64">
         <v>1</v>
@@ -41837,7 +41837,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C61" s="64">
         <v>1</v>
@@ -41851,7 +41851,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="65" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="C62" s="64">
         <v>1</v>
@@ -41865,7 +41865,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="65" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="C63" s="64">
         <v>1</v>
@@ -41879,7 +41879,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="65" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="C64" s="64">
         <v>1</v>
@@ -41893,7 +41893,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="65" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="C65" s="64">
         <v>1</v>
@@ -41907,7 +41907,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="65" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="C66" s="64">
         <v>1</v>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -7484,10 +7484,6 @@
     <t>"980万金币","58.8万金币","9.8万",</t>
   </si>
   <si>
-    <t>10478000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>聚划算198元-1</t>
   </si>
   <si>
@@ -7996,6 +7992,10 @@
   </si>
   <si>
     <t>4800000,100000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10486000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10860,10 +10860,10 @@
   <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V242" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="P419" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F273" sqref="F273"/>
+      <selection pane="bottomRight" activeCell="Q455" sqref="Q455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -31088,7 +31088,7 @@
       </c>
       <c r="H328" s="43"/>
       <c r="I328" s="43" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="J328" s="43"/>
       <c r="K328" s="43">
@@ -31101,13 +31101,13 @@
         <v>0</v>
       </c>
       <c r="N328" s="43" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="O328" s="43">
         <v>600</v>
       </c>
       <c r="P328" s="43" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="Q328" s="66" t="s">
         <v>1031</v>
@@ -31117,7 +31117,7 @@
       <c r="T328" s="43"/>
       <c r="U328" s="43"/>
       <c r="V328" s="43" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="W328" s="43">
         <v>99999999</v>
@@ -31170,7 +31170,7 @@
       </c>
       <c r="H329" s="43"/>
       <c r="I329" s="43" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="J329" s="43"/>
       <c r="K329" s="43">
@@ -31183,16 +31183,16 @@
         <v>0</v>
       </c>
       <c r="N329" s="43" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="O329" s="43">
         <v>2800</v>
       </c>
       <c r="P329" s="43" t="s">
+        <v>1753</v>
+      </c>
+      <c r="Q329" s="66" t="s">
         <v>1754</v>
-      </c>
-      <c r="Q329" s="66" t="s">
-        <v>1755</v>
       </c>
       <c r="R329" s="43"/>
       <c r="S329" s="43"/>
@@ -31252,7 +31252,7 @@
       </c>
       <c r="H330" s="43"/>
       <c r="I330" s="43" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="J330" s="43"/>
       <c r="K330" s="43">
@@ -31265,16 +31265,16 @@
         <v>0</v>
       </c>
       <c r="N330" s="43" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="O330" s="43">
         <v>4800</v>
       </c>
       <c r="P330" s="43" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="Q330" s="66" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="R330" s="43"/>
       <c r="S330" s="43"/>
@@ -31334,7 +31334,7 @@
       </c>
       <c r="H331" s="43"/>
       <c r="I331" s="43" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="J331" s="43"/>
       <c r="K331" s="43">
@@ -31353,10 +31353,10 @@
         <v>9900</v>
       </c>
       <c r="P331" s="43" t="s">
+        <v>1758</v>
+      </c>
+      <c r="Q331" s="66" t="s">
         <v>1759</v>
-      </c>
-      <c r="Q331" s="66" t="s">
-        <v>1760</v>
       </c>
       <c r="R331" s="43"/>
       <c r="S331" s="43"/>
@@ -31416,7 +31416,7 @@
       </c>
       <c r="H332" s="43"/>
       <c r="I332" s="43" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="J332" s="43"/>
       <c r="K332" s="43">
@@ -31429,16 +31429,16 @@
         <v>0</v>
       </c>
       <c r="N332" s="43" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="O332" s="43">
         <v>19800</v>
       </c>
       <c r="P332" s="43" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="Q332" s="66" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="R332" s="43"/>
       <c r="S332" s="43"/>
@@ -31498,7 +31498,7 @@
       </c>
       <c r="H333" s="43"/>
       <c r="I333" s="43" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="J333" s="43"/>
       <c r="K333" s="43">
@@ -31517,17 +31517,17 @@
         <v>29800</v>
       </c>
       <c r="P333" s="43" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="Q333" s="66" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="R333" s="43"/>
       <c r="S333" s="43"/>
       <c r="T333" s="43"/>
       <c r="U333" s="43"/>
       <c r="V333" s="43" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="W333" s="43">
         <v>99999999</v>
@@ -31580,7 +31580,7 @@
       </c>
       <c r="H334" s="43"/>
       <c r="I334" s="43" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="J334" s="43"/>
       <c r="K334" s="43">
@@ -31593,23 +31593,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="43" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="O334" s="43">
         <v>39800</v>
       </c>
       <c r="P334" s="43" t="s">
+        <v>1767</v>
+      </c>
+      <c r="Q334" s="66" t="s">
         <v>1768</v>
-      </c>
-      <c r="Q334" s="66" t="s">
-        <v>1769</v>
       </c>
       <c r="R334" s="43"/>
       <c r="S334" s="43"/>
       <c r="T334" s="43"/>
       <c r="U334" s="43"/>
       <c r="V334" s="43" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="W334" s="43">
         <v>99999999</v>
@@ -31662,7 +31662,7 @@
       </c>
       <c r="H335" s="43"/>
       <c r="I335" s="43" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="J335" s="43"/>
       <c r="K335" s="43">
@@ -31675,16 +31675,16 @@
         <v>0</v>
       </c>
       <c r="N335" s="43" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="O335" s="43">
         <v>49800</v>
       </c>
       <c r="P335" s="43" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="Q335" s="66" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="R335" s="43"/>
       <c r="S335" s="43"/>
@@ -31744,7 +31744,7 @@
       </c>
       <c r="H336" s="43"/>
       <c r="I336" s="43" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="J336" s="43"/>
       <c r="K336" s="43">
@@ -31757,23 +31757,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="43" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="O336" s="43">
         <v>59800</v>
       </c>
       <c r="P336" s="43" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="Q336" s="66" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="R336" s="43"/>
       <c r="S336" s="43"/>
       <c r="T336" s="43"/>
       <c r="U336" s="43"/>
       <c r="V336" s="43" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="W336" s="43">
         <v>99999999</v>
@@ -31826,7 +31826,7 @@
       </c>
       <c r="H337" s="43"/>
       <c r="I337" s="43" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="J337" s="43"/>
       <c r="K337" s="43">
@@ -31839,23 +31839,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="43" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="O337" s="43">
         <v>69800</v>
       </c>
       <c r="P337" s="43" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="Q337" s="66" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="R337" s="43"/>
       <c r="S337" s="43"/>
       <c r="T337" s="43"/>
       <c r="U337" s="43"/>
       <c r="V337" s="43" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="W337" s="43">
         <v>99999999</v>
@@ -39719,7 +39719,7 @@
         <v>1622</v>
       </c>
       <c r="Q455" s="58" t="s">
-        <v>1656</v>
+        <v>1790</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>529</v>
@@ -39760,13 +39760,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="59" t="s">
+        <v>1656</v>
+      </c>
+      <c r="H456" s="59" t="s">
         <v>1657</v>
       </c>
-      <c r="H456" s="59" t="s">
+      <c r="I456" s="59" t="s">
         <v>1658</v>
-      </c>
-      <c r="I456" s="59" t="s">
-        <v>1659</v>
       </c>
       <c r="K456" s="59">
         <v>-31</v>
@@ -39787,7 +39787,7 @@
         <v>1039</v>
       </c>
       <c r="Q456" s="60" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="V456" s="5" t="s">
         <v>529</v>
@@ -39828,13 +39828,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="59" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H457" s="59" t="s">
         <v>1661</v>
       </c>
-      <c r="H457" s="59" t="s">
+      <c r="I457" s="59" t="s">
         <v>1662</v>
-      </c>
-      <c r="I457" s="59" t="s">
-        <v>1663</v>
       </c>
       <c r="K457" s="59">
         <v>-31</v>
@@ -39855,7 +39855,7 @@
         <v>1622</v>
       </c>
       <c r="Q457" s="60" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="V457" s="5" t="s">
         <v>529</v>
@@ -39893,13 +39893,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="59" t="s">
+        <v>1664</v>
+      </c>
+      <c r="H458" s="59" t="s">
         <v>1665</v>
       </c>
-      <c r="H458" s="59" t="s">
+      <c r="I458" s="59" t="s">
         <v>1666</v>
-      </c>
-      <c r="I458" s="59" t="s">
-        <v>1667</v>
       </c>
       <c r="K458" s="59">
         <v>-31</v>
@@ -39920,7 +39920,7 @@
         <v>1039</v>
       </c>
       <c r="Q458" s="60" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="V458" s="5" t="s">
         <v>529</v>
@@ -39961,13 +39961,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="57" t="s">
+        <v>1668</v>
+      </c>
+      <c r="H459" s="57" t="s">
         <v>1669</v>
       </c>
-      <c r="H459" s="57" t="s">
+      <c r="I459" s="57" t="s">
         <v>1670</v>
-      </c>
-      <c r="I459" s="57" t="s">
-        <v>1671</v>
       </c>
       <c r="K459" s="57">
         <v>-31</v>
@@ -39988,7 +39988,7 @@
         <v>1622</v>
       </c>
       <c r="Q459" s="58" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="V459" s="5" t="s">
         <v>529</v>
@@ -40029,13 +40029,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="57" t="s">
+        <v>1672</v>
+      </c>
+      <c r="H460" s="57" t="s">
         <v>1673</v>
       </c>
-      <c r="H460" s="57" t="s">
+      <c r="I460" s="57" t="s">
         <v>1674</v>
-      </c>
-      <c r="I460" s="57" t="s">
-        <v>1675</v>
       </c>
       <c r="K460" s="57">
         <v>-31</v>
@@ -40056,7 +40056,7 @@
         <v>1622</v>
       </c>
       <c r="Q460" s="58" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="V460" s="5" t="s">
         <v>529</v>
@@ -40094,13 +40094,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="57" t="s">
+        <v>1676</v>
+      </c>
+      <c r="H461" s="57" t="s">
         <v>1677</v>
       </c>
-      <c r="H461" s="57" t="s">
+      <c r="I461" s="57" t="s">
         <v>1678</v>
-      </c>
-      <c r="I461" s="57" t="s">
-        <v>1679</v>
       </c>
       <c r="K461" s="57">
         <v>-31</v>
@@ -40121,7 +40121,7 @@
         <v>1622</v>
       </c>
       <c r="Q461" s="58" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="V461" s="5" t="s">
         <v>529</v>
@@ -40162,13 +40162,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="59" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H462" s="59" t="s">
         <v>1681</v>
       </c>
-      <c r="H462" s="59" t="s">
+      <c r="I462" s="59" t="s">
         <v>1682</v>
-      </c>
-      <c r="I462" s="59" t="s">
-        <v>1683</v>
       </c>
       <c r="K462" s="59">
         <v>-31</v>
@@ -40189,7 +40189,7 @@
         <v>1039</v>
       </c>
       <c r="Q462" s="60" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="V462" s="5" t="s">
         <v>529</v>
@@ -40230,13 +40230,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="59" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H463" s="59" t="s">
         <v>1685</v>
       </c>
-      <c r="H463" s="59" t="s">
+      <c r="I463" s="59" t="s">
         <v>1686</v>
-      </c>
-      <c r="I463" s="59" t="s">
-        <v>1687</v>
       </c>
       <c r="K463" s="59">
         <v>-31</v>
@@ -40257,7 +40257,7 @@
         <v>1622</v>
       </c>
       <c r="Q463" s="60" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="V463" s="5" t="s">
         <v>529</v>
@@ -40295,13 +40295,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="59" t="s">
+        <v>1688</v>
+      </c>
+      <c r="H464" s="59" t="s">
         <v>1689</v>
       </c>
-      <c r="H464" s="59" t="s">
+      <c r="I464" s="59" t="s">
         <v>1690</v>
-      </c>
-      <c r="I464" s="59" t="s">
-        <v>1691</v>
       </c>
       <c r="K464" s="59">
         <v>-31</v>
@@ -40322,7 +40322,7 @@
         <v>1039</v>
       </c>
       <c r="Q464" s="60" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="V464" s="5" t="s">
         <v>529</v>
@@ -40363,13 +40363,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="57" t="s">
+        <v>1692</v>
+      </c>
+      <c r="H465" s="57" t="s">
         <v>1693</v>
       </c>
-      <c r="H465" s="57" t="s">
+      <c r="I465" s="57" t="s">
         <v>1694</v>
-      </c>
-      <c r="I465" s="57" t="s">
-        <v>1695</v>
       </c>
       <c r="K465" s="57">
         <v>-31</v>
@@ -40390,7 +40390,7 @@
         <v>1622</v>
       </c>
       <c r="Q465" s="58" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="V465" s="5" t="s">
         <v>529</v>
@@ -40431,13 +40431,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="57" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H466" s="57" t="s">
         <v>1697</v>
       </c>
-      <c r="H466" s="57" t="s">
+      <c r="I466" s="57" t="s">
         <v>1698</v>
-      </c>
-      <c r="I466" s="57" t="s">
-        <v>1699</v>
       </c>
       <c r="K466" s="57">
         <v>-31</v>
@@ -40458,7 +40458,7 @@
         <v>1622</v>
       </c>
       <c r="Q466" s="58" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="V466" s="5" t="s">
         <v>529</v>
@@ -40496,13 +40496,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="57" t="s">
+        <v>1700</v>
+      </c>
+      <c r="H467" s="57" t="s">
         <v>1701</v>
       </c>
-      <c r="H467" s="57" t="s">
+      <c r="I467" s="57" t="s">
         <v>1702</v>
-      </c>
-      <c r="I467" s="57" t="s">
-        <v>1703</v>
       </c>
       <c r="K467" s="57">
         <v>-31</v>
@@ -40523,7 +40523,7 @@
         <v>1622</v>
       </c>
       <c r="Q467" s="58" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="V467" s="5" t="s">
         <v>529</v>
@@ -40564,13 +40564,13 @@
         <v>1</v>
       </c>
       <c r="G468" s="61" t="s">
+        <v>1704</v>
+      </c>
+      <c r="H468" s="61" t="s">
         <v>1705</v>
       </c>
-      <c r="H468" s="61" t="s">
+      <c r="I468" s="61" t="s">
         <v>1706</v>
-      </c>
-      <c r="I468" s="61" t="s">
-        <v>1707</v>
       </c>
       <c r="K468" s="61">
         <v>-31</v>
@@ -40591,10 +40591,10 @@
         <v>1622</v>
       </c>
       <c r="Q468" s="62" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="V468" s="61" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="W468" s="61">
         <v>9999999</v>
@@ -40629,13 +40629,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="61" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H469" s="61" t="s">
         <v>1711</v>
       </c>
-      <c r="H469" s="61" t="s">
+      <c r="I469" s="61" t="s">
         <v>1712</v>
-      </c>
-      <c r="I469" s="61" t="s">
-        <v>1713</v>
       </c>
       <c r="K469" s="61">
         <v>-31</v>
@@ -40656,10 +40656,10 @@
         <v>1039</v>
       </c>
       <c r="Q469" s="62" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="V469" s="61" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="W469" s="61">
         <v>9999999</v>
@@ -40694,13 +40694,13 @@
         <v>1</v>
       </c>
       <c r="G470" s="61" t="s">
+        <v>1714</v>
+      </c>
+      <c r="H470" s="61" t="s">
+        <v>1711</v>
+      </c>
+      <c r="I470" s="61" t="s">
         <v>1715</v>
-      </c>
-      <c r="H470" s="61" t="s">
-        <v>1712</v>
-      </c>
-      <c r="I470" s="61" t="s">
-        <v>1716</v>
       </c>
       <c r="K470" s="61">
         <v>-31</v>
@@ -40721,10 +40721,10 @@
         <v>1622</v>
       </c>
       <c r="Q470" s="62" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="V470" s="61" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="W470" s="61">
         <v>9999999</v>
@@ -40759,13 +40759,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="61" t="s">
+        <v>1717</v>
+      </c>
+      <c r="H471" s="61" t="s">
+        <v>1705</v>
+      </c>
+      <c r="I471" s="61" t="s">
         <v>1718</v>
-      </c>
-      <c r="H471" s="61" t="s">
-        <v>1706</v>
-      </c>
-      <c r="I471" s="61" t="s">
-        <v>1719</v>
       </c>
       <c r="K471" s="61">
         <v>-31</v>
@@ -40786,10 +40786,10 @@
         <v>1622</v>
       </c>
       <c r="Q471" s="62" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V471" s="61" t="s">
         <v>1720</v>
-      </c>
-      <c r="V471" s="61" t="s">
-        <v>1721</v>
       </c>
       <c r="W471" s="61">
         <v>9999999</v>
@@ -40824,13 +40824,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="61" t="s">
+        <v>1721</v>
+      </c>
+      <c r="H472" s="61" t="s">
+        <v>1705</v>
+      </c>
+      <c r="I472" s="61" t="s">
         <v>1722</v>
-      </c>
-      <c r="H472" s="61" t="s">
-        <v>1706</v>
-      </c>
-      <c r="I472" s="61" t="s">
-        <v>1723</v>
       </c>
       <c r="K472" s="61">
         <v>-31</v>
@@ -40851,10 +40851,10 @@
         <v>1039</v>
       </c>
       <c r="Q472" s="62" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="V472" s="61" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="W472" s="61">
         <v>9999999</v>
@@ -40889,13 +40889,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="61" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H473" s="61" t="s">
+        <v>1711</v>
+      </c>
+      <c r="I473" s="61" t="s">
         <v>1725</v>
-      </c>
-      <c r="H473" s="61" t="s">
-        <v>1712</v>
-      </c>
-      <c r="I473" s="61" t="s">
-        <v>1726</v>
       </c>
       <c r="K473" s="61">
         <v>-31</v>
@@ -40916,10 +40916,10 @@
         <v>1622</v>
       </c>
       <c r="Q473" s="62" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="V473" s="61" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="W473" s="61">
         <v>9999999</v>
@@ -40954,13 +40954,13 @@
         <v>1</v>
       </c>
       <c r="G474" s="55" t="s">
+        <v>1727</v>
+      </c>
+      <c r="H474" s="55" t="s">
+        <v>1711</v>
+      </c>
+      <c r="I474" s="55" t="s">
         <v>1728</v>
-      </c>
-      <c r="H474" s="55" t="s">
-        <v>1712</v>
-      </c>
-      <c r="I474" s="55" t="s">
-        <v>1729</v>
       </c>
       <c r="K474" s="55">
         <v>-31</v>
@@ -40981,10 +40981,10 @@
         <v>1622</v>
       </c>
       <c r="Q474" s="56" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="V474" s="61" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="W474" s="55">
         <v>9999999</v>
@@ -41019,13 +41019,13 @@
         <v>1</v>
       </c>
       <c r="G475" s="55" t="s">
+        <v>1730</v>
+      </c>
+      <c r="H475" s="55" t="s">
+        <v>1711</v>
+      </c>
+      <c r="I475" s="55" t="s">
         <v>1731</v>
-      </c>
-      <c r="H475" s="55" t="s">
-        <v>1712</v>
-      </c>
-      <c r="I475" s="55" t="s">
-        <v>1732</v>
       </c>
       <c r="K475" s="55">
         <v>-31</v>
@@ -41046,10 +41046,10 @@
         <v>1622</v>
       </c>
       <c r="Q475" s="56" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="V475" s="61" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="W475" s="55">
         <v>9999999</v>
@@ -41084,13 +41084,13 @@
         <v>1</v>
       </c>
       <c r="G476" s="67" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H476" s="67" t="s">
         <v>1776</v>
       </c>
-      <c r="H476" s="67" t="s">
+      <c r="I476" s="67" t="s">
         <v>1777</v>
-      </c>
-      <c r="I476" s="67" t="s">
-        <v>1778</v>
       </c>
       <c r="K476" s="67">
         <v>-31</v>
@@ -41108,10 +41108,10 @@
         <v>49800</v>
       </c>
       <c r="P476" s="67" t="s">
+        <v>1778</v>
+      </c>
+      <c r="Q476" s="68" t="s">
         <v>1779</v>
-      </c>
-      <c r="Q476" s="68" t="s">
-        <v>1780</v>
       </c>
       <c r="V476" s="67" t="s">
         <v>1246</v>
@@ -41149,13 +41149,13 @@
         <v>1</v>
       </c>
       <c r="G477" s="67" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H477" s="67" t="s">
+        <v>1780</v>
+      </c>
+      <c r="I477" s="67" t="s">
         <v>1781</v>
-      </c>
-      <c r="I477" s="67" t="s">
-        <v>1782</v>
       </c>
       <c r="K477" s="67">
         <v>-31</v>
@@ -41173,10 +41173,10 @@
         <v>19800</v>
       </c>
       <c r="P477" s="67" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="Q477" s="68" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="V477" s="67" t="s">
         <v>1246</v>
@@ -41214,13 +41214,13 @@
         <v>1</v>
       </c>
       <c r="G478" s="67" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H478" s="67" t="s">
+        <v>1783</v>
+      </c>
+      <c r="I478" s="67" t="s">
         <v>1784</v>
-      </c>
-      <c r="I478" s="67" t="s">
-        <v>1785</v>
       </c>
       <c r="K478" s="67">
         <v>-31</v>
@@ -41238,7 +41238,7 @@
         <v>9800</v>
       </c>
       <c r="P478" s="67" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="Q478" s="68" t="s">
         <v>770</v>
@@ -41279,13 +41279,13 @@
         <v>1</v>
       </c>
       <c r="G479" s="67" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H479" s="67" t="s">
+        <v>1786</v>
+      </c>
+      <c r="I479" s="67" t="s">
         <v>1787</v>
-      </c>
-      <c r="I479" s="67" t="s">
-        <v>1788</v>
       </c>
       <c r="K479" s="67">
         <v>-31</v>
@@ -41303,10 +41303,10 @@
         <v>4800</v>
       </c>
       <c r="P479" s="67" t="s">
+        <v>1788</v>
+      </c>
+      <c r="Q479" s="68" t="s">
         <v>1789</v>
-      </c>
-      <c r="Q479" s="68" t="s">
-        <v>1790</v>
       </c>
       <c r="V479" s="67" t="s">
         <v>1246</v>
@@ -42095,7 +42095,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="65" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="C53" s="64">
         <v>1</v>
@@ -42109,7 +42109,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="65" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="C54" s="64">
         <v>1</v>
@@ -42123,7 +42123,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="65" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C55" s="64">
         <v>1</v>
@@ -42137,7 +42137,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="65" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C56" s="64">
         <v>1</v>
@@ -42151,7 +42151,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="65" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="C57" s="64">
         <v>1</v>
@@ -42165,7 +42165,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="65" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="C58" s="64">
         <v>1</v>
@@ -42179,7 +42179,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="65" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="C59" s="64">
         <v>1</v>
@@ -42193,7 +42193,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="65" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="C60" s="64">
         <v>1</v>
@@ -42207,7 +42207,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="C61" s="64">
         <v>1</v>
@@ -42221,7 +42221,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="65" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="C62" s="64">
         <v>1</v>
@@ -42235,7 +42235,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="65" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="C63" s="64">
         <v>1</v>
@@ -42249,7 +42249,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="65" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="C64" s="64">
         <v>1</v>
@@ -42263,7 +42263,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="65" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="C65" s="64">
         <v>1</v>
@@ -42277,7 +42277,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="65" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C66" s="64">
         <v>1</v>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -7558,10 +7558,6 @@
     <t>"980万金币","58.8万金币","9.8万",</t>
   </si>
   <si>
-    <t>10478000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>聚划算198元-1</t>
   </si>
   <si>
@@ -7898,6 +7894,10 @@
   </si>
   <si>
     <t>"2.5亿金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10486000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10750,10 +10750,10 @@
   <dimension ref="A1:AM475"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H456" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="O444" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I475" sqref="I475"/>
+      <selection pane="bottomRight" activeCell="Q455" sqref="Q455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -39609,7 +39609,7 @@
         <v>1642</v>
       </c>
       <c r="Q455" s="58" t="s">
-        <v>1676</v>
+        <v>1767</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>529</v>
@@ -39650,13 +39650,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="59" t="s">
+        <v>1676</v>
+      </c>
+      <c r="H456" s="59" t="s">
         <v>1677</v>
       </c>
-      <c r="H456" s="59" t="s">
+      <c r="I456" s="59" t="s">
         <v>1678</v>
-      </c>
-      <c r="I456" s="59" t="s">
-        <v>1679</v>
       </c>
       <c r="K456" s="59">
         <v>-31</v>
@@ -39677,7 +39677,7 @@
         <v>1059</v>
       </c>
       <c r="Q456" s="60" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="V456" s="5" t="s">
         <v>529</v>
@@ -39718,13 +39718,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="59" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H457" s="59" t="s">
         <v>1681</v>
       </c>
-      <c r="H457" s="59" t="s">
+      <c r="I457" s="59" t="s">
         <v>1682</v>
-      </c>
-      <c r="I457" s="59" t="s">
-        <v>1683</v>
       </c>
       <c r="K457" s="59">
         <v>-31</v>
@@ -39745,7 +39745,7 @@
         <v>1642</v>
       </c>
       <c r="Q457" s="60" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="V457" s="5" t="s">
         <v>529</v>
@@ -39783,13 +39783,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="59" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H458" s="59" t="s">
         <v>1685</v>
       </c>
-      <c r="H458" s="59" t="s">
+      <c r="I458" s="59" t="s">
         <v>1686</v>
-      </c>
-      <c r="I458" s="59" t="s">
-        <v>1687</v>
       </c>
       <c r="K458" s="59">
         <v>-31</v>
@@ -39810,7 +39810,7 @@
         <v>1059</v>
       </c>
       <c r="Q458" s="60" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="V458" s="5" t="s">
         <v>529</v>
@@ -39851,13 +39851,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="57" t="s">
+        <v>1688</v>
+      </c>
+      <c r="H459" s="57" t="s">
         <v>1689</v>
       </c>
-      <c r="H459" s="57" t="s">
+      <c r="I459" s="57" t="s">
         <v>1690</v>
-      </c>
-      <c r="I459" s="57" t="s">
-        <v>1691</v>
       </c>
       <c r="K459" s="57">
         <v>-31</v>
@@ -39878,7 +39878,7 @@
         <v>1642</v>
       </c>
       <c r="Q459" s="58" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="V459" s="5" t="s">
         <v>529</v>
@@ -39919,13 +39919,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="57" t="s">
+        <v>1692</v>
+      </c>
+      <c r="H460" s="57" t="s">
         <v>1693</v>
       </c>
-      <c r="H460" s="57" t="s">
+      <c r="I460" s="57" t="s">
         <v>1694</v>
-      </c>
-      <c r="I460" s="57" t="s">
-        <v>1695</v>
       </c>
       <c r="K460" s="57">
         <v>-31</v>
@@ -39946,7 +39946,7 @@
         <v>1642</v>
       </c>
       <c r="Q460" s="58" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="V460" s="5" t="s">
         <v>529</v>
@@ -39984,13 +39984,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="57" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H461" s="57" t="s">
         <v>1697</v>
       </c>
-      <c r="H461" s="57" t="s">
+      <c r="I461" s="57" t="s">
         <v>1698</v>
-      </c>
-      <c r="I461" s="57" t="s">
-        <v>1699</v>
       </c>
       <c r="K461" s="57">
         <v>-31</v>
@@ -40011,7 +40011,7 @@
         <v>1642</v>
       </c>
       <c r="Q461" s="58" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="V461" s="5" t="s">
         <v>529</v>
@@ -40052,13 +40052,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="59" t="s">
+        <v>1700</v>
+      </c>
+      <c r="H462" s="59" t="s">
         <v>1701</v>
       </c>
-      <c r="H462" s="59" t="s">
+      <c r="I462" s="59" t="s">
         <v>1702</v>
-      </c>
-      <c r="I462" s="59" t="s">
-        <v>1703</v>
       </c>
       <c r="K462" s="59">
         <v>-31</v>
@@ -40079,7 +40079,7 @@
         <v>1059</v>
       </c>
       <c r="Q462" s="60" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="V462" s="5" t="s">
         <v>529</v>
@@ -40120,13 +40120,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="59" t="s">
+        <v>1704</v>
+      </c>
+      <c r="H463" s="59" t="s">
         <v>1705</v>
       </c>
-      <c r="H463" s="59" t="s">
+      <c r="I463" s="59" t="s">
         <v>1706</v>
-      </c>
-      <c r="I463" s="59" t="s">
-        <v>1707</v>
       </c>
       <c r="K463" s="59">
         <v>-31</v>
@@ -40147,7 +40147,7 @@
         <v>1642</v>
       </c>
       <c r="Q463" s="60" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="V463" s="5" t="s">
         <v>529</v>
@@ -40185,13 +40185,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="59" t="s">
+        <v>1708</v>
+      </c>
+      <c r="H464" s="59" t="s">
         <v>1709</v>
       </c>
-      <c r="H464" s="59" t="s">
+      <c r="I464" s="59" t="s">
         <v>1710</v>
-      </c>
-      <c r="I464" s="59" t="s">
-        <v>1711</v>
       </c>
       <c r="K464" s="59">
         <v>-31</v>
@@ -40212,7 +40212,7 @@
         <v>1059</v>
       </c>
       <c r="Q464" s="60" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="V464" s="5" t="s">
         <v>529</v>
@@ -40253,13 +40253,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="57" t="s">
+        <v>1712</v>
+      </c>
+      <c r="H465" s="57" t="s">
         <v>1713</v>
       </c>
-      <c r="H465" s="57" t="s">
+      <c r="I465" s="57" t="s">
         <v>1714</v>
-      </c>
-      <c r="I465" s="57" t="s">
-        <v>1715</v>
       </c>
       <c r="K465" s="57">
         <v>-31</v>
@@ -40280,7 +40280,7 @@
         <v>1642</v>
       </c>
       <c r="Q465" s="58" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="V465" s="5" t="s">
         <v>529</v>
@@ -40321,13 +40321,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="57" t="s">
+        <v>1716</v>
+      </c>
+      <c r="H466" s="57" t="s">
         <v>1717</v>
       </c>
-      <c r="H466" s="57" t="s">
+      <c r="I466" s="57" t="s">
         <v>1718</v>
-      </c>
-      <c r="I466" s="57" t="s">
-        <v>1719</v>
       </c>
       <c r="K466" s="57">
         <v>-31</v>
@@ -40348,7 +40348,7 @@
         <v>1642</v>
       </c>
       <c r="Q466" s="58" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="V466" s="5" t="s">
         <v>529</v>
@@ -40386,13 +40386,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="57" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H467" s="57" t="s">
         <v>1721</v>
       </c>
-      <c r="H467" s="57" t="s">
+      <c r="I467" s="57" t="s">
         <v>1722</v>
-      </c>
-      <c r="I467" s="57" t="s">
-        <v>1723</v>
       </c>
       <c r="K467" s="57">
         <v>-31</v>
@@ -40413,7 +40413,7 @@
         <v>1642</v>
       </c>
       <c r="Q467" s="58" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="V467" s="5" t="s">
         <v>529</v>
@@ -40454,13 +40454,13 @@
         <v>1</v>
       </c>
       <c r="G468" s="61" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H468" s="61" t="s">
         <v>1725</v>
       </c>
-      <c r="H468" s="61" t="s">
+      <c r="I468" s="61" t="s">
         <v>1726</v>
-      </c>
-      <c r="I468" s="61" t="s">
-        <v>1727</v>
       </c>
       <c r="K468" s="61">
         <v>-31</v>
@@ -40481,10 +40481,10 @@
         <v>1642</v>
       </c>
       <c r="Q468" s="62" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="V468" s="61" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="W468" s="61">
         <v>9999999</v>
@@ -40519,13 +40519,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="61" t="s">
+        <v>1730</v>
+      </c>
+      <c r="H469" s="61" t="s">
         <v>1731</v>
       </c>
-      <c r="H469" s="61" t="s">
+      <c r="I469" s="61" t="s">
         <v>1732</v>
-      </c>
-      <c r="I469" s="61" t="s">
-        <v>1733</v>
       </c>
       <c r="K469" s="61">
         <v>-31</v>
@@ -40546,10 +40546,10 @@
         <v>1059</v>
       </c>
       <c r="Q469" s="62" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="V469" s="61" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="W469" s="61">
         <v>9999999</v>
@@ -40584,13 +40584,13 @@
         <v>1</v>
       </c>
       <c r="G470" s="61" t="s">
+        <v>1734</v>
+      </c>
+      <c r="H470" s="61" t="s">
+        <v>1731</v>
+      </c>
+      <c r="I470" s="61" t="s">
         <v>1735</v>
-      </c>
-      <c r="H470" s="61" t="s">
-        <v>1732</v>
-      </c>
-      <c r="I470" s="61" t="s">
-        <v>1736</v>
       </c>
       <c r="K470" s="61">
         <v>-31</v>
@@ -40611,10 +40611,10 @@
         <v>1642</v>
       </c>
       <c r="Q470" s="62" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="V470" s="61" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="W470" s="61">
         <v>9999999</v>
@@ -40649,13 +40649,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="61" t="s">
+        <v>1737</v>
+      </c>
+      <c r="H471" s="61" t="s">
+        <v>1725</v>
+      </c>
+      <c r="I471" s="61" t="s">
         <v>1738</v>
-      </c>
-      <c r="H471" s="61" t="s">
-        <v>1726</v>
-      </c>
-      <c r="I471" s="61" t="s">
-        <v>1739</v>
       </c>
       <c r="K471" s="61">
         <v>-31</v>
@@ -40676,10 +40676,10 @@
         <v>1642</v>
       </c>
       <c r="Q471" s="62" t="s">
+        <v>1739</v>
+      </c>
+      <c r="V471" s="61" t="s">
         <v>1740</v>
-      </c>
-      <c r="V471" s="61" t="s">
-        <v>1741</v>
       </c>
       <c r="W471" s="61">
         <v>9999999</v>
@@ -40714,13 +40714,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="61" t="s">
+        <v>1741</v>
+      </c>
+      <c r="H472" s="61" t="s">
+        <v>1725</v>
+      </c>
+      <c r="I472" s="61" t="s">
         <v>1742</v>
-      </c>
-      <c r="H472" s="61" t="s">
-        <v>1726</v>
-      </c>
-      <c r="I472" s="61" t="s">
-        <v>1743</v>
       </c>
       <c r="K472" s="61">
         <v>-31</v>
@@ -40741,10 +40741,10 @@
         <v>1059</v>
       </c>
       <c r="Q472" s="62" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="V472" s="61" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="W472" s="61">
         <v>9999999</v>
@@ -40779,13 +40779,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="61" t="s">
+        <v>1744</v>
+      </c>
+      <c r="H473" s="61" t="s">
+        <v>1731</v>
+      </c>
+      <c r="I473" s="61" t="s">
         <v>1745</v>
-      </c>
-      <c r="H473" s="61" t="s">
-        <v>1732</v>
-      </c>
-      <c r="I473" s="61" t="s">
-        <v>1746</v>
       </c>
       <c r="K473" s="61">
         <v>-31</v>
@@ -40806,10 +40806,10 @@
         <v>1642</v>
       </c>
       <c r="Q473" s="62" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="V473" s="61" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="W473" s="61">
         <v>9999999</v>
@@ -40844,13 +40844,13 @@
         <v>1</v>
       </c>
       <c r="G474" s="55" t="s">
+        <v>1747</v>
+      </c>
+      <c r="H474" s="55" t="s">
+        <v>1731</v>
+      </c>
+      <c r="I474" s="55" t="s">
         <v>1748</v>
-      </c>
-      <c r="H474" s="55" t="s">
-        <v>1732</v>
-      </c>
-      <c r="I474" s="55" t="s">
-        <v>1749</v>
       </c>
       <c r="K474" s="55">
         <v>-31</v>
@@ -40871,10 +40871,10 @@
         <v>1642</v>
       </c>
       <c r="Q474" s="56" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="V474" s="61" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="W474" s="55">
         <v>9999999</v>
@@ -40909,13 +40909,13 @@
         <v>1</v>
       </c>
       <c r="G475" s="55" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="H475" s="55" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="I475" s="55" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="K475" s="55">
         <v>-31</v>
@@ -40936,10 +40936,10 @@
         <v>1642</v>
       </c>
       <c r="Q475" s="56" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="V475" s="61" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="W475" s="55">
         <v>9999999</v>
@@ -41725,7 +41725,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="65" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C53" s="64">
         <v>1</v>
@@ -41739,7 +41739,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="65" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="C54" s="64">
         <v>1</v>
@@ -41753,7 +41753,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="65" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="C55" s="64">
         <v>1</v>
@@ -41767,7 +41767,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="65" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="C56" s="64">
         <v>1</v>
@@ -41781,7 +41781,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="65" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="C57" s="64">
         <v>1</v>
@@ -41795,7 +41795,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="65" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C58" s="64">
         <v>1</v>
@@ -41809,7 +41809,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="65" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="C59" s="64">
         <v>1</v>
@@ -41823,7 +41823,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="65" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="C60" s="64">
         <v>1</v>
@@ -41837,7 +41837,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C61" s="64">
         <v>1</v>
@@ -41851,7 +41851,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="65" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C62" s="64">
         <v>1</v>
@@ -41865,7 +41865,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="65" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C63" s="64">
         <v>1</v>
@@ -41879,7 +41879,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="65" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C64" s="64">
         <v>1</v>
@@ -41893,7 +41893,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="65" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="C65" s="64">
         <v>1</v>
@@ -41907,7 +41907,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="65" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C66" s="64">
         <v>1</v>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -7759,14 +7759,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"2.4亿金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>249800000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>{next=10365,trigger="start_trigger",reset_time=0}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7996,6 +7988,14 @@
   </si>
   <si>
     <t>10486000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2.5亿金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10860,10 +10860,10 @@
   <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="P419" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H455" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q455" sqref="Q455"/>
+      <selection pane="bottomRight" activeCell="F475" sqref="F475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -31088,7 +31088,7 @@
       </c>
       <c r="H328" s="43"/>
       <c r="I328" s="43" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="J328" s="43"/>
       <c r="K328" s="43">
@@ -31101,13 +31101,13 @@
         <v>0</v>
       </c>
       <c r="N328" s="43" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="O328" s="43">
         <v>600</v>
       </c>
       <c r="P328" s="43" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="Q328" s="66" t="s">
         <v>1031</v>
@@ -31117,7 +31117,7 @@
       <c r="T328" s="43"/>
       <c r="U328" s="43"/>
       <c r="V328" s="43" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="W328" s="43">
         <v>99999999</v>
@@ -31170,7 +31170,7 @@
       </c>
       <c r="H329" s="43"/>
       <c r="I329" s="43" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="J329" s="43"/>
       <c r="K329" s="43">
@@ -31183,16 +31183,16 @@
         <v>0</v>
       </c>
       <c r="N329" s="43" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="O329" s="43">
         <v>2800</v>
       </c>
       <c r="P329" s="43" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="Q329" s="66" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="R329" s="43"/>
       <c r="S329" s="43"/>
@@ -31252,7 +31252,7 @@
       </c>
       <c r="H330" s="43"/>
       <c r="I330" s="43" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="J330" s="43"/>
       <c r="K330" s="43">
@@ -31265,16 +31265,16 @@
         <v>0</v>
       </c>
       <c r="N330" s="43" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="O330" s="43">
         <v>4800</v>
       </c>
       <c r="P330" s="43" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="Q330" s="66" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="R330" s="43"/>
       <c r="S330" s="43"/>
@@ -31334,7 +31334,7 @@
       </c>
       <c r="H331" s="43"/>
       <c r="I331" s="43" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="J331" s="43"/>
       <c r="K331" s="43">
@@ -31353,10 +31353,10 @@
         <v>9900</v>
       </c>
       <c r="P331" s="43" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="Q331" s="66" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="R331" s="43"/>
       <c r="S331" s="43"/>
@@ -31416,7 +31416,7 @@
       </c>
       <c r="H332" s="43"/>
       <c r="I332" s="43" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="J332" s="43"/>
       <c r="K332" s="43">
@@ -31429,16 +31429,16 @@
         <v>0</v>
       </c>
       <c r="N332" s="43" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="O332" s="43">
         <v>19800</v>
       </c>
       <c r="P332" s="43" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="Q332" s="66" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="R332" s="43"/>
       <c r="S332" s="43"/>
@@ -31498,7 +31498,7 @@
       </c>
       <c r="H333" s="43"/>
       <c r="I333" s="43" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="J333" s="43"/>
       <c r="K333" s="43">
@@ -31517,17 +31517,17 @@
         <v>29800</v>
       </c>
       <c r="P333" s="43" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="Q333" s="66" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="R333" s="43"/>
       <c r="S333" s="43"/>
       <c r="T333" s="43"/>
       <c r="U333" s="43"/>
       <c r="V333" s="43" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="W333" s="43">
         <v>99999999</v>
@@ -31580,7 +31580,7 @@
       </c>
       <c r="H334" s="43"/>
       <c r="I334" s="43" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="J334" s="43"/>
       <c r="K334" s="43">
@@ -31593,23 +31593,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="43" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="O334" s="43">
         <v>39800</v>
       </c>
       <c r="P334" s="43" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="Q334" s="66" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="R334" s="43"/>
       <c r="S334" s="43"/>
       <c r="T334" s="43"/>
       <c r="U334" s="43"/>
       <c r="V334" s="43" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="W334" s="43">
         <v>99999999</v>
@@ -31662,7 +31662,7 @@
       </c>
       <c r="H335" s="43"/>
       <c r="I335" s="43" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="J335" s="43"/>
       <c r="K335" s="43">
@@ -31675,16 +31675,16 @@
         <v>0</v>
       </c>
       <c r="N335" s="43" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="O335" s="43">
         <v>49800</v>
       </c>
       <c r="P335" s="43" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="Q335" s="66" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="R335" s="43"/>
       <c r="S335" s="43"/>
@@ -31744,7 +31744,7 @@
       </c>
       <c r="H336" s="43"/>
       <c r="I336" s="43" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="J336" s="43"/>
       <c r="K336" s="43">
@@ -31757,23 +31757,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="43" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="O336" s="43">
         <v>59800</v>
       </c>
       <c r="P336" s="43" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="Q336" s="66" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="R336" s="43"/>
       <c r="S336" s="43"/>
       <c r="T336" s="43"/>
       <c r="U336" s="43"/>
       <c r="V336" s="43" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="W336" s="43">
         <v>99999999</v>
@@ -31826,7 +31826,7 @@
       </c>
       <c r="H337" s="43"/>
       <c r="I337" s="43" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="J337" s="43"/>
       <c r="K337" s="43">
@@ -31839,23 +31839,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="43" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="O337" s="43">
         <v>69800</v>
       </c>
       <c r="P337" s="43" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="Q337" s="66" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="R337" s="43"/>
       <c r="S337" s="43"/>
       <c r="T337" s="43"/>
       <c r="U337" s="43"/>
       <c r="V337" s="43" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="W337" s="43">
         <v>99999999</v>
@@ -39719,7 +39719,7 @@
         <v>1622</v>
       </c>
       <c r="Q455" s="58" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>529</v>
@@ -41025,7 +41025,7 @@
         <v>1711</v>
       </c>
       <c r="I475" s="55" t="s">
-        <v>1731</v>
+        <v>1789</v>
       </c>
       <c r="K475" s="55">
         <v>-31</v>
@@ -41046,7 +41046,7 @@
         <v>1622</v>
       </c>
       <c r="Q475" s="56" t="s">
-        <v>1732</v>
+        <v>1790</v>
       </c>
       <c r="V475" s="61" t="s">
         <v>1720</v>
@@ -41084,13 +41084,13 @@
         <v>1</v>
       </c>
       <c r="G476" s="67" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H476" s="67" t="s">
+        <v>1774</v>
+      </c>
+      <c r="I476" s="67" t="s">
         <v>1775</v>
-      </c>
-      <c r="H476" s="67" t="s">
-        <v>1776</v>
-      </c>
-      <c r="I476" s="67" t="s">
-        <v>1777</v>
       </c>
       <c r="K476" s="67">
         <v>-31</v>
@@ -41108,10 +41108,10 @@
         <v>49800</v>
       </c>
       <c r="P476" s="67" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="Q476" s="68" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="V476" s="67" t="s">
         <v>1246</v>
@@ -41149,13 +41149,13 @@
         <v>1</v>
       </c>
       <c r="G477" s="67" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="H477" s="67" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="I477" s="67" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="K477" s="67">
         <v>-31</v>
@@ -41173,10 +41173,10 @@
         <v>19800</v>
       </c>
       <c r="P477" s="67" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="Q477" s="68" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="V477" s="67" t="s">
         <v>1246</v>
@@ -41214,13 +41214,13 @@
         <v>1</v>
       </c>
       <c r="G478" s="67" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="H478" s="67" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="I478" s="67" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="K478" s="67">
         <v>-31</v>
@@ -41238,7 +41238,7 @@
         <v>9800</v>
       </c>
       <c r="P478" s="67" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="Q478" s="68" t="s">
         <v>770</v>
@@ -41279,13 +41279,13 @@
         <v>1</v>
       </c>
       <c r="G479" s="67" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="H479" s="67" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="I479" s="67" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="K479" s="67">
         <v>-31</v>
@@ -41303,10 +41303,10 @@
         <v>4800</v>
       </c>
       <c r="P479" s="67" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="Q479" s="68" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="V479" s="67" t="s">
         <v>1246</v>
@@ -42095,7 +42095,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="65" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="C53" s="64">
         <v>1</v>
@@ -42109,7 +42109,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="65" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="C54" s="64">
         <v>1</v>
@@ -42123,7 +42123,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="65" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="C55" s="64">
         <v>1</v>
@@ -42137,7 +42137,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="65" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="C56" s="64">
         <v>1</v>
@@ -42151,7 +42151,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="65" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="C57" s="64">
         <v>1</v>
@@ -42165,7 +42165,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="65" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="C58" s="64">
         <v>1</v>
@@ -42179,7 +42179,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="65" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="C59" s="64">
         <v>1</v>
@@ -42193,7 +42193,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="65" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="C60" s="64">
         <v>1</v>
@@ -42207,7 +42207,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="C61" s="64">
         <v>1</v>
@@ -42221,7 +42221,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="65" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="C62" s="64">
         <v>1</v>
@@ -42235,7 +42235,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="65" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="C63" s="64">
         <v>1</v>
@@ -42249,7 +42249,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="65" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="C64" s="64">
         <v>1</v>
@@ -42263,7 +42263,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="65" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="C65" s="64">
         <v>1</v>
@@ -42277,7 +42277,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="65" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="C66" s="64">
         <v>1</v>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="1791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3965" uniqueCount="1809">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7996,6 +7996,74 @@
   </si>
   <si>
     <t>"2.5亿金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二498元礼包</t>
+  </si>
+  <si>
+    <t>"4980万","200万小游戏币","抽奖券*50",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_12_12_cjq",</t>
+  </si>
+  <si>
+    <t>49800000,2000000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万","50万小游戏币","抽奖券*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,500000,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万","10万小游戏币","抽奖券*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,100000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万","3万小游戏币","抽奖券*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,30000,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二20元礼包</t>
+  </si>
+  <si>
+    <t>"200万","1万小游戏币","抽奖券*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,10000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二6元礼包</t>
+  </si>
+  <si>
+    <t>"60万","3000小游戏币","抽奖券*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,3000,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8208,7 +8276,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8426,6 +8494,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8892,7 +8963,7 @@
   <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="F2" sqref="F2:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9117,9 +9188,7 @@
         <v>41</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="2">
-        <v>85</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="11" t="s">
         <v>42</v>
       </c>
@@ -9199,9 +9268,7 @@
         <v>41</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="2">
-        <v>86</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="11" t="s">
         <v>42</v>
       </c>
@@ -9281,9 +9348,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="2">
-        <v>87</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="11" t="s">
         <v>42</v>
       </c>
@@ -9363,9 +9428,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="2">
-        <v>88</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="11" t="s">
         <v>42</v>
       </c>
@@ -9445,9 +9508,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="2">
-        <v>89</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="11" t="s">
         <v>42</v>
       </c>
@@ -9527,9 +9588,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="2">
-        <v>109</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="11" t="s">
         <v>42</v>
       </c>
@@ -9609,9 +9668,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="2">
-        <v>10044</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="11" t="s">
         <v>42</v>
       </c>
@@ -9690,9 +9747,6 @@
         <v>41</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="11">
-        <v>10045</v>
-      </c>
       <c r="G10" s="11" t="s">
         <v>42</v>
       </c>
@@ -9773,9 +9827,7 @@
       <c r="E11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="11">
-        <v>90</v>
-      </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="2" t="s">
         <v>42</v>
       </c>
@@ -10777,9 +10829,7 @@
         <v>41</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="11">
-        <v>10189</v>
-      </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="2" t="s">
         <v>1117</v>
       </c>
@@ -10878,13 +10928,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM479"/>
+  <dimension ref="A1:AM485"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AI401" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AK466" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN1048576"/>
+      <selection pane="bottomRight" activeCell="AK492" sqref="AK492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14674,7 +14724,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="69" t="s">
         <v>223</v>
@@ -14730,7 +14780,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="69" t="s">
         <v>225</v>
@@ -14786,7 +14836,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="69" t="s">
         <v>227</v>
@@ -14842,7 +14892,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="69" t="s">
         <v>229</v>
@@ -14898,7 +14948,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="69" t="s">
         <v>230</v>
@@ -16231,7 +16281,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" s="69" t="s">
         <v>254</v>
@@ -18265,7 +18315,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" s="69" t="s">
         <v>320</v>
@@ -18321,7 +18371,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" s="69" t="s">
         <v>1204</v>
@@ -27606,7 +27656,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G273" s="69" t="s">
         <v>522</v>
@@ -41351,6 +41401,378 @@
         <v>1</v>
       </c>
       <c r="AL479" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A480" s="53">
+        <v>479</v>
+      </c>
+      <c r="B480" s="53">
+        <v>10396</v>
+      </c>
+      <c r="F480" s="53">
+        <v>1</v>
+      </c>
+      <c r="G480" s="53" t="s">
+        <v>1791</v>
+      </c>
+      <c r="I480" s="53" t="s">
+        <v>1792</v>
+      </c>
+      <c r="K480" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L480" s="53">
+        <v>0</v>
+      </c>
+      <c r="M480" s="53">
+        <v>0</v>
+      </c>
+      <c r="N480" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O480" s="53">
+        <v>49800</v>
+      </c>
+      <c r="P480" s="53" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Q480" s="54" t="s">
+        <v>1794</v>
+      </c>
+      <c r="V480" s="53" t="s">
+        <v>1795</v>
+      </c>
+      <c r="W480" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X480" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y480" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG480" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH480" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK480" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL480" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A481" s="53">
+        <v>480</v>
+      </c>
+      <c r="B481" s="53">
+        <v>10397</v>
+      </c>
+      <c r="F481" s="53">
+        <v>1</v>
+      </c>
+      <c r="G481" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="I481" s="53" t="s">
+        <v>1796</v>
+      </c>
+      <c r="K481" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L481" s="53">
+        <v>0</v>
+      </c>
+      <c r="M481" s="53">
+        <v>0</v>
+      </c>
+      <c r="N481" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O481" s="53">
+        <v>19800</v>
+      </c>
+      <c r="P481" s="53" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Q481" s="54" t="s">
+        <v>1797</v>
+      </c>
+      <c r="V481" s="53" t="s">
+        <v>1795</v>
+      </c>
+      <c r="W481" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X481" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y481" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG481" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH481" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK481" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL481" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A482" s="53">
+        <v>481</v>
+      </c>
+      <c r="B482" s="53">
+        <v>10398</v>
+      </c>
+      <c r="F482" s="53">
+        <v>1</v>
+      </c>
+      <c r="G482" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="I482" s="53" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K482" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L482" s="53">
+        <v>0</v>
+      </c>
+      <c r="M482" s="53">
+        <v>0</v>
+      </c>
+      <c r="N482" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O482" s="53">
+        <v>9800</v>
+      </c>
+      <c r="P482" s="53" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Q482" s="54" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V482" s="53" t="s">
+        <v>1795</v>
+      </c>
+      <c r="W482" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X482" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y482" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG482" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH482" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK482" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL482" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A483" s="53">
+        <v>482</v>
+      </c>
+      <c r="B483" s="53">
+        <v>10399</v>
+      </c>
+      <c r="F483" s="53">
+        <v>1</v>
+      </c>
+      <c r="G483" s="53" t="s">
+        <v>354</v>
+      </c>
+      <c r="I483" s="53" t="s">
+        <v>1800</v>
+      </c>
+      <c r="K483" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L483" s="53">
+        <v>0</v>
+      </c>
+      <c r="M483" s="53">
+        <v>0</v>
+      </c>
+      <c r="N483" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O483" s="53">
+        <v>4800</v>
+      </c>
+      <c r="P483" s="53" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Q483" s="54" t="s">
+        <v>1801</v>
+      </c>
+      <c r="V483" s="53" t="s">
+        <v>1795</v>
+      </c>
+      <c r="W483" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X483" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y483" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG483" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH483" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK483" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL483" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A484" s="53">
+        <v>483</v>
+      </c>
+      <c r="B484" s="53">
+        <v>10400</v>
+      </c>
+      <c r="F484" s="53">
+        <v>1</v>
+      </c>
+      <c r="G484" s="53" t="s">
+        <v>1802</v>
+      </c>
+      <c r="I484" s="53" t="s">
+        <v>1803</v>
+      </c>
+      <c r="K484" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L484" s="53">
+        <v>0</v>
+      </c>
+      <c r="M484" s="53">
+        <v>0</v>
+      </c>
+      <c r="N484" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O484" s="53">
+        <v>2000</v>
+      </c>
+      <c r="P484" s="53" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Q484" s="54" t="s">
+        <v>1804</v>
+      </c>
+      <c r="V484" s="53" t="s">
+        <v>1805</v>
+      </c>
+      <c r="W484" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X484" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y484" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG484" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH484" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK484" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL484" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A485" s="53">
+        <v>484</v>
+      </c>
+      <c r="B485" s="53">
+        <v>10401</v>
+      </c>
+      <c r="F485" s="53">
+        <v>1</v>
+      </c>
+      <c r="G485" s="53" t="s">
+        <v>1806</v>
+      </c>
+      <c r="I485" s="53" t="s">
+        <v>1807</v>
+      </c>
+      <c r="K485" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L485" s="53">
+        <v>0</v>
+      </c>
+      <c r="M485" s="53">
+        <v>0</v>
+      </c>
+      <c r="N485" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O485" s="53">
+        <v>600</v>
+      </c>
+      <c r="P485" s="53" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Q485" s="54" t="s">
+        <v>1808</v>
+      </c>
+      <c r="V485" s="53" t="s">
+        <v>1805</v>
+      </c>
+      <c r="W485" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X485" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y485" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG485" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH485" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK485" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL485" s="53">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3932" uniqueCount="1794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="1791">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7996,18 +7996,6 @@
   </si>
   <si>
     <t>"2.5亿金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag|标签</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>热销</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>热销</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8086,7 +8074,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8177,12 +8165,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8226,7 +8208,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8444,12 +8426,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10902,13 +10878,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN488"/>
+  <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="K401" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AI401" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L425" sqref="L425"/>
+      <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -10950,7 +10926,7 @@
     <col min="40" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11068,11 +11044,8 @@
       <c r="AM1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -11130,7 +11103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -11188,7 +11161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -11246,7 +11219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -11315,7 +11288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -11369,7 +11342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -11427,7 +11400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -11484,7 +11457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -11538,7 +11511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -11592,7 +11565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -11646,7 +11619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -11700,7 +11673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -11757,7 +11730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -11811,7 +11784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -11868,7 +11841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -27622,7 +27595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:40" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A273" s="69">
         <v>272</v>
       </c>
@@ -27677,9 +27650,8 @@
       <c r="AH273" s="69">
         <v>1</v>
       </c>
-      <c r="AN273" s="73"/>
-    </row>
-    <row r="274" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:39" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
         <v>273</v>
       </c>
@@ -27755,7 +27727,7 @@
       <c r="AL274" s="5"/>
       <c r="AM274" s="5"/>
     </row>
-    <row r="275" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5">
         <v>274</v>
       </c>
@@ -27820,7 +27792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="5">
         <v>275</v>
       </c>
@@ -27885,7 +27857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5">
         <v>276</v>
       </c>
@@ -27950,7 +27922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="5">
         <v>277</v>
       </c>
@@ -28015,7 +27987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A279" s="5">
         <v>278</v>
       </c>
@@ -28080,7 +28052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5">
         <v>279</v>
       </c>
@@ -28145,7 +28117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5">
         <v>280</v>
       </c>
@@ -28210,7 +28182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5">
         <v>281</v>
       </c>
@@ -28275,7 +28247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="5">
         <v>282</v>
       </c>
@@ -28340,7 +28312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5">
         <v>283</v>
       </c>
@@ -28405,7 +28377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="5">
         <v>284</v>
       </c>
@@ -28467,7 +28439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="5">
         <v>285</v>
       </c>
@@ -28529,7 +28501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5">
         <v>286</v>
       </c>
@@ -28591,7 +28563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5">
         <v>287</v>
       </c>
@@ -35183,7 +35155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5">
         <v>384</v>
       </c>
@@ -35251,7 +35223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A386" s="19">
         <v>385</v>
       </c>
@@ -35318,9 +35290,8 @@
       <c r="AL386" s="19">
         <v>1</v>
       </c>
-      <c r="AN386" s="49"/>
-    </row>
-    <row r="387" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="387" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" s="19">
         <v>386</v>
       </c>
@@ -35387,9 +35358,8 @@
       <c r="AL387" s="19">
         <v>1</v>
       </c>
-      <c r="AN387" s="49"/>
-    </row>
-    <row r="388" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="388" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A388" s="19">
         <v>387</v>
       </c>
@@ -35456,9 +35426,8 @@
       <c r="AL388" s="19">
         <v>1</v>
       </c>
-      <c r="AN388" s="49"/>
-    </row>
-    <row r="389" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="389" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="19">
         <v>388</v>
       </c>
@@ -35525,9 +35494,8 @@
       <c r="AL389" s="19">
         <v>1</v>
       </c>
-      <c r="AN389" s="63"/>
-    </row>
-    <row r="390" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="390" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A390" s="19">
         <v>389</v>
       </c>
@@ -35594,9 +35562,8 @@
       <c r="AL390" s="19">
         <v>1</v>
       </c>
-      <c r="AN390" s="63"/>
-    </row>
-    <row r="391" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="391" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="19">
         <v>390</v>
       </c>
@@ -35663,9 +35630,8 @@
       <c r="AL391" s="19">
         <v>1</v>
       </c>
-      <c r="AN391" s="63"/>
-    </row>
-    <row r="392" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="392" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A392" s="19">
         <v>391</v>
       </c>
@@ -35732,9 +35698,8 @@
       <c r="AL392" s="19">
         <v>1</v>
       </c>
-      <c r="AN392" s="49"/>
-    </row>
-    <row r="393" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="393" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="19">
         <v>392</v>
       </c>
@@ -35801,9 +35766,8 @@
       <c r="AL393" s="19">
         <v>1</v>
       </c>
-      <c r="AN393" s="49"/>
-    </row>
-    <row r="394" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="394" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A394" s="19">
         <v>393</v>
       </c>
@@ -35870,9 +35834,8 @@
       <c r="AL394" s="19">
         <v>1</v>
       </c>
-      <c r="AN394" s="49"/>
-    </row>
-    <row r="395" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="395" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" s="5">
         <v>394</v>
       </c>
@@ -35934,7 +35897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A396" s="5">
         <v>395</v>
       </c>
@@ -35996,7 +35959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" s="5">
         <v>396</v>
       </c>
@@ -36058,7 +36021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" s="5">
         <v>397</v>
       </c>
@@ -36120,7 +36083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A399" s="5">
         <v>398</v>
       </c>
@@ -36182,7 +36145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" s="5">
         <v>399</v>
       </c>
@@ -36244,7 +36207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>400</v>
       </c>
@@ -36309,7 +36272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>401</v>
       </c>
@@ -36374,7 +36337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>402</v>
       </c>
@@ -36439,7 +36402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>403</v>
       </c>
@@ -36504,7 +36467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>404</v>
       </c>
@@ -36569,7 +36532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>405</v>
       </c>
@@ -36634,7 +36597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>406</v>
       </c>
@@ -36699,7 +36662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" s="49">
         <v>407</v>
       </c>
@@ -36763,9 +36726,8 @@
       <c r="AL408" s="49">
         <v>1</v>
       </c>
-      <c r="AN408" s="5"/>
-    </row>
-    <row r="409" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="409" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A409" s="49">
         <v>408</v>
       </c>
@@ -36829,9 +36791,8 @@
       <c r="AL409" s="49">
         <v>1</v>
       </c>
-      <c r="AN409" s="5"/>
-    </row>
-    <row r="410" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="410" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="49">
         <v>409</v>
       </c>
@@ -36895,9 +36856,8 @@
       <c r="AL410" s="49">
         <v>1</v>
       </c>
-      <c r="AN410" s="5"/>
-    </row>
-    <row r="411" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="411" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A411" s="49">
         <v>410</v>
       </c>
@@ -36961,9 +36921,8 @@
       <c r="AL411" s="49">
         <v>1</v>
       </c>
-      <c r="AN411" s="5"/>
-    </row>
-    <row r="412" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="412" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" s="49">
         <v>411</v>
       </c>
@@ -37027,9 +36986,8 @@
       <c r="AL412" s="49">
         <v>1</v>
       </c>
-      <c r="AN412" s="5"/>
-    </row>
-    <row r="413" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="413" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A413" s="49">
         <v>412</v>
       </c>
@@ -37093,9 +37051,8 @@
       <c r="AL413" s="49">
         <v>1</v>
       </c>
-      <c r="AN413" s="5"/>
-    </row>
-    <row r="414" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="414" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>413</v>
       </c>
@@ -37151,7 +37108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A415" s="6">
         <v>414</v>
       </c>
@@ -37219,7 +37176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A416" s="6">
         <v>415</v>
       </c>
@@ -37287,7 +37244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>416</v>
       </c>
@@ -37355,7 +37312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>417</v>
       </c>
@@ -37423,7 +37380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A419" s="6">
         <v>418</v>
       </c>
@@ -37491,7 +37448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A420" s="6">
         <v>419</v>
       </c>
@@ -37559,7 +37516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" s="19">
         <v>420</v>
       </c>
@@ -37627,7 +37584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A422" s="53">
         <v>421</v>
       </c>
@@ -37694,9 +37651,8 @@
       <c r="AL422" s="53">
         <v>1</v>
       </c>
-      <c r="AN422" s="6"/>
-    </row>
-    <row r="423" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="423" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" s="53">
         <v>422</v>
       </c>
@@ -37763,9 +37719,8 @@
       <c r="AL423" s="53">
         <v>1</v>
       </c>
-      <c r="AN423" s="6"/>
-    </row>
-    <row r="424" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="424" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A424" s="53">
         <v>423</v>
       </c>
@@ -37832,9 +37787,8 @@
       <c r="AL424" s="53">
         <v>1</v>
       </c>
-      <c r="AN424" s="6"/>
-    </row>
-    <row r="425" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="425" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A425" s="6">
         <v>424</v>
       </c>
@@ -37889,11 +37843,8 @@
       <c r="AH425" s="6">
         <v>1</v>
       </c>
-      <c r="AN425" s="6" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="426" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="426" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A426" s="6">
         <v>425</v>
       </c>
@@ -37949,7 +37900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A427" s="6">
         <v>426</v>
       </c>
@@ -38004,11 +37955,8 @@
       <c r="AH427" s="6">
         <v>1</v>
       </c>
-      <c r="AN427" s="6" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="428" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="428" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A428" s="6">
         <v>427</v>
       </c>
@@ -38064,7 +38012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A429" s="6">
         <v>428</v>
       </c>
@@ -38120,7 +38068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A430" s="6">
         <v>429</v>
       </c>
@@ -38188,7 +38136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" s="6">
         <v>430</v>
       </c>
@@ -38256,7 +38204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A432" s="6">
         <v>431</v>
       </c>
@@ -38324,7 +38272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" s="6">
         <v>432</v>
       </c>
@@ -38392,7 +38340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A434" s="55">
         <v>433</v>
       </c>
@@ -38456,9 +38404,8 @@
       <c r="AL434" s="55">
         <v>1</v>
       </c>
-      <c r="AN434" s="5"/>
-    </row>
-    <row r="435" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="435" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" s="55">
         <v>434</v>
       </c>
@@ -38522,9 +38469,8 @@
       <c r="AL435" s="55">
         <v>1</v>
       </c>
-      <c r="AN435" s="5"/>
-    </row>
-    <row r="436" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="436" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A436" s="55">
         <v>435</v>
       </c>
@@ -38588,9 +38534,8 @@
       <c r="AL436" s="55">
         <v>1</v>
       </c>
-      <c r="AN436" s="5"/>
-    </row>
-    <row r="437" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="437" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" s="55">
         <v>436</v>
       </c>
@@ -38654,9 +38599,8 @@
       <c r="AL437" s="55">
         <v>1</v>
       </c>
-      <c r="AN437" s="5"/>
-    </row>
-    <row r="438" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="438" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A438" s="55">
         <v>437</v>
       </c>
@@ -38720,9 +38664,8 @@
       <c r="AL438" s="55">
         <v>1</v>
       </c>
-      <c r="AN438" s="5"/>
-    </row>
-    <row r="439" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="439" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" s="55">
         <v>438</v>
       </c>
@@ -38786,9 +38729,8 @@
       <c r="AL439" s="55">
         <v>1</v>
       </c>
-      <c r="AN439" s="5"/>
-    </row>
-    <row r="440" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="440" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A440" s="55">
         <v>439</v>
       </c>
@@ -38852,9 +38794,8 @@
       <c r="AL440" s="55">
         <v>1</v>
       </c>
-      <c r="AN440" s="5"/>
-    </row>
-    <row r="441" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="441" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" s="53">
         <v>440</v>
       </c>
@@ -38915,9 +38856,8 @@
       <c r="AL441" s="53">
         <v>1</v>
       </c>
-      <c r="AN441" s="5"/>
-    </row>
-    <row r="442" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="442" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A442" s="53">
         <v>441</v>
       </c>
@@ -38978,9 +38918,8 @@
       <c r="AL442" s="53">
         <v>1</v>
       </c>
-      <c r="AN442" s="5"/>
-    </row>
-    <row r="443" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="443" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" s="53">
         <v>442</v>
       </c>
@@ -39041,9 +38980,8 @@
       <c r="AL443" s="53">
         <v>1</v>
       </c>
-      <c r="AN443" s="5"/>
-    </row>
-    <row r="444" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="444" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A444" s="53">
         <v>443</v>
       </c>
@@ -39104,9 +39042,8 @@
       <c r="AL444" s="53">
         <v>1</v>
       </c>
-      <c r="AN444" s="5"/>
-    </row>
-    <row r="445" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="445" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" s="53">
         <v>444</v>
       </c>
@@ -39167,9 +39104,8 @@
       <c r="AL445" s="53">
         <v>1</v>
       </c>
-      <c r="AN445" s="5"/>
-    </row>
-    <row r="446" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="446" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A446" s="53">
         <v>445</v>
       </c>
@@ -39230,9 +39166,8 @@
       <c r="AL446" s="53">
         <v>1</v>
       </c>
-      <c r="AN446" s="5"/>
-    </row>
-    <row r="447" spans="1:40" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="447" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" s="57">
         <v>446</v>
       </c>
@@ -39300,7 +39235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:40" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A448" s="57">
         <v>447</v>
       </c>
@@ -40438,7 +40373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:40" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" s="57">
         <v>464</v>
       </c>
@@ -40506,7 +40441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:40" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" s="57">
         <v>465</v>
       </c>
@@ -40571,7 +40506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:40" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A467" s="57">
         <v>466</v>
       </c>
@@ -40639,7 +40574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" s="61">
         <v>467</v>
       </c>
@@ -40704,7 +40639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A469" s="61">
         <v>468</v>
       </c>
@@ -40769,7 +40704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" s="61">
         <v>469</v>
       </c>
@@ -40834,7 +40769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A471" s="61">
         <v>470</v>
       </c>
@@ -40899,7 +40834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" s="61">
         <v>471</v>
       </c>
@@ -40964,7 +40899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A473" s="61">
         <v>472</v>
       </c>
@@ -41029,7 +40964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" s="57">
         <v>473</v>
       </c>
@@ -41093,9 +41028,8 @@
       <c r="AL474" s="55">
         <v>1</v>
       </c>
-      <c r="AN474" s="74"/>
-    </row>
-    <row r="475" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="475" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A475" s="57">
         <v>474</v>
       </c>
@@ -41159,9 +41093,8 @@
       <c r="AL475" s="55">
         <v>1</v>
       </c>
-      <c r="AN475" s="74"/>
-    </row>
-    <row r="476" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="476" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" s="67">
         <v>475</v>
       </c>
@@ -41226,7 +41159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A477" s="67">
         <v>476</v>
       </c>
@@ -41291,7 +41224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" s="67">
         <v>477</v>
       </c>
@@ -41356,7 +41289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A479" s="67">
         <v>478</v>
       </c>
@@ -41420,33 +41353,6 @@
       <c r="AL479" s="67">
         <v>1</v>
       </c>
-    </row>
-    <row r="480" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="AN480" s="5"/>
-    </row>
-    <row r="481" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN481" s="5"/>
-    </row>
-    <row r="482" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN482" s="5"/>
-    </row>
-    <row r="483" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN483" s="5"/>
-    </row>
-    <row r="484" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN484" s="5"/>
-    </row>
-    <row r="485" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN485" s="5"/>
-    </row>
-    <row r="486" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN486" s="5"/>
-    </row>
-    <row r="487" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN487" s="5"/>
-    </row>
-    <row r="488" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN488" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -7991,11 +7991,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>250000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"2.5亿金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>250000000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8892,7 +8892,7 @@
   <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F24"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9117,7 +9117,9 @@
         <v>41</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>85</v>
+      </c>
       <c r="G3" s="11" t="s">
         <v>42</v>
       </c>
@@ -9197,7 +9199,9 @@
         <v>41</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>86</v>
+      </c>
       <c r="G4" s="11" t="s">
         <v>42</v>
       </c>
@@ -9277,7 +9281,9 @@
         <v>41</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>87</v>
+      </c>
       <c r="G5" s="11" t="s">
         <v>42</v>
       </c>
@@ -9357,7 +9363,9 @@
         <v>41</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>88</v>
+      </c>
       <c r="G6" s="11" t="s">
         <v>42</v>
       </c>
@@ -9437,7 +9445,9 @@
         <v>41</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>89</v>
+      </c>
       <c r="G7" s="11" t="s">
         <v>42</v>
       </c>
@@ -9517,7 +9527,9 @@
         <v>41</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>109</v>
+      </c>
       <c r="G8" s="11" t="s">
         <v>42</v>
       </c>
@@ -9597,7 +9609,9 @@
         <v>41</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>10044</v>
+      </c>
       <c r="G9" s="11" t="s">
         <v>42</v>
       </c>
@@ -9676,6 +9690,9 @@
         <v>41</v>
       </c>
       <c r="E10" s="23"/>
+      <c r="F10" s="11">
+        <v>10045</v>
+      </c>
       <c r="G10" s="11" t="s">
         <v>42</v>
       </c>
@@ -9756,7 +9773,9 @@
       <c r="E11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="11">
+        <v>90</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>42</v>
       </c>
@@ -10758,7 +10777,9 @@
         <v>41</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="11">
+        <v>10189</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>1117</v>
       </c>
@@ -10860,10 +10881,10 @@
   <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H455" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H458" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F475" sqref="F475"/>
+      <selection pane="bottomRight" activeCell="I475" sqref="I475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14653,7 +14674,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="69" t="s">
         <v>223</v>
@@ -14709,7 +14730,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="69" t="s">
         <v>225</v>
@@ -14765,7 +14786,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="69" t="s">
         <v>227</v>
@@ -14821,7 +14842,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="69" t="s">
         <v>229</v>
@@ -14877,7 +14898,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="69" t="s">
         <v>230</v>
@@ -16210,7 +16231,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="69" t="s">
         <v>254</v>
@@ -18244,7 +18265,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="69" t="s">
         <v>320</v>
@@ -18300,7 +18321,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="69" t="s">
         <v>1204</v>
@@ -27585,7 +27606,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" s="69" t="s">
         <v>522</v>
@@ -41025,7 +41046,7 @@
         <v>1711</v>
       </c>
       <c r="I475" s="55" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="K475" s="55">
         <v>-31</v>
@@ -41046,7 +41067,7 @@
         <v>1622</v>
       </c>
       <c r="Q475" s="56" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="V475" s="61" t="s">
         <v>1720</v>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="1791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3932" uniqueCount="1794">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7996,6 +7996,18 @@
   </si>
   <si>
     <t>"2.5亿金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag|标签</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>热销</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>热销</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8074,7 +8086,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8165,6 +8177,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8208,7 +8226,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8426,6 +8444,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10878,13 +10902,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM479"/>
+  <dimension ref="A1:AN488"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H458" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="K401" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I475" sqref="I475"/>
+      <selection pane="bottomRight" activeCell="L425" sqref="L425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -10926,7 +10950,7 @@
     <col min="40" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11044,8 +11068,11 @@
       <c r="AM1" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN1" s="1" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -11103,7 +11130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -11161,7 +11188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -11219,7 +11246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -11288,7 +11315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -11342,7 +11369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -11400,7 +11427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -11457,7 +11484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -11511,7 +11538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -11565,7 +11592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -11619,7 +11646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -11673,7 +11700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -11730,7 +11757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -11784,7 +11811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -11841,7 +11868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -27595,7 +27622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:40" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A273" s="69">
         <v>272</v>
       </c>
@@ -27650,8 +27677,9 @@
       <c r="AH273" s="69">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:39" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AN273" s="73"/>
+    </row>
+    <row r="274" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
         <v>273</v>
       </c>
@@ -27727,7 +27755,7 @@
       <c r="AL274" s="5"/>
       <c r="AM274" s="5"/>
     </row>
-    <row r="275" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5">
         <v>274</v>
       </c>
@@ -27792,7 +27820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="5">
         <v>275</v>
       </c>
@@ -27857,7 +27885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5">
         <v>276</v>
       </c>
@@ -27922,7 +27950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="5">
         <v>277</v>
       </c>
@@ -27987,7 +28015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A279" s="5">
         <v>278</v>
       </c>
@@ -28052,7 +28080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5">
         <v>279</v>
       </c>
@@ -28117,7 +28145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5">
         <v>280</v>
       </c>
@@ -28182,7 +28210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5">
         <v>281</v>
       </c>
@@ -28247,7 +28275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="5">
         <v>282</v>
       </c>
@@ -28312,7 +28340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5">
         <v>283</v>
       </c>
@@ -28377,7 +28405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="5">
         <v>284</v>
       </c>
@@ -28439,7 +28467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="5">
         <v>285</v>
       </c>
@@ -28501,7 +28529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5">
         <v>286</v>
       </c>
@@ -28563,7 +28591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5">
         <v>287</v>
       </c>
@@ -35155,7 +35183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5">
         <v>384</v>
       </c>
@@ -35223,7 +35251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A386" s="19">
         <v>385</v>
       </c>
@@ -35290,8 +35318,9 @@
       <c r="AL386" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="387" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN386" s="49"/>
+    </row>
+    <row r="387" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" s="19">
         <v>386</v>
       </c>
@@ -35358,8 +35387,9 @@
       <c r="AL387" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="388" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN387" s="49"/>
+    </row>
+    <row r="388" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A388" s="19">
         <v>387</v>
       </c>
@@ -35426,8 +35456,9 @@
       <c r="AL388" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="389" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN388" s="49"/>
+    </row>
+    <row r="389" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="19">
         <v>388</v>
       </c>
@@ -35494,8 +35525,9 @@
       <c r="AL389" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="390" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN389" s="63"/>
+    </row>
+    <row r="390" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A390" s="19">
         <v>389</v>
       </c>
@@ -35562,8 +35594,9 @@
       <c r="AL390" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="391" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN390" s="63"/>
+    </row>
+    <row r="391" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="19">
         <v>390</v>
       </c>
@@ -35630,8 +35663,9 @@
       <c r="AL391" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="392" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN391" s="63"/>
+    </row>
+    <row r="392" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A392" s="19">
         <v>391</v>
       </c>
@@ -35698,8 +35732,9 @@
       <c r="AL392" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="393" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN392" s="49"/>
+    </row>
+    <row r="393" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="19">
         <v>392</v>
       </c>
@@ -35766,8 +35801,9 @@
       <c r="AL393" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="394" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN393" s="49"/>
+    </row>
+    <row r="394" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A394" s="19">
         <v>393</v>
       </c>
@@ -35834,8 +35870,9 @@
       <c r="AL394" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="395" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN394" s="49"/>
+    </row>
+    <row r="395" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" s="5">
         <v>394</v>
       </c>
@@ -35897,7 +35934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A396" s="5">
         <v>395</v>
       </c>
@@ -35959,7 +35996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" s="5">
         <v>396</v>
       </c>
@@ -36021,7 +36058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" s="5">
         <v>397</v>
       </c>
@@ -36083,7 +36120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A399" s="5">
         <v>398</v>
       </c>
@@ -36145,7 +36182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" s="5">
         <v>399</v>
       </c>
@@ -36207,7 +36244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>400</v>
       </c>
@@ -36272,7 +36309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>401</v>
       </c>
@@ -36337,7 +36374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>402</v>
       </c>
@@ -36402,7 +36439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>403</v>
       </c>
@@ -36467,7 +36504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>404</v>
       </c>
@@ -36532,7 +36569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>405</v>
       </c>
@@ -36597,7 +36634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>406</v>
       </c>
@@ -36662,7 +36699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" s="49">
         <v>407</v>
       </c>
@@ -36726,8 +36763,9 @@
       <c r="AL408" s="49">
         <v>1</v>
       </c>
-    </row>
-    <row r="409" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN408" s="5"/>
+    </row>
+    <row r="409" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A409" s="49">
         <v>408</v>
       </c>
@@ -36791,8 +36829,9 @@
       <c r="AL409" s="49">
         <v>1</v>
       </c>
-    </row>
-    <row r="410" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN409" s="5"/>
+    </row>
+    <row r="410" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="49">
         <v>409</v>
       </c>
@@ -36856,8 +36895,9 @@
       <c r="AL410" s="49">
         <v>1</v>
       </c>
-    </row>
-    <row r="411" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN410" s="5"/>
+    </row>
+    <row r="411" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A411" s="49">
         <v>410</v>
       </c>
@@ -36921,8 +36961,9 @@
       <c r="AL411" s="49">
         <v>1</v>
       </c>
-    </row>
-    <row r="412" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN411" s="5"/>
+    </row>
+    <row r="412" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" s="49">
         <v>411</v>
       </c>
@@ -36986,8 +37027,9 @@
       <c r="AL412" s="49">
         <v>1</v>
       </c>
-    </row>
-    <row r="413" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN412" s="5"/>
+    </row>
+    <row r="413" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A413" s="49">
         <v>412</v>
       </c>
@@ -37051,8 +37093,9 @@
       <c r="AL413" s="49">
         <v>1</v>
       </c>
-    </row>
-    <row r="414" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN413" s="5"/>
+    </row>
+    <row r="414" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>413</v>
       </c>
@@ -37108,7 +37151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A415" s="6">
         <v>414</v>
       </c>
@@ -37176,7 +37219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A416" s="6">
         <v>415</v>
       </c>
@@ -37244,7 +37287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>416</v>
       </c>
@@ -37312,7 +37355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>417</v>
       </c>
@@ -37380,7 +37423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A419" s="6">
         <v>418</v>
       </c>
@@ -37448,7 +37491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A420" s="6">
         <v>419</v>
       </c>
@@ -37516,7 +37559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" s="19">
         <v>420</v>
       </c>
@@ -37584,7 +37627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A422" s="53">
         <v>421</v>
       </c>
@@ -37651,8 +37694,9 @@
       <c r="AL422" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="423" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN422" s="6"/>
+    </row>
+    <row r="423" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" s="53">
         <v>422</v>
       </c>
@@ -37719,8 +37763,9 @@
       <c r="AL423" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="424" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN423" s="6"/>
+    </row>
+    <row r="424" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A424" s="53">
         <v>423</v>
       </c>
@@ -37787,8 +37832,9 @@
       <c r="AL424" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="425" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AN424" s="6"/>
+    </row>
+    <row r="425" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A425" s="6">
         <v>424</v>
       </c>
@@ -37843,8 +37889,11 @@
       <c r="AH425" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="426" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AN425" s="6" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="426" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A426" s="6">
         <v>425</v>
       </c>
@@ -37900,7 +37949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A427" s="6">
         <v>426</v>
       </c>
@@ -37955,8 +38004,11 @@
       <c r="AH427" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="428" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AN427" s="6" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="428" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A428" s="6">
         <v>427</v>
       </c>
@@ -38012,7 +38064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A429" s="6">
         <v>428</v>
       </c>
@@ -38068,7 +38120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A430" s="6">
         <v>429</v>
       </c>
@@ -38136,7 +38188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" s="6">
         <v>430</v>
       </c>
@@ -38204,7 +38256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A432" s="6">
         <v>431</v>
       </c>
@@ -38272,7 +38324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" s="6">
         <v>432</v>
       </c>
@@ -38340,7 +38392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A434" s="55">
         <v>433</v>
       </c>
@@ -38404,8 +38456,9 @@
       <c r="AL434" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="435" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN434" s="5"/>
+    </row>
+    <row r="435" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" s="55">
         <v>434</v>
       </c>
@@ -38469,8 +38522,9 @@
       <c r="AL435" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="436" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN435" s="5"/>
+    </row>
+    <row r="436" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A436" s="55">
         <v>435</v>
       </c>
@@ -38534,8 +38588,9 @@
       <c r="AL436" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="437" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN436" s="5"/>
+    </row>
+    <row r="437" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" s="55">
         <v>436</v>
       </c>
@@ -38599,8 +38654,9 @@
       <c r="AL437" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="438" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN437" s="5"/>
+    </row>
+    <row r="438" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A438" s="55">
         <v>437</v>
       </c>
@@ -38664,8 +38720,9 @@
       <c r="AL438" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="439" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN438" s="5"/>
+    </row>
+    <row r="439" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" s="55">
         <v>438</v>
       </c>
@@ -38729,8 +38786,9 @@
       <c r="AL439" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="440" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN439" s="5"/>
+    </row>
+    <row r="440" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A440" s="55">
         <v>439</v>
       </c>
@@ -38794,8 +38852,9 @@
       <c r="AL440" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="441" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN440" s="5"/>
+    </row>
+    <row r="441" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" s="53">
         <v>440</v>
       </c>
@@ -38856,8 +38915,9 @@
       <c r="AL441" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="442" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN441" s="5"/>
+    </row>
+    <row r="442" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A442" s="53">
         <v>441</v>
       </c>
@@ -38918,8 +38978,9 @@
       <c r="AL442" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="443" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN442" s="5"/>
+    </row>
+    <row r="443" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" s="53">
         <v>442</v>
       </c>
@@ -38980,8 +39041,9 @@
       <c r="AL443" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="444" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN443" s="5"/>
+    </row>
+    <row r="444" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A444" s="53">
         <v>443</v>
       </c>
@@ -39042,8 +39104,9 @@
       <c r="AL444" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="445" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN444" s="5"/>
+    </row>
+    <row r="445" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" s="53">
         <v>444</v>
       </c>
@@ -39104,8 +39167,9 @@
       <c r="AL445" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="446" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN445" s="5"/>
+    </row>
+    <row r="446" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A446" s="53">
         <v>445</v>
       </c>
@@ -39166,8 +39230,9 @@
       <c r="AL446" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="447" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN446" s="5"/>
+    </row>
+    <row r="447" spans="1:40" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" s="57">
         <v>446</v>
       </c>
@@ -39235,7 +39300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:40" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A448" s="57">
         <v>447</v>
       </c>
@@ -40373,7 +40438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:40" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" s="57">
         <v>464</v>
       </c>
@@ -40441,7 +40506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:40" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" s="57">
         <v>465</v>
       </c>
@@ -40506,7 +40571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:40" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A467" s="57">
         <v>466</v>
       </c>
@@ -40574,7 +40639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" s="61">
         <v>467</v>
       </c>
@@ -40639,7 +40704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A469" s="61">
         <v>468</v>
       </c>
@@ -40704,7 +40769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" s="61">
         <v>469</v>
       </c>
@@ -40769,7 +40834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A471" s="61">
         <v>470</v>
       </c>
@@ -40834,7 +40899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" s="61">
         <v>471</v>
       </c>
@@ -40899,7 +40964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A473" s="61">
         <v>472</v>
       </c>
@@ -40964,7 +41029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" s="57">
         <v>473</v>
       </c>
@@ -41028,8 +41093,9 @@
       <c r="AL474" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="475" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN474" s="74"/>
+    </row>
+    <row r="475" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A475" s="57">
         <v>474</v>
       </c>
@@ -41093,8 +41159,9 @@
       <c r="AL475" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="476" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN475" s="74"/>
+    </row>
+    <row r="476" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" s="67">
         <v>475</v>
       </c>
@@ -41159,7 +41226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A477" s="67">
         <v>476</v>
       </c>
@@ -41224,7 +41291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" s="67">
         <v>477</v>
       </c>
@@ -41289,7 +41356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A479" s="67">
         <v>478</v>
       </c>
@@ -41353,6 +41420,33 @@
       <c r="AL479" s="67">
         <v>1</v>
       </c>
+    </row>
+    <row r="480" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN480" s="5"/>
+    </row>
+    <row r="481" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN481" s="5"/>
+    </row>
+    <row r="482" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN482" s="5"/>
+    </row>
+    <row r="483" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN483" s="5"/>
+    </row>
+    <row r="484" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN484" s="5"/>
+    </row>
+    <row r="485" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN485" s="5"/>
+    </row>
+    <row r="486" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN486" s="5"/>
+    </row>
+    <row r="487" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN487" s="5"/>
+    </row>
+    <row r="488" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN488" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="1870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="1869">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7612,10 +7612,6 @@
   </si>
   <si>
     <t>600000,3000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","shop_gold_sum","prop_web_chip_huafei"</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -11134,10 +11130,10 @@
   <dimension ref="A1:AN492"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H467" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H498" sqref="H498"/>
+      <selection pane="bottomRight" activeCell="R77" sqref="R77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -11203,7 +11199,7 @@
         <v>1144</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1167</v>
@@ -14996,7 +14992,7 @@
         <v>223</v>
       </c>
       <c r="H67" s="69" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="L67" s="69">
         <v>-4</v>
@@ -15055,7 +15051,7 @@
         <v>225</v>
       </c>
       <c r="H68" s="69" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="L68" s="69">
         <v>-4</v>
@@ -15114,7 +15110,7 @@
         <v>227</v>
       </c>
       <c r="H69" s="69" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="L69" s="69">
         <v>-4</v>
@@ -15173,7 +15169,7 @@
         <v>229</v>
       </c>
       <c r="H70" s="69" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="L70" s="69">
         <v>-4</v>
@@ -15232,7 +15228,7 @@
         <v>230</v>
       </c>
       <c r="H71" s="69" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="L71" s="69">
         <v>-4</v>
@@ -15586,7 +15582,7 @@
         <v>236</v>
       </c>
       <c r="J77" s="19" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="L77" s="19">
         <v>-20</v>
@@ -15604,10 +15600,10 @@
         <v>100</v>
       </c>
       <c r="Q77" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="R77" s="39" t="s">
         <v>1710</v>
-      </c>
-      <c r="R77" s="39" t="s">
-        <v>1711</v>
       </c>
       <c r="W77" s="19" t="s">
         <v>525</v>
@@ -15625,10 +15621,10 @@
         <v>78</v>
       </c>
       <c r="AC77" s="19" t="s">
+        <v>1711</v>
+      </c>
+      <c r="AD77" s="39" t="s">
         <v>1712</v>
-      </c>
-      <c r="AD77" s="39" t="s">
-        <v>1713</v>
       </c>
       <c r="AH77" s="19">
         <v>1</v>
@@ -15651,7 +15647,7 @@
         <v>237</v>
       </c>
       <c r="J78" s="19" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="L78" s="19">
         <v>-20</v>
@@ -15669,10 +15665,10 @@
         <v>1000</v>
       </c>
       <c r="Q78" s="19" t="s">
+        <v>1713</v>
+      </c>
+      <c r="R78" s="39" t="s">
         <v>1714</v>
-      </c>
-      <c r="R78" s="39" t="s">
-        <v>1715</v>
       </c>
       <c r="W78" s="19" t="s">
         <v>525</v>
@@ -15690,10 +15686,10 @@
         <v>78</v>
       </c>
       <c r="AC78" s="19" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AD78" s="39" t="s">
         <v>1716</v>
-      </c>
-      <c r="AD78" s="39" t="s">
-        <v>1717</v>
       </c>
       <c r="AH78" s="19">
         <v>1</v>
@@ -15849,7 +15845,7 @@
         <v>240</v>
       </c>
       <c r="J81" s="19" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="L81" s="19">
         <v>-20</v>
@@ -15867,10 +15863,10 @@
         <v>4800</v>
       </c>
       <c r="Q81" s="19" t="s">
+        <v>1718</v>
+      </c>
+      <c r="R81" s="39" t="s">
         <v>1719</v>
-      </c>
-      <c r="R81" s="39" t="s">
-        <v>1720</v>
       </c>
       <c r="W81" s="19" t="s">
         <v>525</v>
@@ -15888,10 +15884,10 @@
         <v>580</v>
       </c>
       <c r="AC81" s="19" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AD81" s="39" t="s">
         <v>1721</v>
-      </c>
-      <c r="AD81" s="39" t="s">
-        <v>1722</v>
       </c>
       <c r="AH81" s="19">
         <v>1</v>
@@ -18614,7 +18610,7 @@
         <v>320</v>
       </c>
       <c r="H128" s="69" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="L128" s="69">
         <v>-10</v>
@@ -18673,7 +18669,7 @@
         <v>1147</v>
       </c>
       <c r="H129" s="69" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="L129" s="69">
         <v>-11</v>
@@ -21293,13 +21289,13 @@
         <v>1</v>
       </c>
       <c r="G171" s="43" t="s">
+        <v>1755</v>
+      </c>
+      <c r="I171" s="43" t="s">
         <v>1756</v>
       </c>
-      <c r="I171" s="43" t="s">
+      <c r="J171" s="43" t="s">
         <v>1757</v>
-      </c>
-      <c r="J171" s="43" t="s">
-        <v>1758</v>
       </c>
       <c r="L171" s="43">
         <v>-28</v>
@@ -21317,13 +21313,13 @@
         <v>100</v>
       </c>
       <c r="Q171" s="43" t="s">
+        <v>1758</v>
+      </c>
+      <c r="R171" s="66" t="s">
         <v>1759</v>
       </c>
-      <c r="R171" s="66" t="s">
+      <c r="W171" s="43" t="s">
         <v>1760</v>
-      </c>
-      <c r="W171" s="43" t="s">
-        <v>1761</v>
       </c>
       <c r="X171" s="43">
         <v>9999999</v>
@@ -21361,13 +21357,13 @@
         <v>1</v>
       </c>
       <c r="G172" s="43" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="I172" s="43" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="J172" s="43" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="L172" s="43">
         <v>-28</v>
@@ -21385,10 +21381,10 @@
         <v>300</v>
       </c>
       <c r="Q172" s="43" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="R172" s="66" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="W172" s="43" t="s">
         <v>528</v>
@@ -21432,10 +21428,10 @@
         <v>1151</v>
       </c>
       <c r="I173" s="43" t="s">
+        <v>1763</v>
+      </c>
+      <c r="J173" s="43" t="s">
         <v>1764</v>
-      </c>
-      <c r="J173" s="43" t="s">
-        <v>1765</v>
       </c>
       <c r="L173" s="43">
         <v>-28</v>
@@ -21453,10 +21449,10 @@
         <v>600</v>
       </c>
       <c r="Q173" s="43" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="R173" s="66" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="W173" s="43" t="s">
         <v>528</v>
@@ -21497,13 +21493,13 @@
         <v>1</v>
       </c>
       <c r="G174" s="43" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="I174" s="43" t="s">
+        <v>1765</v>
+      </c>
+      <c r="J174" s="43" t="s">
         <v>1766</v>
-      </c>
-      <c r="J174" s="43" t="s">
-        <v>1767</v>
       </c>
       <c r="L174" s="43">
         <v>-28</v>
@@ -21521,10 +21517,10 @@
         <v>600</v>
       </c>
       <c r="Q174" s="43" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="R174" s="66" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="W174" s="43" t="s">
         <v>528</v>
@@ -21565,13 +21561,13 @@
         <v>1</v>
       </c>
       <c r="G175" s="43" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="I175" s="43" t="s">
         <v>1168</v>
       </c>
       <c r="J175" s="43" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="L175" s="43">
         <v>-28</v>
@@ -21633,13 +21629,13 @@
         <v>1</v>
       </c>
       <c r="G176" s="43" t="s">
+        <v>1768</v>
+      </c>
+      <c r="I176" s="43" t="s">
         <v>1769</v>
       </c>
-      <c r="I176" s="43" t="s">
+      <c r="J176" s="43" t="s">
         <v>1770</v>
-      </c>
-      <c r="J176" s="43" t="s">
-        <v>1771</v>
       </c>
       <c r="L176" s="43">
         <v>-28</v>
@@ -21657,10 +21653,10 @@
         <v>1800</v>
       </c>
       <c r="Q176" s="43" t="s">
+        <v>1771</v>
+      </c>
+      <c r="R176" s="66" t="s">
         <v>1772</v>
-      </c>
-      <c r="R176" s="66" t="s">
-        <v>1773</v>
       </c>
       <c r="W176" s="43" t="s">
         <v>528</v>
@@ -21701,13 +21697,13 @@
         <v>1</v>
       </c>
       <c r="G177" s="43" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="I177" s="43" t="s">
+        <v>1773</v>
+      </c>
+      <c r="J177" s="43" t="s">
         <v>1774</v>
-      </c>
-      <c r="J177" s="43" t="s">
-        <v>1775</v>
       </c>
       <c r="L177" s="43">
         <v>-28</v>
@@ -21725,10 +21721,10 @@
         <v>1800</v>
       </c>
       <c r="Q177" s="43" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="R177" s="66" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="W177" s="43" t="s">
         <v>528</v>
@@ -21769,13 +21765,13 @@
         <v>1</v>
       </c>
       <c r="G178" s="43" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="I178" s="43" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="J178" s="43" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="L178" s="43">
         <v>-28</v>
@@ -21796,7 +21792,7 @@
         <v>966</v>
       </c>
       <c r="R178" s="66" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="W178" s="43" t="s">
         <v>528</v>
@@ -21837,13 +21833,13 @@
         <v>1</v>
       </c>
       <c r="G179" s="43" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="I179" s="43" t="s">
+        <v>1778</v>
+      </c>
+      <c r="J179" s="43" t="s">
         <v>1779</v>
-      </c>
-      <c r="J179" s="43" t="s">
-        <v>1780</v>
       </c>
       <c r="L179" s="43">
         <v>-28</v>
@@ -21861,10 +21857,10 @@
         <v>9800</v>
       </c>
       <c r="Q179" s="43" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="R179" s="66" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="W179" s="43" t="s">
         <v>528</v>
@@ -21905,13 +21901,13 @@
         <v>1</v>
       </c>
       <c r="G180" s="43" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="I180" s="43" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="J180" s="43" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="L180" s="43">
         <v>-28</v>
@@ -21929,10 +21925,10 @@
         <v>4800</v>
       </c>
       <c r="Q180" s="43" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="R180" s="66" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="W180" s="43" t="s">
         <v>528</v>
@@ -21973,13 +21969,13 @@
         <v>1</v>
       </c>
       <c r="G181" s="43" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="I181" s="43" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="J181" s="43" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="L181" s="43">
         <v>-28</v>
@@ -21997,10 +21993,10 @@
         <v>9800</v>
       </c>
       <c r="Q181" s="43" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="R181" s="66" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="W181" s="43" t="s">
         <v>528</v>
@@ -22041,13 +22037,13 @@
         <v>1</v>
       </c>
       <c r="G182" s="43" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="I182" s="43" t="s">
+        <v>1783</v>
+      </c>
+      <c r="J182" s="43" t="s">
         <v>1784</v>
-      </c>
-      <c r="J182" s="43" t="s">
-        <v>1785</v>
       </c>
       <c r="L182" s="43">
         <v>-28</v>
@@ -22065,10 +22061,10 @@
         <v>19800</v>
       </c>
       <c r="Q182" s="43" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="R182" s="66" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="W182" s="43" t="s">
         <v>528</v>
@@ -22109,13 +22105,13 @@
         <v>1</v>
       </c>
       <c r="G183" s="43" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="I183" s="43" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="J183" s="43" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="L183" s="43">
         <v>-28</v>
@@ -22133,10 +22129,10 @@
         <v>9800</v>
       </c>
       <c r="Q183" s="43" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="R183" s="66" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="W183" s="43" t="s">
         <v>528</v>
@@ -22177,13 +22173,13 @@
         <v>1</v>
       </c>
       <c r="G184" s="43" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="I184" s="43" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="J184" s="43" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="L184" s="43">
         <v>-28</v>
@@ -22201,10 +22197,10 @@
         <v>19800</v>
       </c>
       <c r="Q184" s="43" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="R184" s="66" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="W184" s="43" t="s">
         <v>528</v>
@@ -22245,13 +22241,13 @@
         <v>1</v>
       </c>
       <c r="G185" s="43" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="I185" s="43" t="s">
+        <v>1788</v>
+      </c>
+      <c r="J185" s="43" t="s">
         <v>1789</v>
-      </c>
-      <c r="J185" s="43" t="s">
-        <v>1790</v>
       </c>
       <c r="L185" s="43">
         <v>-28</v>
@@ -22272,7 +22268,7 @@
         <v>966</v>
       </c>
       <c r="R185" s="66" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="W185" s="43" t="s">
         <v>528</v>
@@ -27976,7 +27972,7 @@
         <v>521</v>
       </c>
       <c r="H273" s="75" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="L273" s="69">
         <v>-10</v>
@@ -31100,10 +31096,10 @@
         <v>1</v>
       </c>
       <c r="G323" s="43" t="s">
+        <v>1739</v>
+      </c>
+      <c r="J323" s="43" t="s">
         <v>1740</v>
-      </c>
-      <c r="J323" s="43" t="s">
-        <v>1741</v>
       </c>
       <c r="L323" s="43">
         <v>-28</v>
@@ -31124,10 +31120,10 @@
         <v>966</v>
       </c>
       <c r="R323" s="66" t="s">
+        <v>1741</v>
+      </c>
+      <c r="W323" s="43" t="s">
         <v>1742</v>
-      </c>
-      <c r="W323" s="43" t="s">
-        <v>1743</v>
       </c>
       <c r="X323" s="43">
         <v>9999999</v>
@@ -31165,10 +31161,10 @@
         <v>1</v>
       </c>
       <c r="G324" s="43" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="J324" s="43" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="L324" s="43">
         <v>-28</v>
@@ -31186,10 +31182,10 @@
         <v>4800</v>
       </c>
       <c r="Q324" s="43" t="s">
+        <v>1746</v>
+      </c>
+      <c r="R324" s="66" t="s">
         <v>1747</v>
-      </c>
-      <c r="R324" s="66" t="s">
-        <v>1748</v>
       </c>
       <c r="W324" s="43" t="s">
         <v>528</v>
@@ -31230,10 +31226,10 @@
         <v>1</v>
       </c>
       <c r="G325" s="43" t="s">
+        <v>1748</v>
+      </c>
+      <c r="J325" s="43" t="s">
         <v>1749</v>
-      </c>
-      <c r="J325" s="43" t="s">
-        <v>1750</v>
       </c>
       <c r="L325" s="43">
         <v>-28</v>
@@ -31254,7 +31250,7 @@
         <v>966</v>
       </c>
       <c r="R325" s="66" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="W325" s="43" t="s">
         <v>528</v>
@@ -37411,7 +37407,7 @@
         <v>1397</v>
       </c>
       <c r="H414" s="69" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="L414" s="69">
         <v>-4</v>
@@ -37432,7 +37428,7 @@
         <v>78</v>
       </c>
       <c r="R414" s="74" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="W414" s="69" t="s">
         <v>525</v>
@@ -38427,13 +38423,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="43" t="s">
+        <v>1724</v>
+      </c>
+      <c r="I430" s="43" t="s">
         <v>1725</v>
       </c>
-      <c r="I430" s="43" t="s">
+      <c r="J430" s="43" t="s">
         <v>1726</v>
-      </c>
-      <c r="J430" s="43" t="s">
-        <v>1727</v>
       </c>
       <c r="L430" s="43">
         <v>-28</v>
@@ -38454,10 +38450,10 @@
         <v>1421</v>
       </c>
       <c r="R430" s="66" t="s">
+        <v>1727</v>
+      </c>
+      <c r="W430" s="43" t="s">
         <v>1728</v>
-      </c>
-      <c r="W430" s="43" t="s">
-        <v>1729</v>
       </c>
       <c r="X430" s="43">
         <v>9999999</v>
@@ -38495,13 +38491,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="43" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="I431" s="43" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J431" s="43" t="s">
         <v>1730</v>
-      </c>
-      <c r="J431" s="43" t="s">
-        <v>1731</v>
       </c>
       <c r="L431" s="43">
         <v>-28</v>
@@ -38522,7 +38518,7 @@
         <v>1421</v>
       </c>
       <c r="R431" s="66" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="W431" s="43" t="s">
         <v>528</v>
@@ -38563,13 +38559,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="43" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="I432" s="43" t="s">
+        <v>1732</v>
+      </c>
+      <c r="J432" s="43" t="s">
         <v>1733</v>
-      </c>
-      <c r="J432" s="43" t="s">
-        <v>1734</v>
       </c>
       <c r="L432" s="43">
         <v>-28</v>
@@ -38590,7 +38586,7 @@
         <v>1421</v>
       </c>
       <c r="R432" s="66" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="W432" s="43" t="s">
         <v>528</v>
@@ -38631,13 +38627,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="43" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="I433" s="43" t="s">
+        <v>1735</v>
+      </c>
+      <c r="J433" s="43" t="s">
         <v>1736</v>
-      </c>
-      <c r="J433" s="43" t="s">
-        <v>1737</v>
       </c>
       <c r="L433" s="43">
         <v>-28</v>
@@ -38655,10 +38651,10 @@
         <v>600</v>
       </c>
       <c r="Q433" s="43" t="s">
+        <v>1737</v>
+      </c>
+      <c r="R433" s="66" t="s">
         <v>1738</v>
-      </c>
-      <c r="R433" s="66" t="s">
-        <v>1739</v>
       </c>
       <c r="W433" s="43" t="s">
         <v>528</v>
@@ -42100,13 +42096,13 @@
         <v>1</v>
       </c>
       <c r="G486" s="19" t="s">
+        <v>1846</v>
+      </c>
+      <c r="I486" s="19" t="s">
         <v>1847</v>
       </c>
-      <c r="I486" s="19" t="s">
+      <c r="J486" s="19" t="s">
         <v>1848</v>
-      </c>
-      <c r="J486" s="19" t="s">
-        <v>1849</v>
       </c>
       <c r="L486" s="19">
         <v>-31</v>
@@ -42124,10 +42120,10 @@
         <v>1800</v>
       </c>
       <c r="Q486" s="19" t="s">
+        <v>1849</v>
+      </c>
+      <c r="R486" s="39" t="s">
         <v>1850</v>
-      </c>
-      <c r="R486" s="39" t="s">
-        <v>1851</v>
       </c>
       <c r="W486" s="19" t="s">
         <v>528</v>
@@ -42165,13 +42161,13 @@
         <v>1</v>
       </c>
       <c r="G487" s="19" t="s">
+        <v>1851</v>
+      </c>
+      <c r="I487" s="19" t="s">
+        <v>1847</v>
+      </c>
+      <c r="J487" s="19" t="s">
         <v>1852</v>
-      </c>
-      <c r="I487" s="19" t="s">
-        <v>1848</v>
-      </c>
-      <c r="J487" s="19" t="s">
-        <v>1853</v>
       </c>
       <c r="L487" s="19">
         <v>-31</v>
@@ -42189,10 +42185,10 @@
         <v>4800</v>
       </c>
       <c r="Q487" s="19" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="R487" s="39" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="W487" s="19" t="s">
         <v>528</v>
@@ -42230,13 +42226,13 @@
         <v>1</v>
       </c>
       <c r="G488" s="19" t="s">
+        <v>1854</v>
+      </c>
+      <c r="I488" s="19" t="s">
+        <v>1847</v>
+      </c>
+      <c r="J488" s="19" t="s">
         <v>1855</v>
-      </c>
-      <c r="I488" s="19" t="s">
-        <v>1848</v>
-      </c>
-      <c r="J488" s="19" t="s">
-        <v>1856</v>
       </c>
       <c r="L488" s="19">
         <v>-31</v>
@@ -42254,10 +42250,10 @@
         <v>9800</v>
       </c>
       <c r="Q488" s="19" t="s">
+        <v>1856</v>
+      </c>
+      <c r="R488" s="39" t="s">
         <v>1857</v>
-      </c>
-      <c r="R488" s="39" t="s">
-        <v>1858</v>
       </c>
       <c r="W488" s="19" t="s">
         <v>528</v>
@@ -42298,10 +42294,10 @@
         <v>1366</v>
       </c>
       <c r="I489" s="19" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="J489" s="19" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="L489" s="19">
         <v>-31</v>
@@ -42319,7 +42315,7 @@
         <v>19800</v>
       </c>
       <c r="Q489" s="19" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="R489" s="39" t="s">
         <v>1368</v>
@@ -42360,13 +42356,13 @@
         <v>1</v>
       </c>
       <c r="G490" s="19" t="s">
+        <v>1859</v>
+      </c>
+      <c r="I490" s="19" t="s">
+        <v>1847</v>
+      </c>
+      <c r="J490" s="19" t="s">
         <v>1860</v>
-      </c>
-      <c r="I490" s="19" t="s">
-        <v>1848</v>
-      </c>
-      <c r="J490" s="19" t="s">
-        <v>1861</v>
       </c>
       <c r="L490" s="19">
         <v>-31</v>
@@ -42384,10 +42380,10 @@
         <v>29800</v>
       </c>
       <c r="Q490" s="19" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="R490" s="39" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="W490" s="19" t="s">
         <v>528</v>
@@ -42425,10 +42421,10 @@
         <v>1</v>
       </c>
       <c r="G491" s="19" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="I491" s="19" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="J491" s="19" t="s">
         <v>1493</v>
@@ -42449,7 +42445,7 @@
         <v>49800</v>
       </c>
       <c r="Q491" s="19" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="R491" s="39" t="s">
         <v>1377</v>
@@ -42490,13 +42486,13 @@
         <v>1</v>
       </c>
       <c r="G492" s="19" t="s">
+        <v>1864</v>
+      </c>
+      <c r="I492" s="19" t="s">
+        <v>1847</v>
+      </c>
+      <c r="J492" s="19" t="s">
         <v>1865</v>
-      </c>
-      <c r="I492" s="19" t="s">
-        <v>1848</v>
-      </c>
-      <c r="J492" s="19" t="s">
-        <v>1866</v>
       </c>
       <c r="L492" s="19">
         <v>-31</v>
@@ -42508,19 +42504,19 @@
         <v>0</v>
       </c>
       <c r="O492" s="19" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="P492" s="19">
         <v>99800</v>
       </c>
       <c r="Q492" s="19" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="R492" s="39" t="s">
+        <v>1867</v>
+      </c>
+      <c r="W492" s="19" t="s">
         <v>1868</v>
-      </c>
-      <c r="W492" s="19" t="s">
-        <v>1869</v>
       </c>
       <c r="X492" s="19">
         <v>9999999</v>
@@ -43587,7 +43583,7 @@
         <v>29</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>30</v>
@@ -43667,10 +43663,10 @@
         <v>3</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="S2" s="33" t="s">
         <v>1084</v>
@@ -43735,10 +43731,10 @@
         <v>4</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="Q3" s="33" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="S3" s="33" t="s">
         <v>1084</v>
@@ -43803,10 +43799,10 @@
         <v>5</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="Q4" s="33" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="S4" s="33" t="s">
         <v>1084</v>
@@ -43871,10 +43867,10 @@
         <v>6</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="S5" s="33" t="s">
         <v>1084</v>
@@ -43939,10 +43935,10 @@
         <v>7</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="Q6" s="33" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="S6" s="33" t="s">
         <v>1084</v>
@@ -44007,10 +44003,10 @@
         <v>9</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="S7" s="33" t="s">
         <v>1084</v>
@@ -44072,10 +44068,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="33" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="Q8" s="33" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="S8" s="33" t="s">
         <v>1084</v>
@@ -44139,10 +44135,10 @@
         <v>2</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="R9" s="34"/>
       <c r="S9" s="34"/>
@@ -44212,10 +44208,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
@@ -44283,10 +44279,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="S11" s="33" t="s">
         <v>1084</v>
@@ -44351,10 +44347,10 @@
         <v>9</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="Q12" s="33" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="S12" s="33" t="s">
         <v>1084</v>
@@ -44419,10 +44415,10 @@
         <v>10</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="S13" s="33" t="s">
         <v>1084</v>
@@ -44487,10 +44483,10 @@
         <v>11</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="Q14" s="33" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="S14" s="33" t="s">
         <v>1091</v>
@@ -44556,10 +44552,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="R15" s="34"/>
       <c r="S15" s="35"/>
@@ -44630,10 +44626,10 @@
         <v>3</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="Q16" s="33" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="R16" s="12"/>
       <c r="S16" s="33" t="s">
@@ -44698,10 +44694,10 @@
         <v>4</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="R17" s="12"/>
       <c r="S17" s="33" t="s">
@@ -44766,10 +44762,10 @@
         <v>5</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="R18" s="12"/>
       <c r="S18" s="33" t="s">
@@ -44834,10 +44830,10 @@
         <v>6</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="33" t="s">
@@ -44902,10 +44898,10 @@
         <v>7</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="Q20" s="33" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="S20" s="33" t="s">
         <v>939</v>
@@ -44969,10 +44965,10 @@
         <v>0</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="R21" s="11"/>
       <c r="S21" s="33" t="s">
@@ -45042,10 +45038,10 @@
         <v>2</v>
       </c>
       <c r="P22" s="35" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="Q22" s="35" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="R22" s="34"/>
       <c r="S22" s="35"/>
@@ -45113,10 +45109,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="35" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="Q23" s="35" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="R23" s="34"/>
       <c r="S23" s="35"/>
@@ -45186,10 +45182,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="35" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="Q24" s="35" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="R24" s="34"/>
       <c r="S24" s="35"/>
@@ -45260,10 +45256,10 @@
         <v>8</v>
       </c>
       <c r="P25" s="33" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="S25" s="33" t="s">
         <v>940</v>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -11129,7 +11129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN492"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="Q60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -43504,8 +43504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43631,6 +43631,9 @@
       </c>
       <c r="C2" s="11" t="s">
         <v>41</v>
+      </c>
+      <c r="D2" s="11">
+        <v>10330</v>
       </c>
       <c r="E2" s="11">
         <v>1</v>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="1869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="1866">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -4197,34 +4197,6 @@
   </si>
   <si>
     <r>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>79840</t>
     </r>
     <r>
@@ -4544,34 +4516,6 @@
   </si>
   <si>
     <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>1500</t>
     </r>
     <r>
@@ -4595,34 +4539,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>00,</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -4656,34 +4572,6 @@
   </si>
   <si>
     <r>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>5000</t>
     </r>
     <r>
@@ -4707,62 +4595,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>00,</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -4796,34 +4628,6 @@
   </si>
   <si>
     <r>
-      <t>98</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>49800</t>
     </r>
     <r>
@@ -4847,34 +4651,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>00,</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>498</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -4907,10 +4683,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1亿鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>shop</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7947,34 +7719,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>24万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>60万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>120万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>200万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>392万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1992万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>6万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>250万金币</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7983,46 +7727,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>6000万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3992万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9992万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>5万金币</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>100万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>335万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>660万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1020万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>10万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>50万金币</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8035,34 +7743,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>加赠24万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠60万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠120万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠200万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠392万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠1992万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠6万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>加赠250万金币</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8071,46 +7751,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>加赠6000万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠3992万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠9992万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>加赠5万金币</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>加赠100万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠335万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠660万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠1020万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠3.3万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠10万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>加赠250万金币</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8248,6 +7892,121 @@
   </si>
   <si>
     <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>24万金币</t>
+  </si>
+  <si>
+    <t>加赠24万金币</t>
+  </si>
+  <si>
+    <t>60万金币</t>
+  </si>
+  <si>
+    <t>加赠60万金币</t>
+  </si>
+  <si>
+    <t>120万金币</t>
+  </si>
+  <si>
+    <t>加赠120万金币</t>
+  </si>
+  <si>
+    <t>200万金币</t>
+  </si>
+  <si>
+    <t>加赠200万金币</t>
+  </si>
+  <si>
+    <t>392万金币</t>
+  </si>
+  <si>
+    <t>加赠392万金币</t>
+  </si>
+  <si>
+    <t>1992万金币</t>
+  </si>
+  <si>
+    <t>加赠1992万金币</t>
+  </si>
+  <si>
+    <t>6万金币</t>
+  </si>
+  <si>
+    <t>加赠6万金币</t>
+  </si>
+  <si>
+    <t>6000万金币</t>
+  </si>
+  <si>
+    <t>加赠6000万金币</t>
+  </si>
+  <si>
+    <t>3992万金币</t>
+  </si>
+  <si>
+    <t>加赠3992万金币</t>
+  </si>
+  <si>
+    <t>9992万金币</t>
+  </si>
+  <si>
+    <t>加赠9992万金币</t>
+  </si>
+  <si>
+    <t>100万金币</t>
+  </si>
+  <si>
+    <t>加赠100万金币</t>
+  </si>
+  <si>
+    <t>335万金币</t>
+  </si>
+  <si>
+    <t>加赠335万金币</t>
+  </si>
+  <si>
+    <t>660万金币</t>
+  </si>
+  <si>
+    <t>加赠660万金币</t>
+  </si>
+  <si>
+    <t>1020万金币</t>
+  </si>
+  <si>
+    <t>加赠1020万金币</t>
+  </si>
+  <si>
+    <t>3.3万金币</t>
+  </si>
+  <si>
+    <t>加赠3.3万金币</t>
+  </si>
+  <si>
+    <t>加赠10万金币</t>
+  </si>
+  <si>
+    <t>150万金币</t>
+  </si>
+  <si>
+    <t>300万金币</t>
+  </si>
+  <si>
+    <t>500万金币</t>
+  </si>
+  <si>
+    <t>980万金币</t>
+  </si>
+  <si>
+    <t>4980万金币</t>
+  </si>
+  <si>
+    <t>1亿金币</t>
+  </si>
+  <si>
+    <t>首充加赠8508888</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9095,16 +8854,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1423</v>
+        <v>1414</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>1424</v>
+        <v>1415</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>1425</v>
+        <v>1416</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -9161,8 +8920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F24"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9254,7 +9013,7 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>29</v>
@@ -9348,14 +9107,14 @@
         <v>1</v>
       </c>
       <c r="T2" s="33" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="U2" s="33" t="s">
         <v>1025</v>
       </c>
       <c r="V2" s="11"/>
       <c r="W2" s="33" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="X2" s="11" t="s">
         <v>47</v>
@@ -9364,7 +9123,7 @@
         <v>633</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="AC2" s="11">
         <v>1</v>
@@ -9428,14 +9187,14 @@
         <v>2</v>
       </c>
       <c r="T3" s="33" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="U3" s="33" t="s">
         <v>1027</v>
       </c>
       <c r="V3" s="11"/>
       <c r="W3" s="33" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="X3" s="11" t="s">
         <v>49</v>
@@ -9508,14 +9267,14 @@
         <v>3</v>
       </c>
       <c r="T4" s="33" t="s">
+        <v>1048</v>
+      </c>
+      <c r="U4" s="33" t="s">
         <v>1049</v>
-      </c>
-      <c r="U4" s="33" t="s">
-        <v>1050</v>
       </c>
       <c r="V4" s="11"/>
       <c r="W4" s="33" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="X4" s="11" t="s">
         <v>50</v>
@@ -9591,11 +9350,11 @@
         <v>1030</v>
       </c>
       <c r="U5" s="33" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="V5" s="11"/>
       <c r="W5" s="33" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="X5" s="11" t="s">
         <v>51</v>
@@ -9668,14 +9427,14 @@
         <v>5</v>
       </c>
       <c r="T6" s="33" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="U6" s="33" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="V6" s="11"/>
       <c r="W6" s="33" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="X6" s="11" t="s">
         <v>52</v>
@@ -9751,11 +9510,11 @@
         <v>1033</v>
       </c>
       <c r="U7" s="33" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="V7" s="11"/>
       <c r="W7" s="33" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="X7" s="11" t="s">
         <v>53</v>
@@ -9828,14 +9587,14 @@
         <v>8</v>
       </c>
       <c r="T8" s="33" t="s">
+        <v>1053</v>
+      </c>
+      <c r="U8" s="33" t="s">
         <v>1054</v>
-      </c>
-      <c r="U8" s="33" t="s">
-        <v>1055</v>
       </c>
       <c r="V8" s="11"/>
       <c r="W8" s="33" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="X8" s="11" t="s">
         <v>54</v>
@@ -9878,7 +9637,7 @@
         <v>43</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>44</v>
@@ -9908,13 +9667,13 @@
         <v>9</v>
       </c>
       <c r="T9" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="U9" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="W9" s="33" t="s">
         <v>1056</v>
-      </c>
-      <c r="U9" s="33" t="s">
-        <v>1056</v>
-      </c>
-      <c r="W9" s="33" t="s">
-        <v>1057</v>
       </c>
       <c r="X9" s="11" t="s">
         <v>55</v>
@@ -9956,7 +9715,7 @@
         <v>43</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>44</v>
@@ -9986,13 +9745,13 @@
         <v>10</v>
       </c>
       <c r="T10" s="33" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="U10" s="33" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="W10" s="33" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="X10" s="11" t="s">
         <v>56</v>
@@ -10442,7 +10201,7 @@
         <v>43</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>44</v>
@@ -10472,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="U16" s="2">
         <v>66</v>
@@ -10516,7 +10275,7 @@
         <v>78</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>44</v>
@@ -10546,10 +10305,10 @@
         <v>1</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>1062</v>
+        <v>1830</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>1062</v>
+        <v>1830</v>
       </c>
       <c r="W17" s="2" t="s">
         <v>46</v>
@@ -10590,7 +10349,7 @@
         <v>78</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>44</v>
@@ -10620,10 +10379,10 @@
         <v>2</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>1064</v>
+        <v>1859</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>1064</v>
+        <v>1859</v>
       </c>
       <c r="W18" s="2" t="s">
         <v>46</v>
@@ -10664,7 +10423,7 @@
         <v>78</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>44</v>
@@ -10694,10 +10453,10 @@
         <v>3</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>1041</v>
+        <v>1860</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>1066</v>
+        <v>1860</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>46</v>
@@ -10738,7 +10497,7 @@
         <v>78</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>44</v>
@@ -10768,10 +10527,10 @@
         <v>4</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>1068</v>
+        <v>1861</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>1069</v>
+        <v>1861</v>
       </c>
       <c r="W20" s="2" t="s">
         <v>46</v>
@@ -10812,7 +10571,7 @@
         <v>78</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>44</v>
@@ -10842,10 +10601,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>1071</v>
+        <v>1862</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>1071</v>
+        <v>1862</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>46</v>
@@ -10886,7 +10645,7 @@
         <v>78</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>44</v>
@@ -10916,10 +10675,10 @@
         <v>6</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>1073</v>
+        <v>1863</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>1073</v>
+        <v>1863</v>
       </c>
       <c r="W22" s="2" t="s">
         <v>46</v>
@@ -10960,7 +10719,7 @@
         <v>78</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>44</v>
@@ -10990,10 +10749,10 @@
         <v>7</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>1075</v>
+        <v>1864</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>1075</v>
+        <v>1864</v>
       </c>
       <c r="W23" s="2" t="s">
         <v>46</v>
@@ -11030,25 +10789,25 @@
       <c r="E24" s="46"/>
       <c r="F24" s="11"/>
       <c r="G24" s="2" t="s">
-        <v>1076</v>
+        <v>1067</v>
       </c>
       <c r="H24" s="11">
         <v>19800</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1385</v>
+        <v>1376</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>1078</v>
+        <v>1069</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="N24" s="2">
         <v>1</v>
@@ -11069,16 +10828,16 @@
         <v>6</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="W24" s="33" t="s">
         <v>1035</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="Y24" s="11" t="s">
         <v>641</v>
@@ -11129,11 +10888,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN492"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q60" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H261" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R77" sqref="R77"/>
+      <selection pane="bottomRight" activeCell="H273" sqref="H273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -11196,13 +10955,13 @@
         <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1791</v>
+        <v>1782</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>83</v>
@@ -14927,7 +14686,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>944</v>
@@ -14992,7 +14751,7 @@
         <v>223</v>
       </c>
       <c r="H67" s="69" t="s">
-        <v>1839</v>
+        <v>1798</v>
       </c>
       <c r="L67" s="69">
         <v>-4</v>
@@ -15013,7 +14772,7 @@
         <v>78</v>
       </c>
       <c r="R67" s="69" t="s">
-        <v>1386</v>
+        <v>1377</v>
       </c>
       <c r="W67" s="69" t="s">
         <v>525</v>
@@ -15051,7 +14810,7 @@
         <v>225</v>
       </c>
       <c r="H68" s="69" t="s">
-        <v>1840</v>
+        <v>1799</v>
       </c>
       <c r="L68" s="69">
         <v>-4</v>
@@ -15072,7 +14831,7 @@
         <v>78</v>
       </c>
       <c r="R68" s="69" t="s">
-        <v>1402</v>
+        <v>1393</v>
       </c>
       <c r="W68" s="69" t="s">
         <v>525</v>
@@ -15110,7 +14869,7 @@
         <v>227</v>
       </c>
       <c r="H69" s="69" t="s">
-        <v>1841</v>
+        <v>1800</v>
       </c>
       <c r="L69" s="69">
         <v>-4</v>
@@ -15131,7 +14890,7 @@
         <v>78</v>
       </c>
       <c r="R69" s="69" t="s">
-        <v>1387</v>
+        <v>1378</v>
       </c>
       <c r="W69" s="69" t="s">
         <v>525</v>
@@ -15169,7 +14928,7 @@
         <v>229</v>
       </c>
       <c r="H70" s="69" t="s">
-        <v>1842</v>
+        <v>1801</v>
       </c>
       <c r="L70" s="69">
         <v>-4</v>
@@ -15190,7 +14949,7 @@
         <v>78</v>
       </c>
       <c r="R70" s="69" t="s">
-        <v>1388</v>
+        <v>1379</v>
       </c>
       <c r="W70" s="69" t="s">
         <v>525</v>
@@ -15228,7 +14987,7 @@
         <v>230</v>
       </c>
       <c r="H71" s="69" t="s">
-        <v>1843</v>
+        <v>1802</v>
       </c>
       <c r="L71" s="69">
         <v>-4</v>
@@ -15249,7 +15008,7 @@
         <v>78</v>
       </c>
       <c r="R71" s="69" t="s">
-        <v>1389</v>
+        <v>1380</v>
       </c>
       <c r="W71" s="69" t="s">
         <v>525</v>
@@ -15582,7 +15341,7 @@
         <v>236</v>
       </c>
       <c r="J77" s="19" t="s">
-        <v>1722</v>
+        <v>1713</v>
       </c>
       <c r="L77" s="19">
         <v>-20</v>
@@ -15603,7 +15362,7 @@
         <v>488</v>
       </c>
       <c r="R77" s="39" t="s">
-        <v>1710</v>
+        <v>1701</v>
       </c>
       <c r="W77" s="19" t="s">
         <v>525</v>
@@ -15621,10 +15380,10 @@
         <v>78</v>
       </c>
       <c r="AC77" s="19" t="s">
-        <v>1711</v>
+        <v>1702</v>
       </c>
       <c r="AD77" s="39" t="s">
-        <v>1712</v>
+        <v>1703</v>
       </c>
       <c r="AH77" s="19">
         <v>1</v>
@@ -15647,7 +15406,7 @@
         <v>237</v>
       </c>
       <c r="J78" s="19" t="s">
-        <v>1723</v>
+        <v>1714</v>
       </c>
       <c r="L78" s="19">
         <v>-20</v>
@@ -15665,10 +15424,10 @@
         <v>1000</v>
       </c>
       <c r="Q78" s="19" t="s">
-        <v>1713</v>
+        <v>1704</v>
       </c>
       <c r="R78" s="39" t="s">
-        <v>1714</v>
+        <v>1705</v>
       </c>
       <c r="W78" s="19" t="s">
         <v>525</v>
@@ -15686,10 +15445,10 @@
         <v>78</v>
       </c>
       <c r="AC78" s="19" t="s">
-        <v>1715</v>
+        <v>1706</v>
       </c>
       <c r="AD78" s="39" t="s">
-        <v>1716</v>
+        <v>1707</v>
       </c>
       <c r="AH78" s="19">
         <v>1</v>
@@ -15709,7 +15468,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="J79" s="5" t="s">
         <v>811</v>
@@ -15845,7 +15604,7 @@
         <v>240</v>
       </c>
       <c r="J81" s="19" t="s">
-        <v>1717</v>
+        <v>1708</v>
       </c>
       <c r="L81" s="19">
         <v>-20</v>
@@ -15863,10 +15622,10 @@
         <v>4800</v>
       </c>
       <c r="Q81" s="19" t="s">
-        <v>1718</v>
+        <v>1709</v>
       </c>
       <c r="R81" s="39" t="s">
-        <v>1719</v>
+        <v>1710</v>
       </c>
       <c r="W81" s="19" t="s">
         <v>525</v>
@@ -15884,10 +15643,10 @@
         <v>580</v>
       </c>
       <c r="AC81" s="19" t="s">
-        <v>1720</v>
+        <v>1711</v>
       </c>
       <c r="AD81" s="39" t="s">
-        <v>1721</v>
+        <v>1712</v>
       </c>
       <c r="AH81" s="19">
         <v>1</v>
@@ -16096,10 +15855,10 @@
         <v>4800</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
       <c r="R85" s="5" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="W85" s="5" t="s">
         <v>527</v>
@@ -16202,10 +15961,10 @@
         <v>9600</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>1329</v>
+        <v>1320</v>
       </c>
       <c r="R87" s="5" t="s">
-        <v>1332</v>
+        <v>1323</v>
       </c>
       <c r="W87" s="5" t="s">
         <v>527</v>
@@ -18610,7 +18369,7 @@
         <v>320</v>
       </c>
       <c r="H128" s="69" t="s">
-        <v>1844</v>
+        <v>1803</v>
       </c>
       <c r="L128" s="69">
         <v>-10</v>
@@ -18631,7 +18390,7 @@
         <v>78</v>
       </c>
       <c r="R128" s="69" t="s">
-        <v>1391</v>
+        <v>1382</v>
       </c>
       <c r="W128" s="69" t="s">
         <v>525</v>
@@ -18666,10 +18425,10 @@
         <v>0</v>
       </c>
       <c r="G129" s="69" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="H129" s="69" t="s">
-        <v>1845</v>
+        <v>1804</v>
       </c>
       <c r="L129" s="69">
         <v>-11</v>
@@ -18690,7 +18449,7 @@
         <v>78</v>
       </c>
       <c r="R129" s="69" t="s">
-        <v>1390</v>
+        <v>1381</v>
       </c>
       <c r="W129" s="69" t="s">
         <v>525</v>
@@ -19277,7 +19036,7 @@
         <v>1</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
@@ -19338,7 +19097,7 @@
         <v>1</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="8"/>
@@ -21165,7 +20924,7 @@
         <v>1</v>
       </c>
       <c r="G169" s="19" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="J169" s="19" t="s">
         <v>996</v>
@@ -21289,13 +21048,13 @@
         <v>1</v>
       </c>
       <c r="G171" s="43" t="s">
-        <v>1755</v>
+        <v>1746</v>
       </c>
       <c r="I171" s="43" t="s">
-        <v>1756</v>
+        <v>1747</v>
       </c>
       <c r="J171" s="43" t="s">
-        <v>1757</v>
+        <v>1748</v>
       </c>
       <c r="L171" s="43">
         <v>-28</v>
@@ -21313,13 +21072,13 @@
         <v>100</v>
       </c>
       <c r="Q171" s="43" t="s">
-        <v>1758</v>
+        <v>1749</v>
       </c>
       <c r="R171" s="66" t="s">
-        <v>1759</v>
+        <v>1750</v>
       </c>
       <c r="W171" s="43" t="s">
-        <v>1760</v>
+        <v>1751</v>
       </c>
       <c r="X171" s="43">
         <v>9999999</v>
@@ -21357,13 +21116,13 @@
         <v>1</v>
       </c>
       <c r="G172" s="43" t="s">
-        <v>1755</v>
+        <v>1746</v>
       </c>
       <c r="I172" s="43" t="s">
-        <v>1761</v>
+        <v>1752</v>
       </c>
       <c r="J172" s="43" t="s">
-        <v>1751</v>
+        <v>1742</v>
       </c>
       <c r="L172" s="43">
         <v>-28</v>
@@ -21381,10 +21140,10 @@
         <v>300</v>
       </c>
       <c r="Q172" s="43" t="s">
-        <v>1762</v>
+        <v>1753</v>
       </c>
       <c r="R172" s="66" t="s">
-        <v>1752</v>
+        <v>1743</v>
       </c>
       <c r="W172" s="43" t="s">
         <v>528</v>
@@ -21425,13 +21184,13 @@
         <v>1</v>
       </c>
       <c r="G173" s="43" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="I173" s="43" t="s">
-        <v>1763</v>
+        <v>1754</v>
       </c>
       <c r="J173" s="43" t="s">
-        <v>1764</v>
+        <v>1755</v>
       </c>
       <c r="L173" s="43">
         <v>-28</v>
@@ -21449,10 +21208,10 @@
         <v>600</v>
       </c>
       <c r="Q173" s="43" t="s">
-        <v>1758</v>
+        <v>1749</v>
       </c>
       <c r="R173" s="66" t="s">
-        <v>1753</v>
+        <v>1744</v>
       </c>
       <c r="W173" s="43" t="s">
         <v>528</v>
@@ -21493,13 +21252,13 @@
         <v>1</v>
       </c>
       <c r="G174" s="43" t="s">
-        <v>1755</v>
+        <v>1746</v>
       </c>
       <c r="I174" s="43" t="s">
-        <v>1765</v>
+        <v>1756</v>
       </c>
       <c r="J174" s="43" t="s">
-        <v>1766</v>
+        <v>1757</v>
       </c>
       <c r="L174" s="43">
         <v>-28</v>
@@ -21517,10 +21276,10 @@
         <v>600</v>
       </c>
       <c r="Q174" s="43" t="s">
+        <v>1749</v>
+      </c>
+      <c r="R174" s="66" t="s">
         <v>1758</v>
-      </c>
-      <c r="R174" s="66" t="s">
-        <v>1767</v>
       </c>
       <c r="W174" s="43" t="s">
         <v>528</v>
@@ -21561,13 +21320,13 @@
         <v>1</v>
       </c>
       <c r="G175" s="43" t="s">
-        <v>1755</v>
+        <v>1746</v>
       </c>
       <c r="I175" s="43" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="J175" s="43" t="s">
-        <v>1754</v>
+        <v>1745</v>
       </c>
       <c r="L175" s="43">
         <v>-28</v>
@@ -21629,13 +21388,13 @@
         <v>1</v>
       </c>
       <c r="G176" s="43" t="s">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="I176" s="43" t="s">
-        <v>1769</v>
+        <v>1760</v>
       </c>
       <c r="J176" s="43" t="s">
-        <v>1770</v>
+        <v>1761</v>
       </c>
       <c r="L176" s="43">
         <v>-28</v>
@@ -21653,10 +21412,10 @@
         <v>1800</v>
       </c>
       <c r="Q176" s="43" t="s">
-        <v>1771</v>
+        <v>1762</v>
       </c>
       <c r="R176" s="66" t="s">
-        <v>1772</v>
+        <v>1763</v>
       </c>
       <c r="W176" s="43" t="s">
         <v>528</v>
@@ -21697,13 +21456,13 @@
         <v>1</v>
       </c>
       <c r="G177" s="43" t="s">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="I177" s="43" t="s">
-        <v>1773</v>
+        <v>1764</v>
       </c>
       <c r="J177" s="43" t="s">
-        <v>1774</v>
+        <v>1765</v>
       </c>
       <c r="L177" s="43">
         <v>-28</v>
@@ -21721,10 +21480,10 @@
         <v>1800</v>
       </c>
       <c r="Q177" s="43" t="s">
-        <v>1771</v>
+        <v>1762</v>
       </c>
       <c r="R177" s="66" t="s">
-        <v>1775</v>
+        <v>1766</v>
       </c>
       <c r="W177" s="43" t="s">
         <v>528</v>
@@ -21765,13 +21524,13 @@
         <v>1</v>
       </c>
       <c r="G178" s="43" t="s">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="I178" s="43" t="s">
-        <v>1776</v>
+        <v>1767</v>
       </c>
       <c r="J178" s="43" t="s">
-        <v>1744</v>
+        <v>1735</v>
       </c>
       <c r="L178" s="43">
         <v>-28</v>
@@ -21792,7 +21551,7 @@
         <v>966</v>
       </c>
       <c r="R178" s="66" t="s">
-        <v>1777</v>
+        <v>1768</v>
       </c>
       <c r="W178" s="43" t="s">
         <v>528</v>
@@ -21833,13 +21592,13 @@
         <v>1</v>
       </c>
       <c r="G179" s="43" t="s">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="I179" s="43" t="s">
-        <v>1778</v>
+        <v>1769</v>
       </c>
       <c r="J179" s="43" t="s">
-        <v>1779</v>
+        <v>1770</v>
       </c>
       <c r="L179" s="43">
         <v>-28</v>
@@ -21857,10 +21616,10 @@
         <v>9800</v>
       </c>
       <c r="Q179" s="43" t="s">
+        <v>1762</v>
+      </c>
+      <c r="R179" s="66" t="s">
         <v>1771</v>
-      </c>
-      <c r="R179" s="66" t="s">
-        <v>1780</v>
       </c>
       <c r="W179" s="43" t="s">
         <v>528</v>
@@ -21901,13 +21660,13 @@
         <v>1</v>
       </c>
       <c r="G180" s="43" t="s">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="I180" s="43" t="s">
-        <v>1781</v>
+        <v>1772</v>
       </c>
       <c r="J180" s="43" t="s">
-        <v>1744</v>
+        <v>1735</v>
       </c>
       <c r="L180" s="43">
         <v>-28</v>
@@ -21925,10 +21684,10 @@
         <v>4800</v>
       </c>
       <c r="Q180" s="43" t="s">
-        <v>1771</v>
+        <v>1762</v>
       </c>
       <c r="R180" s="66" t="s">
-        <v>1777</v>
+        <v>1768</v>
       </c>
       <c r="W180" s="43" t="s">
         <v>528</v>
@@ -21969,13 +21728,13 @@
         <v>1</v>
       </c>
       <c r="G181" s="43" t="s">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="I181" s="43" t="s">
-        <v>1782</v>
+        <v>1773</v>
       </c>
       <c r="J181" s="43" t="s">
-        <v>1779</v>
+        <v>1770</v>
       </c>
       <c r="L181" s="43">
         <v>-28</v>
@@ -21993,10 +21752,10 @@
         <v>9800</v>
       </c>
       <c r="Q181" s="43" t="s">
+        <v>1762</v>
+      </c>
+      <c r="R181" s="66" t="s">
         <v>1771</v>
-      </c>
-      <c r="R181" s="66" t="s">
-        <v>1780</v>
       </c>
       <c r="W181" s="43" t="s">
         <v>528</v>
@@ -22037,13 +21796,13 @@
         <v>1</v>
       </c>
       <c r="G182" s="43" t="s">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="I182" s="43" t="s">
-        <v>1783</v>
+        <v>1774</v>
       </c>
       <c r="J182" s="43" t="s">
-        <v>1784</v>
+        <v>1775</v>
       </c>
       <c r="L182" s="43">
         <v>-28</v>
@@ -22061,10 +21820,10 @@
         <v>19800</v>
       </c>
       <c r="Q182" s="43" t="s">
-        <v>1771</v>
+        <v>1762</v>
       </c>
       <c r="R182" s="66" t="s">
-        <v>1785</v>
+        <v>1776</v>
       </c>
       <c r="W182" s="43" t="s">
         <v>528</v>
@@ -22105,13 +21864,13 @@
         <v>1</v>
       </c>
       <c r="G183" s="43" t="s">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="I183" s="43" t="s">
-        <v>1786</v>
+        <v>1777</v>
       </c>
       <c r="J183" s="43" t="s">
-        <v>1779</v>
+        <v>1770</v>
       </c>
       <c r="L183" s="43">
         <v>-28</v>
@@ -22129,10 +21888,10 @@
         <v>9800</v>
       </c>
       <c r="Q183" s="43" t="s">
+        <v>1762</v>
+      </c>
+      <c r="R183" s="66" t="s">
         <v>1771</v>
-      </c>
-      <c r="R183" s="66" t="s">
-        <v>1780</v>
       </c>
       <c r="W183" s="43" t="s">
         <v>528</v>
@@ -22173,13 +21932,13 @@
         <v>1</v>
       </c>
       <c r="G184" s="43" t="s">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="I184" s="43" t="s">
-        <v>1787</v>
+        <v>1778</v>
       </c>
       <c r="J184" s="43" t="s">
-        <v>1784</v>
+        <v>1775</v>
       </c>
       <c r="L184" s="43">
         <v>-28</v>
@@ -22197,10 +21956,10 @@
         <v>19800</v>
       </c>
       <c r="Q184" s="43" t="s">
-        <v>1771</v>
+        <v>1762</v>
       </c>
       <c r="R184" s="66" t="s">
-        <v>1785</v>
+        <v>1776</v>
       </c>
       <c r="W184" s="43" t="s">
         <v>528</v>
@@ -22241,13 +22000,13 @@
         <v>1</v>
       </c>
       <c r="G185" s="43" t="s">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="I185" s="43" t="s">
-        <v>1788</v>
+        <v>1779</v>
       </c>
       <c r="J185" s="43" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="L185" s="43">
         <v>-28</v>
@@ -22268,7 +22027,7 @@
         <v>966</v>
       </c>
       <c r="R185" s="66" t="s">
-        <v>1790</v>
+        <v>1781</v>
       </c>
       <c r="W185" s="43" t="s">
         <v>528</v>
@@ -26728,7 +26487,7 @@
         <v>1</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
       <c r="J254" s="5" t="s">
         <v>934</v>
@@ -26923,7 +26682,7 @@
         <v>0</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>1153</v>
+        <v>1144</v>
       </c>
       <c r="J257" s="5" t="s">
         <v>869</v>
@@ -27446,7 +27205,7 @@
         <v>0</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>1154</v>
+        <v>1145</v>
       </c>
       <c r="J265" s="5" t="s">
         <v>875</v>
@@ -27706,7 +27465,7 @@
         <v>0</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
       <c r="J269" s="5" t="s">
         <v>877</v>
@@ -27972,7 +27731,7 @@
         <v>521</v>
       </c>
       <c r="H273" s="75" t="s">
-        <v>1842</v>
+        <v>1865</v>
       </c>
       <c r="L273" s="69">
         <v>-10</v>
@@ -27993,7 +27752,7 @@
         <v>78</v>
       </c>
       <c r="R273" s="69" t="s">
-        <v>1392</v>
+        <v>1383</v>
       </c>
       <c r="W273" s="69" t="s">
         <v>525</v>
@@ -28232,7 +27991,7 @@
         <v>0</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
       <c r="J277" s="5" t="s">
         <v>881</v>
@@ -28297,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
       <c r="J278" s="5" t="s">
         <v>882</v>
@@ -28362,7 +28121,7 @@
         <v>0</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="J279" s="5" t="s">
         <v>883</v>
@@ -28427,7 +28186,7 @@
         <v>0</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="J280" s="5" t="s">
         <v>880</v>
@@ -30916,10 +30675,10 @@
         <v>1</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="J320" s="5" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="L320" s="5">
         <v>-25</v>
@@ -30972,7 +30731,7 @@
         <v>1</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="J321" s="5" t="s">
         <v>907</v>
@@ -31034,7 +30793,7 @@
         <v>1</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>1162</v>
+        <v>1153</v>
       </c>
       <c r="J322" s="5" t="s">
         <v>624</v>
@@ -31096,10 +30855,10 @@
         <v>1</v>
       </c>
       <c r="G323" s="43" t="s">
-        <v>1739</v>
+        <v>1730</v>
       </c>
       <c r="J323" s="43" t="s">
-        <v>1740</v>
+        <v>1731</v>
       </c>
       <c r="L323" s="43">
         <v>-28</v>
@@ -31120,10 +30879,10 @@
         <v>966</v>
       </c>
       <c r="R323" s="66" t="s">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="W323" s="43" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="X323" s="43">
         <v>9999999</v>
@@ -31161,10 +30920,10 @@
         <v>1</v>
       </c>
       <c r="G324" s="43" t="s">
-        <v>1743</v>
+        <v>1734</v>
       </c>
       <c r="J324" s="43" t="s">
-        <v>1745</v>
+        <v>1736</v>
       </c>
       <c r="L324" s="43">
         <v>-28</v>
@@ -31182,10 +30941,10 @@
         <v>4800</v>
       </c>
       <c r="Q324" s="43" t="s">
-        <v>1746</v>
+        <v>1737</v>
       </c>
       <c r="R324" s="66" t="s">
-        <v>1747</v>
+        <v>1738</v>
       </c>
       <c r="W324" s="43" t="s">
         <v>528</v>
@@ -31226,10 +30985,10 @@
         <v>1</v>
       </c>
       <c r="G325" s="43" t="s">
-        <v>1748</v>
+        <v>1739</v>
       </c>
       <c r="J325" s="43" t="s">
-        <v>1749</v>
+        <v>1740</v>
       </c>
       <c r="L325" s="43">
         <v>-28</v>
@@ -31250,7 +31009,7 @@
         <v>966</v>
       </c>
       <c r="R325" s="66" t="s">
-        <v>1750</v>
+        <v>1741</v>
       </c>
       <c r="W325" s="43" t="s">
         <v>528</v>
@@ -31291,7 +31050,7 @@
         <v>1</v>
       </c>
       <c r="G326" s="40" t="s">
-        <v>1163</v>
+        <v>1154</v>
       </c>
       <c r="J326" s="40" t="s">
         <v>970</v>
@@ -31350,7 +31109,7 @@
         <v>1</v>
       </c>
       <c r="G327" s="43" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
       <c r="J327" s="43" t="s">
         <v>989</v>
@@ -31420,7 +31179,7 @@
       <c r="H328" s="43"/>
       <c r="I328" s="43"/>
       <c r="J328" s="43" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
       <c r="K328" s="43"/>
       <c r="L328" s="43">
@@ -31433,13 +31192,13 @@
         <v>0</v>
       </c>
       <c r="O328" s="43" t="s">
-        <v>1647</v>
+        <v>1638</v>
       </c>
       <c r="P328" s="43">
         <v>600</v>
       </c>
       <c r="Q328" s="43" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
       <c r="R328" s="66" t="s">
         <v>990</v>
@@ -31449,7 +31208,7 @@
       <c r="U328" s="43"/>
       <c r="V328" s="43"/>
       <c r="W328" s="43" t="s">
-        <v>1649</v>
+        <v>1640</v>
       </c>
       <c r="X328" s="43">
         <v>99999999</v>
@@ -31503,7 +31262,7 @@
       <c r="H329" s="43"/>
       <c r="I329" s="43"/>
       <c r="J329" s="43" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
       <c r="K329" s="43"/>
       <c r="L329" s="43">
@@ -31516,23 +31275,23 @@
         <v>0</v>
       </c>
       <c r="O329" s="43" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="P329" s="43">
         <v>2800</v>
       </c>
       <c r="Q329" s="43" t="s">
-        <v>1652</v>
+        <v>1643</v>
       </c>
       <c r="R329" s="66" t="s">
-        <v>1653</v>
+        <v>1644</v>
       </c>
       <c r="S329" s="43"/>
       <c r="T329" s="43"/>
       <c r="U329" s="43"/>
       <c r="V329" s="43"/>
       <c r="W329" s="43" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="X329" s="43">
         <v>99999999</v>
@@ -31586,7 +31345,7 @@
       <c r="H330" s="43"/>
       <c r="I330" s="43"/>
       <c r="J330" s="43" t="s">
-        <v>1654</v>
+        <v>1645</v>
       </c>
       <c r="K330" s="43"/>
       <c r="L330" s="43">
@@ -31599,23 +31358,23 @@
         <v>0</v>
       </c>
       <c r="O330" s="43" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="P330" s="43">
         <v>4800</v>
       </c>
       <c r="Q330" s="43" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
       <c r="R330" s="66" t="s">
-        <v>1655</v>
+        <v>1646</v>
       </c>
       <c r="S330" s="43"/>
       <c r="T330" s="43"/>
       <c r="U330" s="43"/>
       <c r="V330" s="43"/>
       <c r="W330" s="43" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="X330" s="43">
         <v>99999999</v>
@@ -31669,7 +31428,7 @@
       <c r="H331" s="43"/>
       <c r="I331" s="43"/>
       <c r="J331" s="43" t="s">
-        <v>1656</v>
+        <v>1647</v>
       </c>
       <c r="K331" s="43"/>
       <c r="L331" s="43">
@@ -31688,17 +31447,17 @@
         <v>9900</v>
       </c>
       <c r="Q331" s="43" t="s">
-        <v>1657</v>
+        <v>1648</v>
       </c>
       <c r="R331" s="66" t="s">
-        <v>1658</v>
+        <v>1649</v>
       </c>
       <c r="S331" s="43"/>
       <c r="T331" s="43"/>
       <c r="U331" s="43"/>
       <c r="V331" s="43"/>
       <c r="W331" s="43" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="X331" s="43">
         <v>99999999</v>
@@ -31752,7 +31511,7 @@
       <c r="H332" s="43"/>
       <c r="I332" s="43"/>
       <c r="J332" s="43" t="s">
-        <v>1659</v>
+        <v>1650</v>
       </c>
       <c r="K332" s="43"/>
       <c r="L332" s="43">
@@ -31765,23 +31524,23 @@
         <v>0</v>
       </c>
       <c r="O332" s="43" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="P332" s="43">
         <v>19800</v>
       </c>
       <c r="Q332" s="43" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
       <c r="R332" s="66" t="s">
-        <v>1660</v>
+        <v>1651</v>
       </c>
       <c r="S332" s="43"/>
       <c r="T332" s="43"/>
       <c r="U332" s="43"/>
       <c r="V332" s="43"/>
       <c r="W332" s="43" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="X332" s="43">
         <v>99999999</v>
@@ -31835,7 +31594,7 @@
       <c r="H333" s="43"/>
       <c r="I333" s="43"/>
       <c r="J333" s="43" t="s">
-        <v>1661</v>
+        <v>1652</v>
       </c>
       <c r="K333" s="43"/>
       <c r="L333" s="43">
@@ -31854,17 +31613,17 @@
         <v>29800</v>
       </c>
       <c r="Q333" s="43" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
       <c r="R333" s="66" t="s">
-        <v>1662</v>
+        <v>1653</v>
       </c>
       <c r="S333" s="43"/>
       <c r="T333" s="43"/>
       <c r="U333" s="43"/>
       <c r="V333" s="43"/>
       <c r="W333" s="43" t="s">
-        <v>1663</v>
+        <v>1654</v>
       </c>
       <c r="X333" s="43">
         <v>99999999</v>
@@ -31918,7 +31677,7 @@
       <c r="H334" s="43"/>
       <c r="I334" s="43"/>
       <c r="J334" s="43" t="s">
-        <v>1664</v>
+        <v>1655</v>
       </c>
       <c r="K334" s="43"/>
       <c r="L334" s="43">
@@ -31931,23 +31690,23 @@
         <v>0</v>
       </c>
       <c r="O334" s="43" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="P334" s="43">
         <v>39800</v>
       </c>
       <c r="Q334" s="43" t="s">
-        <v>1666</v>
+        <v>1657</v>
       </c>
       <c r="R334" s="66" t="s">
-        <v>1667</v>
+        <v>1658</v>
       </c>
       <c r="S334" s="43"/>
       <c r="T334" s="43"/>
       <c r="U334" s="43"/>
       <c r="V334" s="43"/>
       <c r="W334" s="43" t="s">
-        <v>1663</v>
+        <v>1654</v>
       </c>
       <c r="X334" s="43">
         <v>99999999</v>
@@ -32001,7 +31760,7 @@
       <c r="H335" s="43"/>
       <c r="I335" s="43"/>
       <c r="J335" s="43" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
       <c r="K335" s="43"/>
       <c r="L335" s="43">
@@ -32014,23 +31773,23 @@
         <v>0</v>
       </c>
       <c r="O335" s="43" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="P335" s="43">
         <v>49800</v>
       </c>
       <c r="Q335" s="43" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
       <c r="R335" s="66" t="s">
-        <v>1669</v>
+        <v>1660</v>
       </c>
       <c r="S335" s="43"/>
       <c r="T335" s="43"/>
       <c r="U335" s="43"/>
       <c r="V335" s="43"/>
       <c r="W335" s="43" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="X335" s="43">
         <v>99999999</v>
@@ -32084,7 +31843,7 @@
       <c r="H336" s="43"/>
       <c r="I336" s="43"/>
       <c r="J336" s="43" t="s">
-        <v>1670</v>
+        <v>1661</v>
       </c>
       <c r="K336" s="43"/>
       <c r="L336" s="43">
@@ -32097,23 +31856,23 @@
         <v>0</v>
       </c>
       <c r="O336" s="43" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="P336" s="43">
         <v>59800</v>
       </c>
       <c r="Q336" s="43" t="s">
-        <v>1657</v>
+        <v>1648</v>
       </c>
       <c r="R336" s="66" t="s">
-        <v>1671</v>
+        <v>1662</v>
       </c>
       <c r="S336" s="43"/>
       <c r="T336" s="43"/>
       <c r="U336" s="43"/>
       <c r="V336" s="43"/>
       <c r="W336" s="43" t="s">
-        <v>1649</v>
+        <v>1640</v>
       </c>
       <c r="X336" s="43">
         <v>99999999</v>
@@ -32167,7 +31926,7 @@
       <c r="H337" s="43"/>
       <c r="I337" s="43"/>
       <c r="J337" s="43" t="s">
-        <v>1672</v>
+        <v>1663</v>
       </c>
       <c r="K337" s="43"/>
       <c r="L337" s="43">
@@ -32180,23 +31939,23 @@
         <v>0</v>
       </c>
       <c r="O337" s="43" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="P337" s="43">
         <v>69800</v>
       </c>
       <c r="Q337" s="43" t="s">
-        <v>1657</v>
+        <v>1648</v>
       </c>
       <c r="R337" s="66" t="s">
-        <v>1673</v>
+        <v>1664</v>
       </c>
       <c r="S337" s="43"/>
       <c r="T337" s="43"/>
       <c r="U337" s="43"/>
       <c r="V337" s="43"/>
       <c r="W337" s="43" t="s">
-        <v>1649</v>
+        <v>1640</v>
       </c>
       <c r="X337" s="43">
         <v>99999999</v>
@@ -32242,7 +32001,7 @@
         <v>1</v>
       </c>
       <c r="G338" s="19" t="s">
-        <v>1165</v>
+        <v>1156</v>
       </c>
       <c r="J338" s="19" t="s">
         <v>1008</v>
@@ -32398,7 +32157,7 @@
         <v>1</v>
       </c>
       <c r="G340" s="19" t="s">
-        <v>1166</v>
+        <v>1157</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19"/>
@@ -32480,12 +32239,12 @@
         <v>1</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
       <c r="H341" s="6"/>
       <c r="I341" s="6"/>
       <c r="J341" s="5" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="L341" s="5">
         <v>-31</v>
@@ -32497,19 +32256,19 @@
         <v>0</v>
       </c>
       <c r="O341" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P341" s="5">
         <v>600</v>
       </c>
       <c r="Q341" s="5" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="R341" s="10" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="W341" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X341" s="5">
         <v>9999999</v>
@@ -32524,10 +32283,10 @@
         <v>26</v>
       </c>
       <c r="AB341" s="5" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="AC341" s="5" t="s">
-        <v>1176</v>
+        <v>1167</v>
       </c>
       <c r="AH341" s="5">
         <v>1</v>
@@ -32553,10 +32312,10 @@
         <v>1</v>
       </c>
       <c r="G342" s="6" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
       <c r="J342" s="5" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
       <c r="L342" s="5">
         <v>-31</v>
@@ -32568,19 +32327,19 @@
         <v>0</v>
       </c>
       <c r="O342" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P342" s="5">
         <v>600</v>
       </c>
       <c r="Q342" s="5" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="R342" s="10" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
       <c r="W342" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X342" s="5">
         <v>9999999</v>
@@ -32595,10 +32354,10 @@
         <v>27</v>
       </c>
       <c r="AB342" s="5" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="AC342" s="5" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
       <c r="AH342" s="5">
         <v>1</v>
@@ -32624,10 +32383,10 @@
         <v>1</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="J343" s="5" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
       <c r="L343" s="5">
         <v>-31</v>
@@ -32639,19 +32398,19 @@
         <v>0</v>
       </c>
       <c r="O343" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P343" s="5">
         <v>600</v>
       </c>
       <c r="Q343" s="5" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="R343" s="10" t="s">
-        <v>1096</v>
+        <v>1087</v>
       </c>
       <c r="W343" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X343" s="5">
         <v>9999999</v>
@@ -32666,10 +32425,10 @@
         <v>28</v>
       </c>
       <c r="AB343" s="5" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="AC343" s="5" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="AH343" s="5">
         <v>1</v>
@@ -32695,10 +32454,10 @@
         <v>1</v>
       </c>
       <c r="G344" s="6" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
       <c r="J344" s="5" t="s">
-        <v>1184</v>
+        <v>1175</v>
       </c>
       <c r="L344" s="5">
         <v>-31</v>
@@ -32710,19 +32469,19 @@
         <v>0</v>
       </c>
       <c r="O344" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P344" s="5">
         <v>4800</v>
       </c>
       <c r="Q344" s="5" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="R344" s="10" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
       <c r="W344" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X344" s="5">
         <v>9999999</v>
@@ -32737,10 +32496,10 @@
         <v>29</v>
       </c>
       <c r="AB344" s="5" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="AC344" s="5" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="AH344" s="5">
         <v>1</v>
@@ -32766,10 +32525,10 @@
         <v>1</v>
       </c>
       <c r="G345" s="6" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
       <c r="J345" s="5" t="s">
-        <v>1187</v>
+        <v>1178</v>
       </c>
       <c r="L345" s="5">
         <v>-31</v>
@@ -32781,19 +32540,19 @@
         <v>0</v>
       </c>
       <c r="O345" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P345" s="5">
         <v>4800</v>
       </c>
       <c r="Q345" s="5" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="R345" s="10" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
       <c r="W345" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X345" s="5">
         <v>9999999</v>
@@ -32808,10 +32567,10 @@
         <v>30</v>
       </c>
       <c r="AB345" s="5" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="AC345" s="5" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="AH345" s="5">
         <v>1</v>
@@ -32837,10 +32596,10 @@
         <v>1</v>
       </c>
       <c r="G346" s="6" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="J346" s="5" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
       <c r="L346" s="5">
         <v>-31</v>
@@ -32852,19 +32611,19 @@
         <v>0</v>
       </c>
       <c r="O346" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P346" s="5">
         <v>4800</v>
       </c>
       <c r="Q346" s="5" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="R346" s="10" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="W346" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X346" s="5">
         <v>9999999</v>
@@ -32879,10 +32638,10 @@
         <v>31</v>
       </c>
       <c r="AB346" s="5" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="AC346" s="5" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="AH346" s="5">
         <v>1</v>
@@ -32908,10 +32667,10 @@
         <v>1</v>
       </c>
       <c r="G347" s="6" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="J347" s="5" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
       <c r="L347" s="5">
         <v>-31</v>
@@ -32923,19 +32682,19 @@
         <v>0</v>
       </c>
       <c r="O347" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P347" s="5">
         <v>9800</v>
       </c>
       <c r="Q347" s="5" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="R347" s="10" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="W347" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X347" s="5">
         <v>9999999</v>
@@ -32950,10 +32709,10 @@
         <v>32</v>
       </c>
       <c r="AB347" s="5" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="AC347" s="5" t="s">
-        <v>1193</v>
+        <v>1184</v>
       </c>
       <c r="AH347" s="5">
         <v>1</v>
@@ -32979,10 +32738,10 @@
         <v>1</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
       <c r="J348" s="5" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="L348" s="5">
         <v>-31</v>
@@ -32994,19 +32753,19 @@
         <v>0</v>
       </c>
       <c r="O348" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P348" s="5">
         <v>9800</v>
       </c>
       <c r="Q348" s="5" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="R348" s="10" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="W348" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X348" s="5">
         <v>9999999</v>
@@ -33021,10 +32780,10 @@
         <v>33</v>
       </c>
       <c r="AB348" s="5" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="AC348" s="5" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="AH348" s="5">
         <v>1</v>
@@ -33050,10 +32809,10 @@
         <v>1</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
       <c r="J349" s="5" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="L349" s="5">
         <v>-31</v>
@@ -33071,13 +32830,13 @@
         <v>9800</v>
       </c>
       <c r="Q349" s="5" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="R349" s="10" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="W349" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X349" s="5">
         <v>9999999</v>
@@ -33092,10 +32851,10 @@
         <v>34</v>
       </c>
       <c r="AB349" s="5" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="AC349" s="5" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
       <c r="AH349" s="5">
         <v>1</v>
@@ -33121,10 +32880,10 @@
         <v>1</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
       <c r="J350" s="5" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
       <c r="L350" s="5">
         <v>-31</v>
@@ -33145,10 +32904,10 @@
         <v>965</v>
       </c>
       <c r="R350" s="10" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
       <c r="W350" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X350" s="5">
         <v>9999999</v>
@@ -33166,7 +32925,7 @@
         <v>446</v>
       </c>
       <c r="AC350" s="5" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="AH350" s="5">
         <v>1</v>
@@ -33192,10 +32951,10 @@
         <v>1</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
       <c r="J351" s="5" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="L351" s="5">
         <v>-31</v>
@@ -33207,7 +32966,7 @@
         <v>0</v>
       </c>
       <c r="O351" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P351" s="5">
         <v>19800</v>
@@ -33216,10 +32975,10 @@
         <v>965</v>
       </c>
       <c r="R351" s="10" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
       <c r="W351" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X351" s="5">
         <v>9999999</v>
@@ -33237,7 +32996,7 @@
         <v>446</v>
       </c>
       <c r="AC351" s="5" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
       <c r="AH351" s="5">
         <v>1</v>
@@ -33263,10 +33022,10 @@
         <v>1</v>
       </c>
       <c r="G352" s="6" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="J352" s="5" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
       <c r="L352" s="5">
         <v>-31</v>
@@ -33287,7 +33046,7 @@
         <v>965</v>
       </c>
       <c r="R352" s="10" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
       <c r="W352" s="5" t="s">
         <v>567</v>
@@ -33305,10 +33064,10 @@
         <v>37</v>
       </c>
       <c r="AB352" s="5" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="AC352" s="5" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
       <c r="AH352" s="5">
         <v>1</v>
@@ -33334,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G353" s="5" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
       <c r="I353" s="5" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="J353" s="5" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="L353" s="5">
         <v>-31</v>
@@ -33358,13 +33117,13 @@
         <v>600</v>
       </c>
       <c r="Q353" s="5" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="R353" s="10" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="W353" s="5" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="X353" s="5">
         <v>9999999</v>
@@ -33402,13 +33161,13 @@
         <v>0</v>
       </c>
       <c r="G354" s="5" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="I354" s="5" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="J354" s="5" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="L354" s="5">
         <v>-31</v>
@@ -33420,19 +33179,19 @@
         <v>0</v>
       </c>
       <c r="O354" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P354" s="5">
         <v>1200</v>
       </c>
       <c r="Q354" s="5" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
       <c r="R354" s="10" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="W354" s="5" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="X354" s="5">
         <v>9999999</v>
@@ -33470,13 +33229,13 @@
         <v>0</v>
       </c>
       <c r="G355" s="5" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="I355" s="5" t="s">
-        <v>1212</v>
+        <v>1203</v>
       </c>
       <c r="J355" s="5" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="L355" s="5">
         <v>-31</v>
@@ -33488,16 +33247,16 @@
         <v>0</v>
       </c>
       <c r="O355" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P355" s="5">
         <v>1800</v>
       </c>
       <c r="Q355" s="5" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="R355" s="10" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="W355" s="5" t="s">
         <v>596</v>
@@ -33538,13 +33297,13 @@
         <v>0</v>
       </c>
       <c r="G356" s="5" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
       <c r="I356" s="5" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="J356" s="5" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="L356" s="5">
         <v>-31</v>
@@ -33562,13 +33321,13 @@
         <v>4800</v>
       </c>
       <c r="Q356" s="5" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="R356" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W356" s="5" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="X356" s="5">
         <v>9999999</v>
@@ -33606,13 +33365,13 @@
         <v>0</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="J357" s="5" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="L357" s="5">
         <v>-31</v>
@@ -33624,19 +33383,19 @@
         <v>0</v>
       </c>
       <c r="O357" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P357" s="5">
         <v>9800</v>
       </c>
       <c r="Q357" s="5" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
       <c r="R357" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W357" s="5" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="X357" s="5">
         <v>9999999</v>
@@ -33674,13 +33433,13 @@
         <v>0</v>
       </c>
       <c r="G358" s="5" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
       <c r="I358" s="5" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="J358" s="5" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="L358" s="5">
         <v>-31</v>
@@ -33692,13 +33451,13 @@
         <v>0</v>
       </c>
       <c r="O358" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P358" s="5">
         <v>19800</v>
       </c>
       <c r="Q358" s="5" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
       <c r="R358" s="10" t="s">
         <v>272</v>
@@ -33742,13 +33501,13 @@
         <v>0</v>
       </c>
       <c r="G359" s="5" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
       <c r="I359" s="5" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
       <c r="J359" s="5" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="L359" s="5">
         <v>-31</v>
@@ -33760,19 +33519,19 @@
         <v>0</v>
       </c>
       <c r="O359" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P359" s="5">
         <v>9800</v>
       </c>
       <c r="Q359" s="5" t="s">
-        <v>1125</v>
+        <v>1116</v>
       </c>
       <c r="R359" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W359" s="5" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="X359" s="5">
         <v>9999999</v>
@@ -33810,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G360" s="5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I360" s="5" t="s">
         <v>1115</v>
       </c>
-      <c r="I360" s="5" t="s">
-        <v>1124</v>
-      </c>
       <c r="J360" s="5" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="L360" s="5">
         <v>-31</v>
@@ -33828,19 +33587,19 @@
         <v>0</v>
       </c>
       <c r="O360" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P360" s="5">
         <v>19800</v>
       </c>
       <c r="Q360" s="5" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
       <c r="R360" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W360" s="5" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="X360" s="5">
         <v>9999999</v>
@@ -33878,13 +33637,13 @@
         <v>0</v>
       </c>
       <c r="G361" s="5" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
       <c r="J361" s="5" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="L361" s="5">
         <v>-31</v>
@@ -33896,19 +33655,19 @@
         <v>0</v>
       </c>
       <c r="O361" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P361" s="5">
         <v>49800</v>
       </c>
       <c r="Q361" s="5" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
       <c r="R361" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W361" s="5" t="s">
-        <v>1213</v>
+        <v>1204</v>
       </c>
       <c r="X361" s="5">
         <v>9999999</v>
@@ -33946,13 +33705,13 @@
         <v>0</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="I362" s="5" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="J362" s="5" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="L362" s="5">
         <v>-31</v>
@@ -33970,10 +33729,10 @@
         <v>1800</v>
       </c>
       <c r="Q362" s="5" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="R362" s="10" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="W362" s="5" t="s">
         <v>567</v>
@@ -33991,10 +33750,10 @@
         <v>38</v>
       </c>
       <c r="AB362" s="5" t="s">
-        <v>1214</v>
+        <v>1205</v>
       </c>
       <c r="AC362" s="5" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
       <c r="AH362" s="5">
         <v>1</v>
@@ -34020,13 +33779,13 @@
         <v>0</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="J363" s="5" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="L363" s="5">
         <v>-31</v>
@@ -34038,19 +33797,19 @@
         <v>0</v>
       </c>
       <c r="O363" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P363" s="5">
         <v>19800</v>
       </c>
       <c r="Q363" s="5" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
       <c r="R363" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W363" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X363" s="5">
         <v>9999999</v>
@@ -34065,10 +33824,10 @@
         <v>39</v>
       </c>
       <c r="AB363" s="5" t="s">
-        <v>1214</v>
+        <v>1205</v>
       </c>
       <c r="AC363" s="5" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="AH363" s="5">
         <v>1</v>
@@ -34094,13 +33853,13 @@
         <v>0</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="I364" s="5" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
       <c r="J364" s="5" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="L364" s="5">
         <v>-31</v>
@@ -34112,19 +33871,19 @@
         <v>0</v>
       </c>
       <c r="O364" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P364" s="5">
         <v>49800</v>
       </c>
       <c r="Q364" s="5" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
       <c r="R364" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W364" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X364" s="5">
         <v>9999999</v>
@@ -34139,10 +33898,10 @@
         <v>40</v>
       </c>
       <c r="AB364" s="5" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
       <c r="AC364" s="5" t="s">
-        <v>1215</v>
+        <v>1206</v>
       </c>
       <c r="AH364" s="5">
         <v>1</v>
@@ -34168,10 +33927,10 @@
         <v>1</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
       <c r="J365" s="5" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
       <c r="L365" s="5">
         <v>-31</v>
@@ -34183,16 +33942,16 @@
         <v>0</v>
       </c>
       <c r="O365" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P365" s="5">
         <v>131400</v>
       </c>
       <c r="Q365" s="5" t="s">
-        <v>1217</v>
+        <v>1208</v>
       </c>
       <c r="R365" s="10" t="s">
-        <v>1218</v>
+        <v>1209</v>
       </c>
       <c r="W365" s="5" t="s">
         <v>567</v>
@@ -34233,10 +33992,10 @@
         <v>1</v>
       </c>
       <c r="G366" s="5" t="s">
-        <v>1219</v>
+        <v>1210</v>
       </c>
       <c r="J366" s="5" t="s">
-        <v>1220</v>
+        <v>1211</v>
       </c>
       <c r="L366" s="5">
         <v>-31</v>
@@ -34248,16 +34007,16 @@
         <v>0</v>
       </c>
       <c r="O366" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P366" s="5">
         <v>52000</v>
       </c>
       <c r="Q366" s="5" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="R366" s="10" t="s">
-        <v>1221</v>
+        <v>1212</v>
       </c>
       <c r="W366" s="5" t="s">
         <v>567</v>
@@ -34298,10 +34057,10 @@
         <v>1</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
       <c r="J367" s="5" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
       <c r="L367" s="5">
         <v>-31</v>
@@ -34313,19 +34072,19 @@
         <v>0</v>
       </c>
       <c r="O367" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P367" s="5">
         <v>25800</v>
       </c>
       <c r="Q367" s="5" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="R367" s="10" t="s">
-        <v>1223</v>
+        <v>1214</v>
       </c>
       <c r="W367" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X367" s="5">
         <v>9999999</v>
@@ -34363,10 +34122,10 @@
         <v>1</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>1224</v>
+        <v>1215</v>
       </c>
       <c r="J368" s="5" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="L368" s="5">
         <v>-31</v>
@@ -34378,16 +34137,16 @@
         <v>0</v>
       </c>
       <c r="O368" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P368" s="5">
         <v>14700</v>
       </c>
       <c r="Q368" s="5" t="s">
-        <v>1217</v>
+        <v>1208</v>
       </c>
       <c r="R368" s="10" t="s">
-        <v>1225</v>
+        <v>1216</v>
       </c>
       <c r="W368" s="5" t="s">
         <v>567</v>
@@ -34428,10 +34187,10 @@
         <v>1</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>1226</v>
+        <v>1217</v>
       </c>
       <c r="J369" s="5" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="L369" s="5">
         <v>-31</v>
@@ -34449,13 +34208,13 @@
         <v>5200</v>
       </c>
       <c r="Q369" s="5" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="R369" s="10" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
       <c r="W369" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X369" s="5">
         <v>9999999</v>
@@ -34493,10 +34252,10 @@
         <v>1</v>
       </c>
       <c r="G370" s="5" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="J370" s="5" t="s">
-        <v>1227</v>
+        <v>1218</v>
       </c>
       <c r="L370" s="5">
         <v>-31</v>
@@ -34514,7 +34273,7 @@
         <v>1800</v>
       </c>
       <c r="Q370" s="5" t="s">
-        <v>1228</v>
+        <v>1219</v>
       </c>
       <c r="R370" s="10" t="s">
         <v>732</v>
@@ -34555,10 +34314,10 @@
         <v>1</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>1229</v>
+        <v>1220</v>
       </c>
       <c r="J371" s="5" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="L371" s="5">
         <v>-31</v>
@@ -34576,10 +34335,10 @@
         <v>4800</v>
       </c>
       <c r="Q371" s="5" t="s">
-        <v>1228</v>
+        <v>1219</v>
       </c>
       <c r="R371" s="10" t="s">
-        <v>1230</v>
+        <v>1221</v>
       </c>
       <c r="W371" s="5" t="s">
         <v>597</v>
@@ -34617,10 +34376,10 @@
         <v>1</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="J372" s="5" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="L372" s="5">
         <v>-31</v>
@@ -34638,7 +34397,7 @@
         <v>9800</v>
       </c>
       <c r="Q372" s="5" t="s">
-        <v>1228</v>
+        <v>1219</v>
       </c>
       <c r="R372" s="10" t="s">
         <v>736</v>
@@ -34679,10 +34438,10 @@
         <v>1</v>
       </c>
       <c r="G373" s="5" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="J373" s="5" t="s">
-        <v>1232</v>
+        <v>1223</v>
       </c>
       <c r="L373" s="5">
         <v>-31</v>
@@ -34700,13 +34459,13 @@
         <v>19800</v>
       </c>
       <c r="Q373" s="5" t="s">
-        <v>1228</v>
+        <v>1219</v>
       </c>
       <c r="R373" s="10" t="s">
         <v>737</v>
       </c>
       <c r="W373" s="5" t="s">
-        <v>1233</v>
+        <v>1224</v>
       </c>
       <c r="X373" s="5">
         <v>9999999</v>
@@ -34741,13 +34500,13 @@
         <v>1</v>
       </c>
       <c r="G374" s="5" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="I374" s="5" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="J374" s="5" t="s">
-        <v>1384</v>
+        <v>1375</v>
       </c>
       <c r="L374" s="5">
         <v>-31</v>
@@ -34759,7 +34518,7 @@
         <v>0</v>
       </c>
       <c r="O374" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P374" s="5">
         <v>600</v>
@@ -34768,7 +34527,7 @@
         <v>524</v>
       </c>
       <c r="R374" s="10" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="W374" s="5" t="s">
         <v>567</v>
@@ -34809,13 +34568,13 @@
         <v>1</v>
       </c>
       <c r="G375" s="5" t="s">
-        <v>1250</v>
+        <v>1241</v>
       </c>
       <c r="I375" s="5" t="s">
-        <v>1251</v>
+        <v>1242</v>
       </c>
       <c r="J375" s="5" t="s">
-        <v>1252</v>
+        <v>1243</v>
       </c>
       <c r="L375" s="5">
         <v>-31</v>
@@ -34827,19 +34586,19 @@
         <v>0</v>
       </c>
       <c r="O375" s="5" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="P375" s="5">
         <v>300</v>
       </c>
       <c r="Q375" s="5" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="R375" s="10" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
       <c r="W375" s="5" t="s">
-        <v>1256</v>
+        <v>1247</v>
       </c>
       <c r="X375" s="5">
         <v>9999999</v>
@@ -34877,13 +34636,13 @@
         <v>1</v>
       </c>
       <c r="G376" s="5" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
       <c r="I376" s="5" t="s">
-        <v>1260</v>
+        <v>1251</v>
       </c>
       <c r="J376" s="5" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
       <c r="L376" s="5">
         <v>-31</v>
@@ -34895,19 +34654,19 @@
         <v>0</v>
       </c>
       <c r="O376" s="5" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="P376" s="5">
         <v>0</v>
       </c>
       <c r="Q376" s="5" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
       <c r="R376" s="10" t="s">
-        <v>1264</v>
+        <v>1255</v>
       </c>
       <c r="W376" s="5" t="s">
-        <v>1265</v>
+        <v>1256</v>
       </c>
       <c r="X376" s="5">
         <v>9999999</v>
@@ -34945,10 +34704,10 @@
         <v>1</v>
       </c>
       <c r="G377" s="5" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
       <c r="I377" s="5" t="s">
-        <v>1260</v>
+        <v>1251</v>
       </c>
       <c r="J377" s="5" t="s">
         <v>973</v>
@@ -34963,19 +34722,19 @@
         <v>0</v>
       </c>
       <c r="O377" s="5" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="P377" s="5">
         <v>300</v>
       </c>
       <c r="Q377" s="5" t="s">
-        <v>1262</v>
+        <v>1253</v>
       </c>
       <c r="R377" s="10" t="s">
-        <v>1266</v>
+        <v>1257</v>
       </c>
       <c r="W377" s="5" t="s">
-        <v>1256</v>
+        <v>1247</v>
       </c>
       <c r="X377" s="5">
         <v>9999999</v>
@@ -35013,13 +34772,13 @@
         <v>1</v>
       </c>
       <c r="G378" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I378" s="5" t="s">
+        <v>1250</v>
+      </c>
+      <c r="J378" s="5" t="s">
         <v>1258</v>
-      </c>
-      <c r="I378" s="5" t="s">
-        <v>1259</v>
-      </c>
-      <c r="J378" s="5" t="s">
-        <v>1267</v>
       </c>
       <c r="L378" s="5">
         <v>-31</v>
@@ -35037,13 +34796,13 @@
         <v>600</v>
       </c>
       <c r="Q378" s="5" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
       <c r="R378" s="10" t="s">
-        <v>1268</v>
+        <v>1259</v>
       </c>
       <c r="W378" s="5" t="s">
-        <v>1269</v>
+        <v>1260</v>
       </c>
       <c r="X378" s="5">
         <v>9999999</v>
@@ -35081,10 +34840,10 @@
         <v>1</v>
       </c>
       <c r="G379" s="5" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
       <c r="I379" s="5" t="s">
-        <v>1260</v>
+        <v>1251</v>
       </c>
       <c r="J379" s="5" t="s">
         <v>882</v>
@@ -35099,19 +34858,19 @@
         <v>0</v>
       </c>
       <c r="O379" s="5" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="P379" s="5">
         <v>1800</v>
       </c>
       <c r="Q379" s="5" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
       <c r="R379" s="10" t="s">
-        <v>1281</v>
+        <v>1272</v>
       </c>
       <c r="W379" s="5" t="s">
-        <v>1270</v>
+        <v>1261</v>
       </c>
       <c r="X379" s="5">
         <v>9999999</v>
@@ -35149,10 +34908,10 @@
         <v>1</v>
       </c>
       <c r="G380" s="5" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
       <c r="I380" s="5" t="s">
-        <v>1259</v>
+        <v>1250</v>
       </c>
       <c r="J380" s="5" t="s">
         <v>883</v>
@@ -35167,19 +34926,19 @@
         <v>0</v>
       </c>
       <c r="O380" s="5" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="P380" s="5">
         <v>4800</v>
       </c>
       <c r="Q380" s="5" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
       <c r="R380" s="10" t="s">
-        <v>1282</v>
+        <v>1273</v>
       </c>
       <c r="W380" s="5" t="s">
-        <v>1271</v>
+        <v>1262</v>
       </c>
       <c r="X380" s="5">
         <v>9999999</v>
@@ -35217,13 +34976,13 @@
         <v>1</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
       <c r="I381" s="5" t="s">
-        <v>1272</v>
+        <v>1263</v>
       </c>
       <c r="J381" s="5" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
       <c r="L381" s="5">
         <v>-31</v>
@@ -35241,10 +35000,10 @@
         <v>0</v>
       </c>
       <c r="Q381" s="5" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
       <c r="R381" s="10" t="s">
-        <v>1264</v>
+        <v>1255</v>
       </c>
       <c r="W381" s="5" t="s">
         <v>569</v>
@@ -35285,13 +35044,13 @@
         <v>1</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>1272</v>
+        <v>1263</v>
       </c>
       <c r="J382" s="5" t="s">
-        <v>1227</v>
+        <v>1218</v>
       </c>
       <c r="L382" s="5">
         <v>-31</v>
@@ -35309,13 +35068,13 @@
         <v>1800</v>
       </c>
       <c r="Q382" s="5" t="s">
-        <v>1262</v>
+        <v>1253</v>
       </c>
       <c r="R382" s="10" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="W382" s="5" t="s">
-        <v>1256</v>
+        <v>1247</v>
       </c>
       <c r="X382" s="5">
         <v>9999999</v>
@@ -35353,13 +35112,13 @@
         <v>1</v>
       </c>
       <c r="G383" s="5" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
       <c r="I383" s="5" t="s">
-        <v>1272</v>
+        <v>1263</v>
       </c>
       <c r="J383" s="5" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="L383" s="5">
         <v>-31</v>
@@ -35377,10 +35136,10 @@
         <v>4800</v>
       </c>
       <c r="Q383" s="5" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
       <c r="R383" s="10" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="W383" s="5" t="s">
         <v>535</v>
@@ -35421,13 +35180,13 @@
         <v>1</v>
       </c>
       <c r="G384" s="5" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
       <c r="I384" s="5" t="s">
-        <v>1272</v>
+        <v>1263</v>
       </c>
       <c r="J384" s="5" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="L384" s="5">
         <v>-31</v>
@@ -35439,13 +35198,13 @@
         <v>0</v>
       </c>
       <c r="O384" s="5" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="P384" s="5">
         <v>9800</v>
       </c>
       <c r="Q384" s="5" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
       <c r="R384" s="10" t="s">
         <v>736</v>
@@ -35489,13 +35248,13 @@
         <v>1</v>
       </c>
       <c r="G385" s="5" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>1272</v>
+        <v>1263</v>
       </c>
       <c r="J385" s="5" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="L385" s="5">
         <v>-31</v>
@@ -35507,19 +35266,19 @@
         <v>0</v>
       </c>
       <c r="O385" s="5" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="P385" s="5">
         <v>19800</v>
       </c>
       <c r="Q385" s="5" t="s">
+        <v>1253</v>
+      </c>
+      <c r="R385" s="10" t="s">
+        <v>1269</v>
+      </c>
+      <c r="W385" s="5" t="s">
         <v>1262</v>
-      </c>
-      <c r="R385" s="10" t="s">
-        <v>1278</v>
-      </c>
-      <c r="W385" s="5" t="s">
-        <v>1271</v>
       </c>
       <c r="X385" s="5">
         <v>9999999</v>
@@ -35557,14 +35316,14 @@
         <v>1</v>
       </c>
       <c r="G386" s="19" t="s">
-        <v>1283</v>
+        <v>1274</v>
       </c>
       <c r="H386" s="49"/>
       <c r="I386" s="19" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="J386" s="19" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="L386" s="19">
         <v>-31</v>
@@ -35582,10 +35341,10 @@
         <v>1800</v>
       </c>
       <c r="Q386" s="19" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
       <c r="R386" s="39" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
       <c r="W386" s="19" t="s">
         <v>535</v>
@@ -35626,14 +35385,14 @@
         <v>1</v>
       </c>
       <c r="G387" s="19" t="s">
-        <v>1288</v>
+        <v>1279</v>
       </c>
       <c r="H387" s="49"/>
       <c r="I387" s="19" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="J387" s="19" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="L387" s="19">
         <v>-31</v>
@@ -35645,16 +35404,16 @@
         <v>0</v>
       </c>
       <c r="O387" s="19" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
       <c r="P387" s="19">
         <v>3000</v>
       </c>
       <c r="Q387" s="19" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="R387" s="39" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
       <c r="W387" s="19" t="s">
         <v>535</v>
@@ -35695,14 +35454,14 @@
         <v>1</v>
       </c>
       <c r="G388" s="19" t="s">
-        <v>1294</v>
+        <v>1285</v>
       </c>
       <c r="H388" s="49"/>
       <c r="I388" s="19" t="s">
-        <v>1295</v>
+        <v>1286</v>
       </c>
       <c r="J388" s="19" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="L388" s="19">
         <v>-31</v>
@@ -35714,19 +35473,19 @@
         <v>0</v>
       </c>
       <c r="O388" s="19" t="s">
-        <v>1297</v>
+        <v>1288</v>
       </c>
       <c r="P388" s="19">
         <v>4800</v>
       </c>
       <c r="Q388" s="19" t="s">
-        <v>1298</v>
+        <v>1289</v>
       </c>
       <c r="R388" s="39" t="s">
-        <v>1299</v>
+        <v>1290</v>
       </c>
       <c r="W388" s="19" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="X388" s="19">
         <v>9999999</v>
@@ -35764,14 +35523,14 @@
         <v>1</v>
       </c>
       <c r="G389" s="19" t="s">
-        <v>1301</v>
+        <v>1292</v>
       </c>
       <c r="H389" s="63"/>
       <c r="I389" s="19" t="s">
-        <v>1302</v>
+        <v>1293</v>
       </c>
       <c r="J389" s="19" t="s">
-        <v>1303</v>
+        <v>1294</v>
       </c>
       <c r="L389" s="19">
         <v>-31</v>
@@ -35783,16 +35542,16 @@
         <v>0</v>
       </c>
       <c r="O389" s="19" t="s">
-        <v>1304</v>
+        <v>1295</v>
       </c>
       <c r="P389" s="19">
         <v>4800</v>
       </c>
       <c r="Q389" s="19" t="s">
-        <v>1305</v>
+        <v>1296</v>
       </c>
       <c r="R389" s="39" t="s">
-        <v>1299</v>
+        <v>1290</v>
       </c>
       <c r="W389" s="19" t="s">
         <v>535</v>
@@ -35833,14 +35592,14 @@
         <v>1</v>
       </c>
       <c r="G390" s="19" t="s">
-        <v>1288</v>
+        <v>1279</v>
       </c>
       <c r="H390" s="63"/>
       <c r="I390" s="19" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="J390" s="19" t="s">
-        <v>1306</v>
+        <v>1297</v>
       </c>
       <c r="L390" s="19">
         <v>-31</v>
@@ -35858,10 +35617,10 @@
         <v>9800</v>
       </c>
       <c r="Q390" s="19" t="s">
-        <v>1307</v>
+        <v>1298</v>
       </c>
       <c r="R390" s="39" t="s">
-        <v>1308</v>
+        <v>1299</v>
       </c>
       <c r="W390" s="19" t="s">
         <v>535</v>
@@ -35902,14 +35661,14 @@
         <v>1</v>
       </c>
       <c r="G391" s="19" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="H391" s="63"/>
       <c r="I391" s="19" t="s">
-        <v>1302</v>
+        <v>1293</v>
       </c>
       <c r="J391" s="19" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="L391" s="19">
         <v>-31</v>
@@ -35927,10 +35686,10 @@
         <v>19800</v>
       </c>
       <c r="Q391" s="19" t="s">
-        <v>1311</v>
+        <v>1302</v>
       </c>
       <c r="R391" s="39" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
       <c r="W391" s="19" t="s">
         <v>535</v>
@@ -35971,14 +35730,14 @@
         <v>1</v>
       </c>
       <c r="G392" s="19" t="s">
-        <v>1283</v>
+        <v>1274</v>
       </c>
       <c r="H392" s="49"/>
       <c r="I392" s="19" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="J392" s="19" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
       <c r="L392" s="19">
         <v>-31</v>
@@ -35996,10 +35755,10 @@
         <v>9800</v>
       </c>
       <c r="Q392" s="19" t="s">
-        <v>1315</v>
+        <v>1306</v>
       </c>
       <c r="R392" s="39" t="s">
-        <v>1316</v>
+        <v>1307</v>
       </c>
       <c r="W392" s="19" t="s">
         <v>535</v>
@@ -36040,14 +35799,14 @@
         <v>1</v>
       </c>
       <c r="G393" s="19" t="s">
-        <v>1288</v>
+        <v>1279</v>
       </c>
       <c r="H393" s="49"/>
       <c r="I393" s="19" t="s">
-        <v>1317</v>
+        <v>1308</v>
       </c>
       <c r="J393" s="19" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
       <c r="L393" s="19">
         <v>-31</v>
@@ -36065,10 +35824,10 @@
         <v>19800</v>
       </c>
       <c r="Q393" s="19" t="s">
-        <v>1319</v>
+        <v>1310</v>
       </c>
       <c r="R393" s="39" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
       <c r="W393" s="19" t="s">
         <v>535</v>
@@ -36109,14 +35868,14 @@
         <v>1</v>
       </c>
       <c r="G394" s="19" t="s">
-        <v>1294</v>
+        <v>1285</v>
       </c>
       <c r="H394" s="49"/>
       <c r="I394" s="19" t="s">
-        <v>1320</v>
+        <v>1311</v>
       </c>
       <c r="J394" s="19" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
       <c r="L394" s="19">
         <v>-31</v>
@@ -36128,16 +35887,16 @@
         <v>0</v>
       </c>
       <c r="O394" s="19" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
       <c r="P394" s="19">
         <v>49800</v>
       </c>
       <c r="Q394" s="19" t="s">
-        <v>1323</v>
+        <v>1314</v>
       </c>
       <c r="R394" s="39" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
       <c r="W394" s="19" t="s">
         <v>535</v>
@@ -36178,10 +35937,10 @@
         <v>1</v>
       </c>
       <c r="G395" s="5" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
       <c r="J395" s="5" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="L395" s="5">
         <v>-31</v>
@@ -36193,16 +35952,16 @@
         <v>0</v>
       </c>
       <c r="O395" s="5" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
       <c r="P395" s="5">
         <v>600</v>
       </c>
       <c r="Q395" s="5" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
       <c r="R395" s="10" t="s">
-        <v>1338</v>
+        <v>1329</v>
       </c>
       <c r="W395" s="5" t="s">
         <v>528</v>
@@ -36240,10 +35999,10 @@
         <v>1</v>
       </c>
       <c r="G396" s="5" t="s">
-        <v>1339</v>
+        <v>1330</v>
       </c>
       <c r="J396" s="5" t="s">
-        <v>1340</v>
+        <v>1331</v>
       </c>
       <c r="L396" s="5">
         <v>-31</v>
@@ -36255,16 +36014,16 @@
         <v>0</v>
       </c>
       <c r="O396" s="5" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
       <c r="P396" s="5">
         <v>2000</v>
       </c>
       <c r="Q396" s="5" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
       <c r="R396" s="10" t="s">
-        <v>1341</v>
+        <v>1332</v>
       </c>
       <c r="W396" s="5" t="s">
         <v>528</v>
@@ -36305,7 +36064,7 @@
         <v>289</v>
       </c>
       <c r="J397" s="5" t="s">
-        <v>1342</v>
+        <v>1333</v>
       </c>
       <c r="L397" s="5">
         <v>-31</v>
@@ -36323,10 +36082,10 @@
         <v>4800</v>
       </c>
       <c r="Q397" s="5" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
       <c r="R397" s="10" t="s">
-        <v>1343</v>
+        <v>1334</v>
       </c>
       <c r="W397" s="5" t="s">
         <v>528</v>
@@ -36367,7 +36126,7 @@
         <v>292</v>
       </c>
       <c r="J398" s="5" t="s">
-        <v>1344</v>
+        <v>1335</v>
       </c>
       <c r="L398" s="5">
         <v>-31</v>
@@ -36385,10 +36144,10 @@
         <v>9800</v>
       </c>
       <c r="Q398" s="5" t="s">
+        <v>1327</v>
+      </c>
+      <c r="R398" s="10" t="s">
         <v>1336</v>
-      </c>
-      <c r="R398" s="10" t="s">
-        <v>1345</v>
       </c>
       <c r="W398" s="5" t="s">
         <v>528</v>
@@ -36426,10 +36185,10 @@
         <v>1</v>
       </c>
       <c r="G399" s="5" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
       <c r="J399" s="5" t="s">
-        <v>1347</v>
+        <v>1338</v>
       </c>
       <c r="L399" s="5">
         <v>-31</v>
@@ -36441,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="O399" s="5" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
       <c r="P399" s="5">
         <v>19800</v>
       </c>
       <c r="Q399" s="5" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
       <c r="R399" s="10" t="s">
-        <v>1348</v>
+        <v>1339</v>
       </c>
       <c r="W399" s="5" t="s">
         <v>528</v>
@@ -36488,10 +36247,10 @@
         <v>1</v>
       </c>
       <c r="G400" s="5" t="s">
-        <v>1349</v>
+        <v>1340</v>
       </c>
       <c r="J400" s="5" t="s">
-        <v>1350</v>
+        <v>1341</v>
       </c>
       <c r="L400" s="5">
         <v>-31</v>
@@ -36503,16 +36262,16 @@
         <v>0</v>
       </c>
       <c r="O400" s="5" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
       <c r="P400" s="5">
         <v>49800</v>
       </c>
       <c r="Q400" s="5" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
       <c r="R400" s="10" t="s">
-        <v>1351</v>
+        <v>1342</v>
       </c>
       <c r="W400" s="5" t="s">
         <v>528</v>
@@ -36550,10 +36309,10 @@
         <v>1</v>
       </c>
       <c r="G401" s="5" t="s">
-        <v>1352</v>
+        <v>1343</v>
       </c>
       <c r="J401" s="5" t="s">
-        <v>1353</v>
+        <v>1344</v>
       </c>
       <c r="L401" s="5">
         <v>-31</v>
@@ -36571,13 +36330,13 @@
         <v>1800</v>
       </c>
       <c r="Q401" s="5" t="s">
-        <v>1355</v>
+        <v>1346</v>
       </c>
       <c r="R401" s="5" t="s">
-        <v>1356</v>
+        <v>1347</v>
       </c>
       <c r="W401" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X401" s="5">
         <v>99999999</v>
@@ -36615,10 +36374,10 @@
         <v>1</v>
       </c>
       <c r="G402" s="5" t="s">
-        <v>1357</v>
+        <v>1348</v>
       </c>
       <c r="J402" s="5" t="s">
-        <v>1358</v>
+        <v>1349</v>
       </c>
       <c r="L402" s="5">
         <v>-31</v>
@@ -36630,19 +36389,19 @@
         <v>0</v>
       </c>
       <c r="O402" s="5" t="s">
-        <v>1359</v>
+        <v>1350</v>
       </c>
       <c r="P402" s="5">
         <v>4800</v>
       </c>
       <c r="Q402" s="5" t="s">
-        <v>1354</v>
+        <v>1345</v>
       </c>
       <c r="R402" s="5" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="W402" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X402" s="5">
         <v>99999999</v>
@@ -36680,10 +36439,10 @@
         <v>1</v>
       </c>
       <c r="G403" s="5" t="s">
-        <v>1361</v>
+        <v>1352</v>
       </c>
       <c r="J403" s="5" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="L403" s="5">
         <v>-31</v>
@@ -36701,13 +36460,13 @@
         <v>9800</v>
       </c>
       <c r="Q403" s="5" t="s">
-        <v>1364</v>
+        <v>1355</v>
       </c>
       <c r="R403" s="5" t="s">
-        <v>1365</v>
+        <v>1356</v>
       </c>
       <c r="W403" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X403" s="5">
         <v>99999999</v>
@@ -36745,10 +36504,10 @@
         <v>1</v>
       </c>
       <c r="G404" s="5" t="s">
-        <v>1366</v>
+        <v>1357</v>
       </c>
       <c r="J404" s="5" t="s">
-        <v>1367</v>
+        <v>1358</v>
       </c>
       <c r="L404" s="5">
         <v>-31</v>
@@ -36766,13 +36525,13 @@
         <v>19800</v>
       </c>
       <c r="Q404" s="5" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="R404" s="5" t="s">
-        <v>1368</v>
+        <v>1359</v>
       </c>
       <c r="W404" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X404" s="5">
         <v>99999999</v>
@@ -36810,10 +36569,10 @@
         <v>1</v>
       </c>
       <c r="G405" s="5" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
       <c r="J405" s="5" t="s">
-        <v>1370</v>
+        <v>1361</v>
       </c>
       <c r="L405" s="5">
         <v>-31</v>
@@ -36831,13 +36590,13 @@
         <v>29800</v>
       </c>
       <c r="Q405" s="5" t="s">
-        <v>1371</v>
+        <v>1362</v>
       </c>
       <c r="R405" s="5" t="s">
-        <v>1372</v>
+        <v>1363</v>
       </c>
       <c r="W405" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X405" s="5">
         <v>99999999</v>
@@ -36875,10 +36634,10 @@
         <v>1</v>
       </c>
       <c r="G406" s="5" t="s">
-        <v>1373</v>
+        <v>1364</v>
       </c>
       <c r="J406" s="5" t="s">
-        <v>1374</v>
+        <v>1365</v>
       </c>
       <c r="L406" s="5">
         <v>-31</v>
@@ -36896,13 +36655,13 @@
         <v>49800</v>
       </c>
       <c r="Q406" s="5" t="s">
-        <v>1376</v>
+        <v>1367</v>
       </c>
       <c r="R406" s="5" t="s">
-        <v>1377</v>
+        <v>1368</v>
       </c>
       <c r="W406" s="5" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="X406" s="5">
         <v>99999999</v>
@@ -36940,10 +36699,10 @@
         <v>1</v>
       </c>
       <c r="G407" s="5" t="s">
-        <v>1379</v>
+        <v>1370</v>
       </c>
       <c r="J407" s="5" t="s">
-        <v>1380</v>
+        <v>1371</v>
       </c>
       <c r="L407" s="5">
         <v>-31</v>
@@ -36955,19 +36714,19 @@
         <v>0</v>
       </c>
       <c r="O407" s="5" t="s">
-        <v>1381</v>
+        <v>1372</v>
       </c>
       <c r="P407" s="5">
         <v>99800</v>
       </c>
       <c r="Q407" s="5" t="s">
-        <v>1375</v>
+        <v>1366</v>
       </c>
       <c r="R407" s="5" t="s">
-        <v>1382</v>
+        <v>1373</v>
       </c>
       <c r="W407" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X407" s="5">
         <v>99999999</v>
@@ -37005,11 +36764,11 @@
         <v>1</v>
       </c>
       <c r="G408" s="49" t="s">
-        <v>1403</v>
+        <v>1394</v>
       </c>
       <c r="H408" s="5"/>
       <c r="J408" s="49" t="s">
-        <v>1404</v>
+        <v>1395</v>
       </c>
       <c r="L408" s="49">
         <v>-31</v>
@@ -37021,16 +36780,16 @@
         <v>0</v>
       </c>
       <c r="O408" s="49" t="s">
-        <v>1405</v>
+        <v>1396</v>
       </c>
       <c r="P408" s="49">
         <v>600</v>
       </c>
       <c r="Q408" s="49" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="R408" s="50" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="W408" s="49" t="s">
         <v>567</v>
@@ -37071,11 +36830,11 @@
         <v>1</v>
       </c>
       <c r="G409" s="49" t="s">
-        <v>1394</v>
+        <v>1385</v>
       </c>
       <c r="H409" s="5"/>
       <c r="J409" s="49" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
       <c r="L409" s="49">
         <v>-31</v>
@@ -37087,19 +36846,19 @@
         <v>0</v>
       </c>
       <c r="O409" s="49" t="s">
-        <v>1405</v>
+        <v>1396</v>
       </c>
       <c r="P409" s="49">
         <v>2000</v>
       </c>
       <c r="Q409" s="49" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="R409" s="50" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
       <c r="W409" s="49" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
       <c r="X409" s="49">
         <v>99999999</v>
@@ -37137,11 +36896,11 @@
         <v>1</v>
       </c>
       <c r="G410" s="49" t="s">
-        <v>1395</v>
+        <v>1386</v>
       </c>
       <c r="H410" s="5"/>
       <c r="J410" s="49" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
       <c r="L410" s="49">
         <v>-31</v>
@@ -37153,16 +36912,16 @@
         <v>0</v>
       </c>
       <c r="O410" s="49" t="s">
-        <v>1405</v>
+        <v>1396</v>
       </c>
       <c r="P410" s="49">
         <v>4800</v>
       </c>
       <c r="Q410" s="49" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="R410" s="50" t="s">
-        <v>1412</v>
+        <v>1403</v>
       </c>
       <c r="W410" s="49" t="s">
         <v>567</v>
@@ -37203,11 +36962,11 @@
         <v>1</v>
       </c>
       <c r="G411" s="49" t="s">
-        <v>1413</v>
+        <v>1404</v>
       </c>
       <c r="H411" s="5"/>
       <c r="J411" s="49" t="s">
-        <v>1396</v>
+        <v>1387</v>
       </c>
       <c r="L411" s="49">
         <v>-31</v>
@@ -37225,13 +36984,13 @@
         <v>9800</v>
       </c>
       <c r="Q411" s="49" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="R411" s="50" t="s">
-        <v>1414</v>
+        <v>1405</v>
       </c>
       <c r="W411" s="49" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
       <c r="X411" s="49">
         <v>99999999</v>
@@ -37269,11 +37028,11 @@
         <v>1</v>
       </c>
       <c r="G412" s="49" t="s">
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="H412" s="5"/>
       <c r="J412" s="49" t="s">
-        <v>1416</v>
+        <v>1407</v>
       </c>
       <c r="L412" s="49">
         <v>-31</v>
@@ -37291,10 +37050,10 @@
         <v>19800</v>
       </c>
       <c r="Q412" s="49" t="s">
-        <v>1393</v>
+        <v>1384</v>
       </c>
       <c r="R412" s="50" t="s">
-        <v>1417</v>
+        <v>1408</v>
       </c>
       <c r="W412" s="49" t="s">
         <v>567</v>
@@ -37335,11 +37094,11 @@
         <v>1</v>
       </c>
       <c r="G413" s="49" t="s">
-        <v>1418</v>
+        <v>1409</v>
       </c>
       <c r="H413" s="5"/>
       <c r="J413" s="49" t="s">
-        <v>1419</v>
+        <v>1410</v>
       </c>
       <c r="L413" s="49">
         <v>-31</v>
@@ -37357,13 +37116,13 @@
         <v>49800</v>
       </c>
       <c r="Q413" s="49" t="s">
-        <v>1393</v>
+        <v>1384</v>
       </c>
       <c r="R413" s="50" t="s">
-        <v>1420</v>
+        <v>1411</v>
       </c>
       <c r="W413" s="49" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
       <c r="X413" s="49">
         <v>99999999</v>
@@ -37404,10 +37163,10 @@
         <v>0</v>
       </c>
       <c r="G414" s="69" t="s">
-        <v>1397</v>
+        <v>1388</v>
       </c>
       <c r="H414" s="69" t="s">
-        <v>1838</v>
+        <v>1797</v>
       </c>
       <c r="L414" s="69">
         <v>-4</v>
@@ -37428,7 +37187,7 @@
         <v>78</v>
       </c>
       <c r="R414" s="74" t="s">
-        <v>1837</v>
+        <v>1796</v>
       </c>
       <c r="W414" s="69" t="s">
         <v>525</v>
@@ -37460,13 +37219,13 @@
         <v>1</v>
       </c>
       <c r="G415" s="6" t="s">
-        <v>1428</v>
+        <v>1419</v>
       </c>
       <c r="I415" s="6" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
       <c r="J415" s="6" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="L415" s="6">
         <v>-31</v>
@@ -37484,10 +37243,10 @@
         <v>600</v>
       </c>
       <c r="Q415" s="5" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="R415" s="52" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="W415" s="6" t="s">
         <v>535</v>
@@ -37528,13 +37287,13 @@
         <v>1</v>
       </c>
       <c r="G416" s="6" t="s">
-        <v>1433</v>
+        <v>1424</v>
       </c>
       <c r="I416" s="6" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
       <c r="J416" s="6" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="L416" s="6">
         <v>-31</v>
@@ -37552,13 +37311,13 @@
         <v>1800</v>
       </c>
       <c r="Q416" s="5" t="s">
-        <v>1434</v>
+        <v>1425</v>
       </c>
       <c r="R416" s="52" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="W416" s="6" t="s">
-        <v>1435</v>
+        <v>1426</v>
       </c>
       <c r="X416" s="14" t="s">
         <v>109</v>
@@ -37596,13 +37355,13 @@
         <v>1</v>
       </c>
       <c r="G417" s="6" t="s">
-        <v>1436</v>
+        <v>1427</v>
       </c>
       <c r="I417" s="6" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
       <c r="J417" s="6" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="L417" s="6">
         <v>-31</v>
@@ -37620,13 +37379,13 @@
         <v>4800</v>
       </c>
       <c r="Q417" s="5" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="R417" s="52" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="W417" s="6" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="X417" s="14" t="s">
         <v>109</v>
@@ -37664,13 +37423,13 @@
         <v>1</v>
       </c>
       <c r="G418" s="6" t="s">
+        <v>1419</v>
+      </c>
+      <c r="I418" s="6" t="s">
         <v>1428</v>
       </c>
-      <c r="I418" s="6" t="s">
-        <v>1437</v>
-      </c>
       <c r="J418" s="6" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="L418" s="6">
         <v>-31</v>
@@ -37688,13 +37447,13 @@
         <v>9800</v>
       </c>
       <c r="Q418" s="5" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="R418" s="52" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="W418" s="6" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="X418" s="14" t="s">
         <v>109</v>
@@ -37732,13 +37491,13 @@
         <v>1</v>
       </c>
       <c r="G419" s="6" t="s">
-        <v>1433</v>
+        <v>1424</v>
       </c>
       <c r="I419" s="6" t="s">
-        <v>1437</v>
+        <v>1428</v>
       </c>
       <c r="J419" s="6" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="L419" s="6">
         <v>-31</v>
@@ -37756,13 +37515,13 @@
         <v>19800</v>
       </c>
       <c r="Q419" s="5" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
       <c r="R419" s="52" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="W419" s="6" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="X419" s="14" t="s">
         <v>109</v>
@@ -37800,13 +37559,13 @@
         <v>1</v>
       </c>
       <c r="G420" s="6" t="s">
-        <v>1436</v>
+        <v>1427</v>
       </c>
       <c r="I420" s="6" t="s">
-        <v>1437</v>
+        <v>1428</v>
       </c>
       <c r="J420" s="6" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="L420" s="6">
         <v>-31</v>
@@ -37824,13 +37583,13 @@
         <v>49800</v>
       </c>
       <c r="Q420" s="5" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
       <c r="R420" s="52" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="W420" s="6" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="X420" s="14" t="s">
         <v>109</v>
@@ -37868,10 +37627,10 @@
         <v>1</v>
       </c>
       <c r="G421" s="19" t="s">
-        <v>1438</v>
+        <v>1429</v>
       </c>
       <c r="J421" s="19" t="s">
-        <v>1439</v>
+        <v>1430</v>
       </c>
       <c r="L421" s="19">
         <v>-31</v>
@@ -37883,19 +37642,19 @@
         <v>0</v>
       </c>
       <c r="O421" s="19" t="s">
-        <v>1440</v>
+        <v>1431</v>
       </c>
       <c r="P421" s="19">
         <v>1000</v>
       </c>
       <c r="Q421" s="19" t="s">
-        <v>1441</v>
+        <v>1432</v>
       </c>
       <c r="R421" s="39" t="s">
-        <v>1442</v>
+        <v>1433</v>
       </c>
       <c r="W421" s="19" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="X421" s="19">
         <v>9999999</v>
@@ -37907,10 +37666,10 @@
         <v>2552233600</v>
       </c>
       <c r="AB421" s="19" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="AC421" s="19" t="s">
-        <v>1445</v>
+        <v>1436</v>
       </c>
       <c r="AH421" s="19">
         <v>1</v>
@@ -37936,14 +37695,14 @@
         <v>1</v>
       </c>
       <c r="G422" s="53" t="s">
-        <v>1462</v>
+        <v>1453</v>
       </c>
       <c r="H422" s="6"/>
       <c r="I422" s="53" t="s">
-        <v>1463</v>
+        <v>1454</v>
       </c>
       <c r="J422" s="53" t="s">
-        <v>1464</v>
+        <v>1455</v>
       </c>
       <c r="L422" s="53">
         <v>-31</v>
@@ -37961,13 +37720,13 @@
         <v>2000</v>
       </c>
       <c r="Q422" s="53" t="s">
-        <v>1465</v>
+        <v>1456</v>
       </c>
       <c r="R422" s="54" t="s">
-        <v>1466</v>
+        <v>1457</v>
       </c>
       <c r="W422" s="53" t="s">
-        <v>1467</v>
+        <v>1458</v>
       </c>
       <c r="X422" s="53">
         <v>99999999</v>
@@ -38005,14 +37764,14 @@
         <v>1</v>
       </c>
       <c r="G423" s="53" t="s">
-        <v>1447</v>
+        <v>1438</v>
       </c>
       <c r="H423" s="6"/>
       <c r="I423" s="53" t="s">
-        <v>1446</v>
+        <v>1437</v>
       </c>
       <c r="J423" s="53" t="s">
-        <v>1468</v>
+        <v>1459</v>
       </c>
       <c r="L423" s="53">
         <v>-31</v>
@@ -38030,10 +37789,10 @@
         <v>5800</v>
       </c>
       <c r="Q423" s="53" t="s">
-        <v>1469</v>
+        <v>1460</v>
       </c>
       <c r="R423" s="54" t="s">
-        <v>1470</v>
+        <v>1461</v>
       </c>
       <c r="W423" s="53" t="s">
         <v>991</v>
@@ -38074,14 +37833,14 @@
         <v>1</v>
       </c>
       <c r="G424" s="53" t="s">
-        <v>1471</v>
+        <v>1462</v>
       </c>
       <c r="H424" s="6"/>
       <c r="I424" s="53" t="s">
-        <v>1446</v>
+        <v>1437</v>
       </c>
       <c r="J424" s="53" t="s">
-        <v>1472</v>
+        <v>1463</v>
       </c>
       <c r="L424" s="53">
         <v>-31</v>
@@ -38099,10 +37858,10 @@
         <v>12800</v>
       </c>
       <c r="Q424" s="53" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="R424" s="54" t="s">
-        <v>1474</v>
+        <v>1465</v>
       </c>
       <c r="W424" s="53" t="s">
         <v>991</v>
@@ -38143,10 +37902,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="6" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
       <c r="J425" s="6" t="s">
-        <v>1449</v>
+        <v>1440</v>
       </c>
       <c r="L425" s="6">
         <v>-31</v>
@@ -38164,10 +37923,10 @@
         <v>49800</v>
       </c>
       <c r="Q425" s="6" t="s">
-        <v>1450</v>
+        <v>1441</v>
       </c>
       <c r="R425" s="52" t="s">
-        <v>1451</v>
+        <v>1442</v>
       </c>
       <c r="W425" s="6" t="s">
         <v>569</v>
@@ -38199,10 +37958,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
       <c r="J426" s="6" t="s">
-        <v>1453</v>
+        <v>1444</v>
       </c>
       <c r="L426" s="6">
         <v>-31</v>
@@ -38220,13 +37979,13 @@
         <v>19800</v>
       </c>
       <c r="Q426" s="6" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
       <c r="R426" s="52" t="s">
-        <v>1451</v>
+        <v>1442</v>
       </c>
       <c r="W426" s="6" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="X426" s="6">
         <v>9999999</v>
@@ -38255,10 +38014,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="6" t="s">
-        <v>1455</v>
+        <v>1446</v>
       </c>
       <c r="J427" s="6" t="s">
-        <v>1426</v>
+        <v>1417</v>
       </c>
       <c r="L427" s="6">
         <v>-31</v>
@@ -38276,13 +38035,13 @@
         <v>9800</v>
       </c>
       <c r="Q427" s="6" t="s">
-        <v>1456</v>
+        <v>1447</v>
       </c>
       <c r="R427" s="52" t="s">
-        <v>1451</v>
+        <v>1442</v>
       </c>
       <c r="W427" s="6" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="X427" s="6">
         <v>9999999</v>
@@ -38311,10 +38070,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>1457</v>
+        <v>1448</v>
       </c>
       <c r="J428" s="6" t="s">
-        <v>1458</v>
+        <v>1449</v>
       </c>
       <c r="L428" s="6">
         <v>-31</v>
@@ -38332,13 +38091,13 @@
         <v>9800</v>
       </c>
       <c r="Q428" s="6" t="s">
-        <v>1459</v>
+        <v>1450</v>
       </c>
       <c r="R428" s="52" t="s">
-        <v>1451</v>
+        <v>1442</v>
       </c>
       <c r="W428" s="6" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="X428" s="6">
         <v>9999999</v>
@@ -38367,10 +38126,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="6" t="s">
-        <v>1427</v>
+        <v>1418</v>
       </c>
       <c r="J429" s="6" t="s">
-        <v>1460</v>
+        <v>1451</v>
       </c>
       <c r="L429" s="6">
         <v>-31</v>
@@ -38388,13 +38147,13 @@
         <v>4800</v>
       </c>
       <c r="Q429" s="6" t="s">
-        <v>1461</v>
+        <v>1452</v>
       </c>
       <c r="R429" s="52" t="s">
-        <v>1451</v>
+        <v>1442</v>
       </c>
       <c r="W429" s="6" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="X429" s="6">
         <v>9999999</v>
@@ -38423,13 +38182,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="43" t="s">
-        <v>1724</v>
+        <v>1715</v>
       </c>
       <c r="I430" s="43" t="s">
-        <v>1725</v>
+        <v>1716</v>
       </c>
       <c r="J430" s="43" t="s">
-        <v>1726</v>
+        <v>1717</v>
       </c>
       <c r="L430" s="43">
         <v>-28</v>
@@ -38447,13 +38206,13 @@
         <v>100</v>
       </c>
       <c r="Q430" s="43" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="R430" s="66" t="s">
-        <v>1727</v>
+        <v>1718</v>
       </c>
       <c r="W430" s="43" t="s">
-        <v>1728</v>
+        <v>1719</v>
       </c>
       <c r="X430" s="43">
         <v>9999999</v>
@@ -38491,13 +38250,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="43" t="s">
-        <v>1724</v>
+        <v>1715</v>
       </c>
       <c r="I431" s="43" t="s">
-        <v>1729</v>
+        <v>1720</v>
       </c>
       <c r="J431" s="43" t="s">
-        <v>1730</v>
+        <v>1721</v>
       </c>
       <c r="L431" s="43">
         <v>-28</v>
@@ -38515,10 +38274,10 @@
         <v>300</v>
       </c>
       <c r="Q431" s="43" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="R431" s="66" t="s">
-        <v>1731</v>
+        <v>1722</v>
       </c>
       <c r="W431" s="43" t="s">
         <v>528</v>
@@ -38559,13 +38318,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="43" t="s">
+        <v>1715</v>
+      </c>
+      <c r="I432" s="43" t="s">
+        <v>1723</v>
+      </c>
+      <c r="J432" s="43" t="s">
         <v>1724</v>
-      </c>
-      <c r="I432" s="43" t="s">
-        <v>1732</v>
-      </c>
-      <c r="J432" s="43" t="s">
-        <v>1733</v>
       </c>
       <c r="L432" s="43">
         <v>-28</v>
@@ -38583,10 +38342,10 @@
         <v>600</v>
       </c>
       <c r="Q432" s="43" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="R432" s="66" t="s">
-        <v>1734</v>
+        <v>1725</v>
       </c>
       <c r="W432" s="43" t="s">
         <v>528</v>
@@ -38627,13 +38386,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="43" t="s">
-        <v>1724</v>
+        <v>1715</v>
       </c>
       <c r="I433" s="43" t="s">
-        <v>1735</v>
+        <v>1726</v>
       </c>
       <c r="J433" s="43" t="s">
-        <v>1736</v>
+        <v>1727</v>
       </c>
       <c r="L433" s="43">
         <v>-28</v>
@@ -38651,10 +38410,10 @@
         <v>600</v>
       </c>
       <c r="Q433" s="43" t="s">
-        <v>1737</v>
+        <v>1728</v>
       </c>
       <c r="R433" s="66" t="s">
-        <v>1738</v>
+        <v>1729</v>
       </c>
       <c r="W433" s="43" t="s">
         <v>528</v>
@@ -38695,14 +38454,14 @@
         <v>1</v>
       </c>
       <c r="G434" s="55" t="s">
-        <v>1352</v>
+        <v>1343</v>
       </c>
       <c r="H434" s="5"/>
       <c r="I434" s="55" t="s">
-        <v>1475</v>
+        <v>1466</v>
       </c>
       <c r="J434" s="55" t="s">
-        <v>1476</v>
+        <v>1467</v>
       </c>
       <c r="L434" s="55">
         <v>-31</v>
@@ -38720,10 +38479,10 @@
         <v>1800</v>
       </c>
       <c r="Q434" s="55" t="s">
-        <v>1477</v>
+        <v>1468</v>
       </c>
       <c r="R434" s="56" t="s">
-        <v>1356</v>
+        <v>1347</v>
       </c>
       <c r="W434" s="55" t="s">
         <v>528</v>
@@ -38761,14 +38520,14 @@
         <v>1</v>
       </c>
       <c r="G435" s="55" t="s">
-        <v>1478</v>
+        <v>1469</v>
       </c>
       <c r="H435" s="5"/>
       <c r="I435" s="55" t="s">
-        <v>1479</v>
+        <v>1470</v>
       </c>
       <c r="J435" s="55" t="s">
-        <v>1480</v>
+        <v>1471</v>
       </c>
       <c r="L435" s="55">
         <v>-31</v>
@@ -38786,10 +38545,10 @@
         <v>4800</v>
       </c>
       <c r="Q435" s="55" t="s">
-        <v>1477</v>
+        <v>1468</v>
       </c>
       <c r="R435" s="56" t="s">
-        <v>1481</v>
+        <v>1472</v>
       </c>
       <c r="W435" s="55" t="s">
         <v>528</v>
@@ -38827,14 +38586,14 @@
         <v>1</v>
       </c>
       <c r="G436" s="55" t="s">
-        <v>1482</v>
+        <v>1473</v>
       </c>
       <c r="H436" s="5"/>
       <c r="I436" s="55" t="s">
-        <v>1483</v>
+        <v>1474</v>
       </c>
       <c r="J436" s="55" t="s">
-        <v>1484</v>
+        <v>1475</v>
       </c>
       <c r="L436" s="55">
         <v>-31</v>
@@ -38852,10 +38611,10 @@
         <v>9800</v>
       </c>
       <c r="Q436" s="55" t="s">
-        <v>1485</v>
+        <v>1476</v>
       </c>
       <c r="R436" s="56" t="s">
-        <v>1486</v>
+        <v>1477</v>
       </c>
       <c r="W436" s="55" t="s">
         <v>528</v>
@@ -38893,14 +38652,14 @@
         <v>1</v>
       </c>
       <c r="G437" s="55" t="s">
-        <v>1366</v>
+        <v>1357</v>
       </c>
       <c r="H437" s="5"/>
       <c r="I437" s="55" t="s">
-        <v>1475</v>
+        <v>1466</v>
       </c>
       <c r="J437" s="55" t="s">
-        <v>1487</v>
+        <v>1478</v>
       </c>
       <c r="L437" s="55">
         <v>-31</v>
@@ -38918,10 +38677,10 @@
         <v>19800</v>
       </c>
       <c r="Q437" s="55" t="s">
-        <v>1488</v>
+        <v>1479</v>
       </c>
       <c r="R437" s="56" t="s">
-        <v>1489</v>
+        <v>1480</v>
       </c>
       <c r="W437" s="55" t="s">
         <v>528</v>
@@ -38959,14 +38718,14 @@
         <v>1</v>
       </c>
       <c r="G438" s="55" t="s">
-        <v>1490</v>
+        <v>1481</v>
       </c>
       <c r="H438" s="5"/>
       <c r="I438" s="55" t="s">
-        <v>1475</v>
+        <v>1466</v>
       </c>
       <c r="J438" s="55" t="s">
-        <v>1491</v>
+        <v>1482</v>
       </c>
       <c r="L438" s="55">
         <v>-31</v>
@@ -38984,10 +38743,10 @@
         <v>29800</v>
       </c>
       <c r="Q438" s="55" t="s">
-        <v>1485</v>
+        <v>1476</v>
       </c>
       <c r="R438" s="56" t="s">
-        <v>1372</v>
+        <v>1363</v>
       </c>
       <c r="W438" s="55" t="s">
         <v>528</v>
@@ -39025,14 +38784,14 @@
         <v>1</v>
       </c>
       <c r="G439" s="55" t="s">
-        <v>1492</v>
+        <v>1483</v>
       </c>
       <c r="H439" s="5"/>
       <c r="I439" s="55" t="s">
-        <v>1475</v>
+        <v>1466</v>
       </c>
       <c r="J439" s="55" t="s">
-        <v>1493</v>
+        <v>1484</v>
       </c>
       <c r="L439" s="55">
         <v>-31</v>
@@ -39050,10 +38809,10 @@
         <v>49800</v>
       </c>
       <c r="Q439" s="55" t="s">
-        <v>1494</v>
+        <v>1485</v>
       </c>
       <c r="R439" s="56" t="s">
-        <v>1495</v>
+        <v>1486</v>
       </c>
       <c r="W439" s="55" t="s">
         <v>528</v>
@@ -39091,14 +38850,14 @@
         <v>1</v>
       </c>
       <c r="G440" s="55" t="s">
-        <v>1496</v>
+        <v>1487</v>
       </c>
       <c r="H440" s="5"/>
       <c r="I440" s="55" t="s">
-        <v>1483</v>
+        <v>1474</v>
       </c>
       <c r="J440" s="55" t="s">
-        <v>1497</v>
+        <v>1488</v>
       </c>
       <c r="L440" s="55">
         <v>-31</v>
@@ -39116,10 +38875,10 @@
         <v>99800</v>
       </c>
       <c r="Q440" s="55" t="s">
-        <v>1494</v>
+        <v>1485</v>
       </c>
       <c r="R440" s="56" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
       <c r="W440" s="55" t="s">
         <v>528</v>
@@ -39157,11 +38916,11 @@
         <v>1</v>
       </c>
       <c r="G441" s="53" t="s">
-        <v>1499</v>
+        <v>1490</v>
       </c>
       <c r="H441" s="5"/>
       <c r="J441" s="53" t="s">
-        <v>1500</v>
+        <v>1491</v>
       </c>
       <c r="L441" s="53">
         <v>-31</v>
@@ -39179,13 +38938,13 @@
         <v>49800</v>
       </c>
       <c r="Q441" s="53" t="s">
-        <v>1501</v>
+        <v>1492</v>
       </c>
       <c r="R441" s="54" t="s">
-        <v>1502</v>
+        <v>1493</v>
       </c>
       <c r="W441" s="53" t="s">
-        <v>1503</v>
+        <v>1494</v>
       </c>
       <c r="X441" s="53">
         <v>9999999</v>
@@ -39220,11 +38979,11 @@
         <v>1</v>
       </c>
       <c r="G442" s="53" t="s">
-        <v>1504</v>
+        <v>1495</v>
       </c>
       <c r="H442" s="5"/>
       <c r="J442" s="53" t="s">
-        <v>1505</v>
+        <v>1496</v>
       </c>
       <c r="L442" s="53">
         <v>-31</v>
@@ -39242,13 +39001,13 @@
         <v>19800</v>
       </c>
       <c r="Q442" s="53" t="s">
-        <v>1501</v>
+        <v>1492</v>
       </c>
       <c r="R442" s="54" t="s">
-        <v>1506</v>
+        <v>1497</v>
       </c>
       <c r="W442" s="53" t="s">
-        <v>1503</v>
+        <v>1494</v>
       </c>
       <c r="X442" s="53">
         <v>9999999</v>
@@ -39283,11 +39042,11 @@
         <v>1</v>
       </c>
       <c r="G443" s="53" t="s">
-        <v>1507</v>
+        <v>1498</v>
       </c>
       <c r="H443" s="5"/>
       <c r="J443" s="53" t="s">
-        <v>1508</v>
+        <v>1499</v>
       </c>
       <c r="L443" s="53">
         <v>-31</v>
@@ -39305,13 +39064,13 @@
         <v>9800</v>
       </c>
       <c r="Q443" s="53" t="s">
-        <v>1501</v>
+        <v>1492</v>
       </c>
       <c r="R443" s="54" t="s">
-        <v>1509</v>
+        <v>1500</v>
       </c>
       <c r="W443" s="53" t="s">
-        <v>1503</v>
+        <v>1494</v>
       </c>
       <c r="X443" s="53">
         <v>9999999</v>
@@ -39346,11 +39105,11 @@
         <v>1</v>
       </c>
       <c r="G444" s="53" t="s">
-        <v>1510</v>
+        <v>1501</v>
       </c>
       <c r="H444" s="5"/>
       <c r="J444" s="53" t="s">
-        <v>1511</v>
+        <v>1502</v>
       </c>
       <c r="L444" s="53">
         <v>-31</v>
@@ -39368,13 +39127,13 @@
         <v>4800</v>
       </c>
       <c r="Q444" s="53" t="s">
-        <v>1501</v>
+        <v>1492</v>
       </c>
       <c r="R444" s="54" t="s">
-        <v>1512</v>
+        <v>1503</v>
       </c>
       <c r="W444" s="53" t="s">
-        <v>1513</v>
+        <v>1504</v>
       </c>
       <c r="X444" s="53">
         <v>9999999</v>
@@ -39409,11 +39168,11 @@
         <v>1</v>
       </c>
       <c r="G445" s="53" t="s">
-        <v>1514</v>
+        <v>1505</v>
       </c>
       <c r="H445" s="5"/>
       <c r="J445" s="53" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="L445" s="53">
         <v>-31</v>
@@ -39431,13 +39190,13 @@
         <v>2000</v>
       </c>
       <c r="Q445" s="53" t="s">
-        <v>1501</v>
+        <v>1492</v>
       </c>
       <c r="R445" s="54" t="s">
-        <v>1516</v>
+        <v>1507</v>
       </c>
       <c r="W445" s="53" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X445" s="53">
         <v>9999999</v>
@@ -39472,11 +39231,11 @@
         <v>1</v>
       </c>
       <c r="G446" s="53" t="s">
-        <v>1517</v>
+        <v>1508</v>
       </c>
       <c r="H446" s="5"/>
       <c r="J446" s="53" t="s">
-        <v>1518</v>
+        <v>1509</v>
       </c>
       <c r="L446" s="53">
         <v>-31</v>
@@ -39494,13 +39253,13 @@
         <v>600</v>
       </c>
       <c r="Q446" s="53" t="s">
-        <v>1501</v>
+        <v>1492</v>
       </c>
       <c r="R446" s="54" t="s">
-        <v>1519</v>
+        <v>1510</v>
       </c>
       <c r="W446" s="53" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X446" s="53">
         <v>9999999</v>
@@ -39535,13 +39294,13 @@
         <v>1</v>
       </c>
       <c r="G447" s="57" t="s">
-        <v>1520</v>
+        <v>1511</v>
       </c>
       <c r="I447" s="57" t="s">
-        <v>1521</v>
+        <v>1512</v>
       </c>
       <c r="J447" s="57" t="s">
-        <v>1522</v>
+        <v>1513</v>
       </c>
       <c r="L447" s="57">
         <v>-31</v>
@@ -39559,13 +39318,13 @@
         <v>800</v>
       </c>
       <c r="Q447" s="57" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R447" s="58" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
       <c r="W447" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X447" s="57">
         <v>9999999</v>
@@ -39603,13 +39362,13 @@
         <v>1</v>
       </c>
       <c r="G448" s="57" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
       <c r="I448" s="57" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
       <c r="J448" s="57" t="s">
-        <v>1527</v>
+        <v>1518</v>
       </c>
       <c r="L448" s="57">
         <v>-31</v>
@@ -39627,13 +39386,13 @@
         <v>800</v>
       </c>
       <c r="Q448" s="57" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R448" s="58" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
       <c r="W448" s="5" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
       <c r="X448" s="57">
         <v>9999999</v>
@@ -39668,13 +39427,13 @@
         <v>1</v>
       </c>
       <c r="G449" s="57" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
       <c r="I449" s="57" t="s">
-        <v>1531</v>
+        <v>1522</v>
       </c>
       <c r="J449" s="57" t="s">
-        <v>1532</v>
+        <v>1523</v>
       </c>
       <c r="L449" s="57">
         <v>-31</v>
@@ -39692,10 +39451,10 @@
         <v>800</v>
       </c>
       <c r="Q449" s="57" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R449" s="58" t="s">
-        <v>1533</v>
+        <v>1524</v>
       </c>
       <c r="W449" s="5" t="s">
         <v>528</v>
@@ -39736,13 +39495,13 @@
         <v>1</v>
       </c>
       <c r="G450" s="59" t="s">
-        <v>1534</v>
+        <v>1525</v>
       </c>
       <c r="I450" s="59" t="s">
-        <v>1535</v>
+        <v>1526</v>
       </c>
       <c r="J450" s="59" t="s">
-        <v>1536</v>
+        <v>1527</v>
       </c>
       <c r="L450" s="59">
         <v>-31</v>
@@ -39760,10 +39519,10 @@
         <v>3800</v>
       </c>
       <c r="Q450" s="59" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R450" s="60" t="s">
-        <v>1537</v>
+        <v>1528</v>
       </c>
       <c r="W450" s="5" t="s">
         <v>528</v>
@@ -39804,13 +39563,13 @@
         <v>1</v>
       </c>
       <c r="G451" s="59" t="s">
-        <v>1538</v>
+        <v>1529</v>
       </c>
       <c r="I451" s="59" t="s">
-        <v>1539</v>
+        <v>1530</v>
       </c>
       <c r="J451" s="59" t="s">
-        <v>1540</v>
+        <v>1531</v>
       </c>
       <c r="L451" s="59">
         <v>-31</v>
@@ -39828,10 +39587,10 @@
         <v>3800</v>
       </c>
       <c r="Q451" s="59" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R451" s="60" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
       <c r="W451" s="5" t="s">
         <v>528</v>
@@ -39869,13 +39628,13 @@
         <v>1</v>
       </c>
       <c r="G452" s="59" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
       <c r="I452" s="59" t="s">
-        <v>1543</v>
+        <v>1534</v>
       </c>
       <c r="J452" s="59" t="s">
-        <v>1544</v>
+        <v>1535</v>
       </c>
       <c r="L452" s="59">
         <v>-31</v>
@@ -39893,10 +39652,10 @@
         <v>3800</v>
       </c>
       <c r="Q452" s="59" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R452" s="60" t="s">
-        <v>1545</v>
+        <v>1536</v>
       </c>
       <c r="W452" s="5" t="s">
         <v>528</v>
@@ -39937,13 +39696,13 @@
         <v>1</v>
       </c>
       <c r="G453" s="57" t="s">
-        <v>1546</v>
+        <v>1537</v>
       </c>
       <c r="I453" s="57" t="s">
-        <v>1547</v>
+        <v>1538</v>
       </c>
       <c r="J453" s="57" t="s">
-        <v>1548</v>
+        <v>1539</v>
       </c>
       <c r="L453" s="57">
         <v>-31</v>
@@ -39961,10 +39720,10 @@
         <v>9800</v>
       </c>
       <c r="Q453" s="57" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R453" s="58" t="s">
-        <v>1549</v>
+        <v>1540</v>
       </c>
       <c r="W453" s="5" t="s">
         <v>528</v>
@@ -40005,13 +39764,13 @@
         <v>1</v>
       </c>
       <c r="G454" s="57" t="s">
-        <v>1550</v>
+        <v>1541</v>
       </c>
       <c r="I454" s="57" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="J454" s="57" t="s">
-        <v>1552</v>
+        <v>1543</v>
       </c>
       <c r="L454" s="57">
         <v>-31</v>
@@ -40032,7 +39791,7 @@
         <v>998</v>
       </c>
       <c r="R454" s="58" t="s">
-        <v>1553</v>
+        <v>1544</v>
       </c>
       <c r="W454" s="5" t="s">
         <v>528</v>
@@ -40070,13 +39829,13 @@
         <v>1</v>
       </c>
       <c r="G455" s="57" t="s">
-        <v>1554</v>
+        <v>1545</v>
       </c>
       <c r="I455" s="57" t="s">
-        <v>1555</v>
+        <v>1546</v>
       </c>
       <c r="J455" s="57" t="s">
-        <v>1556</v>
+        <v>1547</v>
       </c>
       <c r="L455" s="57">
         <v>-31</v>
@@ -40094,10 +39853,10 @@
         <v>9800</v>
       </c>
       <c r="Q455" s="57" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R455" s="58" t="s">
-        <v>1689</v>
+        <v>1680</v>
       </c>
       <c r="W455" s="5" t="s">
         <v>528</v>
@@ -40138,13 +39897,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="59" t="s">
-        <v>1557</v>
+        <v>1548</v>
       </c>
       <c r="I456" s="59" t="s">
-        <v>1558</v>
+        <v>1549</v>
       </c>
       <c r="J456" s="59" t="s">
-        <v>1559</v>
+        <v>1550</v>
       </c>
       <c r="L456" s="59">
         <v>-31</v>
@@ -40165,7 +39924,7 @@
         <v>998</v>
       </c>
       <c r="R456" s="60" t="s">
-        <v>1560</v>
+        <v>1551</v>
       </c>
       <c r="W456" s="5" t="s">
         <v>528</v>
@@ -40206,13 +39965,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="59" t="s">
-        <v>1561</v>
+        <v>1552</v>
       </c>
       <c r="I457" s="59" t="s">
-        <v>1562</v>
+        <v>1553</v>
       </c>
       <c r="J457" s="59" t="s">
-        <v>1563</v>
+        <v>1554</v>
       </c>
       <c r="L457" s="59">
         <v>-31</v>
@@ -40230,10 +39989,10 @@
         <v>19800</v>
       </c>
       <c r="Q457" s="59" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R457" s="60" t="s">
-        <v>1564</v>
+        <v>1555</v>
       </c>
       <c r="W457" s="5" t="s">
         <v>528</v>
@@ -40271,13 +40030,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="59" t="s">
-        <v>1565</v>
+        <v>1556</v>
       </c>
       <c r="I458" s="59" t="s">
-        <v>1566</v>
+        <v>1557</v>
       </c>
       <c r="J458" s="59" t="s">
-        <v>1567</v>
+        <v>1558</v>
       </c>
       <c r="L458" s="59">
         <v>-31</v>
@@ -40298,7 +40057,7 @@
         <v>998</v>
       </c>
       <c r="R458" s="60" t="s">
-        <v>1568</v>
+        <v>1559</v>
       </c>
       <c r="W458" s="5" t="s">
         <v>528</v>
@@ -40339,13 +40098,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="57" t="s">
-        <v>1569</v>
+        <v>1560</v>
       </c>
       <c r="I459" s="57" t="s">
-        <v>1570</v>
+        <v>1561</v>
       </c>
       <c r="J459" s="57" t="s">
-        <v>1571</v>
+        <v>1562</v>
       </c>
       <c r="L459" s="57">
         <v>-31</v>
@@ -40363,10 +40122,10 @@
         <v>49800</v>
       </c>
       <c r="Q459" s="57" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R459" s="58" t="s">
-        <v>1572</v>
+        <v>1563</v>
       </c>
       <c r="W459" s="5" t="s">
         <v>528</v>
@@ -40407,13 +40166,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="57" t="s">
-        <v>1573</v>
+        <v>1564</v>
       </c>
       <c r="I460" s="57" t="s">
-        <v>1574</v>
+        <v>1565</v>
       </c>
       <c r="J460" s="57" t="s">
-        <v>1575</v>
+        <v>1566</v>
       </c>
       <c r="L460" s="57">
         <v>-31</v>
@@ -40431,10 +40190,10 @@
         <v>49800</v>
       </c>
       <c r="Q460" s="57" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R460" s="58" t="s">
-        <v>1576</v>
+        <v>1567</v>
       </c>
       <c r="W460" s="5" t="s">
         <v>528</v>
@@ -40472,13 +40231,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="57" t="s">
-        <v>1577</v>
+        <v>1568</v>
       </c>
       <c r="I461" s="57" t="s">
-        <v>1578</v>
+        <v>1569</v>
       </c>
       <c r="J461" s="57" t="s">
-        <v>1579</v>
+        <v>1570</v>
       </c>
       <c r="L461" s="57">
         <v>-31</v>
@@ -40496,10 +40255,10 @@
         <v>49800</v>
       </c>
       <c r="Q461" s="57" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R461" s="58" t="s">
-        <v>1580</v>
+        <v>1571</v>
       </c>
       <c r="W461" s="5" t="s">
         <v>528</v>
@@ -40540,13 +40299,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="59" t="s">
-        <v>1581</v>
+        <v>1572</v>
       </c>
       <c r="I462" s="59" t="s">
-        <v>1582</v>
+        <v>1573</v>
       </c>
       <c r="J462" s="59" t="s">
-        <v>1583</v>
+        <v>1574</v>
       </c>
       <c r="L462" s="59">
         <v>-31</v>
@@ -40567,7 +40326,7 @@
         <v>998</v>
       </c>
       <c r="R462" s="60" t="s">
-        <v>1584</v>
+        <v>1575</v>
       </c>
       <c r="W462" s="5" t="s">
         <v>528</v>
@@ -40608,13 +40367,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="59" t="s">
-        <v>1585</v>
+        <v>1576</v>
       </c>
       <c r="I463" s="59" t="s">
-        <v>1586</v>
+        <v>1577</v>
       </c>
       <c r="J463" s="59" t="s">
-        <v>1587</v>
+        <v>1578</v>
       </c>
       <c r="L463" s="59">
         <v>-31</v>
@@ -40632,10 +40391,10 @@
         <v>99800</v>
       </c>
       <c r="Q463" s="59" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R463" s="60" t="s">
-        <v>1588</v>
+        <v>1579</v>
       </c>
       <c r="W463" s="5" t="s">
         <v>528</v>
@@ -40673,13 +40432,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="59" t="s">
-        <v>1589</v>
+        <v>1580</v>
       </c>
       <c r="I464" s="59" t="s">
-        <v>1590</v>
+        <v>1581</v>
       </c>
       <c r="J464" s="59" t="s">
-        <v>1591</v>
+        <v>1582</v>
       </c>
       <c r="L464" s="59">
         <v>-31</v>
@@ -40700,7 +40459,7 @@
         <v>998</v>
       </c>
       <c r="R464" s="60" t="s">
-        <v>1592</v>
+        <v>1583</v>
       </c>
       <c r="W464" s="5" t="s">
         <v>528</v>
@@ -40741,13 +40500,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="57" t="s">
-        <v>1593</v>
+        <v>1584</v>
       </c>
       <c r="I465" s="57" t="s">
-        <v>1594</v>
+        <v>1585</v>
       </c>
       <c r="J465" s="57" t="s">
-        <v>1595</v>
+        <v>1586</v>
       </c>
       <c r="L465" s="57">
         <v>-31</v>
@@ -40765,10 +40524,10 @@
         <v>249800</v>
       </c>
       <c r="Q465" s="57" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R465" s="58" t="s">
-        <v>1596</v>
+        <v>1587</v>
       </c>
       <c r="W465" s="5" t="s">
         <v>528</v>
@@ -40809,13 +40568,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="57" t="s">
-        <v>1597</v>
+        <v>1588</v>
       </c>
       <c r="I466" s="57" t="s">
-        <v>1598</v>
+        <v>1589</v>
       </c>
       <c r="J466" s="57" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
       <c r="L466" s="57">
         <v>-31</v>
@@ -40833,10 +40592,10 @@
         <v>249800</v>
       </c>
       <c r="Q466" s="57" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R466" s="58" t="s">
-        <v>1600</v>
+        <v>1591</v>
       </c>
       <c r="W466" s="5" t="s">
         <v>528</v>
@@ -40874,13 +40633,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="57" t="s">
-        <v>1601</v>
+        <v>1592</v>
       </c>
       <c r="I467" s="57" t="s">
-        <v>1602</v>
+        <v>1593</v>
       </c>
       <c r="J467" s="57" t="s">
-        <v>1603</v>
+        <v>1594</v>
       </c>
       <c r="L467" s="57">
         <v>-31</v>
@@ -40898,10 +40657,10 @@
         <v>249800</v>
       </c>
       <c r="Q467" s="57" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R467" s="58" t="s">
-        <v>1604</v>
+        <v>1595</v>
       </c>
       <c r="W467" s="5" t="s">
         <v>528</v>
@@ -40942,13 +40701,13 @@
         <v>1</v>
       </c>
       <c r="G468" s="61" t="s">
-        <v>1605</v>
+        <v>1596</v>
       </c>
       <c r="I468" s="61" t="s">
-        <v>1606</v>
+        <v>1597</v>
       </c>
       <c r="J468" s="61" t="s">
-        <v>1607</v>
+        <v>1598</v>
       </c>
       <c r="L468" s="61">
         <v>-31</v>
@@ -40966,13 +40725,13 @@
         <v>600</v>
       </c>
       <c r="Q468" s="61" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R468" s="62" t="s">
-        <v>1608</v>
+        <v>1599</v>
       </c>
       <c r="W468" s="61" t="s">
-        <v>1610</v>
+        <v>1601</v>
       </c>
       <c r="X468" s="61">
         <v>9999999</v>
@@ -41007,13 +40766,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="61" t="s">
-        <v>1611</v>
+        <v>1602</v>
       </c>
       <c r="I469" s="61" t="s">
-        <v>1612</v>
+        <v>1603</v>
       </c>
       <c r="J469" s="61" t="s">
-        <v>1613</v>
+        <v>1604</v>
       </c>
       <c r="L469" s="61">
         <v>-31</v>
@@ -41034,10 +40793,10 @@
         <v>998</v>
       </c>
       <c r="R469" s="62" t="s">
-        <v>1614</v>
+        <v>1605</v>
       </c>
       <c r="W469" s="61" t="s">
-        <v>1609</v>
+        <v>1600</v>
       </c>
       <c r="X469" s="61">
         <v>9999999</v>
@@ -41072,13 +40831,13 @@
         <v>1</v>
       </c>
       <c r="G470" s="61" t="s">
-        <v>1615</v>
+        <v>1606</v>
       </c>
       <c r="I470" s="61" t="s">
-        <v>1612</v>
+        <v>1603</v>
       </c>
       <c r="J470" s="61" t="s">
-        <v>1616</v>
+        <v>1607</v>
       </c>
       <c r="L470" s="61">
         <v>-31</v>
@@ -41096,13 +40855,13 @@
         <v>6800</v>
       </c>
       <c r="Q470" s="61" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R470" s="62" t="s">
-        <v>1617</v>
+        <v>1608</v>
       </c>
       <c r="W470" s="61" t="s">
-        <v>1610</v>
+        <v>1601</v>
       </c>
       <c r="X470" s="61">
         <v>9999999</v>
@@ -41137,13 +40896,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="61" t="s">
-        <v>1618</v>
+        <v>1609</v>
       </c>
       <c r="I471" s="61" t="s">
-        <v>1606</v>
+        <v>1597</v>
       </c>
       <c r="J471" s="61" t="s">
-        <v>1619</v>
+        <v>1610</v>
       </c>
       <c r="L471" s="61">
         <v>-31</v>
@@ -41161,13 +40920,13 @@
         <v>9800</v>
       </c>
       <c r="Q471" s="61" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R471" s="62" t="s">
-        <v>1620</v>
+        <v>1611</v>
       </c>
       <c r="W471" s="61" t="s">
-        <v>1621</v>
+        <v>1612</v>
       </c>
       <c r="X471" s="61">
         <v>9999999</v>
@@ -41202,13 +40961,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="61" t="s">
-        <v>1622</v>
+        <v>1613</v>
       </c>
       <c r="I472" s="61" t="s">
-        <v>1606</v>
+        <v>1597</v>
       </c>
       <c r="J472" s="61" t="s">
-        <v>1623</v>
+        <v>1614</v>
       </c>
       <c r="L472" s="61">
         <v>-31</v>
@@ -41229,10 +40988,10 @@
         <v>998</v>
       </c>
       <c r="R472" s="62" t="s">
-        <v>1624</v>
+        <v>1615</v>
       </c>
       <c r="W472" s="61" t="s">
-        <v>1621</v>
+        <v>1612</v>
       </c>
       <c r="X472" s="61">
         <v>9999999</v>
@@ -41267,13 +41026,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="61" t="s">
-        <v>1625</v>
+        <v>1616</v>
       </c>
       <c r="I473" s="61" t="s">
-        <v>1612</v>
+        <v>1603</v>
       </c>
       <c r="J473" s="61" t="s">
-        <v>1626</v>
+        <v>1617</v>
       </c>
       <c r="L473" s="61">
         <v>-31</v>
@@ -41291,13 +41050,13 @@
         <v>49800</v>
       </c>
       <c r="Q473" s="61" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R473" s="62" t="s">
-        <v>1627</v>
+        <v>1618</v>
       </c>
       <c r="W473" s="61" t="s">
-        <v>1621</v>
+        <v>1612</v>
       </c>
       <c r="X473" s="61">
         <v>9999999</v>
@@ -41332,14 +41091,14 @@
         <v>1</v>
       </c>
       <c r="G474" s="55" t="s">
-        <v>1628</v>
+        <v>1619</v>
       </c>
       <c r="H474" s="76"/>
       <c r="I474" s="55" t="s">
-        <v>1612</v>
+        <v>1603</v>
       </c>
       <c r="J474" s="55" t="s">
-        <v>1629</v>
+        <v>1620</v>
       </c>
       <c r="L474" s="55">
         <v>-31</v>
@@ -41357,13 +41116,13 @@
         <v>99800</v>
       </c>
       <c r="Q474" s="55" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R474" s="56" t="s">
-        <v>1630</v>
+        <v>1621</v>
       </c>
       <c r="W474" s="61" t="s">
-        <v>1621</v>
+        <v>1612</v>
       </c>
       <c r="X474" s="55">
         <v>9999999</v>
@@ -41398,14 +41157,14 @@
         <v>1</v>
       </c>
       <c r="G475" s="55" t="s">
-        <v>1631</v>
+        <v>1622</v>
       </c>
       <c r="H475" s="76"/>
       <c r="I475" s="55" t="s">
-        <v>1612</v>
+        <v>1603</v>
       </c>
       <c r="J475" s="55" t="s">
-        <v>1691</v>
+        <v>1682</v>
       </c>
       <c r="L475" s="55">
         <v>-31</v>
@@ -41423,13 +41182,13 @@
         <v>249800</v>
       </c>
       <c r="Q475" s="55" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R475" s="56" t="s">
-        <v>1690</v>
+        <v>1681</v>
       </c>
       <c r="W475" s="61" t="s">
-        <v>1621</v>
+        <v>1612</v>
       </c>
       <c r="X475" s="55">
         <v>9999999</v>
@@ -41464,13 +41223,13 @@
         <v>1</v>
       </c>
       <c r="G476" s="67" t="s">
-        <v>1674</v>
+        <v>1665</v>
       </c>
       <c r="I476" s="67" t="s">
-        <v>1675</v>
+        <v>1666</v>
       </c>
       <c r="J476" s="67" t="s">
-        <v>1676</v>
+        <v>1667</v>
       </c>
       <c r="L476" s="67">
         <v>-31</v>
@@ -41488,13 +41247,13 @@
         <v>49800</v>
       </c>
       <c r="Q476" s="67" t="s">
-        <v>1677</v>
+        <v>1668</v>
       </c>
       <c r="R476" s="68" t="s">
-        <v>1678</v>
+        <v>1669</v>
       </c>
       <c r="W476" s="67" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X476" s="67">
         <v>9999999</v>
@@ -41529,13 +41288,13 @@
         <v>1</v>
       </c>
       <c r="G477" s="67" t="s">
-        <v>1674</v>
+        <v>1665</v>
       </c>
       <c r="I477" s="67" t="s">
-        <v>1679</v>
+        <v>1670</v>
       </c>
       <c r="J477" s="67" t="s">
-        <v>1680</v>
+        <v>1671</v>
       </c>
       <c r="L477" s="67">
         <v>-31</v>
@@ -41553,13 +41312,13 @@
         <v>19800</v>
       </c>
       <c r="Q477" s="67" t="s">
-        <v>1677</v>
+        <v>1668</v>
       </c>
       <c r="R477" s="68" t="s">
-        <v>1681</v>
+        <v>1672</v>
       </c>
       <c r="W477" s="67" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X477" s="67">
         <v>9999999</v>
@@ -41594,13 +41353,13 @@
         <v>1</v>
       </c>
       <c r="G478" s="67" t="s">
+        <v>1665</v>
+      </c>
+      <c r="I478" s="67" t="s">
+        <v>1673</v>
+      </c>
+      <c r="J478" s="67" t="s">
         <v>1674</v>
-      </c>
-      <c r="I478" s="67" t="s">
-        <v>1682</v>
-      </c>
-      <c r="J478" s="67" t="s">
-        <v>1683</v>
       </c>
       <c r="L478" s="67">
         <v>-31</v>
@@ -41618,7 +41377,7 @@
         <v>9800</v>
       </c>
       <c r="Q478" s="67" t="s">
-        <v>1684</v>
+        <v>1675</v>
       </c>
       <c r="R478" s="68" t="s">
         <v>757</v>
@@ -41659,13 +41418,13 @@
         <v>1</v>
       </c>
       <c r="G479" s="67" t="s">
-        <v>1674</v>
+        <v>1665</v>
       </c>
       <c r="I479" s="67" t="s">
-        <v>1685</v>
+        <v>1676</v>
       </c>
       <c r="J479" s="67" t="s">
-        <v>1686</v>
+        <v>1677</v>
       </c>
       <c r="L479" s="67">
         <v>-31</v>
@@ -41683,13 +41442,13 @@
         <v>4800</v>
       </c>
       <c r="Q479" s="67" t="s">
-        <v>1687</v>
+        <v>1678</v>
       </c>
       <c r="R479" s="68" t="s">
-        <v>1688</v>
+        <v>1679</v>
       </c>
       <c r="W479" s="67" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X479" s="67">
         <v>9999999</v>
@@ -41724,10 +41483,10 @@
         <v>1</v>
       </c>
       <c r="G480" s="53" t="s">
-        <v>1692</v>
+        <v>1683</v>
       </c>
       <c r="J480" s="53" t="s">
-        <v>1693</v>
+        <v>1684</v>
       </c>
       <c r="L480" s="53">
         <v>-31</v>
@@ -41745,13 +41504,13 @@
         <v>49800</v>
       </c>
       <c r="Q480" s="53" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="R480" s="54" t="s">
-        <v>1695</v>
+        <v>1686</v>
       </c>
       <c r="W480" s="53" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="X480" s="53">
         <v>9999999</v>
@@ -41789,7 +41548,7 @@
         <v>356</v>
       </c>
       <c r="J481" s="53" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="L481" s="53">
         <v>-31</v>
@@ -41807,13 +41566,13 @@
         <v>19800</v>
       </c>
       <c r="Q481" s="53" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="R481" s="54" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
       <c r="W481" s="53" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="X481" s="53">
         <v>9999999</v>
@@ -41851,7 +41610,7 @@
         <v>355</v>
       </c>
       <c r="J482" s="53" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
       <c r="L482" s="53">
         <v>-31</v>
@@ -41869,13 +41628,13 @@
         <v>9800</v>
       </c>
       <c r="Q482" s="53" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="R482" s="54" t="s">
-        <v>1700</v>
+        <v>1691</v>
       </c>
       <c r="W482" s="53" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="X482" s="53">
         <v>9999999</v>
@@ -41913,7 +41672,7 @@
         <v>354</v>
       </c>
       <c r="J483" s="53" t="s">
-        <v>1701</v>
+        <v>1692</v>
       </c>
       <c r="L483" s="53">
         <v>-31</v>
@@ -41931,13 +41690,13 @@
         <v>4800</v>
       </c>
       <c r="Q483" s="53" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="R483" s="54" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="W483" s="53" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="X483" s="53">
         <v>9999999</v>
@@ -41972,10 +41731,10 @@
         <v>1</v>
       </c>
       <c r="G484" s="53" t="s">
-        <v>1703</v>
+        <v>1694</v>
       </c>
       <c r="J484" s="53" t="s">
-        <v>1704</v>
+        <v>1695</v>
       </c>
       <c r="L484" s="53">
         <v>-31</v>
@@ -41993,13 +41752,13 @@
         <v>2000</v>
       </c>
       <c r="Q484" s="53" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="R484" s="54" t="s">
-        <v>1705</v>
+        <v>1696</v>
       </c>
       <c r="W484" s="53" t="s">
-        <v>1706</v>
+        <v>1697</v>
       </c>
       <c r="X484" s="53">
         <v>9999999</v>
@@ -42034,10 +41793,10 @@
         <v>1</v>
       </c>
       <c r="G485" s="53" t="s">
-        <v>1707</v>
+        <v>1698</v>
       </c>
       <c r="J485" s="53" t="s">
-        <v>1708</v>
+        <v>1699</v>
       </c>
       <c r="L485" s="53">
         <v>-31</v>
@@ -42055,13 +41814,13 @@
         <v>600</v>
       </c>
       <c r="Q485" s="53" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="R485" s="54" t="s">
-        <v>1709</v>
+        <v>1700</v>
       </c>
       <c r="W485" s="53" t="s">
-        <v>1706</v>
+        <v>1697</v>
       </c>
       <c r="X485" s="53">
         <v>9999999</v>
@@ -42096,13 +41855,13 @@
         <v>1</v>
       </c>
       <c r="G486" s="19" t="s">
-        <v>1846</v>
+        <v>1805</v>
       </c>
       <c r="I486" s="19" t="s">
-        <v>1847</v>
+        <v>1806</v>
       </c>
       <c r="J486" s="19" t="s">
-        <v>1848</v>
+        <v>1807</v>
       </c>
       <c r="L486" s="19">
         <v>-31</v>
@@ -42120,10 +41879,10 @@
         <v>1800</v>
       </c>
       <c r="Q486" s="19" t="s">
-        <v>1849</v>
+        <v>1808</v>
       </c>
       <c r="R486" s="39" t="s">
-        <v>1850</v>
+        <v>1809</v>
       </c>
       <c r="W486" s="19" t="s">
         <v>528</v>
@@ -42161,13 +41920,13 @@
         <v>1</v>
       </c>
       <c r="G487" s="19" t="s">
-        <v>1851</v>
+        <v>1810</v>
       </c>
       <c r="I487" s="19" t="s">
-        <v>1847</v>
+        <v>1806</v>
       </c>
       <c r="J487" s="19" t="s">
-        <v>1852</v>
+        <v>1811</v>
       </c>
       <c r="L487" s="19">
         <v>-31</v>
@@ -42185,10 +41944,10 @@
         <v>4800</v>
       </c>
       <c r="Q487" s="19" t="s">
-        <v>1849</v>
+        <v>1808</v>
       </c>
       <c r="R487" s="39" t="s">
-        <v>1853</v>
+        <v>1812</v>
       </c>
       <c r="W487" s="19" t="s">
         <v>528</v>
@@ -42226,13 +41985,13 @@
         <v>1</v>
       </c>
       <c r="G488" s="19" t="s">
-        <v>1854</v>
+        <v>1813</v>
       </c>
       <c r="I488" s="19" t="s">
-        <v>1847</v>
+        <v>1806</v>
       </c>
       <c r="J488" s="19" t="s">
-        <v>1855</v>
+        <v>1814</v>
       </c>
       <c r="L488" s="19">
         <v>-31</v>
@@ -42250,10 +42009,10 @@
         <v>9800</v>
       </c>
       <c r="Q488" s="19" t="s">
-        <v>1856</v>
+        <v>1815</v>
       </c>
       <c r="R488" s="39" t="s">
-        <v>1857</v>
+        <v>1816</v>
       </c>
       <c r="W488" s="19" t="s">
         <v>528</v>
@@ -42291,13 +42050,13 @@
         <v>1</v>
       </c>
       <c r="G489" s="19" t="s">
-        <v>1366</v>
+        <v>1357</v>
       </c>
       <c r="I489" s="19" t="s">
-        <v>1847</v>
+        <v>1806</v>
       </c>
       <c r="J489" s="19" t="s">
-        <v>1858</v>
+        <v>1817</v>
       </c>
       <c r="L489" s="19">
         <v>-31</v>
@@ -42315,10 +42074,10 @@
         <v>19800</v>
       </c>
       <c r="Q489" s="19" t="s">
-        <v>1856</v>
+        <v>1815</v>
       </c>
       <c r="R489" s="39" t="s">
-        <v>1368</v>
+        <v>1359</v>
       </c>
       <c r="W489" s="19" t="s">
         <v>528</v>
@@ -42356,13 +42115,13 @@
         <v>1</v>
       </c>
       <c r="G490" s="19" t="s">
-        <v>1859</v>
+        <v>1818</v>
       </c>
       <c r="I490" s="19" t="s">
-        <v>1847</v>
+        <v>1806</v>
       </c>
       <c r="J490" s="19" t="s">
-        <v>1860</v>
+        <v>1819</v>
       </c>
       <c r="L490" s="19">
         <v>-31</v>
@@ -42380,10 +42139,10 @@
         <v>29800</v>
       </c>
       <c r="Q490" s="19" t="s">
-        <v>1856</v>
+        <v>1815</v>
       </c>
       <c r="R490" s="39" t="s">
-        <v>1861</v>
+        <v>1820</v>
       </c>
       <c r="W490" s="19" t="s">
         <v>528</v>
@@ -42421,13 +42180,13 @@
         <v>1</v>
       </c>
       <c r="G491" s="19" t="s">
-        <v>1862</v>
+        <v>1821</v>
       </c>
       <c r="I491" s="19" t="s">
-        <v>1847</v>
+        <v>1806</v>
       </c>
       <c r="J491" s="19" t="s">
-        <v>1493</v>
+        <v>1484</v>
       </c>
       <c r="L491" s="19">
         <v>-31</v>
@@ -42445,10 +42204,10 @@
         <v>49800</v>
       </c>
       <c r="Q491" s="19" t="s">
-        <v>1863</v>
+        <v>1822</v>
       </c>
       <c r="R491" s="39" t="s">
-        <v>1377</v>
+        <v>1368</v>
       </c>
       <c r="W491" s="19" t="s">
         <v>528</v>
@@ -42486,13 +42245,13 @@
         <v>1</v>
       </c>
       <c r="G492" s="19" t="s">
-        <v>1864</v>
+        <v>1823</v>
       </c>
       <c r="I492" s="19" t="s">
-        <v>1847</v>
+        <v>1806</v>
       </c>
       <c r="J492" s="19" t="s">
-        <v>1865</v>
+        <v>1824</v>
       </c>
       <c r="L492" s="19">
         <v>-31</v>
@@ -42504,19 +42263,19 @@
         <v>0</v>
       </c>
       <c r="O492" s="19" t="s">
-        <v>1866</v>
+        <v>1825</v>
       </c>
       <c r="P492" s="19">
         <v>99800</v>
       </c>
       <c r="Q492" s="19" t="s">
-        <v>1863</v>
+        <v>1822</v>
       </c>
       <c r="R492" s="39" t="s">
-        <v>1867</v>
+        <v>1826</v>
       </c>
       <c r="W492" s="19" t="s">
-        <v>1868</v>
+        <v>1827</v>
       </c>
       <c r="X492" s="19">
         <v>9999999</v>
@@ -42938,7 +42697,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1234</v>
+        <v>1225</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -42952,7 +42711,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1235</v>
+        <v>1226</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -42966,7 +42725,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1236</v>
+        <v>1227</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -42980,7 +42739,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1237</v>
+        <v>1228</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
@@ -42994,7 +42753,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
@@ -43008,7 +42767,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
@@ -43022,7 +42781,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1240</v>
+        <v>1231</v>
       </c>
       <c r="C33" s="12">
         <v>1</v>
@@ -43036,7 +42795,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1241</v>
+        <v>1232</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
@@ -43050,7 +42809,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>1242</v>
+        <v>1233</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
@@ -43064,7 +42823,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>1243</v>
+        <v>1234</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
@@ -43078,7 +42837,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>1244</v>
+        <v>1235</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -43092,7 +42851,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>1245</v>
+        <v>1236</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
@@ -43106,7 +42865,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1246</v>
+        <v>1237</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
@@ -43120,7 +42879,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1247</v>
+        <v>1238</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -43134,7 +42893,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1248</v>
+        <v>1239</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -43148,7 +42907,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1249</v>
+        <v>1240</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
@@ -43162,7 +42921,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="C43" s="12">
         <v>1</v>
@@ -43176,7 +42935,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -43190,7 +42949,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -43204,7 +42963,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>1326</v>
+        <v>1317</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
@@ -43218,7 +42977,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>1327</v>
+        <v>1318</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -43232,7 +42991,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>1383</v>
+        <v>1374</v>
       </c>
       <c r="C48" s="47">
         <v>1</v>
@@ -43246,7 +43005,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>1398</v>
+        <v>1389</v>
       </c>
       <c r="C49" s="47">
         <v>1</v>
@@ -43260,7 +43019,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>1399</v>
+        <v>1390</v>
       </c>
       <c r="C50" s="47">
         <v>1</v>
@@ -43274,7 +43033,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>1400</v>
+        <v>1391</v>
       </c>
       <c r="C51" s="47">
         <v>1</v>
@@ -43288,7 +43047,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>1401</v>
+        <v>1392</v>
       </c>
       <c r="C52" s="47">
         <v>1</v>
@@ -43302,7 +43061,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="65" t="s">
-        <v>1632</v>
+        <v>1623</v>
       </c>
       <c r="C53" s="64">
         <v>1</v>
@@ -43316,7 +43075,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="65" t="s">
-        <v>1633</v>
+        <v>1624</v>
       </c>
       <c r="C54" s="64">
         <v>1</v>
@@ -43330,7 +43089,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="65" t="s">
-        <v>1634</v>
+        <v>1625</v>
       </c>
       <c r="C55" s="64">
         <v>1</v>
@@ -43344,7 +43103,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="65" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
       <c r="C56" s="64">
         <v>1</v>
@@ -43358,7 +43117,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="65" t="s">
-        <v>1636</v>
+        <v>1627</v>
       </c>
       <c r="C57" s="64">
         <v>1</v>
@@ -43372,7 +43131,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="65" t="s">
-        <v>1637</v>
+        <v>1628</v>
       </c>
       <c r="C58" s="64">
         <v>1</v>
@@ -43386,7 +43145,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="65" t="s">
-        <v>1638</v>
+        <v>1629</v>
       </c>
       <c r="C59" s="64">
         <v>1</v>
@@ -43400,7 +43159,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="65" t="s">
-        <v>1639</v>
+        <v>1630</v>
       </c>
       <c r="C60" s="64">
         <v>1</v>
@@ -43414,7 +43173,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>1640</v>
+        <v>1631</v>
       </c>
       <c r="C61" s="64">
         <v>1</v>
@@ -43428,7 +43187,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="65" t="s">
-        <v>1641</v>
+        <v>1632</v>
       </c>
       <c r="C62" s="64">
         <v>1</v>
@@ -43442,7 +43201,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="65" t="s">
-        <v>1642</v>
+        <v>1633</v>
       </c>
       <c r="C63" s="64">
         <v>1</v>
@@ -43456,7 +43215,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="65" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
       <c r="C64" s="64">
         <v>1</v>
@@ -43470,7 +43229,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="65" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
       <c r="C65" s="64">
         <v>1</v>
@@ -43484,7 +43243,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="65" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
       <c r="C66" s="64">
         <v>1</v>
@@ -43504,8 +43263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43583,7 +43342,7 @@
         <v>29</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1792</v>
+        <v>1783</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>30</v>
@@ -43666,19 +43425,19 @@
         <v>3</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>1793</v>
+        <v>1828</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>1815</v>
+        <v>1829</v>
       </c>
       <c r="S2" s="33" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="T2" s="11" t="s">
         <v>47</v>
       </c>
       <c r="U2" s="33" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="V2" s="11" t="s">
         <v>407</v>
@@ -43734,19 +43493,19 @@
         <v>4</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>1794</v>
+        <v>1830</v>
       </c>
       <c r="Q3" s="33" t="s">
-        <v>1816</v>
+        <v>1831</v>
       </c>
       <c r="S3" s="33" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="T3" s="11" t="s">
         <v>49</v>
       </c>
       <c r="U3" s="33" t="s">
-        <v>1086</v>
+        <v>1077</v>
       </c>
       <c r="V3" s="11" t="s">
         <v>407</v>
@@ -43802,13 +43561,13 @@
         <v>5</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>1795</v>
+        <v>1832</v>
       </c>
       <c r="Q4" s="33" t="s">
-        <v>1817</v>
+        <v>1833</v>
       </c>
       <c r="S4" s="33" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="T4" s="11" t="s">
         <v>50</v>
@@ -43870,19 +43629,19 @@
         <v>6</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>1796</v>
+        <v>1834</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>1818</v>
+        <v>1835</v>
       </c>
       <c r="S5" s="33" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="T5" s="11" t="s">
         <v>51</v>
       </c>
       <c r="U5" s="33" t="s">
-        <v>1087</v>
+        <v>1078</v>
       </c>
       <c r="V5" s="11" t="s">
         <v>407</v>
@@ -43938,13 +43697,13 @@
         <v>7</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>1797</v>
+        <v>1836</v>
       </c>
       <c r="Q6" s="33" t="s">
-        <v>1819</v>
+        <v>1837</v>
       </c>
       <c r="S6" s="33" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="T6" s="11" t="s">
         <v>52</v>
@@ -44006,13 +43765,13 @@
         <v>9</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>1798</v>
+        <v>1838</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>1820</v>
+        <v>1839</v>
       </c>
       <c r="S7" s="33" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="T7" s="11" t="s">
         <v>53</v>
@@ -44071,19 +43830,19 @@
         <v>0</v>
       </c>
       <c r="P8" s="33" t="s">
-        <v>1799</v>
+        <v>1840</v>
       </c>
       <c r="Q8" s="33" t="s">
-        <v>1821</v>
+        <v>1841</v>
       </c>
       <c r="S8" s="33" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="T8" s="11" t="s">
         <v>47</v>
       </c>
       <c r="U8" s="33" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="V8" s="11" t="s">
         <v>407</v>
@@ -44138,10 +43897,10 @@
         <v>2</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>1800</v>
+        <v>1784</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>1822</v>
+        <v>1790</v>
       </c>
       <c r="R9" s="34"/>
       <c r="S9" s="34"/>
@@ -44165,7 +43924,7 @@
       <c r="AA9" s="34"/>
       <c r="AB9" s="34"/>
       <c r="AC9" s="35" t="s">
-        <v>1088</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="10" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -44211,10 +43970,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>1801</v>
+        <v>1785</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>1823</v>
+        <v>1791</v>
       </c>
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
@@ -44238,7 +43997,7 @@
       <c r="AA10" s="34"/>
       <c r="AB10" s="34"/>
       <c r="AC10" s="35" t="s">
-        <v>1089</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="11" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -44282,13 +44041,13 @@
         <v>0</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>1794</v>
+        <v>1830</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>1816</v>
+        <v>1831</v>
       </c>
       <c r="S11" s="33" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="T11" s="23" t="s">
         <v>49</v>
@@ -44314,7 +44073,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
       <c r="D12" s="11">
         <v>109</v>
@@ -44350,13 +44109,13 @@
         <v>9</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>1802</v>
+        <v>1842</v>
       </c>
       <c r="Q12" s="33" t="s">
-        <v>1824</v>
+        <v>1843</v>
       </c>
       <c r="S12" s="33" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="T12" s="11" t="s">
         <v>54</v>
@@ -44418,13 +44177,13 @@
         <v>10</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>1803</v>
+        <v>1844</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>1825</v>
+        <v>1845</v>
       </c>
       <c r="S13" s="33" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="T13" s="11" t="s">
         <v>409</v>
@@ -44486,13 +44245,13 @@
         <v>11</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>1804</v>
+        <v>1846</v>
       </c>
       <c r="Q14" s="33" t="s">
-        <v>1826</v>
+        <v>1847</v>
       </c>
       <c r="S14" s="33" t="s">
-        <v>1091</v>
+        <v>1082</v>
       </c>
       <c r="T14" s="11" t="s">
         <v>410</v>
@@ -44525,7 +44284,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
       <c r="G15" s="34">
         <v>100</v>
@@ -44555,10 +44314,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>1805</v>
+        <v>1786</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>1827</v>
+        <v>1792</v>
       </c>
       <c r="R15" s="34"/>
       <c r="S15" s="35"/>
@@ -44566,7 +44325,7 @@
         <v>100</v>
       </c>
       <c r="U15" s="35" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="V15" s="34" t="s">
         <v>407</v>
@@ -44582,7 +44341,7 @@
       <c r="AA15" s="34"/>
       <c r="AB15" s="34"/>
       <c r="AC15" s="35" t="s">
-        <v>1093</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -44629,20 +44388,20 @@
         <v>3</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>1806</v>
+        <v>1848</v>
       </c>
       <c r="Q16" s="33" t="s">
-        <v>1828</v>
+        <v>1849</v>
       </c>
       <c r="R16" s="12"/>
       <c r="S16" s="33" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="T16" s="11" t="s">
         <v>61</v>
       </c>
       <c r="U16" s="33" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="V16" s="11" t="s">
         <v>407</v>
@@ -44697,14 +44456,14 @@
         <v>4</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>1807</v>
+        <v>1850</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>1829</v>
+        <v>1851</v>
       </c>
       <c r="R17" s="12"/>
       <c r="S17" s="33" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="T17" s="11" t="s">
         <v>64</v>
@@ -44765,14 +44524,14 @@
         <v>5</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>1808</v>
+        <v>1852</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>1830</v>
+        <v>1853</v>
       </c>
       <c r="R18" s="12"/>
       <c r="S18" s="33" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="T18" s="11" t="s">
         <v>67</v>
@@ -44833,14 +44592,14 @@
         <v>6</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>1809</v>
+        <v>1854</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>1831</v>
+        <v>1855</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="33" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
       <c r="T19" s="11" t="s">
         <v>71</v>
@@ -44901,10 +44660,10 @@
         <v>7</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>1810</v>
+        <v>1856</v>
       </c>
       <c r="Q20" s="33" t="s">
-        <v>1832</v>
+        <v>1857</v>
       </c>
       <c r="S20" s="33" t="s">
         <v>939</v>
@@ -44968,14 +44727,14 @@
         <v>0</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>1811</v>
+        <v>901</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>1833</v>
+        <v>1858</v>
       </c>
       <c r="R21" s="11"/>
       <c r="S21" s="33" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
       <c r="T21" s="11" t="s">
         <v>77</v>
@@ -45041,10 +44800,10 @@
         <v>2</v>
       </c>
       <c r="P22" s="35" t="s">
-        <v>1800</v>
+        <v>1784</v>
       </c>
       <c r="Q22" s="35" t="s">
-        <v>1834</v>
+        <v>1793</v>
       </c>
       <c r="R22" s="34"/>
       <c r="S22" s="35"/>
@@ -45052,7 +44811,7 @@
         <v>5000</v>
       </c>
       <c r="U22" s="35" t="s">
-        <v>1087</v>
+        <v>1078</v>
       </c>
       <c r="V22" s="34" t="s">
         <v>407</v>
@@ -45112,10 +44871,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="35" t="s">
-        <v>1812</v>
+        <v>1787</v>
       </c>
       <c r="Q23" s="35" t="s">
-        <v>1835</v>
+        <v>1794</v>
       </c>
       <c r="R23" s="34"/>
       <c r="S23" s="35"/>
@@ -45185,10 +44944,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="35" t="s">
-        <v>1813</v>
+        <v>1788</v>
       </c>
       <c r="Q24" s="35" t="s">
-        <v>1827</v>
+        <v>1792</v>
       </c>
       <c r="R24" s="34"/>
       <c r="S24" s="35"/>
@@ -45196,7 +44955,7 @@
         <v>100</v>
       </c>
       <c r="U24" s="35" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="V24" s="34" t="s">
         <v>407</v>
@@ -45212,7 +44971,7 @@
       <c r="AA24" s="34"/>
       <c r="AB24" s="34"/>
       <c r="AC24" s="35" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="25" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -45259,10 +45018,10 @@
         <v>8</v>
       </c>
       <c r="P25" s="33" t="s">
-        <v>1814</v>
+        <v>1789</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>1836</v>
+        <v>1795</v>
       </c>
       <c r="S25" s="33" t="s">
         <v>940</v>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -8920,8 +8920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:U24"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35353,10 +35353,10 @@
         <v>9999999</v>
       </c>
       <c r="Y386" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z386" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA386" s="19">
         <v>44</v>
@@ -35422,10 +35422,10 @@
         <v>9999999</v>
       </c>
       <c r="Y387" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z387" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA387" s="19">
         <v>44</v>
@@ -35491,10 +35491,10 @@
         <v>9999999</v>
       </c>
       <c r="Y388" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z388" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA388" s="19">
         <v>44</v>
@@ -35559,11 +35559,11 @@
       <c r="X389" s="19">
         <v>9999999</v>
       </c>
-      <c r="Y389" s="63">
-        <v>1605571200</v>
-      </c>
-      <c r="Z389" s="63">
-        <v>1606147199</v>
+      <c r="Y389" s="49">
+        <v>1608595200</v>
+      </c>
+      <c r="Z389" s="49">
+        <v>1609171199</v>
       </c>
       <c r="AA389" s="19">
         <v>45</v>
@@ -35628,11 +35628,11 @@
       <c r="X390" s="19">
         <v>9999999</v>
       </c>
-      <c r="Y390" s="63">
-        <v>1605571200</v>
-      </c>
-      <c r="Z390" s="63">
-        <v>1606147199</v>
+      <c r="Y390" s="49">
+        <v>1608595200</v>
+      </c>
+      <c r="Z390" s="49">
+        <v>1609171199</v>
       </c>
       <c r="AA390" s="19">
         <v>45</v>
@@ -35697,11 +35697,11 @@
       <c r="X391" s="19">
         <v>9999999</v>
       </c>
-      <c r="Y391" s="63">
-        <v>1605571200</v>
-      </c>
-      <c r="Z391" s="63">
-        <v>1606147199</v>
+      <c r="Y391" s="49">
+        <v>1608595200</v>
+      </c>
+      <c r="Z391" s="49">
+        <v>1609171199</v>
       </c>
       <c r="AA391" s="19">
         <v>45</v>
@@ -35767,10 +35767,10 @@
         <v>9999999</v>
       </c>
       <c r="Y392" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z392" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA392" s="19">
         <v>46</v>
@@ -35836,10 +35836,10 @@
         <v>9999999</v>
       </c>
       <c r="Y393" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z393" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA393" s="19">
         <v>46</v>
@@ -35905,10 +35905,10 @@
         <v>9999999</v>
       </c>
       <c r="Y394" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z394" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA394" s="19">
         <v>46</v>
@@ -43263,7 +43263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="P2" sqref="P2:Q25"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4079" uniqueCount="1879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4165" uniqueCount="1911">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8056,6 +8056,124 @@
   <si>
     <t>9999999999,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "actp_no_cjj_gej_exchange" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "actp_cjj_gej_exchange" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆典礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐庆典-捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5180万","抽奖券*50","双倍奖励*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_3d_fish_doubled",</t>
+  </si>
+  <si>
+    <t>49800000,50,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2020万","抽奖券*30","双倍奖励*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"990万","抽奖券*20","双倍奖励*5",</t>
+  </si>
+  <si>
+    <t>9800000,20,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"483万","抽奖券*3","双倍奖励*3",</t>
+  </si>
+  <si>
+    <t>4800000,10,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆典礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万","抽奖券*4","双倍奖励*2",</t>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","双倍奖励*1",</t>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐庆典-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5180万","抽奖券*50","太阳*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
+  </si>
+  <si>
+    <t>49800000,50,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2020万","抽奖券*30","太阳*10",</t>
+  </si>
+  <si>
+    <t>"990万","抽奖券*20","太阳*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,20,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"483万","抽奖券*3","水滴*6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_1",</t>
+  </si>
+  <si>
+    <t>4800000,10,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万","抽奖券*4","水滴*2",</t>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","水滴*1",</t>
   </si>
 </sst>
 </file>
@@ -8279,7 +8397,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8518,6 +8636,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8983,8 +9104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9129,9 +9250,7 @@
         <v>40</v>
       </c>
       <c r="E2" s="24"/>
-      <c r="F2" s="2">
-        <v>10330</v>
-      </c>
+      <c r="F2" s="11"/>
       <c r="G2" s="11" t="s">
         <v>41</v>
       </c>
@@ -9211,9 +9330,7 @@
         <v>40</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="2">
-        <v>85</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="11" t="s">
         <v>41</v>
       </c>
@@ -9293,9 +9410,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="2">
-        <v>86</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="11" t="s">
         <v>41</v>
       </c>
@@ -9375,9 +9490,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="2">
-        <v>87</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="11" t="s">
         <v>41</v>
       </c>
@@ -9457,9 +9570,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="2">
-        <v>88</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="11" t="s">
         <v>41</v>
       </c>
@@ -9539,9 +9650,7 @@
         <v>40</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="2">
-        <v>89</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="11" t="s">
         <v>41</v>
       </c>
@@ -9621,9 +9730,7 @@
         <v>40</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="2">
-        <v>109</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="11" t="s">
         <v>41</v>
       </c>
@@ -9703,9 +9810,7 @@
         <v>40</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="2">
-        <v>10044</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="11" t="s">
         <v>41</v>
       </c>
@@ -9784,9 +9889,6 @@
         <v>40</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="11">
-        <v>10045</v>
-      </c>
       <c r="G10" s="11" t="s">
         <v>41</v>
       </c>
@@ -9867,9 +9969,7 @@
       <c r="E11" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="11">
-        <v>90</v>
-      </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="2" t="s">
         <v>41</v>
       </c>
@@ -10871,9 +10971,7 @@
         <v>40</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="11">
-        <v>10189</v>
-      </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="2" t="s">
         <v>1059</v>
       </c>
@@ -10972,13 +11070,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN496"/>
+  <dimension ref="A1:AN508"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="U503" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="U486" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F414" sqref="F414"/>
+      <selection pane="bottomRight" activeCell="F509" sqref="F509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14831,7 +14929,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="69" t="s">
         <v>222</v>
@@ -14890,7 +14988,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="69" t="s">
         <v>224</v>
@@ -14949,7 +15047,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="69" t="s">
         <v>226</v>
@@ -15008,7 +15106,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="69" t="s">
         <v>228</v>
@@ -15067,7 +15165,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="69" t="s">
         <v>229</v>
@@ -16415,7 +16513,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" s="69" t="s">
         <v>253</v>
@@ -18449,7 +18547,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" s="69" t="s">
         <v>319</v>
@@ -18508,7 +18606,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" s="69" t="s">
         <v>1129</v>
@@ -27811,7 +27909,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G273" s="69" t="s">
         <v>520</v>
@@ -37246,7 +37344,7 @@
         <v>1</v>
       </c>
       <c r="F414" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G414" s="69" t="s">
         <v>1377</v>
@@ -42710,6 +42808,930 @@
         <v>1</v>
       </c>
       <c r="AM496" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>496</v>
+      </c>
+      <c r="B497" s="49">
+        <v>10413</v>
+      </c>
+      <c r="C497" s="49"/>
+      <c r="D497" s="49"/>
+      <c r="E497" s="49"/>
+      <c r="F497" s="49">
+        <v>1</v>
+      </c>
+      <c r="G497" s="49" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H497" s="49"/>
+      <c r="I497" s="49" t="s">
+        <v>1882</v>
+      </c>
+      <c r="J497" s="49" t="s">
+        <v>1883</v>
+      </c>
+      <c r="K497" s="49"/>
+      <c r="L497" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M497" s="49">
+        <v>0</v>
+      </c>
+      <c r="N497" s="49">
+        <v>0</v>
+      </c>
+      <c r="O497" s="49" t="s">
+        <v>1884</v>
+      </c>
+      <c r="P497" s="49">
+        <v>49800</v>
+      </c>
+      <c r="Q497" s="49" t="s">
+        <v>1885</v>
+      </c>
+      <c r="R497" s="50" t="s">
+        <v>1886</v>
+      </c>
+      <c r="S497" s="49"/>
+      <c r="T497" s="49"/>
+      <c r="U497" s="49"/>
+      <c r="V497" s="49"/>
+      <c r="W497" s="49" t="s">
+        <v>524</v>
+      </c>
+      <c r="X497" s="49">
+        <v>99999999</v>
+      </c>
+      <c r="Y497" s="49">
+        <v>1609804800</v>
+      </c>
+      <c r="Z497" s="49">
+        <v>1610380799</v>
+      </c>
+      <c r="AA497" s="49">
+        <v>66</v>
+      </c>
+      <c r="AH497" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI497" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL497" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM497" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>497</v>
+      </c>
+      <c r="B498" s="49">
+        <v>10414</v>
+      </c>
+      <c r="C498" s="49"/>
+      <c r="D498" s="49"/>
+      <c r="E498" s="49"/>
+      <c r="F498" s="49">
+        <v>1</v>
+      </c>
+      <c r="G498" s="49" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H498" s="49"/>
+      <c r="I498" s="49" t="s">
+        <v>1882</v>
+      </c>
+      <c r="J498" s="49" t="s">
+        <v>1887</v>
+      </c>
+      <c r="K498" s="49"/>
+      <c r="L498" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M498" s="49">
+        <v>0</v>
+      </c>
+      <c r="N498" s="49">
+        <v>0</v>
+      </c>
+      <c r="O498" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="P498" s="49">
+        <v>19800</v>
+      </c>
+      <c r="Q498" s="49" t="s">
+        <v>1885</v>
+      </c>
+      <c r="R498" s="50" t="s">
+        <v>1888</v>
+      </c>
+      <c r="S498" s="49"/>
+      <c r="T498" s="49"/>
+      <c r="U498" s="49"/>
+      <c r="V498" s="49"/>
+      <c r="W498" s="49" t="s">
+        <v>524</v>
+      </c>
+      <c r="X498" s="49">
+        <v>99999999</v>
+      </c>
+      <c r="Y498" s="49">
+        <v>1609804800</v>
+      </c>
+      <c r="Z498" s="49">
+        <v>1610380799</v>
+      </c>
+      <c r="AA498" s="49">
+        <v>66</v>
+      </c>
+      <c r="AH498" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI498" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL498" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM498" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>498</v>
+      </c>
+      <c r="B499" s="49">
+        <v>10415</v>
+      </c>
+      <c r="C499" s="49"/>
+      <c r="D499" s="49"/>
+      <c r="E499" s="49"/>
+      <c r="F499" s="49">
+        <v>1</v>
+      </c>
+      <c r="G499" s="49" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H499" s="49"/>
+      <c r="I499" s="49" t="s">
+        <v>1882</v>
+      </c>
+      <c r="J499" s="49" t="s">
+        <v>1889</v>
+      </c>
+      <c r="K499" s="49"/>
+      <c r="L499" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M499" s="49">
+        <v>0</v>
+      </c>
+      <c r="N499" s="49">
+        <v>0</v>
+      </c>
+      <c r="O499" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="P499" s="49">
+        <v>9800</v>
+      </c>
+      <c r="Q499" s="49" t="s">
+        <v>1885</v>
+      </c>
+      <c r="R499" s="50" t="s">
+        <v>1890</v>
+      </c>
+      <c r="S499" s="49"/>
+      <c r="T499" s="49"/>
+      <c r="U499" s="49"/>
+      <c r="V499" s="49"/>
+      <c r="W499" s="49" t="s">
+        <v>524</v>
+      </c>
+      <c r="X499" s="49">
+        <v>99999999</v>
+      </c>
+      <c r="Y499" s="49">
+        <v>1609804800</v>
+      </c>
+      <c r="Z499" s="49">
+        <v>1610380799</v>
+      </c>
+      <c r="AA499" s="49">
+        <v>66</v>
+      </c>
+      <c r="AH499" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI499" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL499" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM499" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>499</v>
+      </c>
+      <c r="B500" s="49">
+        <v>10416</v>
+      </c>
+      <c r="C500" s="49"/>
+      <c r="D500" s="49"/>
+      <c r="E500" s="49"/>
+      <c r="F500" s="49">
+        <v>1</v>
+      </c>
+      <c r="G500" s="49" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H500" s="49"/>
+      <c r="I500" s="49" t="s">
+        <v>1882</v>
+      </c>
+      <c r="J500" s="49" t="s">
+        <v>1891</v>
+      </c>
+      <c r="K500" s="49"/>
+      <c r="L500" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M500" s="49">
+        <v>0</v>
+      </c>
+      <c r="N500" s="49">
+        <v>0</v>
+      </c>
+      <c r="O500" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="P500" s="49">
+        <v>4800</v>
+      </c>
+      <c r="Q500" s="49" t="s">
+        <v>1885</v>
+      </c>
+      <c r="R500" s="50" t="s">
+        <v>1892</v>
+      </c>
+      <c r="S500" s="49"/>
+      <c r="T500" s="49"/>
+      <c r="U500" s="49"/>
+      <c r="V500" s="49"/>
+      <c r="W500" s="49" t="s">
+        <v>524</v>
+      </c>
+      <c r="X500" s="49">
+        <v>99999999</v>
+      </c>
+      <c r="Y500" s="49">
+        <v>1609804800</v>
+      </c>
+      <c r="Z500" s="49">
+        <v>1610380799</v>
+      </c>
+      <c r="AA500" s="49">
+        <v>66</v>
+      </c>
+      <c r="AH500" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI500" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL500" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM500" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>500</v>
+      </c>
+      <c r="B501" s="49">
+        <v>10417</v>
+      </c>
+      <c r="C501" s="49"/>
+      <c r="D501" s="49"/>
+      <c r="E501" s="49"/>
+      <c r="F501" s="49">
+        <v>1</v>
+      </c>
+      <c r="G501" s="49" t="s">
+        <v>1893</v>
+      </c>
+      <c r="H501" s="49"/>
+      <c r="I501" s="49" t="s">
+        <v>1882</v>
+      </c>
+      <c r="J501" s="49" t="s">
+        <v>1894</v>
+      </c>
+      <c r="K501" s="49"/>
+      <c r="L501" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M501" s="49">
+        <v>0</v>
+      </c>
+      <c r="N501" s="49">
+        <v>0</v>
+      </c>
+      <c r="O501" s="49" t="s">
+        <v>1895</v>
+      </c>
+      <c r="P501" s="49">
+        <v>2000</v>
+      </c>
+      <c r="Q501" s="49" t="s">
+        <v>1885</v>
+      </c>
+      <c r="R501" s="50" t="s">
+        <v>1896</v>
+      </c>
+      <c r="S501" s="49"/>
+      <c r="T501" s="49"/>
+      <c r="U501" s="49"/>
+      <c r="V501" s="49"/>
+      <c r="W501" s="49" t="s">
+        <v>524</v>
+      </c>
+      <c r="X501" s="49">
+        <v>99999999</v>
+      </c>
+      <c r="Y501" s="49">
+        <v>1609804800</v>
+      </c>
+      <c r="Z501" s="49">
+        <v>1610380799</v>
+      </c>
+      <c r="AA501" s="49">
+        <v>66</v>
+      </c>
+      <c r="AH501" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI501" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL501" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM501" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>501</v>
+      </c>
+      <c r="B502" s="49">
+        <v>10418</v>
+      </c>
+      <c r="C502" s="49"/>
+      <c r="D502" s="49"/>
+      <c r="E502" s="49"/>
+      <c r="F502" s="49">
+        <v>1</v>
+      </c>
+      <c r="G502" s="49" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H502" s="49"/>
+      <c r="I502" s="49" t="s">
+        <v>1882</v>
+      </c>
+      <c r="J502" s="49" t="s">
+        <v>1897</v>
+      </c>
+      <c r="K502" s="49"/>
+      <c r="L502" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M502" s="49">
+        <v>0</v>
+      </c>
+      <c r="N502" s="49">
+        <v>0</v>
+      </c>
+      <c r="O502" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="P502" s="49">
+        <v>600</v>
+      </c>
+      <c r="Q502" s="49" t="s">
+        <v>1885</v>
+      </c>
+      <c r="R502" s="50" t="s">
+        <v>1898</v>
+      </c>
+      <c r="S502" s="49"/>
+      <c r="T502" s="49"/>
+      <c r="U502" s="49"/>
+      <c r="V502" s="49"/>
+      <c r="W502" s="49" t="s">
+        <v>524</v>
+      </c>
+      <c r="X502" s="49">
+        <v>99999999</v>
+      </c>
+      <c r="Y502" s="49">
+        <v>1609804800</v>
+      </c>
+      <c r="Z502" s="49">
+        <v>1610380799</v>
+      </c>
+      <c r="AA502" s="49">
+        <v>66</v>
+      </c>
+      <c r="AH502" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI502" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL502" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM502" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>502</v>
+      </c>
+      <c r="B503" s="63">
+        <v>10419</v>
+      </c>
+      <c r="C503" s="63"/>
+      <c r="D503" s="63"/>
+      <c r="E503" s="63"/>
+      <c r="F503" s="63">
+        <v>1</v>
+      </c>
+      <c r="G503" s="63" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H503" s="63"/>
+      <c r="I503" s="63" t="s">
+        <v>1899</v>
+      </c>
+      <c r="J503" s="63" t="s">
+        <v>1900</v>
+      </c>
+      <c r="K503" s="63"/>
+      <c r="L503" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M503" s="63">
+        <v>0</v>
+      </c>
+      <c r="N503" s="63">
+        <v>0</v>
+      </c>
+      <c r="O503" s="63" t="s">
+        <v>481</v>
+      </c>
+      <c r="P503" s="63">
+        <v>49800</v>
+      </c>
+      <c r="Q503" s="63" t="s">
+        <v>1901</v>
+      </c>
+      <c r="R503" s="80" t="s">
+        <v>1902</v>
+      </c>
+      <c r="S503" s="63"/>
+      <c r="T503" s="63"/>
+      <c r="U503" s="63"/>
+      <c r="V503" s="63"/>
+      <c r="W503" s="63" t="s">
+        <v>524</v>
+      </c>
+      <c r="X503" s="63">
+        <v>99999999</v>
+      </c>
+      <c r="Y503" s="63">
+        <v>1609804800</v>
+      </c>
+      <c r="Z503" s="63">
+        <v>1610380799</v>
+      </c>
+      <c r="AA503" s="63">
+        <v>67</v>
+      </c>
+      <c r="AH503" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI503" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL503" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM503" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>503</v>
+      </c>
+      <c r="B504" s="63">
+        <v>10420</v>
+      </c>
+      <c r="C504" s="63"/>
+      <c r="D504" s="63"/>
+      <c r="E504" s="63"/>
+      <c r="F504" s="63">
+        <v>1</v>
+      </c>
+      <c r="G504" s="63" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H504" s="63"/>
+      <c r="I504" s="63" t="s">
+        <v>1899</v>
+      </c>
+      <c r="J504" s="63" t="s">
+        <v>1903</v>
+      </c>
+      <c r="K504" s="63"/>
+      <c r="L504" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M504" s="63">
+        <v>0</v>
+      </c>
+      <c r="N504" s="63">
+        <v>0</v>
+      </c>
+      <c r="O504" s="63" t="s">
+        <v>481</v>
+      </c>
+      <c r="P504" s="63">
+        <v>19800</v>
+      </c>
+      <c r="Q504" s="63" t="s">
+        <v>1901</v>
+      </c>
+      <c r="R504" s="80" t="s">
+        <v>1888</v>
+      </c>
+      <c r="S504" s="63"/>
+      <c r="T504" s="63"/>
+      <c r="U504" s="63"/>
+      <c r="V504" s="63"/>
+      <c r="W504" s="63" t="s">
+        <v>524</v>
+      </c>
+      <c r="X504" s="63">
+        <v>99999999</v>
+      </c>
+      <c r="Y504" s="63">
+        <v>1609804800</v>
+      </c>
+      <c r="Z504" s="63">
+        <v>1610380799</v>
+      </c>
+      <c r="AA504" s="63">
+        <v>67</v>
+      </c>
+      <c r="AH504" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI504" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL504" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM504" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>504</v>
+      </c>
+      <c r="B505" s="63">
+        <v>10421</v>
+      </c>
+      <c r="C505" s="63"/>
+      <c r="D505" s="63"/>
+      <c r="E505" s="63"/>
+      <c r="F505" s="63">
+        <v>1</v>
+      </c>
+      <c r="G505" s="63" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H505" s="63"/>
+      <c r="I505" s="63" t="s">
+        <v>1899</v>
+      </c>
+      <c r="J505" s="63" t="s">
+        <v>1904</v>
+      </c>
+      <c r="K505" s="63"/>
+      <c r="L505" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M505" s="63">
+        <v>0</v>
+      </c>
+      <c r="N505" s="63">
+        <v>0</v>
+      </c>
+      <c r="O505" s="63" t="s">
+        <v>481</v>
+      </c>
+      <c r="P505" s="63">
+        <v>9800</v>
+      </c>
+      <c r="Q505" s="63" t="s">
+        <v>1901</v>
+      </c>
+      <c r="R505" s="80" t="s">
+        <v>1905</v>
+      </c>
+      <c r="S505" s="63"/>
+      <c r="T505" s="63"/>
+      <c r="U505" s="63"/>
+      <c r="V505" s="63"/>
+      <c r="W505" s="63" t="s">
+        <v>524</v>
+      </c>
+      <c r="X505" s="63">
+        <v>99999999</v>
+      </c>
+      <c r="Y505" s="63">
+        <v>1609804800</v>
+      </c>
+      <c r="Z505" s="63">
+        <v>1610380799</v>
+      </c>
+      <c r="AA505" s="63">
+        <v>67</v>
+      </c>
+      <c r="AH505" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI505" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL505" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM505" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>505</v>
+      </c>
+      <c r="B506" s="63">
+        <v>10422</v>
+      </c>
+      <c r="C506" s="63"/>
+      <c r="D506" s="63"/>
+      <c r="E506" s="63"/>
+      <c r="F506" s="63">
+        <v>1</v>
+      </c>
+      <c r="G506" s="63" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H506" s="63"/>
+      <c r="I506" s="63" t="s">
+        <v>1899</v>
+      </c>
+      <c r="J506" s="63" t="s">
+        <v>1906</v>
+      </c>
+      <c r="K506" s="63"/>
+      <c r="L506" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M506" s="63">
+        <v>0</v>
+      </c>
+      <c r="N506" s="63">
+        <v>0</v>
+      </c>
+      <c r="O506" s="63" t="s">
+        <v>481</v>
+      </c>
+      <c r="P506" s="63">
+        <v>4800</v>
+      </c>
+      <c r="Q506" s="63" t="s">
+        <v>1907</v>
+      </c>
+      <c r="R506" s="80" t="s">
+        <v>1908</v>
+      </c>
+      <c r="S506" s="63"/>
+      <c r="T506" s="63"/>
+      <c r="U506" s="63"/>
+      <c r="V506" s="63"/>
+      <c r="W506" s="63" t="s">
+        <v>524</v>
+      </c>
+      <c r="X506" s="63">
+        <v>99999999</v>
+      </c>
+      <c r="Y506" s="63">
+        <v>1609804800</v>
+      </c>
+      <c r="Z506" s="63">
+        <v>1610380799</v>
+      </c>
+      <c r="AA506" s="63">
+        <v>67</v>
+      </c>
+      <c r="AH506" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI506" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL506" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM506" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>506</v>
+      </c>
+      <c r="B507" s="63">
+        <v>10423</v>
+      </c>
+      <c r="C507" s="63"/>
+      <c r="D507" s="63"/>
+      <c r="E507" s="63"/>
+      <c r="F507" s="63">
+        <v>1</v>
+      </c>
+      <c r="G507" s="63" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H507" s="63"/>
+      <c r="I507" s="63" t="s">
+        <v>1899</v>
+      </c>
+      <c r="J507" s="63" t="s">
+        <v>1909</v>
+      </c>
+      <c r="K507" s="63"/>
+      <c r="L507" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M507" s="63">
+        <v>0</v>
+      </c>
+      <c r="N507" s="63">
+        <v>0</v>
+      </c>
+      <c r="O507" s="63" t="s">
+        <v>481</v>
+      </c>
+      <c r="P507" s="63">
+        <v>2000</v>
+      </c>
+      <c r="Q507" s="63" t="s">
+        <v>1907</v>
+      </c>
+      <c r="R507" s="80" t="s">
+        <v>1896</v>
+      </c>
+      <c r="S507" s="63"/>
+      <c r="T507" s="63"/>
+      <c r="U507" s="63"/>
+      <c r="V507" s="63"/>
+      <c r="W507" s="63" t="s">
+        <v>524</v>
+      </c>
+      <c r="X507" s="63">
+        <v>99999999</v>
+      </c>
+      <c r="Y507" s="63">
+        <v>1609804800</v>
+      </c>
+      <c r="Z507" s="63">
+        <v>1610380799</v>
+      </c>
+      <c r="AA507" s="63">
+        <v>67</v>
+      </c>
+      <c r="AH507" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI507" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL507" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM507" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>507</v>
+      </c>
+      <c r="B508" s="63">
+        <v>10424</v>
+      </c>
+      <c r="C508" s="63"/>
+      <c r="D508" s="63"/>
+      <c r="E508" s="63"/>
+      <c r="F508" s="63">
+        <v>1</v>
+      </c>
+      <c r="G508" s="63" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H508" s="63"/>
+      <c r="I508" s="63" t="s">
+        <v>1899</v>
+      </c>
+      <c r="J508" s="63" t="s">
+        <v>1910</v>
+      </c>
+      <c r="K508" s="63"/>
+      <c r="L508" s="63">
+        <v>-31</v>
+      </c>
+      <c r="M508" s="63">
+        <v>0</v>
+      </c>
+      <c r="N508" s="63">
+        <v>0</v>
+      </c>
+      <c r="O508" s="63" t="s">
+        <v>481</v>
+      </c>
+      <c r="P508" s="63">
+        <v>600</v>
+      </c>
+      <c r="Q508" s="63" t="s">
+        <v>1907</v>
+      </c>
+      <c r="R508" s="80" t="s">
+        <v>1898</v>
+      </c>
+      <c r="S508" s="63"/>
+      <c r="T508" s="63"/>
+      <c r="U508" s="63"/>
+      <c r="V508" s="63"/>
+      <c r="W508" s="63" t="s">
+        <v>524</v>
+      </c>
+      <c r="X508" s="63">
+        <v>99999999</v>
+      </c>
+      <c r="Y508" s="63">
+        <v>1609804800</v>
+      </c>
+      <c r="Z508" s="63">
+        <v>1610380799</v>
+      </c>
+      <c r="AA508" s="63">
+        <v>67</v>
+      </c>
+      <c r="AH508" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI508" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL508" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM508" s="6">
         <v>1</v>
       </c>
     </row>
@@ -42723,10 +43745,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43664,6 +44686,34 @@
       </c>
       <c r="D66" s="64">
         <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="25">
+        <v>66</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C67" s="25">
+        <v>1</v>
+      </c>
+      <c r="D67" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="25">
+        <v>67</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C68" s="25">
+        <v>1</v>
+      </c>
+      <c r="D68" s="25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -11076,7 +11076,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="U486" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F509" sqref="F509"/>
+      <selection pane="bottomRight" activeCell="W497" sqref="W497:W508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -42861,7 +42861,7 @@
       <c r="U497" s="49"/>
       <c r="V497" s="49"/>
       <c r="W497" s="49" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="X497" s="49">
         <v>99999999</v>
@@ -42938,7 +42938,7 @@
       <c r="U498" s="49"/>
       <c r="V498" s="49"/>
       <c r="W498" s="49" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="X498" s="49">
         <v>99999999</v>
@@ -43015,7 +43015,7 @@
       <c r="U499" s="49"/>
       <c r="V499" s="49"/>
       <c r="W499" s="49" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="X499" s="49">
         <v>99999999</v>
@@ -43092,7 +43092,7 @@
       <c r="U500" s="49"/>
       <c r="V500" s="49"/>
       <c r="W500" s="49" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="X500" s="49">
         <v>99999999</v>
@@ -43169,7 +43169,7 @@
       <c r="U501" s="49"/>
       <c r="V501" s="49"/>
       <c r="W501" s="49" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="X501" s="49">
         <v>99999999</v>
@@ -43246,7 +43246,7 @@
       <c r="U502" s="49"/>
       <c r="V502" s="49"/>
       <c r="W502" s="49" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="X502" s="49">
         <v>99999999</v>
@@ -43323,7 +43323,7 @@
       <c r="U503" s="63"/>
       <c r="V503" s="63"/>
       <c r="W503" s="63" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="X503" s="63">
         <v>99999999</v>
@@ -43400,7 +43400,7 @@
       <c r="U504" s="63"/>
       <c r="V504" s="63"/>
       <c r="W504" s="63" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="X504" s="63">
         <v>99999999</v>
@@ -43477,7 +43477,7 @@
       <c r="U505" s="63"/>
       <c r="V505" s="63"/>
       <c r="W505" s="63" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="X505" s="63">
         <v>99999999</v>
@@ -43554,7 +43554,7 @@
       <c r="U506" s="63"/>
       <c r="V506" s="63"/>
       <c r="W506" s="63" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="X506" s="63">
         <v>99999999</v>
@@ -43631,7 +43631,7 @@
       <c r="U507" s="63"/>
       <c r="V507" s="63"/>
       <c r="W507" s="63" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="X507" s="63">
         <v>99999999</v>
@@ -43708,7 +43708,7 @@
       <c r="U508" s="63"/>
       <c r="V508" s="63"/>
       <c r="W508" s="63" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="X508" s="63">
         <v>99999999</v>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4165" uniqueCount="1911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4165" uniqueCount="1913">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8174,6 +8174,14 @@
   </si>
   <si>
     <t>"60万","抽奖券*1","水滴*1",</t>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -42861,7 +42869,7 @@
       <c r="U497" s="49"/>
       <c r="V497" s="49"/>
       <c r="W497" s="49" t="s">
-        <v>527</v>
+        <v>1912</v>
       </c>
       <c r="X497" s="49">
         <v>99999999</v>
@@ -42938,7 +42946,7 @@
       <c r="U498" s="49"/>
       <c r="V498" s="49"/>
       <c r="W498" s="49" t="s">
-        <v>527</v>
+        <v>1912</v>
       </c>
       <c r="X498" s="49">
         <v>99999999</v>
@@ -43015,7 +43023,7 @@
       <c r="U499" s="49"/>
       <c r="V499" s="49"/>
       <c r="W499" s="49" t="s">
-        <v>527</v>
+        <v>1912</v>
       </c>
       <c r="X499" s="49">
         <v>99999999</v>
@@ -43092,7 +43100,7 @@
       <c r="U500" s="49"/>
       <c r="V500" s="49"/>
       <c r="W500" s="49" t="s">
-        <v>527</v>
+        <v>1911</v>
       </c>
       <c r="X500" s="49">
         <v>99999999</v>
@@ -43169,7 +43177,7 @@
       <c r="U501" s="49"/>
       <c r="V501" s="49"/>
       <c r="W501" s="49" t="s">
-        <v>527</v>
+        <v>1911</v>
       </c>
       <c r="X501" s="49">
         <v>99999999</v>
@@ -43246,7 +43254,7 @@
       <c r="U502" s="49"/>
       <c r="V502" s="49"/>
       <c r="W502" s="49" t="s">
-        <v>527</v>
+        <v>1912</v>
       </c>
       <c r="X502" s="49">
         <v>99999999</v>
@@ -43322,8 +43330,8 @@
       <c r="T503" s="63"/>
       <c r="U503" s="63"/>
       <c r="V503" s="63"/>
-      <c r="W503" s="63" t="s">
-        <v>527</v>
+      <c r="W503" s="49" t="s">
+        <v>1912</v>
       </c>
       <c r="X503" s="63">
         <v>99999999</v>
@@ -43399,8 +43407,8 @@
       <c r="T504" s="63"/>
       <c r="U504" s="63"/>
       <c r="V504" s="63"/>
-      <c r="W504" s="63" t="s">
-        <v>527</v>
+      <c r="W504" s="49" t="s">
+        <v>1911</v>
       </c>
       <c r="X504" s="63">
         <v>99999999</v>
@@ -43476,8 +43484,8 @@
       <c r="T505" s="63"/>
       <c r="U505" s="63"/>
       <c r="V505" s="63"/>
-      <c r="W505" s="63" t="s">
-        <v>527</v>
+      <c r="W505" s="49" t="s">
+        <v>1912</v>
       </c>
       <c r="X505" s="63">
         <v>99999999</v>
@@ -43553,8 +43561,8 @@
       <c r="T506" s="63"/>
       <c r="U506" s="63"/>
       <c r="V506" s="63"/>
-      <c r="W506" s="63" t="s">
-        <v>527</v>
+      <c r="W506" s="49" t="s">
+        <v>1911</v>
       </c>
       <c r="X506" s="63">
         <v>99999999</v>
@@ -43630,8 +43638,8 @@
       <c r="T507" s="63"/>
       <c r="U507" s="63"/>
       <c r="V507" s="63"/>
-      <c r="W507" s="63" t="s">
-        <v>527</v>
+      <c r="W507" s="49" t="s">
+        <v>1912</v>
       </c>
       <c r="X507" s="63">
         <v>99999999</v>
@@ -43707,8 +43715,8 @@
       <c r="T508" s="63"/>
       <c r="U508" s="63"/>
       <c r="V508" s="63"/>
-      <c r="W508" s="63" t="s">
-        <v>527</v>
+      <c r="W508" s="49" t="s">
+        <v>1912</v>
       </c>
       <c r="X508" s="63">
         <v>99999999</v>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4165" uniqueCount="1913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4165" uniqueCount="1916">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8085,32 +8085,16 @@
     <t>"jing_bi","prop_qdlb_cjq","prop_3d_fish_doubled",</t>
   </si>
   <si>
-    <t>49800000,50,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"2020万","抽奖券*30","双倍奖励*10",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>19800000,30,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"990万","抽奖券*20","双倍奖励*5",</t>
   </si>
   <si>
-    <t>9800000,20,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"483万","抽奖券*3","双倍奖励*3",</t>
   </si>
   <si>
-    <t>4800000,10,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>庆典礼包</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8122,66 +8106,92 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>"60万","抽奖券*1","双倍奖励*1",</t>
+  </si>
+  <si>
+    <t>欢乐庆典-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5180万","抽奖券*50","太阳*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
+  </si>
+  <si>
+    <t>"2020万","抽奖券*30","太阳*10",</t>
+  </si>
+  <si>
+    <t>"990万","抽奖券*20","太阳*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"483万","抽奖券*3","水滴*6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_1",</t>
+  </si>
+  <si>
+    <t>"200万","抽奖券*4","水滴*2",</t>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","水滴*1",</t>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51800000,50,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>2000000,4,2,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"60万","抽奖券*1","双倍奖励*1",</t>
-  </si>
-  <si>
     <t>600000,1,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>欢乐庆典-冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5180万","抽奖券*50","太阳*20",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
-  </si>
-  <si>
-    <t>49800000,50,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2020万","抽奖券*30","太阳*10",</t>
-  </si>
-  <si>
-    <t>"990万","抽奖券*20","太阳*2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,20,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"483万","抽奖券*3","水滴*6",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_1",</t>
-  </si>
-  <si>
-    <t>4800000,10,6,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"200万","抽奖券*4","水滴*2",</t>
-  </si>
-  <si>
-    <t>"60万","抽奖券*1","水滴*1",</t>
-  </si>
-  <si>
-    <t>86400,9999,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,9999,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>51800000,50,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
   </si>
 </sst>
 </file>
@@ -11081,10 +11091,10 @@
   <dimension ref="A1:AN508"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="U486" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="N486" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W497" sqref="W497:W508"/>
+      <selection pane="bottomRight" activeCell="R497" sqref="R497:R508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -42862,14 +42872,14 @@
         <v>1885</v>
       </c>
       <c r="R497" s="50" t="s">
-        <v>1886</v>
+        <v>1904</v>
       </c>
       <c r="S497" s="49"/>
       <c r="T497" s="49"/>
       <c r="U497" s="49"/>
       <c r="V497" s="49"/>
       <c r="W497" s="49" t="s">
-        <v>1912</v>
+        <v>1903</v>
       </c>
       <c r="X497" s="49">
         <v>99999999</v>
@@ -42917,7 +42927,7 @@
         <v>1882</v>
       </c>
       <c r="J498" s="49" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="K498" s="49"/>
       <c r="L498" s="49">
@@ -42939,14 +42949,14 @@
         <v>1885</v>
       </c>
       <c r="R498" s="50" t="s">
-        <v>1888</v>
+        <v>1905</v>
       </c>
       <c r="S498" s="49"/>
       <c r="T498" s="49"/>
       <c r="U498" s="49"/>
       <c r="V498" s="49"/>
       <c r="W498" s="49" t="s">
-        <v>1912</v>
+        <v>1903</v>
       </c>
       <c r="X498" s="49">
         <v>99999999</v>
@@ -42994,7 +43004,7 @@
         <v>1882</v>
       </c>
       <c r="J499" s="49" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="K499" s="49"/>
       <c r="L499" s="49">
@@ -43016,14 +43026,14 @@
         <v>1885</v>
       </c>
       <c r="R499" s="50" t="s">
-        <v>1890</v>
+        <v>1906</v>
       </c>
       <c r="S499" s="49"/>
       <c r="T499" s="49"/>
       <c r="U499" s="49"/>
       <c r="V499" s="49"/>
       <c r="W499" s="49" t="s">
-        <v>1912</v>
+        <v>1903</v>
       </c>
       <c r="X499" s="49">
         <v>99999999</v>
@@ -43071,7 +43081,7 @@
         <v>1882</v>
       </c>
       <c r="J500" s="49" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="K500" s="49"/>
       <c r="L500" s="49">
@@ -43093,14 +43103,14 @@
         <v>1885</v>
       </c>
       <c r="R500" s="50" t="s">
-        <v>1892</v>
+        <v>1907</v>
       </c>
       <c r="S500" s="49"/>
       <c r="T500" s="49"/>
       <c r="U500" s="49"/>
       <c r="V500" s="49"/>
       <c r="W500" s="49" t="s">
-        <v>1911</v>
+        <v>1902</v>
       </c>
       <c r="X500" s="49">
         <v>99999999</v>
@@ -43141,14 +43151,14 @@
         <v>1</v>
       </c>
       <c r="G501" s="49" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
       <c r="H501" s="49"/>
       <c r="I501" s="49" t="s">
         <v>1882</v>
       </c>
       <c r="J501" s="49" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
       <c r="K501" s="49"/>
       <c r="L501" s="49">
@@ -43161,7 +43171,7 @@
         <v>0</v>
       </c>
       <c r="O501" s="49" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="P501" s="49">
         <v>2000</v>
@@ -43170,14 +43180,14 @@
         <v>1885</v>
       </c>
       <c r="R501" s="50" t="s">
-        <v>1896</v>
+        <v>1908</v>
       </c>
       <c r="S501" s="49"/>
       <c r="T501" s="49"/>
       <c r="U501" s="49"/>
       <c r="V501" s="49"/>
       <c r="W501" s="49" t="s">
-        <v>1911</v>
+        <v>1902</v>
       </c>
       <c r="X501" s="49">
         <v>99999999</v>
@@ -43225,7 +43235,7 @@
         <v>1882</v>
       </c>
       <c r="J502" s="49" t="s">
-        <v>1897</v>
+        <v>1892</v>
       </c>
       <c r="K502" s="49"/>
       <c r="L502" s="49">
@@ -43247,14 +43257,14 @@
         <v>1885</v>
       </c>
       <c r="R502" s="50" t="s">
-        <v>1898</v>
+        <v>1909</v>
       </c>
       <c r="S502" s="49"/>
       <c r="T502" s="49"/>
       <c r="U502" s="49"/>
       <c r="V502" s="49"/>
       <c r="W502" s="49" t="s">
-        <v>1912</v>
+        <v>1903</v>
       </c>
       <c r="X502" s="49">
         <v>99999999</v>
@@ -43299,10 +43309,10 @@
       </c>
       <c r="H503" s="63"/>
       <c r="I503" s="63" t="s">
-        <v>1899</v>
+        <v>1893</v>
       </c>
       <c r="J503" s="63" t="s">
-        <v>1900</v>
+        <v>1894</v>
       </c>
       <c r="K503" s="63"/>
       <c r="L503" s="63">
@@ -43321,17 +43331,17 @@
         <v>49800</v>
       </c>
       <c r="Q503" s="63" t="s">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="R503" s="80" t="s">
-        <v>1902</v>
+        <v>1910</v>
       </c>
       <c r="S503" s="63"/>
       <c r="T503" s="63"/>
       <c r="U503" s="63"/>
       <c r="V503" s="63"/>
       <c r="W503" s="49" t="s">
-        <v>1912</v>
+        <v>1903</v>
       </c>
       <c r="X503" s="63">
         <v>99999999</v>
@@ -43376,10 +43386,10 @@
       </c>
       <c r="H504" s="63"/>
       <c r="I504" s="63" t="s">
-        <v>1899</v>
+        <v>1893</v>
       </c>
       <c r="J504" s="63" t="s">
-        <v>1903</v>
+        <v>1896</v>
       </c>
       <c r="K504" s="63"/>
       <c r="L504" s="63">
@@ -43398,17 +43408,17 @@
         <v>19800</v>
       </c>
       <c r="Q504" s="63" t="s">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="R504" s="80" t="s">
-        <v>1888</v>
+        <v>1911</v>
       </c>
       <c r="S504" s="63"/>
       <c r="T504" s="63"/>
       <c r="U504" s="63"/>
       <c r="V504" s="63"/>
       <c r="W504" s="49" t="s">
-        <v>1911</v>
+        <v>1902</v>
       </c>
       <c r="X504" s="63">
         <v>99999999</v>
@@ -43453,10 +43463,10 @@
       </c>
       <c r="H505" s="63"/>
       <c r="I505" s="63" t="s">
-        <v>1899</v>
+        <v>1893</v>
       </c>
       <c r="J505" s="63" t="s">
-        <v>1904</v>
+        <v>1897</v>
       </c>
       <c r="K505" s="63"/>
       <c r="L505" s="63">
@@ -43475,17 +43485,17 @@
         <v>9800</v>
       </c>
       <c r="Q505" s="63" t="s">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="R505" s="80" t="s">
-        <v>1905</v>
+        <v>1912</v>
       </c>
       <c r="S505" s="63"/>
       <c r="T505" s="63"/>
       <c r="U505" s="63"/>
       <c r="V505" s="63"/>
       <c r="W505" s="49" t="s">
-        <v>1912</v>
+        <v>1903</v>
       </c>
       <c r="X505" s="63">
         <v>99999999</v>
@@ -43530,10 +43540,10 @@
       </c>
       <c r="H506" s="63"/>
       <c r="I506" s="63" t="s">
-        <v>1899</v>
+        <v>1893</v>
       </c>
       <c r="J506" s="63" t="s">
-        <v>1906</v>
+        <v>1898</v>
       </c>
       <c r="K506" s="63"/>
       <c r="L506" s="63">
@@ -43552,17 +43562,17 @@
         <v>4800</v>
       </c>
       <c r="Q506" s="63" t="s">
-        <v>1907</v>
+        <v>1899</v>
       </c>
       <c r="R506" s="80" t="s">
-        <v>1908</v>
+        <v>1913</v>
       </c>
       <c r="S506" s="63"/>
       <c r="T506" s="63"/>
       <c r="U506" s="63"/>
       <c r="V506" s="63"/>
       <c r="W506" s="49" t="s">
-        <v>1911</v>
+        <v>1902</v>
       </c>
       <c r="X506" s="63">
         <v>99999999</v>
@@ -43607,10 +43617,10 @@
       </c>
       <c r="H507" s="63"/>
       <c r="I507" s="63" t="s">
-        <v>1899</v>
+        <v>1893</v>
       </c>
       <c r="J507" s="63" t="s">
-        <v>1909</v>
+        <v>1900</v>
       </c>
       <c r="K507" s="63"/>
       <c r="L507" s="63">
@@ -43629,17 +43639,17 @@
         <v>2000</v>
       </c>
       <c r="Q507" s="63" t="s">
-        <v>1907</v>
+        <v>1899</v>
       </c>
       <c r="R507" s="80" t="s">
-        <v>1896</v>
+        <v>1914</v>
       </c>
       <c r="S507" s="63"/>
       <c r="T507" s="63"/>
       <c r="U507" s="63"/>
       <c r="V507" s="63"/>
       <c r="W507" s="49" t="s">
-        <v>1912</v>
+        <v>1903</v>
       </c>
       <c r="X507" s="63">
         <v>99999999</v>
@@ -43684,10 +43694,10 @@
       </c>
       <c r="H508" s="63"/>
       <c r="I508" s="63" t="s">
-        <v>1899</v>
+        <v>1893</v>
       </c>
       <c r="J508" s="63" t="s">
-        <v>1910</v>
+        <v>1901</v>
       </c>
       <c r="K508" s="63"/>
       <c r="L508" s="63">
@@ -43706,17 +43716,17 @@
         <v>600</v>
       </c>
       <c r="Q508" s="63" t="s">
-        <v>1907</v>
+        <v>1899</v>
       </c>
       <c r="R508" s="80" t="s">
-        <v>1898</v>
+        <v>1915</v>
       </c>
       <c r="S508" s="63"/>
       <c r="T508" s="63"/>
       <c r="U508" s="63"/>
       <c r="V508" s="63"/>
       <c r="W508" s="49" t="s">
-        <v>1912</v>
+        <v>1903</v>
       </c>
       <c r="X508" s="63">
         <v>99999999</v>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4165" uniqueCount="1916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="1970">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8085,16 +8085,32 @@
     <t>"jing_bi","prop_qdlb_cjq","prop_3d_fish_doubled",</t>
   </si>
   <si>
+    <t>49800000,50,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"2020万","抽奖券*30","双倍奖励*10",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>19800000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"990万","抽奖券*20","双倍奖励*5",</t>
   </si>
   <si>
+    <t>9800000,20,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"483万","抽奖券*3","双倍奖励*3",</t>
   </si>
   <si>
+    <t>4800000,10,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>庆典礼包</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8106,9 +8122,17 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>2000000,4,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"60万","抽奖券*1","双倍奖励*1",</t>
   </si>
   <si>
+    <t>600000,1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>欢乐庆典-冲金鸡</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8120,6 +8144,10 @@
     <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
   </si>
   <si>
+    <t>49800000,50,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"2020万","抽奖券*30","太阳*10",</t>
   </si>
   <si>
@@ -8127,6 +8155,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>9800000,20,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"483万","抽奖券*3","水滴*6",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8134,64 +8166,247 @@
     <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_1",</t>
   </si>
   <si>
+    <t>4800000,10,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"200万","抽奖券*4","水滴*2",</t>
   </si>
   <si>
     <t>"60万","抽奖券*1","水滴*1",</t>
   </si>
   <si>
-    <t>86400,9999,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,9999,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>51800000,50,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200000,30,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9900000,20,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4830000,10,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,4,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,1,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>51800000,50,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200000,30,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9900000,20,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4830000,10,6,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,4,2,</t>
-  </si>
-  <si>
-    <t>600000,1,1,</t>
+    <t>幸运金币18元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得180万-500万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1850000,1950000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,5000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得480万-1500万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5000000,5200000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,15000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得980万-3000万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10000000,10800000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,30000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_ssbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000万金币","太阳*6","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4880000,2,3,</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_xybox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"488万金币","双倍奖励卡*2","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9960000,4,3,</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_ssbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100000,6,5,</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50200000,10,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hqjnh_046_nor_hllb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包-欢乐捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5020万金币","双倍奖励卡*10","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2010万金币","双倍奖励卡*6","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包-欢乐捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"996万金币","双倍奖励卡*4","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包-欢乐捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5000万金币","太阳*10","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000000,4,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,2,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"996万金币","水滴*4","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9960000,8,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"488万金币","水滴*2","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_xybox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4880000,4,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hqjnh_046_cjj_hllb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>周卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","首次救济金为6万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","obj_week_card",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{valid_time=604800},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>604800,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8415,7 +8630,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8658,6 +8873,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11088,13 +11309,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN508"/>
+  <dimension ref="A1:AN520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="N486" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="U519" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R497" sqref="R497:R508"/>
+      <selection pane="bottomRight" activeCell="A520" sqref="A520:XFD520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -42872,14 +43093,14 @@
         <v>1885</v>
       </c>
       <c r="R497" s="50" t="s">
-        <v>1904</v>
+        <v>1886</v>
       </c>
       <c r="S497" s="49"/>
       <c r="T497" s="49"/>
       <c r="U497" s="49"/>
       <c r="V497" s="49"/>
       <c r="W497" s="49" t="s">
-        <v>1903</v>
+        <v>524</v>
       </c>
       <c r="X497" s="49">
         <v>99999999</v>
@@ -42927,7 +43148,7 @@
         <v>1882</v>
       </c>
       <c r="J498" s="49" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="K498" s="49"/>
       <c r="L498" s="49">
@@ -42949,14 +43170,14 @@
         <v>1885</v>
       </c>
       <c r="R498" s="50" t="s">
-        <v>1905</v>
+        <v>1888</v>
       </c>
       <c r="S498" s="49"/>
       <c r="T498" s="49"/>
       <c r="U498" s="49"/>
       <c r="V498" s="49"/>
       <c r="W498" s="49" t="s">
-        <v>1903</v>
+        <v>524</v>
       </c>
       <c r="X498" s="49">
         <v>99999999</v>
@@ -43004,7 +43225,7 @@
         <v>1882</v>
       </c>
       <c r="J499" s="49" t="s">
-        <v>1887</v>
+        <v>1889</v>
       </c>
       <c r="K499" s="49"/>
       <c r="L499" s="49">
@@ -43026,14 +43247,14 @@
         <v>1885</v>
       </c>
       <c r="R499" s="50" t="s">
-        <v>1906</v>
+        <v>1890</v>
       </c>
       <c r="S499" s="49"/>
       <c r="T499" s="49"/>
       <c r="U499" s="49"/>
       <c r="V499" s="49"/>
       <c r="W499" s="49" t="s">
-        <v>1903</v>
+        <v>524</v>
       </c>
       <c r="X499" s="49">
         <v>99999999</v>
@@ -43081,7 +43302,7 @@
         <v>1882</v>
       </c>
       <c r="J500" s="49" t="s">
-        <v>1888</v>
+        <v>1891</v>
       </c>
       <c r="K500" s="49"/>
       <c r="L500" s="49">
@@ -43103,14 +43324,14 @@
         <v>1885</v>
       </c>
       <c r="R500" s="50" t="s">
-        <v>1907</v>
+        <v>1892</v>
       </c>
       <c r="S500" s="49"/>
       <c r="T500" s="49"/>
       <c r="U500" s="49"/>
       <c r="V500" s="49"/>
       <c r="W500" s="49" t="s">
-        <v>1902</v>
+        <v>524</v>
       </c>
       <c r="X500" s="49">
         <v>99999999</v>
@@ -43151,14 +43372,14 @@
         <v>1</v>
       </c>
       <c r="G501" s="49" t="s">
-        <v>1889</v>
+        <v>1893</v>
       </c>
       <c r="H501" s="49"/>
       <c r="I501" s="49" t="s">
         <v>1882</v>
       </c>
       <c r="J501" s="49" t="s">
-        <v>1890</v>
+        <v>1894</v>
       </c>
       <c r="K501" s="49"/>
       <c r="L501" s="49">
@@ -43171,7 +43392,7 @@
         <v>0</v>
       </c>
       <c r="O501" s="49" t="s">
-        <v>1891</v>
+        <v>1895</v>
       </c>
       <c r="P501" s="49">
         <v>2000</v>
@@ -43180,14 +43401,14 @@
         <v>1885</v>
       </c>
       <c r="R501" s="50" t="s">
-        <v>1908</v>
+        <v>1896</v>
       </c>
       <c r="S501" s="49"/>
       <c r="T501" s="49"/>
       <c r="U501" s="49"/>
       <c r="V501" s="49"/>
       <c r="W501" s="49" t="s">
-        <v>1902</v>
+        <v>524</v>
       </c>
       <c r="X501" s="49">
         <v>99999999</v>
@@ -43235,7 +43456,7 @@
         <v>1882</v>
       </c>
       <c r="J502" s="49" t="s">
-        <v>1892</v>
+        <v>1897</v>
       </c>
       <c r="K502" s="49"/>
       <c r="L502" s="49">
@@ -43257,14 +43478,14 @@
         <v>1885</v>
       </c>
       <c r="R502" s="50" t="s">
-        <v>1909</v>
+        <v>1898</v>
       </c>
       <c r="S502" s="49"/>
       <c r="T502" s="49"/>
       <c r="U502" s="49"/>
       <c r="V502" s="49"/>
       <c r="W502" s="49" t="s">
-        <v>1903</v>
+        <v>524</v>
       </c>
       <c r="X502" s="49">
         <v>99999999</v>
@@ -43309,10 +43530,10 @@
       </c>
       <c r="H503" s="63"/>
       <c r="I503" s="63" t="s">
-        <v>1893</v>
+        <v>1899</v>
       </c>
       <c r="J503" s="63" t="s">
-        <v>1894</v>
+        <v>1900</v>
       </c>
       <c r="K503" s="63"/>
       <c r="L503" s="63">
@@ -43331,17 +43552,17 @@
         <v>49800</v>
       </c>
       <c r="Q503" s="63" t="s">
-        <v>1895</v>
+        <v>1901</v>
       </c>
       <c r="R503" s="80" t="s">
-        <v>1910</v>
+        <v>1902</v>
       </c>
       <c r="S503" s="63"/>
       <c r="T503" s="63"/>
       <c r="U503" s="63"/>
       <c r="V503" s="63"/>
-      <c r="W503" s="49" t="s">
-        <v>1903</v>
+      <c r="W503" s="63" t="s">
+        <v>524</v>
       </c>
       <c r="X503" s="63">
         <v>99999999</v>
@@ -43386,10 +43607,10 @@
       </c>
       <c r="H504" s="63"/>
       <c r="I504" s="63" t="s">
-        <v>1893</v>
+        <v>1899</v>
       </c>
       <c r="J504" s="63" t="s">
-        <v>1896</v>
+        <v>1903</v>
       </c>
       <c r="K504" s="63"/>
       <c r="L504" s="63">
@@ -43408,17 +43629,17 @@
         <v>19800</v>
       </c>
       <c r="Q504" s="63" t="s">
-        <v>1895</v>
+        <v>1901</v>
       </c>
       <c r="R504" s="80" t="s">
-        <v>1911</v>
+        <v>1888</v>
       </c>
       <c r="S504" s="63"/>
       <c r="T504" s="63"/>
       <c r="U504" s="63"/>
       <c r="V504" s="63"/>
-      <c r="W504" s="49" t="s">
-        <v>1902</v>
+      <c r="W504" s="63" t="s">
+        <v>524</v>
       </c>
       <c r="X504" s="63">
         <v>99999999</v>
@@ -43463,10 +43684,10 @@
       </c>
       <c r="H505" s="63"/>
       <c r="I505" s="63" t="s">
-        <v>1893</v>
+        <v>1899</v>
       </c>
       <c r="J505" s="63" t="s">
-        <v>1897</v>
+        <v>1904</v>
       </c>
       <c r="K505" s="63"/>
       <c r="L505" s="63">
@@ -43485,17 +43706,17 @@
         <v>9800</v>
       </c>
       <c r="Q505" s="63" t="s">
-        <v>1895</v>
+        <v>1901</v>
       </c>
       <c r="R505" s="80" t="s">
-        <v>1912</v>
+        <v>1905</v>
       </c>
       <c r="S505" s="63"/>
       <c r="T505" s="63"/>
       <c r="U505" s="63"/>
       <c r="V505" s="63"/>
-      <c r="W505" s="49" t="s">
-        <v>1903</v>
+      <c r="W505" s="63" t="s">
+        <v>524</v>
       </c>
       <c r="X505" s="63">
         <v>99999999</v>
@@ -43540,10 +43761,10 @@
       </c>
       <c r="H506" s="63"/>
       <c r="I506" s="63" t="s">
-        <v>1893</v>
+        <v>1899</v>
       </c>
       <c r="J506" s="63" t="s">
-        <v>1898</v>
+        <v>1906</v>
       </c>
       <c r="K506" s="63"/>
       <c r="L506" s="63">
@@ -43562,17 +43783,17 @@
         <v>4800</v>
       </c>
       <c r="Q506" s="63" t="s">
-        <v>1899</v>
+        <v>1907</v>
       </c>
       <c r="R506" s="80" t="s">
-        <v>1913</v>
+        <v>1908</v>
       </c>
       <c r="S506" s="63"/>
       <c r="T506" s="63"/>
       <c r="U506" s="63"/>
       <c r="V506" s="63"/>
-      <c r="W506" s="49" t="s">
-        <v>1902</v>
+      <c r="W506" s="63" t="s">
+        <v>524</v>
       </c>
       <c r="X506" s="63">
         <v>99999999</v>
@@ -43617,10 +43838,10 @@
       </c>
       <c r="H507" s="63"/>
       <c r="I507" s="63" t="s">
-        <v>1893</v>
+        <v>1899</v>
       </c>
       <c r="J507" s="63" t="s">
-        <v>1900</v>
+        <v>1909</v>
       </c>
       <c r="K507" s="63"/>
       <c r="L507" s="63">
@@ -43639,17 +43860,17 @@
         <v>2000</v>
       </c>
       <c r="Q507" s="63" t="s">
-        <v>1899</v>
+        <v>1907</v>
       </c>
       <c r="R507" s="80" t="s">
-        <v>1914</v>
+        <v>1896</v>
       </c>
       <c r="S507" s="63"/>
       <c r="T507" s="63"/>
       <c r="U507" s="63"/>
       <c r="V507" s="63"/>
-      <c r="W507" s="49" t="s">
-        <v>1903</v>
+      <c r="W507" s="63" t="s">
+        <v>524</v>
       </c>
       <c r="X507" s="63">
         <v>99999999</v>
@@ -43694,10 +43915,10 @@
       </c>
       <c r="H508" s="63"/>
       <c r="I508" s="63" t="s">
-        <v>1893</v>
+        <v>1899</v>
       </c>
       <c r="J508" s="63" t="s">
-        <v>1901</v>
+        <v>1910</v>
       </c>
       <c r="K508" s="63"/>
       <c r="L508" s="63">
@@ -43716,17 +43937,17 @@
         <v>600</v>
       </c>
       <c r="Q508" s="63" t="s">
-        <v>1899</v>
+        <v>1907</v>
       </c>
       <c r="R508" s="80" t="s">
-        <v>1915</v>
+        <v>1898</v>
       </c>
       <c r="S508" s="63"/>
       <c r="T508" s="63"/>
       <c r="U508" s="63"/>
       <c r="V508" s="63"/>
-      <c r="W508" s="49" t="s">
-        <v>1903</v>
+      <c r="W508" s="63" t="s">
+        <v>524</v>
       </c>
       <c r="X508" s="63">
         <v>99999999</v>
@@ -43750,6 +43971,792 @@
         <v>1</v>
       </c>
       <c r="AM508" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="5">
+        <v>508</v>
+      </c>
+      <c r="B509" s="5">
+        <v>10425</v>
+      </c>
+      <c r="F509" s="5">
+        <v>1</v>
+      </c>
+      <c r="G509" s="5" t="s">
+        <v>1911</v>
+      </c>
+      <c r="J509" s="5" t="s">
+        <v>1912</v>
+      </c>
+      <c r="L509" s="5">
+        <v>-4</v>
+      </c>
+      <c r="M509" s="5">
+        <v>1</v>
+      </c>
+      <c r="N509" s="5">
+        <v>0</v>
+      </c>
+      <c r="O509" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P509" s="5">
+        <v>1800</v>
+      </c>
+      <c r="R509" s="10"/>
+      <c r="W509" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="X509" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y509" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z509" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="AB509" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC509" s="5" t="s">
+        <v>1913</v>
+      </c>
+      <c r="AD509" s="10" t="s">
+        <v>1914</v>
+      </c>
+      <c r="AH509" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI509" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>509</v>
+      </c>
+      <c r="B510" s="5">
+        <v>10426</v>
+      </c>
+      <c r="F510" s="5">
+        <v>1</v>
+      </c>
+      <c r="G510" s="5" t="s">
+        <v>1915</v>
+      </c>
+      <c r="J510" s="5" t="s">
+        <v>1916</v>
+      </c>
+      <c r="L510" s="5">
+        <v>-4</v>
+      </c>
+      <c r="M510" s="5">
+        <v>1</v>
+      </c>
+      <c r="N510" s="5">
+        <v>0</v>
+      </c>
+      <c r="O510" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P510" s="5">
+        <v>4800</v>
+      </c>
+      <c r="R510" s="10"/>
+      <c r="W510" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="X510" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y510" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z510" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="AB510" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC510" s="5" t="s">
+        <v>1917</v>
+      </c>
+      <c r="AD510" s="10" t="s">
+        <v>1918</v>
+      </c>
+      <c r="AH510" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI510" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A511" s="5">
+        <v>510</v>
+      </c>
+      <c r="B511" s="5">
+        <v>10427</v>
+      </c>
+      <c r="F511" s="5">
+        <v>1</v>
+      </c>
+      <c r="G511" s="5" t="s">
+        <v>1919</v>
+      </c>
+      <c r="J511" s="5" t="s">
+        <v>1920</v>
+      </c>
+      <c r="L511" s="5">
+        <v>-4</v>
+      </c>
+      <c r="M511" s="5">
+        <v>1</v>
+      </c>
+      <c r="N511" s="5">
+        <v>0</v>
+      </c>
+      <c r="O511" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P511" s="5">
+        <v>9800</v>
+      </c>
+      <c r="R511" s="10"/>
+      <c r="W511" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="X511" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y511" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z511" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="AB511" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC511" s="5" t="s">
+        <v>1921</v>
+      </c>
+      <c r="AD511" s="10" t="s">
+        <v>1922</v>
+      </c>
+      <c r="AH511" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI511" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A512" s="78">
+        <v>511</v>
+      </c>
+      <c r="B512" s="78">
+        <v>10428</v>
+      </c>
+      <c r="F512" s="78">
+        <v>1</v>
+      </c>
+      <c r="G512" s="78" t="s">
+        <v>1936</v>
+      </c>
+      <c r="I512" s="78" t="s">
+        <v>1937</v>
+      </c>
+      <c r="J512" s="78" t="s">
+        <v>1938</v>
+      </c>
+      <c r="L512" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M512" s="78">
+        <v>0</v>
+      </c>
+      <c r="N512" s="78">
+        <v>0</v>
+      </c>
+      <c r="O512" s="78" t="s">
+        <v>1923</v>
+      </c>
+      <c r="P512" s="78">
+        <v>49800</v>
+      </c>
+      <c r="Q512" s="78" t="s">
+        <v>1939</v>
+      </c>
+      <c r="R512" s="79" t="s">
+        <v>1934</v>
+      </c>
+      <c r="W512" s="78" t="s">
+        <v>1940</v>
+      </c>
+      <c r="X512" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y512" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z512" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA512" s="78">
+        <v>68</v>
+      </c>
+      <c r="AH512" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI512" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL512" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM512" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A513" s="78">
+        <v>512</v>
+      </c>
+      <c r="B513" s="78">
+        <v>10429</v>
+      </c>
+      <c r="F513" s="78">
+        <v>1</v>
+      </c>
+      <c r="G513" s="78" t="s">
+        <v>1924</v>
+      </c>
+      <c r="I513" s="78" t="s">
+        <v>1937</v>
+      </c>
+      <c r="J513" s="78" t="s">
+        <v>1941</v>
+      </c>
+      <c r="L513" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M513" s="78">
+        <v>0</v>
+      </c>
+      <c r="N513" s="78">
+        <v>0</v>
+      </c>
+      <c r="O513" s="78" t="s">
+        <v>1923</v>
+      </c>
+      <c r="P513" s="78">
+        <v>19800</v>
+      </c>
+      <c r="Q513" s="78" t="s">
+        <v>1933</v>
+      </c>
+      <c r="R513" s="79" t="s">
+        <v>1932</v>
+      </c>
+      <c r="W513" s="78" t="s">
+        <v>1940</v>
+      </c>
+      <c r="X513" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y513" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z513" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA513" s="78">
+        <v>68</v>
+      </c>
+      <c r="AH513" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI513" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL513" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM513" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A514" s="78">
+        <v>513</v>
+      </c>
+      <c r="B514" s="78">
+        <v>10430</v>
+      </c>
+      <c r="F514" s="78">
+        <v>1</v>
+      </c>
+      <c r="G514" s="78" t="s">
+        <v>1924</v>
+      </c>
+      <c r="I514" s="78" t="s">
+        <v>1942</v>
+      </c>
+      <c r="J514" s="78" t="s">
+        <v>1943</v>
+      </c>
+      <c r="L514" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M514" s="78">
+        <v>0</v>
+      </c>
+      <c r="N514" s="78">
+        <v>0</v>
+      </c>
+      <c r="O514" s="78" t="s">
+        <v>1944</v>
+      </c>
+      <c r="P514" s="78">
+        <v>9800</v>
+      </c>
+      <c r="Q514" s="78" t="s">
+        <v>1931</v>
+      </c>
+      <c r="R514" s="79" t="s">
+        <v>1930</v>
+      </c>
+      <c r="W514" s="78" t="s">
+        <v>1945</v>
+      </c>
+      <c r="X514" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y514" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z514" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA514" s="78">
+        <v>68</v>
+      </c>
+      <c r="AH514" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI514" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL514" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM514" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A515" s="78">
+        <v>514</v>
+      </c>
+      <c r="B515" s="78">
+        <v>10431</v>
+      </c>
+      <c r="F515" s="78">
+        <v>1</v>
+      </c>
+      <c r="G515" s="78" t="s">
+        <v>1924</v>
+      </c>
+      <c r="I515" s="78" t="s">
+        <v>1946</v>
+      </c>
+      <c r="J515" s="78" t="s">
+        <v>1929</v>
+      </c>
+      <c r="L515" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M515" s="78">
+        <v>0</v>
+      </c>
+      <c r="N515" s="78">
+        <v>0</v>
+      </c>
+      <c r="O515" s="78" t="s">
+        <v>1947</v>
+      </c>
+      <c r="P515" s="78">
+        <v>4800</v>
+      </c>
+      <c r="Q515" s="78" t="s">
+        <v>1928</v>
+      </c>
+      <c r="R515" s="79" t="s">
+        <v>1927</v>
+      </c>
+      <c r="W515" s="78" t="s">
+        <v>1940</v>
+      </c>
+      <c r="X515" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y515" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z515" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA515" s="78">
+        <v>68</v>
+      </c>
+      <c r="AH515" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI515" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL515" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM515" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A516" s="78">
+        <v>515</v>
+      </c>
+      <c r="B516" s="78">
+        <v>10432</v>
+      </c>
+      <c r="F516" s="78">
+        <v>1</v>
+      </c>
+      <c r="G516" s="78" t="s">
+        <v>1936</v>
+      </c>
+      <c r="I516" s="78" t="s">
+        <v>1948</v>
+      </c>
+      <c r="J516" s="78" t="s">
+        <v>1949</v>
+      </c>
+      <c r="L516" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M516" s="78">
+        <v>0</v>
+      </c>
+      <c r="N516" s="78">
+        <v>0</v>
+      </c>
+      <c r="O516" s="78" t="s">
+        <v>1923</v>
+      </c>
+      <c r="P516" s="78">
+        <v>49800</v>
+      </c>
+      <c r="Q516" s="78" t="s">
+        <v>1951</v>
+      </c>
+      <c r="R516" s="79" t="s">
+        <v>1952</v>
+      </c>
+      <c r="W516" s="78" t="s">
+        <v>1940</v>
+      </c>
+      <c r="X516" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y516" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z516" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA516" s="78">
+        <v>69</v>
+      </c>
+      <c r="AH516" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI516" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL516" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM516" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A517" s="78">
+        <v>516</v>
+      </c>
+      <c r="B517" s="78">
+        <v>10433</v>
+      </c>
+      <c r="F517" s="78">
+        <v>1</v>
+      </c>
+      <c r="G517" s="78" t="s">
+        <v>1924</v>
+      </c>
+      <c r="I517" s="78" t="s">
+        <v>1953</v>
+      </c>
+      <c r="J517" s="78" t="s">
+        <v>1926</v>
+      </c>
+      <c r="L517" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M517" s="78">
+        <v>0</v>
+      </c>
+      <c r="N517" s="78">
+        <v>0</v>
+      </c>
+      <c r="O517" s="78" t="s">
+        <v>1923</v>
+      </c>
+      <c r="P517" s="78">
+        <v>19800</v>
+      </c>
+      <c r="Q517" s="78" t="s">
+        <v>1950</v>
+      </c>
+      <c r="R517" s="79" t="s">
+        <v>1954</v>
+      </c>
+      <c r="W517" s="78" t="s">
+        <v>1945</v>
+      </c>
+      <c r="X517" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y517" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z517" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA517" s="78">
+        <v>69</v>
+      </c>
+      <c r="AH517" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI517" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL517" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM517" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A518" s="78">
+        <v>517</v>
+      </c>
+      <c r="B518" s="78">
+        <v>10434</v>
+      </c>
+      <c r="F518" s="78">
+        <v>1</v>
+      </c>
+      <c r="G518" s="78" t="s">
+        <v>1924</v>
+      </c>
+      <c r="I518" s="78" t="s">
+        <v>1948</v>
+      </c>
+      <c r="J518" s="78" t="s">
+        <v>1955</v>
+      </c>
+      <c r="L518" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M518" s="78">
+        <v>0</v>
+      </c>
+      <c r="N518" s="78">
+        <v>0</v>
+      </c>
+      <c r="O518" s="78" t="s">
+        <v>1947</v>
+      </c>
+      <c r="P518" s="78">
+        <v>9800</v>
+      </c>
+      <c r="Q518" s="78" t="s">
+        <v>1925</v>
+      </c>
+      <c r="R518" s="79" t="s">
+        <v>1956</v>
+      </c>
+      <c r="W518" s="78" t="s">
+        <v>1957</v>
+      </c>
+      <c r="X518" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y518" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z518" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA518" s="78">
+        <v>69</v>
+      </c>
+      <c r="AH518" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI518" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL518" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM518" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:39" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A519" s="78">
+        <v>518</v>
+      </c>
+      <c r="B519" s="78">
+        <v>10435</v>
+      </c>
+      <c r="F519" s="78">
+        <v>1</v>
+      </c>
+      <c r="G519" s="78" t="s">
+        <v>1936</v>
+      </c>
+      <c r="I519" s="78" t="s">
+        <v>1948</v>
+      </c>
+      <c r="J519" s="78" t="s">
+        <v>1958</v>
+      </c>
+      <c r="L519" s="78">
+        <v>-33</v>
+      </c>
+      <c r="M519" s="78">
+        <v>0</v>
+      </c>
+      <c r="N519" s="78">
+        <v>0</v>
+      </c>
+      <c r="O519" s="78" t="s">
+        <v>1959</v>
+      </c>
+      <c r="P519" s="78">
+        <v>4800</v>
+      </c>
+      <c r="Q519" s="78" t="s">
+        <v>1960</v>
+      </c>
+      <c r="R519" s="79" t="s">
+        <v>1961</v>
+      </c>
+      <c r="W519" s="78" t="s">
+        <v>1940</v>
+      </c>
+      <c r="X519" s="78">
+        <v>99999999</v>
+      </c>
+      <c r="Y519" s="78">
+        <v>1610409600</v>
+      </c>
+      <c r="Z519" s="78">
+        <v>1610985599</v>
+      </c>
+      <c r="AA519" s="78">
+        <v>69</v>
+      </c>
+      <c r="AH519" s="78">
+        <v>1</v>
+      </c>
+      <c r="AI519" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL519" s="78">
+        <v>1</v>
+      </c>
+      <c r="AM519" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A520" s="5">
+        <v>519</v>
+      </c>
+      <c r="B520" s="5">
+        <v>10436</v>
+      </c>
+      <c r="F520" s="5">
+        <v>1</v>
+      </c>
+      <c r="G520" s="5" t="s">
+        <v>1963</v>
+      </c>
+      <c r="I520" s="5" t="s">
+        <v>1964</v>
+      </c>
+      <c r="J520" s="5" t="s">
+        <v>1965</v>
+      </c>
+      <c r="L520" s="5">
+        <v>-23</v>
+      </c>
+      <c r="M520" s="5">
+        <v>1</v>
+      </c>
+      <c r="N520" s="5">
+        <v>0</v>
+      </c>
+      <c r="O520" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P520" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Q520" s="5" t="s">
+        <v>1966</v>
+      </c>
+      <c r="R520" s="10" t="s">
+        <v>1967</v>
+      </c>
+      <c r="S520" s="5" t="s">
+        <v>1968</v>
+      </c>
+      <c r="W520" s="5" t="s">
+        <v>1969</v>
+      </c>
+      <c r="X520" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="Y520" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z520" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="AH520" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI520" s="5">
         <v>1</v>
       </c>
     </row>
@@ -43763,10 +44770,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:XFD68"/>
+      <selection activeCell="A69" sqref="A69:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -44731,6 +45738,34 @@
         <v>1</v>
       </c>
       <c r="D68" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="81">
+        <v>68</v>
+      </c>
+      <c r="B69" s="82" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C69" s="81">
+        <v>1</v>
+      </c>
+      <c r="D69" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="81">
+        <v>69</v>
+      </c>
+      <c r="B70" s="82" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C70" s="81">
+        <v>1</v>
+      </c>
+      <c r="D70" s="81">
         <v>0</v>
       </c>
     </row>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -9343,8 +9343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9489,7 +9489,9 @@
         <v>40</v>
       </c>
       <c r="E2" s="24"/>
-      <c r="F2" s="11"/>
+      <c r="F2" s="2">
+        <v>10330</v>
+      </c>
       <c r="G2" s="11" t="s">
         <v>41</v>
       </c>
@@ -9569,7 +9571,9 @@
         <v>40</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>85</v>
+      </c>
       <c r="G3" s="11" t="s">
         <v>41</v>
       </c>
@@ -9649,7 +9653,9 @@
         <v>40</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>86</v>
+      </c>
       <c r="G4" s="11" t="s">
         <v>41</v>
       </c>
@@ -9729,7 +9735,9 @@
         <v>40</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>87</v>
+      </c>
       <c r="G5" s="11" t="s">
         <v>41</v>
       </c>
@@ -9809,7 +9817,9 @@
         <v>40</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>88</v>
+      </c>
       <c r="G6" s="11" t="s">
         <v>41</v>
       </c>
@@ -9889,7 +9899,9 @@
         <v>40</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>89</v>
+      </c>
       <c r="G7" s="11" t="s">
         <v>41</v>
       </c>
@@ -9969,7 +9981,9 @@
         <v>40</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>109</v>
+      </c>
       <c r="G8" s="11" t="s">
         <v>41</v>
       </c>
@@ -10049,7 +10063,9 @@
         <v>40</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>10044</v>
+      </c>
       <c r="G9" s="11" t="s">
         <v>41</v>
       </c>
@@ -10128,6 +10144,9 @@
         <v>40</v>
       </c>
       <c r="E10" s="23"/>
+      <c r="F10" s="11">
+        <v>10045</v>
+      </c>
       <c r="G10" s="11" t="s">
         <v>41</v>
       </c>
@@ -10208,7 +10227,9 @@
       <c r="E11" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="11">
+        <v>90</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>41</v>
       </c>
@@ -11210,7 +11231,9 @@
         <v>40</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="11">
+        <v>10189</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>1059</v>
       </c>
@@ -11311,11 +11334,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN520"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="U519" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A520" sqref="A520:XFD520"/>
+      <selection pane="bottomRight" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -15168,7 +15191,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="69" t="s">
         <v>222</v>
@@ -15227,7 +15250,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="69" t="s">
         <v>224</v>
@@ -15286,7 +15309,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="69" t="s">
         <v>226</v>
@@ -15345,7 +15368,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="69" t="s">
         <v>228</v>
@@ -15404,7 +15427,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="69" t="s">
         <v>229</v>
@@ -16752,7 +16775,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="69" t="s">
         <v>253</v>
@@ -18786,7 +18809,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="69" t="s">
         <v>319</v>
@@ -18845,7 +18868,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="69" t="s">
         <v>1129</v>
@@ -28148,7 +28171,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" s="69" t="s">
         <v>520</v>
@@ -37583,7 +37606,7 @@
         <v>1</v>
       </c>
       <c r="F414" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G414" s="69" t="s">
         <v>1377</v>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -8236,10 +8236,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"2000万金币","太阳*6","传说宝箱*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>4880000,2,3,</t>
   </si>
   <si>
@@ -8325,10 +8321,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"5000万金币","太阳*10","传说宝箱*15",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_guess_apple_bet_2","prop_hqjnh_csbox",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8349,10 +8341,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"996万金币","水滴*4","史诗宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>9960000,8,3,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8361,10 +8349,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"488万金币","水滴*2","稀有宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>gift_bag</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8406,6 +8390,22 @@
   </si>
   <si>
     <t>604800,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5000万金币","太阳*4","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000万金币","太阳*2","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"996万金币","水滴*8","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"488万金币","水滴*4","稀有宝箱*3",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9343,7 +9343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F24"/>
     </sheetView>
   </sheetViews>
@@ -11334,11 +11334,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN520"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H491" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F71" sqref="F71"/>
+      <selection pane="bottomRight" activeCell="J518" sqref="J518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -44188,13 +44188,13 @@
         <v>1</v>
       </c>
       <c r="G512" s="78" t="s">
+        <v>1935</v>
+      </c>
+      <c r="I512" s="78" t="s">
         <v>1936</v>
       </c>
-      <c r="I512" s="78" t="s">
+      <c r="J512" s="78" t="s">
         <v>1937</v>
-      </c>
-      <c r="J512" s="78" t="s">
-        <v>1938</v>
       </c>
       <c r="L512" s="78">
         <v>-33</v>
@@ -44212,13 +44212,13 @@
         <v>49800</v>
       </c>
       <c r="Q512" s="78" t="s">
+        <v>1938</v>
+      </c>
+      <c r="R512" s="79" t="s">
+        <v>1933</v>
+      </c>
+      <c r="W512" s="78" t="s">
         <v>1939</v>
-      </c>
-      <c r="R512" s="79" t="s">
-        <v>1934</v>
-      </c>
-      <c r="W512" s="78" t="s">
-        <v>1940</v>
       </c>
       <c r="X512" s="78">
         <v>99999999</v>
@@ -44259,10 +44259,10 @@
         <v>1924</v>
       </c>
       <c r="I513" s="78" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="J513" s="78" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="L513" s="78">
         <v>-33</v>
@@ -44280,13 +44280,13 @@
         <v>19800</v>
       </c>
       <c r="Q513" s="78" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="R513" s="79" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="W513" s="78" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="X513" s="78">
         <v>99999999</v>
@@ -44327,10 +44327,10 @@
         <v>1924</v>
       </c>
       <c r="I514" s="78" t="s">
+        <v>1941</v>
+      </c>
+      <c r="J514" s="78" t="s">
         <v>1942</v>
-      </c>
-      <c r="J514" s="78" t="s">
-        <v>1943</v>
       </c>
       <c r="L514" s="78">
         <v>-33</v>
@@ -44342,19 +44342,19 @@
         <v>0</v>
       </c>
       <c r="O514" s="78" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="P514" s="78">
         <v>9800</v>
       </c>
       <c r="Q514" s="78" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="R514" s="79" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="W514" s="78" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="X514" s="78">
         <v>99999999</v>
@@ -44395,10 +44395,10 @@
         <v>1924</v>
       </c>
       <c r="I515" s="78" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="J515" s="78" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="L515" s="78">
         <v>-33</v>
@@ -44410,19 +44410,19 @@
         <v>0</v>
       </c>
       <c r="O515" s="78" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="P515" s="78">
         <v>4800</v>
       </c>
       <c r="Q515" s="78" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="R515" s="79" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="W515" s="78" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="X515" s="78">
         <v>99999999</v>
@@ -44460,13 +44460,13 @@
         <v>1</v>
       </c>
       <c r="G516" s="78" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="I516" s="78" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="J516" s="78" t="s">
-        <v>1949</v>
+        <v>1966</v>
       </c>
       <c r="L516" s="78">
         <v>-33</v>
@@ -44484,13 +44484,13 @@
         <v>49800</v>
       </c>
       <c r="Q516" s="78" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="R516" s="79" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="W516" s="78" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="X516" s="78">
         <v>99999999</v>
@@ -44531,10 +44531,10 @@
         <v>1924</v>
       </c>
       <c r="I517" s="78" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="J517" s="78" t="s">
-        <v>1926</v>
+        <v>1967</v>
       </c>
       <c r="L517" s="78">
         <v>-33</v>
@@ -44552,13 +44552,13 @@
         <v>19800</v>
       </c>
       <c r="Q517" s="78" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="R517" s="79" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="W517" s="78" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="X517" s="78">
         <v>99999999</v>
@@ -44599,10 +44599,10 @@
         <v>1924</v>
       </c>
       <c r="I518" s="78" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="J518" s="78" t="s">
-        <v>1955</v>
+        <v>1968</v>
       </c>
       <c r="L518" s="78">
         <v>-33</v>
@@ -44614,7 +44614,7 @@
         <v>0</v>
       </c>
       <c r="O518" s="78" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="P518" s="78">
         <v>9800</v>
@@ -44623,10 +44623,10 @@
         <v>1925</v>
       </c>
       <c r="R518" s="79" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="W518" s="78" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="X518" s="78">
         <v>99999999</v>
@@ -44664,13 +44664,13 @@
         <v>1</v>
       </c>
       <c r="G519" s="78" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="I519" s="78" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="J519" s="78" t="s">
-        <v>1958</v>
+        <v>1969</v>
       </c>
       <c r="L519" s="78">
         <v>-33</v>
@@ -44682,19 +44682,19 @@
         <v>0</v>
       </c>
       <c r="O519" s="78" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="P519" s="78">
         <v>4800</v>
       </c>
       <c r="Q519" s="78" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
       <c r="R519" s="79" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
       <c r="W519" s="78" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="X519" s="78">
         <v>99999999</v>
@@ -44732,13 +44732,13 @@
         <v>1</v>
       </c>
       <c r="G520" s="5" t="s">
-        <v>1963</v>
+        <v>1959</v>
       </c>
       <c r="I520" s="5" t="s">
-        <v>1964</v>
+        <v>1960</v>
       </c>
       <c r="J520" s="5" t="s">
-        <v>1965</v>
+        <v>1961</v>
       </c>
       <c r="L520" s="5">
         <v>-23</v>
@@ -44756,16 +44756,16 @@
         <v>1000</v>
       </c>
       <c r="Q520" s="5" t="s">
-        <v>1966</v>
+        <v>1962</v>
       </c>
       <c r="R520" s="10" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="S520" s="5" t="s">
-        <v>1968</v>
+        <v>1964</v>
       </c>
       <c r="W520" s="5" t="s">
-        <v>1969</v>
+        <v>1965</v>
       </c>
       <c r="X520" s="5">
         <v>99999999</v>
@@ -45769,7 +45769,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="82" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="C69" s="81">
         <v>1</v>
@@ -45783,7 +45783,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="82" t="s">
-        <v>1962</v>
+        <v>1958</v>
       </c>
       <c r="C70" s="81">
         <v>1</v>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="1970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="1974">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8085,32 +8085,16 @@
     <t>"jing_bi","prop_qdlb_cjq","prop_3d_fish_doubled",</t>
   </si>
   <si>
-    <t>49800000,50,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"2020万","抽奖券*30","双倍奖励*10",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>19800000,30,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"990万","抽奖券*20","双倍奖励*5",</t>
   </si>
   <si>
-    <t>9800000,20,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"483万","抽奖券*3","双倍奖励*3",</t>
   </si>
   <si>
-    <t>4800000,10,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>庆典礼包</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8122,290 +8106,320 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>"60万","抽奖券*1","双倍奖励*1",</t>
+  </si>
+  <si>
+    <t>欢乐庆典-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5180万","抽奖券*50","太阳*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
+  </si>
+  <si>
+    <t>"2020万","抽奖券*30","太阳*10",</t>
+  </si>
+  <si>
+    <t>"990万","抽奖券*20","太阳*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"483万","抽奖券*3","水滴*6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_1",</t>
+  </si>
+  <si>
+    <t>"200万","抽奖券*4","水滴*2",</t>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","水滴*1",</t>
+  </si>
+  <si>
+    <t>幸运金币18元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得180万-500万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1850000,1950000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,5000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得480万-1500万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5000000,5200000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,15000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得980万-3000万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10000000,10800000,100,},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,30000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_ssbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4880000,2,3,</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_xybox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"488万金币","双倍奖励卡*2","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9960000,4,3,</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_ssbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100000,6,5,</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50200000,10,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hqjnh_046_nor_hllb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包-欢乐捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5020万金币","双倍奖励卡*10","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2010万金币","双倍奖励卡*6","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包-欢乐捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"996万金币","双倍奖励卡*4","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包-欢乐捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000000,4,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,2,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9960000,8,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_xybox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4880000,4,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hqjnh_046_cjj_hllb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>周卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","首次救济金为6万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","obj_week_card",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{valid_time=604800},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>604800,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5000万金币","太阳*4","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000万金币","太阳*2","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"996万金币","水滴*8","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"488万金币","水滴*4","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51800000,50,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>2000000,4,2,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"60万","抽奖券*1","双倍奖励*1",</t>
-  </si>
-  <si>
     <t>600000,1,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>欢乐庆典-冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5180万","抽奖券*50","太阳*20",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
-  </si>
-  <si>
-    <t>49800000,50,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2020万","抽奖券*30","太阳*10",</t>
-  </si>
-  <si>
-    <t>"990万","抽奖券*20","太阳*2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,20,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"483万","抽奖券*3","水滴*6",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_1",</t>
-  </si>
-  <si>
-    <t>4800000,10,6,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"200万","抽奖券*4","水滴*2",</t>
-  </si>
-  <si>
-    <t>"60万","抽奖券*1","水滴*1",</t>
-  </si>
-  <si>
-    <t>幸运金币18元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"随机获得180万-500万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1850000,1950000,100,},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800000,5000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运金币48元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"随机获得480万-1500万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{5000000,5200000,100,},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,15000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运金币98元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"随机获得980万-3000万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{10000000,10800000,100,},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,30000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_ssbox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4880000,2,3,</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_xybox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"488万金币","双倍奖励卡*2","稀有宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9960000,4,3,</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_ssbox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20100000,6,5,</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_csbox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>50200000,10,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hqjnh_046_nor_hllb" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐礼包-欢乐捕鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5020万金币","双倍奖励卡*10","传说宝箱*15",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_csbox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2010万金币","双倍奖励卡*6","传说宝箱*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐礼包-欢乐捕鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"996万金币","双倍奖励卡*4","史诗宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐礼包-欢乐捕鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐礼包-冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_2","prop_hqjnh_csbox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_2","prop_hqjnh_csbox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000000,4,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐礼包-冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000000,2,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9960000,8,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_xybox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4880000,4,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hqjnh_046_cjj_hllb" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>周卡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"100万金币","首次救济金为6万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","obj_week_card",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000,1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{valid_time=604800},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>604800,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5000万金币","太阳*4","传说宝箱*15",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2000万金币","太阳*2","传说宝箱*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"996万金币","水滴*8","史诗宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"488万金币","水滴*4","稀有宝箱*3",</t>
+    <t>51800000,50,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,20,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4830000,10,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11335,10 +11349,10 @@
   <dimension ref="A1:AN520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H491" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W491" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J518" sqref="J518"/>
+      <selection pane="bottomRight" activeCell="W502" sqref="W502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -43116,14 +43130,14 @@
         <v>1885</v>
       </c>
       <c r="R497" s="50" t="s">
-        <v>1886</v>
+        <v>1961</v>
       </c>
       <c r="S497" s="49"/>
       <c r="T497" s="49"/>
       <c r="U497" s="49"/>
       <c r="V497" s="49"/>
       <c r="W497" s="49" t="s">
-        <v>524</v>
+        <v>1973</v>
       </c>
       <c r="X497" s="49">
         <v>99999999</v>
@@ -43171,7 +43185,7 @@
         <v>1882</v>
       </c>
       <c r="J498" s="49" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="K498" s="49"/>
       <c r="L498" s="49">
@@ -43193,14 +43207,14 @@
         <v>1885</v>
       </c>
       <c r="R498" s="50" t="s">
-        <v>1888</v>
+        <v>1962</v>
       </c>
       <c r="S498" s="49"/>
       <c r="T498" s="49"/>
       <c r="U498" s="49"/>
       <c r="V498" s="49"/>
       <c r="W498" s="49" t="s">
-        <v>524</v>
+        <v>1973</v>
       </c>
       <c r="X498" s="49">
         <v>99999999</v>
@@ -43248,7 +43262,7 @@
         <v>1882</v>
       </c>
       <c r="J499" s="49" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="K499" s="49"/>
       <c r="L499" s="49">
@@ -43270,14 +43284,14 @@
         <v>1885</v>
       </c>
       <c r="R499" s="50" t="s">
-        <v>1890</v>
+        <v>1963</v>
       </c>
       <c r="S499" s="49"/>
       <c r="T499" s="49"/>
       <c r="U499" s="49"/>
       <c r="V499" s="49"/>
       <c r="W499" s="49" t="s">
-        <v>524</v>
+        <v>1973</v>
       </c>
       <c r="X499" s="49">
         <v>99999999</v>
@@ -43325,7 +43339,7 @@
         <v>1882</v>
       </c>
       <c r="J500" s="49" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="K500" s="49"/>
       <c r="L500" s="49">
@@ -43347,14 +43361,14 @@
         <v>1885</v>
       </c>
       <c r="R500" s="50" t="s">
-        <v>1892</v>
+        <v>1964</v>
       </c>
       <c r="S500" s="49"/>
       <c r="T500" s="49"/>
       <c r="U500" s="49"/>
       <c r="V500" s="49"/>
       <c r="W500" s="49" t="s">
-        <v>524</v>
+        <v>1973</v>
       </c>
       <c r="X500" s="49">
         <v>99999999</v>
@@ -43395,14 +43409,14 @@
         <v>1</v>
       </c>
       <c r="G501" s="49" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
       <c r="H501" s="49"/>
       <c r="I501" s="49" t="s">
         <v>1882</v>
       </c>
       <c r="J501" s="49" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
       <c r="K501" s="49"/>
       <c r="L501" s="49">
@@ -43415,7 +43429,7 @@
         <v>0</v>
       </c>
       <c r="O501" s="49" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="P501" s="49">
         <v>2000</v>
@@ -43424,14 +43438,14 @@
         <v>1885</v>
       </c>
       <c r="R501" s="50" t="s">
-        <v>1896</v>
+        <v>1965</v>
       </c>
       <c r="S501" s="49"/>
       <c r="T501" s="49"/>
       <c r="U501" s="49"/>
       <c r="V501" s="49"/>
       <c r="W501" s="49" t="s">
-        <v>524</v>
+        <v>1973</v>
       </c>
       <c r="X501" s="49">
         <v>99999999</v>
@@ -43479,7 +43493,7 @@
         <v>1882</v>
       </c>
       <c r="J502" s="49" t="s">
-        <v>1897</v>
+        <v>1892</v>
       </c>
       <c r="K502" s="49"/>
       <c r="L502" s="49">
@@ -43501,14 +43515,14 @@
         <v>1885</v>
       </c>
       <c r="R502" s="50" t="s">
-        <v>1898</v>
+        <v>1966</v>
       </c>
       <c r="S502" s="49"/>
       <c r="T502" s="49"/>
       <c r="U502" s="49"/>
       <c r="V502" s="49"/>
       <c r="W502" s="49" t="s">
-        <v>524</v>
+        <v>1973</v>
       </c>
       <c r="X502" s="49">
         <v>99999999</v>
@@ -43553,10 +43567,10 @@
       </c>
       <c r="H503" s="63"/>
       <c r="I503" s="63" t="s">
-        <v>1899</v>
+        <v>1893</v>
       </c>
       <c r="J503" s="63" t="s">
-        <v>1900</v>
+        <v>1894</v>
       </c>
       <c r="K503" s="63"/>
       <c r="L503" s="63">
@@ -43575,17 +43589,17 @@
         <v>49800</v>
       </c>
       <c r="Q503" s="63" t="s">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="R503" s="80" t="s">
-        <v>1902</v>
+        <v>1967</v>
       </c>
       <c r="S503" s="63"/>
       <c r="T503" s="63"/>
       <c r="U503" s="63"/>
       <c r="V503" s="63"/>
-      <c r="W503" s="63" t="s">
-        <v>524</v>
+      <c r="W503" s="49" t="s">
+        <v>1973</v>
       </c>
       <c r="X503" s="63">
         <v>99999999</v>
@@ -43630,10 +43644,10 @@
       </c>
       <c r="H504" s="63"/>
       <c r="I504" s="63" t="s">
-        <v>1899</v>
+        <v>1893</v>
       </c>
       <c r="J504" s="63" t="s">
-        <v>1903</v>
+        <v>1896</v>
       </c>
       <c r="K504" s="63"/>
       <c r="L504" s="63">
@@ -43652,17 +43666,17 @@
         <v>19800</v>
       </c>
       <c r="Q504" s="63" t="s">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="R504" s="80" t="s">
-        <v>1888</v>
+        <v>1962</v>
       </c>
       <c r="S504" s="63"/>
       <c r="T504" s="63"/>
       <c r="U504" s="63"/>
       <c r="V504" s="63"/>
-      <c r="W504" s="63" t="s">
-        <v>524</v>
+      <c r="W504" s="49" t="s">
+        <v>1972</v>
       </c>
       <c r="X504" s="63">
         <v>99999999</v>
@@ -43707,10 +43721,10 @@
       </c>
       <c r="H505" s="63"/>
       <c r="I505" s="63" t="s">
-        <v>1899</v>
+        <v>1893</v>
       </c>
       <c r="J505" s="63" t="s">
-        <v>1904</v>
+        <v>1897</v>
       </c>
       <c r="K505" s="63"/>
       <c r="L505" s="63">
@@ -43729,17 +43743,17 @@
         <v>9800</v>
       </c>
       <c r="Q505" s="63" t="s">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="R505" s="80" t="s">
-        <v>1905</v>
+        <v>1968</v>
       </c>
       <c r="S505" s="63"/>
       <c r="T505" s="63"/>
       <c r="U505" s="63"/>
       <c r="V505" s="63"/>
-      <c r="W505" s="63" t="s">
-        <v>524</v>
+      <c r="W505" s="49" t="s">
+        <v>1973</v>
       </c>
       <c r="X505" s="63">
         <v>99999999</v>
@@ -43784,10 +43798,10 @@
       </c>
       <c r="H506" s="63"/>
       <c r="I506" s="63" t="s">
-        <v>1899</v>
+        <v>1893</v>
       </c>
       <c r="J506" s="63" t="s">
-        <v>1906</v>
+        <v>1898</v>
       </c>
       <c r="K506" s="63"/>
       <c r="L506" s="63">
@@ -43806,17 +43820,17 @@
         <v>4800</v>
       </c>
       <c r="Q506" s="63" t="s">
-        <v>1907</v>
+        <v>1899</v>
       </c>
       <c r="R506" s="80" t="s">
-        <v>1908</v>
+        <v>1969</v>
       </c>
       <c r="S506" s="63"/>
       <c r="T506" s="63"/>
       <c r="U506" s="63"/>
       <c r="V506" s="63"/>
-      <c r="W506" s="63" t="s">
-        <v>524</v>
+      <c r="W506" s="49" t="s">
+        <v>1973</v>
       </c>
       <c r="X506" s="63">
         <v>99999999</v>
@@ -43861,10 +43875,10 @@
       </c>
       <c r="H507" s="63"/>
       <c r="I507" s="63" t="s">
-        <v>1899</v>
+        <v>1893</v>
       </c>
       <c r="J507" s="63" t="s">
-        <v>1909</v>
+        <v>1900</v>
       </c>
       <c r="K507" s="63"/>
       <c r="L507" s="63">
@@ -43883,17 +43897,17 @@
         <v>2000</v>
       </c>
       <c r="Q507" s="63" t="s">
-        <v>1907</v>
+        <v>1899</v>
       </c>
       <c r="R507" s="80" t="s">
-        <v>1896</v>
+        <v>1970</v>
       </c>
       <c r="S507" s="63"/>
       <c r="T507" s="63"/>
       <c r="U507" s="63"/>
       <c r="V507" s="63"/>
-      <c r="W507" s="63" t="s">
-        <v>524</v>
+      <c r="W507" s="49" t="s">
+        <v>1973</v>
       </c>
       <c r="X507" s="63">
         <v>99999999</v>
@@ -43938,10 +43952,10 @@
       </c>
       <c r="H508" s="63"/>
       <c r="I508" s="63" t="s">
-        <v>1899</v>
+        <v>1893</v>
       </c>
       <c r="J508" s="63" t="s">
-        <v>1910</v>
+        <v>1901</v>
       </c>
       <c r="K508" s="63"/>
       <c r="L508" s="63">
@@ -43960,17 +43974,17 @@
         <v>600</v>
       </c>
       <c r="Q508" s="63" t="s">
-        <v>1907</v>
+        <v>1899</v>
       </c>
       <c r="R508" s="80" t="s">
-        <v>1898</v>
+        <v>1971</v>
       </c>
       <c r="S508" s="63"/>
       <c r="T508" s="63"/>
       <c r="U508" s="63"/>
       <c r="V508" s="63"/>
-      <c r="W508" s="63" t="s">
-        <v>524</v>
+      <c r="W508" s="49" t="s">
+        <v>1972</v>
       </c>
       <c r="X508" s="63">
         <v>99999999</v>
@@ -44008,10 +44022,10 @@
         <v>1</v>
       </c>
       <c r="G509" s="5" t="s">
-        <v>1911</v>
+        <v>1902</v>
       </c>
       <c r="J509" s="5" t="s">
-        <v>1912</v>
+        <v>1903</v>
       </c>
       <c r="L509" s="5">
         <v>-4</v>
@@ -44045,10 +44059,10 @@
         <v>77</v>
       </c>
       <c r="AC509" s="5" t="s">
-        <v>1913</v>
+        <v>1904</v>
       </c>
       <c r="AD509" s="10" t="s">
-        <v>1914</v>
+        <v>1905</v>
       </c>
       <c r="AH509" s="5">
         <v>1</v>
@@ -44068,10 +44082,10 @@
         <v>1</v>
       </c>
       <c r="G510" s="5" t="s">
-        <v>1915</v>
+        <v>1906</v>
       </c>
       <c r="J510" s="5" t="s">
-        <v>1916</v>
+        <v>1907</v>
       </c>
       <c r="L510" s="5">
         <v>-4</v>
@@ -44105,10 +44119,10 @@
         <v>77</v>
       </c>
       <c r="AC510" s="5" t="s">
-        <v>1917</v>
+        <v>1908</v>
       </c>
       <c r="AD510" s="10" t="s">
-        <v>1918</v>
+        <v>1909</v>
       </c>
       <c r="AH510" s="5">
         <v>1</v>
@@ -44128,10 +44142,10 @@
         <v>1</v>
       </c>
       <c r="G511" s="5" t="s">
-        <v>1919</v>
+        <v>1910</v>
       </c>
       <c r="J511" s="5" t="s">
-        <v>1920</v>
+        <v>1911</v>
       </c>
       <c r="L511" s="5">
         <v>-4</v>
@@ -44165,10 +44179,10 @@
         <v>77</v>
       </c>
       <c r="AC511" s="5" t="s">
-        <v>1921</v>
+        <v>1912</v>
       </c>
       <c r="AD511" s="10" t="s">
-        <v>1922</v>
+        <v>1913</v>
       </c>
       <c r="AH511" s="5">
         <v>1</v>
@@ -44188,13 +44202,13 @@
         <v>1</v>
       </c>
       <c r="G512" s="78" t="s">
-        <v>1935</v>
+        <v>1926</v>
       </c>
       <c r="I512" s="78" t="s">
-        <v>1936</v>
+        <v>1927</v>
       </c>
       <c r="J512" s="78" t="s">
-        <v>1937</v>
+        <v>1928</v>
       </c>
       <c r="L512" s="78">
         <v>-33</v>
@@ -44206,19 +44220,19 @@
         <v>0</v>
       </c>
       <c r="O512" s="78" t="s">
-        <v>1923</v>
+        <v>1914</v>
       </c>
       <c r="P512" s="78">
         <v>49800</v>
       </c>
       <c r="Q512" s="78" t="s">
-        <v>1938</v>
+        <v>1929</v>
       </c>
       <c r="R512" s="79" t="s">
-        <v>1933</v>
+        <v>1924</v>
       </c>
       <c r="W512" s="78" t="s">
-        <v>1939</v>
+        <v>1930</v>
       </c>
       <c r="X512" s="78">
         <v>99999999</v>
@@ -44256,13 +44270,13 @@
         <v>1</v>
       </c>
       <c r="G513" s="78" t="s">
-        <v>1924</v>
+        <v>1915</v>
       </c>
       <c r="I513" s="78" t="s">
-        <v>1936</v>
+        <v>1927</v>
       </c>
       <c r="J513" s="78" t="s">
-        <v>1940</v>
+        <v>1931</v>
       </c>
       <c r="L513" s="78">
         <v>-33</v>
@@ -44274,19 +44288,19 @@
         <v>0</v>
       </c>
       <c r="O513" s="78" t="s">
-        <v>1923</v>
+        <v>1914</v>
       </c>
       <c r="P513" s="78">
         <v>19800</v>
       </c>
       <c r="Q513" s="78" t="s">
-        <v>1932</v>
+        <v>1923</v>
       </c>
       <c r="R513" s="79" t="s">
-        <v>1931</v>
+        <v>1922</v>
       </c>
       <c r="W513" s="78" t="s">
-        <v>1939</v>
+        <v>1930</v>
       </c>
       <c r="X513" s="78">
         <v>99999999</v>
@@ -44324,13 +44338,13 @@
         <v>1</v>
       </c>
       <c r="G514" s="78" t="s">
-        <v>1924</v>
+        <v>1915</v>
       </c>
       <c r="I514" s="78" t="s">
-        <v>1941</v>
+        <v>1932</v>
       </c>
       <c r="J514" s="78" t="s">
-        <v>1942</v>
+        <v>1933</v>
       </c>
       <c r="L514" s="78">
         <v>-33</v>
@@ -44342,19 +44356,19 @@
         <v>0</v>
       </c>
       <c r="O514" s="78" t="s">
-        <v>1943</v>
+        <v>1934</v>
       </c>
       <c r="P514" s="78">
         <v>9800</v>
       </c>
       <c r="Q514" s="78" t="s">
-        <v>1930</v>
+        <v>1921</v>
       </c>
       <c r="R514" s="79" t="s">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="W514" s="78" t="s">
-        <v>1944</v>
+        <v>1935</v>
       </c>
       <c r="X514" s="78">
         <v>99999999</v>
@@ -44392,13 +44406,13 @@
         <v>1</v>
       </c>
       <c r="G515" s="78" t="s">
-        <v>1924</v>
+        <v>1915</v>
       </c>
       <c r="I515" s="78" t="s">
-        <v>1945</v>
+        <v>1936</v>
       </c>
       <c r="J515" s="78" t="s">
-        <v>1928</v>
+        <v>1919</v>
       </c>
       <c r="L515" s="78">
         <v>-33</v>
@@ -44410,19 +44424,19 @@
         <v>0</v>
       </c>
       <c r="O515" s="78" t="s">
-        <v>1946</v>
+        <v>1937</v>
       </c>
       <c r="P515" s="78">
         <v>4800</v>
       </c>
       <c r="Q515" s="78" t="s">
-        <v>1927</v>
+        <v>1918</v>
       </c>
       <c r="R515" s="79" t="s">
-        <v>1926</v>
+        <v>1917</v>
       </c>
       <c r="W515" s="78" t="s">
-        <v>1939</v>
+        <v>1930</v>
       </c>
       <c r="X515" s="78">
         <v>99999999</v>
@@ -44460,13 +44474,13 @@
         <v>1</v>
       </c>
       <c r="G516" s="78" t="s">
-        <v>1935</v>
+        <v>1926</v>
       </c>
       <c r="I516" s="78" t="s">
-        <v>1947</v>
+        <v>1938</v>
       </c>
       <c r="J516" s="78" t="s">
-        <v>1966</v>
+        <v>1957</v>
       </c>
       <c r="L516" s="78">
         <v>-33</v>
@@ -44478,19 +44492,19 @@
         <v>0</v>
       </c>
       <c r="O516" s="78" t="s">
-        <v>1923</v>
+        <v>1914</v>
       </c>
       <c r="P516" s="78">
         <v>49800</v>
       </c>
       <c r="Q516" s="78" t="s">
-        <v>1949</v>
+        <v>1940</v>
       </c>
       <c r="R516" s="79" t="s">
-        <v>1950</v>
+        <v>1941</v>
       </c>
       <c r="W516" s="78" t="s">
-        <v>1939</v>
+        <v>1930</v>
       </c>
       <c r="X516" s="78">
         <v>99999999</v>
@@ -44528,13 +44542,13 @@
         <v>1</v>
       </c>
       <c r="G517" s="78" t="s">
-        <v>1924</v>
+        <v>1915</v>
       </c>
       <c r="I517" s="78" t="s">
-        <v>1951</v>
+        <v>1942</v>
       </c>
       <c r="J517" s="78" t="s">
-        <v>1967</v>
+        <v>1958</v>
       </c>
       <c r="L517" s="78">
         <v>-33</v>
@@ -44546,19 +44560,19 @@
         <v>0</v>
       </c>
       <c r="O517" s="78" t="s">
-        <v>1923</v>
+        <v>1914</v>
       </c>
       <c r="P517" s="78">
         <v>19800</v>
       </c>
       <c r="Q517" s="78" t="s">
-        <v>1948</v>
+        <v>1939</v>
       </c>
       <c r="R517" s="79" t="s">
-        <v>1952</v>
+        <v>1943</v>
       </c>
       <c r="W517" s="78" t="s">
-        <v>1944</v>
+        <v>1935</v>
       </c>
       <c r="X517" s="78">
         <v>99999999</v>
@@ -44596,13 +44610,13 @@
         <v>1</v>
       </c>
       <c r="G518" s="78" t="s">
-        <v>1924</v>
+        <v>1915</v>
       </c>
       <c r="I518" s="78" t="s">
-        <v>1947</v>
+        <v>1938</v>
       </c>
       <c r="J518" s="78" t="s">
-        <v>1968</v>
+        <v>1959</v>
       </c>
       <c r="L518" s="78">
         <v>-33</v>
@@ -44614,19 +44628,19 @@
         <v>0</v>
       </c>
       <c r="O518" s="78" t="s">
-        <v>1946</v>
+        <v>1937</v>
       </c>
       <c r="P518" s="78">
         <v>9800</v>
       </c>
       <c r="Q518" s="78" t="s">
-        <v>1925</v>
+        <v>1916</v>
       </c>
       <c r="R518" s="79" t="s">
-        <v>1953</v>
+        <v>1944</v>
       </c>
       <c r="W518" s="78" t="s">
-        <v>1954</v>
+        <v>1945</v>
       </c>
       <c r="X518" s="78">
         <v>99999999</v>
@@ -44664,13 +44678,13 @@
         <v>1</v>
       </c>
       <c r="G519" s="78" t="s">
-        <v>1935</v>
+        <v>1926</v>
       </c>
       <c r="I519" s="78" t="s">
-        <v>1947</v>
+        <v>1938</v>
       </c>
       <c r="J519" s="78" t="s">
-        <v>1969</v>
+        <v>1960</v>
       </c>
       <c r="L519" s="78">
         <v>-33</v>
@@ -44682,19 +44696,19 @@
         <v>0</v>
       </c>
       <c r="O519" s="78" t="s">
-        <v>1955</v>
+        <v>1946</v>
       </c>
       <c r="P519" s="78">
         <v>4800</v>
       </c>
       <c r="Q519" s="78" t="s">
-        <v>1956</v>
+        <v>1947</v>
       </c>
       <c r="R519" s="79" t="s">
-        <v>1957</v>
+        <v>1948</v>
       </c>
       <c r="W519" s="78" t="s">
-        <v>1939</v>
+        <v>1930</v>
       </c>
       <c r="X519" s="78">
         <v>99999999</v>
@@ -44732,13 +44746,13 @@
         <v>1</v>
       </c>
       <c r="G520" s="5" t="s">
-        <v>1959</v>
+        <v>1950</v>
       </c>
       <c r="I520" s="5" t="s">
-        <v>1960</v>
+        <v>1951</v>
       </c>
       <c r="J520" s="5" t="s">
-        <v>1961</v>
+        <v>1952</v>
       </c>
       <c r="L520" s="5">
         <v>-23</v>
@@ -44756,16 +44770,16 @@
         <v>1000</v>
       </c>
       <c r="Q520" s="5" t="s">
-        <v>1962</v>
+        <v>1953</v>
       </c>
       <c r="R520" s="10" t="s">
-        <v>1963</v>
+        <v>1954</v>
       </c>
       <c r="S520" s="5" t="s">
-        <v>1964</v>
+        <v>1955</v>
       </c>
       <c r="W520" s="5" t="s">
-        <v>1965</v>
+        <v>1956</v>
       </c>
       <c r="X520" s="5">
         <v>99999999</v>
@@ -45769,7 +45783,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="82" t="s">
-        <v>1934</v>
+        <v>1925</v>
       </c>
       <c r="C69" s="81">
         <v>1</v>
@@ -45783,7 +45797,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="82" t="s">
-        <v>1958</v>
+        <v>1949</v>
       </c>
       <c r="C70" s="81">
         <v>1</v>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4342" uniqueCount="2022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4405" uniqueCount="2061">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8373,18 +8373,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{type="permission_class",class_value = "fclb_free_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v1v7_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v8v12_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>恭字礼包</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8605,6 +8593,171 @@
   </si>
   <si>
     <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂敲金蛋铜锤</t>
+  </si>
+  <si>
+    <t>（V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","铜锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂敲金蛋银锤</t>
+  </si>
+  <si>
+    <t>（V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币","银锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂敲金蛋金锤</t>
+  </si>
+  <si>
+    <t>"480万金币","金锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_gold_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V4-V7）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","铜锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","银锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V4-V7）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","金锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_gold_hammer_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V8-V10）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","铜锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","银锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","金锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_gold_hammer_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "golden_egg_1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "golden_egg_2" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "golden_egg_3" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -8687,7 +8840,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8738,19 +8891,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8803,7 +8944,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8951,34 +9092,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -8987,22 +9122,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -11463,10 +11592,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN532"/>
+  <dimension ref="A1:AN541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="R497" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q506" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="R521" sqref="R521"/>
@@ -15311,298 +15440,298 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="53">
+    <row r="67" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="51">
         <v>66</v>
       </c>
-      <c r="B67" s="53">
+      <c r="B67" s="51">
         <v>85</v>
       </c>
-      <c r="D67" s="53">
+      <c r="D67" s="51">
         <v>2</v>
       </c>
-      <c r="F67" s="53">
-        <v>1</v>
-      </c>
-      <c r="G67" s="53" t="s">
+      <c r="F67" s="51">
+        <v>1</v>
+      </c>
+      <c r="G67" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="H67" s="53" t="s">
+      <c r="H67" s="51" t="s">
         <v>1786</v>
       </c>
-      <c r="L67" s="53">
+      <c r="L67" s="51">
         <v>-4</v>
       </c>
-      <c r="M67" s="53">
-        <v>0</v>
-      </c>
-      <c r="N67" s="53">
-        <v>0</v>
-      </c>
-      <c r="O67" s="53" t="s">
+      <c r="M67" s="51">
+        <v>0</v>
+      </c>
+      <c r="N67" s="51">
+        <v>0</v>
+      </c>
+      <c r="O67" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P67" s="53">
+      <c r="P67" s="51">
         <v>1500</v>
       </c>
-      <c r="Q67" s="53" t="s">
+      <c r="Q67" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R67" s="53" t="s">
+      <c r="R67" s="51" t="s">
         <v>1366</v>
       </c>
-      <c r="W67" s="53" t="s">
+      <c r="W67" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X67" s="54" t="s">
+      <c r="X67" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y67" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="53">
+      <c r="Y67" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH67" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI67" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="53">
+      <c r="AH67" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI67" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="51">
         <v>67</v>
       </c>
-      <c r="B68" s="53">
+      <c r="B68" s="51">
         <v>86</v>
       </c>
-      <c r="D68" s="53">
+      <c r="D68" s="51">
         <v>3</v>
       </c>
-      <c r="F68" s="53">
-        <v>1</v>
-      </c>
-      <c r="G68" s="53" t="s">
+      <c r="F68" s="51">
+        <v>1</v>
+      </c>
+      <c r="G68" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="H68" s="53" t="s">
+      <c r="H68" s="51" t="s">
         <v>1787</v>
       </c>
-      <c r="L68" s="53">
+      <c r="L68" s="51">
         <v>-4</v>
       </c>
-      <c r="M68" s="53">
-        <v>0</v>
-      </c>
-      <c r="N68" s="53">
-        <v>0</v>
-      </c>
-      <c r="O68" s="53" t="s">
+      <c r="M68" s="51">
+        <v>0</v>
+      </c>
+      <c r="N68" s="51">
+        <v>0</v>
+      </c>
+      <c r="O68" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P68" s="53">
+      <c r="P68" s="51">
         <v>3000</v>
       </c>
-      <c r="Q68" s="53" t="s">
+      <c r="Q68" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R68" s="53" t="s">
+      <c r="R68" s="51" t="s">
         <v>1382</v>
       </c>
-      <c r="W68" s="53" t="s">
+      <c r="W68" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X68" s="54" t="s">
+      <c r="X68" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y68" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="53">
+      <c r="Y68" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH68" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI68" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="53">
+      <c r="AH68" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI68" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="51">
         <v>68</v>
       </c>
-      <c r="B69" s="53">
+      <c r="B69" s="51">
         <v>87</v>
       </c>
-      <c r="D69" s="53">
+      <c r="D69" s="51">
         <v>4</v>
       </c>
-      <c r="F69" s="53">
-        <v>1</v>
-      </c>
-      <c r="G69" s="53" t="s">
+      <c r="F69" s="51">
+        <v>1</v>
+      </c>
+      <c r="G69" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="H69" s="53" t="s">
+      <c r="H69" s="51" t="s">
         <v>1788</v>
       </c>
-      <c r="L69" s="53">
+      <c r="L69" s="51">
         <v>-4</v>
       </c>
-      <c r="M69" s="53">
-        <v>0</v>
-      </c>
-      <c r="N69" s="53">
-        <v>0</v>
-      </c>
-      <c r="O69" s="53" t="s">
+      <c r="M69" s="51">
+        <v>0</v>
+      </c>
+      <c r="N69" s="51">
+        <v>0</v>
+      </c>
+      <c r="O69" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P69" s="53">
+      <c r="P69" s="51">
         <v>5000</v>
       </c>
-      <c r="Q69" s="53" t="s">
+      <c r="Q69" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R69" s="53" t="s">
+      <c r="R69" s="51" t="s">
         <v>1367</v>
       </c>
-      <c r="W69" s="53" t="s">
+      <c r="W69" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X69" s="54" t="s">
+      <c r="X69" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y69" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="53">
+      <c r="Y69" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH69" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI69" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="53">
+      <c r="AH69" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI69" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="51">
         <v>69</v>
       </c>
-      <c r="B70" s="53">
+      <c r="B70" s="51">
         <v>88</v>
       </c>
-      <c r="D70" s="53">
+      <c r="D70" s="51">
         <v>5</v>
       </c>
-      <c r="F70" s="53">
-        <v>1</v>
-      </c>
-      <c r="G70" s="53" t="s">
+      <c r="F70" s="51">
+        <v>1</v>
+      </c>
+      <c r="G70" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="H70" s="53" t="s">
+      <c r="H70" s="51" t="s">
         <v>1789</v>
       </c>
-      <c r="L70" s="53">
+      <c r="L70" s="51">
         <v>-4</v>
       </c>
-      <c r="M70" s="53">
-        <v>0</v>
-      </c>
-      <c r="N70" s="53">
-        <v>0</v>
-      </c>
-      <c r="O70" s="53" t="s">
+      <c r="M70" s="51">
+        <v>0</v>
+      </c>
+      <c r="N70" s="51">
+        <v>0</v>
+      </c>
+      <c r="O70" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P70" s="53">
+      <c r="P70" s="51">
         <v>9800</v>
       </c>
-      <c r="Q70" s="53" t="s">
+      <c r="Q70" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R70" s="53" t="s">
+      <c r="R70" s="51" t="s">
         <v>1368</v>
       </c>
-      <c r="W70" s="53" t="s">
+      <c r="W70" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X70" s="54" t="s">
+      <c r="X70" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y70" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="53">
+      <c r="Y70" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH70" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI70" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="53">
+      <c r="AH70" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI70" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="51">
         <v>70</v>
       </c>
-      <c r="B71" s="53">
+      <c r="B71" s="51">
         <v>89</v>
       </c>
-      <c r="D71" s="53">
+      <c r="D71" s="51">
         <v>6</v>
       </c>
-      <c r="F71" s="53">
-        <v>1</v>
-      </c>
-      <c r="G71" s="53" t="s">
+      <c r="F71" s="51">
+        <v>1</v>
+      </c>
+      <c r="G71" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="H71" s="53" t="s">
+      <c r="H71" s="51" t="s">
         <v>1790</v>
       </c>
-      <c r="L71" s="53">
+      <c r="L71" s="51">
         <v>-4</v>
       </c>
-      <c r="M71" s="53">
-        <v>0</v>
-      </c>
-      <c r="N71" s="53">
-        <v>0</v>
-      </c>
-      <c r="O71" s="53" t="s">
+      <c r="M71" s="51">
+        <v>0</v>
+      </c>
+      <c r="N71" s="51">
+        <v>0</v>
+      </c>
+      <c r="O71" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P71" s="53">
+      <c r="P71" s="51">
         <v>49800</v>
       </c>
-      <c r="Q71" s="53" t="s">
+      <c r="Q71" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R71" s="53" t="s">
+      <c r="R71" s="51" t="s">
         <v>1369</v>
       </c>
-      <c r="W71" s="53" t="s">
+      <c r="W71" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X71" s="54" t="s">
+      <c r="X71" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y71" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z71" s="53">
+      <c r="Y71" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH71" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI71" s="53">
+      <c r="AH71" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI71" s="51">
         <v>1</v>
       </c>
     </row>
@@ -16898,56 +17027,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="53">
+    <row r="94" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="51">
         <v>93</v>
       </c>
-      <c r="B94" s="53">
+      <c r="B94" s="51">
         <v>109</v>
       </c>
-      <c r="F94" s="53">
-        <v>1</v>
-      </c>
-      <c r="G94" s="53" t="s">
+      <c r="F94" s="51">
+        <v>1</v>
+      </c>
+      <c r="G94" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="L94" s="53">
+      <c r="L94" s="51">
         <v>-4</v>
       </c>
-      <c r="M94" s="53">
-        <v>0</v>
-      </c>
-      <c r="N94" s="53">
-        <v>0</v>
-      </c>
-      <c r="O94" s="53" t="s">
+      <c r="M94" s="51">
+        <v>0</v>
+      </c>
+      <c r="N94" s="51">
+        <v>0</v>
+      </c>
+      <c r="O94" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P94" s="53">
+      <c r="P94" s="51">
         <v>100000</v>
       </c>
-      <c r="Q94" s="53" t="s">
+      <c r="Q94" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R94" s="53" t="s">
+      <c r="R94" s="51" t="s">
         <v>687</v>
       </c>
-      <c r="W94" s="53" t="s">
+      <c r="W94" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X94" s="54" t="s">
+      <c r="X94" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y94" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="53">
+      <c r="Y94" s="51">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH94" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI94" s="53">
+      <c r="AH94" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI94" s="51">
         <v>1</v>
       </c>
     </row>
@@ -18929,121 +19058,121 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:35" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="53">
+    <row r="128" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="51">
         <v>127</v>
       </c>
-      <c r="B128" s="53">
+      <c r="B128" s="51">
         <v>10044</v>
       </c>
-      <c r="D128" s="53">
+      <c r="D128" s="51">
         <v>108</v>
       </c>
-      <c r="F128" s="53">
-        <v>1</v>
-      </c>
-      <c r="G128" s="53" t="s">
+      <c r="F128" s="51">
+        <v>1</v>
+      </c>
+      <c r="G128" s="51" t="s">
         <v>319</v>
       </c>
-      <c r="H128" s="53" t="s">
+      <c r="H128" s="51" t="s">
         <v>1791</v>
       </c>
-      <c r="L128" s="53">
+      <c r="L128" s="51">
         <v>-10</v>
       </c>
-      <c r="M128" s="53">
-        <v>0</v>
-      </c>
-      <c r="N128" s="53">
-        <v>0</v>
-      </c>
-      <c r="O128" s="53" t="s">
+      <c r="M128" s="51">
+        <v>0</v>
+      </c>
+      <c r="N128" s="51">
+        <v>0</v>
+      </c>
+      <c r="O128" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P128" s="53">
+      <c r="P128" s="51">
         <v>99800</v>
       </c>
-      <c r="Q128" s="53" t="s">
+      <c r="Q128" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R128" s="53" t="s">
+      <c r="R128" s="51" t="s">
         <v>1371</v>
       </c>
-      <c r="W128" s="53" t="s">
+      <c r="W128" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X128" s="54" t="s">
+      <c r="X128" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y128" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z128" s="53">
+      <c r="Y128" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z128" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH128" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI128" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:39" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="53">
+      <c r="AH128" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI128" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="51">
         <v>128</v>
       </c>
-      <c r="B129" s="53">
+      <c r="B129" s="51">
         <v>10045</v>
       </c>
-      <c r="D129" s="53">
+      <c r="D129" s="51">
         <v>110</v>
       </c>
-      <c r="F129" s="53">
-        <v>1</v>
-      </c>
-      <c r="G129" s="53" t="s">
+      <c r="F129" s="51">
+        <v>1</v>
+      </c>
+      <c r="G129" s="51" t="s">
         <v>1129</v>
       </c>
-      <c r="H129" s="53" t="s">
+      <c r="H129" s="51" t="s">
         <v>1792</v>
       </c>
-      <c r="L129" s="53">
+      <c r="L129" s="51">
         <v>-11</v>
       </c>
-      <c r="M129" s="53">
-        <v>0</v>
-      </c>
-      <c r="N129" s="53">
-        <v>0</v>
-      </c>
-      <c r="O129" s="53" t="s">
+      <c r="M129" s="51">
+        <v>0</v>
+      </c>
+      <c r="N129" s="51">
+        <v>0</v>
+      </c>
+      <c r="O129" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P129" s="53">
+      <c r="P129" s="51">
         <v>249800</v>
       </c>
-      <c r="Q129" s="53" t="s">
+      <c r="Q129" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R129" s="53" t="s">
+      <c r="R129" s="51" t="s">
         <v>1370</v>
       </c>
-      <c r="W129" s="53" t="s">
+      <c r="W129" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X129" s="54" t="s">
+      <c r="X129" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y129" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z129" s="53">
+      <c r="Y129" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z129" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH129" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI129" s="53">
+      <c r="AH129" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI129" s="51">
         <v>1</v>
       </c>
     </row>
@@ -21651,7 +21780,7 @@
       <c r="Q171" s="43" t="s">
         <v>1737</v>
       </c>
-      <c r="R171" s="52" t="s">
+      <c r="R171" s="50" t="s">
         <v>1738</v>
       </c>
       <c r="W171" s="43" t="s">
@@ -21719,7 +21848,7 @@
       <c r="Q172" s="43" t="s">
         <v>1741</v>
       </c>
-      <c r="R172" s="52" t="s">
+      <c r="R172" s="50" t="s">
         <v>1731</v>
       </c>
       <c r="W172" s="43" t="s">
@@ -21787,7 +21916,7 @@
       <c r="Q173" s="43" t="s">
         <v>1737</v>
       </c>
-      <c r="R173" s="52" t="s">
+      <c r="R173" s="50" t="s">
         <v>1732</v>
       </c>
       <c r="W173" s="43" t="s">
@@ -21855,7 +21984,7 @@
       <c r="Q174" s="43" t="s">
         <v>1737</v>
       </c>
-      <c r="R174" s="52" t="s">
+      <c r="R174" s="50" t="s">
         <v>1746</v>
       </c>
       <c r="W174" s="43" t="s">
@@ -21923,7 +22052,7 @@
       <c r="Q175" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="R175" s="52" t="s">
+      <c r="R175" s="50" t="s">
         <v>960</v>
       </c>
       <c r="W175" s="43" t="s">
@@ -21991,7 +22120,7 @@
       <c r="Q176" s="43" t="s">
         <v>1750</v>
       </c>
-      <c r="R176" s="52" t="s">
+      <c r="R176" s="50" t="s">
         <v>1751</v>
       </c>
       <c r="W176" s="43" t="s">
@@ -22059,7 +22188,7 @@
       <c r="Q177" s="43" t="s">
         <v>1750</v>
       </c>
-      <c r="R177" s="52" t="s">
+      <c r="R177" s="50" t="s">
         <v>1754</v>
       </c>
       <c r="W177" s="43" t="s">
@@ -22127,7 +22256,7 @@
       <c r="Q178" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="R178" s="52" t="s">
+      <c r="R178" s="50" t="s">
         <v>1756</v>
       </c>
       <c r="W178" s="43" t="s">
@@ -22195,7 +22324,7 @@
       <c r="Q179" s="43" t="s">
         <v>1750</v>
       </c>
-      <c r="R179" s="52" t="s">
+      <c r="R179" s="50" t="s">
         <v>1759</v>
       </c>
       <c r="W179" s="43" t="s">
@@ -22263,7 +22392,7 @@
       <c r="Q180" s="43" t="s">
         <v>1750</v>
       </c>
-      <c r="R180" s="52" t="s">
+      <c r="R180" s="50" t="s">
         <v>1756</v>
       </c>
       <c r="W180" s="43" t="s">
@@ -22331,7 +22460,7 @@
       <c r="Q181" s="43" t="s">
         <v>1750</v>
       </c>
-      <c r="R181" s="52" t="s">
+      <c r="R181" s="50" t="s">
         <v>1759</v>
       </c>
       <c r="W181" s="43" t="s">
@@ -22399,7 +22528,7 @@
       <c r="Q182" s="43" t="s">
         <v>1750</v>
       </c>
-      <c r="R182" s="52" t="s">
+      <c r="R182" s="50" t="s">
         <v>1764</v>
       </c>
       <c r="W182" s="43" t="s">
@@ -22467,7 +22596,7 @@
       <c r="Q183" s="43" t="s">
         <v>1750</v>
       </c>
-      <c r="R183" s="52" t="s">
+      <c r="R183" s="50" t="s">
         <v>1759</v>
       </c>
       <c r="W183" s="43" t="s">
@@ -22535,7 +22664,7 @@
       <c r="Q184" s="43" t="s">
         <v>1750</v>
       </c>
-      <c r="R184" s="52" t="s">
+      <c r="R184" s="50" t="s">
         <v>1764</v>
       </c>
       <c r="W184" s="43" t="s">
@@ -22603,7 +22732,7 @@
       <c r="Q185" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="R185" s="52" t="s">
+      <c r="R185" s="50" t="s">
         <v>1769</v>
       </c>
       <c r="W185" s="43" t="s">
@@ -28291,62 +28420,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:40" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A273" s="53">
+    <row r="273" spans="1:40" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A273" s="51">
         <v>272</v>
       </c>
-      <c r="B273" s="53">
+      <c r="B273" s="51">
         <v>10189</v>
       </c>
-      <c r="D273" s="56">
+      <c r="D273" s="54">
         <v>111</v>
       </c>
-      <c r="F273" s="53">
-        <v>1</v>
-      </c>
-      <c r="G273" s="53" t="s">
+      <c r="F273" s="51">
+        <v>1</v>
+      </c>
+      <c r="G273" s="51" t="s">
         <v>520</v>
       </c>
-      <c r="H273" s="58" t="s">
+      <c r="H273" s="56" t="s">
         <v>1853</v>
       </c>
-      <c r="L273" s="53">
+      <c r="L273" s="51">
         <v>-10</v>
       </c>
-      <c r="M273" s="53">
-        <v>0</v>
-      </c>
-      <c r="N273" s="53">
-        <v>0</v>
-      </c>
-      <c r="O273" s="53" t="s">
+      <c r="M273" s="51">
+        <v>0</v>
+      </c>
+      <c r="N273" s="51">
+        <v>0</v>
+      </c>
+      <c r="O273" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P273" s="53">
+      <c r="P273" s="51">
         <v>19800</v>
       </c>
-      <c r="Q273" s="53" t="s">
+      <c r="Q273" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R273" s="53" t="s">
+      <c r="R273" s="51" t="s">
         <v>1372</v>
       </c>
-      <c r="W273" s="53" t="s">
+      <c r="W273" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X273" s="54" t="s">
+      <c r="X273" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y273" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z273" s="53">
+      <c r="Y273" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z273" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH273" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI273" s="53">
+      <c r="AH273" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI273" s="51">
         <v>1</v>
       </c>
     </row>
@@ -31455,7 +31584,7 @@
       <c r="Q323" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="R323" s="52" t="s">
+      <c r="R323" s="50" t="s">
         <v>1720</v>
       </c>
       <c r="W323" s="43" t="s">
@@ -31520,7 +31649,7 @@
       <c r="Q324" s="43" t="s">
         <v>1725</v>
       </c>
-      <c r="R324" s="52" t="s">
+      <c r="R324" s="50" t="s">
         <v>1726</v>
       </c>
       <c r="W324" s="43" t="s">
@@ -31585,7 +31714,7 @@
       <c r="Q325" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="R325" s="52" t="s">
+      <c r="R325" s="50" t="s">
         <v>1729</v>
       </c>
       <c r="W325" s="43" t="s">
@@ -31777,7 +31906,7 @@
       <c r="Q328" s="43" t="s">
         <v>1627</v>
       </c>
-      <c r="R328" s="52" t="s">
+      <c r="R328" s="50" t="s">
         <v>983</v>
       </c>
       <c r="S328" s="43"/>
@@ -31860,7 +31989,7 @@
       <c r="Q329" s="43" t="s">
         <v>1631</v>
       </c>
-      <c r="R329" s="52" t="s">
+      <c r="R329" s="50" t="s">
         <v>1632</v>
       </c>
       <c r="S329" s="43"/>
@@ -31943,7 +32072,7 @@
       <c r="Q330" s="43" t="s">
         <v>1627</v>
       </c>
-      <c r="R330" s="52" t="s">
+      <c r="R330" s="50" t="s">
         <v>1634</v>
       </c>
       <c r="S330" s="43"/>
@@ -32026,7 +32155,7 @@
       <c r="Q331" s="43" t="s">
         <v>1636</v>
       </c>
-      <c r="R331" s="52" t="s">
+      <c r="R331" s="50" t="s">
         <v>1637</v>
       </c>
       <c r="S331" s="43"/>
@@ -32109,7 +32238,7 @@
       <c r="Q332" s="43" t="s">
         <v>1627</v>
       </c>
-      <c r="R332" s="52" t="s">
+      <c r="R332" s="50" t="s">
         <v>1639</v>
       </c>
       <c r="S332" s="43"/>
@@ -32192,7 +32321,7 @@
       <c r="Q333" s="43" t="s">
         <v>1627</v>
       </c>
-      <c r="R333" s="52" t="s">
+      <c r="R333" s="50" t="s">
         <v>1641</v>
       </c>
       <c r="S333" s="43"/>
@@ -32275,7 +32404,7 @@
       <c r="Q334" s="43" t="s">
         <v>1645</v>
       </c>
-      <c r="R334" s="52" t="s">
+      <c r="R334" s="50" t="s">
         <v>1646</v>
       </c>
       <c r="S334" s="43"/>
@@ -32358,7 +32487,7 @@
       <c r="Q335" s="43" t="s">
         <v>1627</v>
       </c>
-      <c r="R335" s="52" t="s">
+      <c r="R335" s="50" t="s">
         <v>1648</v>
       </c>
       <c r="S335" s="43"/>
@@ -32441,7 +32570,7 @@
       <c r="Q336" s="43" t="s">
         <v>1636</v>
       </c>
-      <c r="R336" s="52" t="s">
+      <c r="R336" s="50" t="s">
         <v>1650</v>
       </c>
       <c r="S336" s="43"/>
@@ -32524,7 +32653,7 @@
       <c r="Q337" s="43" t="s">
         <v>1636</v>
       </c>
-      <c r="R337" s="52" t="s">
+      <c r="R337" s="50" t="s">
         <v>1652</v>
       </c>
       <c r="S337" s="43"/>
@@ -36102,7 +36231,7 @@
       <c r="G389" s="19" t="s">
         <v>1282</v>
       </c>
-      <c r="H389" s="51"/>
+      <c r="H389" s="49"/>
       <c r="I389" s="19" t="s">
         <v>1283</v>
       </c>
@@ -36171,7 +36300,7 @@
       <c r="G390" s="19" t="s">
         <v>1269</v>
       </c>
-      <c r="H390" s="51"/>
+      <c r="H390" s="49"/>
       <c r="I390" s="19" t="s">
         <v>1112</v>
       </c>
@@ -36240,7 +36369,7 @@
       <c r="G391" s="19" t="s">
         <v>1290</v>
       </c>
-      <c r="H391" s="51"/>
+      <c r="H391" s="49"/>
       <c r="I391" s="19" t="s">
         <v>1283</v>
       </c>
@@ -37720,62 +37849,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:39" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="53">
+    <row r="414" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="51">
         <v>413</v>
       </c>
-      <c r="B414" s="53">
+      <c r="B414" s="51">
         <v>10330</v>
       </c>
-      <c r="D414" s="53">
-        <v>1</v>
-      </c>
-      <c r="F414" s="53">
-        <v>1</v>
-      </c>
-      <c r="G414" s="53" t="s">
+      <c r="D414" s="51">
+        <v>1</v>
+      </c>
+      <c r="F414" s="51">
+        <v>1</v>
+      </c>
+      <c r="G414" s="51" t="s">
         <v>1377</v>
       </c>
-      <c r="H414" s="53" t="s">
+      <c r="H414" s="51" t="s">
         <v>1785</v>
       </c>
-      <c r="L414" s="53">
+      <c r="L414" s="51">
         <v>-4</v>
       </c>
-      <c r="M414" s="53">
-        <v>0</v>
-      </c>
-      <c r="N414" s="53">
-        <v>0</v>
-      </c>
-      <c r="O414" s="53" t="s">
+      <c r="M414" s="51">
+        <v>0</v>
+      </c>
+      <c r="N414" s="51">
+        <v>0</v>
+      </c>
+      <c r="O414" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="P414" s="53">
+      <c r="P414" s="51">
         <v>600</v>
       </c>
-      <c r="Q414" s="53" t="s">
+      <c r="Q414" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R414" s="57" t="s">
+      <c r="R414" s="55" t="s">
         <v>1784</v>
       </c>
-      <c r="W414" s="53" t="s">
+      <c r="W414" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="X414" s="54" t="s">
+      <c r="X414" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="Y414" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z414" s="53">
+      <c r="Y414" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z414" s="51">
         <v>2552233600</v>
       </c>
-      <c r="AH414" s="53">
-        <v>1</v>
-      </c>
-      <c r="AI414" s="53">
+      <c r="AH414" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI414" s="51">
         <v>1</v>
       </c>
     </row>
@@ -38187,827 +38316,827 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A421" s="63">
+    <row r="421" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="59">
         <v>420</v>
       </c>
-      <c r="B421" s="63">
+      <c r="B421" s="59">
         <v>10337</v>
       </c>
-      <c r="F421" s="63">
-        <v>1</v>
-      </c>
-      <c r="G421" s="63" t="s">
+      <c r="F421" s="59">
+        <v>1</v>
+      </c>
+      <c r="G421" s="59" t="s">
         <v>1417</v>
       </c>
-      <c r="J421" s="63" t="s">
+      <c r="J421" s="59" t="s">
         <v>1418</v>
       </c>
-      <c r="L421" s="63">
+      <c r="L421" s="59">
         <v>-31</v>
       </c>
-      <c r="M421" s="63">
-        <v>0</v>
-      </c>
-      <c r="N421" s="63">
-        <v>0</v>
-      </c>
-      <c r="O421" s="63" t="s">
+      <c r="M421" s="59">
+        <v>0</v>
+      </c>
+      <c r="N421" s="59">
+        <v>0</v>
+      </c>
+      <c r="O421" s="59" t="s">
         <v>1419</v>
       </c>
-      <c r="P421" s="63">
+      <c r="P421" s="59">
         <v>1000</v>
       </c>
-      <c r="Q421" s="63" t="s">
+      <c r="Q421" s="59" t="s">
         <v>1420</v>
       </c>
-      <c r="R421" s="64" t="s">
+      <c r="R421" s="60" t="s">
         <v>1421</v>
       </c>
-      <c r="W421" s="63" t="s">
+      <c r="W421" s="59" t="s">
         <v>1422</v>
       </c>
-      <c r="X421" s="63">
+      <c r="X421" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y421" s="63">
+      <c r="Y421" s="59">
         <v>1585609200</v>
       </c>
-      <c r="Z421" s="63">
+      <c r="Z421" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AB421" s="63" t="s">
+      <c r="AB421" s="59" t="s">
         <v>1423</v>
       </c>
-      <c r="AC421" s="63" t="s">
+      <c r="AC421" s="59" t="s">
         <v>1424</v>
       </c>
-      <c r="AH421" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI421" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL421" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM421" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A422" s="63">
+      <c r="AH421" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI421" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL421" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM421" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="59">
         <v>421</v>
       </c>
-      <c r="B422" s="63">
+      <c r="B422" s="59">
         <v>10338</v>
       </c>
-      <c r="F422" s="63">
-        <v>1</v>
-      </c>
-      <c r="G422" s="63" t="s">
+      <c r="F422" s="59">
+        <v>1</v>
+      </c>
+      <c r="G422" s="59" t="s">
         <v>1441</v>
       </c>
-      <c r="I422" s="63" t="s">
+      <c r="I422" s="59" t="s">
         <v>1442</v>
       </c>
-      <c r="J422" s="63" t="s">
+      <c r="J422" s="59" t="s">
         <v>1443</v>
       </c>
-      <c r="L422" s="63">
+      <c r="L422" s="59">
         <v>-31</v>
       </c>
-      <c r="M422" s="63">
-        <v>0</v>
-      </c>
-      <c r="N422" s="63">
-        <v>0</v>
-      </c>
-      <c r="O422" s="63" t="s">
+      <c r="M422" s="59">
+        <v>0</v>
+      </c>
+      <c r="N422" s="59">
+        <v>0</v>
+      </c>
+      <c r="O422" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P422" s="63">
+      <c r="P422" s="59">
         <v>2000</v>
       </c>
-      <c r="Q422" s="63" t="s">
+      <c r="Q422" s="59" t="s">
         <v>1444</v>
       </c>
-      <c r="R422" s="64" t="s">
+      <c r="R422" s="60" t="s">
         <v>1445</v>
       </c>
-      <c r="W422" s="63" t="s">
+      <c r="W422" s="59" t="s">
         <v>1446</v>
       </c>
-      <c r="X422" s="63">
+      <c r="X422" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y422" s="63">
+      <c r="Y422" s="59">
         <v>1603756800</v>
       </c>
-      <c r="Z422" s="63">
+      <c r="Z422" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA422" s="63">
+      <c r="AA422" s="59">
         <v>51</v>
       </c>
-      <c r="AH422" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI422" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL422" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM422" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="63">
+      <c r="AH422" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI422" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL422" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM422" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="59">
         <v>422</v>
       </c>
-      <c r="B423" s="63">
+      <c r="B423" s="59">
         <v>10339</v>
       </c>
-      <c r="F423" s="63">
-        <v>1</v>
-      </c>
-      <c r="G423" s="63" t="s">
+      <c r="F423" s="59">
+        <v>1</v>
+      </c>
+      <c r="G423" s="59" t="s">
         <v>1426</v>
       </c>
-      <c r="I423" s="63" t="s">
+      <c r="I423" s="59" t="s">
         <v>1425</v>
       </c>
-      <c r="J423" s="63" t="s">
+      <c r="J423" s="59" t="s">
         <v>1447</v>
       </c>
-      <c r="L423" s="63">
+      <c r="L423" s="59">
         <v>-31</v>
       </c>
-      <c r="M423" s="63">
-        <v>0</v>
-      </c>
-      <c r="N423" s="63">
-        <v>0</v>
-      </c>
-      <c r="O423" s="63" t="s">
+      <c r="M423" s="59">
+        <v>0</v>
+      </c>
+      <c r="N423" s="59">
+        <v>0</v>
+      </c>
+      <c r="O423" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P423" s="63">
+      <c r="P423" s="59">
         <v>5800</v>
       </c>
-      <c r="Q423" s="63" t="s">
+      <c r="Q423" s="59" t="s">
         <v>1448</v>
       </c>
-      <c r="R423" s="64" t="s">
+      <c r="R423" s="60" t="s">
         <v>1449</v>
       </c>
-      <c r="W423" s="63" t="s">
+      <c r="W423" s="59" t="s">
         <v>984</v>
       </c>
-      <c r="X423" s="63">
+      <c r="X423" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y423" s="63">
+      <c r="Y423" s="59">
         <v>1603756800</v>
       </c>
-      <c r="Z423" s="63">
+      <c r="Z423" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA423" s="63">
+      <c r="AA423" s="59">
         <v>51</v>
       </c>
-      <c r="AH423" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI423" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL423" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM423" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A424" s="63">
+      <c r="AH423" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI423" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL423" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM423" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="59">
         <v>423</v>
       </c>
-      <c r="B424" s="63">
+      <c r="B424" s="59">
         <v>10340</v>
       </c>
-      <c r="F424" s="63">
-        <v>1</v>
-      </c>
-      <c r="G424" s="63" t="s">
+      <c r="F424" s="59">
+        <v>1</v>
+      </c>
+      <c r="G424" s="59" t="s">
         <v>1450</v>
       </c>
-      <c r="I424" s="63" t="s">
+      <c r="I424" s="59" t="s">
         <v>1425</v>
       </c>
-      <c r="J424" s="63" t="s">
+      <c r="J424" s="59" t="s">
         <v>1451</v>
       </c>
-      <c r="L424" s="63">
+      <c r="L424" s="59">
         <v>-31</v>
       </c>
-      <c r="M424" s="63">
-        <v>0</v>
-      </c>
-      <c r="N424" s="63">
-        <v>0</v>
-      </c>
-      <c r="O424" s="63" t="s">
+      <c r="M424" s="59">
+        <v>0</v>
+      </c>
+      <c r="N424" s="59">
+        <v>0</v>
+      </c>
+      <c r="O424" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P424" s="63">
+      <c r="P424" s="59">
         <v>12800</v>
       </c>
-      <c r="Q424" s="63" t="s">
+      <c r="Q424" s="59" t="s">
         <v>1452</v>
       </c>
-      <c r="R424" s="64" t="s">
+      <c r="R424" s="60" t="s">
         <v>1453</v>
       </c>
-      <c r="W424" s="63" t="s">
+      <c r="W424" s="59" t="s">
         <v>984</v>
       </c>
-      <c r="X424" s="63">
+      <c r="X424" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y424" s="63">
+      <c r="Y424" s="59">
         <v>1603756800</v>
       </c>
-      <c r="Z424" s="63">
+      <c r="Z424" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA424" s="63">
+      <c r="AA424" s="59">
         <v>51</v>
       </c>
-      <c r="AH424" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI424" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL424" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM424" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A425" s="63">
+      <c r="AH424" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI424" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL424" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM424" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A425" s="59">
         <v>424</v>
       </c>
-      <c r="B425" s="63">
+      <c r="B425" s="59">
         <v>10341</v>
       </c>
-      <c r="F425" s="63">
-        <v>1</v>
-      </c>
-      <c r="G425" s="63" t="s">
+      <c r="F425" s="59">
+        <v>1</v>
+      </c>
+      <c r="G425" s="59" t="s">
         <v>1427</v>
       </c>
-      <c r="J425" s="63" t="s">
+      <c r="J425" s="59" t="s">
         <v>1428</v>
       </c>
-      <c r="L425" s="63">
+      <c r="L425" s="59">
         <v>-31</v>
       </c>
-      <c r="M425" s="63">
-        <v>0</v>
-      </c>
-      <c r="N425" s="63">
-        <v>0</v>
-      </c>
-      <c r="O425" s="63" t="s">
+      <c r="M425" s="59">
+        <v>0</v>
+      </c>
+      <c r="N425" s="59">
+        <v>0</v>
+      </c>
+      <c r="O425" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P425" s="63">
+      <c r="P425" s="59">
         <v>49800</v>
       </c>
-      <c r="Q425" s="63" t="s">
+      <c r="Q425" s="59" t="s">
         <v>1429</v>
       </c>
-      <c r="R425" s="64" t="s">
+      <c r="R425" s="60" t="s">
         <v>1430</v>
       </c>
-      <c r="W425" s="63" t="s">
+      <c r="W425" s="59" t="s">
         <v>568</v>
       </c>
-      <c r="X425" s="63">
+      <c r="X425" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y425" s="63">
+      <c r="Y425" s="59">
         <v>1585609200</v>
       </c>
-      <c r="Z425" s="63">
+      <c r="Z425" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH425" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI425" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A426" s="63">
+      <c r="AH425" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI425" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A426" s="59">
         <v>425</v>
       </c>
-      <c r="B426" s="63">
+      <c r="B426" s="59">
         <v>10342</v>
       </c>
-      <c r="F426" s="63">
-        <v>1</v>
-      </c>
-      <c r="G426" s="63" t="s">
+      <c r="F426" s="59">
+        <v>1</v>
+      </c>
+      <c r="G426" s="59" t="s">
         <v>1431</v>
       </c>
-      <c r="J426" s="63" t="s">
+      <c r="J426" s="59" t="s">
         <v>1432</v>
       </c>
-      <c r="L426" s="63">
+      <c r="L426" s="59">
         <v>-31</v>
       </c>
-      <c r="M426" s="63">
-        <v>0</v>
-      </c>
-      <c r="N426" s="63">
-        <v>0</v>
-      </c>
-      <c r="O426" s="63" t="s">
+      <c r="M426" s="59">
+        <v>0</v>
+      </c>
+      <c r="N426" s="59">
+        <v>0</v>
+      </c>
+      <c r="O426" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P426" s="63">
+      <c r="P426" s="59">
         <v>19800</v>
       </c>
-      <c r="Q426" s="63" t="s">
+      <c r="Q426" s="59" t="s">
         <v>1433</v>
       </c>
-      <c r="R426" s="64" t="s">
+      <c r="R426" s="60" t="s">
         <v>1430</v>
       </c>
-      <c r="W426" s="63" t="s">
+      <c r="W426" s="59" t="s">
         <v>1422</v>
       </c>
-      <c r="X426" s="63">
+      <c r="X426" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y426" s="63">
+      <c r="Y426" s="59">
         <v>1585609200</v>
       </c>
-      <c r="Z426" s="63">
+      <c r="Z426" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH426" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI426" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A427" s="63">
+      <c r="AH426" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI426" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A427" s="59">
         <v>426</v>
       </c>
-      <c r="B427" s="63">
+      <c r="B427" s="59">
         <v>10343</v>
       </c>
-      <c r="F427" s="63">
-        <v>1</v>
-      </c>
-      <c r="G427" s="63" t="s">
+      <c r="F427" s="59">
+        <v>1</v>
+      </c>
+      <c r="G427" s="59" t="s">
         <v>1434</v>
       </c>
-      <c r="J427" s="63" t="s">
+      <c r="J427" s="59" t="s">
         <v>1406</v>
       </c>
-      <c r="L427" s="63">
+      <c r="L427" s="59">
         <v>-31</v>
       </c>
-      <c r="M427" s="63">
-        <v>0</v>
-      </c>
-      <c r="N427" s="63">
-        <v>0</v>
-      </c>
-      <c r="O427" s="63" t="s">
+      <c r="M427" s="59">
+        <v>0</v>
+      </c>
+      <c r="N427" s="59">
+        <v>0</v>
+      </c>
+      <c r="O427" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P427" s="63">
+      <c r="P427" s="59">
         <v>9800</v>
       </c>
-      <c r="Q427" s="63" t="s">
+      <c r="Q427" s="59" t="s">
         <v>1435</v>
       </c>
-      <c r="R427" s="64" t="s">
+      <c r="R427" s="60" t="s">
         <v>1430</v>
       </c>
-      <c r="W427" s="63" t="s">
+      <c r="W427" s="59" t="s">
         <v>1422</v>
       </c>
-      <c r="X427" s="63">
+      <c r="X427" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y427" s="63">
+      <c r="Y427" s="59">
         <v>1585609200</v>
       </c>
-      <c r="Z427" s="63">
+      <c r="Z427" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH427" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI427" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A428" s="63">
+      <c r="AH427" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI427" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="59">
         <v>427</v>
       </c>
-      <c r="B428" s="63">
+      <c r="B428" s="59">
         <v>10344</v>
       </c>
-      <c r="F428" s="63">
-        <v>1</v>
-      </c>
-      <c r="G428" s="63" t="s">
+      <c r="F428" s="59">
+        <v>1</v>
+      </c>
+      <c r="G428" s="59" t="s">
         <v>1436</v>
       </c>
-      <c r="J428" s="63" t="s">
+      <c r="J428" s="59" t="s">
         <v>1437</v>
       </c>
-      <c r="L428" s="63">
+      <c r="L428" s="59">
         <v>-31</v>
       </c>
-      <c r="M428" s="63">
-        <v>0</v>
-      </c>
-      <c r="N428" s="63">
-        <v>0</v>
-      </c>
-      <c r="O428" s="63" t="s">
+      <c r="M428" s="59">
+        <v>0</v>
+      </c>
+      <c r="N428" s="59">
+        <v>0</v>
+      </c>
+      <c r="O428" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P428" s="63">
+      <c r="P428" s="59">
         <v>9800</v>
       </c>
-      <c r="Q428" s="63" t="s">
+      <c r="Q428" s="59" t="s">
         <v>1438</v>
       </c>
-      <c r="R428" s="64" t="s">
+      <c r="R428" s="60" t="s">
         <v>1430</v>
       </c>
-      <c r="W428" s="63" t="s">
+      <c r="W428" s="59" t="s">
         <v>1422</v>
       </c>
-      <c r="X428" s="63">
+      <c r="X428" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y428" s="63">
+      <c r="Y428" s="59">
         <v>1585609200</v>
       </c>
-      <c r="Z428" s="63">
+      <c r="Z428" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH428" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI428" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A429" s="63">
+      <c r="AH428" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI428" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A429" s="59">
         <v>428</v>
       </c>
-      <c r="B429" s="63">
+      <c r="B429" s="59">
         <v>10345</v>
       </c>
-      <c r="F429" s="63">
-        <v>1</v>
-      </c>
-      <c r="G429" s="63" t="s">
+      <c r="F429" s="59">
+        <v>1</v>
+      </c>
+      <c r="G429" s="59" t="s">
         <v>1407</v>
       </c>
-      <c r="J429" s="63" t="s">
+      <c r="J429" s="59" t="s">
         <v>1439</v>
       </c>
-      <c r="L429" s="63">
+      <c r="L429" s="59">
         <v>-31</v>
       </c>
-      <c r="M429" s="63">
-        <v>0</v>
-      </c>
-      <c r="N429" s="63">
-        <v>0</v>
-      </c>
-      <c r="O429" s="63" t="s">
+      <c r="M429" s="59">
+        <v>0</v>
+      </c>
+      <c r="N429" s="59">
+        <v>0</v>
+      </c>
+      <c r="O429" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P429" s="63">
+      <c r="P429" s="59">
         <v>4800</v>
       </c>
-      <c r="Q429" s="63" t="s">
+      <c r="Q429" s="59" t="s">
         <v>1440</v>
       </c>
-      <c r="R429" s="64" t="s">
+      <c r="R429" s="60" t="s">
         <v>1430</v>
       </c>
-      <c r="W429" s="63" t="s">
+      <c r="W429" s="59" t="s">
         <v>1422</v>
       </c>
-      <c r="X429" s="63">
+      <c r="X429" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y429" s="63">
+      <c r="Y429" s="59">
         <v>1585609200</v>
       </c>
-      <c r="Z429" s="63">
+      <c r="Z429" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH429" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI429" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="63">
+      <c r="AH429" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI429" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="59">
         <v>429</v>
       </c>
-      <c r="B430" s="63">
+      <c r="B430" s="59">
         <v>10346</v>
       </c>
-      <c r="F430" s="63">
-        <v>1</v>
-      </c>
-      <c r="G430" s="63" t="s">
+      <c r="F430" s="59">
+        <v>1</v>
+      </c>
+      <c r="G430" s="59" t="s">
         <v>1703</v>
       </c>
-      <c r="I430" s="63" t="s">
+      <c r="I430" s="59" t="s">
         <v>1704</v>
       </c>
-      <c r="J430" s="63" t="s">
+      <c r="J430" s="59" t="s">
         <v>1705</v>
       </c>
-      <c r="L430" s="63">
+      <c r="L430" s="59">
         <v>-28</v>
       </c>
-      <c r="M430" s="63">
-        <v>0</v>
-      </c>
-      <c r="N430" s="63">
-        <v>0</v>
-      </c>
-      <c r="O430" s="63" t="s">
+      <c r="M430" s="59">
+        <v>0</v>
+      </c>
+      <c r="N430" s="59">
+        <v>0</v>
+      </c>
+      <c r="O430" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P430" s="63">
+      <c r="P430" s="59">
         <v>100</v>
       </c>
-      <c r="Q430" s="63" t="s">
+      <c r="Q430" s="59" t="s">
         <v>1401</v>
       </c>
-      <c r="R430" s="64" t="s">
+      <c r="R430" s="60" t="s">
         <v>1706</v>
       </c>
-      <c r="W430" s="63" t="s">
+      <c r="W430" s="59" t="s">
         <v>1707</v>
       </c>
-      <c r="X430" s="63">
+      <c r="X430" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y430" s="63">
+      <c r="Y430" s="59">
         <v>1581377400</v>
       </c>
-      <c r="Z430" s="63">
+      <c r="Z430" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA430" s="63">
+      <c r="AA430" s="59">
         <v>14</v>
       </c>
-      <c r="AH430" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI430" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL430" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM430" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A431" s="63">
+      <c r="AH430" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI430" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL430" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM430" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A431" s="59">
         <v>430</v>
       </c>
-      <c r="B431" s="63">
+      <c r="B431" s="59">
         <v>10347</v>
       </c>
-      <c r="F431" s="63">
-        <v>1</v>
-      </c>
-      <c r="G431" s="63" t="s">
+      <c r="F431" s="59">
+        <v>1</v>
+      </c>
+      <c r="G431" s="59" t="s">
         <v>1703</v>
       </c>
-      <c r="I431" s="63" t="s">
+      <c r="I431" s="59" t="s">
         <v>1708</v>
       </c>
-      <c r="J431" s="63" t="s">
+      <c r="J431" s="59" t="s">
         <v>1709</v>
       </c>
-      <c r="L431" s="63">
+      <c r="L431" s="59">
         <v>-28</v>
       </c>
-      <c r="M431" s="63">
-        <v>0</v>
-      </c>
-      <c r="N431" s="63">
-        <v>0</v>
-      </c>
-      <c r="O431" s="63" t="s">
+      <c r="M431" s="59">
+        <v>0</v>
+      </c>
+      <c r="N431" s="59">
+        <v>0</v>
+      </c>
+      <c r="O431" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P431" s="63">
+      <c r="P431" s="59">
         <v>300</v>
       </c>
-      <c r="Q431" s="63" t="s">
+      <c r="Q431" s="59" t="s">
         <v>1401</v>
       </c>
-      <c r="R431" s="64" t="s">
+      <c r="R431" s="60" t="s">
         <v>1710</v>
       </c>
-      <c r="W431" s="63" t="s">
+      <c r="W431" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X431" s="63">
+      <c r="X431" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y431" s="63">
+      <c r="Y431" s="59">
         <v>1581377400</v>
       </c>
-      <c r="Z431" s="63">
+      <c r="Z431" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA431" s="63">
+      <c r="AA431" s="59">
         <v>14</v>
       </c>
-      <c r="AH431" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI431" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL431" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM431" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A432" s="63">
+      <c r="AH431" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI431" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL431" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM431" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="59">
         <v>431</v>
       </c>
-      <c r="B432" s="63">
+      <c r="B432" s="59">
         <v>10348</v>
       </c>
-      <c r="F432" s="63">
-        <v>1</v>
-      </c>
-      <c r="G432" s="63" t="s">
+      <c r="F432" s="59">
+        <v>1</v>
+      </c>
+      <c r="G432" s="59" t="s">
         <v>1703</v>
       </c>
-      <c r="I432" s="63" t="s">
+      <c r="I432" s="59" t="s">
         <v>1711</v>
       </c>
-      <c r="J432" s="63" t="s">
+      <c r="J432" s="59" t="s">
         <v>1712</v>
       </c>
-      <c r="L432" s="63">
+      <c r="L432" s="59">
         <v>-28</v>
       </c>
-      <c r="M432" s="63">
-        <v>0</v>
-      </c>
-      <c r="N432" s="63">
-        <v>0</v>
-      </c>
-      <c r="O432" s="63" t="s">
+      <c r="M432" s="59">
+        <v>0</v>
+      </c>
+      <c r="N432" s="59">
+        <v>0</v>
+      </c>
+      <c r="O432" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P432" s="63">
+      <c r="P432" s="59">
         <v>600</v>
       </c>
-      <c r="Q432" s="63" t="s">
+      <c r="Q432" s="59" t="s">
         <v>1401</v>
       </c>
-      <c r="R432" s="64" t="s">
+      <c r="R432" s="60" t="s">
         <v>1713</v>
       </c>
-      <c r="W432" s="63" t="s">
+      <c r="W432" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X432" s="63">
+      <c r="X432" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y432" s="63">
+      <c r="Y432" s="59">
         <v>1581377400</v>
       </c>
-      <c r="Z432" s="63">
+      <c r="Z432" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA432" s="63">
+      <c r="AA432" s="59">
         <v>14</v>
       </c>
-      <c r="AH432" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI432" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL432" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM432" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A433" s="63">
+      <c r="AH432" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI432" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL432" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM432" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A433" s="59">
         <v>432</v>
       </c>
-      <c r="B433" s="63">
+      <c r="B433" s="59">
         <v>10349</v>
       </c>
-      <c r="F433" s="63">
-        <v>1</v>
-      </c>
-      <c r="G433" s="63" t="s">
+      <c r="F433" s="59">
+        <v>1</v>
+      </c>
+      <c r="G433" s="59" t="s">
         <v>1703</v>
       </c>
-      <c r="I433" s="63" t="s">
+      <c r="I433" s="59" t="s">
         <v>1714</v>
       </c>
-      <c r="J433" s="63" t="s">
+      <c r="J433" s="59" t="s">
         <v>1715</v>
       </c>
-      <c r="L433" s="63">
+      <c r="L433" s="59">
         <v>-28</v>
       </c>
-      <c r="M433" s="63">
-        <v>0</v>
-      </c>
-      <c r="N433" s="63">
-        <v>0</v>
-      </c>
-      <c r="O433" s="63" t="s">
+      <c r="M433" s="59">
+        <v>0</v>
+      </c>
+      <c r="N433" s="59">
+        <v>0</v>
+      </c>
+      <c r="O433" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P433" s="63">
+      <c r="P433" s="59">
         <v>600</v>
       </c>
-      <c r="Q433" s="63" t="s">
+      <c r="Q433" s="59" t="s">
         <v>1716</v>
       </c>
-      <c r="R433" s="64" t="s">
+      <c r="R433" s="60" t="s">
         <v>1717</v>
       </c>
-      <c r="W433" s="63" t="s">
+      <c r="W433" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X433" s="63">
+      <c r="X433" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y433" s="63">
+      <c r="Y433" s="59">
         <v>1581377400</v>
       </c>
-      <c r="Z433" s="63">
+      <c r="Z433" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA433" s="63">
+      <c r="AA433" s="59">
         <v>14</v>
       </c>
-      <c r="AH433" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI433" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL433" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM433" s="63">
+      <c r="AH433" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI433" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL433" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM433" s="59">
         <v>1</v>
       </c>
     </row>
@@ -39838,1930 +39967,1930 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A447" s="63">
+    <row r="447" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="59">
         <v>446</v>
       </c>
-      <c r="B447" s="63">
+      <c r="B447" s="59">
         <v>10363</v>
       </c>
-      <c r="F447" s="63">
-        <v>1</v>
-      </c>
-      <c r="G447" s="63" t="s">
+      <c r="F447" s="59">
+        <v>1</v>
+      </c>
+      <c r="G447" s="59" t="s">
         <v>1499</v>
       </c>
-      <c r="I447" s="63" t="s">
+      <c r="I447" s="59" t="s">
         <v>1500</v>
       </c>
-      <c r="J447" s="63" t="s">
+      <c r="J447" s="59" t="s">
         <v>1501</v>
       </c>
-      <c r="L447" s="63">
+      <c r="L447" s="59">
         <v>-31</v>
       </c>
-      <c r="M447" s="63">
-        <v>0</v>
-      </c>
-      <c r="N447" s="63">
-        <v>0</v>
-      </c>
-      <c r="O447" s="63" t="s">
+      <c r="M447" s="59">
+        <v>0</v>
+      </c>
+      <c r="N447" s="59">
+        <v>0</v>
+      </c>
+      <c r="O447" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P447" s="63">
+      <c r="P447" s="59">
         <v>800</v>
       </c>
-      <c r="Q447" s="63" t="s">
+      <c r="Q447" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R447" s="64" t="s">
+      <c r="R447" s="60" t="s">
         <v>1503</v>
       </c>
-      <c r="W447" s="63" t="s">
+      <c r="W447" s="59" t="s">
         <v>1156</v>
       </c>
-      <c r="X447" s="63">
+      <c r="X447" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y447" s="63">
+      <c r="Y447" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z447" s="63">
+      <c r="Z447" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA447" s="63">
+      <c r="AA447" s="59">
         <v>52</v>
       </c>
-      <c r="AH447" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI447" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL447" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM447" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A448" s="63">
+      <c r="AH447" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI447" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL447" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM447" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="59">
         <v>447</v>
       </c>
-      <c r="B448" s="63">
+      <c r="B448" s="59">
         <v>10364</v>
       </c>
-      <c r="F448" s="63">
-        <v>1</v>
-      </c>
-      <c r="G448" s="63" t="s">
+      <c r="F448" s="59">
+        <v>1</v>
+      </c>
+      <c r="G448" s="59" t="s">
         <v>1504</v>
       </c>
-      <c r="I448" s="63" t="s">
+      <c r="I448" s="59" t="s">
         <v>1505</v>
       </c>
-      <c r="J448" s="63" t="s">
+      <c r="J448" s="59" t="s">
         <v>1506</v>
       </c>
-      <c r="L448" s="63">
+      <c r="L448" s="59">
         <v>-31</v>
       </c>
-      <c r="M448" s="63">
-        <v>0</v>
-      </c>
-      <c r="N448" s="63">
-        <v>0</v>
-      </c>
-      <c r="O448" s="63" t="s">
+      <c r="M448" s="59">
+        <v>0</v>
+      </c>
+      <c r="N448" s="59">
+        <v>0</v>
+      </c>
+      <c r="O448" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P448" s="63">
+      <c r="P448" s="59">
         <v>800</v>
       </c>
-      <c r="Q448" s="63" t="s">
+      <c r="Q448" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R448" s="64" t="s">
+      <c r="R448" s="60" t="s">
         <v>1507</v>
       </c>
-      <c r="W448" s="63" t="s">
+      <c r="W448" s="59" t="s">
         <v>1508</v>
       </c>
-      <c r="X448" s="63">
+      <c r="X448" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y448" s="63">
+      <c r="Y448" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z448" s="63">
+      <c r="Z448" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH448" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI448" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL448" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM448" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A449" s="63">
+      <c r="AH448" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI448" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL448" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM448" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="59">
         <v>448</v>
       </c>
-      <c r="B449" s="63">
+      <c r="B449" s="59">
         <v>10365</v>
       </c>
-      <c r="F449" s="63">
-        <v>1</v>
-      </c>
-      <c r="G449" s="63" t="s">
+      <c r="F449" s="59">
+        <v>1</v>
+      </c>
+      <c r="G449" s="59" t="s">
         <v>1509</v>
       </c>
-      <c r="I449" s="63" t="s">
+      <c r="I449" s="59" t="s">
         <v>1510</v>
       </c>
-      <c r="J449" s="63" t="s">
+      <c r="J449" s="59" t="s">
         <v>1511</v>
       </c>
-      <c r="L449" s="63">
+      <c r="L449" s="59">
         <v>-31</v>
       </c>
-      <c r="M449" s="63">
-        <v>0</v>
-      </c>
-      <c r="N449" s="63">
-        <v>0</v>
-      </c>
-      <c r="O449" s="63" t="s">
+      <c r="M449" s="59">
+        <v>0</v>
+      </c>
+      <c r="N449" s="59">
+        <v>0</v>
+      </c>
+      <c r="O449" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P449" s="63">
+      <c r="P449" s="59">
         <v>800</v>
       </c>
-      <c r="Q449" s="63" t="s">
+      <c r="Q449" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R449" s="64" t="s">
+      <c r="R449" s="60" t="s">
         <v>1512</v>
       </c>
-      <c r="W449" s="63" t="s">
+      <c r="W449" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X449" s="63">
+      <c r="X449" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y449" s="63">
+      <c r="Y449" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z449" s="63">
+      <c r="Z449" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA449" s="63">
+      <c r="AA449" s="59">
         <v>53</v>
       </c>
-      <c r="AH449" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI449" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL449" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM449" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A450" s="63">
+      <c r="AH449" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI449" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL449" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM449" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="59">
         <v>449</v>
       </c>
-      <c r="B450" s="63">
+      <c r="B450" s="59">
         <v>10366</v>
       </c>
-      <c r="F450" s="63">
-        <v>1</v>
-      </c>
-      <c r="G450" s="63" t="s">
+      <c r="F450" s="59">
+        <v>1</v>
+      </c>
+      <c r="G450" s="59" t="s">
         <v>1513</v>
       </c>
-      <c r="I450" s="63" t="s">
+      <c r="I450" s="59" t="s">
         <v>1514</v>
       </c>
-      <c r="J450" s="63" t="s">
+      <c r="J450" s="59" t="s">
         <v>1515</v>
       </c>
-      <c r="L450" s="63">
+      <c r="L450" s="59">
         <v>-31</v>
       </c>
-      <c r="M450" s="63">
-        <v>0</v>
-      </c>
-      <c r="N450" s="63">
-        <v>0</v>
-      </c>
-      <c r="O450" s="63" t="s">
+      <c r="M450" s="59">
+        <v>0</v>
+      </c>
+      <c r="N450" s="59">
+        <v>0</v>
+      </c>
+      <c r="O450" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P450" s="63">
+      <c r="P450" s="59">
         <v>3800</v>
       </c>
-      <c r="Q450" s="63" t="s">
+      <c r="Q450" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R450" s="64" t="s">
+      <c r="R450" s="60" t="s">
         <v>1516</v>
       </c>
-      <c r="W450" s="63" t="s">
+      <c r="W450" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X450" s="63">
+      <c r="X450" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y450" s="63">
+      <c r="Y450" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z450" s="63">
+      <c r="Z450" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA450" s="63">
+      <c r="AA450" s="59">
         <v>54</v>
       </c>
-      <c r="AH450" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI450" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL450" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM450" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A451" s="63">
+      <c r="AH450" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI450" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL450" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM450" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="59">
         <v>450</v>
       </c>
-      <c r="B451" s="63">
+      <c r="B451" s="59">
         <v>10367</v>
       </c>
-      <c r="F451" s="63">
-        <v>1</v>
-      </c>
-      <c r="G451" s="63" t="s">
+      <c r="F451" s="59">
+        <v>1</v>
+      </c>
+      <c r="G451" s="59" t="s">
         <v>1517</v>
       </c>
-      <c r="I451" s="63" t="s">
+      <c r="I451" s="59" t="s">
         <v>1518</v>
       </c>
-      <c r="J451" s="63" t="s">
+      <c r="J451" s="59" t="s">
         <v>1519</v>
       </c>
-      <c r="L451" s="63">
+      <c r="L451" s="59">
         <v>-31</v>
       </c>
-      <c r="M451" s="63">
-        <v>0</v>
-      </c>
-      <c r="N451" s="63">
-        <v>0</v>
-      </c>
-      <c r="O451" s="63" t="s">
+      <c r="M451" s="59">
+        <v>0</v>
+      </c>
+      <c r="N451" s="59">
+        <v>0</v>
+      </c>
+      <c r="O451" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P451" s="63">
+      <c r="P451" s="59">
         <v>3800</v>
       </c>
-      <c r="Q451" s="63" t="s">
+      <c r="Q451" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R451" s="64" t="s">
+      <c r="R451" s="60" t="s">
         <v>1520</v>
       </c>
-      <c r="W451" s="63" t="s">
+      <c r="W451" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X451" s="63">
+      <c r="X451" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y451" s="63">
+      <c r="Y451" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z451" s="63">
+      <c r="Z451" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH451" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI451" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL451" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM451" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:39" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="63">
+      <c r="AH451" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI451" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL451" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM451" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:39" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="59">
         <v>451</v>
       </c>
-      <c r="B452" s="63">
+      <c r="B452" s="59">
         <v>10368</v>
       </c>
-      <c r="F452" s="63">
-        <v>1</v>
-      </c>
-      <c r="G452" s="63" t="s">
+      <c r="F452" s="59">
+        <v>1</v>
+      </c>
+      <c r="G452" s="59" t="s">
         <v>1521</v>
       </c>
-      <c r="I452" s="63" t="s">
+      <c r="I452" s="59" t="s">
         <v>1522</v>
       </c>
-      <c r="J452" s="63" t="s">
+      <c r="J452" s="59" t="s">
         <v>1523</v>
       </c>
-      <c r="L452" s="63">
+      <c r="L452" s="59">
         <v>-31</v>
       </c>
-      <c r="M452" s="63">
-        <v>0</v>
-      </c>
-      <c r="N452" s="63">
-        <v>0</v>
-      </c>
-      <c r="O452" s="63" t="s">
+      <c r="M452" s="59">
+        <v>0</v>
+      </c>
+      <c r="N452" s="59">
+        <v>0</v>
+      </c>
+      <c r="O452" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P452" s="63">
+      <c r="P452" s="59">
         <v>3800</v>
       </c>
-      <c r="Q452" s="63" t="s">
+      <c r="Q452" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R452" s="64" t="s">
+      <c r="R452" s="60" t="s">
         <v>1524</v>
       </c>
-      <c r="W452" s="63" t="s">
+      <c r="W452" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X452" s="63">
+      <c r="X452" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y452" s="63">
+      <c r="Y452" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z452" s="63">
+      <c r="Z452" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA452" s="63">
+      <c r="AA452" s="59">
         <v>55</v>
       </c>
-      <c r="AH452" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI452" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL452" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM452" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A453" s="63">
+      <c r="AH452" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI452" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL452" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM452" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="59">
         <v>452</v>
       </c>
-      <c r="B453" s="63">
+      <c r="B453" s="59">
         <v>10369</v>
       </c>
-      <c r="F453" s="63">
-        <v>1</v>
-      </c>
-      <c r="G453" s="63" t="s">
+      <c r="F453" s="59">
+        <v>1</v>
+      </c>
+      <c r="G453" s="59" t="s">
         <v>1525</v>
       </c>
-      <c r="I453" s="63" t="s">
+      <c r="I453" s="59" t="s">
         <v>1526</v>
       </c>
-      <c r="J453" s="63" t="s">
+      <c r="J453" s="59" t="s">
         <v>1527</v>
       </c>
-      <c r="L453" s="63">
+      <c r="L453" s="59">
         <v>-31</v>
       </c>
-      <c r="M453" s="63">
-        <v>0</v>
-      </c>
-      <c r="N453" s="63">
-        <v>0</v>
-      </c>
-      <c r="O453" s="63" t="s">
+      <c r="M453" s="59">
+        <v>0</v>
+      </c>
+      <c r="N453" s="59">
+        <v>0</v>
+      </c>
+      <c r="O453" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P453" s="63">
+      <c r="P453" s="59">
         <v>9800</v>
       </c>
-      <c r="Q453" s="63" t="s">
+      <c r="Q453" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R453" s="64" t="s">
+      <c r="R453" s="60" t="s">
         <v>1528</v>
       </c>
-      <c r="W453" s="63" t="s">
+      <c r="W453" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X453" s="63">
+      <c r="X453" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y453" s="63">
+      <c r="Y453" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z453" s="63">
+      <c r="Z453" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA453" s="63">
+      <c r="AA453" s="59">
         <v>56</v>
       </c>
-      <c r="AH453" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI453" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL453" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM453" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A454" s="63">
+      <c r="AH453" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI453" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL453" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM453" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="59">
         <v>453</v>
       </c>
-      <c r="B454" s="63">
+      <c r="B454" s="59">
         <v>10370</v>
       </c>
-      <c r="F454" s="63">
-        <v>1</v>
-      </c>
-      <c r="G454" s="63" t="s">
+      <c r="F454" s="59">
+        <v>1</v>
+      </c>
+      <c r="G454" s="59" t="s">
         <v>1529</v>
       </c>
-      <c r="I454" s="63" t="s">
+      <c r="I454" s="59" t="s">
         <v>1530</v>
       </c>
-      <c r="J454" s="63" t="s">
+      <c r="J454" s="59" t="s">
         <v>1531</v>
       </c>
-      <c r="L454" s="63">
+      <c r="L454" s="59">
         <v>-31</v>
       </c>
-      <c r="M454" s="63">
-        <v>0</v>
-      </c>
-      <c r="N454" s="63">
-        <v>0</v>
-      </c>
-      <c r="O454" s="63" t="s">
+      <c r="M454" s="59">
+        <v>0</v>
+      </c>
+      <c r="N454" s="59">
+        <v>0</v>
+      </c>
+      <c r="O454" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P454" s="63">
+      <c r="P454" s="59">
         <v>9800</v>
       </c>
-      <c r="Q454" s="63" t="s">
+      <c r="Q454" s="59" t="s">
         <v>991</v>
       </c>
-      <c r="R454" s="64" t="s">
+      <c r="R454" s="60" t="s">
         <v>1532</v>
       </c>
-      <c r="W454" s="63" t="s">
+      <c r="W454" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X454" s="63">
+      <c r="X454" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y454" s="63">
+      <c r="Y454" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z454" s="63">
+      <c r="Z454" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH454" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI454" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL454" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM454" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A455" s="63">
+      <c r="AH454" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI454" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL454" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM454" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="59">
         <v>454</v>
       </c>
-      <c r="B455" s="63">
+      <c r="B455" s="59">
         <v>10371</v>
       </c>
-      <c r="F455" s="63">
-        <v>1</v>
-      </c>
-      <c r="G455" s="63" t="s">
+      <c r="F455" s="59">
+        <v>1</v>
+      </c>
+      <c r="G455" s="59" t="s">
         <v>1533</v>
       </c>
-      <c r="I455" s="63" t="s">
+      <c r="I455" s="59" t="s">
         <v>1534</v>
       </c>
-      <c r="J455" s="63" t="s">
+      <c r="J455" s="59" t="s">
         <v>1535</v>
       </c>
-      <c r="L455" s="63">
+      <c r="L455" s="59">
         <v>-31</v>
       </c>
-      <c r="M455" s="63">
-        <v>0</v>
-      </c>
-      <c r="N455" s="63">
-        <v>0</v>
-      </c>
-      <c r="O455" s="63" t="s">
+      <c r="M455" s="59">
+        <v>0</v>
+      </c>
+      <c r="N455" s="59">
+        <v>0</v>
+      </c>
+      <c r="O455" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P455" s="63">
+      <c r="P455" s="59">
         <v>9800</v>
       </c>
-      <c r="Q455" s="63" t="s">
+      <c r="Q455" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R455" s="64" t="s">
+      <c r="R455" s="60" t="s">
         <v>1668</v>
       </c>
-      <c r="W455" s="63" t="s">
+      <c r="W455" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X455" s="63">
+      <c r="X455" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y455" s="63">
+      <c r="Y455" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z455" s="63">
+      <c r="Z455" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA455" s="63">
+      <c r="AA455" s="59">
         <v>57</v>
       </c>
-      <c r="AH455" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI455" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL455" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM455" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A456" s="63">
+      <c r="AH455" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI455" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL455" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM455" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="59">
         <v>455</v>
       </c>
-      <c r="B456" s="63">
+      <c r="B456" s="59">
         <v>10372</v>
       </c>
-      <c r="F456" s="63">
-        <v>1</v>
-      </c>
-      <c r="G456" s="63" t="s">
+      <c r="F456" s="59">
+        <v>1</v>
+      </c>
+      <c r="G456" s="59" t="s">
         <v>1536</v>
       </c>
-      <c r="I456" s="63" t="s">
+      <c r="I456" s="59" t="s">
         <v>1537</v>
       </c>
-      <c r="J456" s="63" t="s">
+      <c r="J456" s="59" t="s">
         <v>1538</v>
       </c>
-      <c r="L456" s="63">
+      <c r="L456" s="59">
         <v>-31</v>
       </c>
-      <c r="M456" s="63">
-        <v>0</v>
-      </c>
-      <c r="N456" s="63">
-        <v>0</v>
-      </c>
-      <c r="O456" s="63" t="s">
+      <c r="M456" s="59">
+        <v>0</v>
+      </c>
+      <c r="N456" s="59">
+        <v>0</v>
+      </c>
+      <c r="O456" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P456" s="63">
+      <c r="P456" s="59">
         <v>19800</v>
       </c>
-      <c r="Q456" s="63" t="s">
+      <c r="Q456" s="59" t="s">
         <v>991</v>
       </c>
-      <c r="R456" s="64" t="s">
+      <c r="R456" s="60" t="s">
         <v>1539</v>
       </c>
-      <c r="W456" s="63" t="s">
+      <c r="W456" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X456" s="63">
+      <c r="X456" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y456" s="63">
+      <c r="Y456" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z456" s="63">
+      <c r="Z456" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA456" s="63">
+      <c r="AA456" s="59">
         <v>58</v>
       </c>
-      <c r="AH456" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI456" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL456" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM456" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A457" s="63">
+      <c r="AH456" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI456" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL456" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM456" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="59">
         <v>456</v>
       </c>
-      <c r="B457" s="63">
+      <c r="B457" s="59">
         <v>10373</v>
       </c>
-      <c r="F457" s="63">
-        <v>1</v>
-      </c>
-      <c r="G457" s="63" t="s">
+      <c r="F457" s="59">
+        <v>1</v>
+      </c>
+      <c r="G457" s="59" t="s">
         <v>1540</v>
       </c>
-      <c r="I457" s="63" t="s">
+      <c r="I457" s="59" t="s">
         <v>1541</v>
       </c>
-      <c r="J457" s="63" t="s">
+      <c r="J457" s="59" t="s">
         <v>1542</v>
       </c>
-      <c r="L457" s="63">
+      <c r="L457" s="59">
         <v>-31</v>
       </c>
-      <c r="M457" s="63">
-        <v>0</v>
-      </c>
-      <c r="N457" s="63">
-        <v>0</v>
-      </c>
-      <c r="O457" s="63" t="s">
+      <c r="M457" s="59">
+        <v>0</v>
+      </c>
+      <c r="N457" s="59">
+        <v>0</v>
+      </c>
+      <c r="O457" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P457" s="63">
+      <c r="P457" s="59">
         <v>19800</v>
       </c>
-      <c r="Q457" s="63" t="s">
+      <c r="Q457" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R457" s="64" t="s">
+      <c r="R457" s="60" t="s">
         <v>1543</v>
       </c>
-      <c r="W457" s="63" t="s">
+      <c r="W457" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X457" s="63">
+      <c r="X457" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y457" s="63">
+      <c r="Y457" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z457" s="63">
+      <c r="Z457" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH457" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI457" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL457" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM457" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A458" s="63">
+      <c r="AH457" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI457" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL457" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM457" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="59">
         <v>457</v>
       </c>
-      <c r="B458" s="63">
+      <c r="B458" s="59">
         <v>10374</v>
       </c>
-      <c r="F458" s="63">
-        <v>1</v>
-      </c>
-      <c r="G458" s="63" t="s">
+      <c r="F458" s="59">
+        <v>1</v>
+      </c>
+      <c r="G458" s="59" t="s">
         <v>1544</v>
       </c>
-      <c r="I458" s="63" t="s">
+      <c r="I458" s="59" t="s">
         <v>1545</v>
       </c>
-      <c r="J458" s="63" t="s">
+      <c r="J458" s="59" t="s">
         <v>1546</v>
       </c>
-      <c r="L458" s="63">
+      <c r="L458" s="59">
         <v>-31</v>
       </c>
-      <c r="M458" s="63">
-        <v>0</v>
-      </c>
-      <c r="N458" s="63">
-        <v>0</v>
-      </c>
-      <c r="O458" s="63" t="s">
+      <c r="M458" s="59">
+        <v>0</v>
+      </c>
+      <c r="N458" s="59">
+        <v>0</v>
+      </c>
+      <c r="O458" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P458" s="63">
+      <c r="P458" s="59">
         <v>19800</v>
       </c>
-      <c r="Q458" s="63" t="s">
+      <c r="Q458" s="59" t="s">
         <v>991</v>
       </c>
-      <c r="R458" s="64" t="s">
+      <c r="R458" s="60" t="s">
         <v>1547</v>
       </c>
-      <c r="W458" s="63" t="s">
+      <c r="W458" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X458" s="63">
+      <c r="X458" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y458" s="63">
+      <c r="Y458" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z458" s="63">
+      <c r="Z458" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA458" s="63">
+      <c r="AA458" s="59">
         <v>59</v>
       </c>
-      <c r="AH458" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI458" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL458" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM458" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A459" s="63">
+      <c r="AH458" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI458" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL458" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM458" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="59">
         <v>458</v>
       </c>
-      <c r="B459" s="63">
+      <c r="B459" s="59">
         <v>10375</v>
       </c>
-      <c r="F459" s="63">
-        <v>1</v>
-      </c>
-      <c r="G459" s="63" t="s">
+      <c r="F459" s="59">
+        <v>1</v>
+      </c>
+      <c r="G459" s="59" t="s">
         <v>1548</v>
       </c>
-      <c r="I459" s="63" t="s">
+      <c r="I459" s="59" t="s">
         <v>1549</v>
       </c>
-      <c r="J459" s="63" t="s">
+      <c r="J459" s="59" t="s">
         <v>1550</v>
       </c>
-      <c r="L459" s="63">
+      <c r="L459" s="59">
         <v>-31</v>
       </c>
-      <c r="M459" s="63">
-        <v>0</v>
-      </c>
-      <c r="N459" s="63">
-        <v>0</v>
-      </c>
-      <c r="O459" s="63" t="s">
+      <c r="M459" s="59">
+        <v>0</v>
+      </c>
+      <c r="N459" s="59">
+        <v>0</v>
+      </c>
+      <c r="O459" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P459" s="63">
+      <c r="P459" s="59">
         <v>49800</v>
       </c>
-      <c r="Q459" s="63" t="s">
+      <c r="Q459" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R459" s="64" t="s">
+      <c r="R459" s="60" t="s">
         <v>1551</v>
       </c>
-      <c r="W459" s="63" t="s">
+      <c r="W459" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X459" s="63">
+      <c r="X459" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y459" s="63">
+      <c r="Y459" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z459" s="63">
+      <c r="Z459" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA459" s="63">
+      <c r="AA459" s="59">
         <v>60</v>
       </c>
-      <c r="AH459" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI459" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL459" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM459" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A460" s="63">
+      <c r="AH459" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI459" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL459" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM459" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="59">
         <v>459</v>
       </c>
-      <c r="B460" s="63">
+      <c r="B460" s="59">
         <v>10376</v>
       </c>
-      <c r="F460" s="63">
-        <v>1</v>
-      </c>
-      <c r="G460" s="63" t="s">
+      <c r="F460" s="59">
+        <v>1</v>
+      </c>
+      <c r="G460" s="59" t="s">
         <v>1552</v>
       </c>
-      <c r="I460" s="63" t="s">
+      <c r="I460" s="59" t="s">
         <v>1553</v>
       </c>
-      <c r="J460" s="63" t="s">
+      <c r="J460" s="59" t="s">
         <v>1554</v>
       </c>
-      <c r="L460" s="63">
+      <c r="L460" s="59">
         <v>-31</v>
       </c>
-      <c r="M460" s="63">
-        <v>0</v>
-      </c>
-      <c r="N460" s="63">
-        <v>0</v>
-      </c>
-      <c r="O460" s="63" t="s">
+      <c r="M460" s="59">
+        <v>0</v>
+      </c>
+      <c r="N460" s="59">
+        <v>0</v>
+      </c>
+      <c r="O460" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P460" s="63">
+      <c r="P460" s="59">
         <v>49800</v>
       </c>
-      <c r="Q460" s="63" t="s">
+      <c r="Q460" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R460" s="64" t="s">
+      <c r="R460" s="60" t="s">
         <v>1555</v>
       </c>
-      <c r="W460" s="63" t="s">
+      <c r="W460" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X460" s="63">
+      <c r="X460" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y460" s="63">
+      <c r="Y460" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z460" s="63">
+      <c r="Z460" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH460" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI460" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL460" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM460" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A461" s="63">
+      <c r="AH460" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI460" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL460" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM460" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="59">
         <v>460</v>
       </c>
-      <c r="B461" s="63">
+      <c r="B461" s="59">
         <v>10377</v>
       </c>
-      <c r="F461" s="63">
-        <v>1</v>
-      </c>
-      <c r="G461" s="63" t="s">
+      <c r="F461" s="59">
+        <v>1</v>
+      </c>
+      <c r="G461" s="59" t="s">
         <v>1556</v>
       </c>
-      <c r="I461" s="63" t="s">
+      <c r="I461" s="59" t="s">
         <v>1557</v>
       </c>
-      <c r="J461" s="63" t="s">
+      <c r="J461" s="59" t="s">
         <v>1558</v>
       </c>
-      <c r="L461" s="63">
+      <c r="L461" s="59">
         <v>-31</v>
       </c>
-      <c r="M461" s="63">
-        <v>0</v>
-      </c>
-      <c r="N461" s="63">
-        <v>0</v>
-      </c>
-      <c r="O461" s="63" t="s">
+      <c r="M461" s="59">
+        <v>0</v>
+      </c>
+      <c r="N461" s="59">
+        <v>0</v>
+      </c>
+      <c r="O461" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P461" s="63">
+      <c r="P461" s="59">
         <v>49800</v>
       </c>
-      <c r="Q461" s="63" t="s">
+      <c r="Q461" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R461" s="64" t="s">
+      <c r="R461" s="60" t="s">
         <v>1559</v>
       </c>
-      <c r="W461" s="63" t="s">
+      <c r="W461" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X461" s="63">
+      <c r="X461" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y461" s="63">
+      <c r="Y461" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z461" s="63">
+      <c r="Z461" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA461" s="63">
+      <c r="AA461" s="59">
         <v>61</v>
       </c>
-      <c r="AH461" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI461" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL461" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM461" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="63">
+      <c r="AH461" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI461" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL461" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM461" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="59">
         <v>461</v>
       </c>
-      <c r="B462" s="63">
+      <c r="B462" s="59">
         <v>10378</v>
       </c>
-      <c r="F462" s="63">
-        <v>1</v>
-      </c>
-      <c r="G462" s="63" t="s">
+      <c r="F462" s="59">
+        <v>1</v>
+      </c>
+      <c r="G462" s="59" t="s">
         <v>1560</v>
       </c>
-      <c r="I462" s="63" t="s">
+      <c r="I462" s="59" t="s">
         <v>1561</v>
       </c>
-      <c r="J462" s="63" t="s">
+      <c r="J462" s="59" t="s">
         <v>1562</v>
       </c>
-      <c r="L462" s="63">
+      <c r="L462" s="59">
         <v>-31</v>
       </c>
-      <c r="M462" s="63">
-        <v>0</v>
-      </c>
-      <c r="N462" s="63">
-        <v>0</v>
-      </c>
-      <c r="O462" s="63" t="s">
+      <c r="M462" s="59">
+        <v>0</v>
+      </c>
+      <c r="N462" s="59">
+        <v>0</v>
+      </c>
+      <c r="O462" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P462" s="63">
+      <c r="P462" s="59">
         <v>99800</v>
       </c>
-      <c r="Q462" s="63" t="s">
+      <c r="Q462" s="59" t="s">
         <v>991</v>
       </c>
-      <c r="R462" s="64" t="s">
+      <c r="R462" s="60" t="s">
         <v>1563</v>
       </c>
-      <c r="W462" s="63" t="s">
+      <c r="W462" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X462" s="63">
+      <c r="X462" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y462" s="63">
+      <c r="Y462" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z462" s="63">
+      <c r="Z462" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA462" s="63">
+      <c r="AA462" s="59">
         <v>62</v>
       </c>
-      <c r="AH462" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI462" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL462" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM462" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A463" s="63">
+      <c r="AH462" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI462" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL462" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM462" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="59">
         <v>462</v>
       </c>
-      <c r="B463" s="63">
+      <c r="B463" s="59">
         <v>10379</v>
       </c>
-      <c r="F463" s="63">
-        <v>1</v>
-      </c>
-      <c r="G463" s="63" t="s">
+      <c r="F463" s="59">
+        <v>1</v>
+      </c>
+      <c r="G463" s="59" t="s">
         <v>1564</v>
       </c>
-      <c r="I463" s="63" t="s">
+      <c r="I463" s="59" t="s">
         <v>1565</v>
       </c>
-      <c r="J463" s="63" t="s">
+      <c r="J463" s="59" t="s">
         <v>1566</v>
       </c>
-      <c r="L463" s="63">
+      <c r="L463" s="59">
         <v>-31</v>
       </c>
-      <c r="M463" s="63">
-        <v>0</v>
-      </c>
-      <c r="N463" s="63">
-        <v>0</v>
-      </c>
-      <c r="O463" s="63" t="s">
+      <c r="M463" s="59">
+        <v>0</v>
+      </c>
+      <c r="N463" s="59">
+        <v>0</v>
+      </c>
+      <c r="O463" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P463" s="63">
+      <c r="P463" s="59">
         <v>99800</v>
       </c>
-      <c r="Q463" s="63" t="s">
+      <c r="Q463" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R463" s="64" t="s">
+      <c r="R463" s="60" t="s">
         <v>1567</v>
       </c>
-      <c r="W463" s="63" t="s">
+      <c r="W463" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X463" s="63">
+      <c r="X463" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y463" s="63">
+      <c r="Y463" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z463" s="63">
+      <c r="Z463" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH463" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI463" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL463" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM463" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A464" s="63">
+      <c r="AH463" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI463" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL463" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM463" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="59">
         <v>463</v>
       </c>
-      <c r="B464" s="63">
+      <c r="B464" s="59">
         <v>10380</v>
       </c>
-      <c r="F464" s="63">
-        <v>1</v>
-      </c>
-      <c r="G464" s="63" t="s">
+      <c r="F464" s="59">
+        <v>1</v>
+      </c>
+      <c r="G464" s="59" t="s">
         <v>1568</v>
       </c>
-      <c r="I464" s="63" t="s">
+      <c r="I464" s="59" t="s">
         <v>1569</v>
       </c>
-      <c r="J464" s="63" t="s">
+      <c r="J464" s="59" t="s">
         <v>1570</v>
       </c>
-      <c r="L464" s="63">
+      <c r="L464" s="59">
         <v>-31</v>
       </c>
-      <c r="M464" s="63">
-        <v>0</v>
-      </c>
-      <c r="N464" s="63">
-        <v>0</v>
-      </c>
-      <c r="O464" s="63" t="s">
+      <c r="M464" s="59">
+        <v>0</v>
+      </c>
+      <c r="N464" s="59">
+        <v>0</v>
+      </c>
+      <c r="O464" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P464" s="63">
+      <c r="P464" s="59">
         <v>99800</v>
       </c>
-      <c r="Q464" s="63" t="s">
+      <c r="Q464" s="59" t="s">
         <v>991</v>
       </c>
-      <c r="R464" s="64" t="s">
+      <c r="R464" s="60" t="s">
         <v>1571</v>
       </c>
-      <c r="W464" s="63" t="s">
+      <c r="W464" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X464" s="63">
+      <c r="X464" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y464" s="63">
+      <c r="Y464" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z464" s="63">
+      <c r="Z464" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA464" s="63">
+      <c r="AA464" s="59">
         <v>63</v>
       </c>
-      <c r="AH464" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI464" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL464" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM464" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A465" s="63">
+      <c r="AH464" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI464" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL464" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM464" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="59">
         <v>464</v>
       </c>
-      <c r="B465" s="63">
+      <c r="B465" s="59">
         <v>10381</v>
       </c>
-      <c r="F465" s="63">
-        <v>1</v>
-      </c>
-      <c r="G465" s="63" t="s">
+      <c r="F465" s="59">
+        <v>1</v>
+      </c>
+      <c r="G465" s="59" t="s">
         <v>1572</v>
       </c>
-      <c r="I465" s="63" t="s">
+      <c r="I465" s="59" t="s">
         <v>1573</v>
       </c>
-      <c r="J465" s="63" t="s">
+      <c r="J465" s="59" t="s">
         <v>1574</v>
       </c>
-      <c r="L465" s="63">
+      <c r="L465" s="59">
         <v>-31</v>
       </c>
-      <c r="M465" s="63">
-        <v>0</v>
-      </c>
-      <c r="N465" s="63">
-        <v>0</v>
-      </c>
-      <c r="O465" s="63" t="s">
+      <c r="M465" s="59">
+        <v>0</v>
+      </c>
+      <c r="N465" s="59">
+        <v>0</v>
+      </c>
+      <c r="O465" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P465" s="63">
+      <c r="P465" s="59">
         <v>249800</v>
       </c>
-      <c r="Q465" s="63" t="s">
+      <c r="Q465" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R465" s="64" t="s">
+      <c r="R465" s="60" t="s">
         <v>1575</v>
       </c>
-      <c r="W465" s="63" t="s">
+      <c r="W465" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X465" s="63">
+      <c r="X465" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y465" s="63">
+      <c r="Y465" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z465" s="63">
+      <c r="Z465" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA465" s="63">
+      <c r="AA465" s="59">
         <v>64</v>
       </c>
-      <c r="AH465" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI465" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL465" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM465" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A466" s="63">
+      <c r="AH465" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI465" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL465" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM465" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="59">
         <v>465</v>
       </c>
-      <c r="B466" s="63">
+      <c r="B466" s="59">
         <v>10382</v>
       </c>
-      <c r="F466" s="63">
-        <v>1</v>
-      </c>
-      <c r="G466" s="63" t="s">
+      <c r="F466" s="59">
+        <v>1</v>
+      </c>
+      <c r="G466" s="59" t="s">
         <v>1576</v>
       </c>
-      <c r="I466" s="63" t="s">
+      <c r="I466" s="59" t="s">
         <v>1577</v>
       </c>
-      <c r="J466" s="63" t="s">
+      <c r="J466" s="59" t="s">
         <v>1578</v>
       </c>
-      <c r="L466" s="63">
+      <c r="L466" s="59">
         <v>-31</v>
       </c>
-      <c r="M466" s="63">
-        <v>0</v>
-      </c>
-      <c r="N466" s="63">
-        <v>0</v>
-      </c>
-      <c r="O466" s="63" t="s">
+      <c r="M466" s="59">
+        <v>0</v>
+      </c>
+      <c r="N466" s="59">
+        <v>0</v>
+      </c>
+      <c r="O466" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P466" s="63">
+      <c r="P466" s="59">
         <v>249800</v>
       </c>
-      <c r="Q466" s="63" t="s">
+      <c r="Q466" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R466" s="64" t="s">
+      <c r="R466" s="60" t="s">
         <v>1579</v>
       </c>
-      <c r="W466" s="63" t="s">
+      <c r="W466" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X466" s="63">
+      <c r="X466" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y466" s="63">
+      <c r="Y466" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z466" s="63">
+      <c r="Z466" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH466" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI466" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL466" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM466" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A467" s="63">
+      <c r="AH466" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI466" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL466" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM466" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="59">
         <v>466</v>
       </c>
-      <c r="B467" s="63">
+      <c r="B467" s="59">
         <v>10383</v>
       </c>
-      <c r="F467" s="63">
-        <v>1</v>
-      </c>
-      <c r="G467" s="63" t="s">
+      <c r="F467" s="59">
+        <v>1</v>
+      </c>
+      <c r="G467" s="59" t="s">
         <v>1580</v>
       </c>
-      <c r="I467" s="63" t="s">
+      <c r="I467" s="59" t="s">
         <v>1581</v>
       </c>
-      <c r="J467" s="63" t="s">
+      <c r="J467" s="59" t="s">
         <v>1582</v>
       </c>
-      <c r="L467" s="63">
+      <c r="L467" s="59">
         <v>-31</v>
       </c>
-      <c r="M467" s="63">
-        <v>0</v>
-      </c>
-      <c r="N467" s="63">
-        <v>0</v>
-      </c>
-      <c r="O467" s="63" t="s">
+      <c r="M467" s="59">
+        <v>0</v>
+      </c>
+      <c r="N467" s="59">
+        <v>0</v>
+      </c>
+      <c r="O467" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P467" s="63">
+      <c r="P467" s="59">
         <v>249800</v>
       </c>
-      <c r="Q467" s="63" t="s">
+      <c r="Q467" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R467" s="64" t="s">
+      <c r="R467" s="60" t="s">
         <v>1583</v>
       </c>
-      <c r="W467" s="63" t="s">
+      <c r="W467" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="X467" s="63">
+      <c r="X467" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y467" s="63">
+      <c r="Y467" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z467" s="63">
+      <c r="Z467" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA467" s="63">
+      <c r="AA467" s="59">
         <v>65</v>
       </c>
-      <c r="AH467" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI467" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL467" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM467" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A468" s="63">
+      <c r="AH467" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI467" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL467" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM467" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="59">
         <v>467</v>
       </c>
-      <c r="B468" s="63">
+      <c r="B468" s="59">
         <v>10384</v>
       </c>
-      <c r="F468" s="63">
-        <v>1</v>
-      </c>
-      <c r="G468" s="63" t="s">
+      <c r="F468" s="59">
+        <v>1</v>
+      </c>
+      <c r="G468" s="59" t="s">
         <v>1584</v>
       </c>
-      <c r="I468" s="63" t="s">
+      <c r="I468" s="59" t="s">
         <v>1585</v>
       </c>
-      <c r="J468" s="63" t="s">
+      <c r="J468" s="59" t="s">
         <v>1586</v>
       </c>
-      <c r="L468" s="63">
+      <c r="L468" s="59">
         <v>-31</v>
       </c>
-      <c r="M468" s="63">
-        <v>0</v>
-      </c>
-      <c r="N468" s="63">
-        <v>0</v>
-      </c>
-      <c r="O468" s="63" t="s">
+      <c r="M468" s="59">
+        <v>0</v>
+      </c>
+      <c r="N468" s="59">
+        <v>0</v>
+      </c>
+      <c r="O468" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P468" s="63">
+      <c r="P468" s="59">
         <v>600</v>
       </c>
-      <c r="Q468" s="63" t="s">
+      <c r="Q468" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R468" s="64" t="s">
+      <c r="R468" s="60" t="s">
         <v>1587</v>
       </c>
-      <c r="W468" s="63" t="s">
+      <c r="W468" s="59" t="s">
         <v>1589</v>
       </c>
-      <c r="X468" s="63">
+      <c r="X468" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y468" s="63">
+      <c r="Y468" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z468" s="63">
+      <c r="Z468" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH468" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI468" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL468" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM468" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A469" s="63">
+      <c r="AH468" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI468" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL468" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM468" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="59">
         <v>468</v>
       </c>
-      <c r="B469" s="63">
+      <c r="B469" s="59">
         <v>10385</v>
       </c>
-      <c r="F469" s="63">
-        <v>1</v>
-      </c>
-      <c r="G469" s="63" t="s">
+      <c r="F469" s="59">
+        <v>1</v>
+      </c>
+      <c r="G469" s="59" t="s">
         <v>1590</v>
       </c>
-      <c r="I469" s="63" t="s">
+      <c r="I469" s="59" t="s">
         <v>1591</v>
       </c>
-      <c r="J469" s="63" t="s">
+      <c r="J469" s="59" t="s">
         <v>1592</v>
       </c>
-      <c r="L469" s="63">
+      <c r="L469" s="59">
         <v>-31</v>
       </c>
-      <c r="M469" s="63">
-        <v>0</v>
-      </c>
-      <c r="N469" s="63">
-        <v>0</v>
-      </c>
-      <c r="O469" s="63" t="s">
+      <c r="M469" s="59">
+        <v>0</v>
+      </c>
+      <c r="N469" s="59">
+        <v>0</v>
+      </c>
+      <c r="O469" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P469" s="63">
+      <c r="P469" s="59">
         <v>3000</v>
       </c>
-      <c r="Q469" s="63" t="s">
+      <c r="Q469" s="59" t="s">
         <v>991</v>
       </c>
-      <c r="R469" s="64" t="s">
+      <c r="R469" s="60" t="s">
         <v>1593</v>
       </c>
-      <c r="W469" s="63" t="s">
+      <c r="W469" s="59" t="s">
         <v>1588</v>
       </c>
-      <c r="X469" s="63">
+      <c r="X469" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y469" s="63">
+      <c r="Y469" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z469" s="63">
+      <c r="Z469" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH469" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI469" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL469" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM469" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A470" s="63">
+      <c r="AH469" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI469" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL469" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM469" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="59">
         <v>469</v>
       </c>
-      <c r="B470" s="63">
+      <c r="B470" s="59">
         <v>10386</v>
       </c>
-      <c r="F470" s="63">
-        <v>1</v>
-      </c>
-      <c r="G470" s="63" t="s">
+      <c r="F470" s="59">
+        <v>1</v>
+      </c>
+      <c r="G470" s="59" t="s">
         <v>1594</v>
       </c>
-      <c r="I470" s="63" t="s">
+      <c r="I470" s="59" t="s">
         <v>1591</v>
       </c>
-      <c r="J470" s="63" t="s">
+      <c r="J470" s="59" t="s">
         <v>1595</v>
       </c>
-      <c r="L470" s="63">
+      <c r="L470" s="59">
         <v>-31</v>
       </c>
-      <c r="M470" s="63">
-        <v>0</v>
-      </c>
-      <c r="N470" s="63">
-        <v>0</v>
-      </c>
-      <c r="O470" s="63" t="s">
+      <c r="M470" s="59">
+        <v>0</v>
+      </c>
+      <c r="N470" s="59">
+        <v>0</v>
+      </c>
+      <c r="O470" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P470" s="63">
+      <c r="P470" s="59">
         <v>6800</v>
       </c>
-      <c r="Q470" s="63" t="s">
+      <c r="Q470" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R470" s="64" t="s">
+      <c r="R470" s="60" t="s">
         <v>1596</v>
       </c>
-      <c r="W470" s="63" t="s">
+      <c r="W470" s="59" t="s">
         <v>1589</v>
       </c>
-      <c r="X470" s="63">
+      <c r="X470" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y470" s="63">
+      <c r="Y470" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z470" s="63">
+      <c r="Z470" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH470" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI470" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL470" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM470" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A471" s="63">
+      <c r="AH470" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI470" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL470" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM470" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="59">
         <v>470</v>
       </c>
-      <c r="B471" s="63">
+      <c r="B471" s="59">
         <v>10387</v>
       </c>
-      <c r="F471" s="63">
-        <v>1</v>
-      </c>
-      <c r="G471" s="63" t="s">
+      <c r="F471" s="59">
+        <v>1</v>
+      </c>
+      <c r="G471" s="59" t="s">
         <v>1597</v>
       </c>
-      <c r="I471" s="63" t="s">
+      <c r="I471" s="59" t="s">
         <v>1585</v>
       </c>
-      <c r="J471" s="63" t="s">
+      <c r="J471" s="59" t="s">
         <v>1598</v>
       </c>
-      <c r="L471" s="63">
+      <c r="L471" s="59">
         <v>-31</v>
       </c>
-      <c r="M471" s="63">
-        <v>0</v>
-      </c>
-      <c r="N471" s="63">
-        <v>0</v>
-      </c>
-      <c r="O471" s="63" t="s">
+      <c r="M471" s="59">
+        <v>0</v>
+      </c>
+      <c r="N471" s="59">
+        <v>0</v>
+      </c>
+      <c r="O471" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P471" s="63">
+      <c r="P471" s="59">
         <v>9800</v>
       </c>
-      <c r="Q471" s="63" t="s">
+      <c r="Q471" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R471" s="64" t="s">
+      <c r="R471" s="60" t="s">
         <v>1599</v>
       </c>
-      <c r="W471" s="63" t="s">
+      <c r="W471" s="59" t="s">
         <v>1600</v>
       </c>
-      <c r="X471" s="63">
+      <c r="X471" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y471" s="63">
+      <c r="Y471" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z471" s="63">
+      <c r="Z471" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH471" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI471" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL471" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM471" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A472" s="63">
+      <c r="AH471" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI471" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL471" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM471" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="59">
         <v>471</v>
       </c>
-      <c r="B472" s="63">
+      <c r="B472" s="59">
         <v>10388</v>
       </c>
-      <c r="F472" s="63">
-        <v>1</v>
-      </c>
-      <c r="G472" s="63" t="s">
+      <c r="F472" s="59">
+        <v>1</v>
+      </c>
+      <c r="G472" s="59" t="s">
         <v>1601</v>
       </c>
-      <c r="I472" s="63" t="s">
+      <c r="I472" s="59" t="s">
         <v>1585</v>
       </c>
-      <c r="J472" s="63" t="s">
+      <c r="J472" s="59" t="s">
         <v>1602</v>
       </c>
-      <c r="L472" s="63">
+      <c r="L472" s="59">
         <v>-31</v>
       </c>
-      <c r="M472" s="63">
-        <v>0</v>
-      </c>
-      <c r="N472" s="63">
-        <v>0</v>
-      </c>
-      <c r="O472" s="63" t="s">
+      <c r="M472" s="59">
+        <v>0</v>
+      </c>
+      <c r="N472" s="59">
+        <v>0</v>
+      </c>
+      <c r="O472" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P472" s="63">
+      <c r="P472" s="59">
         <v>19800</v>
       </c>
-      <c r="Q472" s="63" t="s">
+      <c r="Q472" s="59" t="s">
         <v>991</v>
       </c>
-      <c r="R472" s="64" t="s">
+      <c r="R472" s="60" t="s">
         <v>1603</v>
       </c>
-      <c r="W472" s="63" t="s">
+      <c r="W472" s="59" t="s">
         <v>1600</v>
       </c>
-      <c r="X472" s="63">
+      <c r="X472" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y472" s="63">
+      <c r="Y472" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z472" s="63">
+      <c r="Z472" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH472" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI472" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL472" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM472" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A473" s="63">
+      <c r="AH472" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI472" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL472" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM472" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="59">
         <v>472</v>
       </c>
-      <c r="B473" s="63">
+      <c r="B473" s="59">
         <v>10389</v>
       </c>
-      <c r="F473" s="63">
-        <v>1</v>
-      </c>
-      <c r="G473" s="63" t="s">
+      <c r="F473" s="59">
+        <v>1</v>
+      </c>
+      <c r="G473" s="59" t="s">
         <v>1604</v>
       </c>
-      <c r="I473" s="63" t="s">
+      <c r="I473" s="59" t="s">
         <v>1591</v>
       </c>
-      <c r="J473" s="63" t="s">
+      <c r="J473" s="59" t="s">
         <v>1605</v>
       </c>
-      <c r="L473" s="63">
+      <c r="L473" s="59">
         <v>-31</v>
       </c>
-      <c r="M473" s="63">
-        <v>0</v>
-      </c>
-      <c r="N473" s="63">
-        <v>0</v>
-      </c>
-      <c r="O473" s="63" t="s">
+      <c r="M473" s="59">
+        <v>0</v>
+      </c>
+      <c r="N473" s="59">
+        <v>0</v>
+      </c>
+      <c r="O473" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P473" s="63">
+      <c r="P473" s="59">
         <v>49800</v>
       </c>
-      <c r="Q473" s="63" t="s">
+      <c r="Q473" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R473" s="64" t="s">
+      <c r="R473" s="60" t="s">
         <v>1606</v>
       </c>
-      <c r="W473" s="63" t="s">
+      <c r="W473" s="59" t="s">
         <v>1600</v>
       </c>
-      <c r="X473" s="63">
+      <c r="X473" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y473" s="63">
+      <c r="Y473" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z473" s="63">
+      <c r="Z473" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH473" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI473" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL473" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM473" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A474" s="63">
+      <c r="AH473" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI473" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL473" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM473" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="59">
         <v>473</v>
       </c>
-      <c r="B474" s="63">
+      <c r="B474" s="59">
         <v>10390</v>
       </c>
-      <c r="F474" s="63">
-        <v>1</v>
-      </c>
-      <c r="G474" s="63" t="s">
+      <c r="F474" s="59">
+        <v>1</v>
+      </c>
+      <c r="G474" s="59" t="s">
         <v>1607</v>
       </c>
-      <c r="I474" s="63" t="s">
+      <c r="I474" s="59" t="s">
         <v>1591</v>
       </c>
-      <c r="J474" s="63" t="s">
+      <c r="J474" s="59" t="s">
         <v>1608</v>
       </c>
-      <c r="L474" s="63">
+      <c r="L474" s="59">
         <v>-31</v>
       </c>
-      <c r="M474" s="63">
-        <v>0</v>
-      </c>
-      <c r="N474" s="63">
-        <v>0</v>
-      </c>
-      <c r="O474" s="63" t="s">
+      <c r="M474" s="59">
+        <v>0</v>
+      </c>
+      <c r="N474" s="59">
+        <v>0</v>
+      </c>
+      <c r="O474" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P474" s="63">
+      <c r="P474" s="59">
         <v>99800</v>
       </c>
-      <c r="Q474" s="63" t="s">
+      <c r="Q474" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R474" s="64" t="s">
+      <c r="R474" s="60" t="s">
         <v>1609</v>
       </c>
-      <c r="W474" s="63" t="s">
+      <c r="W474" s="59" t="s">
         <v>1600</v>
       </c>
-      <c r="X474" s="63">
+      <c r="X474" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y474" s="63">
+      <c r="Y474" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z474" s="63">
+      <c r="Z474" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH474" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI474" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL474" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM474" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A475" s="63">
+      <c r="AH474" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI474" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL474" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM474" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="59">
         <v>474</v>
       </c>
-      <c r="B475" s="63">
+      <c r="B475" s="59">
         <v>10391</v>
       </c>
-      <c r="F475" s="63">
-        <v>1</v>
-      </c>
-      <c r="G475" s="63" t="s">
+      <c r="F475" s="59">
+        <v>1</v>
+      </c>
+      <c r="G475" s="59" t="s">
         <v>1610</v>
       </c>
-      <c r="I475" s="63" t="s">
+      <c r="I475" s="59" t="s">
         <v>1591</v>
       </c>
-      <c r="J475" s="63" t="s">
+      <c r="J475" s="59" t="s">
         <v>1670</v>
       </c>
-      <c r="L475" s="63">
+      <c r="L475" s="59">
         <v>-31</v>
       </c>
-      <c r="M475" s="63">
-        <v>0</v>
-      </c>
-      <c r="N475" s="63">
-        <v>0</v>
-      </c>
-      <c r="O475" s="63" t="s">
+      <c r="M475" s="59">
+        <v>0</v>
+      </c>
+      <c r="N475" s="59">
+        <v>0</v>
+      </c>
+      <c r="O475" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P475" s="63">
+      <c r="P475" s="59">
         <v>249800</v>
       </c>
-      <c r="Q475" s="63" t="s">
+      <c r="Q475" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="R475" s="64" t="s">
+      <c r="R475" s="60" t="s">
         <v>1669</v>
       </c>
-      <c r="W475" s="63" t="s">
+      <c r="W475" s="59" t="s">
         <v>1600</v>
       </c>
-      <c r="X475" s="63">
+      <c r="X475" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y475" s="63">
+      <c r="Y475" s="59">
         <v>1605571200</v>
       </c>
-      <c r="Z475" s="63">
+      <c r="Z475" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AH475" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI475" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL475" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM475" s="63">
+      <c r="AH475" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI475" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL475" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM475" s="59">
         <v>1</v>
       </c>
     </row>
@@ -42852,263 +42981,263 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A493" s="63">
+    <row r="493" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A493" s="59">
         <v>492</v>
       </c>
-      <c r="B493" s="63">
+      <c r="B493" s="59">
         <v>10409</v>
       </c>
-      <c r="F493" s="63">
-        <v>1</v>
-      </c>
-      <c r="G493" s="63" t="s">
+      <c r="F493" s="59">
+        <v>1</v>
+      </c>
+      <c r="G493" s="59" t="s">
         <v>1854</v>
       </c>
-      <c r="I493" s="63" t="s">
+      <c r="I493" s="59" t="s">
         <v>1855</v>
       </c>
-      <c r="J493" s="63" t="s">
+      <c r="J493" s="59" t="s">
         <v>1856</v>
       </c>
-      <c r="L493" s="63">
+      <c r="L493" s="59">
         <v>-31</v>
       </c>
-      <c r="M493" s="63">
-        <v>0</v>
-      </c>
-      <c r="N493" s="63">
-        <v>0</v>
-      </c>
-      <c r="O493" s="63" t="s">
+      <c r="M493" s="59">
+        <v>0</v>
+      </c>
+      <c r="N493" s="59">
+        <v>0</v>
+      </c>
+      <c r="O493" s="59" t="s">
         <v>1857</v>
       </c>
-      <c r="P493" s="63">
+      <c r="P493" s="59">
         <v>49800</v>
       </c>
-      <c r="Q493" s="63" t="s">
+      <c r="Q493" s="59" t="s">
         <v>1858</v>
       </c>
-      <c r="R493" s="64" t="s">
+      <c r="R493" s="60" t="s">
         <v>1860</v>
       </c>
-      <c r="W493" s="63" t="s">
+      <c r="W493" s="59" t="s">
         <v>524</v>
       </c>
-      <c r="X493" s="63">
+      <c r="X493" s="59">
         <v>200</v>
       </c>
-      <c r="Y493" s="63">
+      <c r="Y493" s="59">
         <v>1609200000</v>
       </c>
-      <c r="Z493" s="63">
+      <c r="Z493" s="59">
         <v>1609775999</v>
       </c>
-      <c r="AH493" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI493" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL493" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM493" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A494" s="63">
+      <c r="AH493" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI493" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL493" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM493" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A494" s="59">
         <v>493</v>
       </c>
-      <c r="B494" s="63">
+      <c r="B494" s="59">
         <v>10410</v>
       </c>
-      <c r="F494" s="63">
-        <v>1</v>
-      </c>
-      <c r="G494" s="63" t="s">
+      <c r="F494" s="59">
+        <v>1</v>
+      </c>
+      <c r="G494" s="59" t="s">
         <v>1854</v>
       </c>
-      <c r="I494" s="63" t="s">
+      <c r="I494" s="59" t="s">
         <v>1859</v>
       </c>
-      <c r="J494" s="63" t="s">
+      <c r="J494" s="59" t="s">
         <v>1856</v>
       </c>
-      <c r="L494" s="63">
+      <c r="L494" s="59">
         <v>-31</v>
       </c>
-      <c r="M494" s="63">
-        <v>0</v>
-      </c>
-      <c r="N494" s="63">
-        <v>0</v>
-      </c>
-      <c r="O494" s="63" t="s">
+      <c r="M494" s="59">
+        <v>0</v>
+      </c>
+      <c r="N494" s="59">
+        <v>0</v>
+      </c>
+      <c r="O494" s="59" t="s">
         <v>1857</v>
       </c>
-      <c r="P494" s="63">
+      <c r="P494" s="59">
         <v>99800</v>
       </c>
-      <c r="Q494" s="63" t="s">
+      <c r="Q494" s="59" t="s">
         <v>1858</v>
       </c>
-      <c r="R494" s="64" t="s">
+      <c r="R494" s="60" t="s">
         <v>1860</v>
       </c>
-      <c r="W494" s="63" t="s">
+      <c r="W494" s="59" t="s">
         <v>524</v>
       </c>
-      <c r="X494" s="63">
+      <c r="X494" s="59">
         <v>9999999</v>
       </c>
-      <c r="Y494" s="63">
+      <c r="Y494" s="59">
         <v>1609200000</v>
       </c>
-      <c r="Z494" s="63">
+      <c r="Z494" s="59">
         <v>1609775999</v>
       </c>
-      <c r="AH494" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI494" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL494" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM494" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="495" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A495" s="63">
+      <c r="AH494" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI494" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL494" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM494" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A495" s="59">
         <v>494</v>
       </c>
-      <c r="B495" s="63">
+      <c r="B495" s="59">
         <v>10411</v>
       </c>
-      <c r="F495" s="63">
-        <v>1</v>
-      </c>
-      <c r="G495" s="63" t="s">
+      <c r="F495" s="59">
+        <v>1</v>
+      </c>
+      <c r="G495" s="59" t="s">
         <v>1870</v>
       </c>
-      <c r="J495" s="63" t="s">
+      <c r="J495" s="59" t="s">
         <v>1871</v>
       </c>
-      <c r="L495" s="63">
+      <c r="L495" s="59">
         <v>-31</v>
       </c>
-      <c r="M495" s="63">
-        <v>0</v>
-      </c>
-      <c r="N495" s="63">
-        <v>0</v>
-      </c>
-      <c r="O495" s="63" t="s">
+      <c r="M495" s="59">
+        <v>0</v>
+      </c>
+      <c r="N495" s="59">
+        <v>0</v>
+      </c>
+      <c r="O495" s="59" t="s">
         <v>1872</v>
       </c>
-      <c r="P495" s="63">
+      <c r="P495" s="59">
         <v>79800</v>
       </c>
-      <c r="Q495" s="63" t="s">
+      <c r="Q495" s="59" t="s">
         <v>1627</v>
       </c>
-      <c r="R495" s="64" t="s">
+      <c r="R495" s="60" t="s">
         <v>1873</v>
       </c>
-      <c r="W495" s="63" t="s">
+      <c r="W495" s="59" t="s">
         <v>568</v>
       </c>
-      <c r="X495" s="63">
+      <c r="X495" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y495" s="63">
+      <c r="Y495" s="59">
         <v>1592263800</v>
       </c>
-      <c r="Z495" s="63">
+      <c r="Z495" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA495" s="63">
+      <c r="AA495" s="59">
         <v>14</v>
       </c>
-      <c r="AH495" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI495" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL495" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM495" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A496" s="63">
+      <c r="AH495" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI495" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL495" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM495" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A496" s="59">
         <v>495</v>
       </c>
-      <c r="B496" s="63">
+      <c r="B496" s="59">
         <v>10412</v>
       </c>
-      <c r="F496" s="63">
-        <v>1</v>
-      </c>
-      <c r="G496" s="63" t="s">
+      <c r="F496" s="59">
+        <v>1</v>
+      </c>
+      <c r="G496" s="59" t="s">
         <v>1874</v>
       </c>
-      <c r="J496" s="63" t="s">
+      <c r="J496" s="59" t="s">
         <v>1875</v>
       </c>
-      <c r="L496" s="63">
+      <c r="L496" s="59">
         <v>-31</v>
       </c>
-      <c r="M496" s="63">
-        <v>0</v>
-      </c>
-      <c r="N496" s="63">
-        <v>0</v>
-      </c>
-      <c r="O496" s="63" t="s">
+      <c r="M496" s="59">
+        <v>0</v>
+      </c>
+      <c r="N496" s="59">
+        <v>0</v>
+      </c>
+      <c r="O496" s="59" t="s">
         <v>1872</v>
       </c>
-      <c r="P496" s="63">
+      <c r="P496" s="59">
         <v>89800</v>
       </c>
-      <c r="Q496" s="63" t="s">
+      <c r="Q496" s="59" t="s">
         <v>1876</v>
       </c>
-      <c r="R496" s="64" t="s">
+      <c r="R496" s="60" t="s">
         <v>1877</v>
       </c>
-      <c r="W496" s="63" t="s">
+      <c r="W496" s="59" t="s">
         <v>1878</v>
       </c>
-      <c r="X496" s="63">
+      <c r="X496" s="59">
         <v>99999999</v>
       </c>
-      <c r="Y496" s="63">
+      <c r="Y496" s="59">
         <v>1592263800</v>
       </c>
-      <c r="Z496" s="63">
+      <c r="Z496" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AA496" s="63">
+      <c r="AA496" s="59">
         <v>14</v>
       </c>
-      <c r="AH496" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI496" s="63">
-        <v>1</v>
-      </c>
-      <c r="AL496" s="63">
-        <v>1</v>
-      </c>
-      <c r="AM496" s="63">
+      <c r="AH496" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI496" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL496" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM496" s="59">
         <v>1</v>
       </c>
     </row>
@@ -43149,11 +43278,11 @@
       <c r="Q497" s="5" t="s">
         <v>1885</v>
       </c>
-      <c r="R497" s="67" t="s">
-        <v>2008</v>
+      <c r="R497" s="63" t="s">
+        <v>2005</v>
       </c>
       <c r="W497" s="47" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="X497" s="5">
         <v>99999999</v>
@@ -43217,11 +43346,11 @@
       <c r="Q498" s="5" t="s">
         <v>1885</v>
       </c>
-      <c r="R498" s="67" t="s">
-        <v>2009</v>
+      <c r="R498" s="63" t="s">
+        <v>2006</v>
       </c>
       <c r="W498" s="47" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="X498" s="5">
         <v>99999999</v>
@@ -43285,11 +43414,11 @@
       <c r="Q499" s="5" t="s">
         <v>1885</v>
       </c>
-      <c r="R499" s="67" t="s">
-        <v>2010</v>
+      <c r="R499" s="63" t="s">
+        <v>2007</v>
       </c>
       <c r="W499" s="47" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="X499" s="5">
         <v>99999999</v>
@@ -43353,11 +43482,11 @@
       <c r="Q500" s="5" t="s">
         <v>1885</v>
       </c>
-      <c r="R500" s="67" t="s">
-        <v>2011</v>
+      <c r="R500" s="63" t="s">
+        <v>2008</v>
       </c>
       <c r="W500" s="47" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="X500" s="5">
         <v>99999999</v>
@@ -43421,11 +43550,11 @@
       <c r="Q501" s="5" t="s">
         <v>1885</v>
       </c>
-      <c r="R501" s="67" t="s">
-        <v>2012</v>
+      <c r="R501" s="63" t="s">
+        <v>2009</v>
       </c>
       <c r="W501" s="47" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="X501" s="5">
         <v>99999999</v>
@@ -43489,11 +43618,11 @@
       <c r="Q502" s="5" t="s">
         <v>1885</v>
       </c>
-      <c r="R502" s="67" t="s">
-        <v>2013</v>
+      <c r="R502" s="63" t="s">
+        <v>2010</v>
       </c>
       <c r="W502" s="47" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="X502" s="5">
         <v>99999999</v>
@@ -43557,11 +43686,11 @@
       <c r="Q503" s="5" t="s">
         <v>1895</v>
       </c>
-      <c r="R503" s="68" t="s">
-        <v>2014</v>
+      <c r="R503" s="64" t="s">
+        <v>2011</v>
       </c>
       <c r="W503" s="47" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="X503" s="5">
         <v>99999999</v>
@@ -43625,11 +43754,11 @@
       <c r="Q504" s="5" t="s">
         <v>1895</v>
       </c>
-      <c r="R504" s="68" t="s">
-        <v>2009</v>
+      <c r="R504" s="64" t="s">
+        <v>2006</v>
       </c>
       <c r="W504" s="47" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="X504" s="5">
         <v>99999999</v>
@@ -43693,11 +43822,11 @@
       <c r="Q505" s="5" t="s">
         <v>1895</v>
       </c>
-      <c r="R505" s="68" t="s">
-        <v>2015</v>
+      <c r="R505" s="64" t="s">
+        <v>2012</v>
       </c>
       <c r="W505" s="47" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="X505" s="5">
         <v>99999999</v>
@@ -43761,11 +43890,11 @@
       <c r="Q506" s="5" t="s">
         <v>1899</v>
       </c>
-      <c r="R506" s="68" t="s">
-        <v>2016</v>
+      <c r="R506" s="64" t="s">
+        <v>2013</v>
       </c>
       <c r="W506" s="47" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="X506" s="5">
         <v>99999999</v>
@@ -43829,11 +43958,11 @@
       <c r="Q507" s="5" t="s">
         <v>1899</v>
       </c>
-      <c r="R507" s="68" t="s">
+      <c r="R507" s="64" t="s">
+        <v>2014</v>
+      </c>
+      <c r="W507" s="47" t="s">
         <v>2017</v>
-      </c>
-      <c r="W507" s="47" t="s">
-        <v>2020</v>
       </c>
       <c r="X507" s="5">
         <v>99999999</v>
@@ -43897,11 +44026,11 @@
       <c r="Q508" s="5" t="s">
         <v>1899</v>
       </c>
-      <c r="R508" s="68" t="s">
-        <v>2018</v>
+      <c r="R508" s="64" t="s">
+        <v>2015</v>
       </c>
       <c r="W508" s="47" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="X508" s="5">
         <v>99999999</v>
@@ -43928,183 +44057,183 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A509" s="63">
+    <row r="509" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="59">
         <v>508</v>
       </c>
-      <c r="B509" s="63">
+      <c r="B509" s="59">
         <v>10425</v>
       </c>
-      <c r="F509" s="63">
-        <v>1</v>
-      </c>
-      <c r="G509" s="63" t="s">
+      <c r="F509" s="59">
+        <v>1</v>
+      </c>
+      <c r="G509" s="59" t="s">
         <v>1902</v>
       </c>
-      <c r="J509" s="63" t="s">
+      <c r="J509" s="59" t="s">
         <v>1903</v>
       </c>
-      <c r="L509" s="63">
+      <c r="L509" s="59">
         <v>-4</v>
       </c>
-      <c r="M509" s="63">
-        <v>1</v>
-      </c>
-      <c r="N509" s="63">
-        <v>0</v>
-      </c>
-      <c r="O509" s="63" t="s">
+      <c r="M509" s="59">
+        <v>1</v>
+      </c>
+      <c r="N509" s="59">
+        <v>0</v>
+      </c>
+      <c r="O509" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P509" s="63">
+      <c r="P509" s="59">
         <v>1800</v>
       </c>
-      <c r="R509" s="64"/>
-      <c r="W509" s="63" t="s">
+      <c r="R509" s="60"/>
+      <c r="W509" s="59" t="s">
         <v>525</v>
       </c>
-      <c r="X509" s="65" t="s">
+      <c r="X509" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="Y509" s="66">
-        <v>0</v>
-      </c>
-      <c r="Z509" s="63">
+      <c r="Y509" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z509" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AB509" s="63" t="s">
+      <c r="AB509" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="AC509" s="63" t="s">
+      <c r="AC509" s="59" t="s">
         <v>1904</v>
       </c>
-      <c r="AD509" s="64" t="s">
+      <c r="AD509" s="60" t="s">
         <v>1905</v>
       </c>
-      <c r="AH509" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI509" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="510" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A510" s="63">
+      <c r="AH509" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI509" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A510" s="59">
         <v>509</v>
       </c>
-      <c r="B510" s="63">
+      <c r="B510" s="59">
         <v>10426</v>
       </c>
-      <c r="F510" s="63">
-        <v>1</v>
-      </c>
-      <c r="G510" s="63" t="s">
+      <c r="F510" s="59">
+        <v>1</v>
+      </c>
+      <c r="G510" s="59" t="s">
         <v>1906</v>
       </c>
-      <c r="J510" s="63" t="s">
+      <c r="J510" s="59" t="s">
         <v>1907</v>
       </c>
-      <c r="L510" s="63">
+      <c r="L510" s="59">
         <v>-4</v>
       </c>
-      <c r="M510" s="63">
-        <v>1</v>
-      </c>
-      <c r="N510" s="63">
-        <v>0</v>
-      </c>
-      <c r="O510" s="63" t="s">
+      <c r="M510" s="59">
+        <v>1</v>
+      </c>
+      <c r="N510" s="59">
+        <v>0</v>
+      </c>
+      <c r="O510" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P510" s="63">
+      <c r="P510" s="59">
         <v>4800</v>
       </c>
-      <c r="R510" s="64"/>
-      <c r="W510" s="63" t="s">
+      <c r="R510" s="60"/>
+      <c r="W510" s="59" t="s">
         <v>525</v>
       </c>
-      <c r="X510" s="65" t="s">
+      <c r="X510" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="Y510" s="66">
-        <v>0</v>
-      </c>
-      <c r="Z510" s="63">
+      <c r="Y510" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z510" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AB510" s="63" t="s">
+      <c r="AB510" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="AC510" s="63" t="s">
+      <c r="AC510" s="59" t="s">
         <v>1908</v>
       </c>
-      <c r="AD510" s="64" t="s">
+      <c r="AD510" s="60" t="s">
         <v>1909</v>
       </c>
-      <c r="AH510" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI510" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="511" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A511" s="63">
+      <c r="AH510" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI510" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A511" s="59">
         <v>510</v>
       </c>
-      <c r="B511" s="63">
+      <c r="B511" s="59">
         <v>10427</v>
       </c>
-      <c r="F511" s="63">
-        <v>1</v>
-      </c>
-      <c r="G511" s="63" t="s">
+      <c r="F511" s="59">
+        <v>1</v>
+      </c>
+      <c r="G511" s="59" t="s">
         <v>1910</v>
       </c>
-      <c r="J511" s="63" t="s">
+      <c r="J511" s="59" t="s">
         <v>1911</v>
       </c>
-      <c r="L511" s="63">
+      <c r="L511" s="59">
         <v>-4</v>
       </c>
-      <c r="M511" s="63">
-        <v>1</v>
-      </c>
-      <c r="N511" s="63">
-        <v>0</v>
-      </c>
-      <c r="O511" s="63" t="s">
+      <c r="M511" s="59">
+        <v>1</v>
+      </c>
+      <c r="N511" s="59">
+        <v>0</v>
+      </c>
+      <c r="O511" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="P511" s="63">
+      <c r="P511" s="59">
         <v>9800</v>
       </c>
-      <c r="R511" s="64"/>
-      <c r="W511" s="63" t="s">
+      <c r="R511" s="60"/>
+      <c r="W511" s="59" t="s">
         <v>525</v>
       </c>
-      <c r="X511" s="65" t="s">
+      <c r="X511" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="Y511" s="66">
-        <v>0</v>
-      </c>
-      <c r="Z511" s="63">
+      <c r="Y511" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z511" s="59">
         <v>2552233600</v>
       </c>
-      <c r="AB511" s="63" t="s">
+      <c r="AB511" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="AC511" s="63" t="s">
+      <c r="AC511" s="59" t="s">
         <v>1912</v>
       </c>
-      <c r="AD511" s="64" t="s">
+      <c r="AD511" s="60" t="s">
         <v>1913</v>
       </c>
-      <c r="AH511" s="63">
-        <v>1</v>
-      </c>
-      <c r="AI511" s="63">
+      <c r="AH511" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI511" s="59">
         <v>1</v>
       </c>
     </row>
@@ -44714,819 +44843,1431 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:39" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A521" s="5">
         <v>520</v>
       </c>
       <c r="B521" s="5">
         <v>10437</v>
       </c>
-      <c r="F521" s="61">
-        <v>1</v>
-      </c>
-      <c r="G521" s="61" t="s">
+      <c r="F521" s="5">
+        <v>1</v>
+      </c>
+      <c r="G521" s="5" t="s">
+        <v>1962</v>
+      </c>
+      <c r="I521" s="5" t="s">
+        <v>1964</v>
+      </c>
+      <c r="J521" s="5" t="s">
         <v>1965</v>
       </c>
-      <c r="I521" s="61" t="s">
+      <c r="L521" s="5">
+        <v>-33</v>
+      </c>
+      <c r="M521" s="5">
+        <v>0</v>
+      </c>
+      <c r="N521" s="5">
+        <v>0</v>
+      </c>
+      <c r="O521" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P521" s="5">
+        <v>600</v>
+      </c>
+      <c r="Q521" s="5" t="s">
         <v>1967</v>
       </c>
-      <c r="J521" s="61" t="s">
-        <v>1968</v>
-      </c>
-      <c r="L521" s="61">
-        <v>-33</v>
-      </c>
-      <c r="M521" s="61">
-        <v>0</v>
-      </c>
-      <c r="N521" s="61">
-        <v>0</v>
-      </c>
-      <c r="O521" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="P521" s="61">
-        <v>600</v>
-      </c>
-      <c r="Q521" s="61" t="s">
-        <v>1970</v>
-      </c>
-      <c r="R521" s="62" t="s">
-        <v>2021</v>
-      </c>
-      <c r="W521" s="61" t="s">
+      <c r="R521" s="10" t="s">
+        <v>2060</v>
+      </c>
+      <c r="W521" s="5" t="s">
         <v>1190</v>
       </c>
-      <c r="X521" s="61">
+      <c r="X521" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y521" s="61">
+      <c r="Y521" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z521" s="61">
+      <c r="Z521" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA521" s="61">
+      <c r="AA521" s="5">
         <v>70</v>
       </c>
-      <c r="AH521" s="61">
-        <v>1</v>
-      </c>
-      <c r="AI521" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL521" s="61">
-        <v>1</v>
-      </c>
-      <c r="AM521" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522" spans="1:39" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH521" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI521" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL521" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM521" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>521</v>
       </c>
       <c r="B522" s="5">
         <v>10438</v>
       </c>
-      <c r="F522" s="61">
-        <v>1</v>
-      </c>
-      <c r="G522" s="61" t="s">
+      <c r="F522" s="5">
+        <v>1</v>
+      </c>
+      <c r="G522" s="5" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I522" s="5" t="s">
+        <v>1964</v>
+      </c>
+      <c r="J522" s="5" t="s">
+        <v>1970</v>
+      </c>
+      <c r="L522" s="5">
+        <v>-33</v>
+      </c>
+      <c r="M522" s="5">
+        <v>0</v>
+      </c>
+      <c r="N522" s="5">
+        <v>0</v>
+      </c>
+      <c r="O522" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P522" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Q522" s="5" t="s">
         <v>1972</v>
       </c>
-      <c r="I522" s="61" t="s">
-        <v>1967</v>
-      </c>
-      <c r="J522" s="61" t="s">
+      <c r="R522" s="10" t="s">
         <v>1973</v>
       </c>
-      <c r="L522" s="61">
-        <v>-33</v>
-      </c>
-      <c r="M522" s="61">
-        <v>0</v>
-      </c>
-      <c r="N522" s="61">
-        <v>0</v>
-      </c>
-      <c r="O522" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="P522" s="61">
-        <v>1000</v>
-      </c>
-      <c r="Q522" s="61" t="s">
-        <v>1975</v>
-      </c>
-      <c r="R522" s="62" t="s">
-        <v>1976</v>
-      </c>
-      <c r="W522" s="61" t="s">
+      <c r="W522" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X522" s="61">
+      <c r="X522" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y522" s="61">
+      <c r="Y522" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z522" s="61">
+      <c r="Z522" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA522" s="61">
+      <c r="AA522" s="5">
         <v>70</v>
       </c>
-      <c r="AH522" s="61">
-        <v>1</v>
-      </c>
-      <c r="AI522" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL522" s="61">
-        <v>1</v>
-      </c>
-      <c r="AM522" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="523" spans="1:39" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH522" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI522" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL522" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM522" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>522</v>
       </c>
       <c r="B523" s="5">
         <v>10439</v>
       </c>
-      <c r="F523" s="61">
-        <v>1</v>
-      </c>
-      <c r="G523" s="61" t="s">
+      <c r="F523" s="5">
+        <v>1</v>
+      </c>
+      <c r="G523" s="5" t="s">
+        <v>1974</v>
+      </c>
+      <c r="I523" s="5" t="s">
+        <v>1963</v>
+      </c>
+      <c r="J523" s="5" t="s">
+        <v>1975</v>
+      </c>
+      <c r="L523" s="5">
+        <v>-33</v>
+      </c>
+      <c r="M523" s="5">
+        <v>0</v>
+      </c>
+      <c r="N523" s="5">
+        <v>0</v>
+      </c>
+      <c r="O523" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P523" s="5">
+        <v>1800</v>
+      </c>
+      <c r="Q523" s="5" t="s">
         <v>1977</v>
       </c>
-      <c r="I523" s="61" t="s">
-        <v>1966</v>
-      </c>
-      <c r="J523" s="61" t="s">
+      <c r="R523" s="10" t="s">
         <v>1978</v>
       </c>
-      <c r="L523" s="61">
-        <v>-33</v>
-      </c>
-      <c r="M523" s="61">
-        <v>0</v>
-      </c>
-      <c r="N523" s="61">
-        <v>0</v>
-      </c>
-      <c r="O523" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="P523" s="61">
-        <v>1800</v>
-      </c>
-      <c r="Q523" s="61" t="s">
-        <v>1980</v>
-      </c>
-      <c r="R523" s="62" t="s">
-        <v>1981</v>
-      </c>
-      <c r="W523" s="61" t="s">
+      <c r="W523" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X523" s="61">
+      <c r="X523" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y523" s="61">
+      <c r="Y523" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z523" s="61">
+      <c r="Z523" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA523" s="61">
+      <c r="AA523" s="5">
         <v>70</v>
       </c>
-      <c r="AH523" s="61">
-        <v>1</v>
-      </c>
-      <c r="AI523" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL523" s="61">
-        <v>1</v>
-      </c>
-      <c r="AM523" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="524" spans="1:39" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH523" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI523" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL523" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM523" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A524" s="5">
         <v>523</v>
       </c>
       <c r="B524" s="5">
         <v>10440</v>
       </c>
-      <c r="F524" s="61">
-        <v>1</v>
-      </c>
-      <c r="G524" s="61" t="s">
+      <c r="F524" s="5">
+        <v>1</v>
+      </c>
+      <c r="G524" s="5" t="s">
+        <v>1979</v>
+      </c>
+      <c r="I524" s="5" t="s">
+        <v>1964</v>
+      </c>
+      <c r="J524" s="5" t="s">
+        <v>1980</v>
+      </c>
+      <c r="L524" s="5">
+        <v>-33</v>
+      </c>
+      <c r="M524" s="5">
+        <v>0</v>
+      </c>
+      <c r="N524" s="5">
+        <v>0</v>
+      </c>
+      <c r="O524" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P524" s="5">
+        <v>4800</v>
+      </c>
+      <c r="Q524" s="5" t="s">
+        <v>1981</v>
+      </c>
+      <c r="R524" s="10" t="s">
         <v>1982</v>
       </c>
-      <c r="I524" s="61" t="s">
-        <v>1967</v>
-      </c>
-      <c r="J524" s="61" t="s">
-        <v>1983</v>
-      </c>
-      <c r="L524" s="61">
-        <v>-33</v>
-      </c>
-      <c r="M524" s="61">
-        <v>0</v>
-      </c>
-      <c r="N524" s="61">
-        <v>0</v>
-      </c>
-      <c r="O524" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="P524" s="61">
-        <v>4800</v>
-      </c>
-      <c r="Q524" s="61" t="s">
-        <v>1984</v>
-      </c>
-      <c r="R524" s="62" t="s">
-        <v>1985</v>
-      </c>
-      <c r="W524" s="61" t="s">
+      <c r="W524" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X524" s="61">
+      <c r="X524" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y524" s="61">
+      <c r="Y524" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z524" s="61">
+      <c r="Z524" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA524" s="61">
+      <c r="AA524" s="5">
         <v>70</v>
       </c>
-      <c r="AH524" s="61">
-        <v>1</v>
-      </c>
-      <c r="AI524" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL524" s="61">
-        <v>1</v>
-      </c>
-      <c r="AM524" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="525" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH524" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI524" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL524" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM524" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>524</v>
       </c>
       <c r="B525" s="5">
         <v>10441</v>
       </c>
-      <c r="F525" s="49">
-        <v>1</v>
-      </c>
-      <c r="G525" s="49" t="s">
-        <v>1964</v>
-      </c>
-      <c r="I525" s="49" t="s">
-        <v>1986</v>
-      </c>
-      <c r="J525" s="49" t="s">
-        <v>1987</v>
-      </c>
-      <c r="L525" s="49">
+      <c r="F525" s="5">
+        <v>1</v>
+      </c>
+      <c r="G525" s="5" t="s">
+        <v>1961</v>
+      </c>
+      <c r="I525" s="5" t="s">
+        <v>1983</v>
+      </c>
+      <c r="J525" s="5" t="s">
+        <v>1984</v>
+      </c>
+      <c r="L525" s="5">
         <v>-33</v>
       </c>
-      <c r="M525" s="49">
-        <v>0</v>
-      </c>
-      <c r="N525" s="49">
-        <v>0</v>
-      </c>
-      <c r="O525" s="49" t="s">
+      <c r="M525" s="5">
+        <v>0</v>
+      </c>
+      <c r="N525" s="5">
+        <v>0</v>
+      </c>
+      <c r="O525" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P525" s="49">
+      <c r="P525" s="5">
         <v>1800</v>
       </c>
-      <c r="Q525" s="49" t="s">
-        <v>1969</v>
-      </c>
-      <c r="R525" s="50" t="s">
-        <v>1981</v>
-      </c>
-      <c r="W525" s="49" t="s">
+      <c r="Q525" s="5" t="s">
+        <v>1966</v>
+      </c>
+      <c r="R525" s="10" t="s">
+        <v>1978</v>
+      </c>
+      <c r="W525" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X525" s="49">
+      <c r="X525" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y525" s="49">
+      <c r="Y525" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z525" s="49">
+      <c r="Z525" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA525" s="49">
+      <c r="AA525" s="5">
         <v>71</v>
       </c>
-      <c r="AH525" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI525" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL525" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM525" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="526" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH525" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI525" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL525" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM525" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A526" s="5">
         <v>525</v>
       </c>
       <c r="B526" s="5">
         <v>10442</v>
       </c>
-      <c r="F526" s="49">
-        <v>1</v>
-      </c>
-      <c r="G526" s="49" t="s">
-        <v>1971</v>
-      </c>
-      <c r="I526" s="49" t="s">
-        <v>1988</v>
-      </c>
-      <c r="J526" s="49" t="s">
-        <v>1989</v>
-      </c>
-      <c r="L526" s="49">
+      <c r="F526" s="5">
+        <v>1</v>
+      </c>
+      <c r="G526" s="5" t="s">
+        <v>1968</v>
+      </c>
+      <c r="I526" s="5" t="s">
+        <v>1985</v>
+      </c>
+      <c r="J526" s="5" t="s">
+        <v>1986</v>
+      </c>
+      <c r="L526" s="5">
         <v>-33</v>
       </c>
-      <c r="M526" s="49">
-        <v>0</v>
-      </c>
-      <c r="N526" s="49">
-        <v>0</v>
-      </c>
-      <c r="O526" s="49" t="s">
+      <c r="M526" s="5">
+        <v>0</v>
+      </c>
+      <c r="N526" s="5">
+        <v>0</v>
+      </c>
+      <c r="O526" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P526" s="49">
+      <c r="P526" s="5">
         <v>4800</v>
       </c>
-      <c r="Q526" s="49" t="s">
-        <v>1975</v>
-      </c>
-      <c r="R526" s="50" t="s">
-        <v>1990</v>
-      </c>
-      <c r="W526" s="49" t="s">
+      <c r="Q526" s="5" t="s">
+        <v>1972</v>
+      </c>
+      <c r="R526" s="10" t="s">
+        <v>1987</v>
+      </c>
+      <c r="W526" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X526" s="49">
+      <c r="X526" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y526" s="49">
+      <c r="Y526" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z526" s="49">
+      <c r="Z526" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA526" s="49">
+      <c r="AA526" s="5">
         <v>71</v>
       </c>
-      <c r="AH526" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI526" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL526" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM526" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH526" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI526" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL526" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM526" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>526</v>
       </c>
       <c r="B527" s="5">
         <v>10443</v>
       </c>
-      <c r="F527" s="49">
-        <v>1</v>
-      </c>
-      <c r="G527" s="49" t="s">
+      <c r="F527" s="5">
+        <v>1</v>
+      </c>
+      <c r="G527" s="5" t="s">
+        <v>1988</v>
+      </c>
+      <c r="I527" s="5" t="s">
+        <v>1985</v>
+      </c>
+      <c r="J527" s="5" t="s">
+        <v>1989</v>
+      </c>
+      <c r="L527" s="5">
+        <v>-33</v>
+      </c>
+      <c r="M527" s="5">
+        <v>0</v>
+      </c>
+      <c r="N527" s="5">
+        <v>0</v>
+      </c>
+      <c r="O527" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P527" s="5">
+        <v>9800</v>
+      </c>
+      <c r="Q527" s="5" t="s">
+        <v>1976</v>
+      </c>
+      <c r="R527" s="10" t="s">
         <v>1991</v>
       </c>
-      <c r="I527" s="49" t="s">
-        <v>1988</v>
-      </c>
-      <c r="J527" s="49" t="s">
-        <v>1992</v>
-      </c>
-      <c r="L527" s="49">
-        <v>-33</v>
-      </c>
-      <c r="M527" s="49">
-        <v>0</v>
-      </c>
-      <c r="N527" s="49">
-        <v>0</v>
-      </c>
-      <c r="O527" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="P527" s="49">
-        <v>9800</v>
-      </c>
-      <c r="Q527" s="49" t="s">
-        <v>1979</v>
-      </c>
-      <c r="R527" s="50" t="s">
-        <v>1994</v>
-      </c>
-      <c r="W527" s="49" t="s">
+      <c r="W527" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X527" s="49">
+      <c r="X527" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y527" s="49">
+      <c r="Y527" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z527" s="49">
+      <c r="Z527" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA527" s="49">
+      <c r="AA527" s="5">
         <v>71</v>
       </c>
-      <c r="AH527" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI527" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL527" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM527" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="528" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH527" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI527" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL527" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM527" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>527</v>
       </c>
       <c r="B528" s="5">
         <v>10444</v>
       </c>
-      <c r="F528" s="49">
-        <v>1</v>
-      </c>
-      <c r="G528" s="49" t="s">
-        <v>1982</v>
-      </c>
-      <c r="I528" s="49" t="s">
-        <v>1988</v>
-      </c>
-      <c r="J528" s="49" t="s">
-        <v>1995</v>
-      </c>
-      <c r="L528" s="49">
+      <c r="F528" s="5">
+        <v>1</v>
+      </c>
+      <c r="G528" s="5" t="s">
+        <v>1979</v>
+      </c>
+      <c r="I528" s="5" t="s">
+        <v>1985</v>
+      </c>
+      <c r="J528" s="5" t="s">
+        <v>1992</v>
+      </c>
+      <c r="L528" s="5">
         <v>-33</v>
       </c>
-      <c r="M528" s="49">
-        <v>0</v>
-      </c>
-      <c r="N528" s="49">
-        <v>0</v>
-      </c>
-      <c r="O528" s="49" t="s">
+      <c r="M528" s="5">
+        <v>0</v>
+      </c>
+      <c r="N528" s="5">
+        <v>0</v>
+      </c>
+      <c r="O528" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P528" s="49">
+      <c r="P528" s="5">
         <v>19800</v>
       </c>
-      <c r="Q528" s="49" t="s">
-        <v>1996</v>
-      </c>
-      <c r="R528" s="50" t="s">
-        <v>1997</v>
-      </c>
-      <c r="W528" s="49" t="s">
+      <c r="Q528" s="5" t="s">
+        <v>1993</v>
+      </c>
+      <c r="R528" s="10" t="s">
+        <v>1994</v>
+      </c>
+      <c r="W528" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X528" s="49">
+      <c r="X528" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y528" s="49">
+      <c r="Y528" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z528" s="49">
+      <c r="Z528" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA528" s="49">
+      <c r="AA528" s="5">
         <v>71</v>
       </c>
-      <c r="AH528" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI528" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL528" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM528" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529" spans="1:39" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH528" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI528" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL528" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM528" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>528</v>
       </c>
       <c r="B529" s="5">
         <v>10445</v>
       </c>
-      <c r="F529" s="61">
-        <v>1</v>
-      </c>
-      <c r="G529" s="61" t="s">
-        <v>1964</v>
-      </c>
-      <c r="I529" s="61" t="s">
-        <v>1999</v>
-      </c>
-      <c r="J529" s="61" t="s">
-        <v>2000</v>
-      </c>
-      <c r="L529" s="61">
+      <c r="F529" s="5">
+        <v>1</v>
+      </c>
+      <c r="G529" s="5" t="s">
+        <v>1961</v>
+      </c>
+      <c r="I529" s="5" t="s">
+        <v>1996</v>
+      </c>
+      <c r="J529" s="5" t="s">
+        <v>1997</v>
+      </c>
+      <c r="L529" s="5">
         <v>-33</v>
       </c>
-      <c r="M529" s="61">
-        <v>0</v>
-      </c>
-      <c r="N529" s="61">
-        <v>0</v>
-      </c>
-      <c r="O529" s="61" t="s">
+      <c r="M529" s="5">
+        <v>0</v>
+      </c>
+      <c r="N529" s="5">
+        <v>0</v>
+      </c>
+      <c r="O529" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P529" s="61">
+      <c r="P529" s="5">
         <v>4800</v>
       </c>
-      <c r="Q529" s="61" t="s">
-        <v>1970</v>
-      </c>
-      <c r="R529" s="62" t="s">
-        <v>2001</v>
-      </c>
-      <c r="W529" s="61" t="s">
+      <c r="Q529" s="5" t="s">
+        <v>1967</v>
+      </c>
+      <c r="R529" s="10" t="s">
+        <v>1998</v>
+      </c>
+      <c r="W529" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X529" s="61">
+      <c r="X529" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y529" s="61">
+      <c r="Y529" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z529" s="61">
+      <c r="Z529" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA529" s="61">
+      <c r="AA529" s="5">
         <v>72</v>
       </c>
-      <c r="AH529" s="61">
-        <v>1</v>
-      </c>
-      <c r="AI529" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL529" s="61">
-        <v>1</v>
-      </c>
-      <c r="AM529" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="530" spans="1:39" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH529" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI529" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL529" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM529" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>529</v>
       </c>
       <c r="B530" s="5">
         <v>10446</v>
       </c>
-      <c r="F530" s="61">
-        <v>1</v>
-      </c>
-      <c r="G530" s="61" t="s">
-        <v>1972</v>
-      </c>
-      <c r="I530" s="61" t="s">
+      <c r="F530" s="5">
+        <v>1</v>
+      </c>
+      <c r="G530" s="5" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I530" s="5" t="s">
+        <v>1996</v>
+      </c>
+      <c r="J530" s="5" t="s">
         <v>1999</v>
       </c>
-      <c r="J530" s="61" t="s">
-        <v>2002</v>
-      </c>
-      <c r="L530" s="61">
+      <c r="L530" s="5">
         <v>-33</v>
       </c>
-      <c r="M530" s="61">
-        <v>0</v>
-      </c>
-      <c r="N530" s="61">
-        <v>0</v>
-      </c>
-      <c r="O530" s="61" t="s">
+      <c r="M530" s="5">
+        <v>0</v>
+      </c>
+      <c r="N530" s="5">
+        <v>0</v>
+      </c>
+      <c r="O530" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P530" s="61">
+      <c r="P530" s="5">
         <v>9800</v>
       </c>
-      <c r="Q530" s="61" t="s">
-        <v>1974</v>
-      </c>
-      <c r="R530" s="62" t="s">
-        <v>1993</v>
-      </c>
-      <c r="W530" s="61" t="s">
+      <c r="Q530" s="5" t="s">
+        <v>1971</v>
+      </c>
+      <c r="R530" s="10" t="s">
+        <v>1990</v>
+      </c>
+      <c r="W530" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X530" s="61">
+      <c r="X530" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y530" s="61">
+      <c r="Y530" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z530" s="61">
+      <c r="Z530" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA530" s="61">
+      <c r="AA530" s="5">
         <v>72</v>
       </c>
-      <c r="AH530" s="61">
-        <v>1</v>
-      </c>
-      <c r="AI530" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL530" s="61">
-        <v>1</v>
-      </c>
-      <c r="AM530" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531" spans="1:39" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH530" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI530" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL530" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM530" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>530</v>
       </c>
       <c r="B531" s="5">
         <v>10447</v>
       </c>
-      <c r="F531" s="61">
-        <v>1</v>
-      </c>
-      <c r="G531" s="61" t="s">
-        <v>1991</v>
-      </c>
-      <c r="I531" s="61" t="s">
-        <v>1999</v>
-      </c>
-      <c r="J531" s="61" t="s">
-        <v>2003</v>
-      </c>
-      <c r="L531" s="61">
+      <c r="F531" s="5">
+        <v>1</v>
+      </c>
+      <c r="G531" s="5" t="s">
+        <v>1988</v>
+      </c>
+      <c r="I531" s="5" t="s">
+        <v>1996</v>
+      </c>
+      <c r="J531" s="5" t="s">
+        <v>2000</v>
+      </c>
+      <c r="L531" s="5">
         <v>-33</v>
       </c>
-      <c r="M531" s="61">
-        <v>0</v>
-      </c>
-      <c r="N531" s="61">
-        <v>0</v>
-      </c>
-      <c r="O531" s="61" t="s">
+      <c r="M531" s="5">
+        <v>0</v>
+      </c>
+      <c r="N531" s="5">
+        <v>0</v>
+      </c>
+      <c r="O531" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P531" s="61">
+      <c r="P531" s="5">
         <v>19800</v>
       </c>
-      <c r="Q531" s="61" t="s">
-        <v>1980</v>
-      </c>
-      <c r="R531" s="62" t="s">
-        <v>2004</v>
-      </c>
-      <c r="W531" s="61" t="s">
+      <c r="Q531" s="5" t="s">
+        <v>1977</v>
+      </c>
+      <c r="R531" s="10" t="s">
+        <v>2001</v>
+      </c>
+      <c r="W531" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X531" s="61">
+      <c r="X531" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y531" s="61">
+      <c r="Y531" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z531" s="61">
+      <c r="Z531" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA531" s="61">
+      <c r="AA531" s="5">
         <v>72</v>
       </c>
-      <c r="AH531" s="61">
-        <v>1</v>
-      </c>
-      <c r="AI531" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL531" s="61">
-        <v>1</v>
-      </c>
-      <c r="AM531" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="532" spans="1:39" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH531" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI531" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL531" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM531" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>531</v>
       </c>
       <c r="B532" s="5">
         <v>10448</v>
       </c>
-      <c r="F532" s="61">
-        <v>1</v>
-      </c>
-      <c r="G532" s="61" t="s">
-        <v>2005</v>
-      </c>
-      <c r="I532" s="61" t="s">
-        <v>1998</v>
-      </c>
-      <c r="J532" s="61" t="s">
-        <v>2006</v>
-      </c>
-      <c r="L532" s="61">
+      <c r="F532" s="5">
+        <v>1</v>
+      </c>
+      <c r="G532" s="5" t="s">
+        <v>2002</v>
+      </c>
+      <c r="I532" s="5" t="s">
+        <v>1995</v>
+      </c>
+      <c r="J532" s="5" t="s">
+        <v>2003</v>
+      </c>
+      <c r="L532" s="5">
         <v>-33</v>
       </c>
-      <c r="M532" s="61">
-        <v>0</v>
-      </c>
-      <c r="N532" s="61">
-        <v>0</v>
-      </c>
-      <c r="O532" s="61" t="s">
+      <c r="M532" s="5">
+        <v>0</v>
+      </c>
+      <c r="N532" s="5">
+        <v>0</v>
+      </c>
+      <c r="O532" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P532" s="61">
+      <c r="P532" s="5">
         <v>49800</v>
       </c>
-      <c r="Q532" s="61" t="s">
-        <v>1984</v>
-      </c>
-      <c r="R532" s="62" t="s">
-        <v>2007</v>
-      </c>
-      <c r="W532" s="61" t="s">
+      <c r="Q532" s="5" t="s">
+        <v>1981</v>
+      </c>
+      <c r="R532" s="10" t="s">
+        <v>2004</v>
+      </c>
+      <c r="W532" s="5" t="s">
         <v>1103</v>
       </c>
-      <c r="X532" s="61">
+      <c r="X532" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y532" s="61">
+      <c r="Y532" s="5">
         <v>1611014400</v>
       </c>
-      <c r="Z532" s="61">
+      <c r="Z532" s="5">
         <v>1611590399</v>
       </c>
-      <c r="AA532" s="61">
+      <c r="AA532" s="5">
         <v>72</v>
       </c>
-      <c r="AH532" s="61">
-        <v>1</v>
-      </c>
-      <c r="AI532" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL532" s="61">
-        <v>1</v>
-      </c>
-      <c r="AM532" s="61">
+      <c r="AH532" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI532" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL532" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM532" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A533" s="5">
+        <v>532</v>
+      </c>
+      <c r="B533" s="47">
+        <v>10449</v>
+      </c>
+      <c r="F533" s="47">
+        <v>1</v>
+      </c>
+      <c r="G533" s="47" t="s">
+        <v>2018</v>
+      </c>
+      <c r="I533" s="47" t="s">
+        <v>2019</v>
+      </c>
+      <c r="J533" s="47" t="s">
+        <v>2020</v>
+      </c>
+      <c r="L533" s="47">
+        <v>-31</v>
+      </c>
+      <c r="M533" s="47">
+        <v>0</v>
+      </c>
+      <c r="N533" s="47">
+        <v>0</v>
+      </c>
+      <c r="O533" s="47" t="s">
+        <v>2021</v>
+      </c>
+      <c r="P533" s="47">
+        <v>1800</v>
+      </c>
+      <c r="Q533" s="47" t="s">
+        <v>2022</v>
+      </c>
+      <c r="R533" s="63" t="s">
+        <v>2023</v>
+      </c>
+      <c r="W533" s="47" t="s">
+        <v>2024</v>
+      </c>
+      <c r="X533" s="47">
+        <v>9999999</v>
+      </c>
+      <c r="Y533" s="47">
+        <v>1611619200</v>
+      </c>
+      <c r="Z533" s="47">
+        <v>1612195199</v>
+      </c>
+      <c r="AA533" s="47">
+        <v>44</v>
+      </c>
+      <c r="AH533" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI533" s="47">
+        <v>1</v>
+      </c>
+      <c r="AL533" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM533" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A534" s="5">
+        <v>533</v>
+      </c>
+      <c r="B534" s="47">
+        <v>10450</v>
+      </c>
+      <c r="F534" s="47">
+        <v>1</v>
+      </c>
+      <c r="G534" s="47" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I534" s="47" t="s">
+        <v>2026</v>
+      </c>
+      <c r="J534" s="47" t="s">
+        <v>2027</v>
+      </c>
+      <c r="L534" s="47">
+        <v>-31</v>
+      </c>
+      <c r="M534" s="47">
+        <v>0</v>
+      </c>
+      <c r="N534" s="47">
+        <v>0</v>
+      </c>
+      <c r="O534" s="47" t="s">
+        <v>2028</v>
+      </c>
+      <c r="P534" s="47">
+        <v>3000</v>
+      </c>
+      <c r="Q534" s="47" t="s">
+        <v>2029</v>
+      </c>
+      <c r="R534" s="63" t="s">
+        <v>2030</v>
+      </c>
+      <c r="W534" s="47" t="s">
+        <v>2024</v>
+      </c>
+      <c r="X534" s="47">
+        <v>9999999</v>
+      </c>
+      <c r="Y534" s="47">
+        <v>1611619200</v>
+      </c>
+      <c r="Z534" s="47">
+        <v>1612195199</v>
+      </c>
+      <c r="AA534" s="47">
+        <v>44</v>
+      </c>
+      <c r="AH534" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI534" s="47">
+        <v>1</v>
+      </c>
+      <c r="AL534" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM534" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A535" s="5">
+        <v>534</v>
+      </c>
+      <c r="B535" s="47">
+        <v>10451</v>
+      </c>
+      <c r="F535" s="47">
+        <v>1</v>
+      </c>
+      <c r="G535" s="47" t="s">
+        <v>2031</v>
+      </c>
+      <c r="I535" s="47" t="s">
+        <v>2026</v>
+      </c>
+      <c r="J535" s="47" t="s">
+        <v>2032</v>
+      </c>
+      <c r="L535" s="47">
+        <v>-31</v>
+      </c>
+      <c r="M535" s="47">
+        <v>0</v>
+      </c>
+      <c r="N535" s="47">
+        <v>0</v>
+      </c>
+      <c r="O535" s="47" t="s">
+        <v>2021</v>
+      </c>
+      <c r="P535" s="47">
+        <v>4800</v>
+      </c>
+      <c r="Q535" s="47" t="s">
+        <v>2033</v>
+      </c>
+      <c r="R535" s="63" t="s">
+        <v>2034</v>
+      </c>
+      <c r="W535" s="47" t="s">
+        <v>2024</v>
+      </c>
+      <c r="X535" s="47">
+        <v>9999999</v>
+      </c>
+      <c r="Y535" s="47">
+        <v>1611619200</v>
+      </c>
+      <c r="Z535" s="47">
+        <v>1612195199</v>
+      </c>
+      <c r="AA535" s="47">
+        <v>44</v>
+      </c>
+      <c r="AH535" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI535" s="47">
+        <v>1</v>
+      </c>
+      <c r="AL535" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM535" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A536" s="5">
+        <v>535</v>
+      </c>
+      <c r="B536" s="49">
+        <v>10452</v>
+      </c>
+      <c r="F536" s="49">
+        <v>1</v>
+      </c>
+      <c r="G536" s="49" t="s">
+        <v>2018</v>
+      </c>
+      <c r="I536" s="49" t="s">
+        <v>2035</v>
+      </c>
+      <c r="J536" s="49" t="s">
+        <v>2036</v>
+      </c>
+      <c r="L536" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M536" s="49">
+        <v>0</v>
+      </c>
+      <c r="N536" s="49">
+        <v>0</v>
+      </c>
+      <c r="O536" s="49" t="s">
+        <v>2037</v>
+      </c>
+      <c r="P536" s="49">
+        <v>4800</v>
+      </c>
+      <c r="Q536" s="49" t="s">
+        <v>2038</v>
+      </c>
+      <c r="R536" s="64" t="s">
+        <v>2034</v>
+      </c>
+      <c r="W536" s="49" t="s">
+        <v>2024</v>
+      </c>
+      <c r="X536" s="49">
+        <v>9999999</v>
+      </c>
+      <c r="Y536" s="49">
+        <v>1611619200</v>
+      </c>
+      <c r="Z536" s="49">
+        <v>1612195199</v>
+      </c>
+      <c r="AA536" s="49">
+        <v>45</v>
+      </c>
+      <c r="AH536" s="49">
+        <v>1</v>
+      </c>
+      <c r="AI536" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL536" s="49">
+        <v>1</v>
+      </c>
+      <c r="AM536" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A537" s="5">
+        <v>536</v>
+      </c>
+      <c r="B537" s="49">
+        <v>10453</v>
+      </c>
+      <c r="F537" s="49">
+        <v>1</v>
+      </c>
+      <c r="G537" s="49" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I537" s="49" t="s">
+        <v>2035</v>
+      </c>
+      <c r="J537" s="49" t="s">
+        <v>2039</v>
+      </c>
+      <c r="L537" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M537" s="49">
+        <v>0</v>
+      </c>
+      <c r="N537" s="49">
+        <v>0</v>
+      </c>
+      <c r="O537" s="49" t="s">
+        <v>2028</v>
+      </c>
+      <c r="P537" s="49">
+        <v>9800</v>
+      </c>
+      <c r="Q537" s="49" t="s">
+        <v>2040</v>
+      </c>
+      <c r="R537" s="64" t="s">
+        <v>2041</v>
+      </c>
+      <c r="W537" s="49" t="s">
+        <v>2024</v>
+      </c>
+      <c r="X537" s="49">
+        <v>9999999</v>
+      </c>
+      <c r="Y537" s="49">
+        <v>1611619200</v>
+      </c>
+      <c r="Z537" s="49">
+        <v>1612195199</v>
+      </c>
+      <c r="AA537" s="49">
+        <v>45</v>
+      </c>
+      <c r="AH537" s="49">
+        <v>1</v>
+      </c>
+      <c r="AI537" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL537" s="49">
+        <v>1</v>
+      </c>
+      <c r="AM537" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A538" s="5">
+        <v>537</v>
+      </c>
+      <c r="B538" s="49">
+        <v>10454</v>
+      </c>
+      <c r="F538" s="49">
+        <v>1</v>
+      </c>
+      <c r="G538" s="49" t="s">
+        <v>2031</v>
+      </c>
+      <c r="I538" s="49" t="s">
+        <v>2042</v>
+      </c>
+      <c r="J538" s="49" t="s">
+        <v>2043</v>
+      </c>
+      <c r="L538" s="49">
+        <v>-31</v>
+      </c>
+      <c r="M538" s="49">
+        <v>0</v>
+      </c>
+      <c r="N538" s="49">
+        <v>0</v>
+      </c>
+      <c r="O538" s="49" t="s">
+        <v>2044</v>
+      </c>
+      <c r="P538" s="49">
+        <v>19800</v>
+      </c>
+      <c r="Q538" s="49" t="s">
+        <v>2045</v>
+      </c>
+      <c r="R538" s="64" t="s">
+        <v>2046</v>
+      </c>
+      <c r="W538" s="49" t="s">
+        <v>2024</v>
+      </c>
+      <c r="X538" s="49">
+        <v>9999999</v>
+      </c>
+      <c r="Y538" s="49">
+        <v>1611619200</v>
+      </c>
+      <c r="Z538" s="49">
+        <v>1612195199</v>
+      </c>
+      <c r="AA538" s="49">
+        <v>45</v>
+      </c>
+      <c r="AH538" s="49">
+        <v>1</v>
+      </c>
+      <c r="AI538" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL538" s="49">
+        <v>1</v>
+      </c>
+      <c r="AM538" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A539" s="5">
+        <v>538</v>
+      </c>
+      <c r="B539" s="47">
+        <v>10455</v>
+      </c>
+      <c r="F539" s="47">
+        <v>1</v>
+      </c>
+      <c r="G539" s="47" t="s">
+        <v>2018</v>
+      </c>
+      <c r="I539" s="47" t="s">
+        <v>2047</v>
+      </c>
+      <c r="J539" s="47" t="s">
+        <v>2048</v>
+      </c>
+      <c r="L539" s="47">
+        <v>-31</v>
+      </c>
+      <c r="M539" s="47">
+        <v>0</v>
+      </c>
+      <c r="N539" s="47">
+        <v>0</v>
+      </c>
+      <c r="O539" s="47" t="s">
+        <v>2021</v>
+      </c>
+      <c r="P539" s="47">
+        <v>9800</v>
+      </c>
+      <c r="Q539" s="47" t="s">
+        <v>2049</v>
+      </c>
+      <c r="R539" s="63" t="s">
+        <v>2050</v>
+      </c>
+      <c r="W539" s="47" t="s">
+        <v>2024</v>
+      </c>
+      <c r="X539" s="47">
+        <v>9999999</v>
+      </c>
+      <c r="Y539" s="47">
+        <v>1611619200</v>
+      </c>
+      <c r="Z539" s="47">
+        <v>1612195199</v>
+      </c>
+      <c r="AA539" s="47">
+        <v>46</v>
+      </c>
+      <c r="AH539" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI539" s="47">
+        <v>1</v>
+      </c>
+      <c r="AL539" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM539" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A540" s="5">
+        <v>539</v>
+      </c>
+      <c r="B540" s="47">
+        <v>10456</v>
+      </c>
+      <c r="F540" s="47">
+        <v>1</v>
+      </c>
+      <c r="G540" s="47" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I540" s="47" t="s">
+        <v>2047</v>
+      </c>
+      <c r="J540" s="47" t="s">
+        <v>2051</v>
+      </c>
+      <c r="L540" s="47">
+        <v>-31</v>
+      </c>
+      <c r="M540" s="47">
+        <v>0</v>
+      </c>
+      <c r="N540" s="47">
+        <v>0</v>
+      </c>
+      <c r="O540" s="47" t="s">
+        <v>2021</v>
+      </c>
+      <c r="P540" s="47">
+        <v>19800</v>
+      </c>
+      <c r="Q540" s="47" t="s">
+        <v>2052</v>
+      </c>
+      <c r="R540" s="63" t="s">
+        <v>2053</v>
+      </c>
+      <c r="W540" s="47" t="s">
+        <v>2024</v>
+      </c>
+      <c r="X540" s="47">
+        <v>9999999</v>
+      </c>
+      <c r="Y540" s="47">
+        <v>1611619200</v>
+      </c>
+      <c r="Z540" s="47">
+        <v>1612195199</v>
+      </c>
+      <c r="AA540" s="47">
+        <v>46</v>
+      </c>
+      <c r="AH540" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI540" s="47">
+        <v>1</v>
+      </c>
+      <c r="AL540" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM540" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A541" s="5">
+        <v>540</v>
+      </c>
+      <c r="B541" s="47">
+        <v>10457</v>
+      </c>
+      <c r="F541" s="47">
+        <v>1</v>
+      </c>
+      <c r="G541" s="47" t="s">
+        <v>2031</v>
+      </c>
+      <c r="I541" s="47" t="s">
+        <v>2047</v>
+      </c>
+      <c r="J541" s="47" t="s">
+        <v>2054</v>
+      </c>
+      <c r="L541" s="47">
+        <v>-31</v>
+      </c>
+      <c r="M541" s="47">
+        <v>0</v>
+      </c>
+      <c r="N541" s="47">
+        <v>0</v>
+      </c>
+      <c r="O541" s="47" t="s">
+        <v>2028</v>
+      </c>
+      <c r="P541" s="47">
+        <v>49800</v>
+      </c>
+      <c r="Q541" s="47" t="s">
+        <v>2055</v>
+      </c>
+      <c r="R541" s="63" t="s">
+        <v>2056</v>
+      </c>
+      <c r="W541" s="47" t="s">
+        <v>2024</v>
+      </c>
+      <c r="X541" s="47">
+        <v>9999999</v>
+      </c>
+      <c r="Y541" s="47">
+        <v>1611619200</v>
+      </c>
+      <c r="Z541" s="47">
+        <v>1612195199</v>
+      </c>
+      <c r="AA541" s="47">
+        <v>46</v>
+      </c>
+      <c r="AH541" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI541" s="47">
+        <v>1</v>
+      </c>
+      <c r="AL541" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM541" s="47">
         <v>1</v>
       </c>
     </row>
@@ -45542,8 +46283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46539,45 +47280,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="12">
         <v>70</v>
       </c>
-      <c r="B71" s="59" t="s">
-        <v>1961</v>
-      </c>
-      <c r="C71" s="60">
-        <v>1</v>
-      </c>
-      <c r="D71" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="57" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C71" s="58">
+        <v>1</v>
+      </c>
+      <c r="D71" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="12">
         <v>71</v>
       </c>
-      <c r="B72" s="59" t="s">
-        <v>1962</v>
-      </c>
-      <c r="C72" s="60">
-        <v>1</v>
-      </c>
-      <c r="D72" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="57" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C72" s="58">
+        <v>1</v>
+      </c>
+      <c r="D72" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="12">
         <v>72</v>
       </c>
-      <c r="B73" s="59" t="s">
-        <v>1963</v>
-      </c>
-      <c r="C73" s="60">
-        <v>1</v>
-      </c>
-      <c r="D73" s="60">
+      <c r="B73" s="57" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C73" s="58">
+        <v>1</v>
+      </c>
+      <c r="D73" s="58">
         <v>0</v>
       </c>
     </row>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4408" uniqueCount="2064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4457" uniqueCount="2076">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8750,6 +8750,54 @@
   </si>
   <si>
     <t>600000,20000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年福袋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年福袋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","300万小游戏币","铁锹*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,3000000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","150万小游戏币","铁锹*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,1500000,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>四季发财</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>六六大顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,150000,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","10万小游戏币","水滴*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -8852,7 +8900,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8913,6 +8961,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8956,7 +9010,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9150,6 +9204,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11604,13 +11667,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN541"/>
+  <dimension ref="A1:AN548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W521" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W518" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA533" sqref="AA533:AA541"/>
+      <selection pane="bottomRight" activeCell="AA544" sqref="AA544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -45671,615 +45734,1133 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A533" s="5">
         <v>532</v>
       </c>
-      <c r="B533" s="47">
+      <c r="B533" s="5">
         <v>10449</v>
       </c>
-      <c r="F533" s="47">
-        <v>1</v>
-      </c>
-      <c r="G533" s="47" t="s">
+      <c r="F533" s="5">
+        <v>1</v>
+      </c>
+      <c r="G533" s="5" t="s">
         <v>2018</v>
       </c>
-      <c r="I533" s="47" t="s">
+      <c r="I533" s="5" t="s">
         <v>2019</v>
       </c>
-      <c r="J533" s="47" t="s">
+      <c r="J533" s="5" t="s">
         <v>2020</v>
       </c>
-      <c r="L533" s="47">
+      <c r="L533" s="5">
         <v>-31</v>
       </c>
-      <c r="M533" s="47">
-        <v>0</v>
-      </c>
-      <c r="N533" s="47">
-        <v>0</v>
-      </c>
-      <c r="O533" s="47" t="s">
+      <c r="M533" s="5">
+        <v>0</v>
+      </c>
+      <c r="N533" s="5">
+        <v>0</v>
+      </c>
+      <c r="O533" s="5" t="s">
         <v>2021</v>
       </c>
-      <c r="P533" s="47">
+      <c r="P533" s="5">
         <v>1800</v>
       </c>
-      <c r="Q533" s="47" t="s">
+      <c r="Q533" s="5" t="s">
         <v>2022</v>
       </c>
-      <c r="R533" s="63" t="s">
+      <c r="R533" s="10" t="s">
         <v>2023</v>
       </c>
-      <c r="W533" s="47" t="s">
+      <c r="W533" s="5" t="s">
         <v>2024</v>
       </c>
-      <c r="X533" s="47">
+      <c r="X533" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y533" s="47">
+      <c r="Y533" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z533" s="47">
+      <c r="Z533" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA533" s="47">
+      <c r="AA533" s="5">
         <v>73</v>
       </c>
-      <c r="AH533" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI533" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL533" s="47">
-        <v>1</v>
-      </c>
-      <c r="AM533" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="534" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH533" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI533" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL533" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM533" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A534" s="5">
         <v>533</v>
       </c>
-      <c r="B534" s="47">
+      <c r="B534" s="5">
         <v>10450</v>
       </c>
-      <c r="F534" s="47">
-        <v>1</v>
-      </c>
-      <c r="G534" s="47" t="s">
+      <c r="F534" s="5">
+        <v>1</v>
+      </c>
+      <c r="G534" s="5" t="s">
         <v>2025</v>
       </c>
-      <c r="I534" s="47" t="s">
+      <c r="I534" s="5" t="s">
         <v>2026</v>
       </c>
-      <c r="J534" s="47" t="s">
+      <c r="J534" s="5" t="s">
         <v>2027</v>
       </c>
-      <c r="L534" s="47">
+      <c r="L534" s="5">
         <v>-31</v>
       </c>
-      <c r="M534" s="47">
-        <v>0</v>
-      </c>
-      <c r="N534" s="47">
-        <v>0</v>
-      </c>
-      <c r="O534" s="47" t="s">
+      <c r="M534" s="5">
+        <v>0</v>
+      </c>
+      <c r="N534" s="5">
+        <v>0</v>
+      </c>
+      <c r="O534" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="P534" s="47">
+      <c r="P534" s="5">
         <v>3000</v>
       </c>
-      <c r="Q534" s="47" t="s">
+      <c r="Q534" s="5" t="s">
         <v>2029</v>
       </c>
-      <c r="R534" s="63" t="s">
+      <c r="R534" s="10" t="s">
         <v>2030</v>
       </c>
-      <c r="W534" s="47" t="s">
+      <c r="W534" s="5" t="s">
         <v>2024</v>
       </c>
-      <c r="X534" s="47">
+      <c r="X534" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y534" s="47">
+      <c r="Y534" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z534" s="47">
+      <c r="Z534" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA534" s="47">
+      <c r="AA534" s="5">
         <v>73</v>
       </c>
-      <c r="AH534" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI534" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL534" s="47">
-        <v>1</v>
-      </c>
-      <c r="AM534" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="535" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH534" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI534" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL534" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM534" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A535" s="5">
         <v>534</v>
       </c>
-      <c r="B535" s="47">
+      <c r="B535" s="5">
         <v>10451</v>
       </c>
-      <c r="F535" s="47">
-        <v>1</v>
-      </c>
-      <c r="G535" s="47" t="s">
+      <c r="F535" s="5">
+        <v>1</v>
+      </c>
+      <c r="G535" s="5" t="s">
         <v>2031</v>
       </c>
-      <c r="I535" s="47" t="s">
+      <c r="I535" s="5" t="s">
         <v>2026</v>
       </c>
-      <c r="J535" s="47" t="s">
+      <c r="J535" s="5" t="s">
         <v>2032</v>
       </c>
-      <c r="L535" s="47">
+      <c r="L535" s="5">
         <v>-31</v>
       </c>
-      <c r="M535" s="47">
-        <v>0</v>
-      </c>
-      <c r="N535" s="47">
-        <v>0</v>
-      </c>
-      <c r="O535" s="47" t="s">
+      <c r="M535" s="5">
+        <v>0</v>
+      </c>
+      <c r="N535" s="5">
+        <v>0</v>
+      </c>
+      <c r="O535" s="5" t="s">
         <v>2021</v>
       </c>
-      <c r="P535" s="47">
+      <c r="P535" s="5">
         <v>4800</v>
       </c>
-      <c r="Q535" s="47" t="s">
+      <c r="Q535" s="5" t="s">
         <v>2033</v>
       </c>
-      <c r="R535" s="63" t="s">
+      <c r="R535" s="10" t="s">
         <v>2034</v>
       </c>
-      <c r="W535" s="47" t="s">
+      <c r="W535" s="5" t="s">
         <v>2024</v>
       </c>
-      <c r="X535" s="47">
+      <c r="X535" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y535" s="47">
+      <c r="Y535" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z535" s="47">
+      <c r="Z535" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA535" s="47">
+      <c r="AA535" s="5">
         <v>73</v>
       </c>
-      <c r="AH535" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI535" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL535" s="47">
-        <v>1</v>
-      </c>
-      <c r="AM535" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="536" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH535" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI535" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL535" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM535" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A536" s="5">
         <v>535</v>
       </c>
-      <c r="B536" s="49">
+      <c r="B536" s="5">
         <v>10452</v>
       </c>
-      <c r="F536" s="49">
-        <v>1</v>
-      </c>
-      <c r="G536" s="49" t="s">
+      <c r="F536" s="5">
+        <v>1</v>
+      </c>
+      <c r="G536" s="5" t="s">
         <v>2018</v>
       </c>
-      <c r="I536" s="49" t="s">
+      <c r="I536" s="5" t="s">
         <v>2035</v>
       </c>
-      <c r="J536" s="49" t="s">
+      <c r="J536" s="5" t="s">
         <v>2036</v>
       </c>
-      <c r="L536" s="49">
+      <c r="L536" s="5">
         <v>-31</v>
       </c>
-      <c r="M536" s="49">
-        <v>0</v>
-      </c>
-      <c r="N536" s="49">
-        <v>0</v>
-      </c>
-      <c r="O536" s="49" t="s">
+      <c r="M536" s="5">
+        <v>0</v>
+      </c>
+      <c r="N536" s="5">
+        <v>0</v>
+      </c>
+      <c r="O536" s="5" t="s">
         <v>2037</v>
       </c>
-      <c r="P536" s="49">
+      <c r="P536" s="5">
         <v>4800</v>
       </c>
-      <c r="Q536" s="49" t="s">
+      <c r="Q536" s="5" t="s">
         <v>2038</v>
       </c>
-      <c r="R536" s="64" t="s">
+      <c r="R536" s="10" t="s">
         <v>2034</v>
       </c>
-      <c r="W536" s="49" t="s">
+      <c r="W536" s="5" t="s">
         <v>2024</v>
       </c>
-      <c r="X536" s="49">
+      <c r="X536" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y536" s="49">
+      <c r="Y536" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z536" s="49">
+      <c r="Z536" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA536" s="49">
+      <c r="AA536" s="5">
         <v>74</v>
       </c>
-      <c r="AH536" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI536" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL536" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM536" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="537" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH536" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI536" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL536" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM536" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>536</v>
       </c>
-      <c r="B537" s="49">
+      <c r="B537" s="5">
         <v>10453</v>
       </c>
-      <c r="F537" s="49">
-        <v>1</v>
-      </c>
-      <c r="G537" s="49" t="s">
+      <c r="F537" s="5">
+        <v>1</v>
+      </c>
+      <c r="G537" s="5" t="s">
         <v>2025</v>
       </c>
-      <c r="I537" s="49" t="s">
+      <c r="I537" s="5" t="s">
         <v>2035</v>
       </c>
-      <c r="J537" s="49" t="s">
+      <c r="J537" s="5" t="s">
         <v>2039</v>
       </c>
-      <c r="L537" s="49">
+      <c r="L537" s="5">
         <v>-31</v>
       </c>
-      <c r="M537" s="49">
-        <v>0</v>
-      </c>
-      <c r="N537" s="49">
-        <v>0</v>
-      </c>
-      <c r="O537" s="49" t="s">
+      <c r="M537" s="5">
+        <v>0</v>
+      </c>
+      <c r="N537" s="5">
+        <v>0</v>
+      </c>
+      <c r="O537" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="P537" s="49">
+      <c r="P537" s="5">
         <v>9800</v>
       </c>
-      <c r="Q537" s="49" t="s">
+      <c r="Q537" s="5" t="s">
         <v>2040</v>
       </c>
-      <c r="R537" s="64" t="s">
+      <c r="R537" s="10" t="s">
         <v>2041</v>
       </c>
-      <c r="W537" s="49" t="s">
+      <c r="W537" s="5" t="s">
         <v>2024</v>
       </c>
-      <c r="X537" s="49">
+      <c r="X537" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y537" s="49">
+      <c r="Y537" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z537" s="49">
+      <c r="Z537" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA537" s="49">
+      <c r="AA537" s="5">
         <v>74</v>
       </c>
-      <c r="AH537" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI537" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL537" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM537" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="538" spans="1:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH537" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI537" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL537" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM537" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" s="5">
         <v>537</v>
       </c>
-      <c r="B538" s="49">
+      <c r="B538" s="5">
         <v>10454</v>
       </c>
-      <c r="F538" s="49">
-        <v>1</v>
-      </c>
-      <c r="G538" s="49" t="s">
+      <c r="F538" s="5">
+        <v>1</v>
+      </c>
+      <c r="G538" s="5" t="s">
         <v>2031</v>
       </c>
-      <c r="I538" s="49" t="s">
+      <c r="I538" s="5" t="s">
         <v>2042</v>
       </c>
-      <c r="J538" s="49" t="s">
+      <c r="J538" s="5" t="s">
         <v>2043</v>
       </c>
-      <c r="L538" s="49">
+      <c r="L538" s="5">
         <v>-31</v>
       </c>
-      <c r="M538" s="49">
-        <v>0</v>
-      </c>
-      <c r="N538" s="49">
-        <v>0</v>
-      </c>
-      <c r="O538" s="49" t="s">
+      <c r="M538" s="5">
+        <v>0</v>
+      </c>
+      <c r="N538" s="5">
+        <v>0</v>
+      </c>
+      <c r="O538" s="5" t="s">
         <v>2044</v>
       </c>
-      <c r="P538" s="49">
+      <c r="P538" s="5">
         <v>19800</v>
       </c>
-      <c r="Q538" s="49" t="s">
+      <c r="Q538" s="5" t="s">
         <v>2045</v>
       </c>
-      <c r="R538" s="64" t="s">
+      <c r="R538" s="10" t="s">
         <v>2046</v>
       </c>
-      <c r="W538" s="49" t="s">
+      <c r="W538" s="5" t="s">
         <v>2024</v>
       </c>
-      <c r="X538" s="49">
+      <c r="X538" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y538" s="49">
+      <c r="Y538" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z538" s="49">
+      <c r="Z538" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA538" s="49">
+      <c r="AA538" s="5">
         <v>74</v>
       </c>
-      <c r="AH538" s="49">
-        <v>1</v>
-      </c>
-      <c r="AI538" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL538" s="49">
-        <v>1</v>
-      </c>
-      <c r="AM538" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="539" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH538" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI538" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL538" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM538" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A539" s="5">
         <v>538</v>
       </c>
-      <c r="B539" s="47">
+      <c r="B539" s="5">
         <v>10455</v>
       </c>
-      <c r="F539" s="47">
-        <v>1</v>
-      </c>
-      <c r="G539" s="47" t="s">
+      <c r="F539" s="5">
+        <v>1</v>
+      </c>
+      <c r="G539" s="5" t="s">
         <v>2018</v>
       </c>
-      <c r="I539" s="47" t="s">
+      <c r="I539" s="5" t="s">
         <v>2047</v>
       </c>
-      <c r="J539" s="47" t="s">
+      <c r="J539" s="5" t="s">
         <v>2048</v>
       </c>
-      <c r="L539" s="47">
+      <c r="L539" s="5">
         <v>-31</v>
       </c>
-      <c r="M539" s="47">
-        <v>0</v>
-      </c>
-      <c r="N539" s="47">
-        <v>0</v>
-      </c>
-      <c r="O539" s="47" t="s">
+      <c r="M539" s="5">
+        <v>0</v>
+      </c>
+      <c r="N539" s="5">
+        <v>0</v>
+      </c>
+      <c r="O539" s="5" t="s">
         <v>2021</v>
       </c>
-      <c r="P539" s="47">
+      <c r="P539" s="5">
         <v>9800</v>
       </c>
-      <c r="Q539" s="47" t="s">
+      <c r="Q539" s="5" t="s">
         <v>2049</v>
       </c>
-      <c r="R539" s="63" t="s">
+      <c r="R539" s="10" t="s">
         <v>2050</v>
       </c>
-      <c r="W539" s="47" t="s">
+      <c r="W539" s="5" t="s">
         <v>2024</v>
       </c>
-      <c r="X539" s="47">
+      <c r="X539" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y539" s="47">
+      <c r="Y539" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z539" s="47">
+      <c r="Z539" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA539" s="47">
+      <c r="AA539" s="5">
         <v>75</v>
       </c>
-      <c r="AH539" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI539" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL539" s="47">
-        <v>1</v>
-      </c>
-      <c r="AM539" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="540" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH539" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI539" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL539" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM539" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A540" s="5">
         <v>539</v>
       </c>
-      <c r="B540" s="47">
+      <c r="B540" s="5">
         <v>10456</v>
       </c>
-      <c r="F540" s="47">
-        <v>1</v>
-      </c>
-      <c r="G540" s="47" t="s">
+      <c r="F540" s="5">
+        <v>1</v>
+      </c>
+      <c r="G540" s="5" t="s">
         <v>2025</v>
       </c>
-      <c r="I540" s="47" t="s">
+      <c r="I540" s="5" t="s">
         <v>2047</v>
       </c>
-      <c r="J540" s="47" t="s">
+      <c r="J540" s="5" t="s">
         <v>2051</v>
       </c>
-      <c r="L540" s="47">
+      <c r="L540" s="5">
         <v>-31</v>
       </c>
-      <c r="M540" s="47">
-        <v>0</v>
-      </c>
-      <c r="N540" s="47">
-        <v>0</v>
-      </c>
-      <c r="O540" s="47" t="s">
+      <c r="M540" s="5">
+        <v>0</v>
+      </c>
+      <c r="N540" s="5">
+        <v>0</v>
+      </c>
+      <c r="O540" s="5" t="s">
         <v>2021</v>
       </c>
-      <c r="P540" s="47">
+      <c r="P540" s="5">
         <v>19800</v>
       </c>
-      <c r="Q540" s="47" t="s">
+      <c r="Q540" s="5" t="s">
         <v>2052</v>
       </c>
-      <c r="R540" s="63" t="s">
+      <c r="R540" s="10" t="s">
         <v>2053</v>
       </c>
-      <c r="W540" s="47" t="s">
+      <c r="W540" s="5" t="s">
         <v>2024</v>
       </c>
-      <c r="X540" s="47">
+      <c r="X540" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y540" s="47">
+      <c r="Y540" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z540" s="47">
+      <c r="Z540" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA540" s="47">
+      <c r="AA540" s="5">
         <v>75</v>
       </c>
-      <c r="AH540" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI540" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL540" s="47">
-        <v>1</v>
-      </c>
-      <c r="AM540" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="541" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH540" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI540" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL540" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM540" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>540</v>
       </c>
-      <c r="B541" s="47">
+      <c r="B541" s="5">
         <v>10457</v>
       </c>
-      <c r="F541" s="47">
-        <v>1</v>
-      </c>
-      <c r="G541" s="47" t="s">
+      <c r="F541" s="5">
+        <v>1</v>
+      </c>
+      <c r="G541" s="5" t="s">
         <v>2031</v>
       </c>
-      <c r="I541" s="47" t="s">
+      <c r="I541" s="5" t="s">
         <v>2047</v>
       </c>
-      <c r="J541" s="47" t="s">
+      <c r="J541" s="5" t="s">
         <v>2054</v>
       </c>
-      <c r="L541" s="47">
+      <c r="L541" s="5">
         <v>-31</v>
       </c>
-      <c r="M541" s="47">
-        <v>0</v>
-      </c>
-      <c r="N541" s="47">
-        <v>0</v>
-      </c>
-      <c r="O541" s="47" t="s">
+      <c r="M541" s="5">
+        <v>0</v>
+      </c>
+      <c r="N541" s="5">
+        <v>0</v>
+      </c>
+      <c r="O541" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="P541" s="47">
+      <c r="P541" s="5">
         <v>49800</v>
       </c>
-      <c r="Q541" s="47" t="s">
+      <c r="Q541" s="5" t="s">
         <v>2055</v>
       </c>
-      <c r="R541" s="63" t="s">
+      <c r="R541" s="10" t="s">
         <v>2056</v>
       </c>
-      <c r="W541" s="47" t="s">
+      <c r="W541" s="5" t="s">
         <v>2024</v>
       </c>
-      <c r="X541" s="47">
+      <c r="X541" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y541" s="47">
+      <c r="Y541" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z541" s="47">
+      <c r="Z541" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA541" s="47">
+      <c r="AA541" s="5">
         <v>75</v>
       </c>
-      <c r="AH541" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI541" s="47">
-        <v>1</v>
-      </c>
-      <c r="AL541" s="47">
-        <v>1</v>
-      </c>
-      <c r="AM541" s="47">
+      <c r="AH541" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI541" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL541" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM541" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>541</v>
+      </c>
+      <c r="B542" s="65">
+        <v>10458</v>
+      </c>
+      <c r="C542" s="65"/>
+      <c r="D542" s="65"/>
+      <c r="E542" s="65"/>
+      <c r="F542" s="65">
+        <v>1</v>
+      </c>
+      <c r="G542" s="65" t="s">
+        <v>1333</v>
+      </c>
+      <c r="H542" s="65"/>
+      <c r="I542" s="65" t="s">
+        <v>2059</v>
+      </c>
+      <c r="J542" s="65" t="s">
+        <v>2060</v>
+      </c>
+      <c r="K542" s="65"/>
+      <c r="L542" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M542" s="65">
+        <v>0</v>
+      </c>
+      <c r="N542" s="65">
+        <v>0</v>
+      </c>
+      <c r="O542" s="65" t="s">
+        <v>481</v>
+      </c>
+      <c r="P542" s="65">
+        <v>99800</v>
+      </c>
+      <c r="Q542" s="65" t="s">
+        <v>1810</v>
+      </c>
+      <c r="R542" s="66" t="s">
+        <v>2061</v>
+      </c>
+      <c r="S542" s="65"/>
+      <c r="T542" s="65"/>
+      <c r="U542" s="65"/>
+      <c r="V542" s="65"/>
+      <c r="W542" s="65" t="s">
+        <v>1359</v>
+      </c>
+      <c r="X542" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y542" s="67">
+        <v>1612224000</v>
+      </c>
+      <c r="Z542" s="67">
+        <v>1612799999</v>
+      </c>
+      <c r="AH542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM542" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>542</v>
+      </c>
+      <c r="B543" s="65">
+        <v>10459</v>
+      </c>
+      <c r="C543" s="65"/>
+      <c r="D543" s="65"/>
+      <c r="E543" s="65"/>
+      <c r="F543" s="65">
+        <v>1</v>
+      </c>
+      <c r="G543" s="65" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H543" s="65"/>
+      <c r="I543" s="65" t="s">
+        <v>2058</v>
+      </c>
+      <c r="J543" s="65" t="s">
+        <v>2062</v>
+      </c>
+      <c r="K543" s="65"/>
+      <c r="L543" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M543" s="65">
+        <v>0</v>
+      </c>
+      <c r="N543" s="65">
+        <v>0</v>
+      </c>
+      <c r="O543" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P543" s="65">
+        <v>49800</v>
+      </c>
+      <c r="Q543" s="65" t="s">
+        <v>1810</v>
+      </c>
+      <c r="R543" s="66" t="s">
+        <v>2063</v>
+      </c>
+      <c r="S543" s="65"/>
+      <c r="T543" s="65"/>
+      <c r="U543" s="65"/>
+      <c r="V543" s="65"/>
+      <c r="W543" s="65" t="s">
+        <v>527</v>
+      </c>
+      <c r="X543" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y543" s="67">
+        <v>1612224000</v>
+      </c>
+      <c r="Z543" s="67">
+        <v>1612799999</v>
+      </c>
+      <c r="AH543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM543" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>543</v>
+      </c>
+      <c r="B544" s="65">
+        <v>10460</v>
+      </c>
+      <c r="C544" s="65"/>
+      <c r="D544" s="65"/>
+      <c r="E544" s="65"/>
+      <c r="F544" s="65">
+        <v>1</v>
+      </c>
+      <c r="G544" s="65" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H544" s="65"/>
+      <c r="I544" s="65" t="s">
+        <v>2058</v>
+      </c>
+      <c r="J544" s="65" t="s">
+        <v>1470</v>
+      </c>
+      <c r="K544" s="65"/>
+      <c r="L544" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M544" s="65">
+        <v>0</v>
+      </c>
+      <c r="N544" s="65">
+        <v>0</v>
+      </c>
+      <c r="O544" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P544" s="65">
+        <v>29800</v>
+      </c>
+      <c r="Q544" s="65" t="s">
+        <v>1464</v>
+      </c>
+      <c r="R544" s="66" t="s">
+        <v>1353</v>
+      </c>
+      <c r="S544" s="65"/>
+      <c r="T544" s="65"/>
+      <c r="U544" s="65"/>
+      <c r="V544" s="65"/>
+      <c r="W544" s="65" t="s">
+        <v>527</v>
+      </c>
+      <c r="X544" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y544" s="67">
+        <v>1612224000</v>
+      </c>
+      <c r="Z544" s="67">
+        <v>1612799999</v>
+      </c>
+      <c r="AH544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM544" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>544</v>
+      </c>
+      <c r="B545" s="65">
+        <v>10461</v>
+      </c>
+      <c r="C545" s="65"/>
+      <c r="D545" s="65"/>
+      <c r="E545" s="65"/>
+      <c r="F545" s="65">
+        <v>1</v>
+      </c>
+      <c r="G545" s="65" t="s">
+        <v>2064</v>
+      </c>
+      <c r="H545" s="65"/>
+      <c r="I545" s="65" t="s">
+        <v>2058</v>
+      </c>
+      <c r="J545" s="65" t="s">
+        <v>1466</v>
+      </c>
+      <c r="K545" s="65"/>
+      <c r="L545" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M545" s="65">
+        <v>0</v>
+      </c>
+      <c r="N545" s="65">
+        <v>0</v>
+      </c>
+      <c r="O545" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P545" s="65">
+        <v>19800</v>
+      </c>
+      <c r="Q545" s="65" t="s">
+        <v>1464</v>
+      </c>
+      <c r="R545" s="66" t="s">
+        <v>1349</v>
+      </c>
+      <c r="S545" s="65"/>
+      <c r="T545" s="65"/>
+      <c r="U545" s="65"/>
+      <c r="V545" s="65"/>
+      <c r="W545" s="65" t="s">
+        <v>527</v>
+      </c>
+      <c r="X545" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y545" s="67">
+        <v>1612224000</v>
+      </c>
+      <c r="Z545" s="67">
+        <v>1612799999</v>
+      </c>
+      <c r="AH545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM545" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>545</v>
+      </c>
+      <c r="B546" s="65">
+        <v>10462</v>
+      </c>
+      <c r="C546" s="65"/>
+      <c r="D546" s="65"/>
+      <c r="E546" s="65"/>
+      <c r="F546" s="65">
+        <v>1</v>
+      </c>
+      <c r="G546" s="65" t="s">
+        <v>1350</v>
+      </c>
+      <c r="H546" s="65"/>
+      <c r="I546" s="65" t="s">
+        <v>2058</v>
+      </c>
+      <c r="J546" s="65" t="s">
+        <v>1463</v>
+      </c>
+      <c r="K546" s="65"/>
+      <c r="L546" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M546" s="65">
+        <v>0</v>
+      </c>
+      <c r="N546" s="65">
+        <v>0</v>
+      </c>
+      <c r="O546" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P546" s="65">
+        <v>9800</v>
+      </c>
+      <c r="Q546" s="65" t="s">
+        <v>2065</v>
+      </c>
+      <c r="R546" s="66" t="s">
+        <v>1346</v>
+      </c>
+      <c r="S546" s="65"/>
+      <c r="T546" s="65"/>
+      <c r="U546" s="65"/>
+      <c r="V546" s="65"/>
+      <c r="W546" s="65" t="s">
+        <v>527</v>
+      </c>
+      <c r="X546" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y546" s="67">
+        <v>1612224000</v>
+      </c>
+      <c r="Z546" s="67">
+        <v>1612799999</v>
+      </c>
+      <c r="AH546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM546" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>546</v>
+      </c>
+      <c r="B547" s="65">
+        <v>10463</v>
+      </c>
+      <c r="C547" s="65"/>
+      <c r="D547" s="65"/>
+      <c r="E547" s="65"/>
+      <c r="F547" s="65">
+        <v>1</v>
+      </c>
+      <c r="G547" s="65" t="s">
+        <v>2066</v>
+      </c>
+      <c r="H547" s="65"/>
+      <c r="I547" s="65" t="s">
+        <v>2059</v>
+      </c>
+      <c r="J547" s="65" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K547" s="65"/>
+      <c r="L547" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M547" s="65">
+        <v>0</v>
+      </c>
+      <c r="N547" s="65">
+        <v>0</v>
+      </c>
+      <c r="O547" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P547" s="65">
+        <v>4800</v>
+      </c>
+      <c r="Q547" s="65" t="s">
+        <v>1796</v>
+      </c>
+      <c r="R547" s="66" t="s">
+        <v>2067</v>
+      </c>
+      <c r="S547" s="65"/>
+      <c r="T547" s="65"/>
+      <c r="U547" s="65"/>
+      <c r="V547" s="65"/>
+      <c r="W547" s="65" t="s">
+        <v>527</v>
+      </c>
+      <c r="X547" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y547" s="67">
+        <v>1612224000</v>
+      </c>
+      <c r="Z547" s="67">
+        <v>1612799999</v>
+      </c>
+      <c r="AH547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM547" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>547</v>
+      </c>
+      <c r="B548" s="65">
+        <v>10464</v>
+      </c>
+      <c r="C548" s="65"/>
+      <c r="D548" s="65"/>
+      <c r="E548" s="65"/>
+      <c r="F548" s="65">
+        <v>1</v>
+      </c>
+      <c r="G548" s="65" t="s">
+        <v>1360</v>
+      </c>
+      <c r="H548" s="65"/>
+      <c r="I548" s="65" t="s">
+        <v>2058</v>
+      </c>
+      <c r="J548" s="65" t="s">
+        <v>2068</v>
+      </c>
+      <c r="K548" s="65"/>
+      <c r="L548" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M548" s="65">
+        <v>0</v>
+      </c>
+      <c r="N548" s="65">
+        <v>0</v>
+      </c>
+      <c r="O548" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P548" s="65">
+        <v>1800</v>
+      </c>
+      <c r="Q548" s="65" t="s">
+        <v>2069</v>
+      </c>
+      <c r="R548" s="66" t="s">
+        <v>1337</v>
+      </c>
+      <c r="S548" s="65"/>
+      <c r="T548" s="65"/>
+      <c r="U548" s="65"/>
+      <c r="V548" s="65"/>
+      <c r="W548" s="65" t="s">
+        <v>527</v>
+      </c>
+      <c r="X548" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y548" s="67">
+        <v>1612224000</v>
+      </c>
+      <c r="Z548" s="67">
+        <v>1612799999</v>
+      </c>
+      <c r="AH548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM548" s="5">
         <v>1</v>
       </c>
     </row>
@@ -46296,7 +46877,7 @@
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -47297,7 +47878,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="57" t="s">
-        <v>2058</v>
+        <v>2070</v>
       </c>
       <c r="C71" s="58">
         <v>1</v>
@@ -47311,7 +47892,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="57" t="s">
-        <v>2059</v>
+        <v>2071</v>
       </c>
       <c r="C72" s="58">
         <v>1</v>
@@ -47325,7 +47906,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>2060</v>
+        <v>2072</v>
       </c>
       <c r="C73" s="58">
         <v>1</v>
@@ -47339,7 +47920,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="57" t="s">
-        <v>2061</v>
+        <v>2073</v>
       </c>
       <c r="C74" s="58">
         <v>1</v>
@@ -47353,7 +47934,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="57" t="s">
-        <v>2062</v>
+        <v>2074</v>
       </c>
       <c r="C75" s="58">
         <v>1</v>
@@ -47367,7 +47948,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="57" t="s">
-        <v>2063</v>
+        <v>2075</v>
       </c>
       <c r="C76" s="58">
         <v>1</v>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4405" uniqueCount="2061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4408" uniqueCount="2064">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8749,6 +8749,22 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>600000,20000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_free_001" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v1v7_001" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v8v12_001" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>{type="permission_class",class_value = "golden_egg_1" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8758,10 +8774,6 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "golden_egg_3" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,20000,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11594,11 +11606,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN541"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q506" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="W521" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R521" sqref="R521"/>
+      <selection pane="bottomRight" activeCell="AA533" sqref="AA533:AA541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -44881,7 +44893,7 @@
         <v>1967</v>
       </c>
       <c r="R521" s="10" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="W521" s="5" t="s">
         <v>1190</v>
@@ -45712,7 +45724,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA533" s="47">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="AH533" s="47">
         <v>1</v>
@@ -45780,7 +45792,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA534" s="47">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="AH534" s="47">
         <v>1</v>
@@ -45848,7 +45860,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA535" s="47">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="AH535" s="47">
         <v>1</v>
@@ -45916,7 +45928,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA536" s="49">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="AH536" s="49">
         <v>1</v>
@@ -45984,7 +45996,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA537" s="49">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="AH537" s="49">
         <v>1</v>
@@ -46052,7 +46064,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA538" s="49">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="AH538" s="49">
         <v>1</v>
@@ -46120,7 +46132,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA539" s="47">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AH539" s="47">
         <v>1</v>
@@ -46188,7 +46200,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA540" s="47">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AH540" s="47">
         <v>1</v>
@@ -46256,7 +46268,7 @@
         <v>1612195199</v>
       </c>
       <c r="AA541" s="47">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AH541" s="47">
         <v>1</v>
@@ -46281,10 +46293,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -47285,7 +47297,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="57" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="C71" s="58">
         <v>1</v>
@@ -47299,7 +47311,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="57" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="C72" s="58">
         <v>1</v>
@@ -47313,12 +47325,54 @@
         <v>72</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="C73" s="58">
         <v>1</v>
       </c>
       <c r="D73" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="12">
+        <v>73</v>
+      </c>
+      <c r="B74" s="57" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C74" s="58">
+        <v>1</v>
+      </c>
+      <c r="D74" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="12">
+        <v>74</v>
+      </c>
+      <c r="B75" s="57" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C75" s="58">
+        <v>1</v>
+      </c>
+      <c r="D75" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="12">
+        <v>75</v>
+      </c>
+      <c r="B76" s="57" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C76" s="58">
+        <v>1</v>
+      </c>
+      <c r="D76" s="58">
         <v>0</v>
       </c>
     </row>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -8413,10 +8413,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>60000,20000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>喜字礼包</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8609,6 +8605,10 @@
   </si>
   <si>
     <t>86400,9999,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,20000,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11466,10 +11466,10 @@
   <dimension ref="A1:AN532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="U491" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="R497" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W497" sqref="W497:W508"/>
+      <selection pane="bottomRight" activeCell="R521" sqref="R521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -43150,10 +43150,10 @@
         <v>1885</v>
       </c>
       <c r="R497" s="67" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="W497" s="47" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="X497" s="5">
         <v>99999999</v>
@@ -43218,10 +43218,10 @@
         <v>1885</v>
       </c>
       <c r="R498" s="67" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="W498" s="47" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="X498" s="5">
         <v>99999999</v>
@@ -43286,10 +43286,10 @@
         <v>1885</v>
       </c>
       <c r="R499" s="67" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="W499" s="47" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="X499" s="5">
         <v>99999999</v>
@@ -43354,10 +43354,10 @@
         <v>1885</v>
       </c>
       <c r="R500" s="67" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="W500" s="47" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="X500" s="5">
         <v>99999999</v>
@@ -43422,10 +43422,10 @@
         <v>1885</v>
       </c>
       <c r="R501" s="67" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="W501" s="47" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="X501" s="5">
         <v>99999999</v>
@@ -43490,10 +43490,10 @@
         <v>1885</v>
       </c>
       <c r="R502" s="67" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="W502" s="47" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="X502" s="5">
         <v>99999999</v>
@@ -43558,10 +43558,10 @@
         <v>1895</v>
       </c>
       <c r="R503" s="68" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="W503" s="47" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="X503" s="5">
         <v>99999999</v>
@@ -43626,10 +43626,10 @@
         <v>1895</v>
       </c>
       <c r="R504" s="68" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="W504" s="47" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="X504" s="5">
         <v>99999999</v>
@@ -43694,10 +43694,10 @@
         <v>1895</v>
       </c>
       <c r="R505" s="68" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="W505" s="47" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="X505" s="5">
         <v>99999999</v>
@@ -43762,10 +43762,10 @@
         <v>1899</v>
       </c>
       <c r="R506" s="68" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="W506" s="47" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="X506" s="5">
         <v>99999999</v>
@@ -43830,10 +43830,10 @@
         <v>1899</v>
       </c>
       <c r="R507" s="68" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="W507" s="47" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="X507" s="5">
         <v>99999999</v>
@@ -43898,10 +43898,10 @@
         <v>1899</v>
       </c>
       <c r="R508" s="68" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="W508" s="47" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="X508" s="5">
         <v>99999999</v>
@@ -44752,7 +44752,7 @@
         <v>1970</v>
       </c>
       <c r="R521" s="62" t="s">
-        <v>1971</v>
+        <v>2021</v>
       </c>
       <c r="W521" s="61" t="s">
         <v>1190</v>
@@ -44793,13 +44793,13 @@
         <v>1</v>
       </c>
       <c r="G522" s="61" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I522" s="61" t="s">
         <v>1967</v>
       </c>
       <c r="J522" s="61" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="L522" s="61">
         <v>-33</v>
@@ -44817,10 +44817,10 @@
         <v>1000</v>
       </c>
       <c r="Q522" s="61" t="s">
+        <v>1975</v>
+      </c>
+      <c r="R522" s="62" t="s">
         <v>1976</v>
-      </c>
-      <c r="R522" s="62" t="s">
-        <v>1977</v>
       </c>
       <c r="W522" s="61" t="s">
         <v>1103</v>
@@ -44861,13 +44861,13 @@
         <v>1</v>
       </c>
       <c r="G523" s="61" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="I523" s="61" t="s">
         <v>1966</v>
       </c>
       <c r="J523" s="61" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="L523" s="61">
         <v>-33</v>
@@ -44885,10 +44885,10 @@
         <v>1800</v>
       </c>
       <c r="Q523" s="61" t="s">
+        <v>1980</v>
+      </c>
+      <c r="R523" s="62" t="s">
         <v>1981</v>
-      </c>
-      <c r="R523" s="62" t="s">
-        <v>1982</v>
       </c>
       <c r="W523" s="61" t="s">
         <v>1103</v>
@@ -44929,13 +44929,13 @@
         <v>1</v>
       </c>
       <c r="G524" s="61" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="I524" s="61" t="s">
         <v>1967</v>
       </c>
       <c r="J524" s="61" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="L524" s="61">
         <v>-33</v>
@@ -44953,10 +44953,10 @@
         <v>4800</v>
       </c>
       <c r="Q524" s="61" t="s">
+        <v>1984</v>
+      </c>
+      <c r="R524" s="62" t="s">
         <v>1985</v>
-      </c>
-      <c r="R524" s="62" t="s">
-        <v>1986</v>
       </c>
       <c r="W524" s="61" t="s">
         <v>1103</v>
@@ -45000,10 +45000,10 @@
         <v>1964</v>
       </c>
       <c r="I525" s="49" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J525" s="49" t="s">
         <v>1987</v>
-      </c>
-      <c r="J525" s="49" t="s">
-        <v>1988</v>
       </c>
       <c r="L525" s="49">
         <v>-33</v>
@@ -45024,7 +45024,7 @@
         <v>1969</v>
       </c>
       <c r="R525" s="50" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="W525" s="49" t="s">
         <v>1103</v>
@@ -45065,13 +45065,13 @@
         <v>1</v>
       </c>
       <c r="G526" s="49" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="I526" s="49" t="s">
+        <v>1988</v>
+      </c>
+      <c r="J526" s="49" t="s">
         <v>1989</v>
-      </c>
-      <c r="J526" s="49" t="s">
-        <v>1990</v>
       </c>
       <c r="L526" s="49">
         <v>-33</v>
@@ -45089,10 +45089,10 @@
         <v>4800</v>
       </c>
       <c r="Q526" s="49" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="R526" s="50" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="W526" s="49" t="s">
         <v>1103</v>
@@ -45133,13 +45133,13 @@
         <v>1</v>
       </c>
       <c r="G527" s="49" t="s">
+        <v>1991</v>
+      </c>
+      <c r="I527" s="49" t="s">
+        <v>1988</v>
+      </c>
+      <c r="J527" s="49" t="s">
         <v>1992</v>
-      </c>
-      <c r="I527" s="49" t="s">
-        <v>1989</v>
-      </c>
-      <c r="J527" s="49" t="s">
-        <v>1993</v>
       </c>
       <c r="L527" s="49">
         <v>-33</v>
@@ -45157,10 +45157,10 @@
         <v>9800</v>
       </c>
       <c r="Q527" s="49" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="R527" s="50" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="W527" s="49" t="s">
         <v>1103</v>
@@ -45201,13 +45201,13 @@
         <v>1</v>
       </c>
       <c r="G528" s="49" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="I528" s="49" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="J528" s="49" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="L528" s="49">
         <v>-33</v>
@@ -45225,10 +45225,10 @@
         <v>19800</v>
       </c>
       <c r="Q528" s="49" t="s">
+        <v>1996</v>
+      </c>
+      <c r="R528" s="50" t="s">
         <v>1997</v>
-      </c>
-      <c r="R528" s="50" t="s">
-        <v>1998</v>
       </c>
       <c r="W528" s="49" t="s">
         <v>1103</v>
@@ -45272,10 +45272,10 @@
         <v>1964</v>
       </c>
       <c r="I529" s="61" t="s">
+        <v>1999</v>
+      </c>
+      <c r="J529" s="61" t="s">
         <v>2000</v>
-      </c>
-      <c r="J529" s="61" t="s">
-        <v>2001</v>
       </c>
       <c r="L529" s="61">
         <v>-33</v>
@@ -45296,7 +45296,7 @@
         <v>1970</v>
       </c>
       <c r="R529" s="62" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="W529" s="61" t="s">
         <v>1103</v>
@@ -45337,13 +45337,13 @@
         <v>1</v>
       </c>
       <c r="G530" s="61" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I530" s="61" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="J530" s="61" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="L530" s="61">
         <v>-33</v>
@@ -45361,10 +45361,10 @@
         <v>9800</v>
       </c>
       <c r="Q530" s="61" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="R530" s="62" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="W530" s="61" t="s">
         <v>1103</v>
@@ -45405,13 +45405,13 @@
         <v>1</v>
       </c>
       <c r="G531" s="61" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I531" s="61" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="J531" s="61" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="L531" s="61">
         <v>-33</v>
@@ -45429,10 +45429,10 @@
         <v>19800</v>
       </c>
       <c r="Q531" s="61" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="R531" s="62" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="W531" s="61" t="s">
         <v>1103</v>
@@ -45473,13 +45473,13 @@
         <v>1</v>
       </c>
       <c r="G532" s="61" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I532" s="61" t="s">
+        <v>1998</v>
+      </c>
+      <c r="J532" s="61" t="s">
         <v>2006</v>
-      </c>
-      <c r="I532" s="61" t="s">
-        <v>1999</v>
-      </c>
-      <c r="J532" s="61" t="s">
-        <v>2007</v>
       </c>
       <c r="L532" s="61">
         <v>-33</v>
@@ -45497,10 +45497,10 @@
         <v>49800</v>
       </c>
       <c r="Q532" s="61" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="R532" s="62" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="W532" s="61" t="s">
         <v>1103</v>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4457" uniqueCount="2076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4576" uniqueCount="2119">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8822,6 +8822,178 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "golden_egg_3" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺岁礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--498</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--498</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5200万金币","双倍奖励卡*10","万能字*280",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_gdn_wn",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>52000000,10,280,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--198</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2060万金币","双倍奖励卡*6","万能字*180",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20600000,6,180,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--98</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1020万金币","双倍奖励卡*4","万能字*88",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200000,4,88,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--贺岁礼包--48</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500万金币","双倍奖励卡*2","万能字*40",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,2,40,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺岁礼包--cjj</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5200万金币","太阳*1","万能字*240",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_gdn_wn",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>52000000,1,240,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2060万金币","太阳*1","万能字*140",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20600000,1,140,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1020万金币","水滴*4","万能字*60",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_gdn_wn",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10200000,4,60,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500万金币","水滴*2","万能字*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,2,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>150000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5100000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10400000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20900000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"15万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"510万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"15万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1040万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2090万金币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8900,7 +9072,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8967,6 +9139,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -9010,7 +9194,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9212,8 +9396,23 @@
     <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11667,13 +11866,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN548"/>
+  <dimension ref="A1:AN565"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W518" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="I539" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA544" sqref="AA544"/>
+      <selection pane="bottomRight" activeCell="J563" sqref="J563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -44918,819 +45117,819 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A521" s="5">
+    <row r="521" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A521" s="19">
         <v>520</v>
       </c>
-      <c r="B521" s="5">
+      <c r="B521" s="19">
         <v>10437</v>
       </c>
-      <c r="F521" s="5">
-        <v>1</v>
-      </c>
-      <c r="G521" s="5" t="s">
+      <c r="F521" s="19">
+        <v>1</v>
+      </c>
+      <c r="G521" s="19" t="s">
         <v>1962</v>
       </c>
-      <c r="I521" s="5" t="s">
+      <c r="I521" s="19" t="s">
         <v>1964</v>
       </c>
-      <c r="J521" s="5" t="s">
+      <c r="J521" s="19" t="s">
         <v>1965</v>
       </c>
-      <c r="L521" s="5">
+      <c r="L521" s="19">
         <v>-33</v>
       </c>
-      <c r="M521" s="5">
-        <v>0</v>
-      </c>
-      <c r="N521" s="5">
-        <v>0</v>
-      </c>
-      <c r="O521" s="5" t="s">
+      <c r="M521" s="19">
+        <v>0</v>
+      </c>
+      <c r="N521" s="19">
+        <v>0</v>
+      </c>
+      <c r="O521" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P521" s="5">
+      <c r="P521" s="19">
         <v>600</v>
       </c>
-      <c r="Q521" s="5" t="s">
+      <c r="Q521" s="19" t="s">
         <v>1967</v>
       </c>
-      <c r="R521" s="10" t="s">
+      <c r="R521" s="39" t="s">
         <v>2057</v>
       </c>
-      <c r="W521" s="5" t="s">
+      <c r="W521" s="19" t="s">
         <v>1190</v>
       </c>
-      <c r="X521" s="5">
+      <c r="X521" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y521" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z521" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA521" s="5">
+      <c r="Y521" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z521" s="19">
+        <v>1614009599</v>
+      </c>
+      <c r="AA521" s="19">
         <v>70</v>
       </c>
-      <c r="AH521" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI521" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL521" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM521" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A522" s="5">
+      <c r="AH521" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI521" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL521" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM521" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A522" s="19">
         <v>521</v>
       </c>
-      <c r="B522" s="5">
+      <c r="B522" s="19">
         <v>10438</v>
       </c>
-      <c r="F522" s="5">
-        <v>1</v>
-      </c>
-      <c r="G522" s="5" t="s">
+      <c r="F522" s="19">
+        <v>1</v>
+      </c>
+      <c r="G522" s="19" t="s">
         <v>1969</v>
       </c>
-      <c r="I522" s="5" t="s">
+      <c r="I522" s="19" t="s">
         <v>1964</v>
       </c>
-      <c r="J522" s="5" t="s">
+      <c r="J522" s="19" t="s">
         <v>1970</v>
       </c>
-      <c r="L522" s="5">
+      <c r="L522" s="19">
         <v>-33</v>
       </c>
-      <c r="M522" s="5">
-        <v>0</v>
-      </c>
-      <c r="N522" s="5">
-        <v>0</v>
-      </c>
-      <c r="O522" s="5" t="s">
+      <c r="M522" s="19">
+        <v>0</v>
+      </c>
+      <c r="N522" s="19">
+        <v>0</v>
+      </c>
+      <c r="O522" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P522" s="5">
+      <c r="P522" s="19">
         <v>1000</v>
       </c>
-      <c r="Q522" s="5" t="s">
+      <c r="Q522" s="19" t="s">
         <v>1972</v>
       </c>
-      <c r="R522" s="10" t="s">
+      <c r="R522" s="39" t="s">
         <v>1973</v>
       </c>
-      <c r="W522" s="5" t="s">
+      <c r="W522" s="19" t="s">
         <v>1103</v>
       </c>
-      <c r="X522" s="5">
+      <c r="X522" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y522" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z522" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA522" s="5">
+      <c r="Y522" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z522" s="19">
+        <v>1614009599</v>
+      </c>
+      <c r="AA522" s="19">
         <v>70</v>
       </c>
-      <c r="AH522" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI522" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL522" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM522" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="523" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A523" s="5">
+      <c r="AH522" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI522" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL522" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM522" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A523" s="19">
         <v>522</v>
       </c>
-      <c r="B523" s="5">
+      <c r="B523" s="19">
         <v>10439</v>
       </c>
-      <c r="F523" s="5">
-        <v>1</v>
-      </c>
-      <c r="G523" s="5" t="s">
+      <c r="F523" s="19">
+        <v>1</v>
+      </c>
+      <c r="G523" s="19" t="s">
         <v>1974</v>
       </c>
-      <c r="I523" s="5" t="s">
+      <c r="I523" s="19" t="s">
         <v>1963</v>
       </c>
-      <c r="J523" s="5" t="s">
+      <c r="J523" s="19" t="s">
         <v>1975</v>
       </c>
-      <c r="L523" s="5">
+      <c r="L523" s="19">
         <v>-33</v>
       </c>
-      <c r="M523" s="5">
-        <v>0</v>
-      </c>
-      <c r="N523" s="5">
-        <v>0</v>
-      </c>
-      <c r="O523" s="5" t="s">
+      <c r="M523" s="19">
+        <v>0</v>
+      </c>
+      <c r="N523" s="19">
+        <v>0</v>
+      </c>
+      <c r="O523" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P523" s="5">
+      <c r="P523" s="19">
         <v>1800</v>
       </c>
-      <c r="Q523" s="5" t="s">
+      <c r="Q523" s="19" t="s">
         <v>1977</v>
       </c>
-      <c r="R523" s="10" t="s">
+      <c r="R523" s="39" t="s">
         <v>1978</v>
       </c>
-      <c r="W523" s="5" t="s">
+      <c r="W523" s="19" t="s">
         <v>1103</v>
       </c>
-      <c r="X523" s="5">
+      <c r="X523" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y523" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z523" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA523" s="5">
+      <c r="Y523" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z523" s="19">
+        <v>1614009599</v>
+      </c>
+      <c r="AA523" s="19">
         <v>70</v>
       </c>
-      <c r="AH523" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI523" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL523" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM523" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="524" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A524" s="5">
+      <c r="AH523" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI523" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL523" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM523" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A524" s="19">
         <v>523</v>
       </c>
-      <c r="B524" s="5">
+      <c r="B524" s="19">
         <v>10440</v>
       </c>
-      <c r="F524" s="5">
-        <v>1</v>
-      </c>
-      <c r="G524" s="5" t="s">
+      <c r="F524" s="19">
+        <v>1</v>
+      </c>
+      <c r="G524" s="19" t="s">
         <v>1979</v>
       </c>
-      <c r="I524" s="5" t="s">
+      <c r="I524" s="19" t="s">
         <v>1964</v>
       </c>
-      <c r="J524" s="5" t="s">
+      <c r="J524" s="19" t="s">
         <v>1980</v>
       </c>
-      <c r="L524" s="5">
+      <c r="L524" s="19">
         <v>-33</v>
       </c>
-      <c r="M524" s="5">
-        <v>0</v>
-      </c>
-      <c r="N524" s="5">
-        <v>0</v>
-      </c>
-      <c r="O524" s="5" t="s">
+      <c r="M524" s="19">
+        <v>0</v>
+      </c>
+      <c r="N524" s="19">
+        <v>0</v>
+      </c>
+      <c r="O524" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P524" s="5">
+      <c r="P524" s="19">
         <v>4800</v>
       </c>
-      <c r="Q524" s="5" t="s">
+      <c r="Q524" s="19" t="s">
         <v>1981</v>
       </c>
-      <c r="R524" s="10" t="s">
+      <c r="R524" s="39" t="s">
         <v>1982</v>
       </c>
-      <c r="W524" s="5" t="s">
+      <c r="W524" s="19" t="s">
         <v>1103</v>
       </c>
-      <c r="X524" s="5">
+      <c r="X524" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y524" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z524" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA524" s="5">
+      <c r="Y524" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z524" s="19">
+        <v>1614009599</v>
+      </c>
+      <c r="AA524" s="19">
         <v>70</v>
       </c>
-      <c r="AH524" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI524" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL524" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM524" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="525" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A525" s="5">
+      <c r="AH524" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI524" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL524" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM524" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A525" s="19">
         <v>524</v>
       </c>
-      <c r="B525" s="5">
+      <c r="B525" s="19">
         <v>10441</v>
       </c>
-      <c r="F525" s="5">
-        <v>1</v>
-      </c>
-      <c r="G525" s="5" t="s">
+      <c r="F525" s="19">
+        <v>1</v>
+      </c>
+      <c r="G525" s="19" t="s">
         <v>1961</v>
       </c>
-      <c r="I525" s="5" t="s">
+      <c r="I525" s="19" t="s">
         <v>1983</v>
       </c>
-      <c r="J525" s="5" t="s">
+      <c r="J525" s="19" t="s">
         <v>1984</v>
       </c>
-      <c r="L525" s="5">
+      <c r="L525" s="19">
         <v>-33</v>
       </c>
-      <c r="M525" s="5">
-        <v>0</v>
-      </c>
-      <c r="N525" s="5">
-        <v>0</v>
-      </c>
-      <c r="O525" s="5" t="s">
+      <c r="M525" s="19">
+        <v>0</v>
+      </c>
+      <c r="N525" s="19">
+        <v>0</v>
+      </c>
+      <c r="O525" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P525" s="5">
+      <c r="P525" s="19">
         <v>1800</v>
       </c>
-      <c r="Q525" s="5" t="s">
+      <c r="Q525" s="19" t="s">
         <v>1966</v>
       </c>
-      <c r="R525" s="10" t="s">
+      <c r="R525" s="39" t="s">
         <v>1978</v>
       </c>
-      <c r="W525" s="5" t="s">
+      <c r="W525" s="19" t="s">
         <v>1103</v>
       </c>
-      <c r="X525" s="5">
+      <c r="X525" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y525" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z525" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA525" s="5">
+      <c r="Y525" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z525" s="19">
+        <v>1614009599</v>
+      </c>
+      <c r="AA525" s="19">
         <v>71</v>
       </c>
-      <c r="AH525" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI525" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL525" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM525" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="526" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A526" s="5">
+      <c r="AH525" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI525" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL525" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM525" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A526" s="19">
         <v>525</v>
       </c>
-      <c r="B526" s="5">
+      <c r="B526" s="19">
         <v>10442</v>
       </c>
-      <c r="F526" s="5">
-        <v>1</v>
-      </c>
-      <c r="G526" s="5" t="s">
+      <c r="F526" s="19">
+        <v>1</v>
+      </c>
+      <c r="G526" s="19" t="s">
         <v>1968</v>
       </c>
-      <c r="I526" s="5" t="s">
+      <c r="I526" s="19" t="s">
         <v>1985</v>
       </c>
-      <c r="J526" s="5" t="s">
+      <c r="J526" s="19" t="s">
         <v>1986</v>
       </c>
-      <c r="L526" s="5">
+      <c r="L526" s="19">
         <v>-33</v>
       </c>
-      <c r="M526" s="5">
-        <v>0</v>
-      </c>
-      <c r="N526" s="5">
-        <v>0</v>
-      </c>
-      <c r="O526" s="5" t="s">
+      <c r="M526" s="19">
+        <v>0</v>
+      </c>
+      <c r="N526" s="19">
+        <v>0</v>
+      </c>
+      <c r="O526" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P526" s="5">
+      <c r="P526" s="19">
         <v>4800</v>
       </c>
-      <c r="Q526" s="5" t="s">
+      <c r="Q526" s="19" t="s">
         <v>1972</v>
       </c>
-      <c r="R526" s="10" t="s">
+      <c r="R526" s="39" t="s">
         <v>1987</v>
       </c>
-      <c r="W526" s="5" t="s">
+      <c r="W526" s="19" t="s">
         <v>1103</v>
       </c>
-      <c r="X526" s="5">
+      <c r="X526" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y526" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z526" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA526" s="5">
+      <c r="Y526" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z526" s="19">
+        <v>1614009599</v>
+      </c>
+      <c r="AA526" s="19">
         <v>71</v>
       </c>
-      <c r="AH526" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI526" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL526" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM526" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A527" s="5">
+      <c r="AH526" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI526" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL526" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM526" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A527" s="19">
         <v>526</v>
       </c>
-      <c r="B527" s="5">
+      <c r="B527" s="19">
         <v>10443</v>
       </c>
-      <c r="F527" s="5">
-        <v>1</v>
-      </c>
-      <c r="G527" s="5" t="s">
+      <c r="F527" s="19">
+        <v>1</v>
+      </c>
+      <c r="G527" s="19" t="s">
         <v>1988</v>
       </c>
-      <c r="I527" s="5" t="s">
+      <c r="I527" s="19" t="s">
         <v>1985</v>
       </c>
-      <c r="J527" s="5" t="s">
+      <c r="J527" s="19" t="s">
         <v>1989</v>
       </c>
-      <c r="L527" s="5">
+      <c r="L527" s="19">
         <v>-33</v>
       </c>
-      <c r="M527" s="5">
-        <v>0</v>
-      </c>
-      <c r="N527" s="5">
-        <v>0</v>
-      </c>
-      <c r="O527" s="5" t="s">
+      <c r="M527" s="19">
+        <v>0</v>
+      </c>
+      <c r="N527" s="19">
+        <v>0</v>
+      </c>
+      <c r="O527" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P527" s="5">
+      <c r="P527" s="19">
         <v>9800</v>
       </c>
-      <c r="Q527" s="5" t="s">
+      <c r="Q527" s="19" t="s">
         <v>1976</v>
       </c>
-      <c r="R527" s="10" t="s">
+      <c r="R527" s="39" t="s">
         <v>1991</v>
       </c>
-      <c r="W527" s="5" t="s">
+      <c r="W527" s="19" t="s">
         <v>1103</v>
       </c>
-      <c r="X527" s="5">
+      <c r="X527" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y527" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z527" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA527" s="5">
+      <c r="Y527" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z527" s="19">
+        <v>1614009599</v>
+      </c>
+      <c r="AA527" s="19">
         <v>71</v>
       </c>
-      <c r="AH527" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI527" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL527" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM527" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="528" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A528" s="5">
+      <c r="AH527" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI527" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL527" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM527" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A528" s="19">
         <v>527</v>
       </c>
-      <c r="B528" s="5">
+      <c r="B528" s="19">
         <v>10444</v>
       </c>
-      <c r="F528" s="5">
-        <v>1</v>
-      </c>
-      <c r="G528" s="5" t="s">
+      <c r="F528" s="19">
+        <v>1</v>
+      </c>
+      <c r="G528" s="19" t="s">
         <v>1979</v>
       </c>
-      <c r="I528" s="5" t="s">
+      <c r="I528" s="19" t="s">
         <v>1985</v>
       </c>
-      <c r="J528" s="5" t="s">
+      <c r="J528" s="19" t="s">
         <v>1992</v>
       </c>
-      <c r="L528" s="5">
+      <c r="L528" s="19">
         <v>-33</v>
       </c>
-      <c r="M528" s="5">
-        <v>0</v>
-      </c>
-      <c r="N528" s="5">
-        <v>0</v>
-      </c>
-      <c r="O528" s="5" t="s">
+      <c r="M528" s="19">
+        <v>0</v>
+      </c>
+      <c r="N528" s="19">
+        <v>0</v>
+      </c>
+      <c r="O528" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P528" s="5">
+      <c r="P528" s="19">
         <v>19800</v>
       </c>
-      <c r="Q528" s="5" t="s">
+      <c r="Q528" s="19" t="s">
         <v>1993</v>
       </c>
-      <c r="R528" s="10" t="s">
+      <c r="R528" s="39" t="s">
         <v>1994</v>
       </c>
-      <c r="W528" s="5" t="s">
+      <c r="W528" s="19" t="s">
         <v>1103</v>
       </c>
-      <c r="X528" s="5">
+      <c r="X528" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y528" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z528" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA528" s="5">
+      <c r="Y528" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z528" s="19">
+        <v>1614009599</v>
+      </c>
+      <c r="AA528" s="19">
         <v>71</v>
       </c>
-      <c r="AH528" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI528" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL528" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM528" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A529" s="5">
+      <c r="AH528" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI528" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL528" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM528" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A529" s="19">
         <v>528</v>
       </c>
-      <c r="B529" s="5">
+      <c r="B529" s="19">
         <v>10445</v>
       </c>
-      <c r="F529" s="5">
-        <v>1</v>
-      </c>
-      <c r="G529" s="5" t="s">
+      <c r="F529" s="19">
+        <v>1</v>
+      </c>
+      <c r="G529" s="19" t="s">
         <v>1961</v>
       </c>
-      <c r="I529" s="5" t="s">
+      <c r="I529" s="19" t="s">
         <v>1996</v>
       </c>
-      <c r="J529" s="5" t="s">
+      <c r="J529" s="19" t="s">
         <v>1997</v>
       </c>
-      <c r="L529" s="5">
+      <c r="L529" s="19">
         <v>-33</v>
       </c>
-      <c r="M529" s="5">
-        <v>0</v>
-      </c>
-      <c r="N529" s="5">
-        <v>0</v>
-      </c>
-      <c r="O529" s="5" t="s">
+      <c r="M529" s="19">
+        <v>0</v>
+      </c>
+      <c r="N529" s="19">
+        <v>0</v>
+      </c>
+      <c r="O529" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P529" s="5">
+      <c r="P529" s="19">
         <v>4800</v>
       </c>
-      <c r="Q529" s="5" t="s">
+      <c r="Q529" s="19" t="s">
         <v>1967</v>
       </c>
-      <c r="R529" s="10" t="s">
+      <c r="R529" s="39" t="s">
         <v>1998</v>
       </c>
-      <c r="W529" s="5" t="s">
+      <c r="W529" s="19" t="s">
         <v>1103</v>
       </c>
-      <c r="X529" s="5">
+      <c r="X529" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y529" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z529" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA529" s="5">
+      <c r="Y529" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z529" s="19">
+        <v>1614009599</v>
+      </c>
+      <c r="AA529" s="19">
         <v>72</v>
       </c>
-      <c r="AH529" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI529" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL529" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM529" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="530" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A530" s="5">
+      <c r="AH529" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI529" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL529" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM529" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A530" s="19">
         <v>529</v>
       </c>
-      <c r="B530" s="5">
+      <c r="B530" s="19">
         <v>10446</v>
       </c>
-      <c r="F530" s="5">
-        <v>1</v>
-      </c>
-      <c r="G530" s="5" t="s">
+      <c r="F530" s="19">
+        <v>1</v>
+      </c>
+      <c r="G530" s="19" t="s">
         <v>1969</v>
       </c>
-      <c r="I530" s="5" t="s">
+      <c r="I530" s="19" t="s">
         <v>1996</v>
       </c>
-      <c r="J530" s="5" t="s">
+      <c r="J530" s="19" t="s">
         <v>1999</v>
       </c>
-      <c r="L530" s="5">
+      <c r="L530" s="19">
         <v>-33</v>
       </c>
-      <c r="M530" s="5">
-        <v>0</v>
-      </c>
-      <c r="N530" s="5">
-        <v>0</v>
-      </c>
-      <c r="O530" s="5" t="s">
+      <c r="M530" s="19">
+        <v>0</v>
+      </c>
+      <c r="N530" s="19">
+        <v>0</v>
+      </c>
+      <c r="O530" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P530" s="5">
+      <c r="P530" s="19">
         <v>9800</v>
       </c>
-      <c r="Q530" s="5" t="s">
+      <c r="Q530" s="19" t="s">
         <v>1971</v>
       </c>
-      <c r="R530" s="10" t="s">
+      <c r="R530" s="39" t="s">
         <v>1990</v>
       </c>
-      <c r="W530" s="5" t="s">
+      <c r="W530" s="19" t="s">
         <v>1103</v>
       </c>
-      <c r="X530" s="5">
+      <c r="X530" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y530" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z530" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA530" s="5">
+      <c r="Y530" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z530" s="19">
+        <v>1614009599</v>
+      </c>
+      <c r="AA530" s="19">
         <v>72</v>
       </c>
-      <c r="AH530" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI530" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL530" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM530" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A531" s="5">
+      <c r="AH530" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI530" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL530" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM530" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A531" s="19">
         <v>530</v>
       </c>
-      <c r="B531" s="5">
+      <c r="B531" s="19">
         <v>10447</v>
       </c>
-      <c r="F531" s="5">
-        <v>1</v>
-      </c>
-      <c r="G531" s="5" t="s">
+      <c r="F531" s="19">
+        <v>1</v>
+      </c>
+      <c r="G531" s="19" t="s">
         <v>1988</v>
       </c>
-      <c r="I531" s="5" t="s">
+      <c r="I531" s="19" t="s">
         <v>1996</v>
       </c>
-      <c r="J531" s="5" t="s">
+      <c r="J531" s="19" t="s">
         <v>2000</v>
       </c>
-      <c r="L531" s="5">
+      <c r="L531" s="19">
         <v>-33</v>
       </c>
-      <c r="M531" s="5">
-        <v>0</v>
-      </c>
-      <c r="N531" s="5">
-        <v>0</v>
-      </c>
-      <c r="O531" s="5" t="s">
+      <c r="M531" s="19">
+        <v>0</v>
+      </c>
+      <c r="N531" s="19">
+        <v>0</v>
+      </c>
+      <c r="O531" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P531" s="5">
+      <c r="P531" s="19">
         <v>19800</v>
       </c>
-      <c r="Q531" s="5" t="s">
+      <c r="Q531" s="19" t="s">
         <v>1977</v>
       </c>
-      <c r="R531" s="10" t="s">
+      <c r="R531" s="39" t="s">
         <v>2001</v>
       </c>
-      <c r="W531" s="5" t="s">
+      <c r="W531" s="19" t="s">
         <v>1103</v>
       </c>
-      <c r="X531" s="5">
+      <c r="X531" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y531" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z531" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA531" s="5">
+      <c r="Y531" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z531" s="19">
+        <v>1614009599</v>
+      </c>
+      <c r="AA531" s="19">
         <v>72</v>
       </c>
-      <c r="AH531" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI531" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL531" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM531" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="532" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A532" s="5">
+      <c r="AH531" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI531" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL531" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM531" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A532" s="19">
         <v>531</v>
       </c>
-      <c r="B532" s="5">
+      <c r="B532" s="19">
         <v>10448</v>
       </c>
-      <c r="F532" s="5">
-        <v>1</v>
-      </c>
-      <c r="G532" s="5" t="s">
+      <c r="F532" s="19">
+        <v>1</v>
+      </c>
+      <c r="G532" s="19" t="s">
         <v>2002</v>
       </c>
-      <c r="I532" s="5" t="s">
+      <c r="I532" s="19" t="s">
         <v>1995</v>
       </c>
-      <c r="J532" s="5" t="s">
+      <c r="J532" s="19" t="s">
         <v>2003</v>
       </c>
-      <c r="L532" s="5">
+      <c r="L532" s="19">
         <v>-33</v>
       </c>
-      <c r="M532" s="5">
-        <v>0</v>
-      </c>
-      <c r="N532" s="5">
-        <v>0</v>
-      </c>
-      <c r="O532" s="5" t="s">
+      <c r="M532" s="19">
+        <v>0</v>
+      </c>
+      <c r="N532" s="19">
+        <v>0</v>
+      </c>
+      <c r="O532" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="P532" s="5">
+      <c r="P532" s="19">
         <v>49800</v>
       </c>
-      <c r="Q532" s="5" t="s">
+      <c r="Q532" s="19" t="s">
         <v>1981</v>
       </c>
-      <c r="R532" s="10" t="s">
+      <c r="R532" s="39" t="s">
         <v>2004</v>
       </c>
-      <c r="W532" s="5" t="s">
+      <c r="W532" s="19" t="s">
         <v>1103</v>
       </c>
-      <c r="X532" s="5">
+      <c r="X532" s="19">
         <v>99999999</v>
       </c>
-      <c r="Y532" s="5">
-        <v>1611014400</v>
-      </c>
-      <c r="Z532" s="5">
-        <v>1611590399</v>
-      </c>
-      <c r="AA532" s="5">
+      <c r="Y532" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z532" s="19">
+        <v>1614009599</v>
+      </c>
+      <c r="AA532" s="19">
         <v>72</v>
       </c>
-      <c r="AH532" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI532" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL532" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM532" s="5">
+      <c r="AH532" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI532" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL532" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM532" s="19">
         <v>1</v>
       </c>
     </row>
@@ -46346,521 +46545,1596 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A542" s="5">
+    <row r="542" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A542" s="69">
         <v>541</v>
       </c>
-      <c r="B542" s="65">
+      <c r="B542" s="69">
         <v>10458</v>
       </c>
-      <c r="C542" s="65"/>
-      <c r="D542" s="65"/>
-      <c r="E542" s="65"/>
-      <c r="F542" s="65">
-        <v>1</v>
-      </c>
-      <c r="G542" s="65" t="s">
+      <c r="F542" s="69">
+        <v>1</v>
+      </c>
+      <c r="G542" s="69" t="s">
         <v>1333</v>
       </c>
-      <c r="H542" s="65"/>
-      <c r="I542" s="65" t="s">
+      <c r="I542" s="69" t="s">
         <v>2059</v>
       </c>
-      <c r="J542" s="65" t="s">
+      <c r="J542" s="69" t="s">
         <v>2060</v>
       </c>
-      <c r="K542" s="65"/>
-      <c r="L542" s="65">
+      <c r="L542" s="69">
         <v>-31</v>
       </c>
-      <c r="M542" s="65">
-        <v>0</v>
-      </c>
-      <c r="N542" s="65">
-        <v>0</v>
-      </c>
-      <c r="O542" s="65" t="s">
+      <c r="M542" s="69">
+        <v>0</v>
+      </c>
+      <c r="N542" s="69">
+        <v>0</v>
+      </c>
+      <c r="O542" s="69" t="s">
         <v>481</v>
       </c>
-      <c r="P542" s="65">
+      <c r="P542" s="69">
         <v>99800</v>
       </c>
-      <c r="Q542" s="65" t="s">
+      <c r="Q542" s="69" t="s">
         <v>1810</v>
       </c>
-      <c r="R542" s="66" t="s">
+      <c r="R542" s="70" t="s">
         <v>2061</v>
       </c>
-      <c r="S542" s="65"/>
-      <c r="T542" s="65"/>
-      <c r="U542" s="65"/>
-      <c r="V542" s="65"/>
-      <c r="W542" s="65" t="s">
+      <c r="W542" s="69" t="s">
         <v>1359</v>
       </c>
-      <c r="X542" s="65">
+      <c r="X542" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y542" s="67">
-        <v>1612224000</v>
-      </c>
-      <c r="Z542" s="67">
-        <v>1612799999</v>
-      </c>
-      <c r="AH542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM542" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A543" s="5">
+      <c r="Y542" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z542" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH542" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI542" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL542" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM542" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A543" s="69">
         <v>542</v>
       </c>
-      <c r="B543" s="65">
+      <c r="B543" s="69">
         <v>10459</v>
       </c>
-      <c r="C543" s="65"/>
-      <c r="D543" s="65"/>
-      <c r="E543" s="65"/>
-      <c r="F543" s="65">
-        <v>1</v>
-      </c>
-      <c r="G543" s="65" t="s">
+      <c r="F543" s="69">
+        <v>1</v>
+      </c>
+      <c r="G543" s="69" t="s">
         <v>1457</v>
       </c>
-      <c r="H543" s="65"/>
-      <c r="I543" s="65" t="s">
+      <c r="I543" s="69" t="s">
         <v>2058</v>
       </c>
-      <c r="J543" s="65" t="s">
+      <c r="J543" s="69" t="s">
         <v>2062</v>
       </c>
-      <c r="K543" s="65"/>
-      <c r="L543" s="65">
+      <c r="L543" s="69">
         <v>-31</v>
       </c>
-      <c r="M543" s="65">
-        <v>0</v>
-      </c>
-      <c r="N543" s="65">
-        <v>0</v>
-      </c>
-      <c r="O543" s="65" t="s">
+      <c r="M543" s="69">
+        <v>0</v>
+      </c>
+      <c r="N543" s="69">
+        <v>0</v>
+      </c>
+      <c r="O543" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="P543" s="65">
+      <c r="P543" s="69">
         <v>49800</v>
       </c>
-      <c r="Q543" s="65" t="s">
+      <c r="Q543" s="69" t="s">
         <v>1810</v>
       </c>
-      <c r="R543" s="66" t="s">
+      <c r="R543" s="70" t="s">
         <v>2063</v>
       </c>
-      <c r="S543" s="65"/>
-      <c r="T543" s="65"/>
-      <c r="U543" s="65"/>
-      <c r="V543" s="65"/>
-      <c r="W543" s="65" t="s">
+      <c r="W543" s="69" t="s">
         <v>527</v>
       </c>
-      <c r="X543" s="65">
+      <c r="X543" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y543" s="67">
-        <v>1612224000</v>
-      </c>
-      <c r="Z543" s="67">
-        <v>1612799999</v>
-      </c>
-      <c r="AH543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM543" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A544" s="5">
+      <c r="Y543" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z543" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH543" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI543" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL543" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM543" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A544" s="69">
         <v>543</v>
       </c>
-      <c r="B544" s="65">
+      <c r="B544" s="69">
         <v>10460</v>
       </c>
-      <c r="C544" s="65"/>
-      <c r="D544" s="65"/>
-      <c r="E544" s="65"/>
-      <c r="F544" s="65">
-        <v>1</v>
-      </c>
-      <c r="G544" s="65" t="s">
+      <c r="F544" s="69">
+        <v>1</v>
+      </c>
+      <c r="G544" s="69" t="s">
         <v>1461</v>
       </c>
-      <c r="H544" s="65"/>
-      <c r="I544" s="65" t="s">
+      <c r="I544" s="69" t="s">
         <v>2058</v>
       </c>
-      <c r="J544" s="65" t="s">
+      <c r="J544" s="69" t="s">
         <v>1470</v>
       </c>
-      <c r="K544" s="65"/>
-      <c r="L544" s="65">
+      <c r="L544" s="69">
         <v>-31</v>
       </c>
-      <c r="M544" s="65">
-        <v>0</v>
-      </c>
-      <c r="N544" s="65">
-        <v>0</v>
-      </c>
-      <c r="O544" s="65" t="s">
+      <c r="M544" s="69">
+        <v>0</v>
+      </c>
+      <c r="N544" s="69">
+        <v>0</v>
+      </c>
+      <c r="O544" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="P544" s="65">
+      <c r="P544" s="69">
         <v>29800</v>
       </c>
-      <c r="Q544" s="65" t="s">
+      <c r="Q544" s="69" t="s">
         <v>1464</v>
       </c>
-      <c r="R544" s="66" t="s">
+      <c r="R544" s="70" t="s">
         <v>1353</v>
       </c>
-      <c r="S544" s="65"/>
-      <c r="T544" s="65"/>
-      <c r="U544" s="65"/>
-      <c r="V544" s="65"/>
-      <c r="W544" s="65" t="s">
+      <c r="W544" s="69" t="s">
         <v>527</v>
       </c>
-      <c r="X544" s="65">
+      <c r="X544" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y544" s="67">
-        <v>1612224000</v>
-      </c>
-      <c r="Z544" s="67">
-        <v>1612799999</v>
-      </c>
-      <c r="AH544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM544" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A545" s="5">
+      <c r="Y544" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z544" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH544" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI544" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL544" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM544" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A545" s="69">
         <v>544</v>
       </c>
-      <c r="B545" s="65">
+      <c r="B545" s="69">
         <v>10461</v>
       </c>
-      <c r="C545" s="65"/>
-      <c r="D545" s="65"/>
-      <c r="E545" s="65"/>
-      <c r="F545" s="65">
-        <v>1</v>
-      </c>
-      <c r="G545" s="65" t="s">
+      <c r="F545" s="69">
+        <v>1</v>
+      </c>
+      <c r="G545" s="69" t="s">
         <v>2064</v>
       </c>
-      <c r="H545" s="65"/>
-      <c r="I545" s="65" t="s">
+      <c r="I545" s="69" t="s">
         <v>2058</v>
       </c>
-      <c r="J545" s="65" t="s">
+      <c r="J545" s="69" t="s">
         <v>1466</v>
       </c>
-      <c r="K545" s="65"/>
-      <c r="L545" s="65">
+      <c r="L545" s="69">
         <v>-31</v>
       </c>
-      <c r="M545" s="65">
-        <v>0</v>
-      </c>
-      <c r="N545" s="65">
-        <v>0</v>
-      </c>
-      <c r="O545" s="65" t="s">
+      <c r="M545" s="69">
+        <v>0</v>
+      </c>
+      <c r="N545" s="69">
+        <v>0</v>
+      </c>
+      <c r="O545" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="P545" s="65">
+      <c r="P545" s="69">
         <v>19800</v>
       </c>
-      <c r="Q545" s="65" t="s">
+      <c r="Q545" s="69" t="s">
         <v>1464</v>
       </c>
-      <c r="R545" s="66" t="s">
+      <c r="R545" s="70" t="s">
         <v>1349</v>
       </c>
-      <c r="S545" s="65"/>
-      <c r="T545" s="65"/>
-      <c r="U545" s="65"/>
-      <c r="V545" s="65"/>
-      <c r="W545" s="65" t="s">
+      <c r="W545" s="69" t="s">
         <v>527</v>
       </c>
-      <c r="X545" s="65">
+      <c r="X545" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y545" s="67">
-        <v>1612224000</v>
-      </c>
-      <c r="Z545" s="67">
-        <v>1612799999</v>
-      </c>
-      <c r="AH545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM545" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A546" s="5">
+      <c r="Y545" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z545" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH545" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI545" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL545" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM545" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A546" s="69">
         <v>545</v>
       </c>
-      <c r="B546" s="65">
+      <c r="B546" s="69">
         <v>10462</v>
       </c>
-      <c r="C546" s="65"/>
-      <c r="D546" s="65"/>
-      <c r="E546" s="65"/>
-      <c r="F546" s="65">
-        <v>1</v>
-      </c>
-      <c r="G546" s="65" t="s">
+      <c r="F546" s="69">
+        <v>1</v>
+      </c>
+      <c r="G546" s="69" t="s">
         <v>1350</v>
       </c>
-      <c r="H546" s="65"/>
-      <c r="I546" s="65" t="s">
+      <c r="I546" s="69" t="s">
         <v>2058</v>
       </c>
-      <c r="J546" s="65" t="s">
+      <c r="J546" s="69" t="s">
         <v>1463</v>
       </c>
-      <c r="K546" s="65"/>
-      <c r="L546" s="65">
+      <c r="L546" s="69">
         <v>-31</v>
       </c>
-      <c r="M546" s="65">
-        <v>0</v>
-      </c>
-      <c r="N546" s="65">
-        <v>0</v>
-      </c>
-      <c r="O546" s="65" t="s">
+      <c r="M546" s="69">
+        <v>0</v>
+      </c>
+      <c r="N546" s="69">
+        <v>0</v>
+      </c>
+      <c r="O546" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="P546" s="65">
+      <c r="P546" s="69">
         <v>9800</v>
       </c>
-      <c r="Q546" s="65" t="s">
+      <c r="Q546" s="69" t="s">
         <v>2065</v>
       </c>
-      <c r="R546" s="66" t="s">
+      <c r="R546" s="70" t="s">
         <v>1346</v>
       </c>
-      <c r="S546" s="65"/>
-      <c r="T546" s="65"/>
-      <c r="U546" s="65"/>
-      <c r="V546" s="65"/>
-      <c r="W546" s="65" t="s">
+      <c r="W546" s="69" t="s">
         <v>527</v>
       </c>
-      <c r="X546" s="65">
+      <c r="X546" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y546" s="67">
-        <v>1612224000</v>
-      </c>
-      <c r="Z546" s="67">
-        <v>1612799999</v>
-      </c>
-      <c r="AH546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM546" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="547" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A547" s="5">
+      <c r="Y546" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z546" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH546" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI546" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL546" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM546" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A547" s="69">
         <v>546</v>
       </c>
-      <c r="B547" s="65">
+      <c r="B547" s="69">
         <v>10463</v>
       </c>
-      <c r="C547" s="65"/>
-      <c r="D547" s="65"/>
-      <c r="E547" s="65"/>
-      <c r="F547" s="65">
-        <v>1</v>
-      </c>
-      <c r="G547" s="65" t="s">
+      <c r="F547" s="69">
+        <v>1</v>
+      </c>
+      <c r="G547" s="69" t="s">
         <v>2066</v>
       </c>
-      <c r="H547" s="65"/>
-      <c r="I547" s="65" t="s">
+      <c r="I547" s="69" t="s">
         <v>2059</v>
       </c>
-      <c r="J547" s="65" t="s">
+      <c r="J547" s="69" t="s">
         <v>1459</v>
       </c>
-      <c r="K547" s="65"/>
-      <c r="L547" s="65">
+      <c r="L547" s="69">
         <v>-31</v>
       </c>
-      <c r="M547" s="65">
-        <v>0</v>
-      </c>
-      <c r="N547" s="65">
-        <v>0</v>
-      </c>
-      <c r="O547" s="65" t="s">
+      <c r="M547" s="69">
+        <v>0</v>
+      </c>
+      <c r="N547" s="69">
+        <v>0</v>
+      </c>
+      <c r="O547" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="P547" s="65">
+      <c r="P547" s="69">
         <v>4800</v>
       </c>
-      <c r="Q547" s="65" t="s">
+      <c r="Q547" s="69" t="s">
         <v>1796</v>
       </c>
-      <c r="R547" s="66" t="s">
+      <c r="R547" s="70" t="s">
         <v>2067</v>
       </c>
-      <c r="S547" s="65"/>
-      <c r="T547" s="65"/>
-      <c r="U547" s="65"/>
-      <c r="V547" s="65"/>
-      <c r="W547" s="65" t="s">
+      <c r="W547" s="69" t="s">
         <v>527</v>
       </c>
-      <c r="X547" s="65">
+      <c r="X547" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y547" s="67">
-        <v>1612224000</v>
-      </c>
-      <c r="Z547" s="67">
-        <v>1612799999</v>
-      </c>
-      <c r="AH547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM547" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A548" s="5">
+      <c r="Y547" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z547" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH547" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI547" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL547" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM547" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A548" s="69">
         <v>547</v>
       </c>
-      <c r="B548" s="65">
+      <c r="B548" s="69">
         <v>10464</v>
       </c>
-      <c r="C548" s="65"/>
-      <c r="D548" s="65"/>
-      <c r="E548" s="65"/>
-      <c r="F548" s="65">
-        <v>1</v>
-      </c>
-      <c r="G548" s="65" t="s">
+      <c r="F548" s="69">
+        <v>1</v>
+      </c>
+      <c r="G548" s="69" t="s">
         <v>1360</v>
       </c>
-      <c r="H548" s="65"/>
-      <c r="I548" s="65" t="s">
+      <c r="I548" s="69" t="s">
         <v>2058</v>
       </c>
-      <c r="J548" s="65" t="s">
+      <c r="J548" s="69" t="s">
         <v>2068</v>
       </c>
-      <c r="K548" s="65"/>
-      <c r="L548" s="65">
+      <c r="L548" s="69">
         <v>-31</v>
       </c>
-      <c r="M548" s="65">
-        <v>0</v>
-      </c>
-      <c r="N548" s="65">
-        <v>0</v>
-      </c>
-      <c r="O548" s="65" t="s">
+      <c r="M548" s="69">
+        <v>0</v>
+      </c>
+      <c r="N548" s="69">
+        <v>0</v>
+      </c>
+      <c r="O548" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="P548" s="65">
+      <c r="P548" s="69">
         <v>1800</v>
       </c>
-      <c r="Q548" s="65" t="s">
+      <c r="Q548" s="69" t="s">
         <v>2069</v>
       </c>
-      <c r="R548" s="66" t="s">
+      <c r="R548" s="70" t="s">
         <v>1337</v>
       </c>
-      <c r="S548" s="65"/>
-      <c r="T548" s="65"/>
-      <c r="U548" s="65"/>
-      <c r="V548" s="65"/>
-      <c r="W548" s="65" t="s">
+      <c r="W548" s="69" t="s">
         <v>527</v>
       </c>
-      <c r="X548" s="65">
+      <c r="X548" s="69">
         <v>9999999</v>
       </c>
-      <c r="Y548" s="67">
-        <v>1612224000</v>
-      </c>
-      <c r="Z548" s="67">
-        <v>1612799999</v>
-      </c>
-      <c r="AH548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM548" s="5">
+      <c r="Y548" s="71">
+        <v>1614038400</v>
+      </c>
+      <c r="Z548" s="71">
+        <v>1614614399</v>
+      </c>
+      <c r="AH548" s="69">
+        <v>1</v>
+      </c>
+      <c r="AI548" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL548" s="69">
+        <v>1</v>
+      </c>
+      <c r="AM548" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A549" s="5">
+        <v>548</v>
+      </c>
+      <c r="B549" s="65">
+        <v>10465</v>
+      </c>
+      <c r="F549" s="65">
+        <v>1</v>
+      </c>
+      <c r="G549" s="65" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I549" s="65" t="s">
+        <v>2078</v>
+      </c>
+      <c r="J549" s="65" t="s">
+        <v>2079</v>
+      </c>
+      <c r="L549" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M549" s="65">
+        <v>0</v>
+      </c>
+      <c r="N549" s="65">
+        <v>0</v>
+      </c>
+      <c r="O549" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P549" s="65">
+        <v>49800</v>
+      </c>
+      <c r="Q549" s="65" t="s">
+        <v>2080</v>
+      </c>
+      <c r="R549" s="66" t="s">
+        <v>2081</v>
+      </c>
+      <c r="W549" s="65" t="s">
+        <v>2104</v>
+      </c>
+      <c r="X549" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y549" s="65">
+        <v>1612828800</v>
+      </c>
+      <c r="Z549" s="65">
+        <v>1613404799</v>
+      </c>
+      <c r="AA549" s="65">
+        <v>66</v>
+      </c>
+      <c r="AH549" s="65">
+        <v>1</v>
+      </c>
+      <c r="AI549" s="65">
+        <v>1</v>
+      </c>
+      <c r="AL549" s="65">
+        <v>1</v>
+      </c>
+      <c r="AM549" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A550" s="5">
+        <v>549</v>
+      </c>
+      <c r="B550" s="65">
+        <v>10466</v>
+      </c>
+      <c r="F550" s="65">
+        <v>1</v>
+      </c>
+      <c r="G550" s="65" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I550" s="65" t="s">
+        <v>2082</v>
+      </c>
+      <c r="J550" s="65" t="s">
+        <v>2083</v>
+      </c>
+      <c r="L550" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M550" s="65">
+        <v>0</v>
+      </c>
+      <c r="N550" s="65">
+        <v>0</v>
+      </c>
+      <c r="O550" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P550" s="65">
+        <v>19800</v>
+      </c>
+      <c r="Q550" s="65" t="s">
+        <v>2080</v>
+      </c>
+      <c r="R550" s="66" t="s">
+        <v>2084</v>
+      </c>
+      <c r="W550" s="65" t="s">
+        <v>2104</v>
+      </c>
+      <c r="X550" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y550" s="65">
+        <v>1612828800</v>
+      </c>
+      <c r="Z550" s="65">
+        <v>1613404799</v>
+      </c>
+      <c r="AA550" s="65">
+        <v>66</v>
+      </c>
+      <c r="AH550" s="65">
+        <v>1</v>
+      </c>
+      <c r="AI550" s="65">
+        <v>1</v>
+      </c>
+      <c r="AL550" s="65">
+        <v>1</v>
+      </c>
+      <c r="AM550" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A551" s="5">
+        <v>550</v>
+      </c>
+      <c r="B551" s="65">
+        <v>10467</v>
+      </c>
+      <c r="F551" s="65">
+        <v>1</v>
+      </c>
+      <c r="G551" s="65" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I551" s="65" t="s">
+        <v>2085</v>
+      </c>
+      <c r="J551" s="65" t="s">
+        <v>2086</v>
+      </c>
+      <c r="L551" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M551" s="65">
+        <v>0</v>
+      </c>
+      <c r="N551" s="65">
+        <v>0</v>
+      </c>
+      <c r="O551" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P551" s="65">
+        <v>9800</v>
+      </c>
+      <c r="Q551" s="65" t="s">
+        <v>2080</v>
+      </c>
+      <c r="R551" s="66" t="s">
+        <v>2087</v>
+      </c>
+      <c r="W551" s="65" t="s">
+        <v>2104</v>
+      </c>
+      <c r="X551" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y551" s="65">
+        <v>1612828800</v>
+      </c>
+      <c r="Z551" s="65">
+        <v>1613404799</v>
+      </c>
+      <c r="AA551" s="65">
+        <v>66</v>
+      </c>
+      <c r="AH551" s="65">
+        <v>1</v>
+      </c>
+      <c r="AI551" s="65">
+        <v>1</v>
+      </c>
+      <c r="AL551" s="65">
+        <v>1</v>
+      </c>
+      <c r="AM551" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A552" s="5">
+        <v>551</v>
+      </c>
+      <c r="B552" s="65">
+        <v>10468</v>
+      </c>
+      <c r="F552" s="65">
+        <v>1</v>
+      </c>
+      <c r="G552" s="65" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I552" s="65" t="s">
+        <v>2088</v>
+      </c>
+      <c r="J552" s="65" t="s">
+        <v>2089</v>
+      </c>
+      <c r="L552" s="65">
+        <v>-31</v>
+      </c>
+      <c r="M552" s="65">
+        <v>0</v>
+      </c>
+      <c r="N552" s="65">
+        <v>0</v>
+      </c>
+      <c r="O552" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P552" s="65">
+        <v>4800</v>
+      </c>
+      <c r="Q552" s="65" t="s">
+        <v>2080</v>
+      </c>
+      <c r="R552" s="66" t="s">
+        <v>2090</v>
+      </c>
+      <c r="W552" s="65" t="s">
+        <v>1675</v>
+      </c>
+      <c r="X552" s="65">
+        <v>9999999</v>
+      </c>
+      <c r="Y552" s="65">
+        <v>1612828800</v>
+      </c>
+      <c r="Z552" s="65">
+        <v>1613404799</v>
+      </c>
+      <c r="AA552" s="65">
+        <v>66</v>
+      </c>
+      <c r="AH552" s="65">
+        <v>1</v>
+      </c>
+      <c r="AI552" s="65">
+        <v>1</v>
+      </c>
+      <c r="AL552" s="65">
+        <v>1</v>
+      </c>
+      <c r="AM552" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A553" s="5">
+        <v>552</v>
+      </c>
+      <c r="B553" s="67">
+        <v>10469</v>
+      </c>
+      <c r="F553" s="67">
+        <v>1</v>
+      </c>
+      <c r="G553" s="67" t="s">
+        <v>2091</v>
+      </c>
+      <c r="I553" s="67" t="s">
+        <v>2077</v>
+      </c>
+      <c r="J553" s="67" t="s">
+        <v>2092</v>
+      </c>
+      <c r="L553" s="67">
+        <v>-31</v>
+      </c>
+      <c r="M553" s="67">
+        <v>0</v>
+      </c>
+      <c r="N553" s="67">
+        <v>0</v>
+      </c>
+      <c r="O553" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P553" s="67">
+        <v>49800</v>
+      </c>
+      <c r="Q553" s="67" t="s">
+        <v>2093</v>
+      </c>
+      <c r="R553" s="68" t="s">
+        <v>2094</v>
+      </c>
+      <c r="W553" s="67" t="s">
+        <v>2105</v>
+      </c>
+      <c r="X553" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="Y553" s="67">
+        <v>1612828800</v>
+      </c>
+      <c r="Z553" s="67">
+        <v>1613404799</v>
+      </c>
+      <c r="AA553" s="67">
+        <v>67</v>
+      </c>
+      <c r="AH553" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI553" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL553" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM553" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A554" s="5">
+        <v>553</v>
+      </c>
+      <c r="B554" s="67">
+        <v>10470</v>
+      </c>
+      <c r="F554" s="67">
+        <v>1</v>
+      </c>
+      <c r="G554" s="67" t="s">
+        <v>2091</v>
+      </c>
+      <c r="I554" s="67" t="s">
+        <v>2082</v>
+      </c>
+      <c r="J554" s="67" t="s">
+        <v>2095</v>
+      </c>
+      <c r="L554" s="67">
+        <v>-31</v>
+      </c>
+      <c r="M554" s="67">
+        <v>0</v>
+      </c>
+      <c r="N554" s="67">
+        <v>0</v>
+      </c>
+      <c r="O554" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P554" s="67">
+        <v>19800</v>
+      </c>
+      <c r="Q554" s="67" t="s">
+        <v>2093</v>
+      </c>
+      <c r="R554" s="68" t="s">
+        <v>2096</v>
+      </c>
+      <c r="W554" s="67" t="s">
+        <v>2106</v>
+      </c>
+      <c r="X554" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="Y554" s="67">
+        <v>1612828800</v>
+      </c>
+      <c r="Z554" s="67">
+        <v>1613404799</v>
+      </c>
+      <c r="AA554" s="67">
+        <v>67</v>
+      </c>
+      <c r="AH554" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI554" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL554" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM554" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A555" s="5">
+        <v>554</v>
+      </c>
+      <c r="B555" s="67">
+        <v>10471</v>
+      </c>
+      <c r="F555" s="67">
+        <v>1</v>
+      </c>
+      <c r="G555" s="67" t="s">
+        <v>2091</v>
+      </c>
+      <c r="I555" s="67" t="s">
+        <v>2085</v>
+      </c>
+      <c r="J555" s="67" t="s">
+        <v>2097</v>
+      </c>
+      <c r="L555" s="67">
+        <v>-31</v>
+      </c>
+      <c r="M555" s="67">
+        <v>0</v>
+      </c>
+      <c r="N555" s="67">
+        <v>0</v>
+      </c>
+      <c r="O555" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P555" s="67">
+        <v>9800</v>
+      </c>
+      <c r="Q555" s="67" t="s">
+        <v>2098</v>
+      </c>
+      <c r="R555" s="68" t="s">
+        <v>2099</v>
+      </c>
+      <c r="W555" s="67" t="s">
+        <v>2106</v>
+      </c>
+      <c r="X555" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="Y555" s="67">
+        <v>1612828800</v>
+      </c>
+      <c r="Z555" s="67">
+        <v>1613404799</v>
+      </c>
+      <c r="AA555" s="67">
+        <v>67</v>
+      </c>
+      <c r="AH555" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI555" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL555" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM555" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A556" s="5">
+        <v>555</v>
+      </c>
+      <c r="B556" s="67">
+        <v>10472</v>
+      </c>
+      <c r="F556" s="67">
+        <v>1</v>
+      </c>
+      <c r="G556" s="67" t="s">
+        <v>2091</v>
+      </c>
+      <c r="I556" s="67" t="s">
+        <v>2088</v>
+      </c>
+      <c r="J556" s="67" t="s">
+        <v>2100</v>
+      </c>
+      <c r="L556" s="67">
+        <v>-31</v>
+      </c>
+      <c r="M556" s="67">
+        <v>0</v>
+      </c>
+      <c r="N556" s="67">
+        <v>0</v>
+      </c>
+      <c r="O556" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P556" s="67">
+        <v>4800</v>
+      </c>
+      <c r="Q556" s="67" t="s">
+        <v>2098</v>
+      </c>
+      <c r="R556" s="68" t="s">
+        <v>2101</v>
+      </c>
+      <c r="W556" s="67" t="s">
+        <v>2106</v>
+      </c>
+      <c r="X556" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="Y556" s="67">
+        <v>1612828800</v>
+      </c>
+      <c r="Z556" s="67">
+        <v>1613404799</v>
+      </c>
+      <c r="AA556" s="67">
+        <v>67</v>
+      </c>
+      <c r="AH556" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI556" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL556" s="67">
+        <v>1</v>
+      </c>
+      <c r="AM556" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A557" s="5">
+        <v>556</v>
+      </c>
+      <c r="B557" s="19">
+        <v>10473</v>
+      </c>
+      <c r="F557" s="19">
+        <v>1</v>
+      </c>
+      <c r="G557" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="I557" s="19" t="s">
+        <v>2102</v>
+      </c>
+      <c r="J557" s="19" t="s">
+        <v>2113</v>
+      </c>
+      <c r="L557" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M557" s="19">
+        <v>0</v>
+      </c>
+      <c r="N557" s="19">
+        <v>0</v>
+      </c>
+      <c r="O557" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P557" s="19">
+        <v>100</v>
+      </c>
+      <c r="Q557" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R557" s="72" t="s">
+        <v>2107</v>
+      </c>
+      <c r="W557" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="X557" s="19">
+        <v>50</v>
+      </c>
+      <c r="Y557" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z557" s="19">
+        <v>1613440800</v>
+      </c>
+      <c r="AE557" s="19">
+        <f t="shared" ref="AE557:AE565" si="1">24*60*60</f>
+        <v>86400</v>
+      </c>
+      <c r="AF557" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH557" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI557" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A558" s="5">
+        <v>557</v>
+      </c>
+      <c r="B558" s="19">
+        <v>10474</v>
+      </c>
+      <c r="F558" s="19">
+        <v>1</v>
+      </c>
+      <c r="G558" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="I558" s="19" t="s">
+        <v>2102</v>
+      </c>
+      <c r="J558" s="19" t="s">
+        <v>2103</v>
+      </c>
+      <c r="L558" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M558" s="19">
+        <v>0</v>
+      </c>
+      <c r="N558" s="19">
+        <v>0</v>
+      </c>
+      <c r="O558" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P558" s="19">
+        <v>1800</v>
+      </c>
+      <c r="Q558" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R558" s="72" t="s">
+        <v>2108</v>
+      </c>
+      <c r="W558" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="X558" s="19">
+        <v>20</v>
+      </c>
+      <c r="Y558" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z558" s="19">
+        <v>1613440800</v>
+      </c>
+      <c r="AE558" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF558" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH558" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI558" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A559" s="5">
+        <v>558</v>
+      </c>
+      <c r="B559" s="19">
+        <v>10475</v>
+      </c>
+      <c r="F559" s="19">
+        <v>1</v>
+      </c>
+      <c r="G559" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="I559" s="19" t="s">
+        <v>2102</v>
+      </c>
+      <c r="J559" s="19" t="s">
+        <v>2114</v>
+      </c>
+      <c r="L559" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M559" s="19">
+        <v>0</v>
+      </c>
+      <c r="N559" s="19">
+        <v>0</v>
+      </c>
+      <c r="O559" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P559" s="19">
+        <v>4800</v>
+      </c>
+      <c r="Q559" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R559" s="72" t="s">
+        <v>2109</v>
+      </c>
+      <c r="W559" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="X559" s="19">
+        <v>10</v>
+      </c>
+      <c r="Y559" s="19">
+        <v>1613433600</v>
+      </c>
+      <c r="Z559" s="19">
+        <v>1613440800</v>
+      </c>
+      <c r="AE559" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF559" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH559" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI559" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A560" s="5">
+        <v>559</v>
+      </c>
+      <c r="B560" s="19">
+        <v>10476</v>
+      </c>
+      <c r="F560" s="19">
+        <v>1</v>
+      </c>
+      <c r="G560" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="I560" s="19" t="s">
+        <v>2102</v>
+      </c>
+      <c r="J560" s="19" t="s">
+        <v>2115</v>
+      </c>
+      <c r="L560" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M560" s="19">
+        <v>0</v>
+      </c>
+      <c r="N560" s="19">
+        <v>0</v>
+      </c>
+      <c r="O560" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P560" s="19">
+        <v>100</v>
+      </c>
+      <c r="Q560" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R560" s="72" t="s">
+        <v>2107</v>
+      </c>
+      <c r="W560" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="X560" s="19">
+        <v>50</v>
+      </c>
+      <c r="Y560" s="19">
+        <v>1613448000</v>
+      </c>
+      <c r="Z560" s="19">
+        <v>1613455200</v>
+      </c>
+      <c r="AE560" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF560" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH560" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI560" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A561" s="5">
+        <v>560</v>
+      </c>
+      <c r="B561" s="19">
+        <v>10477</v>
+      </c>
+      <c r="F561" s="19">
+        <v>1</v>
+      </c>
+      <c r="G561" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="I561" s="19" t="s">
+        <v>2102</v>
+      </c>
+      <c r="J561" s="19" t="s">
+        <v>2116</v>
+      </c>
+      <c r="L561" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M561" s="19">
+        <v>0</v>
+      </c>
+      <c r="N561" s="19">
+        <v>0</v>
+      </c>
+      <c r="O561" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P561" s="19">
+        <v>2800</v>
+      </c>
+      <c r="Q561" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R561" s="72" t="s">
+        <v>2110</v>
+      </c>
+      <c r="W561" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="X561" s="19">
+        <v>20</v>
+      </c>
+      <c r="Y561" s="19">
+        <v>1613448000</v>
+      </c>
+      <c r="Z561" s="19">
+        <v>1613455200</v>
+      </c>
+      <c r="AE561" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF561" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH561" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI561" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A562" s="5">
+        <v>561</v>
+      </c>
+      <c r="B562" s="19">
+        <v>10478</v>
+      </c>
+      <c r="F562" s="19">
+        <v>1</v>
+      </c>
+      <c r="G562" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I562" s="19" t="s">
+        <v>2102</v>
+      </c>
+      <c r="J562" s="19" t="s">
+        <v>2117</v>
+      </c>
+      <c r="L562" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M562" s="19">
+        <v>0</v>
+      </c>
+      <c r="N562" s="19">
+        <v>0</v>
+      </c>
+      <c r="O562" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P562" s="19">
+        <v>9800</v>
+      </c>
+      <c r="Q562" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R562" s="72" t="s">
+        <v>2111</v>
+      </c>
+      <c r="W562" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="X562" s="19">
+        <v>10</v>
+      </c>
+      <c r="Y562" s="19">
+        <v>1613448000</v>
+      </c>
+      <c r="Z562" s="19">
+        <v>1613455200</v>
+      </c>
+      <c r="AE562" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF562" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH562" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI562" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>562</v>
+      </c>
+      <c r="B563" s="19">
+        <v>10479</v>
+      </c>
+      <c r="F563" s="19">
+        <v>1</v>
+      </c>
+      <c r="G563" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="I563" s="19" t="s">
+        <v>2102</v>
+      </c>
+      <c r="J563" s="19" t="s">
+        <v>2115</v>
+      </c>
+      <c r="L563" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M563" s="19">
+        <v>0</v>
+      </c>
+      <c r="N563" s="19">
+        <v>0</v>
+      </c>
+      <c r="O563" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P563" s="19">
+        <v>100</v>
+      </c>
+      <c r="Q563" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R563" s="72" t="s">
+        <v>2107</v>
+      </c>
+      <c r="W563" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="X563" s="19">
+        <v>50</v>
+      </c>
+      <c r="Y563" s="19">
+        <v>1613469600</v>
+      </c>
+      <c r="Z563" s="19">
+        <v>1613484000</v>
+      </c>
+      <c r="AE563" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF563" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH563" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI563" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A564" s="5">
+        <v>563</v>
+      </c>
+      <c r="B564" s="19">
+        <v>10480</v>
+      </c>
+      <c r="F564" s="19">
+        <v>1</v>
+      </c>
+      <c r="G564" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="I564" s="19" t="s">
+        <v>2102</v>
+      </c>
+      <c r="J564" s="19" t="s">
+        <v>2114</v>
+      </c>
+      <c r="L564" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M564" s="19">
+        <v>0</v>
+      </c>
+      <c r="N564" s="19">
+        <v>0</v>
+      </c>
+      <c r="O564" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P564" s="19">
+        <v>4800</v>
+      </c>
+      <c r="Q564" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R564" s="72" t="s">
+        <v>2109</v>
+      </c>
+      <c r="W564" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="X564" s="19">
+        <v>20</v>
+      </c>
+      <c r="Y564" s="19">
+        <v>1613469600</v>
+      </c>
+      <c r="Z564" s="19">
+        <v>1613484000</v>
+      </c>
+      <c r="AE564" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF564" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH564" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI564" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>564</v>
+      </c>
+      <c r="B565" s="19">
+        <v>10481</v>
+      </c>
+      <c r="F565" s="19">
+        <v>1</v>
+      </c>
+      <c r="G565" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I565" s="19" t="s">
+        <v>2102</v>
+      </c>
+      <c r="J565" s="19" t="s">
+        <v>2118</v>
+      </c>
+      <c r="L565" s="19">
+        <v>-25</v>
+      </c>
+      <c r="M565" s="19">
+        <v>0</v>
+      </c>
+      <c r="N565" s="19">
+        <v>0</v>
+      </c>
+      <c r="O565" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P565" s="19">
+        <v>19800</v>
+      </c>
+      <c r="Q565" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="R565" s="72" t="s">
+        <v>2112</v>
+      </c>
+      <c r="W565" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="X565" s="19">
+        <v>10</v>
+      </c>
+      <c r="Y565" s="19">
+        <v>1613469600</v>
+      </c>
+      <c r="Z565" s="19">
+        <v>1613484000</v>
+      </c>
+      <c r="AE565" s="19">
+        <f t="shared" si="1"/>
+        <v>86400</v>
+      </c>
+      <c r="AF565" s="19">
+        <v>7</v>
+      </c>
+      <c r="AH565" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI565" s="19">
         <v>1</v>
       </c>
     </row>
@@ -46876,7 +48150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -8797,18 +8797,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{type="permission_class",class_value = "fclb_free_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v1v7_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v8v12_001" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>{type="permission_class",class_value = "golden_egg_1" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8994,6 +8982,18 @@
   </si>
   <si>
     <t>幸运金币6元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_free_002" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v1v7_002" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v8v12_002" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11868,7 +11868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN565"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -15666,7 +15666,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>937</v>
@@ -47011,13 +47011,13 @@
         <v>1</v>
       </c>
       <c r="G549" s="65" t="s">
+        <v>2072</v>
+      </c>
+      <c r="I549" s="65" t="s">
+        <v>2074</v>
+      </c>
+      <c r="J549" s="65" t="s">
         <v>2075</v>
-      </c>
-      <c r="I549" s="65" t="s">
-        <v>2077</v>
-      </c>
-      <c r="J549" s="65" t="s">
-        <v>2078</v>
       </c>
       <c r="L549" s="65">
         <v>-31</v>
@@ -47035,13 +47035,13 @@
         <v>49800</v>
       </c>
       <c r="Q549" s="65" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="R549" s="66" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="W549" s="65" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
       <c r="X549" s="65">
         <v>9999999</v>
@@ -47079,13 +47079,13 @@
         <v>1</v>
       </c>
       <c r="G550" s="65" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="I550" s="65" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="J550" s="65" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="L550" s="65">
         <v>-31</v>
@@ -47103,13 +47103,13 @@
         <v>19800</v>
       </c>
       <c r="Q550" s="65" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="R550" s="66" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="W550" s="65" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
       <c r="X550" s="65">
         <v>9999999</v>
@@ -47147,13 +47147,13 @@
         <v>1</v>
       </c>
       <c r="G551" s="65" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="I551" s="65" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="J551" s="65" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
       <c r="L551" s="65">
         <v>-31</v>
@@ -47171,13 +47171,13 @@
         <v>9800</v>
       </c>
       <c r="Q551" s="65" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="R551" s="66" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="W551" s="65" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
       <c r="X551" s="65">
         <v>9999999</v>
@@ -47215,13 +47215,13 @@
         <v>1</v>
       </c>
       <c r="G552" s="65" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="I552" s="65" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="J552" s="65" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
       <c r="L552" s="65">
         <v>-31</v>
@@ -47239,10 +47239,10 @@
         <v>4800</v>
       </c>
       <c r="Q552" s="65" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="R552" s="66" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="W552" s="65" t="s">
         <v>1674</v>
@@ -47283,13 +47283,13 @@
         <v>1</v>
       </c>
       <c r="G553" s="67" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="I553" s="67" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
       <c r="J553" s="67" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
       <c r="L553" s="67">
         <v>-31</v>
@@ -47307,13 +47307,13 @@
         <v>49800</v>
       </c>
       <c r="Q553" s="67" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
       <c r="R553" s="68" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="W553" s="67" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="X553" s="67">
         <v>9999999</v>
@@ -47351,13 +47351,13 @@
         <v>1</v>
       </c>
       <c r="G554" s="67" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="I554" s="67" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="J554" s="67" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
       <c r="L554" s="67">
         <v>-31</v>
@@ -47375,13 +47375,13 @@
         <v>19800</v>
       </c>
       <c r="Q554" s="67" t="s">
+        <v>2089</v>
+      </c>
+      <c r="R554" s="68" t="s">
         <v>2092</v>
       </c>
-      <c r="R554" s="68" t="s">
-        <v>2095</v>
-      </c>
       <c r="W554" s="67" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="X554" s="67">
         <v>9999999</v>
@@ -47419,13 +47419,13 @@
         <v>1</v>
       </c>
       <c r="G555" s="67" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="I555" s="67" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="J555" s="67" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
       <c r="L555" s="67">
         <v>-31</v>
@@ -47443,13 +47443,13 @@
         <v>9800</v>
       </c>
       <c r="Q555" s="67" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
       <c r="R555" s="68" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
       <c r="W555" s="67" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="X555" s="67">
         <v>9999999</v>
@@ -47487,13 +47487,13 @@
         <v>1</v>
       </c>
       <c r="G556" s="67" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="I556" s="67" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="J556" s="67" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
       <c r="L556" s="67">
         <v>-31</v>
@@ -47511,13 +47511,13 @@
         <v>4800</v>
       </c>
       <c r="Q556" s="67" t="s">
+        <v>2094</v>
+      </c>
+      <c r="R556" s="68" t="s">
         <v>2097</v>
       </c>
-      <c r="R556" s="68" t="s">
-        <v>2100</v>
-      </c>
       <c r="W556" s="67" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="X556" s="67">
         <v>9999999</v>
@@ -47558,10 +47558,10 @@
         <v>559</v>
       </c>
       <c r="I557" s="19" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="J557" s="19" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="L557" s="19">
         <v>-25</v>
@@ -47582,7 +47582,7 @@
         <v>77</v>
       </c>
       <c r="R557" s="72" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="W557" s="19" t="s">
         <v>525</v>
@@ -47624,10 +47624,10 @@
         <v>518</v>
       </c>
       <c r="I558" s="19" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="J558" s="19" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
       <c r="L558" s="19">
         <v>-25</v>
@@ -47648,7 +47648,7 @@
         <v>77</v>
       </c>
       <c r="R558" s="72" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
       <c r="W558" s="19" t="s">
         <v>525</v>
@@ -47690,10 +47690,10 @@
         <v>266</v>
       </c>
       <c r="I559" s="19" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="J559" s="19" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="L559" s="19">
         <v>-25</v>
@@ -47714,7 +47714,7 @@
         <v>77</v>
       </c>
       <c r="R559" s="72" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="W559" s="19" t="s">
         <v>525</v>
@@ -47756,10 +47756,10 @@
         <v>559</v>
       </c>
       <c r="I560" s="19" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="J560" s="19" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="L560" s="19">
         <v>-25</v>
@@ -47780,7 +47780,7 @@
         <v>77</v>
       </c>
       <c r="R560" s="72" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="W560" s="19" t="s">
         <v>525</v>
@@ -47822,10 +47822,10 @@
         <v>519</v>
       </c>
       <c r="I561" s="19" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="J561" s="19" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="L561" s="19">
         <v>-25</v>
@@ -47846,7 +47846,7 @@
         <v>77</v>
       </c>
       <c r="R561" s="72" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="W561" s="19" t="s">
         <v>525</v>
@@ -47888,10 +47888,10 @@
         <v>66</v>
       </c>
       <c r="I562" s="19" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="J562" s="19" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="L562" s="19">
         <v>-25</v>
@@ -47912,7 +47912,7 @@
         <v>77</v>
       </c>
       <c r="R562" s="72" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="W562" s="19" t="s">
         <v>525</v>
@@ -47954,10 +47954,10 @@
         <v>559</v>
       </c>
       <c r="I563" s="19" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="J563" s="19" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="L563" s="19">
         <v>-25</v>
@@ -47978,7 +47978,7 @@
         <v>77</v>
       </c>
       <c r="R563" s="72" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="W563" s="19" t="s">
         <v>525</v>
@@ -48020,10 +48020,10 @@
         <v>266</v>
       </c>
       <c r="I564" s="19" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="J564" s="19" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="L564" s="19">
         <v>-25</v>
@@ -48044,7 +48044,7 @@
         <v>77</v>
       </c>
       <c r="R564" s="72" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="W564" s="19" t="s">
         <v>525</v>
@@ -48086,10 +48086,10 @@
         <v>70</v>
       </c>
       <c r="I565" s="19" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="J565" s="19" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
       <c r="L565" s="19">
         <v>-25</v>
@@ -48110,7 +48110,7 @@
         <v>77</v>
       </c>
       <c r="R565" s="72" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="W565" s="19" t="s">
         <v>525</v>
@@ -48150,8 +48150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -49152,7 +49152,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="57" t="s">
-        <v>2069</v>
+        <v>2116</v>
       </c>
       <c r="C71" s="58">
         <v>1</v>
@@ -49166,7 +49166,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="57" t="s">
-        <v>2070</v>
+        <v>2117</v>
       </c>
       <c r="C72" s="58">
         <v>1</v>
@@ -49180,7 +49180,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>2071</v>
+        <v>2118</v>
       </c>
       <c r="C73" s="58">
         <v>1</v>
@@ -49194,7 +49194,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="57" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="C74" s="58">
         <v>1</v>
@@ -49208,7 +49208,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="57" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="C75" s="58">
         <v>1</v>
@@ -49222,7 +49222,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="57" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
       <c r="C76" s="58">
         <v>1</v>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5039,10 +5039,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>幸运金币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>超值礼包</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8994,6 +8990,10 @@
   </si>
   <si>
     <t>"2090万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币6元</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9784,7 +9784,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>648</v>
@@ -9811,16 +9811,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E4" s="48" t="s">
         <v>1403</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="F4" s="18" t="s">
         <v>1404</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>1405</v>
-      </c>
       <c r="G4" s="18" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -9919,7 +9919,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -11283,10 +11283,10 @@
         <v>1</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="W17" s="2" t="s">
         <v>45</v>
@@ -11357,10 +11357,10 @@
         <v>2</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="W18" s="2" t="s">
         <v>45</v>
@@ -11431,10 +11431,10 @@
         <v>3</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>45</v>
@@ -11505,10 +11505,10 @@
         <v>4</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="W20" s="2" t="s">
         <v>45</v>
@@ -11579,10 +11579,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>45</v>
@@ -11653,10 +11653,10 @@
         <v>6</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="W22" s="2" t="s">
         <v>45</v>
@@ -11727,10 +11727,10 @@
         <v>7</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="W23" s="2" t="s">
         <v>45</v>
@@ -11778,7 +11778,7 @@
         <v>1060</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>1061</v>
@@ -11869,10 +11869,10 @@
   <dimension ref="A1:AN565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="I539" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J563" sqref="J563"/>
+      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -11938,10 +11938,10 @@
         <v>1126</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>82</v>
@@ -15666,7 +15666,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1127</v>
+        <v>2118</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>937</v>
@@ -15731,7 +15731,7 @@
         <v>222</v>
       </c>
       <c r="H67" s="51" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="L67" s="51">
         <v>-4</v>
@@ -15752,7 +15752,7 @@
         <v>77</v>
       </c>
       <c r="R67" s="51" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="W67" s="51" t="s">
         <v>524</v>
@@ -15790,7 +15790,7 @@
         <v>224</v>
       </c>
       <c r="H68" s="51" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="L68" s="51">
         <v>-4</v>
@@ -15811,7 +15811,7 @@
         <v>77</v>
       </c>
       <c r="R68" s="51" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="W68" s="51" t="s">
         <v>524</v>
@@ -15849,7 +15849,7 @@
         <v>226</v>
       </c>
       <c r="H69" s="51" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="L69" s="51">
         <v>-4</v>
@@ -15870,7 +15870,7 @@
         <v>77</v>
       </c>
       <c r="R69" s="51" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="W69" s="51" t="s">
         <v>524</v>
@@ -15908,7 +15908,7 @@
         <v>228</v>
       </c>
       <c r="H70" s="51" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="L70" s="51">
         <v>-4</v>
@@ -15929,7 +15929,7 @@
         <v>77</v>
       </c>
       <c r="R70" s="51" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="W70" s="51" t="s">
         <v>524</v>
@@ -15967,7 +15967,7 @@
         <v>229</v>
       </c>
       <c r="H71" s="51" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="L71" s="51">
         <v>-4</v>
@@ -15988,7 +15988,7 @@
         <v>77</v>
       </c>
       <c r="R71" s="51" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="W71" s="51" t="s">
         <v>524</v>
@@ -16321,7 +16321,7 @@
         <v>235</v>
       </c>
       <c r="J77" s="19" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="L77" s="19">
         <v>-20</v>
@@ -16342,7 +16342,7 @@
         <v>487</v>
       </c>
       <c r="R77" s="39" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="W77" s="19" t="s">
         <v>524</v>
@@ -16360,10 +16360,10 @@
         <v>77</v>
       </c>
       <c r="AC77" s="19" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AD77" s="39" t="s">
         <v>1690</v>
-      </c>
-      <c r="AD77" s="39" t="s">
-        <v>1691</v>
       </c>
       <c r="AH77" s="19">
         <v>1</v>
@@ -16386,7 +16386,7 @@
         <v>236</v>
       </c>
       <c r="J78" s="19" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="L78" s="19">
         <v>-20</v>
@@ -16404,10 +16404,10 @@
         <v>1000</v>
       </c>
       <c r="Q78" s="19" t="s">
+        <v>1691</v>
+      </c>
+      <c r="R78" s="39" t="s">
         <v>1692</v>
-      </c>
-      <c r="R78" s="39" t="s">
-        <v>1693</v>
       </c>
       <c r="W78" s="19" t="s">
         <v>524</v>
@@ -16425,10 +16425,10 @@
         <v>77</v>
       </c>
       <c r="AC78" s="19" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AD78" s="39" t="s">
         <v>1694</v>
-      </c>
-      <c r="AD78" s="39" t="s">
-        <v>1695</v>
       </c>
       <c r="AH78" s="19">
         <v>1</v>
@@ -16448,7 +16448,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="J79" s="5" t="s">
         <v>804</v>
@@ -16584,7 +16584,7 @@
         <v>239</v>
       </c>
       <c r="J81" s="19" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="L81" s="19">
         <v>-20</v>
@@ -16602,10 +16602,10 @@
         <v>4800</v>
       </c>
       <c r="Q81" s="19" t="s">
+        <v>1696</v>
+      </c>
+      <c r="R81" s="39" t="s">
         <v>1697</v>
-      </c>
-      <c r="R81" s="39" t="s">
-        <v>1698</v>
       </c>
       <c r="W81" s="19" t="s">
         <v>524</v>
@@ -16623,10 +16623,10 @@
         <v>579</v>
       </c>
       <c r="AC81" s="19" t="s">
+        <v>1698</v>
+      </c>
+      <c r="AD81" s="39" t="s">
         <v>1699</v>
-      </c>
-      <c r="AD81" s="39" t="s">
-        <v>1700</v>
       </c>
       <c r="AH81" s="19">
         <v>1</v>
@@ -16835,10 +16835,10 @@
         <v>4800</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="R85" s="5" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="W85" s="5" t="s">
         <v>526</v>
@@ -16941,10 +16941,10 @@
         <v>9600</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="R87" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="W87" s="5" t="s">
         <v>526</v>
@@ -19349,7 +19349,7 @@
         <v>319</v>
       </c>
       <c r="H128" s="51" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="L128" s="51">
         <v>-10</v>
@@ -19370,7 +19370,7 @@
         <v>77</v>
       </c>
       <c r="R128" s="51" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="W128" s="51" t="s">
         <v>524</v>
@@ -19405,10 +19405,10 @@
         <v>1</v>
       </c>
       <c r="G129" s="51" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H129" s="51" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="L129" s="51">
         <v>-11</v>
@@ -19429,7 +19429,7 @@
         <v>77</v>
       </c>
       <c r="R129" s="51" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="W129" s="51" t="s">
         <v>524</v>
@@ -20016,7 +20016,7 @@
         <v>1</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
@@ -20077,7 +20077,7 @@
         <v>1</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="8"/>
@@ -21904,7 +21904,7 @@
         <v>1</v>
       </c>
       <c r="G169" s="19" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="J169" s="19" t="s">
         <v>989</v>
@@ -22028,13 +22028,13 @@
         <v>1</v>
       </c>
       <c r="G171" s="43" t="s">
+        <v>1733</v>
+      </c>
+      <c r="I171" s="43" t="s">
         <v>1734</v>
       </c>
-      <c r="I171" s="43" t="s">
+      <c r="J171" s="43" t="s">
         <v>1735</v>
-      </c>
-      <c r="J171" s="43" t="s">
-        <v>1736</v>
       </c>
       <c r="L171" s="43">
         <v>-28</v>
@@ -22052,13 +22052,13 @@
         <v>100</v>
       </c>
       <c r="Q171" s="43" t="s">
+        <v>1736</v>
+      </c>
+      <c r="R171" s="50" t="s">
         <v>1737</v>
       </c>
-      <c r="R171" s="50" t="s">
+      <c r="W171" s="43" t="s">
         <v>1738</v>
-      </c>
-      <c r="W171" s="43" t="s">
-        <v>1739</v>
       </c>
       <c r="X171" s="43">
         <v>9999999</v>
@@ -22096,13 +22096,13 @@
         <v>1</v>
       </c>
       <c r="G172" s="43" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="I172" s="43" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="J172" s="43" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="L172" s="43">
         <v>-28</v>
@@ -22120,10 +22120,10 @@
         <v>300</v>
       </c>
       <c r="Q172" s="43" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="R172" s="50" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="W172" s="43" t="s">
         <v>527</v>
@@ -22164,13 +22164,13 @@
         <v>1</v>
       </c>
       <c r="G173" s="43" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="I173" s="43" t="s">
+        <v>1741</v>
+      </c>
+      <c r="J173" s="43" t="s">
         <v>1742</v>
-      </c>
-      <c r="J173" s="43" t="s">
-        <v>1743</v>
       </c>
       <c r="L173" s="43">
         <v>-28</v>
@@ -22188,10 +22188,10 @@
         <v>600</v>
       </c>
       <c r="Q173" s="43" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="R173" s="50" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="W173" s="43" t="s">
         <v>527</v>
@@ -22232,13 +22232,13 @@
         <v>1</v>
       </c>
       <c r="G174" s="43" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="I174" s="43" t="s">
+        <v>1743</v>
+      </c>
+      <c r="J174" s="43" t="s">
         <v>1744</v>
-      </c>
-      <c r="J174" s="43" t="s">
-        <v>1745</v>
       </c>
       <c r="L174" s="43">
         <v>-28</v>
@@ -22256,10 +22256,10 @@
         <v>600</v>
       </c>
       <c r="Q174" s="43" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="R174" s="50" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="W174" s="43" t="s">
         <v>527</v>
@@ -22300,13 +22300,13 @@
         <v>1</v>
       </c>
       <c r="G175" s="43" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="I175" s="43" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J175" s="43" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="L175" s="43">
         <v>-28</v>
@@ -22368,13 +22368,13 @@
         <v>1</v>
       </c>
       <c r="G176" s="43" t="s">
+        <v>1746</v>
+      </c>
+      <c r="I176" s="43" t="s">
         <v>1747</v>
       </c>
-      <c r="I176" s="43" t="s">
+      <c r="J176" s="43" t="s">
         <v>1748</v>
-      </c>
-      <c r="J176" s="43" t="s">
-        <v>1749</v>
       </c>
       <c r="L176" s="43">
         <v>-28</v>
@@ -22392,10 +22392,10 @@
         <v>1800</v>
       </c>
       <c r="Q176" s="43" t="s">
+        <v>1749</v>
+      </c>
+      <c r="R176" s="50" t="s">
         <v>1750</v>
-      </c>
-      <c r="R176" s="50" t="s">
-        <v>1751</v>
       </c>
       <c r="W176" s="43" t="s">
         <v>527</v>
@@ -22436,13 +22436,13 @@
         <v>1</v>
       </c>
       <c r="G177" s="43" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="I177" s="43" t="s">
+        <v>1751</v>
+      </c>
+      <c r="J177" s="43" t="s">
         <v>1752</v>
-      </c>
-      <c r="J177" s="43" t="s">
-        <v>1753</v>
       </c>
       <c r="L177" s="43">
         <v>-28</v>
@@ -22460,10 +22460,10 @@
         <v>1800</v>
       </c>
       <c r="Q177" s="43" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="R177" s="50" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="W177" s="43" t="s">
         <v>527</v>
@@ -22504,13 +22504,13 @@
         <v>1</v>
       </c>
       <c r="G178" s="43" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="I178" s="43" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J178" s="43" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="L178" s="43">
         <v>-28</v>
@@ -22531,7 +22531,7 @@
         <v>959</v>
       </c>
       <c r="R178" s="50" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="W178" s="43" t="s">
         <v>527</v>
@@ -22572,13 +22572,13 @@
         <v>1</v>
       </c>
       <c r="G179" s="43" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="I179" s="43" t="s">
+        <v>1756</v>
+      </c>
+      <c r="J179" s="43" t="s">
         <v>1757</v>
-      </c>
-      <c r="J179" s="43" t="s">
-        <v>1758</v>
       </c>
       <c r="L179" s="43">
         <v>-28</v>
@@ -22596,10 +22596,10 @@
         <v>9800</v>
       </c>
       <c r="Q179" s="43" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="R179" s="50" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="W179" s="43" t="s">
         <v>527</v>
@@ -22640,13 +22640,13 @@
         <v>1</v>
       </c>
       <c r="G180" s="43" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="I180" s="43" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="J180" s="43" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="L180" s="43">
         <v>-28</v>
@@ -22664,10 +22664,10 @@
         <v>4800</v>
       </c>
       <c r="Q180" s="43" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="R180" s="50" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="W180" s="43" t="s">
         <v>527</v>
@@ -22708,13 +22708,13 @@
         <v>1</v>
       </c>
       <c r="G181" s="43" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="I181" s="43" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="J181" s="43" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="L181" s="43">
         <v>-28</v>
@@ -22732,10 +22732,10 @@
         <v>9800</v>
       </c>
       <c r="Q181" s="43" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="R181" s="50" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="W181" s="43" t="s">
         <v>527</v>
@@ -22776,13 +22776,13 @@
         <v>1</v>
       </c>
       <c r="G182" s="43" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="I182" s="43" t="s">
+        <v>1761</v>
+      </c>
+      <c r="J182" s="43" t="s">
         <v>1762</v>
-      </c>
-      <c r="J182" s="43" t="s">
-        <v>1763</v>
       </c>
       <c r="L182" s="43">
         <v>-28</v>
@@ -22800,10 +22800,10 @@
         <v>19800</v>
       </c>
       <c r="Q182" s="43" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="R182" s="50" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="W182" s="43" t="s">
         <v>527</v>
@@ -22844,13 +22844,13 @@
         <v>1</v>
       </c>
       <c r="G183" s="43" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="I183" s="43" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="J183" s="43" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="L183" s="43">
         <v>-28</v>
@@ -22868,10 +22868,10 @@
         <v>9800</v>
       </c>
       <c r="Q183" s="43" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="R183" s="50" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="W183" s="43" t="s">
         <v>527</v>
@@ -22912,13 +22912,13 @@
         <v>1</v>
       </c>
       <c r="G184" s="43" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="I184" s="43" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="J184" s="43" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="L184" s="43">
         <v>-28</v>
@@ -22936,10 +22936,10 @@
         <v>19800</v>
       </c>
       <c r="Q184" s="43" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="R184" s="50" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="W184" s="43" t="s">
         <v>527</v>
@@ -22980,13 +22980,13 @@
         <v>1</v>
       </c>
       <c r="G185" s="43" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="I185" s="43" t="s">
+        <v>1766</v>
+      </c>
+      <c r="J185" s="43" t="s">
         <v>1767</v>
-      </c>
-      <c r="J185" s="43" t="s">
-        <v>1768</v>
       </c>
       <c r="L185" s="43">
         <v>-28</v>
@@ -23007,7 +23007,7 @@
         <v>959</v>
       </c>
       <c r="R185" s="50" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="W185" s="43" t="s">
         <v>527</v>
@@ -27467,7 +27467,7 @@
         <v>1</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="J254" s="5" t="s">
         <v>927</v>
@@ -27662,7 +27662,7 @@
         <v>0</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="J257" s="5" t="s">
         <v>862</v>
@@ -28185,7 +28185,7 @@
         <v>0</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="J265" s="5" t="s">
         <v>868</v>
@@ -28445,7 +28445,7 @@
         <v>0</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="J269" s="5" t="s">
         <v>870</v>
@@ -28711,7 +28711,7 @@
         <v>520</v>
       </c>
       <c r="H273" s="56" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="L273" s="51">
         <v>-10</v>
@@ -28732,7 +28732,7 @@
         <v>77</v>
       </c>
       <c r="R273" s="51" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="W273" s="51" t="s">
         <v>524</v>
@@ -28971,7 +28971,7 @@
         <v>0</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="J277" s="5" t="s">
         <v>874</v>
@@ -29036,7 +29036,7 @@
         <v>0</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="J278" s="5" t="s">
         <v>875</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="J279" s="5" t="s">
         <v>876</v>
@@ -29166,7 +29166,7 @@
         <v>0</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="J280" s="5" t="s">
         <v>873</v>
@@ -31413,10 +31413,10 @@
         <v>0</v>
       </c>
       <c r="G316" s="5" t="s">
+        <v>1862</v>
+      </c>
+      <c r="J316" s="5" t="s">
         <v>1863</v>
-      </c>
-      <c r="J316" s="5" t="s">
-        <v>1864</v>
       </c>
       <c r="L316" s="5">
         <v>-31</v>
@@ -31475,10 +31475,10 @@
         <v>0</v>
       </c>
       <c r="G317" s="5" t="s">
+        <v>1864</v>
+      </c>
+      <c r="J317" s="5" t="s">
         <v>1865</v>
-      </c>
-      <c r="J317" s="5" t="s">
-        <v>1866</v>
       </c>
       <c r="L317" s="5">
         <v>-31</v>
@@ -31537,10 +31537,10 @@
         <v>0</v>
       </c>
       <c r="G318" s="5" t="s">
+        <v>1866</v>
+      </c>
+      <c r="J318" s="5" t="s">
         <v>1867</v>
-      </c>
-      <c r="J318" s="5" t="s">
-        <v>1868</v>
       </c>
       <c r="L318" s="5">
         <v>-31</v>
@@ -31655,10 +31655,10 @@
         <v>1</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J320" s="5" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="L320" s="5">
         <v>-25</v>
@@ -31711,7 +31711,7 @@
         <v>1</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J321" s="5" t="s">
         <v>900</v>
@@ -31773,7 +31773,7 @@
         <v>1</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J322" s="5" t="s">
         <v>617</v>
@@ -31835,10 +31835,10 @@
         <v>1</v>
       </c>
       <c r="G323" s="43" t="s">
+        <v>1717</v>
+      </c>
+      <c r="J323" s="43" t="s">
         <v>1718</v>
-      </c>
-      <c r="J323" s="43" t="s">
-        <v>1719</v>
       </c>
       <c r="L323" s="43">
         <v>-28</v>
@@ -31859,10 +31859,10 @@
         <v>959</v>
       </c>
       <c r="R323" s="50" t="s">
+        <v>1719</v>
+      </c>
+      <c r="W323" s="43" t="s">
         <v>1720</v>
-      </c>
-      <c r="W323" s="43" t="s">
-        <v>1721</v>
       </c>
       <c r="X323" s="43">
         <v>9999999</v>
@@ -31900,10 +31900,10 @@
         <v>1</v>
       </c>
       <c r="G324" s="43" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="J324" s="43" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="L324" s="43">
         <v>-28</v>
@@ -31921,10 +31921,10 @@
         <v>4800</v>
       </c>
       <c r="Q324" s="43" t="s">
+        <v>1724</v>
+      </c>
+      <c r="R324" s="50" t="s">
         <v>1725</v>
-      </c>
-      <c r="R324" s="50" t="s">
-        <v>1726</v>
       </c>
       <c r="W324" s="43" t="s">
         <v>527</v>
@@ -31965,10 +31965,10 @@
         <v>1</v>
       </c>
       <c r="G325" s="43" t="s">
+        <v>1726</v>
+      </c>
+      <c r="J325" s="43" t="s">
         <v>1727</v>
-      </c>
-      <c r="J325" s="43" t="s">
-        <v>1728</v>
       </c>
       <c r="L325" s="43">
         <v>-28</v>
@@ -31989,7 +31989,7 @@
         <v>959</v>
       </c>
       <c r="R325" s="50" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="W325" s="43" t="s">
         <v>527</v>
@@ -32030,7 +32030,7 @@
         <v>1</v>
       </c>
       <c r="G326" s="40" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="J326" s="40" t="s">
         <v>963</v>
@@ -32089,7 +32089,7 @@
         <v>1</v>
       </c>
       <c r="G327" s="43" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J327" s="43" t="s">
         <v>982</v>
@@ -32159,7 +32159,7 @@
       <c r="H328" s="43"/>
       <c r="I328" s="43"/>
       <c r="J328" s="43" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="K328" s="43"/>
       <c r="L328" s="43">
@@ -32172,13 +32172,13 @@
         <v>0</v>
       </c>
       <c r="O328" s="43" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="P328" s="43">
         <v>600</v>
       </c>
       <c r="Q328" s="43" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="R328" s="50" t="s">
         <v>983</v>
@@ -32188,7 +32188,7 @@
       <c r="U328" s="43"/>
       <c r="V328" s="43"/>
       <c r="W328" s="43" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="X328" s="43">
         <v>99999999</v>
@@ -32242,7 +32242,7 @@
       <c r="H329" s="43"/>
       <c r="I329" s="43"/>
       <c r="J329" s="43" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="K329" s="43"/>
       <c r="L329" s="43">
@@ -32255,23 +32255,23 @@
         <v>0</v>
       </c>
       <c r="O329" s="43" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="P329" s="43">
         <v>2800</v>
       </c>
       <c r="Q329" s="43" t="s">
+        <v>1630</v>
+      </c>
+      <c r="R329" s="50" t="s">
         <v>1631</v>
-      </c>
-      <c r="R329" s="50" t="s">
-        <v>1632</v>
       </c>
       <c r="S329" s="43"/>
       <c r="T329" s="43"/>
       <c r="U329" s="43"/>
       <c r="V329" s="43"/>
       <c r="W329" s="43" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="X329" s="43">
         <v>99999999</v>
@@ -32325,7 +32325,7 @@
       <c r="H330" s="43"/>
       <c r="I330" s="43"/>
       <c r="J330" s="43" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="K330" s="43"/>
       <c r="L330" s="43">
@@ -32338,23 +32338,23 @@
         <v>0</v>
       </c>
       <c r="O330" s="43" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="P330" s="43">
         <v>4800</v>
       </c>
       <c r="Q330" s="43" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="R330" s="50" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="S330" s="43"/>
       <c r="T330" s="43"/>
       <c r="U330" s="43"/>
       <c r="V330" s="43"/>
       <c r="W330" s="43" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="X330" s="43">
         <v>99999999</v>
@@ -32408,7 +32408,7 @@
       <c r="H331" s="43"/>
       <c r="I331" s="43"/>
       <c r="J331" s="43" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="K331" s="43"/>
       <c r="L331" s="43">
@@ -32427,17 +32427,17 @@
         <v>9900</v>
       </c>
       <c r="Q331" s="43" t="s">
+        <v>1635</v>
+      </c>
+      <c r="R331" s="50" t="s">
         <v>1636</v>
-      </c>
-      <c r="R331" s="50" t="s">
-        <v>1637</v>
       </c>
       <c r="S331" s="43"/>
       <c r="T331" s="43"/>
       <c r="U331" s="43"/>
       <c r="V331" s="43"/>
       <c r="W331" s="43" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="X331" s="43">
         <v>99999999</v>
@@ -32491,7 +32491,7 @@
       <c r="H332" s="43"/>
       <c r="I332" s="43"/>
       <c r="J332" s="43" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="K332" s="43"/>
       <c r="L332" s="43">
@@ -32504,23 +32504,23 @@
         <v>0</v>
       </c>
       <c r="O332" s="43" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="P332" s="43">
         <v>19800</v>
       </c>
       <c r="Q332" s="43" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="R332" s="50" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="S332" s="43"/>
       <c r="T332" s="43"/>
       <c r="U332" s="43"/>
       <c r="V332" s="43"/>
       <c r="W332" s="43" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="X332" s="43">
         <v>99999999</v>
@@ -32574,7 +32574,7 @@
       <c r="H333" s="43"/>
       <c r="I333" s="43"/>
       <c r="J333" s="43" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="K333" s="43"/>
       <c r="L333" s="43">
@@ -32593,17 +32593,17 @@
         <v>29800</v>
       </c>
       <c r="Q333" s="43" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="R333" s="50" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="S333" s="43"/>
       <c r="T333" s="43"/>
       <c r="U333" s="43"/>
       <c r="V333" s="43"/>
       <c r="W333" s="43" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="X333" s="43">
         <v>99999999</v>
@@ -32657,7 +32657,7 @@
       <c r="H334" s="43"/>
       <c r="I334" s="43"/>
       <c r="J334" s="43" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="K334" s="43"/>
       <c r="L334" s="43">
@@ -32670,23 +32670,23 @@
         <v>0</v>
       </c>
       <c r="O334" s="43" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="P334" s="43">
         <v>39800</v>
       </c>
       <c r="Q334" s="43" t="s">
+        <v>1644</v>
+      </c>
+      <c r="R334" s="50" t="s">
         <v>1645</v>
-      </c>
-      <c r="R334" s="50" t="s">
-        <v>1646</v>
       </c>
       <c r="S334" s="43"/>
       <c r="T334" s="43"/>
       <c r="U334" s="43"/>
       <c r="V334" s="43"/>
       <c r="W334" s="43" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="X334" s="43">
         <v>99999999</v>
@@ -32740,7 +32740,7 @@
       <c r="H335" s="43"/>
       <c r="I335" s="43"/>
       <c r="J335" s="43" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="K335" s="43"/>
       <c r="L335" s="43">
@@ -32753,23 +32753,23 @@
         <v>0</v>
       </c>
       <c r="O335" s="43" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="P335" s="43">
         <v>49800</v>
       </c>
       <c r="Q335" s="43" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="R335" s="50" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="S335" s="43"/>
       <c r="T335" s="43"/>
       <c r="U335" s="43"/>
       <c r="V335" s="43"/>
       <c r="W335" s="43" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="X335" s="43">
         <v>99999999</v>
@@ -32823,7 +32823,7 @@
       <c r="H336" s="43"/>
       <c r="I336" s="43"/>
       <c r="J336" s="43" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="K336" s="43"/>
       <c r="L336" s="43">
@@ -32836,23 +32836,23 @@
         <v>0</v>
       </c>
       <c r="O336" s="43" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="P336" s="43">
         <v>59800</v>
       </c>
       <c r="Q336" s="43" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="R336" s="50" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="S336" s="43"/>
       <c r="T336" s="43"/>
       <c r="U336" s="43"/>
       <c r="V336" s="43"/>
       <c r="W336" s="43" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="X336" s="43">
         <v>99999999</v>
@@ -32906,7 +32906,7 @@
       <c r="H337" s="43"/>
       <c r="I337" s="43"/>
       <c r="J337" s="43" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="K337" s="43"/>
       <c r="L337" s="43">
@@ -32919,23 +32919,23 @@
         <v>0</v>
       </c>
       <c r="O337" s="43" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="P337" s="43">
         <v>69800</v>
       </c>
       <c r="Q337" s="43" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="R337" s="50" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="S337" s="43"/>
       <c r="T337" s="43"/>
       <c r="U337" s="43"/>
       <c r="V337" s="43"/>
       <c r="W337" s="43" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="X337" s="43">
         <v>99999999</v>
@@ -32981,7 +32981,7 @@
         <v>1</v>
       </c>
       <c r="G338" s="19" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="J338" s="19" t="s">
         <v>1001</v>
@@ -33137,7 +33137,7 @@
         <v>1</v>
       </c>
       <c r="G340" s="19" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19"/>
@@ -33219,12 +33219,12 @@
         <v>1</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H341" s="6"/>
       <c r="I341" s="6"/>
       <c r="J341" s="5" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="L341" s="5">
         <v>-31</v>
@@ -33236,19 +33236,19 @@
         <v>0</v>
       </c>
       <c r="O341" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="P341" s="5">
         <v>600</v>
       </c>
       <c r="Q341" s="5" t="s">
+        <v>1153</v>
+      </c>
+      <c r="R341" s="10" t="s">
         <v>1154</v>
       </c>
-      <c r="R341" s="10" t="s">
+      <c r="W341" s="5" t="s">
         <v>1155</v>
-      </c>
-      <c r="W341" s="5" t="s">
-        <v>1156</v>
       </c>
       <c r="X341" s="5">
         <v>9999999</v>
@@ -33263,10 +33263,10 @@
         <v>26</v>
       </c>
       <c r="AB341" s="5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AC341" s="5" t="s">
         <v>1157</v>
-      </c>
-      <c r="AC341" s="5" t="s">
-        <v>1158</v>
       </c>
       <c r="AH341" s="5">
         <v>1</v>
@@ -33292,10 +33292,10 @@
         <v>1</v>
       </c>
       <c r="G342" s="6" t="s">
+        <v>1158</v>
+      </c>
+      <c r="J342" s="5" t="s">
         <v>1159</v>
-      </c>
-      <c r="J342" s="5" t="s">
-        <v>1160</v>
       </c>
       <c r="L342" s="5">
         <v>-31</v>
@@ -33307,19 +33307,19 @@
         <v>0</v>
       </c>
       <c r="O342" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="P342" s="5">
         <v>600</v>
       </c>
       <c r="Q342" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="R342" s="10" t="s">
         <v>1078</v>
       </c>
       <c r="W342" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="X342" s="5">
         <v>9999999</v>
@@ -33334,10 +33334,10 @@
         <v>27</v>
       </c>
       <c r="AB342" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AC342" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="AH342" s="5">
         <v>1</v>
@@ -33363,10 +33363,10 @@
         <v>1</v>
       </c>
       <c r="G343" s="6" t="s">
+        <v>1161</v>
+      </c>
+      <c r="J343" s="5" t="s">
         <v>1162</v>
-      </c>
-      <c r="J343" s="5" t="s">
-        <v>1163</v>
       </c>
       <c r="L343" s="5">
         <v>-31</v>
@@ -33378,19 +33378,19 @@
         <v>0</v>
       </c>
       <c r="O343" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="P343" s="5">
         <v>600</v>
       </c>
       <c r="Q343" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="R343" s="10" t="s">
         <v>1079</v>
       </c>
       <c r="W343" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="X343" s="5">
         <v>9999999</v>
@@ -33405,10 +33405,10 @@
         <v>28</v>
       </c>
       <c r="AB343" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AC343" s="5" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AH343" s="5">
         <v>1</v>
@@ -33434,10 +33434,10 @@
         <v>1</v>
       </c>
       <c r="G344" s="6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="J344" s="5" t="s">
         <v>1165</v>
-      </c>
-      <c r="J344" s="5" t="s">
-        <v>1166</v>
       </c>
       <c r="L344" s="5">
         <v>-31</v>
@@ -33449,19 +33449,19 @@
         <v>0</v>
       </c>
       <c r="O344" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="P344" s="5">
         <v>4800</v>
       </c>
       <c r="Q344" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="R344" s="10" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="W344" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="X344" s="5">
         <v>9999999</v>
@@ -33476,10 +33476,10 @@
         <v>29</v>
       </c>
       <c r="AB344" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AC344" s="5" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="AH344" s="5">
         <v>1</v>
@@ -33508,7 +33508,7 @@
         <v>1080</v>
       </c>
       <c r="J345" s="5" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="L345" s="5">
         <v>-31</v>
@@ -33520,19 +33520,19 @@
         <v>0</v>
       </c>
       <c r="O345" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="P345" s="5">
         <v>4800</v>
       </c>
       <c r="Q345" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="R345" s="10" t="s">
         <v>1081</v>
       </c>
       <c r="W345" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="X345" s="5">
         <v>9999999</v>
@@ -33547,10 +33547,10 @@
         <v>30</v>
       </c>
       <c r="AB345" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AC345" s="5" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AH345" s="5">
         <v>1</v>
@@ -33579,7 +33579,7 @@
         <v>1082</v>
       </c>
       <c r="J346" s="5" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="L346" s="5">
         <v>-31</v>
@@ -33591,19 +33591,19 @@
         <v>0</v>
       </c>
       <c r="O346" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="P346" s="5">
         <v>4800</v>
       </c>
       <c r="Q346" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="R346" s="10" t="s">
         <v>1083</v>
       </c>
       <c r="W346" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="X346" s="5">
         <v>9999999</v>
@@ -33618,10 +33618,10 @@
         <v>31</v>
       </c>
       <c r="AB346" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AC346" s="5" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="AH346" s="5">
         <v>1</v>
@@ -33650,7 +33650,7 @@
         <v>1084</v>
       </c>
       <c r="J347" s="5" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="L347" s="5">
         <v>-31</v>
@@ -33662,19 +33662,19 @@
         <v>0</v>
       </c>
       <c r="O347" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="P347" s="5">
         <v>9800</v>
       </c>
       <c r="Q347" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="R347" s="10" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="W347" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="X347" s="5">
         <v>9999999</v>
@@ -33689,10 +33689,10 @@
         <v>32</v>
       </c>
       <c r="AB347" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AC347" s="5" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="AH347" s="5">
         <v>1</v>
@@ -33721,7 +33721,7 @@
         <v>1085</v>
       </c>
       <c r="J348" s="5" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="L348" s="5">
         <v>-31</v>
@@ -33733,19 +33733,19 @@
         <v>0</v>
       </c>
       <c r="O348" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="P348" s="5">
         <v>9800</v>
       </c>
       <c r="Q348" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="R348" s="10" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="W348" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="X348" s="5">
         <v>9999999</v>
@@ -33760,10 +33760,10 @@
         <v>33</v>
       </c>
       <c r="AB348" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AC348" s="5" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="AH348" s="5">
         <v>1</v>
@@ -33792,7 +33792,7 @@
         <v>1086</v>
       </c>
       <c r="J349" s="5" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="L349" s="5">
         <v>-31</v>
@@ -33810,13 +33810,13 @@
         <v>9800</v>
       </c>
       <c r="Q349" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="R349" s="10" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="W349" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="X349" s="5">
         <v>9999999</v>
@@ -33831,7 +33831,7 @@
         <v>34</v>
       </c>
       <c r="AB349" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AC349" s="5" t="s">
         <v>1087</v>
@@ -33863,7 +33863,7 @@
         <v>1088</v>
       </c>
       <c r="J350" s="5" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="L350" s="5">
         <v>-31</v>
@@ -33884,10 +33884,10 @@
         <v>958</v>
       </c>
       <c r="R350" s="10" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="W350" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="X350" s="5">
         <v>9999999</v>
@@ -33905,7 +33905,7 @@
         <v>445</v>
       </c>
       <c r="AC350" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="AH350" s="5">
         <v>1</v>
@@ -33934,7 +33934,7 @@
         <v>1089</v>
       </c>
       <c r="J351" s="5" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="L351" s="5">
         <v>-31</v>
@@ -33946,7 +33946,7 @@
         <v>0</v>
       </c>
       <c r="O351" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="P351" s="5">
         <v>19800</v>
@@ -33958,7 +33958,7 @@
         <v>1090</v>
       </c>
       <c r="W351" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="X351" s="5">
         <v>9999999</v>
@@ -33976,7 +33976,7 @@
         <v>445</v>
       </c>
       <c r="AC351" s="5" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AH351" s="5">
         <v>1</v>
@@ -34026,7 +34026,7 @@
         <v>958</v>
       </c>
       <c r="R352" s="10" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="W352" s="5" t="s">
         <v>566</v>
@@ -34044,7 +34044,7 @@
         <v>37</v>
       </c>
       <c r="AB352" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AC352" s="5" t="s">
         <v>1093</v>
@@ -34073,13 +34073,13 @@
         <v>0</v>
       </c>
       <c r="G353" s="5" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I353" s="5" t="s">
         <v>1095</v>
       </c>
       <c r="J353" s="5" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="L353" s="5">
         <v>-31</v>
@@ -34097,13 +34097,13 @@
         <v>600</v>
       </c>
       <c r="Q353" s="5" t="s">
+        <v>1187</v>
+      </c>
+      <c r="R353" s="10" t="s">
         <v>1188</v>
       </c>
-      <c r="R353" s="10" t="s">
+      <c r="W353" s="5" t="s">
         <v>1189</v>
-      </c>
-      <c r="W353" s="5" t="s">
-        <v>1190</v>
       </c>
       <c r="X353" s="5">
         <v>9999999</v>
@@ -34141,13 +34141,13 @@
         <v>0</v>
       </c>
       <c r="G354" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="I354" s="5" t="s">
         <v>1095</v>
       </c>
       <c r="J354" s="5" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="L354" s="5">
         <v>-31</v>
@@ -34159,7 +34159,7 @@
         <v>0</v>
       </c>
       <c r="O354" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="P354" s="5">
         <v>1200</v>
@@ -34168,10 +34168,10 @@
         <v>1098</v>
       </c>
       <c r="R354" s="10" t="s">
+        <v>1188</v>
+      </c>
+      <c r="W354" s="5" t="s">
         <v>1189</v>
-      </c>
-      <c r="W354" s="5" t="s">
-        <v>1190</v>
       </c>
       <c r="X354" s="5">
         <v>9999999</v>
@@ -34209,13 +34209,13 @@
         <v>0</v>
       </c>
       <c r="G355" s="5" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I355" s="5" t="s">
         <v>1192</v>
       </c>
-      <c r="I355" s="5" t="s">
-        <v>1193</v>
-      </c>
       <c r="J355" s="5" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="L355" s="5">
         <v>-31</v>
@@ -34227,7 +34227,7 @@
         <v>0</v>
       </c>
       <c r="O355" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="P355" s="5">
         <v>1800</v>
@@ -34283,7 +34283,7 @@
         <v>1101</v>
       </c>
       <c r="J356" s="5" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="L356" s="5">
         <v>-31</v>
@@ -34345,13 +34345,13 @@
         <v>0</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="I357" s="5" t="s">
         <v>1101</v>
       </c>
       <c r="J357" s="5" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="L357" s="5">
         <v>-31</v>
@@ -34363,7 +34363,7 @@
         <v>0</v>
       </c>
       <c r="O357" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="P357" s="5">
         <v>9800</v>
@@ -34419,7 +34419,7 @@
         <v>1101</v>
       </c>
       <c r="J358" s="5" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="L358" s="5">
         <v>-31</v>
@@ -34431,7 +34431,7 @@
         <v>0</v>
       </c>
       <c r="O358" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="P358" s="5">
         <v>19800</v>
@@ -34487,7 +34487,7 @@
         <v>1106</v>
       </c>
       <c r="J359" s="5" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="L359" s="5">
         <v>-31</v>
@@ -34499,7 +34499,7 @@
         <v>0</v>
       </c>
       <c r="O359" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="P359" s="5">
         <v>9800</v>
@@ -34555,7 +34555,7 @@
         <v>1106</v>
       </c>
       <c r="J360" s="5" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="L360" s="5">
         <v>-31</v>
@@ -34567,7 +34567,7 @@
         <v>0</v>
       </c>
       <c r="O360" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="P360" s="5">
         <v>19800</v>
@@ -34623,7 +34623,7 @@
         <v>1106</v>
       </c>
       <c r="J361" s="5" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="L361" s="5">
         <v>-31</v>
@@ -34635,7 +34635,7 @@
         <v>0</v>
       </c>
       <c r="O361" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="P361" s="5">
         <v>49800</v>
@@ -34647,7 +34647,7 @@
         <v>271</v>
       </c>
       <c r="W361" s="5" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="X361" s="5">
         <v>9999999</v>
@@ -34685,13 +34685,13 @@
         <v>0</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I362" s="5" t="s">
         <v>1095</v>
       </c>
       <c r="J362" s="5" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="L362" s="5">
         <v>-31</v>
@@ -34712,7 +34712,7 @@
         <v>1100</v>
       </c>
       <c r="R362" s="10" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="W362" s="5" t="s">
         <v>566</v>
@@ -34730,7 +34730,7 @@
         <v>38</v>
       </c>
       <c r="AB362" s="5" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="AC362" s="5" t="s">
         <v>1111</v>
@@ -34759,13 +34759,13 @@
         <v>0</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I363" s="5" t="s">
         <v>1112</v>
       </c>
       <c r="J363" s="5" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="L363" s="5">
         <v>-31</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="O363" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="P363" s="5">
         <v>19800</v>
@@ -34789,7 +34789,7 @@
         <v>271</v>
       </c>
       <c r="W363" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="X363" s="5">
         <v>9999999</v>
@@ -34804,7 +34804,7 @@
         <v>39</v>
       </c>
       <c r="AB363" s="5" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="AC363" s="5" t="s">
         <v>1113</v>
@@ -34833,13 +34833,13 @@
         <v>0</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I364" s="5" t="s">
         <v>1106</v>
       </c>
       <c r="J364" s="5" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="L364" s="5">
         <v>-31</v>
@@ -34851,7 +34851,7 @@
         <v>0</v>
       </c>
       <c r="O364" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="P364" s="5">
         <v>49800</v>
@@ -34863,7 +34863,7 @@
         <v>271</v>
       </c>
       <c r="W364" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="X364" s="5">
         <v>9999999</v>
@@ -34881,7 +34881,7 @@
         <v>1110</v>
       </c>
       <c r="AC364" s="5" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="AH364" s="5">
         <v>1</v>
@@ -34907,7 +34907,7 @@
         <v>1</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="J365" s="5" t="s">
         <v>1114</v>
@@ -34922,16 +34922,16 @@
         <v>0</v>
       </c>
       <c r="O365" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="P365" s="5">
         <v>131400</v>
       </c>
       <c r="Q365" s="5" t="s">
+        <v>1197</v>
+      </c>
+      <c r="R365" s="10" t="s">
         <v>1198</v>
-      </c>
-      <c r="R365" s="10" t="s">
-        <v>1199</v>
       </c>
       <c r="W365" s="5" t="s">
         <v>566</v>
@@ -34972,10 +34972,10 @@
         <v>1</v>
       </c>
       <c r="G366" s="5" t="s">
+        <v>1199</v>
+      </c>
+      <c r="J366" s="5" t="s">
         <v>1200</v>
-      </c>
-      <c r="J366" s="5" t="s">
-        <v>1201</v>
       </c>
       <c r="L366" s="5">
         <v>-31</v>
@@ -34987,7 +34987,7 @@
         <v>0</v>
       </c>
       <c r="O366" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="P366" s="5">
         <v>52000</v>
@@ -34996,7 +34996,7 @@
         <v>1115</v>
       </c>
       <c r="R366" s="10" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="W366" s="5" t="s">
         <v>566</v>
@@ -35037,7 +35037,7 @@
         <v>1</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="J367" s="5" t="s">
         <v>1116</v>
@@ -35052,7 +35052,7 @@
         <v>0</v>
       </c>
       <c r="O367" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="P367" s="5">
         <v>25800</v>
@@ -35061,10 +35061,10 @@
         <v>1115</v>
       </c>
       <c r="R367" s="10" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="W367" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="X367" s="5">
         <v>9999999</v>
@@ -35102,7 +35102,7 @@
         <v>1</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="J368" s="5" t="s">
         <v>1117</v>
@@ -35117,16 +35117,16 @@
         <v>0</v>
       </c>
       <c r="O368" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="P368" s="5">
         <v>14700</v>
       </c>
       <c r="Q368" s="5" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="R368" s="10" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="W368" s="5" t="s">
         <v>566</v>
@@ -35167,7 +35167,7 @@
         <v>1</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="J369" s="5" t="s">
         <v>1118</v>
@@ -35194,7 +35194,7 @@
         <v>1119</v>
       </c>
       <c r="W369" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="X369" s="5">
         <v>9999999</v>
@@ -35235,7 +35235,7 @@
         <v>1120</v>
       </c>
       <c r="J370" s="5" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="L370" s="5">
         <v>-31</v>
@@ -35253,7 +35253,7 @@
         <v>1800</v>
       </c>
       <c r="Q370" s="5" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="R370" s="10" t="s">
         <v>725</v>
@@ -35294,7 +35294,7 @@
         <v>1</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="J371" s="5" t="s">
         <v>1121</v>
@@ -35315,10 +35315,10 @@
         <v>4800</v>
       </c>
       <c r="Q371" s="5" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="R371" s="10" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="W371" s="5" t="s">
         <v>593</v>
@@ -35359,7 +35359,7 @@
         <v>1122</v>
       </c>
       <c r="J372" s="5" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="L372" s="5">
         <v>-31</v>
@@ -35377,7 +35377,7 @@
         <v>9800</v>
       </c>
       <c r="Q372" s="5" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="R372" s="10" t="s">
         <v>729</v>
@@ -35421,7 +35421,7 @@
         <v>1123</v>
       </c>
       <c r="J373" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="L373" s="5">
         <v>-31</v>
@@ -35439,13 +35439,13 @@
         <v>19800</v>
       </c>
       <c r="Q373" s="5" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="R373" s="10" t="s">
         <v>730</v>
       </c>
       <c r="W373" s="5" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="X373" s="5">
         <v>9999999</v>
@@ -35498,7 +35498,7 @@
         <v>0</v>
       </c>
       <c r="O374" s="5" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="P374" s="5">
         <v>600</v>
@@ -35507,7 +35507,7 @@
         <v>523</v>
       </c>
       <c r="R374" s="10" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="W374" s="5" t="s">
         <v>566</v>
@@ -35548,13 +35548,13 @@
         <v>1</v>
       </c>
       <c r="G375" s="5" t="s">
+        <v>1230</v>
+      </c>
+      <c r="I375" s="5" t="s">
         <v>1231</v>
       </c>
-      <c r="I375" s="5" t="s">
+      <c r="J375" s="5" t="s">
         <v>1232</v>
-      </c>
-      <c r="J375" s="5" t="s">
-        <v>1233</v>
       </c>
       <c r="L375" s="5">
         <v>-31</v>
@@ -35566,19 +35566,19 @@
         <v>0</v>
       </c>
       <c r="O375" s="5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="P375" s="5">
         <v>300</v>
       </c>
       <c r="Q375" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="R375" s="10" t="s">
         <v>1235</v>
       </c>
-      <c r="R375" s="10" t="s">
+      <c r="W375" s="5" t="s">
         <v>1236</v>
-      </c>
-      <c r="W375" s="5" t="s">
-        <v>1237</v>
       </c>
       <c r="X375" s="5">
         <v>9999999</v>
@@ -35616,13 +35616,13 @@
         <v>1</v>
       </c>
       <c r="G376" s="5" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="I376" s="5" t="s">
+        <v>1240</v>
+      </c>
+      <c r="J376" s="5" t="s">
         <v>1241</v>
-      </c>
-      <c r="J376" s="5" t="s">
-        <v>1242</v>
       </c>
       <c r="L376" s="5">
         <v>-31</v>
@@ -35634,19 +35634,19 @@
         <v>0</v>
       </c>
       <c r="O376" s="5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="P376" s="5">
         <v>0</v>
       </c>
       <c r="Q376" s="5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="R376" s="10" t="s">
         <v>1244</v>
       </c>
-      <c r="R376" s="10" t="s">
+      <c r="W376" s="5" t="s">
         <v>1245</v>
-      </c>
-      <c r="W376" s="5" t="s">
-        <v>1246</v>
       </c>
       <c r="X376" s="5">
         <v>9999999</v>
@@ -35684,10 +35684,10 @@
         <v>1</v>
       </c>
       <c r="G377" s="5" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="I377" s="5" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="J377" s="5" t="s">
         <v>966</v>
@@ -35702,19 +35702,19 @@
         <v>0</v>
       </c>
       <c r="O377" s="5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="P377" s="5">
         <v>300</v>
       </c>
       <c r="Q377" s="5" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="R377" s="10" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="W377" s="5" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="X377" s="5">
         <v>9999999</v>
@@ -35752,13 +35752,13 @@
         <v>1</v>
       </c>
       <c r="G378" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="I378" s="5" t="s">
         <v>1239</v>
       </c>
-      <c r="I378" s="5" t="s">
-        <v>1240</v>
-      </c>
       <c r="J378" s="5" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="L378" s="5">
         <v>-31</v>
@@ -35776,13 +35776,13 @@
         <v>600</v>
       </c>
       <c r="Q378" s="5" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="R378" s="10" t="s">
+        <v>1248</v>
+      </c>
+      <c r="W378" s="5" t="s">
         <v>1249</v>
-      </c>
-      <c r="W378" s="5" t="s">
-        <v>1250</v>
       </c>
       <c r="X378" s="5">
         <v>9999999</v>
@@ -35820,10 +35820,10 @@
         <v>1</v>
       </c>
       <c r="G379" s="5" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="I379" s="5" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="J379" s="5" t="s">
         <v>875</v>
@@ -35838,19 +35838,19 @@
         <v>0</v>
       </c>
       <c r="O379" s="5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="P379" s="5">
         <v>1800</v>
       </c>
       <c r="Q379" s="5" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="R379" s="10" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="W379" s="5" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="X379" s="5">
         <v>9999999</v>
@@ -35888,10 +35888,10 @@
         <v>1</v>
       </c>
       <c r="G380" s="5" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="I380" s="5" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="J380" s="5" t="s">
         <v>876</v>
@@ -35906,19 +35906,19 @@
         <v>0</v>
       </c>
       <c r="O380" s="5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="P380" s="5">
         <v>4800</v>
       </c>
       <c r="Q380" s="5" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="R380" s="10" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="W380" s="5" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="X380" s="5">
         <v>9999999</v>
@@ -35956,13 +35956,13 @@
         <v>1</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="I381" s="5" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="J381" s="5" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="L381" s="5">
         <v>-31</v>
@@ -35980,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="Q381" s="5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="R381" s="10" t="s">
         <v>1244</v>
-      </c>
-      <c r="R381" s="10" t="s">
-        <v>1245</v>
       </c>
       <c r="W381" s="5" t="s">
         <v>568</v>
@@ -36024,13 +36024,13 @@
         <v>1</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="J382" s="5" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="L382" s="5">
         <v>-31</v>
@@ -36048,13 +36048,13 @@
         <v>1800</v>
       </c>
       <c r="Q382" s="5" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="R382" s="10" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="W382" s="5" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="X382" s="5">
         <v>9999999</v>
@@ -36092,13 +36092,13 @@
         <v>1</v>
       </c>
       <c r="G383" s="5" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="I383" s="5" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="J383" s="5" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="L383" s="5">
         <v>-31</v>
@@ -36116,10 +36116,10 @@
         <v>4800</v>
       </c>
       <c r="Q383" s="5" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="R383" s="10" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="W383" s="5" t="s">
         <v>534</v>
@@ -36160,13 +36160,13 @@
         <v>1</v>
       </c>
       <c r="G384" s="5" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="I384" s="5" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="J384" s="5" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L384" s="5">
         <v>-31</v>
@@ -36178,13 +36178,13 @@
         <v>0</v>
       </c>
       <c r="O384" s="5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="P384" s="5">
         <v>9800</v>
       </c>
       <c r="Q384" s="5" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="R384" s="10" t="s">
         <v>729</v>
@@ -36228,13 +36228,13 @@
         <v>1</v>
       </c>
       <c r="G385" s="5" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="J385" s="5" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="L385" s="5">
         <v>-31</v>
@@ -36246,19 +36246,19 @@
         <v>0</v>
       </c>
       <c r="O385" s="5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="P385" s="5">
         <v>19800</v>
       </c>
       <c r="Q385" s="5" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="R385" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="W385" s="5" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="X385" s="5">
         <v>9999999</v>
@@ -36296,14 +36296,14 @@
         <v>1</v>
       </c>
       <c r="G386" s="19" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H386" s="47"/>
       <c r="I386" s="19" t="s">
+        <v>1264</v>
+      </c>
+      <c r="J386" s="19" t="s">
         <v>1265</v>
-      </c>
-      <c r="J386" s="19" t="s">
-        <v>1266</v>
       </c>
       <c r="L386" s="19">
         <v>-31</v>
@@ -36321,10 +36321,10 @@
         <v>1800</v>
       </c>
       <c r="Q386" s="19" t="s">
+        <v>1266</v>
+      </c>
+      <c r="R386" s="39" t="s">
         <v>1267</v>
-      </c>
-      <c r="R386" s="39" t="s">
-        <v>1268</v>
       </c>
       <c r="W386" s="19" t="s">
         <v>534</v>
@@ -36365,14 +36365,14 @@
         <v>1</v>
       </c>
       <c r="G387" s="19" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H387" s="47"/>
       <c r="I387" s="19" t="s">
+        <v>1269</v>
+      </c>
+      <c r="J387" s="19" t="s">
         <v>1270</v>
-      </c>
-      <c r="J387" s="19" t="s">
-        <v>1271</v>
       </c>
       <c r="L387" s="19">
         <v>-31</v>
@@ -36384,16 +36384,16 @@
         <v>0</v>
       </c>
       <c r="O387" s="19" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="P387" s="19">
         <v>3000</v>
       </c>
       <c r="Q387" s="19" t="s">
+        <v>1272</v>
+      </c>
+      <c r="R387" s="39" t="s">
         <v>1273</v>
-      </c>
-      <c r="R387" s="39" t="s">
-        <v>1274</v>
       </c>
       <c r="W387" s="19" t="s">
         <v>534</v>
@@ -36434,14 +36434,14 @@
         <v>1</v>
       </c>
       <c r="G388" s="19" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H388" s="47"/>
       <c r="I388" s="19" t="s">
+        <v>1275</v>
+      </c>
+      <c r="J388" s="19" t="s">
         <v>1276</v>
-      </c>
-      <c r="J388" s="19" t="s">
-        <v>1277</v>
       </c>
       <c r="L388" s="19">
         <v>-31</v>
@@ -36453,19 +36453,19 @@
         <v>0</v>
       </c>
       <c r="O388" s="19" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="P388" s="19">
         <v>4800</v>
       </c>
       <c r="Q388" s="19" t="s">
+        <v>1278</v>
+      </c>
+      <c r="R388" s="39" t="s">
         <v>1279</v>
       </c>
-      <c r="R388" s="39" t="s">
+      <c r="W388" s="19" t="s">
         <v>1280</v>
-      </c>
-      <c r="W388" s="19" t="s">
-        <v>1281</v>
       </c>
       <c r="X388" s="19">
         <v>9999999</v>
@@ -36503,14 +36503,14 @@
         <v>1</v>
       </c>
       <c r="G389" s="19" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H389" s="49"/>
       <c r="I389" s="19" t="s">
+        <v>1282</v>
+      </c>
+      <c r="J389" s="19" t="s">
         <v>1283</v>
-      </c>
-      <c r="J389" s="19" t="s">
-        <v>1284</v>
       </c>
       <c r="L389" s="19">
         <v>-31</v>
@@ -36522,16 +36522,16 @@
         <v>0</v>
       </c>
       <c r="O389" s="19" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="P389" s="19">
         <v>4800</v>
       </c>
       <c r="Q389" s="19" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="R389" s="39" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="W389" s="19" t="s">
         <v>534</v>
@@ -36572,14 +36572,14 @@
         <v>1</v>
       </c>
       <c r="G390" s="19" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H390" s="49"/>
       <c r="I390" s="19" t="s">
         <v>1112</v>
       </c>
       <c r="J390" s="19" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="L390" s="19">
         <v>-31</v>
@@ -36597,10 +36597,10 @@
         <v>9800</v>
       </c>
       <c r="Q390" s="19" t="s">
+        <v>1287</v>
+      </c>
+      <c r="R390" s="39" t="s">
         <v>1288</v>
-      </c>
-      <c r="R390" s="39" t="s">
-        <v>1289</v>
       </c>
       <c r="W390" s="19" t="s">
         <v>534</v>
@@ -36641,14 +36641,14 @@
         <v>1</v>
       </c>
       <c r="G391" s="19" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H391" s="49"/>
       <c r="I391" s="19" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="J391" s="19" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="L391" s="19">
         <v>-31</v>
@@ -36666,10 +36666,10 @@
         <v>19800</v>
       </c>
       <c r="Q391" s="19" t="s">
+        <v>1291</v>
+      </c>
+      <c r="R391" s="39" t="s">
         <v>1292</v>
-      </c>
-      <c r="R391" s="39" t="s">
-        <v>1293</v>
       </c>
       <c r="W391" s="19" t="s">
         <v>534</v>
@@ -36710,14 +36710,14 @@
         <v>1</v>
       </c>
       <c r="G392" s="19" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H392" s="47"/>
       <c r="I392" s="19" t="s">
+        <v>1293</v>
+      </c>
+      <c r="J392" s="19" t="s">
         <v>1294</v>
-      </c>
-      <c r="J392" s="19" t="s">
-        <v>1295</v>
       </c>
       <c r="L392" s="19">
         <v>-31</v>
@@ -36735,10 +36735,10 @@
         <v>9800</v>
       </c>
       <c r="Q392" s="19" t="s">
+        <v>1295</v>
+      </c>
+      <c r="R392" s="39" t="s">
         <v>1296</v>
-      </c>
-      <c r="R392" s="39" t="s">
-        <v>1297</v>
       </c>
       <c r="W392" s="19" t="s">
         <v>534</v>
@@ -36779,14 +36779,14 @@
         <v>1</v>
       </c>
       <c r="G393" s="19" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H393" s="47"/>
       <c r="I393" s="19" t="s">
+        <v>1297</v>
+      </c>
+      <c r="J393" s="19" t="s">
         <v>1298</v>
-      </c>
-      <c r="J393" s="19" t="s">
-        <v>1299</v>
       </c>
       <c r="L393" s="19">
         <v>-31</v>
@@ -36804,10 +36804,10 @@
         <v>19800</v>
       </c>
       <c r="Q393" s="19" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="R393" s="39" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="W393" s="19" t="s">
         <v>534</v>
@@ -36848,14 +36848,14 @@
         <v>1</v>
       </c>
       <c r="G394" s="19" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H394" s="47"/>
       <c r="I394" s="19" t="s">
+        <v>1300</v>
+      </c>
+      <c r="J394" s="19" t="s">
         <v>1301</v>
-      </c>
-      <c r="J394" s="19" t="s">
-        <v>1302</v>
       </c>
       <c r="L394" s="19">
         <v>-31</v>
@@ -36867,16 +36867,16 @@
         <v>0</v>
       </c>
       <c r="O394" s="19" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="P394" s="19">
         <v>49800</v>
       </c>
       <c r="Q394" s="19" t="s">
+        <v>1303</v>
+      </c>
+      <c r="R394" s="39" t="s">
         <v>1304</v>
-      </c>
-      <c r="R394" s="39" t="s">
-        <v>1305</v>
       </c>
       <c r="W394" s="19" t="s">
         <v>534</v>
@@ -36917,10 +36917,10 @@
         <v>1</v>
       </c>
       <c r="G395" s="5" t="s">
+        <v>1313</v>
+      </c>
+      <c r="J395" s="5" t="s">
         <v>1314</v>
-      </c>
-      <c r="J395" s="5" t="s">
-        <v>1315</v>
       </c>
       <c r="L395" s="5">
         <v>-31</v>
@@ -36932,16 +36932,16 @@
         <v>0</v>
       </c>
       <c r="O395" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="P395" s="5">
         <v>600</v>
       </c>
       <c r="Q395" s="5" t="s">
+        <v>1317</v>
+      </c>
+      <c r="R395" s="10" t="s">
         <v>1318</v>
-      </c>
-      <c r="R395" s="10" t="s">
-        <v>1319</v>
       </c>
       <c r="W395" s="5" t="s">
         <v>527</v>
@@ -36979,10 +36979,10 @@
         <v>1</v>
       </c>
       <c r="G396" s="5" t="s">
+        <v>1319</v>
+      </c>
+      <c r="J396" s="5" t="s">
         <v>1320</v>
-      </c>
-      <c r="J396" s="5" t="s">
-        <v>1321</v>
       </c>
       <c r="L396" s="5">
         <v>-31</v>
@@ -36994,16 +36994,16 @@
         <v>0</v>
       </c>
       <c r="O396" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="P396" s="5">
         <v>2000</v>
       </c>
       <c r="Q396" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="R396" s="10" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="W396" s="5" t="s">
         <v>527</v>
@@ -37044,7 +37044,7 @@
         <v>288</v>
       </c>
       <c r="J397" s="5" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="L397" s="5">
         <v>-31</v>
@@ -37062,10 +37062,10 @@
         <v>4800</v>
       </c>
       <c r="Q397" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="R397" s="10" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="W397" s="5" t="s">
         <v>527</v>
@@ -37106,7 +37106,7 @@
         <v>291</v>
       </c>
       <c r="J398" s="5" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="L398" s="5">
         <v>-31</v>
@@ -37124,10 +37124,10 @@
         <v>9800</v>
       </c>
       <c r="Q398" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="R398" s="10" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="W398" s="5" t="s">
         <v>527</v>
@@ -37165,10 +37165,10 @@
         <v>1</v>
       </c>
       <c r="G399" s="5" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J399" s="5" t="s">
         <v>1327</v>
-      </c>
-      <c r="J399" s="5" t="s">
-        <v>1328</v>
       </c>
       <c r="L399" s="5">
         <v>-31</v>
@@ -37180,16 +37180,16 @@
         <v>0</v>
       </c>
       <c r="O399" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="P399" s="5">
         <v>19800</v>
       </c>
       <c r="Q399" s="5" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="R399" s="10" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="W399" s="5" t="s">
         <v>527</v>
@@ -37227,10 +37227,10 @@
         <v>1</v>
       </c>
       <c r="G400" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="J400" s="5" t="s">
         <v>1330</v>
-      </c>
-      <c r="J400" s="5" t="s">
-        <v>1331</v>
       </c>
       <c r="L400" s="5">
         <v>-31</v>
@@ -37242,16 +37242,16 @@
         <v>0</v>
       </c>
       <c r="O400" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="P400" s="5">
         <v>49800</v>
       </c>
       <c r="Q400" s="5" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="R400" s="10" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="W400" s="5" t="s">
         <v>527</v>
@@ -37289,10 +37289,10 @@
         <v>1</v>
       </c>
       <c r="G401" s="5" t="s">
+        <v>1332</v>
+      </c>
+      <c r="J401" s="5" t="s">
         <v>1333</v>
-      </c>
-      <c r="J401" s="5" t="s">
-        <v>1334</v>
       </c>
       <c r="L401" s="5">
         <v>-31</v>
@@ -37310,13 +37310,13 @@
         <v>1800</v>
       </c>
       <c r="Q401" s="5" t="s">
+        <v>1335</v>
+      </c>
+      <c r="R401" s="5" t="s">
         <v>1336</v>
       </c>
-      <c r="R401" s="5" t="s">
-        <v>1337</v>
-      </c>
       <c r="W401" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="X401" s="5">
         <v>99999999</v>
@@ -37354,10 +37354,10 @@
         <v>1</v>
       </c>
       <c r="G402" s="5" t="s">
+        <v>1337</v>
+      </c>
+      <c r="J402" s="5" t="s">
         <v>1338</v>
-      </c>
-      <c r="J402" s="5" t="s">
-        <v>1339</v>
       </c>
       <c r="L402" s="5">
         <v>-31</v>
@@ -37369,19 +37369,19 @@
         <v>0</v>
       </c>
       <c r="O402" s="5" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="P402" s="5">
         <v>4800</v>
       </c>
       <c r="Q402" s="5" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="R402" s="5" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="W402" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="X402" s="5">
         <v>99999999</v>
@@ -37419,10 +37419,10 @@
         <v>1</v>
       </c>
       <c r="G403" s="5" t="s">
+        <v>1341</v>
+      </c>
+      <c r="J403" s="5" t="s">
         <v>1342</v>
-      </c>
-      <c r="J403" s="5" t="s">
-        <v>1343</v>
       </c>
       <c r="L403" s="5">
         <v>-31</v>
@@ -37440,13 +37440,13 @@
         <v>9800</v>
       </c>
       <c r="Q403" s="5" t="s">
+        <v>1344</v>
+      </c>
+      <c r="R403" s="5" t="s">
         <v>1345</v>
       </c>
-      <c r="R403" s="5" t="s">
-        <v>1346</v>
-      </c>
       <c r="W403" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="X403" s="5">
         <v>99999999</v>
@@ -37484,10 +37484,10 @@
         <v>1</v>
       </c>
       <c r="G404" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J404" s="5" t="s">
         <v>1347</v>
-      </c>
-      <c r="J404" s="5" t="s">
-        <v>1348</v>
       </c>
       <c r="L404" s="5">
         <v>-31</v>
@@ -37505,13 +37505,13 @@
         <v>19800</v>
       </c>
       <c r="Q404" s="5" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="R404" s="5" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="W404" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="X404" s="5">
         <v>99999999</v>
@@ -37549,10 +37549,10 @@
         <v>1</v>
       </c>
       <c r="G405" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="J405" s="5" t="s">
         <v>1350</v>
-      </c>
-      <c r="J405" s="5" t="s">
-        <v>1351</v>
       </c>
       <c r="L405" s="5">
         <v>-31</v>
@@ -37570,13 +37570,13 @@
         <v>29800</v>
       </c>
       <c r="Q405" s="5" t="s">
+        <v>1351</v>
+      </c>
+      <c r="R405" s="5" t="s">
         <v>1352</v>
       </c>
-      <c r="R405" s="5" t="s">
-        <v>1353</v>
-      </c>
       <c r="W405" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="X405" s="5">
         <v>99999999</v>
@@ -37614,10 +37614,10 @@
         <v>1</v>
       </c>
       <c r="G406" s="5" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J406" s="5" t="s">
         <v>1354</v>
-      </c>
-      <c r="J406" s="5" t="s">
-        <v>1355</v>
       </c>
       <c r="L406" s="5">
         <v>-31</v>
@@ -37635,13 +37635,13 @@
         <v>49800</v>
       </c>
       <c r="Q406" s="5" t="s">
+        <v>1356</v>
+      </c>
+      <c r="R406" s="5" t="s">
         <v>1357</v>
       </c>
-      <c r="R406" s="5" t="s">
+      <c r="W406" s="5" t="s">
         <v>1358</v>
-      </c>
-      <c r="W406" s="5" t="s">
-        <v>1359</v>
       </c>
       <c r="X406" s="5">
         <v>99999999</v>
@@ -37679,10 +37679,10 @@
         <v>1</v>
       </c>
       <c r="G407" s="5" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J407" s="5" t="s">
         <v>1360</v>
-      </c>
-      <c r="J407" s="5" t="s">
-        <v>1361</v>
       </c>
       <c r="L407" s="5">
         <v>-31</v>
@@ -37694,19 +37694,19 @@
         <v>0</v>
       </c>
       <c r="O407" s="5" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="P407" s="5">
         <v>99800</v>
       </c>
       <c r="Q407" s="5" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="R407" s="5" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="W407" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="X407" s="5">
         <v>99999999</v>
@@ -37744,10 +37744,10 @@
         <v>0</v>
       </c>
       <c r="G408" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="J408" s="5" t="s">
         <v>1383</v>
-      </c>
-      <c r="J408" s="5" t="s">
-        <v>1384</v>
       </c>
       <c r="L408" s="5">
         <v>-31</v>
@@ -37759,16 +37759,16 @@
         <v>0</v>
       </c>
       <c r="O408" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="P408" s="5">
         <v>600</v>
       </c>
       <c r="Q408" s="5" t="s">
+        <v>1385</v>
+      </c>
+      <c r="R408" s="10" t="s">
         <v>1386</v>
-      </c>
-      <c r="R408" s="10" t="s">
-        <v>1387</v>
       </c>
       <c r="W408" s="5" t="s">
         <v>566</v>
@@ -37809,10 +37809,10 @@
         <v>0</v>
       </c>
       <c r="G409" s="5" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="J409" s="5" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="L409" s="5">
         <v>-31</v>
@@ -37824,19 +37824,19 @@
         <v>0</v>
       </c>
       <c r="O409" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="P409" s="5">
         <v>2000</v>
       </c>
       <c r="Q409" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="R409" s="10" t="s">
+        <v>1388</v>
+      </c>
+      <c r="W409" s="5" t="s">
         <v>1389</v>
-      </c>
-      <c r="W409" s="5" t="s">
-        <v>1390</v>
       </c>
       <c r="X409" s="5">
         <v>99999999</v>
@@ -37874,10 +37874,10 @@
         <v>0</v>
       </c>
       <c r="G410" s="5" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="J410" s="5" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="L410" s="5">
         <v>-31</v>
@@ -37889,16 +37889,16 @@
         <v>0</v>
       </c>
       <c r="O410" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="P410" s="5">
         <v>4800</v>
       </c>
       <c r="Q410" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="R410" s="10" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="W410" s="5" t="s">
         <v>566</v>
@@ -37939,10 +37939,10 @@
         <v>0</v>
       </c>
       <c r="G411" s="5" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="J411" s="5" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="L411" s="5">
         <v>-31</v>
@@ -37960,13 +37960,13 @@
         <v>9800</v>
       </c>
       <c r="Q411" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="R411" s="10" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="W411" s="5" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="X411" s="5">
         <v>99999999</v>
@@ -38004,10 +38004,10 @@
         <v>0</v>
       </c>
       <c r="G412" s="5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="J412" s="5" t="s">
         <v>1395</v>
-      </c>
-      <c r="J412" s="5" t="s">
-        <v>1396</v>
       </c>
       <c r="L412" s="5">
         <v>-31</v>
@@ -38025,10 +38025,10 @@
         <v>19800</v>
       </c>
       <c r="Q412" s="5" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="R412" s="10" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="W412" s="5" t="s">
         <v>566</v>
@@ -38069,10 +38069,10 @@
         <v>0</v>
       </c>
       <c r="G413" s="5" t="s">
+        <v>1397</v>
+      </c>
+      <c r="J413" s="5" t="s">
         <v>1398</v>
-      </c>
-      <c r="J413" s="5" t="s">
-        <v>1399</v>
       </c>
       <c r="L413" s="5">
         <v>-31</v>
@@ -38090,13 +38090,13 @@
         <v>49800</v>
       </c>
       <c r="Q413" s="5" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="R413" s="10" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="W413" s="5" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="X413" s="5">
         <v>99999999</v>
@@ -38137,10 +38137,10 @@
         <v>1</v>
       </c>
       <c r="G414" s="51" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H414" s="51" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="L414" s="51">
         <v>-4</v>
@@ -38161,7 +38161,7 @@
         <v>77</v>
       </c>
       <c r="R414" s="55" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="W414" s="51" t="s">
         <v>524</v>
@@ -38193,13 +38193,13 @@
         <v>0</v>
       </c>
       <c r="G415" s="5" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I415" s="5" t="s">
         <v>1408</v>
       </c>
-      <c r="I415" s="5" t="s">
-        <v>1409</v>
-      </c>
       <c r="J415" s="5" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="L415" s="5">
         <v>-31</v>
@@ -38217,10 +38217,10 @@
         <v>600</v>
       </c>
       <c r="Q415" s="5" t="s">
+        <v>1409</v>
+      </c>
+      <c r="R415" s="10" t="s">
         <v>1410</v>
-      </c>
-      <c r="R415" s="10" t="s">
-        <v>1411</v>
       </c>
       <c r="W415" s="5" t="s">
         <v>534</v>
@@ -38261,13 +38261,13 @@
         <v>0</v>
       </c>
       <c r="G416" s="5" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="I416" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="J416" s="5" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="L416" s="5">
         <v>-31</v>
@@ -38285,13 +38285,13 @@
         <v>1800</v>
       </c>
       <c r="Q416" s="5" t="s">
+        <v>1412</v>
+      </c>
+      <c r="R416" s="10" t="s">
+        <v>1410</v>
+      </c>
+      <c r="W416" s="5" t="s">
         <v>1413</v>
-      </c>
-      <c r="R416" s="10" t="s">
-        <v>1411</v>
-      </c>
-      <c r="W416" s="5" t="s">
-        <v>1414</v>
       </c>
       <c r="X416" s="14" t="s">
         <v>108</v>
@@ -38329,13 +38329,13 @@
         <v>0</v>
       </c>
       <c r="G417" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="I417" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="J417" s="5" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="L417" s="5">
         <v>-31</v>
@@ -38356,7 +38356,7 @@
         <v>1100</v>
       </c>
       <c r="R417" s="10" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="W417" s="5" t="s">
         <v>1103</v>
@@ -38397,13 +38397,13 @@
         <v>0</v>
       </c>
       <c r="G418" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="I418" s="5" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="J418" s="5" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="L418" s="5">
         <v>-31</v>
@@ -38465,13 +38465,13 @@
         <v>0</v>
       </c>
       <c r="G419" s="5" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="I419" s="5" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="J419" s="5" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="L419" s="5">
         <v>-31</v>
@@ -38492,7 +38492,7 @@
         <v>1104</v>
       </c>
       <c r="R419" s="10" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="W419" s="5" t="s">
         <v>1103</v>
@@ -38533,13 +38533,13 @@
         <v>0</v>
       </c>
       <c r="G420" s="5" t="s">
+        <v>1414</v>
+      </c>
+      <c r="I420" s="5" t="s">
         <v>1415</v>
       </c>
-      <c r="I420" s="5" t="s">
-        <v>1416</v>
-      </c>
       <c r="J420" s="5" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="L420" s="5">
         <v>-31</v>
@@ -38560,7 +38560,7 @@
         <v>1105</v>
       </c>
       <c r="R420" s="10" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="W420" s="5" t="s">
         <v>1103</v>
@@ -38601,10 +38601,10 @@
         <v>1</v>
       </c>
       <c r="G421" s="59" t="s">
+        <v>1416</v>
+      </c>
+      <c r="J421" s="59" t="s">
         <v>1417</v>
-      </c>
-      <c r="J421" s="59" t="s">
-        <v>1418</v>
       </c>
       <c r="L421" s="59">
         <v>-31</v>
@@ -38616,19 +38616,19 @@
         <v>0</v>
       </c>
       <c r="O421" s="59" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="P421" s="59">
         <v>1000</v>
       </c>
       <c r="Q421" s="59" t="s">
+        <v>1419</v>
+      </c>
+      <c r="R421" s="60" t="s">
         <v>1420</v>
       </c>
-      <c r="R421" s="60" t="s">
+      <c r="W421" s="59" t="s">
         <v>1421</v>
-      </c>
-      <c r="W421" s="59" t="s">
-        <v>1422</v>
       </c>
       <c r="X421" s="59">
         <v>9999999</v>
@@ -38640,10 +38640,10 @@
         <v>2552233600</v>
       </c>
       <c r="AB421" s="59" t="s">
+        <v>1422</v>
+      </c>
+      <c r="AC421" s="59" t="s">
         <v>1423</v>
-      </c>
-      <c r="AC421" s="59" t="s">
-        <v>1424</v>
       </c>
       <c r="AH421" s="59">
         <v>1</v>
@@ -38669,13 +38669,13 @@
         <v>1</v>
       </c>
       <c r="G422" s="59" t="s">
+        <v>1440</v>
+      </c>
+      <c r="I422" s="59" t="s">
         <v>1441</v>
       </c>
-      <c r="I422" s="59" t="s">
+      <c r="J422" s="59" t="s">
         <v>1442</v>
-      </c>
-      <c r="J422" s="59" t="s">
-        <v>1443</v>
       </c>
       <c r="L422" s="59">
         <v>-31</v>
@@ -38693,13 +38693,13 @@
         <v>2000</v>
       </c>
       <c r="Q422" s="59" t="s">
+        <v>1443</v>
+      </c>
+      <c r="R422" s="60" t="s">
         <v>1444</v>
       </c>
-      <c r="R422" s="60" t="s">
+      <c r="W422" s="59" t="s">
         <v>1445</v>
-      </c>
-      <c r="W422" s="59" t="s">
-        <v>1446</v>
       </c>
       <c r="X422" s="59">
         <v>99999999</v>
@@ -38737,13 +38737,13 @@
         <v>1</v>
       </c>
       <c r="G423" s="59" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="I423" s="59" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="J423" s="59" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="L423" s="59">
         <v>-31</v>
@@ -38761,10 +38761,10 @@
         <v>5800</v>
       </c>
       <c r="Q423" s="59" t="s">
+        <v>1447</v>
+      </c>
+      <c r="R423" s="60" t="s">
         <v>1448</v>
-      </c>
-      <c r="R423" s="60" t="s">
-        <v>1449</v>
       </c>
       <c r="W423" s="59" t="s">
         <v>984</v>
@@ -38805,13 +38805,13 @@
         <v>1</v>
       </c>
       <c r="G424" s="59" t="s">
+        <v>1449</v>
+      </c>
+      <c r="I424" s="59" t="s">
+        <v>1424</v>
+      </c>
+      <c r="J424" s="59" t="s">
         <v>1450</v>
-      </c>
-      <c r="I424" s="59" t="s">
-        <v>1425</v>
-      </c>
-      <c r="J424" s="59" t="s">
-        <v>1451</v>
       </c>
       <c r="L424" s="59">
         <v>-31</v>
@@ -38829,10 +38829,10 @@
         <v>12800</v>
       </c>
       <c r="Q424" s="59" t="s">
+        <v>1451</v>
+      </c>
+      <c r="R424" s="60" t="s">
         <v>1452</v>
-      </c>
-      <c r="R424" s="60" t="s">
-        <v>1453</v>
       </c>
       <c r="W424" s="59" t="s">
         <v>984</v>
@@ -38873,10 +38873,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="59" t="s">
+        <v>1426</v>
+      </c>
+      <c r="J425" s="59" t="s">
         <v>1427</v>
-      </c>
-      <c r="J425" s="59" t="s">
-        <v>1428</v>
       </c>
       <c r="L425" s="59">
         <v>-31</v>
@@ -38894,10 +38894,10 @@
         <v>49800</v>
       </c>
       <c r="Q425" s="59" t="s">
+        <v>1428</v>
+      </c>
+      <c r="R425" s="60" t="s">
         <v>1429</v>
-      </c>
-      <c r="R425" s="60" t="s">
-        <v>1430</v>
       </c>
       <c r="W425" s="59" t="s">
         <v>568</v>
@@ -38929,10 +38929,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="59" t="s">
+        <v>1430</v>
+      </c>
+      <c r="J426" s="59" t="s">
         <v>1431</v>
-      </c>
-      <c r="J426" s="59" t="s">
-        <v>1432</v>
       </c>
       <c r="L426" s="59">
         <v>-31</v>
@@ -38950,13 +38950,13 @@
         <v>19800</v>
       </c>
       <c r="Q426" s="59" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="R426" s="60" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="W426" s="59" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="X426" s="59">
         <v>9999999</v>
@@ -38985,10 +38985,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="59" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="J427" s="59" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="L427" s="59">
         <v>-31</v>
@@ -39006,13 +39006,13 @@
         <v>9800</v>
       </c>
       <c r="Q427" s="59" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="R427" s="60" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="W427" s="59" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="X427" s="59">
         <v>9999999</v>
@@ -39041,10 +39041,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="59" t="s">
+        <v>1435</v>
+      </c>
+      <c r="J428" s="59" t="s">
         <v>1436</v>
-      </c>
-      <c r="J428" s="59" t="s">
-        <v>1437</v>
       </c>
       <c r="L428" s="59">
         <v>-31</v>
@@ -39062,13 +39062,13 @@
         <v>9800</v>
       </c>
       <c r="Q428" s="59" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="R428" s="60" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="W428" s="59" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="X428" s="59">
         <v>9999999</v>
@@ -39097,10 +39097,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="59" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="J429" s="59" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="L429" s="59">
         <v>-31</v>
@@ -39118,13 +39118,13 @@
         <v>4800</v>
       </c>
       <c r="Q429" s="59" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="R429" s="60" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="W429" s="59" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="X429" s="59">
         <v>9999999</v>
@@ -39153,13 +39153,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="59" t="s">
+        <v>1702</v>
+      </c>
+      <c r="I430" s="59" t="s">
         <v>1703</v>
       </c>
-      <c r="I430" s="59" t="s">
+      <c r="J430" s="59" t="s">
         <v>1704</v>
-      </c>
-      <c r="J430" s="59" t="s">
-        <v>1705</v>
       </c>
       <c r="L430" s="59">
         <v>-28</v>
@@ -39177,13 +39177,13 @@
         <v>100</v>
       </c>
       <c r="Q430" s="59" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="R430" s="60" t="s">
+        <v>1705</v>
+      </c>
+      <c r="W430" s="59" t="s">
         <v>1706</v>
-      </c>
-      <c r="W430" s="59" t="s">
-        <v>1707</v>
       </c>
       <c r="X430" s="59">
         <v>9999999</v>
@@ -39221,13 +39221,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="59" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="I431" s="59" t="s">
+        <v>1707</v>
+      </c>
+      <c r="J431" s="59" t="s">
         <v>1708</v>
-      </c>
-      <c r="J431" s="59" t="s">
-        <v>1709</v>
       </c>
       <c r="L431" s="59">
         <v>-28</v>
@@ -39245,10 +39245,10 @@
         <v>300</v>
       </c>
       <c r="Q431" s="59" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="R431" s="60" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="W431" s="59" t="s">
         <v>527</v>
@@ -39289,13 +39289,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="59" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="I432" s="59" t="s">
+        <v>1710</v>
+      </c>
+      <c r="J432" s="59" t="s">
         <v>1711</v>
-      </c>
-      <c r="J432" s="59" t="s">
-        <v>1712</v>
       </c>
       <c r="L432" s="59">
         <v>-28</v>
@@ -39313,10 +39313,10 @@
         <v>600</v>
       </c>
       <c r="Q432" s="59" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="R432" s="60" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="W432" s="59" t="s">
         <v>527</v>
@@ -39357,13 +39357,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="59" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="I433" s="59" t="s">
+        <v>1713</v>
+      </c>
+      <c r="J433" s="59" t="s">
         <v>1714</v>
-      </c>
-      <c r="J433" s="59" t="s">
-        <v>1715</v>
       </c>
       <c r="L433" s="59">
         <v>-28</v>
@@ -39381,10 +39381,10 @@
         <v>600</v>
       </c>
       <c r="Q433" s="59" t="s">
+        <v>1715</v>
+      </c>
+      <c r="R433" s="60" t="s">
         <v>1716</v>
-      </c>
-      <c r="R433" s="60" t="s">
-        <v>1717</v>
       </c>
       <c r="W433" s="59" t="s">
         <v>527</v>
@@ -39425,13 +39425,13 @@
         <v>0</v>
       </c>
       <c r="G434" s="5" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="I434" s="5" t="s">
+        <v>1453</v>
+      </c>
+      <c r="J434" s="5" t="s">
         <v>1454</v>
-      </c>
-      <c r="J434" s="5" t="s">
-        <v>1455</v>
       </c>
       <c r="L434" s="5">
         <v>-31</v>
@@ -39449,10 +39449,10 @@
         <v>1800</v>
       </c>
       <c r="Q434" s="5" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="R434" s="10" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="W434" s="5" t="s">
         <v>527</v>
@@ -39490,13 +39490,13 @@
         <v>0</v>
       </c>
       <c r="G435" s="5" t="s">
+        <v>1456</v>
+      </c>
+      <c r="I435" s="5" t="s">
         <v>1457</v>
       </c>
-      <c r="I435" s="5" t="s">
+      <c r="J435" s="5" t="s">
         <v>1458</v>
-      </c>
-      <c r="J435" s="5" t="s">
-        <v>1459</v>
       </c>
       <c r="L435" s="5">
         <v>-31</v>
@@ -39514,10 +39514,10 @@
         <v>4800</v>
       </c>
       <c r="Q435" s="5" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="R435" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="W435" s="5" t="s">
         <v>527</v>
@@ -39555,13 +39555,13 @@
         <v>0</v>
       </c>
       <c r="G436" s="5" t="s">
+        <v>1460</v>
+      </c>
+      <c r="I436" s="5" t="s">
         <v>1461</v>
       </c>
-      <c r="I436" s="5" t="s">
+      <c r="J436" s="5" t="s">
         <v>1462</v>
-      </c>
-      <c r="J436" s="5" t="s">
-        <v>1463</v>
       </c>
       <c r="L436" s="5">
         <v>-31</v>
@@ -39579,10 +39579,10 @@
         <v>9800</v>
       </c>
       <c r="Q436" s="5" t="s">
+        <v>1463</v>
+      </c>
+      <c r="R436" s="10" t="s">
         <v>1464</v>
-      </c>
-      <c r="R436" s="10" t="s">
-        <v>1465</v>
       </c>
       <c r="W436" s="5" t="s">
         <v>527</v>
@@ -39620,13 +39620,13 @@
         <v>0</v>
       </c>
       <c r="G437" s="5" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="I437" s="5" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="J437" s="5" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="L437" s="5">
         <v>-31</v>
@@ -39644,10 +39644,10 @@
         <v>19800</v>
       </c>
       <c r="Q437" s="5" t="s">
+        <v>1466</v>
+      </c>
+      <c r="R437" s="10" t="s">
         <v>1467</v>
-      </c>
-      <c r="R437" s="10" t="s">
-        <v>1468</v>
       </c>
       <c r="W437" s="5" t="s">
         <v>527</v>
@@ -39685,13 +39685,13 @@
         <v>0</v>
       </c>
       <c r="G438" s="5" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I438" s="5" t="s">
+        <v>1453</v>
+      </c>
+      <c r="J438" s="5" t="s">
         <v>1469</v>
-      </c>
-      <c r="I438" s="5" t="s">
-        <v>1454</v>
-      </c>
-      <c r="J438" s="5" t="s">
-        <v>1470</v>
       </c>
       <c r="L438" s="5">
         <v>-31</v>
@@ -39709,10 +39709,10 @@
         <v>29800</v>
       </c>
       <c r="Q438" s="5" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="R438" s="10" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="W438" s="5" t="s">
         <v>527</v>
@@ -39750,13 +39750,13 @@
         <v>0</v>
       </c>
       <c r="G439" s="5" t="s">
+        <v>1470</v>
+      </c>
+      <c r="I439" s="5" t="s">
+        <v>1453</v>
+      </c>
+      <c r="J439" s="5" t="s">
         <v>1471</v>
-      </c>
-      <c r="I439" s="5" t="s">
-        <v>1454</v>
-      </c>
-      <c r="J439" s="5" t="s">
-        <v>1472</v>
       </c>
       <c r="L439" s="5">
         <v>-31</v>
@@ -39774,10 +39774,10 @@
         <v>49800</v>
       </c>
       <c r="Q439" s="5" t="s">
+        <v>1472</v>
+      </c>
+      <c r="R439" s="10" t="s">
         <v>1473</v>
-      </c>
-      <c r="R439" s="10" t="s">
-        <v>1474</v>
       </c>
       <c r="W439" s="5" t="s">
         <v>527</v>
@@ -39815,13 +39815,13 @@
         <v>0</v>
       </c>
       <c r="G440" s="5" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I440" s="5" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J440" s="5" t="s">
         <v>1475</v>
-      </c>
-      <c r="I440" s="5" t="s">
-        <v>1462</v>
-      </c>
-      <c r="J440" s="5" t="s">
-        <v>1476</v>
       </c>
       <c r="L440" s="5">
         <v>-31</v>
@@ -39839,10 +39839,10 @@
         <v>99800</v>
       </c>
       <c r="Q440" s="5" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="R440" s="10" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="W440" s="5" t="s">
         <v>527</v>
@@ -39880,10 +39880,10 @@
         <v>0</v>
       </c>
       <c r="G441" s="5" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J441" s="5" t="s">
         <v>1478</v>
-      </c>
-      <c r="J441" s="5" t="s">
-        <v>1479</v>
       </c>
       <c r="L441" s="5">
         <v>-31</v>
@@ -39901,13 +39901,13 @@
         <v>49800</v>
       </c>
       <c r="Q441" s="5" t="s">
+        <v>1479</v>
+      </c>
+      <c r="R441" s="10" t="s">
         <v>1480</v>
       </c>
-      <c r="R441" s="10" t="s">
+      <c r="W441" s="5" t="s">
         <v>1481</v>
-      </c>
-      <c r="W441" s="5" t="s">
-        <v>1482</v>
       </c>
       <c r="X441" s="5">
         <v>9999999</v>
@@ -39942,10 +39942,10 @@
         <v>0</v>
       </c>
       <c r="G442" s="5" t="s">
+        <v>1482</v>
+      </c>
+      <c r="J442" s="5" t="s">
         <v>1483</v>
-      </c>
-      <c r="J442" s="5" t="s">
-        <v>1484</v>
       </c>
       <c r="L442" s="5">
         <v>-31</v>
@@ -39963,13 +39963,13 @@
         <v>19800</v>
       </c>
       <c r="Q442" s="5" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="R442" s="10" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="W442" s="5" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="X442" s="5">
         <v>9999999</v>
@@ -40004,10 +40004,10 @@
         <v>0</v>
       </c>
       <c r="G443" s="5" t="s">
+        <v>1485</v>
+      </c>
+      <c r="J443" s="5" t="s">
         <v>1486</v>
-      </c>
-      <c r="J443" s="5" t="s">
-        <v>1487</v>
       </c>
       <c r="L443" s="5">
         <v>-31</v>
@@ -40025,13 +40025,13 @@
         <v>9800</v>
       </c>
       <c r="Q443" s="5" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="R443" s="10" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="W443" s="5" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="X443" s="5">
         <v>9999999</v>
@@ -40066,10 +40066,10 @@
         <v>0</v>
       </c>
       <c r="G444" s="5" t="s">
+        <v>1488</v>
+      </c>
+      <c r="J444" s="5" t="s">
         <v>1489</v>
-      </c>
-      <c r="J444" s="5" t="s">
-        <v>1490</v>
       </c>
       <c r="L444" s="5">
         <v>-31</v>
@@ -40087,13 +40087,13 @@
         <v>4800</v>
       </c>
       <c r="Q444" s="5" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="R444" s="10" t="s">
+        <v>1490</v>
+      </c>
+      <c r="W444" s="5" t="s">
         <v>1491</v>
-      </c>
-      <c r="W444" s="5" t="s">
-        <v>1492</v>
       </c>
       <c r="X444" s="5">
         <v>9999999</v>
@@ -40128,10 +40128,10 @@
         <v>0</v>
       </c>
       <c r="G445" s="5" t="s">
+        <v>1492</v>
+      </c>
+      <c r="J445" s="5" t="s">
         <v>1493</v>
-      </c>
-      <c r="J445" s="5" t="s">
-        <v>1494</v>
       </c>
       <c r="L445" s="5">
         <v>-31</v>
@@ -40149,13 +40149,13 @@
         <v>2000</v>
       </c>
       <c r="Q445" s="5" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="R445" s="10" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="W445" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="X445" s="5">
         <v>9999999</v>
@@ -40190,10 +40190,10 @@
         <v>0</v>
       </c>
       <c r="G446" s="5" t="s">
+        <v>1495</v>
+      </c>
+      <c r="J446" s="5" t="s">
         <v>1496</v>
-      </c>
-      <c r="J446" s="5" t="s">
-        <v>1497</v>
       </c>
       <c r="L446" s="5">
         <v>-31</v>
@@ -40211,13 +40211,13 @@
         <v>600</v>
       </c>
       <c r="Q446" s="5" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="R446" s="10" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="W446" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="X446" s="5">
         <v>9999999</v>
@@ -40252,13 +40252,13 @@
         <v>1</v>
       </c>
       <c r="G447" s="59" t="s">
+        <v>1498</v>
+      </c>
+      <c r="I447" s="59" t="s">
         <v>1499</v>
       </c>
-      <c r="I447" s="59" t="s">
+      <c r="J447" s="59" t="s">
         <v>1500</v>
-      </c>
-      <c r="J447" s="59" t="s">
-        <v>1501</v>
       </c>
       <c r="L447" s="59">
         <v>-31</v>
@@ -40276,13 +40276,13 @@
         <v>800</v>
       </c>
       <c r="Q447" s="59" t="s">
+        <v>1501</v>
+      </c>
+      <c r="R447" s="60" t="s">
         <v>1502</v>
       </c>
-      <c r="R447" s="60" t="s">
-        <v>1503</v>
-      </c>
       <c r="W447" s="59" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="X447" s="59">
         <v>9999999</v>
@@ -40320,13 +40320,13 @@
         <v>1</v>
       </c>
       <c r="G448" s="59" t="s">
+        <v>1503</v>
+      </c>
+      <c r="I448" s="59" t="s">
         <v>1504</v>
       </c>
-      <c r="I448" s="59" t="s">
+      <c r="J448" s="59" t="s">
         <v>1505</v>
-      </c>
-      <c r="J448" s="59" t="s">
-        <v>1506</v>
       </c>
       <c r="L448" s="59">
         <v>-31</v>
@@ -40344,13 +40344,13 @@
         <v>800</v>
       </c>
       <c r="Q448" s="59" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="R448" s="60" t="s">
+        <v>1506</v>
+      </c>
+      <c r="W448" s="59" t="s">
         <v>1507</v>
-      </c>
-      <c r="W448" s="59" t="s">
-        <v>1508</v>
       </c>
       <c r="X448" s="59">
         <v>9999999</v>
@@ -40385,13 +40385,13 @@
         <v>1</v>
       </c>
       <c r="G449" s="59" t="s">
+        <v>1508</v>
+      </c>
+      <c r="I449" s="59" t="s">
         <v>1509</v>
       </c>
-      <c r="I449" s="59" t="s">
+      <c r="J449" s="59" t="s">
         <v>1510</v>
-      </c>
-      <c r="J449" s="59" t="s">
-        <v>1511</v>
       </c>
       <c r="L449" s="59">
         <v>-31</v>
@@ -40409,10 +40409,10 @@
         <v>800</v>
       </c>
       <c r="Q449" s="59" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="R449" s="60" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="W449" s="59" t="s">
         <v>527</v>
@@ -40453,13 +40453,13 @@
         <v>1</v>
       </c>
       <c r="G450" s="59" t="s">
+        <v>1512</v>
+      </c>
+      <c r="I450" s="59" t="s">
         <v>1513</v>
       </c>
-      <c r="I450" s="59" t="s">
+      <c r="J450" s="59" t="s">
         <v>1514</v>
-      </c>
-      <c r="J450" s="59" t="s">
-        <v>1515</v>
       </c>
       <c r="L450" s="59">
         <v>-31</v>
@@ -40477,10 +40477,10 @@
         <v>3800</v>
       </c>
       <c r="Q450" s="59" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="R450" s="60" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="W450" s="59" t="s">
         <v>527</v>
@@ -40521,13 +40521,13 @@
         <v>1</v>
       </c>
       <c r="G451" s="59" t="s">
+        <v>1516</v>
+      </c>
+      <c r="I451" s="59" t="s">
         <v>1517</v>
       </c>
-      <c r="I451" s="59" t="s">
+      <c r="J451" s="59" t="s">
         <v>1518</v>
-      </c>
-      <c r="J451" s="59" t="s">
-        <v>1519</v>
       </c>
       <c r="L451" s="59">
         <v>-31</v>
@@ -40545,10 +40545,10 @@
         <v>3800</v>
       </c>
       <c r="Q451" s="59" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="R451" s="60" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="W451" s="59" t="s">
         <v>527</v>
@@ -40586,13 +40586,13 @@
         <v>1</v>
       </c>
       <c r="G452" s="59" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I452" s="59" t="s">
         <v>1521</v>
       </c>
-      <c r="I452" s="59" t="s">
+      <c r="J452" s="59" t="s">
         <v>1522</v>
-      </c>
-      <c r="J452" s="59" t="s">
-        <v>1523</v>
       </c>
       <c r="L452" s="59">
         <v>-31</v>
@@ -40610,10 +40610,10 @@
         <v>3800</v>
       </c>
       <c r="Q452" s="59" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="R452" s="60" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="W452" s="59" t="s">
         <v>527</v>
@@ -40654,13 +40654,13 @@
         <v>1</v>
       </c>
       <c r="G453" s="59" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I453" s="59" t="s">
         <v>1525</v>
       </c>
-      <c r="I453" s="59" t="s">
+      <c r="J453" s="59" t="s">
         <v>1526</v>
-      </c>
-      <c r="J453" s="59" t="s">
-        <v>1527</v>
       </c>
       <c r="L453" s="59">
         <v>-31</v>
@@ -40678,10 +40678,10 @@
         <v>9800</v>
       </c>
       <c r="Q453" s="59" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="R453" s="60" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="W453" s="59" t="s">
         <v>527</v>
@@ -40722,13 +40722,13 @@
         <v>1</v>
       </c>
       <c r="G454" s="59" t="s">
+        <v>1528</v>
+      </c>
+      <c r="I454" s="59" t="s">
         <v>1529</v>
       </c>
-      <c r="I454" s="59" t="s">
+      <c r="J454" s="59" t="s">
         <v>1530</v>
-      </c>
-      <c r="J454" s="59" t="s">
-        <v>1531</v>
       </c>
       <c r="L454" s="59">
         <v>-31</v>
@@ -40749,7 +40749,7 @@
         <v>991</v>
       </c>
       <c r="R454" s="60" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="W454" s="59" t="s">
         <v>527</v>
@@ -40787,13 +40787,13 @@
         <v>1</v>
       </c>
       <c r="G455" s="59" t="s">
+        <v>1532</v>
+      </c>
+      <c r="I455" s="59" t="s">
         <v>1533</v>
       </c>
-      <c r="I455" s="59" t="s">
+      <c r="J455" s="59" t="s">
         <v>1534</v>
-      </c>
-      <c r="J455" s="59" t="s">
-        <v>1535</v>
       </c>
       <c r="L455" s="59">
         <v>-31</v>
@@ -40811,10 +40811,10 @@
         <v>9800</v>
       </c>
       <c r="Q455" s="59" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="R455" s="60" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="W455" s="59" t="s">
         <v>527</v>
@@ -40855,13 +40855,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="59" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I456" s="59" t="s">
         <v>1536</v>
       </c>
-      <c r="I456" s="59" t="s">
+      <c r="J456" s="59" t="s">
         <v>1537</v>
-      </c>
-      <c r="J456" s="59" t="s">
-        <v>1538</v>
       </c>
       <c r="L456" s="59">
         <v>-31</v>
@@ -40882,7 +40882,7 @@
         <v>991</v>
       </c>
       <c r="R456" s="60" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="W456" s="59" t="s">
         <v>527</v>
@@ -40923,13 +40923,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="59" t="s">
+        <v>1539</v>
+      </c>
+      <c r="I457" s="59" t="s">
         <v>1540</v>
       </c>
-      <c r="I457" s="59" t="s">
+      <c r="J457" s="59" t="s">
         <v>1541</v>
-      </c>
-      <c r="J457" s="59" t="s">
-        <v>1542</v>
       </c>
       <c r="L457" s="59">
         <v>-31</v>
@@ -40947,10 +40947,10 @@
         <v>19800</v>
       </c>
       <c r="Q457" s="59" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="R457" s="60" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="W457" s="59" t="s">
         <v>527</v>
@@ -40988,13 +40988,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="59" t="s">
+        <v>1543</v>
+      </c>
+      <c r="I458" s="59" t="s">
         <v>1544</v>
       </c>
-      <c r="I458" s="59" t="s">
+      <c r="J458" s="59" t="s">
         <v>1545</v>
-      </c>
-      <c r="J458" s="59" t="s">
-        <v>1546</v>
       </c>
       <c r="L458" s="59">
         <v>-31</v>
@@ -41015,7 +41015,7 @@
         <v>991</v>
       </c>
       <c r="R458" s="60" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="W458" s="59" t="s">
         <v>527</v>
@@ -41056,13 +41056,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="59" t="s">
+        <v>1547</v>
+      </c>
+      <c r="I459" s="59" t="s">
         <v>1548</v>
       </c>
-      <c r="I459" s="59" t="s">
+      <c r="J459" s="59" t="s">
         <v>1549</v>
-      </c>
-      <c r="J459" s="59" t="s">
-        <v>1550</v>
       </c>
       <c r="L459" s="59">
         <v>-31</v>
@@ -41080,10 +41080,10 @@
         <v>49800</v>
       </c>
       <c r="Q459" s="59" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="R459" s="60" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="W459" s="59" t="s">
         <v>527</v>
@@ -41124,13 +41124,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="59" t="s">
+        <v>1551</v>
+      </c>
+      <c r="I460" s="59" t="s">
         <v>1552</v>
       </c>
-      <c r="I460" s="59" t="s">
+      <c r="J460" s="59" t="s">
         <v>1553</v>
-      </c>
-      <c r="J460" s="59" t="s">
-        <v>1554</v>
       </c>
       <c r="L460" s="59">
         <v>-31</v>
@@ -41148,10 +41148,10 @@
         <v>49800</v>
       </c>
       <c r="Q460" s="59" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="R460" s="60" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="W460" s="59" t="s">
         <v>527</v>
@@ -41189,13 +41189,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="59" t="s">
+        <v>1555</v>
+      </c>
+      <c r="I461" s="59" t="s">
         <v>1556</v>
       </c>
-      <c r="I461" s="59" t="s">
+      <c r="J461" s="59" t="s">
         <v>1557</v>
-      </c>
-      <c r="J461" s="59" t="s">
-        <v>1558</v>
       </c>
       <c r="L461" s="59">
         <v>-31</v>
@@ -41213,10 +41213,10 @@
         <v>49800</v>
       </c>
       <c r="Q461" s="59" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="R461" s="60" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="W461" s="59" t="s">
         <v>527</v>
@@ -41257,13 +41257,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="59" t="s">
+        <v>1559</v>
+      </c>
+      <c r="I462" s="59" t="s">
         <v>1560</v>
       </c>
-      <c r="I462" s="59" t="s">
+      <c r="J462" s="59" t="s">
         <v>1561</v>
-      </c>
-      <c r="J462" s="59" t="s">
-        <v>1562</v>
       </c>
       <c r="L462" s="59">
         <v>-31</v>
@@ -41284,7 +41284,7 @@
         <v>991</v>
       </c>
       <c r="R462" s="60" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="W462" s="59" t="s">
         <v>527</v>
@@ -41325,13 +41325,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="59" t="s">
+        <v>1563</v>
+      </c>
+      <c r="I463" s="59" t="s">
         <v>1564</v>
       </c>
-      <c r="I463" s="59" t="s">
+      <c r="J463" s="59" t="s">
         <v>1565</v>
-      </c>
-      <c r="J463" s="59" t="s">
-        <v>1566</v>
       </c>
       <c r="L463" s="59">
         <v>-31</v>
@@ -41349,10 +41349,10 @@
         <v>99800</v>
       </c>
       <c r="Q463" s="59" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="R463" s="60" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="W463" s="59" t="s">
         <v>527</v>
@@ -41390,13 +41390,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="59" t="s">
+        <v>1567</v>
+      </c>
+      <c r="I464" s="59" t="s">
         <v>1568</v>
       </c>
-      <c r="I464" s="59" t="s">
+      <c r="J464" s="59" t="s">
         <v>1569</v>
-      </c>
-      <c r="J464" s="59" t="s">
-        <v>1570</v>
       </c>
       <c r="L464" s="59">
         <v>-31</v>
@@ -41417,7 +41417,7 @@
         <v>991</v>
       </c>
       <c r="R464" s="60" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="W464" s="59" t="s">
         <v>527</v>
@@ -41458,13 +41458,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="59" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I465" s="59" t="s">
         <v>1572</v>
       </c>
-      <c r="I465" s="59" t="s">
+      <c r="J465" s="59" t="s">
         <v>1573</v>
-      </c>
-      <c r="J465" s="59" t="s">
-        <v>1574</v>
       </c>
       <c r="L465" s="59">
         <v>-31</v>
@@ -41482,10 +41482,10 @@
         <v>249800</v>
       </c>
       <c r="Q465" s="59" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="R465" s="60" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="W465" s="59" t="s">
         <v>527</v>
@@ -41526,13 +41526,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="59" t="s">
+        <v>1575</v>
+      </c>
+      <c r="I466" s="59" t="s">
         <v>1576</v>
       </c>
-      <c r="I466" s="59" t="s">
+      <c r="J466" s="59" t="s">
         <v>1577</v>
-      </c>
-      <c r="J466" s="59" t="s">
-        <v>1578</v>
       </c>
       <c r="L466" s="59">
         <v>-31</v>
@@ -41550,10 +41550,10 @@
         <v>249800</v>
       </c>
       <c r="Q466" s="59" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="R466" s="60" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="W466" s="59" t="s">
         <v>527</v>
@@ -41591,13 +41591,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="59" t="s">
+        <v>1579</v>
+      </c>
+      <c r="I467" s="59" t="s">
         <v>1580</v>
       </c>
-      <c r="I467" s="59" t="s">
+      <c r="J467" s="59" t="s">
         <v>1581</v>
-      </c>
-      <c r="J467" s="59" t="s">
-        <v>1582</v>
       </c>
       <c r="L467" s="59">
         <v>-31</v>
@@ -41615,10 +41615,10 @@
         <v>249800</v>
       </c>
       <c r="Q467" s="59" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="R467" s="60" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="W467" s="59" t="s">
         <v>527</v>
@@ -41659,13 +41659,13 @@
         <v>1</v>
       </c>
       <c r="G468" s="59" t="s">
+        <v>1583</v>
+      </c>
+      <c r="I468" s="59" t="s">
         <v>1584</v>
       </c>
-      <c r="I468" s="59" t="s">
+      <c r="J468" s="59" t="s">
         <v>1585</v>
-      </c>
-      <c r="J468" s="59" t="s">
-        <v>1586</v>
       </c>
       <c r="L468" s="59">
         <v>-31</v>
@@ -41683,13 +41683,13 @@
         <v>600</v>
       </c>
       <c r="Q468" s="59" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="R468" s="60" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="W468" s="59" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="X468" s="59">
         <v>9999999</v>
@@ -41724,13 +41724,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="59" t="s">
+        <v>1589</v>
+      </c>
+      <c r="I469" s="59" t="s">
         <v>1590</v>
       </c>
-      <c r="I469" s="59" t="s">
+      <c r="J469" s="59" t="s">
         <v>1591</v>
-      </c>
-      <c r="J469" s="59" t="s">
-        <v>1592</v>
       </c>
       <c r="L469" s="59">
         <v>-31</v>
@@ -41751,10 +41751,10 @@
         <v>991</v>
       </c>
       <c r="R469" s="60" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="W469" s="59" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="X469" s="59">
         <v>9999999</v>
@@ -41789,13 +41789,13 @@
         <v>1</v>
       </c>
       <c r="G470" s="59" t="s">
+        <v>1593</v>
+      </c>
+      <c r="I470" s="59" t="s">
+        <v>1590</v>
+      </c>
+      <c r="J470" s="59" t="s">
         <v>1594</v>
-      </c>
-      <c r="I470" s="59" t="s">
-        <v>1591</v>
-      </c>
-      <c r="J470" s="59" t="s">
-        <v>1595</v>
       </c>
       <c r="L470" s="59">
         <v>-31</v>
@@ -41813,13 +41813,13 @@
         <v>6800</v>
       </c>
       <c r="Q470" s="59" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="R470" s="60" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="W470" s="59" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="X470" s="59">
         <v>9999999</v>
@@ -41854,13 +41854,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="59" t="s">
+        <v>1596</v>
+      </c>
+      <c r="I471" s="59" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J471" s="59" t="s">
         <v>1597</v>
-      </c>
-      <c r="I471" s="59" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J471" s="59" t="s">
-        <v>1598</v>
       </c>
       <c r="L471" s="59">
         <v>-31</v>
@@ -41878,13 +41878,13 @@
         <v>9800</v>
       </c>
       <c r="Q471" s="59" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="R471" s="60" t="s">
+        <v>1598</v>
+      </c>
+      <c r="W471" s="59" t="s">
         <v>1599</v>
-      </c>
-      <c r="W471" s="59" t="s">
-        <v>1600</v>
       </c>
       <c r="X471" s="59">
         <v>9999999</v>
@@ -41919,13 +41919,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="59" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I472" s="59" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J472" s="59" t="s">
         <v>1601</v>
-      </c>
-      <c r="I472" s="59" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J472" s="59" t="s">
-        <v>1602</v>
       </c>
       <c r="L472" s="59">
         <v>-31</v>
@@ -41946,10 +41946,10 @@
         <v>991</v>
       </c>
       <c r="R472" s="60" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="W472" s="59" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="X472" s="59">
         <v>9999999</v>
@@ -41984,13 +41984,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="59" t="s">
+        <v>1603</v>
+      </c>
+      <c r="I473" s="59" t="s">
+        <v>1590</v>
+      </c>
+      <c r="J473" s="59" t="s">
         <v>1604</v>
-      </c>
-      <c r="I473" s="59" t="s">
-        <v>1591</v>
-      </c>
-      <c r="J473" s="59" t="s">
-        <v>1605</v>
       </c>
       <c r="L473" s="59">
         <v>-31</v>
@@ -42008,13 +42008,13 @@
         <v>49800</v>
       </c>
       <c r="Q473" s="59" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="R473" s="60" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="W473" s="59" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="X473" s="59">
         <v>9999999</v>
@@ -42049,13 +42049,13 @@
         <v>1</v>
       </c>
       <c r="G474" s="59" t="s">
+        <v>1606</v>
+      </c>
+      <c r="I474" s="59" t="s">
+        <v>1590</v>
+      </c>
+      <c r="J474" s="59" t="s">
         <v>1607</v>
-      </c>
-      <c r="I474" s="59" t="s">
-        <v>1591</v>
-      </c>
-      <c r="J474" s="59" t="s">
-        <v>1608</v>
       </c>
       <c r="L474" s="59">
         <v>-31</v>
@@ -42073,13 +42073,13 @@
         <v>99800</v>
       </c>
       <c r="Q474" s="59" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="R474" s="60" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="W474" s="59" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="X474" s="59">
         <v>9999999</v>
@@ -42114,13 +42114,13 @@
         <v>1</v>
       </c>
       <c r="G475" s="59" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="I475" s="59" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="J475" s="59" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="L475" s="59">
         <v>-31</v>
@@ -42138,13 +42138,13 @@
         <v>249800</v>
       </c>
       <c r="Q475" s="59" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="R475" s="60" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="W475" s="59" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="X475" s="59">
         <v>9999999</v>
@@ -42179,13 +42179,13 @@
         <v>0</v>
       </c>
       <c r="G476" s="5" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I476" s="5" t="s">
         <v>1653</v>
       </c>
-      <c r="I476" s="5" t="s">
+      <c r="J476" s="5" t="s">
         <v>1654</v>
-      </c>
-      <c r="J476" s="5" t="s">
-        <v>1655</v>
       </c>
       <c r="L476" s="5">
         <v>-31</v>
@@ -42203,13 +42203,13 @@
         <v>49800</v>
       </c>
       <c r="Q476" s="5" t="s">
+        <v>1655</v>
+      </c>
+      <c r="R476" s="10" t="s">
         <v>1656</v>
       </c>
-      <c r="R476" s="10" t="s">
-        <v>1657</v>
-      </c>
       <c r="W476" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="X476" s="5">
         <v>9999999</v>
@@ -42244,13 +42244,13 @@
         <v>0</v>
       </c>
       <c r="G477" s="5" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="I477" s="5" t="s">
+        <v>1657</v>
+      </c>
+      <c r="J477" s="5" t="s">
         <v>1658</v>
-      </c>
-      <c r="J477" s="5" t="s">
-        <v>1659</v>
       </c>
       <c r="L477" s="5">
         <v>-31</v>
@@ -42268,13 +42268,13 @@
         <v>19800</v>
       </c>
       <c r="Q477" s="5" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="R477" s="10" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="W477" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="X477" s="5">
         <v>9999999</v>
@@ -42309,13 +42309,13 @@
         <v>0</v>
       </c>
       <c r="G478" s="5" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="I478" s="5" t="s">
+        <v>1660</v>
+      </c>
+      <c r="J478" s="5" t="s">
         <v>1661</v>
-      </c>
-      <c r="J478" s="5" t="s">
-        <v>1662</v>
       </c>
       <c r="L478" s="5">
         <v>-31</v>
@@ -42333,7 +42333,7 @@
         <v>9800</v>
       </c>
       <c r="Q478" s="5" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="R478" s="10" t="s">
         <v>750</v>
@@ -42374,13 +42374,13 @@
         <v>0</v>
       </c>
       <c r="G479" s="5" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="I479" s="5" t="s">
+        <v>1663</v>
+      </c>
+      <c r="J479" s="5" t="s">
         <v>1664</v>
-      </c>
-      <c r="J479" s="5" t="s">
-        <v>1665</v>
       </c>
       <c r="L479" s="5">
         <v>-31</v>
@@ -42398,13 +42398,13 @@
         <v>4800</v>
       </c>
       <c r="Q479" s="5" t="s">
+        <v>1665</v>
+      </c>
+      <c r="R479" s="10" t="s">
         <v>1666</v>
       </c>
-      <c r="R479" s="10" t="s">
-        <v>1667</v>
-      </c>
       <c r="W479" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="X479" s="5">
         <v>9999999</v>
@@ -42439,10 +42439,10 @@
         <v>0</v>
       </c>
       <c r="G480" s="5" t="s">
+        <v>1670</v>
+      </c>
+      <c r="J480" s="5" t="s">
         <v>1671</v>
-      </c>
-      <c r="J480" s="5" t="s">
-        <v>1672</v>
       </c>
       <c r="L480" s="5">
         <v>-31</v>
@@ -42460,13 +42460,13 @@
         <v>49800</v>
       </c>
       <c r="Q480" s="5" t="s">
+        <v>1672</v>
+      </c>
+      <c r="R480" s="10" t="s">
         <v>1673</v>
       </c>
-      <c r="R480" s="10" t="s">
+      <c r="W480" s="5" t="s">
         <v>1674</v>
-      </c>
-      <c r="W480" s="5" t="s">
-        <v>1675</v>
       </c>
       <c r="X480" s="5">
         <v>9999999</v>
@@ -42504,7 +42504,7 @@
         <v>355</v>
       </c>
       <c r="J481" s="5" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="L481" s="5">
         <v>-31</v>
@@ -42522,13 +42522,13 @@
         <v>19800</v>
       </c>
       <c r="Q481" s="5" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="R481" s="10" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="W481" s="5" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="X481" s="5">
         <v>9999999</v>
@@ -42566,7 +42566,7 @@
         <v>354</v>
       </c>
       <c r="J482" s="5" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="L482" s="5">
         <v>-31</v>
@@ -42584,13 +42584,13 @@
         <v>9800</v>
       </c>
       <c r="Q482" s="5" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="R482" s="10" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="W482" s="5" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="X482" s="5">
         <v>9999999</v>
@@ -42628,7 +42628,7 @@
         <v>353</v>
       </c>
       <c r="J483" s="5" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="L483" s="5">
         <v>-31</v>
@@ -42646,13 +42646,13 @@
         <v>4800</v>
       </c>
       <c r="Q483" s="5" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="R483" s="10" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="W483" s="5" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="X483" s="5">
         <v>9999999</v>
@@ -42687,10 +42687,10 @@
         <v>0</v>
       </c>
       <c r="G484" s="5" t="s">
+        <v>1681</v>
+      </c>
+      <c r="J484" s="5" t="s">
         <v>1682</v>
-      </c>
-      <c r="J484" s="5" t="s">
-        <v>1683</v>
       </c>
       <c r="L484" s="5">
         <v>-31</v>
@@ -42708,13 +42708,13 @@
         <v>2000</v>
       </c>
       <c r="Q484" s="5" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="R484" s="10" t="s">
+        <v>1683</v>
+      </c>
+      <c r="W484" s="5" t="s">
         <v>1684</v>
-      </c>
-      <c r="W484" s="5" t="s">
-        <v>1685</v>
       </c>
       <c r="X484" s="5">
         <v>9999999</v>
@@ -42749,10 +42749,10 @@
         <v>0</v>
       </c>
       <c r="G485" s="5" t="s">
+        <v>1685</v>
+      </c>
+      <c r="J485" s="5" t="s">
         <v>1686</v>
-      </c>
-      <c r="J485" s="5" t="s">
-        <v>1687</v>
       </c>
       <c r="L485" s="5">
         <v>-31</v>
@@ -42770,13 +42770,13 @@
         <v>600</v>
       </c>
       <c r="Q485" s="5" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="R485" s="10" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="W485" s="5" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="X485" s="5">
         <v>9999999</v>
@@ -42811,13 +42811,13 @@
         <v>0</v>
       </c>
       <c r="G486" s="5" t="s">
+        <v>1792</v>
+      </c>
+      <c r="I486" s="5" t="s">
         <v>1793</v>
       </c>
-      <c r="I486" s="5" t="s">
+      <c r="J486" s="5" t="s">
         <v>1794</v>
-      </c>
-      <c r="J486" s="5" t="s">
-        <v>1795</v>
       </c>
       <c r="L486" s="5">
         <v>-31</v>
@@ -42835,10 +42835,10 @@
         <v>1800</v>
       </c>
       <c r="Q486" s="5" t="s">
+        <v>1795</v>
+      </c>
+      <c r="R486" s="10" t="s">
         <v>1796</v>
-      </c>
-      <c r="R486" s="10" t="s">
-        <v>1797</v>
       </c>
       <c r="W486" s="5" t="s">
         <v>527</v>
@@ -42876,13 +42876,13 @@
         <v>0</v>
       </c>
       <c r="G487" s="5" t="s">
+        <v>1797</v>
+      </c>
+      <c r="I487" s="5" t="s">
+        <v>1793</v>
+      </c>
+      <c r="J487" s="5" t="s">
         <v>1798</v>
-      </c>
-      <c r="I487" s="5" t="s">
-        <v>1794</v>
-      </c>
-      <c r="J487" s="5" t="s">
-        <v>1799</v>
       </c>
       <c r="L487" s="5">
         <v>-31</v>
@@ -42900,10 +42900,10 @@
         <v>4800</v>
       </c>
       <c r="Q487" s="5" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="R487" s="10" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="W487" s="5" t="s">
         <v>527</v>
@@ -42941,13 +42941,13 @@
         <v>0</v>
       </c>
       <c r="G488" s="5" t="s">
+        <v>1800</v>
+      </c>
+      <c r="I488" s="5" t="s">
+        <v>1793</v>
+      </c>
+      <c r="J488" s="5" t="s">
         <v>1801</v>
-      </c>
-      <c r="I488" s="5" t="s">
-        <v>1794</v>
-      </c>
-      <c r="J488" s="5" t="s">
-        <v>1802</v>
       </c>
       <c r="L488" s="5">
         <v>-31</v>
@@ -42965,10 +42965,10 @@
         <v>9800</v>
       </c>
       <c r="Q488" s="5" t="s">
+        <v>1802</v>
+      </c>
+      <c r="R488" s="10" t="s">
         <v>1803</v>
-      </c>
-      <c r="R488" s="10" t="s">
-        <v>1804</v>
       </c>
       <c r="W488" s="5" t="s">
         <v>527</v>
@@ -43006,13 +43006,13 @@
         <v>0</v>
       </c>
       <c r="G489" s="5" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="I489" s="5" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="J489" s="5" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="L489" s="5">
         <v>-31</v>
@@ -43030,10 +43030,10 @@
         <v>19800</v>
       </c>
       <c r="Q489" s="5" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="R489" s="10" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="W489" s="5" t="s">
         <v>527</v>
@@ -43071,13 +43071,13 @@
         <v>0</v>
       </c>
       <c r="G490" s="5" t="s">
+        <v>1805</v>
+      </c>
+      <c r="I490" s="5" t="s">
+        <v>1793</v>
+      </c>
+      <c r="J490" s="5" t="s">
         <v>1806</v>
-      </c>
-      <c r="I490" s="5" t="s">
-        <v>1794</v>
-      </c>
-      <c r="J490" s="5" t="s">
-        <v>1807</v>
       </c>
       <c r="L490" s="5">
         <v>-31</v>
@@ -43095,10 +43095,10 @@
         <v>29800</v>
       </c>
       <c r="Q490" s="5" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="R490" s="10" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="W490" s="5" t="s">
         <v>527</v>
@@ -43136,13 +43136,13 @@
         <v>0</v>
       </c>
       <c r="G491" s="5" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="I491" s="5" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="J491" s="5" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="L491" s="5">
         <v>-31</v>
@@ -43160,10 +43160,10 @@
         <v>49800</v>
       </c>
       <c r="Q491" s="5" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="R491" s="10" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="W491" s="5" t="s">
         <v>527</v>
@@ -43201,13 +43201,13 @@
         <v>0</v>
       </c>
       <c r="G492" s="5" t="s">
+        <v>1810</v>
+      </c>
+      <c r="I492" s="5" t="s">
+        <v>1793</v>
+      </c>
+      <c r="J492" s="5" t="s">
         <v>1811</v>
-      </c>
-      <c r="I492" s="5" t="s">
-        <v>1794</v>
-      </c>
-      <c r="J492" s="5" t="s">
-        <v>1812</v>
       </c>
       <c r="L492" s="5">
         <v>-31</v>
@@ -43219,19 +43219,19 @@
         <v>0</v>
       </c>
       <c r="O492" s="5" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="P492" s="5">
         <v>99800</v>
       </c>
       <c r="Q492" s="5" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="R492" s="10" t="s">
+        <v>1813</v>
+      </c>
+      <c r="W492" s="5" t="s">
         <v>1814</v>
-      </c>
-      <c r="W492" s="5" t="s">
-        <v>1815</v>
       </c>
       <c r="X492" s="5">
         <v>9999999</v>
@@ -43266,13 +43266,13 @@
         <v>1</v>
       </c>
       <c r="G493" s="59" t="s">
+        <v>1853</v>
+      </c>
+      <c r="I493" s="59" t="s">
         <v>1854</v>
       </c>
-      <c r="I493" s="59" t="s">
+      <c r="J493" s="59" t="s">
         <v>1855</v>
-      </c>
-      <c r="J493" s="59" t="s">
-        <v>1856</v>
       </c>
       <c r="L493" s="59">
         <v>-31</v>
@@ -43284,16 +43284,16 @@
         <v>0</v>
       </c>
       <c r="O493" s="59" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="P493" s="59">
         <v>49800</v>
       </c>
       <c r="Q493" s="59" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="R493" s="60" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="W493" s="59" t="s">
         <v>524</v>
@@ -43331,13 +43331,13 @@
         <v>1</v>
       </c>
       <c r="G494" s="59" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="I494" s="59" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="J494" s="59" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="L494" s="59">
         <v>-31</v>
@@ -43349,16 +43349,16 @@
         <v>0</v>
       </c>
       <c r="O494" s="59" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="P494" s="59">
         <v>99800</v>
       </c>
       <c r="Q494" s="59" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="R494" s="60" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="W494" s="59" t="s">
         <v>524</v>
@@ -43396,10 +43396,10 @@
         <v>1</v>
       </c>
       <c r="G495" s="59" t="s">
+        <v>1869</v>
+      </c>
+      <c r="J495" s="59" t="s">
         <v>1870</v>
-      </c>
-      <c r="J495" s="59" t="s">
-        <v>1871</v>
       </c>
       <c r="L495" s="59">
         <v>-31</v>
@@ -43411,16 +43411,16 @@
         <v>0</v>
       </c>
       <c r="O495" s="59" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="P495" s="59">
         <v>79800</v>
       </c>
       <c r="Q495" s="59" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="R495" s="60" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="W495" s="59" t="s">
         <v>568</v>
@@ -43461,10 +43461,10 @@
         <v>1</v>
       </c>
       <c r="G496" s="59" t="s">
+        <v>1873</v>
+      </c>
+      <c r="J496" s="59" t="s">
         <v>1874</v>
-      </c>
-      <c r="J496" s="59" t="s">
-        <v>1875</v>
       </c>
       <c r="L496" s="59">
         <v>-31</v>
@@ -43476,19 +43476,19 @@
         <v>0</v>
       </c>
       <c r="O496" s="59" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="P496" s="59">
         <v>89800</v>
       </c>
       <c r="Q496" s="59" t="s">
+        <v>1875</v>
+      </c>
+      <c r="R496" s="60" t="s">
         <v>1876</v>
       </c>
-      <c r="R496" s="60" t="s">
+      <c r="W496" s="59" t="s">
         <v>1877</v>
-      </c>
-      <c r="W496" s="59" t="s">
-        <v>1878</v>
       </c>
       <c r="X496" s="59">
         <v>99999999</v>
@@ -43526,13 +43526,13 @@
         <v>0</v>
       </c>
       <c r="G497" s="5" t="s">
+        <v>1880</v>
+      </c>
+      <c r="I497" s="5" t="s">
         <v>1881</v>
       </c>
-      <c r="I497" s="5" t="s">
+      <c r="J497" s="5" t="s">
         <v>1882</v>
-      </c>
-      <c r="J497" s="5" t="s">
-        <v>1883</v>
       </c>
       <c r="L497" s="5">
         <v>-31</v>
@@ -43544,19 +43544,19 @@
         <v>0</v>
       </c>
       <c r="O497" s="5" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="P497" s="5">
         <v>49800</v>
       </c>
       <c r="Q497" s="5" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="R497" s="63" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="W497" s="47" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="X497" s="5">
         <v>99999999</v>
@@ -43594,13 +43594,13 @@
         <v>0</v>
       </c>
       <c r="G498" s="5" t="s">
+        <v>1880</v>
+      </c>
+      <c r="I498" s="5" t="s">
         <v>1881</v>
       </c>
-      <c r="I498" s="5" t="s">
-        <v>1882</v>
-      </c>
       <c r="J498" s="5" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="L498" s="5">
         <v>-31</v>
@@ -43618,13 +43618,13 @@
         <v>19800</v>
       </c>
       <c r="Q498" s="5" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="R498" s="63" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="W498" s="47" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="X498" s="5">
         <v>99999999</v>
@@ -43662,13 +43662,13 @@
         <v>0</v>
       </c>
       <c r="G499" s="5" t="s">
+        <v>1880</v>
+      </c>
+      <c r="I499" s="5" t="s">
         <v>1881</v>
       </c>
-      <c r="I499" s="5" t="s">
-        <v>1882</v>
-      </c>
       <c r="J499" s="5" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="L499" s="5">
         <v>-31</v>
@@ -43686,13 +43686,13 @@
         <v>9800</v>
       </c>
       <c r="Q499" s="5" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="R499" s="63" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="W499" s="47" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="X499" s="5">
         <v>99999999</v>
@@ -43730,13 +43730,13 @@
         <v>0</v>
       </c>
       <c r="G500" s="5" t="s">
+        <v>1880</v>
+      </c>
+      <c r="I500" s="5" t="s">
         <v>1881</v>
       </c>
-      <c r="I500" s="5" t="s">
-        <v>1882</v>
-      </c>
       <c r="J500" s="5" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="L500" s="5">
         <v>-31</v>
@@ -43754,13 +43754,13 @@
         <v>4800</v>
       </c>
       <c r="Q500" s="5" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="R500" s="63" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="W500" s="47" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="X500" s="5">
         <v>99999999</v>
@@ -43798,13 +43798,13 @@
         <v>0</v>
       </c>
       <c r="G501" s="5" t="s">
+        <v>1888</v>
+      </c>
+      <c r="I501" s="5" t="s">
+        <v>1881</v>
+      </c>
+      <c r="J501" s="5" t="s">
         <v>1889</v>
-      </c>
-      <c r="I501" s="5" t="s">
-        <v>1882</v>
-      </c>
-      <c r="J501" s="5" t="s">
-        <v>1890</v>
       </c>
       <c r="L501" s="5">
         <v>-31</v>
@@ -43816,19 +43816,19 @@
         <v>0</v>
       </c>
       <c r="O501" s="5" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="P501" s="5">
         <v>2000</v>
       </c>
       <c r="Q501" s="5" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="R501" s="63" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="W501" s="47" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="X501" s="5">
         <v>99999999</v>
@@ -43866,13 +43866,13 @@
         <v>0</v>
       </c>
       <c r="G502" s="5" t="s">
+        <v>1880</v>
+      </c>
+      <c r="I502" s="5" t="s">
         <v>1881</v>
       </c>
-      <c r="I502" s="5" t="s">
-        <v>1882</v>
-      </c>
       <c r="J502" s="5" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="L502" s="5">
         <v>-31</v>
@@ -43890,13 +43890,13 @@
         <v>600</v>
       </c>
       <c r="Q502" s="5" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="R502" s="63" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="W502" s="47" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="X502" s="5">
         <v>99999999</v>
@@ -43934,13 +43934,13 @@
         <v>0</v>
       </c>
       <c r="G503" s="5" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="I503" s="5" t="s">
+        <v>1892</v>
+      </c>
+      <c r="J503" s="5" t="s">
         <v>1893</v>
-      </c>
-      <c r="J503" s="5" t="s">
-        <v>1894</v>
       </c>
       <c r="L503" s="5">
         <v>-31</v>
@@ -43958,13 +43958,13 @@
         <v>49800</v>
       </c>
       <c r="Q503" s="5" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="R503" s="64" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="W503" s="47" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="X503" s="5">
         <v>99999999</v>
@@ -44002,13 +44002,13 @@
         <v>0</v>
       </c>
       <c r="G504" s="5" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="I504" s="5" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="J504" s="5" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="L504" s="5">
         <v>-31</v>
@@ -44026,13 +44026,13 @@
         <v>19800</v>
       </c>
       <c r="Q504" s="5" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="R504" s="64" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="W504" s="47" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="X504" s="5">
         <v>99999999</v>
@@ -44070,13 +44070,13 @@
         <v>0</v>
       </c>
       <c r="G505" s="5" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="I505" s="5" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="J505" s="5" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="L505" s="5">
         <v>-31</v>
@@ -44094,13 +44094,13 @@
         <v>9800</v>
       </c>
       <c r="Q505" s="5" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="R505" s="64" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="W505" s="47" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="X505" s="5">
         <v>99999999</v>
@@ -44138,13 +44138,13 @@
         <v>0</v>
       </c>
       <c r="G506" s="5" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="I506" s="5" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="J506" s="5" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="L506" s="5">
         <v>-31</v>
@@ -44162,13 +44162,13 @@
         <v>4800</v>
       </c>
       <c r="Q506" s="5" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="R506" s="64" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="W506" s="47" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="X506" s="5">
         <v>99999999</v>
@@ -44206,13 +44206,13 @@
         <v>0</v>
       </c>
       <c r="G507" s="5" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="I507" s="5" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="J507" s="5" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="L507" s="5">
         <v>-31</v>
@@ -44230,13 +44230,13 @@
         <v>2000</v>
       </c>
       <c r="Q507" s="5" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="R507" s="64" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="W507" s="47" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="X507" s="5">
         <v>99999999</v>
@@ -44274,13 +44274,13 @@
         <v>0</v>
       </c>
       <c r="G508" s="5" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="I508" s="5" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="J508" s="5" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="L508" s="5">
         <v>-31</v>
@@ -44298,13 +44298,13 @@
         <v>600</v>
       </c>
       <c r="Q508" s="5" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="R508" s="64" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="W508" s="47" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="X508" s="5">
         <v>99999999</v>
@@ -44342,10 +44342,10 @@
         <v>1</v>
       </c>
       <c r="G509" s="59" t="s">
+        <v>1901</v>
+      </c>
+      <c r="J509" s="59" t="s">
         <v>1902</v>
-      </c>
-      <c r="J509" s="59" t="s">
-        <v>1903</v>
       </c>
       <c r="L509" s="59">
         <v>-4</v>
@@ -44379,10 +44379,10 @@
         <v>77</v>
       </c>
       <c r="AC509" s="59" t="s">
+        <v>1903</v>
+      </c>
+      <c r="AD509" s="60" t="s">
         <v>1904</v>
-      </c>
-      <c r="AD509" s="60" t="s">
-        <v>1905</v>
       </c>
       <c r="AH509" s="59">
         <v>1</v>
@@ -44402,10 +44402,10 @@
         <v>1</v>
       </c>
       <c r="G510" s="59" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J510" s="59" t="s">
         <v>1906</v>
-      </c>
-      <c r="J510" s="59" t="s">
-        <v>1907</v>
       </c>
       <c r="L510" s="59">
         <v>-4</v>
@@ -44439,10 +44439,10 @@
         <v>77</v>
       </c>
       <c r="AC510" s="59" t="s">
+        <v>1907</v>
+      </c>
+      <c r="AD510" s="60" t="s">
         <v>1908</v>
-      </c>
-      <c r="AD510" s="60" t="s">
-        <v>1909</v>
       </c>
       <c r="AH510" s="59">
         <v>1</v>
@@ -44462,10 +44462,10 @@
         <v>1</v>
       </c>
       <c r="G511" s="59" t="s">
+        <v>1909</v>
+      </c>
+      <c r="J511" s="59" t="s">
         <v>1910</v>
-      </c>
-      <c r="J511" s="59" t="s">
-        <v>1911</v>
       </c>
       <c r="L511" s="59">
         <v>-4</v>
@@ -44499,10 +44499,10 @@
         <v>77</v>
       </c>
       <c r="AC511" s="59" t="s">
+        <v>1911</v>
+      </c>
+      <c r="AD511" s="60" t="s">
         <v>1912</v>
-      </c>
-      <c r="AD511" s="60" t="s">
-        <v>1913</v>
       </c>
       <c r="AH511" s="59">
         <v>1</v>
@@ -44522,13 +44522,13 @@
         <v>0</v>
       </c>
       <c r="G512" s="5" t="s">
+        <v>1926</v>
+      </c>
+      <c r="I512" s="5" t="s">
         <v>1927</v>
       </c>
-      <c r="I512" s="5" t="s">
+      <c r="J512" s="5" t="s">
         <v>1928</v>
-      </c>
-      <c r="J512" s="5" t="s">
-        <v>1929</v>
       </c>
       <c r="L512" s="5">
         <v>-33</v>
@@ -44540,19 +44540,19 @@
         <v>0</v>
       </c>
       <c r="O512" s="5" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="P512" s="5">
         <v>49800</v>
       </c>
       <c r="Q512" s="5" t="s">
+        <v>1929</v>
+      </c>
+      <c r="R512" s="10" t="s">
+        <v>1924</v>
+      </c>
+      <c r="W512" s="5" t="s">
         <v>1930</v>
-      </c>
-      <c r="R512" s="10" t="s">
-        <v>1925</v>
-      </c>
-      <c r="W512" s="5" t="s">
-        <v>1931</v>
       </c>
       <c r="X512" s="5">
         <v>99999999</v>
@@ -44590,13 +44590,13 @@
         <v>0</v>
       </c>
       <c r="G513" s="5" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="I513" s="5" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="J513" s="5" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="L513" s="5">
         <v>-33</v>
@@ -44608,19 +44608,19 @@
         <v>0</v>
       </c>
       <c r="O513" s="5" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="P513" s="5">
         <v>19800</v>
       </c>
       <c r="Q513" s="5" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="R513" s="10" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="W513" s="5" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="X513" s="5">
         <v>99999999</v>
@@ -44658,13 +44658,13 @@
         <v>0</v>
       </c>
       <c r="G514" s="5" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="I514" s="5" t="s">
+        <v>1932</v>
+      </c>
+      <c r="J514" s="5" t="s">
         <v>1933</v>
-      </c>
-      <c r="J514" s="5" t="s">
-        <v>1934</v>
       </c>
       <c r="L514" s="5">
         <v>-33</v>
@@ -44676,19 +44676,19 @@
         <v>0</v>
       </c>
       <c r="O514" s="5" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="P514" s="5">
         <v>9800</v>
       </c>
       <c r="Q514" s="5" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="R514" s="10" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="W514" s="5" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="X514" s="5">
         <v>99999999</v>
@@ -44726,13 +44726,13 @@
         <v>0</v>
       </c>
       <c r="G515" s="5" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="I515" s="5" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="J515" s="5" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="L515" s="5">
         <v>-33</v>
@@ -44744,19 +44744,19 @@
         <v>0</v>
       </c>
       <c r="O515" s="5" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="P515" s="5">
         <v>4800</v>
       </c>
       <c r="Q515" s="5" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="R515" s="10" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="W515" s="5" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="X515" s="5">
         <v>99999999</v>
@@ -44794,13 +44794,13 @@
         <v>0</v>
       </c>
       <c r="G516" s="5" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="I516" s="5" t="s">
+        <v>1938</v>
+      </c>
+      <c r="J516" s="5" t="s">
         <v>1939</v>
-      </c>
-      <c r="J516" s="5" t="s">
-        <v>1940</v>
       </c>
       <c r="L516" s="5">
         <v>-33</v>
@@ -44812,19 +44812,19 @@
         <v>0</v>
       </c>
       <c r="O516" s="5" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="P516" s="5">
         <v>49800</v>
       </c>
       <c r="Q516" s="5" t="s">
+        <v>1941</v>
+      </c>
+      <c r="R516" s="10" t="s">
         <v>1942</v>
       </c>
-      <c r="R516" s="10" t="s">
-        <v>1943</v>
-      </c>
       <c r="W516" s="5" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="X516" s="5">
         <v>99999999</v>
@@ -44862,13 +44862,13 @@
         <v>0</v>
       </c>
       <c r="G517" s="5" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="I517" s="5" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="J517" s="5" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="L517" s="5">
         <v>-33</v>
@@ -44880,19 +44880,19 @@
         <v>0</v>
       </c>
       <c r="O517" s="5" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="P517" s="5">
         <v>19800</v>
       </c>
       <c r="Q517" s="5" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="R517" s="10" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="W517" s="5" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="X517" s="5">
         <v>99999999</v>
@@ -44930,13 +44930,13 @@
         <v>0</v>
       </c>
       <c r="G518" s="5" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="I518" s="5" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="J518" s="5" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="L518" s="5">
         <v>-33</v>
@@ -44948,19 +44948,19 @@
         <v>0</v>
       </c>
       <c r="O518" s="5" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="P518" s="5">
         <v>9800</v>
       </c>
       <c r="Q518" s="5" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="R518" s="10" t="s">
+        <v>1946</v>
+      </c>
+      <c r="W518" s="5" t="s">
         <v>1947</v>
-      </c>
-      <c r="W518" s="5" t="s">
-        <v>1948</v>
       </c>
       <c r="X518" s="5">
         <v>99999999</v>
@@ -44998,13 +44998,13 @@
         <v>0</v>
       </c>
       <c r="G519" s="5" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="I519" s="5" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="J519" s="5" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="L519" s="5">
         <v>-33</v>
@@ -45016,19 +45016,19 @@
         <v>0</v>
       </c>
       <c r="O519" s="5" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="P519" s="5">
         <v>4800</v>
       </c>
       <c r="Q519" s="5" t="s">
+        <v>1950</v>
+      </c>
+      <c r="R519" s="10" t="s">
         <v>1951</v>
       </c>
-      <c r="R519" s="10" t="s">
-        <v>1952</v>
-      </c>
       <c r="W519" s="5" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="X519" s="5">
         <v>99999999</v>
@@ -45066,13 +45066,13 @@
         <v>1</v>
       </c>
       <c r="G520" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="I520" s="5" t="s">
         <v>1954</v>
       </c>
-      <c r="I520" s="5" t="s">
+      <c r="J520" s="5" t="s">
         <v>1955</v>
-      </c>
-      <c r="J520" s="5" t="s">
-        <v>1956</v>
       </c>
       <c r="L520" s="5">
         <v>-23</v>
@@ -45090,16 +45090,16 @@
         <v>1000</v>
       </c>
       <c r="Q520" s="5" t="s">
+        <v>1956</v>
+      </c>
+      <c r="R520" s="10" t="s">
         <v>1957</v>
       </c>
-      <c r="R520" s="10" t="s">
+      <c r="S520" s="5" t="s">
         <v>1958</v>
       </c>
-      <c r="S520" s="5" t="s">
+      <c r="W520" s="5" t="s">
         <v>1959</v>
-      </c>
-      <c r="W520" s="5" t="s">
-        <v>1960</v>
       </c>
       <c r="X520" s="5">
         <v>99999999</v>
@@ -45128,13 +45128,13 @@
         <v>1</v>
       </c>
       <c r="G521" s="19" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="I521" s="19" t="s">
+        <v>1963</v>
+      </c>
+      <c r="J521" s="19" t="s">
         <v>1964</v>
-      </c>
-      <c r="J521" s="19" t="s">
-        <v>1965</v>
       </c>
       <c r="L521" s="19">
         <v>-33</v>
@@ -45152,13 +45152,13 @@
         <v>600</v>
       </c>
       <c r="Q521" s="19" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="R521" s="39" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="W521" s="19" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="X521" s="19">
         <v>99999999</v>
@@ -45196,13 +45196,13 @@
         <v>1</v>
       </c>
       <c r="G522" s="19" t="s">
+        <v>1968</v>
+      </c>
+      <c r="I522" s="19" t="s">
+        <v>1963</v>
+      </c>
+      <c r="J522" s="19" t="s">
         <v>1969</v>
-      </c>
-      <c r="I522" s="19" t="s">
-        <v>1964</v>
-      </c>
-      <c r="J522" s="19" t="s">
-        <v>1970</v>
       </c>
       <c r="L522" s="19">
         <v>-33</v>
@@ -45220,10 +45220,10 @@
         <v>1000</v>
       </c>
       <c r="Q522" s="19" t="s">
+        <v>1971</v>
+      </c>
+      <c r="R522" s="39" t="s">
         <v>1972</v>
-      </c>
-      <c r="R522" s="39" t="s">
-        <v>1973</v>
       </c>
       <c r="W522" s="19" t="s">
         <v>1103</v>
@@ -45264,13 +45264,13 @@
         <v>1</v>
       </c>
       <c r="G523" s="19" t="s">
+        <v>1973</v>
+      </c>
+      <c r="I523" s="19" t="s">
+        <v>1962</v>
+      </c>
+      <c r="J523" s="19" t="s">
         <v>1974</v>
-      </c>
-      <c r="I523" s="19" t="s">
-        <v>1963</v>
-      </c>
-      <c r="J523" s="19" t="s">
-        <v>1975</v>
       </c>
       <c r="L523" s="19">
         <v>-33</v>
@@ -45288,10 +45288,10 @@
         <v>1800</v>
       </c>
       <c r="Q523" s="19" t="s">
+        <v>1976</v>
+      </c>
+      <c r="R523" s="39" t="s">
         <v>1977</v>
-      </c>
-      <c r="R523" s="39" t="s">
-        <v>1978</v>
       </c>
       <c r="W523" s="19" t="s">
         <v>1103</v>
@@ -45332,13 +45332,13 @@
         <v>1</v>
       </c>
       <c r="G524" s="19" t="s">
+        <v>1978</v>
+      </c>
+      <c r="I524" s="19" t="s">
+        <v>1963</v>
+      </c>
+      <c r="J524" s="19" t="s">
         <v>1979</v>
-      </c>
-      <c r="I524" s="19" t="s">
-        <v>1964</v>
-      </c>
-      <c r="J524" s="19" t="s">
-        <v>1980</v>
       </c>
       <c r="L524" s="19">
         <v>-33</v>
@@ -45356,10 +45356,10 @@
         <v>4800</v>
       </c>
       <c r="Q524" s="19" t="s">
+        <v>1980</v>
+      </c>
+      <c r="R524" s="39" t="s">
         <v>1981</v>
-      </c>
-      <c r="R524" s="39" t="s">
-        <v>1982</v>
       </c>
       <c r="W524" s="19" t="s">
         <v>1103</v>
@@ -45400,13 +45400,13 @@
         <v>1</v>
       </c>
       <c r="G525" s="19" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="I525" s="19" t="s">
+        <v>1982</v>
+      </c>
+      <c r="J525" s="19" t="s">
         <v>1983</v>
-      </c>
-      <c r="J525" s="19" t="s">
-        <v>1984</v>
       </c>
       <c r="L525" s="19">
         <v>-33</v>
@@ -45424,10 +45424,10 @@
         <v>1800</v>
       </c>
       <c r="Q525" s="19" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="R525" s="39" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="W525" s="19" t="s">
         <v>1103</v>
@@ -45468,13 +45468,13 @@
         <v>1</v>
       </c>
       <c r="G526" s="19" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="I526" s="19" t="s">
+        <v>1984</v>
+      </c>
+      <c r="J526" s="19" t="s">
         <v>1985</v>
-      </c>
-      <c r="J526" s="19" t="s">
-        <v>1986</v>
       </c>
       <c r="L526" s="19">
         <v>-33</v>
@@ -45492,10 +45492,10 @@
         <v>4800</v>
       </c>
       <c r="Q526" s="19" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="R526" s="39" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="W526" s="19" t="s">
         <v>1103</v>
@@ -45536,13 +45536,13 @@
         <v>1</v>
       </c>
       <c r="G527" s="19" t="s">
+        <v>1987</v>
+      </c>
+      <c r="I527" s="19" t="s">
+        <v>1984</v>
+      </c>
+      <c r="J527" s="19" t="s">
         <v>1988</v>
-      </c>
-      <c r="I527" s="19" t="s">
-        <v>1985</v>
-      </c>
-      <c r="J527" s="19" t="s">
-        <v>1989</v>
       </c>
       <c r="L527" s="19">
         <v>-33</v>
@@ -45560,10 +45560,10 @@
         <v>9800</v>
       </c>
       <c r="Q527" s="19" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="R527" s="39" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="W527" s="19" t="s">
         <v>1103</v>
@@ -45604,13 +45604,13 @@
         <v>1</v>
       </c>
       <c r="G528" s="19" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="I528" s="19" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="J528" s="19" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="L528" s="19">
         <v>-33</v>
@@ -45628,10 +45628,10 @@
         <v>19800</v>
       </c>
       <c r="Q528" s="19" t="s">
+        <v>1992</v>
+      </c>
+      <c r="R528" s="39" t="s">
         <v>1993</v>
-      </c>
-      <c r="R528" s="39" t="s">
-        <v>1994</v>
       </c>
       <c r="W528" s="19" t="s">
         <v>1103</v>
@@ -45672,13 +45672,13 @@
         <v>1</v>
       </c>
       <c r="G529" s="19" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="I529" s="19" t="s">
+        <v>1995</v>
+      </c>
+      <c r="J529" s="19" t="s">
         <v>1996</v>
-      </c>
-      <c r="J529" s="19" t="s">
-        <v>1997</v>
       </c>
       <c r="L529" s="19">
         <v>-33</v>
@@ -45696,10 +45696,10 @@
         <v>4800</v>
       </c>
       <c r="Q529" s="19" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="R529" s="39" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="W529" s="19" t="s">
         <v>1103</v>
@@ -45740,13 +45740,13 @@
         <v>1</v>
       </c>
       <c r="G530" s="19" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="I530" s="19" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="J530" s="19" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="L530" s="19">
         <v>-33</v>
@@ -45764,10 +45764,10 @@
         <v>9800</v>
       </c>
       <c r="Q530" s="19" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="R530" s="39" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="W530" s="19" t="s">
         <v>1103</v>
@@ -45808,13 +45808,13 @@
         <v>1</v>
       </c>
       <c r="G531" s="19" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="I531" s="19" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="J531" s="19" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="L531" s="19">
         <v>-33</v>
@@ -45832,10 +45832,10 @@
         <v>19800</v>
       </c>
       <c r="Q531" s="19" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="R531" s="39" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="W531" s="19" t="s">
         <v>1103</v>
@@ -45876,13 +45876,13 @@
         <v>1</v>
       </c>
       <c r="G532" s="19" t="s">
+        <v>2001</v>
+      </c>
+      <c r="I532" s="19" t="s">
+        <v>1994</v>
+      </c>
+      <c r="J532" s="19" t="s">
         <v>2002</v>
-      </c>
-      <c r="I532" s="19" t="s">
-        <v>1995</v>
-      </c>
-      <c r="J532" s="19" t="s">
-        <v>2003</v>
       </c>
       <c r="L532" s="19">
         <v>-33</v>
@@ -45900,10 +45900,10 @@
         <v>49800</v>
       </c>
       <c r="Q532" s="19" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="R532" s="39" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="W532" s="19" t="s">
         <v>1103</v>
@@ -45944,13 +45944,13 @@
         <v>1</v>
       </c>
       <c r="G533" s="5" t="s">
+        <v>2017</v>
+      </c>
+      <c r="I533" s="5" t="s">
         <v>2018</v>
       </c>
-      <c r="I533" s="5" t="s">
+      <c r="J533" s="5" t="s">
         <v>2019</v>
-      </c>
-      <c r="J533" s="5" t="s">
-        <v>2020</v>
       </c>
       <c r="L533" s="5">
         <v>-31</v>
@@ -45962,19 +45962,19 @@
         <v>0</v>
       </c>
       <c r="O533" s="5" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P533" s="5">
         <v>1800</v>
       </c>
       <c r="Q533" s="5" t="s">
+        <v>2021</v>
+      </c>
+      <c r="R533" s="10" t="s">
         <v>2022</v>
       </c>
-      <c r="R533" s="10" t="s">
+      <c r="W533" s="5" t="s">
         <v>2023</v>
-      </c>
-      <c r="W533" s="5" t="s">
-        <v>2024</v>
       </c>
       <c r="X533" s="5">
         <v>9999999</v>
@@ -46012,13 +46012,13 @@
         <v>1</v>
       </c>
       <c r="G534" s="5" t="s">
+        <v>2024</v>
+      </c>
+      <c r="I534" s="5" t="s">
         <v>2025</v>
       </c>
-      <c r="I534" s="5" t="s">
+      <c r="J534" s="5" t="s">
         <v>2026</v>
-      </c>
-      <c r="J534" s="5" t="s">
-        <v>2027</v>
       </c>
       <c r="L534" s="5">
         <v>-31</v>
@@ -46030,19 +46030,19 @@
         <v>0</v>
       </c>
       <c r="O534" s="5" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="P534" s="5">
         <v>3000</v>
       </c>
       <c r="Q534" s="5" t="s">
+        <v>2028</v>
+      </c>
+      <c r="R534" s="10" t="s">
         <v>2029</v>
       </c>
-      <c r="R534" s="10" t="s">
-        <v>2030</v>
-      </c>
       <c r="W534" s="5" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="X534" s="5">
         <v>9999999</v>
@@ -46080,13 +46080,13 @@
         <v>1</v>
       </c>
       <c r="G535" s="5" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I535" s="5" t="s">
+        <v>2025</v>
+      </c>
+      <c r="J535" s="5" t="s">
         <v>2031</v>
-      </c>
-      <c r="I535" s="5" t="s">
-        <v>2026</v>
-      </c>
-      <c r="J535" s="5" t="s">
-        <v>2032</v>
       </c>
       <c r="L535" s="5">
         <v>-31</v>
@@ -46098,19 +46098,19 @@
         <v>0</v>
       </c>
       <c r="O535" s="5" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P535" s="5">
         <v>4800</v>
       </c>
       <c r="Q535" s="5" t="s">
+        <v>2032</v>
+      </c>
+      <c r="R535" s="10" t="s">
         <v>2033</v>
       </c>
-      <c r="R535" s="10" t="s">
-        <v>2034</v>
-      </c>
       <c r="W535" s="5" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="X535" s="5">
         <v>9999999</v>
@@ -46148,13 +46148,13 @@
         <v>1</v>
       </c>
       <c r="G536" s="5" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I536" s="5" t="s">
+        <v>2034</v>
+      </c>
+      <c r="J536" s="5" t="s">
         <v>2035</v>
-      </c>
-      <c r="J536" s="5" t="s">
-        <v>2036</v>
       </c>
       <c r="L536" s="5">
         <v>-31</v>
@@ -46166,19 +46166,19 @@
         <v>0</v>
       </c>
       <c r="O536" s="5" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="P536" s="5">
         <v>4800</v>
       </c>
       <c r="Q536" s="5" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="R536" s="10" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="W536" s="5" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="X536" s="5">
         <v>9999999</v>
@@ -46216,13 +46216,13 @@
         <v>1</v>
       </c>
       <c r="G537" s="5" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="I537" s="5" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="J537" s="5" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="L537" s="5">
         <v>-31</v>
@@ -46234,19 +46234,19 @@
         <v>0</v>
       </c>
       <c r="O537" s="5" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="P537" s="5">
         <v>9800</v>
       </c>
       <c r="Q537" s="5" t="s">
+        <v>2039</v>
+      </c>
+      <c r="R537" s="10" t="s">
         <v>2040</v>
       </c>
-      <c r="R537" s="10" t="s">
-        <v>2041</v>
-      </c>
       <c r="W537" s="5" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="X537" s="5">
         <v>9999999</v>
@@ -46284,13 +46284,13 @@
         <v>1</v>
       </c>
       <c r="G538" s="5" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="I538" s="5" t="s">
+        <v>2041</v>
+      </c>
+      <c r="J538" s="5" t="s">
         <v>2042</v>
-      </c>
-      <c r="J538" s="5" t="s">
-        <v>2043</v>
       </c>
       <c r="L538" s="5">
         <v>-31</v>
@@ -46302,19 +46302,19 @@
         <v>0</v>
       </c>
       <c r="O538" s="5" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="P538" s="5">
         <v>19800</v>
       </c>
       <c r="Q538" s="5" t="s">
+        <v>2044</v>
+      </c>
+      <c r="R538" s="10" t="s">
         <v>2045</v>
       </c>
-      <c r="R538" s="10" t="s">
-        <v>2046</v>
-      </c>
       <c r="W538" s="5" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="X538" s="5">
         <v>9999999</v>
@@ -46352,13 +46352,13 @@
         <v>1</v>
       </c>
       <c r="G539" s="5" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I539" s="5" t="s">
+        <v>2046</v>
+      </c>
+      <c r="J539" s="5" t="s">
         <v>2047</v>
-      </c>
-      <c r="J539" s="5" t="s">
-        <v>2048</v>
       </c>
       <c r="L539" s="5">
         <v>-31</v>
@@ -46370,19 +46370,19 @@
         <v>0</v>
       </c>
       <c r="O539" s="5" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P539" s="5">
         <v>9800</v>
       </c>
       <c r="Q539" s="5" t="s">
+        <v>2048</v>
+      </c>
+      <c r="R539" s="10" t="s">
         <v>2049</v>
       </c>
-      <c r="R539" s="10" t="s">
-        <v>2050</v>
-      </c>
       <c r="W539" s="5" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="X539" s="5">
         <v>9999999</v>
@@ -46420,13 +46420,13 @@
         <v>1</v>
       </c>
       <c r="G540" s="5" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="I540" s="5" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="J540" s="5" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="L540" s="5">
         <v>-31</v>
@@ -46438,19 +46438,19 @@
         <v>0</v>
       </c>
       <c r="O540" s="5" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P540" s="5">
         <v>19800</v>
       </c>
       <c r="Q540" s="5" t="s">
+        <v>2051</v>
+      </c>
+      <c r="R540" s="10" t="s">
         <v>2052</v>
       </c>
-      <c r="R540" s="10" t="s">
-        <v>2053</v>
-      </c>
       <c r="W540" s="5" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="X540" s="5">
         <v>9999999</v>
@@ -46488,13 +46488,13 @@
         <v>1</v>
       </c>
       <c r="G541" s="5" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="I541" s="5" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="J541" s="5" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="L541" s="5">
         <v>-31</v>
@@ -46506,19 +46506,19 @@
         <v>0</v>
       </c>
       <c r="O541" s="5" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="P541" s="5">
         <v>49800</v>
       </c>
       <c r="Q541" s="5" t="s">
+        <v>2054</v>
+      </c>
+      <c r="R541" s="10" t="s">
         <v>2055</v>
       </c>
-      <c r="R541" s="10" t="s">
-        <v>2056</v>
-      </c>
       <c r="W541" s="5" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="X541" s="5">
         <v>9999999</v>
@@ -46556,13 +46556,13 @@
         <v>1</v>
       </c>
       <c r="G542" s="69" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="I542" s="69" t="s">
+        <v>2058</v>
+      </c>
+      <c r="J542" s="69" t="s">
         <v>2059</v>
-      </c>
-      <c r="J542" s="69" t="s">
-        <v>2060</v>
       </c>
       <c r="L542" s="69">
         <v>-31</v>
@@ -46580,13 +46580,13 @@
         <v>99800</v>
       </c>
       <c r="Q542" s="69" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="R542" s="70" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="W542" s="69" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="X542" s="69">
         <v>9999999</v>
@@ -46621,13 +46621,13 @@
         <v>1</v>
       </c>
       <c r="G543" s="69" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I543" s="69" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="J543" s="69" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="L543" s="69">
         <v>-31</v>
@@ -46645,10 +46645,10 @@
         <v>49800</v>
       </c>
       <c r="Q543" s="69" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="R543" s="70" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="W543" s="69" t="s">
         <v>527</v>
@@ -46686,13 +46686,13 @@
         <v>1</v>
       </c>
       <c r="G544" s="69" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I544" s="69" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="J544" s="69" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="L544" s="69">
         <v>-31</v>
@@ -46710,10 +46710,10 @@
         <v>29800</v>
       </c>
       <c r="Q544" s="69" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="R544" s="70" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="W544" s="69" t="s">
         <v>527</v>
@@ -46751,13 +46751,13 @@
         <v>1</v>
       </c>
       <c r="G545" s="69" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="I545" s="69" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="J545" s="69" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="L545" s="69">
         <v>-31</v>
@@ -46775,10 +46775,10 @@
         <v>19800</v>
       </c>
       <c r="Q545" s="69" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="R545" s="70" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="W545" s="69" t="s">
         <v>527</v>
@@ -46816,13 +46816,13 @@
         <v>1</v>
       </c>
       <c r="G546" s="69" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="I546" s="69" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="J546" s="69" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="L546" s="69">
         <v>-31</v>
@@ -46840,10 +46840,10 @@
         <v>9800</v>
       </c>
       <c r="Q546" s="69" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="R546" s="70" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="W546" s="69" t="s">
         <v>527</v>
@@ -46881,13 +46881,13 @@
         <v>1</v>
       </c>
       <c r="G547" s="69" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="I547" s="69" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="J547" s="69" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="L547" s="69">
         <v>-31</v>
@@ -46905,10 +46905,10 @@
         <v>4800</v>
       </c>
       <c r="Q547" s="69" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="R547" s="70" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="W547" s="69" t="s">
         <v>527</v>
@@ -46946,13 +46946,13 @@
         <v>1</v>
       </c>
       <c r="G548" s="69" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="I548" s="69" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="J548" s="69" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="L548" s="69">
         <v>-31</v>
@@ -46970,10 +46970,10 @@
         <v>1800</v>
       </c>
       <c r="Q548" s="69" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="R548" s="70" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="W548" s="69" t="s">
         <v>527</v>
@@ -47011,13 +47011,13 @@
         <v>1</v>
       </c>
       <c r="G549" s="65" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="I549" s="65" t="s">
+        <v>2077</v>
+      </c>
+      <c r="J549" s="65" t="s">
         <v>2078</v>
-      </c>
-      <c r="J549" s="65" t="s">
-        <v>2079</v>
       </c>
       <c r="L549" s="65">
         <v>-31</v>
@@ -47035,13 +47035,13 @@
         <v>49800</v>
       </c>
       <c r="Q549" s="65" t="s">
+        <v>2079</v>
+      </c>
+      <c r="R549" s="66" t="s">
         <v>2080</v>
       </c>
-      <c r="R549" s="66" t="s">
-        <v>2081</v>
-      </c>
       <c r="W549" s="65" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="X549" s="65">
         <v>9999999</v>
@@ -47079,13 +47079,13 @@
         <v>1</v>
       </c>
       <c r="G550" s="65" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="I550" s="65" t="s">
+        <v>2081</v>
+      </c>
+      <c r="J550" s="65" t="s">
         <v>2082</v>
-      </c>
-      <c r="J550" s="65" t="s">
-        <v>2083</v>
       </c>
       <c r="L550" s="65">
         <v>-31</v>
@@ -47103,13 +47103,13 @@
         <v>19800</v>
       </c>
       <c r="Q550" s="65" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="R550" s="66" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="W550" s="65" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="X550" s="65">
         <v>9999999</v>
@@ -47147,13 +47147,13 @@
         <v>1</v>
       </c>
       <c r="G551" s="65" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="I551" s="65" t="s">
+        <v>2084</v>
+      </c>
+      <c r="J551" s="65" t="s">
         <v>2085</v>
-      </c>
-      <c r="J551" s="65" t="s">
-        <v>2086</v>
       </c>
       <c r="L551" s="65">
         <v>-31</v>
@@ -47171,13 +47171,13 @@
         <v>9800</v>
       </c>
       <c r="Q551" s="65" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="R551" s="66" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="W551" s="65" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="X551" s="65">
         <v>9999999</v>
@@ -47215,13 +47215,13 @@
         <v>1</v>
       </c>
       <c r="G552" s="65" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="I552" s="65" t="s">
+        <v>2087</v>
+      </c>
+      <c r="J552" s="65" t="s">
         <v>2088</v>
-      </c>
-      <c r="J552" s="65" t="s">
-        <v>2089</v>
       </c>
       <c r="L552" s="65">
         <v>-31</v>
@@ -47239,13 +47239,13 @@
         <v>4800</v>
       </c>
       <c r="Q552" s="65" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="R552" s="66" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="W552" s="65" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="X552" s="65">
         <v>9999999</v>
@@ -47283,13 +47283,13 @@
         <v>1</v>
       </c>
       <c r="G553" s="67" t="s">
+        <v>2090</v>
+      </c>
+      <c r="I553" s="67" t="s">
+        <v>2076</v>
+      </c>
+      <c r="J553" s="67" t="s">
         <v>2091</v>
-      </c>
-      <c r="I553" s="67" t="s">
-        <v>2077</v>
-      </c>
-      <c r="J553" s="67" t="s">
-        <v>2092</v>
       </c>
       <c r="L553" s="67">
         <v>-31</v>
@@ -47307,13 +47307,13 @@
         <v>49800</v>
       </c>
       <c r="Q553" s="67" t="s">
+        <v>2092</v>
+      </c>
+      <c r="R553" s="68" t="s">
         <v>2093</v>
       </c>
-      <c r="R553" s="68" t="s">
-        <v>2094</v>
-      </c>
       <c r="W553" s="67" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="X553" s="67">
         <v>9999999</v>
@@ -47351,13 +47351,13 @@
         <v>1</v>
       </c>
       <c r="G554" s="67" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="I554" s="67" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="J554" s="67" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="L554" s="67">
         <v>-31</v>
@@ -47375,13 +47375,13 @@
         <v>19800</v>
       </c>
       <c r="Q554" s="67" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="R554" s="68" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="W554" s="67" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="X554" s="67">
         <v>9999999</v>
@@ -47419,13 +47419,13 @@
         <v>1</v>
       </c>
       <c r="G555" s="67" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="I555" s="67" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="J555" s="67" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="L555" s="67">
         <v>-31</v>
@@ -47443,13 +47443,13 @@
         <v>9800</v>
       </c>
       <c r="Q555" s="67" t="s">
+        <v>2097</v>
+      </c>
+      <c r="R555" s="68" t="s">
         <v>2098</v>
       </c>
-      <c r="R555" s="68" t="s">
-        <v>2099</v>
-      </c>
       <c r="W555" s="67" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="X555" s="67">
         <v>9999999</v>
@@ -47487,13 +47487,13 @@
         <v>1</v>
       </c>
       <c r="G556" s="67" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="I556" s="67" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="J556" s="67" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="L556" s="67">
         <v>-31</v>
@@ -47511,13 +47511,13 @@
         <v>4800</v>
       </c>
       <c r="Q556" s="67" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="R556" s="68" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="W556" s="67" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="X556" s="67">
         <v>9999999</v>
@@ -47558,10 +47558,10 @@
         <v>559</v>
       </c>
       <c r="I557" s="19" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="J557" s="19" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="L557" s="19">
         <v>-25</v>
@@ -47582,7 +47582,7 @@
         <v>77</v>
       </c>
       <c r="R557" s="72" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="W557" s="19" t="s">
         <v>525</v>
@@ -47624,10 +47624,10 @@
         <v>518</v>
       </c>
       <c r="I558" s="19" t="s">
+        <v>2101</v>
+      </c>
+      <c r="J558" s="19" t="s">
         <v>2102</v>
-      </c>
-      <c r="J558" s="19" t="s">
-        <v>2103</v>
       </c>
       <c r="L558" s="19">
         <v>-25</v>
@@ -47648,7 +47648,7 @@
         <v>77</v>
       </c>
       <c r="R558" s="72" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="W558" s="19" t="s">
         <v>525</v>
@@ -47690,10 +47690,10 @@
         <v>266</v>
       </c>
       <c r="I559" s="19" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="J559" s="19" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="L559" s="19">
         <v>-25</v>
@@ -47714,7 +47714,7 @@
         <v>77</v>
       </c>
       <c r="R559" s="72" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="W559" s="19" t="s">
         <v>525</v>
@@ -47756,10 +47756,10 @@
         <v>559</v>
       </c>
       <c r="I560" s="19" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="J560" s="19" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="L560" s="19">
         <v>-25</v>
@@ -47780,7 +47780,7 @@
         <v>77</v>
       </c>
       <c r="R560" s="72" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="W560" s="19" t="s">
         <v>525</v>
@@ -47822,10 +47822,10 @@
         <v>519</v>
       </c>
       <c r="I561" s="19" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="J561" s="19" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="L561" s="19">
         <v>-25</v>
@@ -47846,7 +47846,7 @@
         <v>77</v>
       </c>
       <c r="R561" s="72" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="W561" s="19" t="s">
         <v>525</v>
@@ -47888,10 +47888,10 @@
         <v>66</v>
       </c>
       <c r="I562" s="19" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="J562" s="19" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="L562" s="19">
         <v>-25</v>
@@ -47912,7 +47912,7 @@
         <v>77</v>
       </c>
       <c r="R562" s="72" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="W562" s="19" t="s">
         <v>525</v>
@@ -47954,10 +47954,10 @@
         <v>559</v>
       </c>
       <c r="I563" s="19" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="J563" s="19" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="L563" s="19">
         <v>-25</v>
@@ -47978,7 +47978,7 @@
         <v>77</v>
       </c>
       <c r="R563" s="72" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="W563" s="19" t="s">
         <v>525</v>
@@ -48020,10 +48020,10 @@
         <v>266</v>
       </c>
       <c r="I564" s="19" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="J564" s="19" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="L564" s="19">
         <v>-25</v>
@@ -48044,7 +48044,7 @@
         <v>77</v>
       </c>
       <c r="R564" s="72" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="W564" s="19" t="s">
         <v>525</v>
@@ -48086,10 +48086,10 @@
         <v>70</v>
       </c>
       <c r="I565" s="19" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="J565" s="19" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="L565" s="19">
         <v>-25</v>
@@ -48110,7 +48110,7 @@
         <v>77</v>
       </c>
       <c r="R565" s="72" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="W565" s="19" t="s">
         <v>525</v>
@@ -48536,7 +48536,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -48550,7 +48550,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -48564,7 +48564,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -48578,7 +48578,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
@@ -48592,7 +48592,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
@@ -48606,7 +48606,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
@@ -48620,7 +48620,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C33" s="12">
         <v>1</v>
@@ -48634,7 +48634,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
@@ -48648,7 +48648,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
@@ -48662,7 +48662,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
@@ -48676,7 +48676,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -48690,7 +48690,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
@@ -48704,7 +48704,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
@@ -48718,7 +48718,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -48732,7 +48732,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -48746,7 +48746,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
@@ -48760,7 +48760,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C43" s="12">
         <v>1</v>
@@ -48774,7 +48774,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -48788,7 +48788,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -48802,7 +48802,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
@@ -48816,7 +48816,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -48830,7 +48830,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C48" s="12">
         <v>1</v>
@@ -48844,7 +48844,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C49" s="12">
         <v>1</v>
@@ -48858,7 +48858,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C50" s="12">
         <v>1</v>
@@ -48872,7 +48872,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C51" s="12">
         <v>1</v>
@@ -48886,7 +48886,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C52" s="12">
         <v>1</v>
@@ -48900,7 +48900,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="C53" s="12">
         <v>1</v>
@@ -48914,7 +48914,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C54" s="12">
         <v>1</v>
@@ -48928,7 +48928,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="C55" s="12">
         <v>1</v>
@@ -48942,7 +48942,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C56" s="12">
         <v>1</v>
@@ -48956,7 +48956,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C57" s="12">
         <v>1</v>
@@ -48970,7 +48970,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C58" s="12">
         <v>1</v>
@@ -48984,7 +48984,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="C59" s="12">
         <v>1</v>
@@ -48998,7 +48998,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="C60" s="12">
         <v>1</v>
@@ -49012,7 +49012,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="C61" s="12">
         <v>1</v>
@@ -49026,7 +49026,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C62" s="12">
         <v>1</v>
@@ -49040,7 +49040,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="C63" s="12">
         <v>1</v>
@@ -49054,7 +49054,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="C64" s="12">
         <v>1</v>
@@ -49068,7 +49068,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="C65" s="12">
         <v>1</v>
@@ -49082,7 +49082,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="C66" s="12">
         <v>1</v>
@@ -49096,7 +49096,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="C67" s="12">
         <v>1</v>
@@ -49110,7 +49110,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="C68" s="12">
         <v>1</v>
@@ -49124,7 +49124,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="C69" s="12">
         <v>1</v>
@@ -49138,7 +49138,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="C70" s="12">
         <v>1</v>
@@ -49152,7 +49152,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="57" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="C71" s="58">
         <v>1</v>
@@ -49166,7 +49166,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="57" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="C72" s="58">
         <v>1</v>
@@ -49180,7 +49180,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="C73" s="58">
         <v>1</v>
@@ -49194,7 +49194,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="57" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="C74" s="58">
         <v>1</v>
@@ -49208,7 +49208,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="57" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="C75" s="58">
         <v>1</v>
@@ -49222,7 +49222,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="57" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="C76" s="58">
         <v>1</v>
@@ -49321,7 +49321,7 @@
         <v>28</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>29</v>
@@ -49404,10 +49404,10 @@
         <v>3</v>
       </c>
       <c r="P2" s="33" t="s">
+        <v>1815</v>
+      </c>
+      <c r="Q2" s="33" t="s">
         <v>1816</v>
-      </c>
-      <c r="Q2" s="33" t="s">
-        <v>1817</v>
       </c>
       <c r="S2" s="33" t="s">
         <v>1067</v>
@@ -49472,10 +49472,10 @@
         <v>4</v>
       </c>
       <c r="P3" s="33" t="s">
+        <v>1817</v>
+      </c>
+      <c r="Q3" s="33" t="s">
         <v>1818</v>
-      </c>
-      <c r="Q3" s="33" t="s">
-        <v>1819</v>
       </c>
       <c r="S3" s="33" t="s">
         <v>1067</v>
@@ -49540,10 +49540,10 @@
         <v>5</v>
       </c>
       <c r="P4" s="33" t="s">
+        <v>1819</v>
+      </c>
+      <c r="Q4" s="33" t="s">
         <v>1820</v>
-      </c>
-      <c r="Q4" s="33" t="s">
-        <v>1821</v>
       </c>
       <c r="S4" s="33" t="s">
         <v>1067</v>
@@ -49608,10 +49608,10 @@
         <v>6</v>
       </c>
       <c r="P5" s="33" t="s">
+        <v>1821</v>
+      </c>
+      <c r="Q5" s="33" t="s">
         <v>1822</v>
-      </c>
-      <c r="Q5" s="33" t="s">
-        <v>1823</v>
       </c>
       <c r="S5" s="33" t="s">
         <v>1067</v>
@@ -49676,10 +49676,10 @@
         <v>7</v>
       </c>
       <c r="P6" s="33" t="s">
+        <v>1823</v>
+      </c>
+      <c r="Q6" s="33" t="s">
         <v>1824</v>
-      </c>
-      <c r="Q6" s="33" t="s">
-        <v>1825</v>
       </c>
       <c r="S6" s="33" t="s">
         <v>1067</v>
@@ -49744,10 +49744,10 @@
         <v>9</v>
       </c>
       <c r="P7" s="33" t="s">
+        <v>1825</v>
+      </c>
+      <c r="Q7" s="33" t="s">
         <v>1826</v>
-      </c>
-      <c r="Q7" s="33" t="s">
-        <v>1827</v>
       </c>
       <c r="S7" s="33" t="s">
         <v>1067</v>
@@ -49809,10 +49809,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="33" t="s">
+        <v>1827</v>
+      </c>
+      <c r="Q8" s="33" t="s">
         <v>1828</v>
-      </c>
-      <c r="Q8" s="33" t="s">
-        <v>1829</v>
       </c>
       <c r="S8" s="33" t="s">
         <v>1067</v>
@@ -49876,10 +49876,10 @@
         <v>2</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="R9" s="34"/>
       <c r="S9" s="34"/>
@@ -49949,10 +49949,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
@@ -50020,10 +50020,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="33" t="s">
+        <v>1817</v>
+      </c>
+      <c r="Q11" s="33" t="s">
         <v>1818</v>
-      </c>
-      <c r="Q11" s="33" t="s">
-        <v>1819</v>
       </c>
       <c r="S11" s="33" t="s">
         <v>1067</v>
@@ -50088,10 +50088,10 @@
         <v>9</v>
       </c>
       <c r="P12" s="33" t="s">
+        <v>1829</v>
+      </c>
+      <c r="Q12" s="33" t="s">
         <v>1830</v>
-      </c>
-      <c r="Q12" s="33" t="s">
-        <v>1831</v>
       </c>
       <c r="S12" s="33" t="s">
         <v>1067</v>
@@ -50156,10 +50156,10 @@
         <v>10</v>
       </c>
       <c r="P13" s="33" t="s">
+        <v>1831</v>
+      </c>
+      <c r="Q13" s="33" t="s">
         <v>1832</v>
-      </c>
-      <c r="Q13" s="33" t="s">
-        <v>1833</v>
       </c>
       <c r="S13" s="33" t="s">
         <v>1067</v>
@@ -50224,10 +50224,10 @@
         <v>11</v>
       </c>
       <c r="P14" s="33" t="s">
+        <v>1833</v>
+      </c>
+      <c r="Q14" s="33" t="s">
         <v>1834</v>
-      </c>
-      <c r="Q14" s="33" t="s">
-        <v>1835</v>
       </c>
       <c r="S14" s="33" t="s">
         <v>1074</v>
@@ -50293,10 +50293,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="R15" s="34"/>
       <c r="S15" s="35"/>
@@ -50367,10 +50367,10 @@
         <v>3</v>
       </c>
       <c r="P16" s="33" t="s">
+        <v>1835</v>
+      </c>
+      <c r="Q16" s="33" t="s">
         <v>1836</v>
-      </c>
-      <c r="Q16" s="33" t="s">
-        <v>1837</v>
       </c>
       <c r="R16" s="12"/>
       <c r="S16" s="33" t="s">
@@ -50435,10 +50435,10 @@
         <v>4</v>
       </c>
       <c r="P17" s="33" t="s">
+        <v>1837</v>
+      </c>
+      <c r="Q17" s="33" t="s">
         <v>1838</v>
-      </c>
-      <c r="Q17" s="33" t="s">
-        <v>1839</v>
       </c>
       <c r="R17" s="12"/>
       <c r="S17" s="33" t="s">
@@ -50503,10 +50503,10 @@
         <v>5</v>
       </c>
       <c r="P18" s="33" t="s">
+        <v>1839</v>
+      </c>
+      <c r="Q18" s="33" t="s">
         <v>1840</v>
-      </c>
-      <c r="Q18" s="33" t="s">
-        <v>1841</v>
       </c>
       <c r="R18" s="12"/>
       <c r="S18" s="33" t="s">
@@ -50571,10 +50571,10 @@
         <v>6</v>
       </c>
       <c r="P19" s="33" t="s">
+        <v>1841</v>
+      </c>
+      <c r="Q19" s="33" t="s">
         <v>1842</v>
-      </c>
-      <c r="Q19" s="33" t="s">
-        <v>1843</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="33" t="s">
@@ -50639,10 +50639,10 @@
         <v>7</v>
       </c>
       <c r="P20" s="33" t="s">
+        <v>1843</v>
+      </c>
+      <c r="Q20" s="33" t="s">
         <v>1844</v>
-      </c>
-      <c r="Q20" s="33" t="s">
-        <v>1845</v>
       </c>
       <c r="S20" s="33" t="s">
         <v>932</v>
@@ -50709,7 +50709,7 @@
         <v>894</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="R21" s="11"/>
       <c r="S21" s="33" t="s">
@@ -50779,10 +50779,10 @@
         <v>2</v>
       </c>
       <c r="P22" s="35" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="Q22" s="35" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="R22" s="34"/>
       <c r="S22" s="35"/>
@@ -50850,10 +50850,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="35" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="Q23" s="35" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="R23" s="34"/>
       <c r="S23" s="35"/>
@@ -50923,10 +50923,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="35" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="Q24" s="35" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="R24" s="34"/>
       <c r="S24" s="35"/>
@@ -50997,10 +50997,10 @@
         <v>8</v>
       </c>
       <c r="P25" s="33" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="S25" s="33" t="s">
         <v>933</v>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4576" uniqueCount="2119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4576" uniqueCount="2128">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8994,6 +8994,42 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "fclb_v8v12_002" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺--1元--早</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺--18元--早</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺--48元--早</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺--1元--中</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺--28元--中</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺--98元--中</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺--1元--晚</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺--48元--晚</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺--198元--晚</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11868,11 +11904,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN565"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H49" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H531" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
+      <selection pane="bottomRight" activeCell="G559" sqref="G559"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -47555,7 +47591,7 @@
         <v>1</v>
       </c>
       <c r="G557" s="19" t="s">
-        <v>559</v>
+        <v>2119</v>
       </c>
       <c r="I557" s="19" t="s">
         <v>2098</v>
@@ -47621,7 +47657,7 @@
         <v>1</v>
       </c>
       <c r="G558" s="19" t="s">
-        <v>518</v>
+        <v>2120</v>
       </c>
       <c r="I558" s="19" t="s">
         <v>2098</v>
@@ -47687,7 +47723,7 @@
         <v>1</v>
       </c>
       <c r="G559" s="19" t="s">
-        <v>266</v>
+        <v>2121</v>
       </c>
       <c r="I559" s="19" t="s">
         <v>2098</v>
@@ -47753,7 +47789,7 @@
         <v>1</v>
       </c>
       <c r="G560" s="19" t="s">
-        <v>559</v>
+        <v>2122</v>
       </c>
       <c r="I560" s="19" t="s">
         <v>2098</v>
@@ -47819,7 +47855,7 @@
         <v>1</v>
       </c>
       <c r="G561" s="19" t="s">
-        <v>519</v>
+        <v>2123</v>
       </c>
       <c r="I561" s="19" t="s">
         <v>2098</v>
@@ -47885,7 +47921,7 @@
         <v>1</v>
       </c>
       <c r="G562" s="19" t="s">
-        <v>66</v>
+        <v>2124</v>
       </c>
       <c r="I562" s="19" t="s">
         <v>2098</v>
@@ -47951,7 +47987,7 @@
         <v>1</v>
       </c>
       <c r="G563" s="19" t="s">
-        <v>559</v>
+        <v>2125</v>
       </c>
       <c r="I563" s="19" t="s">
         <v>2098</v>
@@ -48017,7 +48053,7 @@
         <v>1</v>
       </c>
       <c r="G564" s="19" t="s">
-        <v>266</v>
+        <v>2126</v>
       </c>
       <c r="I564" s="19" t="s">
         <v>2098</v>
@@ -48083,7 +48119,7 @@
         <v>1</v>
       </c>
       <c r="G565" s="19" t="s">
-        <v>70</v>
+        <v>2127</v>
       </c>
       <c r="I565" s="19" t="s">
         <v>2098</v>
@@ -48150,7 +48186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4576" uniqueCount="2128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4669" uniqueCount="2161">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8981,6 +8981,155 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>女神礼包-捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_ty_csbox",</t>
+  </si>
+  <si>
+    <t>"996万金币","双倍奖励卡*4","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_ty_ssbox",</t>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_ty_xybox",</t>
+  </si>
+  <si>
+    <t>女神礼包-冲金鸡</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_ty_csbox",</t>
+  </si>
+  <si>
+    <t>50000000,4,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,2,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_ty_ssbox",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_ty_xybox",</t>
+  </si>
+  <si>
+    <t>4880000,4,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满50抵扣5元</t>
+  </si>
+  <si>
+    <t>"500万金币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_5_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满98抵扣10元</t>
+  </si>
+  <si>
+    <t>"980万金币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_10_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满198抵扣20元</t>
+  </si>
+  <si>
+    <t>"1980万金币",</t>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","obj_20_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满498抵扣50元</t>
+  </si>
+  <si>
+    <t>"4980万金币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_50_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满998抵扣100元</t>
+  </si>
+  <si>
+    <t>"9980万金币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_100_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满2498抵扣200元</t>
+  </si>
+  <si>
+    <t>"24980万金币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_200_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>249800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coupon_gift_id|优惠券礼包ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>幸运金币6元</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8994,42 +9143,6 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "fclb_v8v12_002" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--1元--早</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--18元--早</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--48元--早</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--1元--中</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--28元--中</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--98元--中</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--1元--晚</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--48元--晚</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺--198元--晚</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9108,7 +9221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9169,24 +9282,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -9230,7 +9325,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9426,29 +9521,14 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9911,10 +9991,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF32"/>
+  <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9922,32 +10002,32 @@
     <col min="1" max="1" width="8.75" style="2"/>
     <col min="2" max="4" width="19.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="26.125" style="23" customWidth="1"/>
-    <col min="6" max="7" width="19.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="40.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="30.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="30.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="30.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="30.125" style="2" customWidth="1"/>
-    <col min="15" max="17" width="14.875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="19.375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="8.75" style="2"/>
-    <col min="20" max="20" width="28.75" style="2" customWidth="1"/>
-    <col min="21" max="21" width="16.875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="24.375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="16.75" style="2" customWidth="1"/>
-    <col min="24" max="24" width="15.625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="19.25" style="2" customWidth="1"/>
-    <col min="26" max="26" width="13" style="2" customWidth="1"/>
-    <col min="27" max="27" width="19.25" style="2" customWidth="1"/>
-    <col min="28" max="28" width="13" style="2" customWidth="1"/>
-    <col min="29" max="30" width="12.125" style="2" customWidth="1"/>
-    <col min="31" max="32" width="21.375" style="2" customWidth="1"/>
-    <col min="33" max="16384" width="8.75" style="2"/>
+    <col min="6" max="8" width="19.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="40.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="30.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="30.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="30.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="30.125" style="2" customWidth="1"/>
+    <col min="16" max="18" width="14.875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="19.375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="8.75" style="2"/>
+    <col min="21" max="21" width="28.75" style="2" customWidth="1"/>
+    <col min="22" max="22" width="16.875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="24.375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="16.75" style="2" customWidth="1"/>
+    <col min="25" max="25" width="15.625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="19.25" style="2" customWidth="1"/>
+    <col min="27" max="27" width="13" style="2" customWidth="1"/>
+    <col min="28" max="28" width="19.25" style="2" customWidth="1"/>
+    <col min="29" max="29" width="13" style="2" customWidth="1"/>
+    <col min="30" max="31" width="12.125" style="2" customWidth="1"/>
+    <col min="32" max="33" width="21.375" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9967,85 +10047,88 @@
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>2156</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -10062,72 +10145,73 @@
       <c r="F2" s="2">
         <v>10330</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="11">
+      <c r="I2" s="11">
         <v>600</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>1016</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="M2" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="45">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1</v>
-      </c>
-      <c r="P2" s="11">
-        <v>0</v>
+      <c r="O2" s="45">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
       </c>
       <c r="Q2" s="11">
         <v>0</v>
       </c>
-      <c r="R2" s="2">
-        <v>1</v>
+      <c r="R2" s="11">
+        <v>0</v>
       </c>
       <c r="S2" s="2">
         <v>1</v>
       </c>
-      <c r="T2" s="33" t="s">
+      <c r="T2" s="2">
+        <v>1</v>
+      </c>
+      <c r="U2" s="33" t="s">
         <v>1036</v>
       </c>
-      <c r="U2" s="33" t="s">
+      <c r="V2" s="33" t="s">
         <v>1017</v>
       </c>
-      <c r="V2" s="11"/>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="11"/>
+      <c r="X2" s="33" t="s">
         <v>1037</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="Y2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="AC2" s="11">
-        <v>1</v>
-      </c>
       <c r="AD2" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -10144,72 +10228,73 @@
       <c r="F3" s="2">
         <v>85</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="11">
+      <c r="I3" s="11">
         <v>1500</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>1018</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="M3" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="45">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2">
+      <c r="O3" s="45">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
         <v>2</v>
       </c>
-      <c r="P3" s="11">
-        <v>0</v>
-      </c>
       <c r="Q3" s="11">
         <v>0</v>
       </c>
-      <c r="R3" s="2">
-        <v>1</v>
+      <c r="R3" s="11">
+        <v>0</v>
       </c>
       <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2">
         <v>2</v>
       </c>
-      <c r="T3" s="33" t="s">
+      <c r="U3" s="33" t="s">
         <v>1039</v>
       </c>
-      <c r="U3" s="33" t="s">
+      <c r="V3" s="33" t="s">
         <v>1019</v>
       </c>
-      <c r="V3" s="11"/>
-      <c r="W3" s="33" t="s">
+      <c r="W3" s="11"/>
+      <c r="X3" s="33" t="s">
         <v>1037</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="Y3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC3" s="11">
-        <v>1</v>
-      </c>
       <c r="AD3" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -10226,72 +10311,73 @@
       <c r="F4" s="2">
         <v>86</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="11">
+      <c r="I4" s="11">
         <v>3000</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>1020</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="M4" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="N4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="45">
-        <v>1</v>
-      </c>
-      <c r="O4" s="2">
+      <c r="O4" s="45">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
         <v>3</v>
       </c>
-      <c r="P4" s="11">
-        <v>0</v>
-      </c>
       <c r="Q4" s="11">
         <v>0</v>
       </c>
-      <c r="R4" s="2">
-        <v>1</v>
+      <c r="R4" s="11">
+        <v>0</v>
       </c>
       <c r="S4" s="2">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2">
         <v>3</v>
       </c>
-      <c r="T4" s="33" t="s">
+      <c r="U4" s="33" t="s">
         <v>1040</v>
       </c>
-      <c r="U4" s="33" t="s">
+      <c r="V4" s="33" t="s">
         <v>1041</v>
       </c>
-      <c r="V4" s="11"/>
-      <c r="W4" s="33" t="s">
+      <c r="W4" s="11"/>
+      <c r="X4" s="33" t="s">
         <v>1037</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="Y4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC4" s="11">
-        <v>1</v>
-      </c>
       <c r="AD4" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -10308,72 +10394,75 @@
       <c r="F5" s="2">
         <v>87</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="2">
+        <v>10490</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="11">
+      <c r="I5" s="11">
         <v>5000</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>1021</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="M5" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="N5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="45">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2">
+      <c r="O5" s="45">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
         <v>4</v>
       </c>
-      <c r="P5" s="11">
-        <v>0</v>
-      </c>
       <c r="Q5" s="11">
         <v>0</v>
       </c>
-      <c r="R5" s="2">
-        <v>1</v>
+      <c r="R5" s="11">
+        <v>0</v>
       </c>
       <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
         <v>4</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="U5" s="33" t="s">
         <v>1022</v>
       </c>
-      <c r="U5" s="33" t="s">
+      <c r="V5" s="33" t="s">
         <v>1042</v>
       </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="33" t="s">
+      <c r="W5" s="11"/>
+      <c r="X5" s="33" t="s">
         <v>1037</v>
       </c>
-      <c r="X5" s="11" t="s">
+      <c r="Y5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AA5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC5" s="11">
-        <v>1</v>
-      </c>
       <c r="AD5" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -10390,72 +10479,75 @@
       <c r="F6" s="2">
         <v>88</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="2">
+        <v>10491</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="11">
+      <c r="I6" s="11">
         <v>9800</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>1023</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="44" t="s">
+      <c r="M6" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="N6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="45">
-        <v>1</v>
-      </c>
-      <c r="O6" s="2">
+      <c r="O6" s="45">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
         <v>5</v>
       </c>
-      <c r="P6" s="11">
-        <v>0</v>
-      </c>
       <c r="Q6" s="11">
         <v>0</v>
       </c>
-      <c r="R6" s="2">
-        <v>1</v>
+      <c r="R6" s="11">
+        <v>0</v>
       </c>
       <c r="S6" s="2">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2">
         <v>5</v>
-      </c>
-      <c r="T6" s="33" t="s">
-        <v>1043</v>
       </c>
       <c r="U6" s="33" t="s">
         <v>1043</v>
       </c>
-      <c r="V6" s="11"/>
-      <c r="W6" s="33" t="s">
+      <c r="V6" s="33" t="s">
+        <v>1043</v>
+      </c>
+      <c r="W6" s="11"/>
+      <c r="X6" s="33" t="s">
         <v>1037</v>
       </c>
-      <c r="X6" s="11" t="s">
+      <c r="Y6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="Z6" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="AA6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC6" s="11">
-        <v>1</v>
-      </c>
       <c r="AD6" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -10472,72 +10564,75 @@
       <c r="F7" s="2">
         <v>89</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="2">
+        <v>10493</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="11">
+      <c r="I7" s="11">
         <v>49800</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>1024</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="L7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="44" t="s">
+      <c r="M7" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="N7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="11">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2">
+      <c r="O7" s="11">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
         <v>7</v>
       </c>
-      <c r="P7" s="11">
-        <v>0</v>
-      </c>
       <c r="Q7" s="11">
         <v>0</v>
       </c>
-      <c r="R7" s="2">
-        <v>1</v>
+      <c r="R7" s="11">
+        <v>0</v>
       </c>
       <c r="S7" s="2">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2">
         <v>7</v>
       </c>
-      <c r="T7" s="33" t="s">
+      <c r="U7" s="33" t="s">
         <v>1025</v>
       </c>
-      <c r="U7" s="33" t="s">
+      <c r="V7" s="33" t="s">
         <v>1044</v>
       </c>
-      <c r="V7" s="11"/>
-      <c r="W7" s="33" t="s">
+      <c r="W7" s="11"/>
+      <c r="X7" s="33" t="s">
         <v>1037</v>
       </c>
-      <c r="X7" s="11" t="s">
+      <c r="Y7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Z7" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="AA7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC7" s="11">
-        <v>1</v>
-      </c>
       <c r="AD7" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -10554,72 +10649,73 @@
       <c r="F8" s="2">
         <v>109</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="11">
+      <c r="I8" s="11">
         <v>100000</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>1026</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="44" t="s">
+      <c r="M8" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="N8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="45">
-        <v>1</v>
-      </c>
-      <c r="O8" s="2">
+      <c r="O8" s="45">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
         <v>9</v>
       </c>
-      <c r="P8" s="11">
-        <v>0</v>
-      </c>
       <c r="Q8" s="11">
         <v>0</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="11">
         <v>0</v>
       </c>
       <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
         <v>8</v>
       </c>
-      <c r="T8" s="33" t="s">
+      <c r="U8" s="33" t="s">
         <v>1045</v>
       </c>
-      <c r="U8" s="33" t="s">
+      <c r="V8" s="33" t="s">
         <v>1046</v>
       </c>
-      <c r="V8" s="11"/>
-      <c r="W8" s="33" t="s">
+      <c r="W8" s="11"/>
+      <c r="X8" s="33" t="s">
         <v>1037</v>
       </c>
-      <c r="X8" s="11" t="s">
+      <c r="Y8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y8" s="2" t="s">
+      <c r="Z8" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="Z8" s="2" t="s">
+      <c r="AA8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC8" s="11">
-        <v>1</v>
-      </c>
       <c r="AD8" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -10636,71 +10732,74 @@
       <c r="F9" s="2">
         <v>10044</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="2">
+        <v>10494</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="11">
+      <c r="I9" s="11">
         <v>99800</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="K9" s="33" t="s">
         <v>1033</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="L9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="44" t="s">
+      <c r="M9" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="N9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="45">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="O9" s="45">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
         <v>8</v>
       </c>
-      <c r="P9" s="11">
-        <v>0</v>
-      </c>
       <c r="Q9" s="11">
         <v>0</v>
       </c>
-      <c r="R9" s="2">
-        <v>1</v>
+      <c r="R9" s="11">
+        <v>0</v>
       </c>
       <c r="S9" s="2">
+        <v>1</v>
+      </c>
+      <c r="T9" s="2">
         <v>9</v>
-      </c>
-      <c r="T9" s="33" t="s">
-        <v>1047</v>
       </c>
       <c r="U9" s="33" t="s">
         <v>1047</v>
       </c>
-      <c r="W9" s="33" t="s">
+      <c r="V9" s="33" t="s">
+        <v>1047</v>
+      </c>
+      <c r="X9" s="33" t="s">
         <v>1048</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="Y9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="Y9" s="2" t="s">
+      <c r="Z9" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="AA9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC9" s="11">
-        <v>1</v>
-      </c>
       <c r="AD9" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -10717,71 +10816,74 @@
       <c r="F10" s="11">
         <v>10045</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="11">
+        <v>10495</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="11">
+      <c r="I10" s="11">
         <v>249800</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="K10" s="33" t="s">
         <v>1049</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="L10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="44" t="s">
+      <c r="M10" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="N10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N10" s="45">
-        <v>1</v>
-      </c>
-      <c r="O10" s="11">
+      <c r="O10" s="45">
+        <v>1</v>
+      </c>
+      <c r="P10" s="11">
         <v>10</v>
       </c>
-      <c r="P10" s="11">
-        <v>0</v>
-      </c>
       <c r="Q10" s="11">
         <v>0</v>
       </c>
       <c r="R10" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="11">
+        <v>1</v>
+      </c>
+      <c r="T10" s="11">
         <v>10</v>
-      </c>
-      <c r="T10" s="33" t="s">
-        <v>1050</v>
       </c>
       <c r="U10" s="33" t="s">
         <v>1050</v>
       </c>
-      <c r="W10" s="33" t="s">
+      <c r="V10" s="33" t="s">
+        <v>1050</v>
+      </c>
+      <c r="X10" s="33" t="s">
         <v>1048</v>
       </c>
-      <c r="X10" s="11" t="s">
+      <c r="Y10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="Y10" s="11" t="s">
+      <c r="Z10" s="11" t="s">
         <v>633</v>
       </c>
-      <c r="Z10" s="11" t="s">
+      <c r="AA10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC10" s="11">
-        <v>1</v>
-      </c>
       <c r="AD10" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -10800,71 +10902,72 @@
       <c r="F11" s="11">
         <v>90</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>600</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="44" t="s">
+      <c r="M11" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="2">
-        <v>1</v>
-      </c>
-      <c r="O11" s="11">
-        <v>1</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0</v>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="11">
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
       </c>
-      <c r="R11" s="11">
-        <v>1</v>
+      <c r="R11" s="2">
+        <v>0</v>
       </c>
       <c r="S11" s="11">
         <v>1</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="T11" s="11">
+        <v>1</v>
+      </c>
+      <c r="U11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="2">
+      <c r="V11" s="2">
         <v>400</v>
       </c>
-      <c r="W11" s="2" t="s">
+      <c r="X11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X11" s="2" t="s">
+      <c r="Y11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Y11" s="33" t="s">
+      <c r="Z11" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="Z11" s="11" t="s">
+      <c r="AA11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC11" s="2">
-        <v>1</v>
-      </c>
       <c r="AD11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -10881,71 +10984,72 @@
         <v>61</v>
       </c>
       <c r="F12" s="11"/>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="11"/>
+      <c r="H12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>3000</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L12" s="44" t="s">
+      <c r="M12" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="2">
-        <v>1</v>
-      </c>
-      <c r="O12" s="11">
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="11">
         <v>2</v>
       </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
       <c r="Q12" s="2">
         <v>0</v>
       </c>
-      <c r="R12" s="11">
-        <v>1</v>
+      <c r="R12" s="2">
+        <v>0</v>
       </c>
       <c r="S12" s="11">
+        <v>1</v>
+      </c>
+      <c r="T12" s="11">
         <v>2</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="U12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="U12" s="2">
+      <c r="V12" s="2">
         <v>2000</v>
       </c>
-      <c r="W12" s="2" t="s">
+      <c r="X12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X12" s="2" t="s">
+      <c r="Y12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Y12" s="11" t="s">
+      <c r="Z12" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="Z12" s="11" t="s">
+      <c r="AA12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC12" s="2">
-        <v>1</v>
-      </c>
       <c r="AD12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -10962,71 +11066,72 @@
         <v>64</v>
       </c>
       <c r="F13" s="11"/>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="11"/>
+      <c r="H13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>9800</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="44" t="s">
+      <c r="M13" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="2">
-        <v>1</v>
-      </c>
-      <c r="O13" s="11">
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="11">
         <v>3</v>
       </c>
-      <c r="P13" s="2">
-        <v>0</v>
-      </c>
       <c r="Q13" s="2">
         <v>0</v>
       </c>
-      <c r="R13" s="11">
-        <v>1</v>
+      <c r="R13" s="2">
+        <v>0</v>
       </c>
       <c r="S13" s="11">
+        <v>1</v>
+      </c>
+      <c r="T13" s="11">
         <v>3</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="U13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="U13" s="2">
+      <c r="V13" s="2">
         <v>6700</v>
       </c>
-      <c r="W13" s="2" t="s">
+      <c r="X13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X13" s="2" t="s">
+      <c r="Y13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Y13" s="11" t="s">
+      <c r="Z13" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="Z13" s="11" t="s">
+      <c r="AA13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC13" s="2">
-        <v>1</v>
-      </c>
       <c r="AD13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -11043,71 +11148,72 @@
         <v>67</v>
       </c>
       <c r="F14" s="11"/>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="11"/>
+      <c r="H14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>19800</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>1031</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="44" t="s">
+      <c r="M14" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="2">
-        <v>1</v>
-      </c>
-      <c r="O14" s="11">
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="11">
         <v>4</v>
       </c>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
       <c r="Q14" s="2">
         <v>0</v>
       </c>
-      <c r="R14" s="11">
-        <v>1</v>
+      <c r="R14" s="2">
+        <v>0</v>
       </c>
       <c r="S14" s="11">
+        <v>1</v>
+      </c>
+      <c r="T14" s="11">
         <v>4</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="U14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="U14" s="2" t="s">
+      <c r="V14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="W14" s="2" t="s">
+      <c r="X14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X14" s="2" t="s">
+      <c r="Y14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Y14" s="11" t="s">
+      <c r="Z14" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="Z14" s="11" t="s">
+      <c r="AA14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC14" s="2">
-        <v>1</v>
-      </c>
       <c r="AD14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -11124,71 +11230,72 @@
         <v>71</v>
       </c>
       <c r="F15" s="11"/>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="11"/>
+      <c r="H15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>29800</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>1032</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="44" t="s">
+      <c r="M15" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N15" s="2">
-        <v>1</v>
-      </c>
-      <c r="O15" s="11">
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="11">
         <v>5</v>
       </c>
-      <c r="P15" s="2">
-        <v>0</v>
-      </c>
       <c r="Q15" s="2">
         <v>0</v>
       </c>
-      <c r="R15" s="11">
-        <v>1</v>
+      <c r="R15" s="2">
+        <v>0</v>
       </c>
       <c r="S15" s="11">
+        <v>1</v>
+      </c>
+      <c r="T15" s="11">
         <v>5</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="U15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U15" s="2" t="s">
+      <c r="V15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="W15" s="2" t="s">
+      <c r="X15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X15" s="2" t="s">
+      <c r="Y15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y15" s="11" t="s">
+      <c r="Z15" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="Z15" s="11" t="s">
+      <c r="AA15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC15" s="2">
-        <v>1</v>
-      </c>
       <c r="AD15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -11205,71 +11312,72 @@
         <v>75</v>
       </c>
       <c r="F16" s="11"/>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="11"/>
+      <c r="H16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>100</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N16" s="2">
-        <v>1</v>
-      </c>
-      <c r="O16" s="11">
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="11">
         <v>11</v>
       </c>
-      <c r="P16" s="2">
-        <v>0</v>
-      </c>
       <c r="Q16" s="2">
         <v>0</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="2">
         <v>0</v>
       </c>
       <c r="S16" s="11">
         <v>0</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="T16" s="11">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3" t="s">
         <v>1051</v>
       </c>
-      <c r="U16" s="2">
+      <c r="V16" s="2">
         <v>66</v>
       </c>
-      <c r="W16" s="2" t="s">
+      <c r="X16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X16" s="2" t="s">
+      <c r="Y16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Y16" s="33" t="s">
+      <c r="Z16" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="Z16" s="11" t="s">
+      <c r="AA16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC16" s="2">
-        <v>1</v>
-      </c>
       <c r="AD16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -11279,71 +11387,72 @@
       <c r="C17" s="11"/>
       <c r="E17" s="46"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="11"/>
+      <c r="H17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <v>600</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J17" s="33" t="s">
+      <c r="K17" s="33" t="s">
         <v>1052</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="2">
-        <v>1</v>
-      </c>
-      <c r="O17" s="11">
-        <v>1</v>
-      </c>
-      <c r="P17" s="2">
+      <c r="O17" s="2">
+        <v>1</v>
+      </c>
+      <c r="P17" s="11">
         <v>1</v>
       </c>
       <c r="Q17" s="2">
         <v>1</v>
       </c>
-      <c r="R17" s="11">
-        <v>0</v>
+      <c r="R17" s="2">
+        <v>1</v>
       </c>
       <c r="S17" s="11">
-        <v>1</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>1817</v>
+        <v>0</v>
+      </c>
+      <c r="T17" s="11">
+        <v>1</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>1817</v>
       </c>
-      <c r="W17" s="2" t="s">
+      <c r="V17" s="3" t="s">
+        <v>1817</v>
+      </c>
+      <c r="X17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X17" s="2" t="s">
+      <c r="Y17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Y17" s="33" t="s">
+      <c r="Z17" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="Z17" s="11" t="s">
+      <c r="AA17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC17" s="2">
-        <v>1</v>
-      </c>
       <c r="AD17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -11353,71 +11462,72 @@
       <c r="C18" s="11"/>
       <c r="E18" s="46"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="11"/>
+      <c r="H18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <v>1500</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J18" s="33" t="s">
+      <c r="K18" s="33" t="s">
         <v>1053</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N18" s="2">
-        <v>1</v>
-      </c>
-      <c r="O18" s="11">
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="11">
         <v>2</v>
       </c>
-      <c r="P18" s="2">
-        <v>0</v>
-      </c>
       <c r="Q18" s="2">
         <v>0</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R18" s="2">
         <v>0</v>
       </c>
       <c r="S18" s="11">
+        <v>0</v>
+      </c>
+      <c r="T18" s="11">
         <v>2</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>1846</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>1846</v>
       </c>
-      <c r="W18" s="2" t="s">
+      <c r="V18" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="X18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X18" s="2" t="s">
+      <c r="Y18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Y18" s="11" t="s">
+      <c r="Z18" s="11" t="s">
         <v>627</v>
       </c>
-      <c r="Z18" s="11" t="s">
+      <c r="AA18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC18" s="2">
-        <v>1</v>
-      </c>
       <c r="AD18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -11427,71 +11537,72 @@
       <c r="C19" s="11"/>
       <c r="E19" s="46"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="11"/>
+      <c r="H19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="2">
         <v>3000</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="33" t="s">
+      <c r="K19" s="33" t="s">
         <v>1054</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N19" s="2">
-        <v>1</v>
-      </c>
-      <c r="O19" s="11">
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="11">
         <v>3</v>
       </c>
-      <c r="P19" s="2">
-        <v>1</v>
-      </c>
       <c r="Q19" s="2">
         <v>1</v>
       </c>
-      <c r="R19" s="11">
-        <v>0</v>
+      <c r="R19" s="2">
+        <v>1</v>
       </c>
       <c r="S19" s="11">
+        <v>0</v>
+      </c>
+      <c r="T19" s="11">
         <v>3</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>1847</v>
       </c>
       <c r="U19" s="3" t="s">
         <v>1847</v>
       </c>
-      <c r="W19" s="2" t="s">
+      <c r="V19" s="3" t="s">
+        <v>1847</v>
+      </c>
+      <c r="X19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X19" s="2" t="s">
+      <c r="Y19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Y19" s="11" t="s">
+      <c r="Z19" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="Z19" s="11" t="s">
+      <c r="AA19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC19" s="2">
-        <v>1</v>
-      </c>
       <c r="AD19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -11501,71 +11612,72 @@
       <c r="C20" s="11"/>
       <c r="E20" s="46"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="11"/>
+      <c r="H20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="2">
         <v>5000</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J20" s="33" t="s">
+      <c r="K20" s="33" t="s">
         <v>1055</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N20" s="2">
-        <v>1</v>
-      </c>
-      <c r="O20" s="11">
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="11">
         <v>4</v>
       </c>
-      <c r="P20" s="2">
-        <v>1</v>
-      </c>
       <c r="Q20" s="2">
         <v>1</v>
       </c>
-      <c r="R20" s="11">
-        <v>0</v>
+      <c r="R20" s="2">
+        <v>1</v>
       </c>
       <c r="S20" s="11">
+        <v>0</v>
+      </c>
+      <c r="T20" s="11">
         <v>4</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>1848</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>1848</v>
       </c>
-      <c r="W20" s="2" t="s">
+      <c r="V20" s="3" t="s">
+        <v>1848</v>
+      </c>
+      <c r="X20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X20" s="2" t="s">
+      <c r="Y20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Y20" s="11" t="s">
+      <c r="Z20" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="Z20" s="11" t="s">
+      <c r="AA20" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC20" s="2">
-        <v>1</v>
-      </c>
       <c r="AD20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -11575,71 +11687,72 @@
       <c r="C21" s="11"/>
       <c r="E21" s="46"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="11"/>
+      <c r="H21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <v>9800</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="K21" s="33" t="s">
         <v>1056</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="2">
-        <v>1</v>
-      </c>
-      <c r="O21" s="11">
+      <c r="O21" s="2">
+        <v>1</v>
+      </c>
+      <c r="P21" s="11">
         <v>5</v>
       </c>
-      <c r="P21" s="2">
-        <v>1</v>
-      </c>
       <c r="Q21" s="2">
         <v>1</v>
       </c>
-      <c r="R21" s="11">
-        <v>0</v>
+      <c r="R21" s="2">
+        <v>1</v>
       </c>
       <c r="S21" s="11">
+        <v>0</v>
+      </c>
+      <c r="T21" s="11">
         <v>5</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>1849</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>1849</v>
       </c>
-      <c r="W21" s="2" t="s">
+      <c r="V21" s="3" t="s">
+        <v>1849</v>
+      </c>
+      <c r="X21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X21" s="2" t="s">
+      <c r="Y21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Y21" s="11" t="s">
+      <c r="Z21" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="Z21" s="11" t="s">
+      <c r="AA21" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC21" s="2">
-        <v>1</v>
-      </c>
       <c r="AD21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -11649,71 +11762,72 @@
       <c r="C22" s="11"/>
       <c r="E22" s="46"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="11"/>
+      <c r="H22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <v>49800</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="K22" s="33" t="s">
         <v>1057</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N22" s="2">
-        <v>1</v>
-      </c>
-      <c r="O22" s="11">
+      <c r="O22" s="2">
+        <v>1</v>
+      </c>
+      <c r="P22" s="11">
         <v>6</v>
       </c>
-      <c r="P22" s="2">
-        <v>1</v>
-      </c>
       <c r="Q22" s="2">
         <v>1</v>
       </c>
-      <c r="R22" s="11">
-        <v>0</v>
+      <c r="R22" s="2">
+        <v>1</v>
       </c>
       <c r="S22" s="11">
+        <v>0</v>
+      </c>
+      <c r="T22" s="11">
         <v>6</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>1850</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>1850</v>
       </c>
-      <c r="W22" s="2" t="s">
+      <c r="V22" s="3" t="s">
+        <v>1850</v>
+      </c>
+      <c r="X22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X22" s="2" t="s">
+      <c r="Y22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Y22" s="11" t="s">
+      <c r="Z22" s="11" t="s">
         <v>631</v>
       </c>
-      <c r="Z22" s="11" t="s">
+      <c r="AA22" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC22" s="2">
-        <v>1</v>
-      </c>
       <c r="AD22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -11723,71 +11837,72 @@
       <c r="C23" s="11"/>
       <c r="E23" s="46"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="11"/>
+      <c r="H23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I23" s="2">
         <v>100000</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J23" s="33" t="s">
+      <c r="K23" s="33" t="s">
         <v>1058</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N23" s="2">
-        <v>1</v>
-      </c>
-      <c r="O23" s="11">
+      <c r="O23" s="2">
+        <v>1</v>
+      </c>
+      <c r="P23" s="11">
         <v>7</v>
       </c>
-      <c r="P23" s="2">
-        <v>0</v>
-      </c>
       <c r="Q23" s="2">
         <v>0</v>
       </c>
-      <c r="R23" s="11">
+      <c r="R23" s="2">
         <v>0</v>
       </c>
       <c r="S23" s="11">
+        <v>0</v>
+      </c>
+      <c r="T23" s="11">
         <v>7</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>1851</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>1851</v>
       </c>
-      <c r="W23" s="2" t="s">
+      <c r="V23" s="3" t="s">
+        <v>1851</v>
+      </c>
+      <c r="X23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X23" s="2" t="s">
+      <c r="Y23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Y23" s="11" t="s">
+      <c r="Z23" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="Z23" s="11" t="s">
+      <c r="AA23" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC23" s="2">
-        <v>1</v>
-      </c>
       <c r="AD23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -11804,92 +11919,95 @@
       <c r="F24" s="11">
         <v>10189</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="11">
+        <v>10492</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="H24" s="11">
+      <c r="I24" s="11">
         <v>19800</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>1364</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>1061</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>1062</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>1063</v>
       </c>
-      <c r="N24" s="2">
-        <v>1</v>
-      </c>
-      <c r="O24" s="11">
+      <c r="O24" s="2">
+        <v>1</v>
+      </c>
+      <c r="P24" s="11">
         <v>6</v>
       </c>
-      <c r="P24" s="2">
-        <v>0</v>
-      </c>
       <c r="Q24" s="2">
         <v>0</v>
       </c>
-      <c r="R24" s="11">
-        <v>1</v>
+      <c r="R24" s="2">
+        <v>0</v>
       </c>
       <c r="S24" s="11">
+        <v>1</v>
+      </c>
+      <c r="T24" s="11">
         <v>6</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>1064</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="W24" s="33" t="s">
+      <c r="V24" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="X24" s="33" t="s">
         <v>1027</v>
       </c>
-      <c r="X24" s="3" t="s">
+      <c r="Y24" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="Y24" s="11" t="s">
+      <c r="Z24" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="Z24" s="11" t="s">
+      <c r="AA24" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AC24" s="2">
-        <v>1</v>
-      </c>
       <c r="AD24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E25" s="46"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E26" s="46"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E27" s="46"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E28" s="46"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E29" s="46"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E30" s="46"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E31" s="46"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="E32" s="46"/>
     </row>
   </sheetData>
@@ -11902,13 +12020,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN565"/>
+  <dimension ref="A1:AN579"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H531" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G559" sqref="G559"/>
+      <selection pane="bottomRight" activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -15702,7 +15820,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>2115</v>
+        <v>2157</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>937</v>
@@ -45161,7 +45279,7 @@
         <v>10437</v>
       </c>
       <c r="F521" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G521" s="19" t="s">
         <v>1961</v>
@@ -45229,7 +45347,7 @@
         <v>10438</v>
       </c>
       <c r="F522" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G522" s="19" t="s">
         <v>1968</v>
@@ -45297,7 +45415,7 @@
         <v>10439</v>
       </c>
       <c r="F523" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G523" s="19" t="s">
         <v>1973</v>
@@ -45365,7 +45483,7 @@
         <v>10440</v>
       </c>
       <c r="F524" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G524" s="19" t="s">
         <v>1978</v>
@@ -45433,7 +45551,7 @@
         <v>10441</v>
       </c>
       <c r="F525" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G525" s="19" t="s">
         <v>1960</v>
@@ -45501,7 +45619,7 @@
         <v>10442</v>
       </c>
       <c r="F526" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G526" s="19" t="s">
         <v>1967</v>
@@ -45569,7 +45687,7 @@
         <v>10443</v>
       </c>
       <c r="F527" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G527" s="19" t="s">
         <v>1987</v>
@@ -45637,7 +45755,7 @@
         <v>10444</v>
       </c>
       <c r="F528" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G528" s="19" t="s">
         <v>1978</v>
@@ -45705,7 +45823,7 @@
         <v>10445</v>
       </c>
       <c r="F529" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G529" s="19" t="s">
         <v>1960</v>
@@ -45773,7 +45891,7 @@
         <v>10446</v>
       </c>
       <c r="F530" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G530" s="19" t="s">
         <v>1968</v>
@@ -45841,7 +45959,7 @@
         <v>10447</v>
       </c>
       <c r="F531" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G531" s="19" t="s">
         <v>1987</v>
@@ -45909,7 +46027,7 @@
         <v>10448</v>
       </c>
       <c r="F532" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G532" s="19" t="s">
         <v>2001</v>
@@ -45977,7 +46095,7 @@
         <v>10449</v>
       </c>
       <c r="F533" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G533" s="5" t="s">
         <v>2017</v>
@@ -46045,7 +46163,7 @@
         <v>10450</v>
       </c>
       <c r="F534" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G534" s="5" t="s">
         <v>2024</v>
@@ -46113,7 +46231,7 @@
         <v>10451</v>
       </c>
       <c r="F535" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G535" s="5" t="s">
         <v>2030</v>
@@ -46181,7 +46299,7 @@
         <v>10452</v>
       </c>
       <c r="F536" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G536" s="5" t="s">
         <v>2017</v>
@@ -46249,7 +46367,7 @@
         <v>10453</v>
       </c>
       <c r="F537" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G537" s="5" t="s">
         <v>2024</v>
@@ -46317,7 +46435,7 @@
         <v>10454</v>
       </c>
       <c r="F538" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G538" s="5" t="s">
         <v>2030</v>
@@ -46385,7 +46503,7 @@
         <v>10455</v>
       </c>
       <c r="F539" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G539" s="5" t="s">
         <v>2017</v>
@@ -46453,7 +46571,7 @@
         <v>10456</v>
       </c>
       <c r="F540" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G540" s="5" t="s">
         <v>2024</v>
@@ -46521,7 +46639,7 @@
         <v>10457</v>
       </c>
       <c r="F541" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G541" s="5" t="s">
         <v>2030</v>
@@ -46581,1596 +46699,2572 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A542" s="69">
+    <row r="542" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
         <v>541</v>
       </c>
-      <c r="B542" s="69">
+      <c r="B542" s="5">
         <v>10458</v>
       </c>
-      <c r="F542" s="69">
-        <v>1</v>
-      </c>
-      <c r="G542" s="69" t="s">
+      <c r="F542" s="5">
+        <v>0</v>
+      </c>
+      <c r="G542" s="5" t="s">
         <v>1332</v>
       </c>
-      <c r="I542" s="69" t="s">
+      <c r="I542" s="5" t="s">
         <v>2058</v>
       </c>
-      <c r="J542" s="69" t="s">
+      <c r="J542" s="5" t="s">
         <v>2059</v>
       </c>
-      <c r="L542" s="69">
+      <c r="L542" s="5">
         <v>-31</v>
       </c>
-      <c r="M542" s="69">
-        <v>0</v>
-      </c>
-      <c r="N542" s="69">
-        <v>0</v>
-      </c>
-      <c r="O542" s="69" t="s">
+      <c r="M542" s="5">
+        <v>0</v>
+      </c>
+      <c r="N542" s="5">
+        <v>0</v>
+      </c>
+      <c r="O542" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P542" s="69">
+      <c r="P542" s="5">
         <v>99800</v>
       </c>
-      <c r="Q542" s="69" t="s">
+      <c r="Q542" s="5" t="s">
         <v>1809</v>
       </c>
-      <c r="R542" s="70" t="s">
+      <c r="R542" s="10" t="s">
         <v>2060</v>
       </c>
-      <c r="W542" s="69" t="s">
+      <c r="W542" s="5" t="s">
         <v>1358</v>
       </c>
-      <c r="X542" s="69">
+      <c r="X542" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y542" s="71">
+      <c r="Y542" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z542" s="71">
+      <c r="Z542" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH542" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI542" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL542" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM542" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A543" s="69">
+      <c r="AH542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM542" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
         <v>542</v>
       </c>
-      <c r="B543" s="69">
+      <c r="B543" s="5">
         <v>10459</v>
       </c>
-      <c r="F543" s="69">
-        <v>1</v>
-      </c>
-      <c r="G543" s="69" t="s">
+      <c r="F543" s="5">
+        <v>0</v>
+      </c>
+      <c r="G543" s="5" t="s">
         <v>1456</v>
       </c>
-      <c r="I543" s="69" t="s">
+      <c r="I543" s="5" t="s">
         <v>2057</v>
       </c>
-      <c r="J543" s="69" t="s">
+      <c r="J543" s="5" t="s">
         <v>2061</v>
       </c>
-      <c r="L543" s="69">
+      <c r="L543" s="5">
         <v>-31</v>
       </c>
-      <c r="M543" s="69">
-        <v>0</v>
-      </c>
-      <c r="N543" s="69">
-        <v>0</v>
-      </c>
-      <c r="O543" s="69" t="s">
+      <c r="M543" s="5">
+        <v>0</v>
+      </c>
+      <c r="N543" s="5">
+        <v>0</v>
+      </c>
+      <c r="O543" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P543" s="69">
+      <c r="P543" s="5">
         <v>49800</v>
       </c>
-      <c r="Q543" s="69" t="s">
+      <c r="Q543" s="5" t="s">
         <v>1809</v>
       </c>
-      <c r="R543" s="70" t="s">
+      <c r="R543" s="10" t="s">
         <v>2062</v>
       </c>
-      <c r="W543" s="69" t="s">
+      <c r="W543" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X543" s="69">
+      <c r="X543" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y543" s="71">
+      <c r="Y543" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z543" s="71">
+      <c r="Z543" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH543" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI543" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL543" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM543" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A544" s="69">
+      <c r="AH543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM543" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
         <v>543</v>
       </c>
-      <c r="B544" s="69">
+      <c r="B544" s="5">
         <v>10460</v>
       </c>
-      <c r="F544" s="69">
-        <v>1</v>
-      </c>
-      <c r="G544" s="69" t="s">
+      <c r="F544" s="5">
+        <v>0</v>
+      </c>
+      <c r="G544" s="5" t="s">
         <v>1460</v>
       </c>
-      <c r="I544" s="69" t="s">
+      <c r="I544" s="5" t="s">
         <v>2057</v>
       </c>
-      <c r="J544" s="69" t="s">
+      <c r="J544" s="5" t="s">
         <v>1469</v>
       </c>
-      <c r="L544" s="69">
+      <c r="L544" s="5">
         <v>-31</v>
       </c>
-      <c r="M544" s="69">
-        <v>0</v>
-      </c>
-      <c r="N544" s="69">
-        <v>0</v>
-      </c>
-      <c r="O544" s="69" t="s">
+      <c r="M544" s="5">
+        <v>0</v>
+      </c>
+      <c r="N544" s="5">
+        <v>0</v>
+      </c>
+      <c r="O544" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P544" s="69">
+      <c r="P544" s="5">
         <v>29800</v>
       </c>
-      <c r="Q544" s="69" t="s">
+      <c r="Q544" s="5" t="s">
         <v>1463</v>
       </c>
-      <c r="R544" s="70" t="s">
+      <c r="R544" s="10" t="s">
         <v>1352</v>
       </c>
-      <c r="W544" s="69" t="s">
+      <c r="W544" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X544" s="69">
+      <c r="X544" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y544" s="71">
+      <c r="Y544" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z544" s="71">
+      <c r="Z544" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH544" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI544" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL544" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM544" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A545" s="69">
+      <c r="AH544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM544" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
         <v>544</v>
       </c>
-      <c r="B545" s="69">
+      <c r="B545" s="5">
         <v>10461</v>
       </c>
-      <c r="F545" s="69">
-        <v>1</v>
-      </c>
-      <c r="G545" s="69" t="s">
+      <c r="F545" s="5">
+        <v>0</v>
+      </c>
+      <c r="G545" s="5" t="s">
         <v>2063</v>
       </c>
-      <c r="I545" s="69" t="s">
+      <c r="I545" s="5" t="s">
         <v>2057</v>
       </c>
-      <c r="J545" s="69" t="s">
+      <c r="J545" s="5" t="s">
         <v>1465</v>
       </c>
-      <c r="L545" s="69">
+      <c r="L545" s="5">
         <v>-31</v>
       </c>
-      <c r="M545" s="69">
-        <v>0</v>
-      </c>
-      <c r="N545" s="69">
-        <v>0</v>
-      </c>
-      <c r="O545" s="69" t="s">
+      <c r="M545" s="5">
+        <v>0</v>
+      </c>
+      <c r="N545" s="5">
+        <v>0</v>
+      </c>
+      <c r="O545" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P545" s="69">
+      <c r="P545" s="5">
         <v>19800</v>
       </c>
-      <c r="Q545" s="69" t="s">
+      <c r="Q545" s="5" t="s">
         <v>1463</v>
       </c>
-      <c r="R545" s="70" t="s">
+      <c r="R545" s="10" t="s">
         <v>1348</v>
       </c>
-      <c r="W545" s="69" t="s">
+      <c r="W545" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X545" s="69">
+      <c r="X545" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y545" s="71">
+      <c r="Y545" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z545" s="71">
+      <c r="Z545" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH545" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI545" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL545" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM545" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A546" s="69">
+      <c r="AH545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM545" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
         <v>545</v>
       </c>
-      <c r="B546" s="69">
+      <c r="B546" s="5">
         <v>10462</v>
       </c>
-      <c r="F546" s="69">
-        <v>1</v>
-      </c>
-      <c r="G546" s="69" t="s">
+      <c r="F546" s="5">
+        <v>0</v>
+      </c>
+      <c r="G546" s="5" t="s">
         <v>1349</v>
       </c>
-      <c r="I546" s="69" t="s">
+      <c r="I546" s="5" t="s">
         <v>2057</v>
       </c>
-      <c r="J546" s="69" t="s">
+      <c r="J546" s="5" t="s">
         <v>1462</v>
       </c>
-      <c r="L546" s="69">
+      <c r="L546" s="5">
         <v>-31</v>
       </c>
-      <c r="M546" s="69">
-        <v>0</v>
-      </c>
-      <c r="N546" s="69">
-        <v>0</v>
-      </c>
-      <c r="O546" s="69" t="s">
+      <c r="M546" s="5">
+        <v>0</v>
+      </c>
+      <c r="N546" s="5">
+        <v>0</v>
+      </c>
+      <c r="O546" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P546" s="69">
+      <c r="P546" s="5">
         <v>9800</v>
       </c>
-      <c r="Q546" s="69" t="s">
+      <c r="Q546" s="5" t="s">
         <v>2064</v>
       </c>
-      <c r="R546" s="70" t="s">
+      <c r="R546" s="10" t="s">
         <v>1345</v>
       </c>
-      <c r="W546" s="69" t="s">
+      <c r="W546" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X546" s="69">
+      <c r="X546" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y546" s="71">
+      <c r="Y546" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z546" s="71">
+      <c r="Z546" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH546" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI546" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL546" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM546" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="547" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A547" s="69">
+      <c r="AH546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM546" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
         <v>546</v>
       </c>
-      <c r="B547" s="69">
+      <c r="B547" s="5">
         <v>10463</v>
       </c>
-      <c r="F547" s="69">
-        <v>1</v>
-      </c>
-      <c r="G547" s="69" t="s">
+      <c r="F547" s="5">
+        <v>0</v>
+      </c>
+      <c r="G547" s="5" t="s">
         <v>2065</v>
       </c>
-      <c r="I547" s="69" t="s">
+      <c r="I547" s="5" t="s">
         <v>2058</v>
       </c>
-      <c r="J547" s="69" t="s">
+      <c r="J547" s="5" t="s">
         <v>1458</v>
       </c>
-      <c r="L547" s="69">
+      <c r="L547" s="5">
         <v>-31</v>
       </c>
-      <c r="M547" s="69">
-        <v>0</v>
-      </c>
-      <c r="N547" s="69">
-        <v>0</v>
-      </c>
-      <c r="O547" s="69" t="s">
+      <c r="M547" s="5">
+        <v>0</v>
+      </c>
+      <c r="N547" s="5">
+        <v>0</v>
+      </c>
+      <c r="O547" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P547" s="69">
+      <c r="P547" s="5">
         <v>4800</v>
       </c>
-      <c r="Q547" s="69" t="s">
+      <c r="Q547" s="5" t="s">
         <v>1795</v>
       </c>
-      <c r="R547" s="70" t="s">
+      <c r="R547" s="10" t="s">
         <v>2066</v>
       </c>
-      <c r="W547" s="69" t="s">
+      <c r="W547" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X547" s="69">
+      <c r="X547" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y547" s="71">
+      <c r="Y547" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z547" s="71">
+      <c r="Z547" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH547" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI547" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL547" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM547" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A548" s="69">
+      <c r="AH547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM547" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
         <v>547</v>
       </c>
-      <c r="B548" s="69">
+      <c r="B548" s="5">
         <v>10464</v>
       </c>
-      <c r="F548" s="69">
-        <v>1</v>
-      </c>
-      <c r="G548" s="69" t="s">
+      <c r="F548" s="5">
+        <v>0</v>
+      </c>
+      <c r="G548" s="5" t="s">
         <v>1359</v>
       </c>
-      <c r="I548" s="69" t="s">
+      <c r="I548" s="5" t="s">
         <v>2057</v>
       </c>
-      <c r="J548" s="69" t="s">
+      <c r="J548" s="5" t="s">
         <v>2067</v>
       </c>
-      <c r="L548" s="69">
+      <c r="L548" s="5">
         <v>-31</v>
       </c>
-      <c r="M548" s="69">
-        <v>0</v>
-      </c>
-      <c r="N548" s="69">
-        <v>0</v>
-      </c>
-      <c r="O548" s="69" t="s">
+      <c r="M548" s="5">
+        <v>0</v>
+      </c>
+      <c r="N548" s="5">
+        <v>0</v>
+      </c>
+      <c r="O548" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P548" s="69">
+      <c r="P548" s="5">
         <v>1800</v>
       </c>
-      <c r="Q548" s="69" t="s">
+      <c r="Q548" s="5" t="s">
         <v>2068</v>
       </c>
-      <c r="R548" s="70" t="s">
+      <c r="R548" s="10" t="s">
         <v>1336</v>
       </c>
-      <c r="W548" s="69" t="s">
+      <c r="W548" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X548" s="69">
+      <c r="X548" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y548" s="71">
+      <c r="Y548" s="11">
         <v>1614038400</v>
       </c>
-      <c r="Z548" s="71">
+      <c r="Z548" s="11">
         <v>1614614399</v>
       </c>
-      <c r="AH548" s="69">
-        <v>1</v>
-      </c>
-      <c r="AI548" s="69">
-        <v>1</v>
-      </c>
-      <c r="AL548" s="69">
-        <v>1</v>
-      </c>
-      <c r="AM548" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="549" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM548" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A549" s="5">
         <v>548</v>
       </c>
-      <c r="B549" s="65">
+      <c r="B549" s="5">
         <v>10465</v>
       </c>
-      <c r="F549" s="65">
-        <v>1</v>
-      </c>
-      <c r="G549" s="65" t="s">
+      <c r="F549" s="5">
+        <v>0</v>
+      </c>
+      <c r="G549" s="5" t="s">
         <v>2072</v>
       </c>
-      <c r="I549" s="65" t="s">
+      <c r="I549" s="5" t="s">
         <v>2074</v>
       </c>
-      <c r="J549" s="65" t="s">
+      <c r="J549" s="5" t="s">
         <v>2075</v>
       </c>
-      <c r="L549" s="65">
+      <c r="L549" s="5">
         <v>-31</v>
       </c>
-      <c r="M549" s="65">
-        <v>0</v>
-      </c>
-      <c r="N549" s="65">
-        <v>0</v>
-      </c>
-      <c r="O549" s="65" t="s">
+      <c r="M549" s="5">
+        <v>0</v>
+      </c>
+      <c r="N549" s="5">
+        <v>0</v>
+      </c>
+      <c r="O549" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P549" s="65">
+      <c r="P549" s="5">
         <v>49800</v>
       </c>
-      <c r="Q549" s="65" t="s">
+      <c r="Q549" s="5" t="s">
         <v>2076</v>
       </c>
-      <c r="R549" s="66" t="s">
+      <c r="R549" s="10" t="s">
         <v>2077</v>
       </c>
-      <c r="W549" s="65" t="s">
+      <c r="W549" s="5" t="s">
         <v>2100</v>
       </c>
-      <c r="X549" s="65">
+      <c r="X549" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y549" s="65">
+      <c r="Y549" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z549" s="65">
+      <c r="Z549" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA549" s="65">
+      <c r="AA549" s="5">
         <v>66</v>
       </c>
-      <c r="AH549" s="65">
-        <v>1</v>
-      </c>
-      <c r="AI549" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL549" s="65">
-        <v>1</v>
-      </c>
-      <c r="AM549" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="550" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH549" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI549" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL549" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM549" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" s="5">
         <v>549</v>
       </c>
-      <c r="B550" s="65">
+      <c r="B550" s="5">
         <v>10466</v>
       </c>
-      <c r="F550" s="65">
-        <v>1</v>
-      </c>
-      <c r="G550" s="65" t="s">
+      <c r="F550" s="5">
+        <v>0</v>
+      </c>
+      <c r="G550" s="5" t="s">
         <v>2072</v>
       </c>
-      <c r="I550" s="65" t="s">
+      <c r="I550" s="5" t="s">
         <v>2078</v>
       </c>
-      <c r="J550" s="65" t="s">
+      <c r="J550" s="5" t="s">
         <v>2079</v>
       </c>
-      <c r="L550" s="65">
+      <c r="L550" s="5">
         <v>-31</v>
       </c>
-      <c r="M550" s="65">
-        <v>0</v>
-      </c>
-      <c r="N550" s="65">
-        <v>0</v>
-      </c>
-      <c r="O550" s="65" t="s">
+      <c r="M550" s="5">
+        <v>0</v>
+      </c>
+      <c r="N550" s="5">
+        <v>0</v>
+      </c>
+      <c r="O550" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P550" s="65">
+      <c r="P550" s="5">
         <v>19800</v>
       </c>
-      <c r="Q550" s="65" t="s">
+      <c r="Q550" s="5" t="s">
         <v>2076</v>
       </c>
-      <c r="R550" s="66" t="s">
+      <c r="R550" s="10" t="s">
         <v>2080</v>
       </c>
-      <c r="W550" s="65" t="s">
+      <c r="W550" s="5" t="s">
         <v>2100</v>
       </c>
-      <c r="X550" s="65">
+      <c r="X550" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y550" s="65">
+      <c r="Y550" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z550" s="65">
+      <c r="Z550" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA550" s="65">
+      <c r="AA550" s="5">
         <v>66</v>
       </c>
-      <c r="AH550" s="65">
-        <v>1</v>
-      </c>
-      <c r="AI550" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL550" s="65">
-        <v>1</v>
-      </c>
-      <c r="AM550" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="551" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH550" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI550" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL550" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM550" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A551" s="5">
         <v>550</v>
       </c>
-      <c r="B551" s="65">
+      <c r="B551" s="5">
         <v>10467</v>
       </c>
-      <c r="F551" s="65">
-        <v>1</v>
-      </c>
-      <c r="G551" s="65" t="s">
+      <c r="F551" s="5">
+        <v>0</v>
+      </c>
+      <c r="G551" s="5" t="s">
         <v>2072</v>
       </c>
-      <c r="I551" s="65" t="s">
+      <c r="I551" s="5" t="s">
         <v>2081</v>
       </c>
-      <c r="J551" s="65" t="s">
+      <c r="J551" s="5" t="s">
         <v>2082</v>
       </c>
-      <c r="L551" s="65">
+      <c r="L551" s="5">
         <v>-31</v>
       </c>
-      <c r="M551" s="65">
-        <v>0</v>
-      </c>
-      <c r="N551" s="65">
-        <v>0</v>
-      </c>
-      <c r="O551" s="65" t="s">
+      <c r="M551" s="5">
+        <v>0</v>
+      </c>
+      <c r="N551" s="5">
+        <v>0</v>
+      </c>
+      <c r="O551" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P551" s="65">
+      <c r="P551" s="5">
         <v>9800</v>
       </c>
-      <c r="Q551" s="65" t="s">
+      <c r="Q551" s="5" t="s">
         <v>2076</v>
       </c>
-      <c r="R551" s="66" t="s">
+      <c r="R551" s="10" t="s">
         <v>2083</v>
       </c>
-      <c r="W551" s="65" t="s">
+      <c r="W551" s="5" t="s">
         <v>2100</v>
       </c>
-      <c r="X551" s="65">
+      <c r="X551" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y551" s="65">
+      <c r="Y551" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z551" s="65">
+      <c r="Z551" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA551" s="65">
+      <c r="AA551" s="5">
         <v>66</v>
       </c>
-      <c r="AH551" s="65">
-        <v>1</v>
-      </c>
-      <c r="AI551" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL551" s="65">
-        <v>1</v>
-      </c>
-      <c r="AM551" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="552" spans="1:39" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH551" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI551" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL551" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM551" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" s="5">
         <v>551</v>
       </c>
-      <c r="B552" s="65">
+      <c r="B552" s="5">
         <v>10468</v>
       </c>
-      <c r="F552" s="65">
-        <v>1</v>
-      </c>
-      <c r="G552" s="65" t="s">
+      <c r="F552" s="5">
+        <v>0</v>
+      </c>
+      <c r="G552" s="5" t="s">
         <v>2072</v>
       </c>
-      <c r="I552" s="65" t="s">
+      <c r="I552" s="5" t="s">
         <v>2084</v>
       </c>
-      <c r="J552" s="65" t="s">
+      <c r="J552" s="5" t="s">
         <v>2085</v>
       </c>
-      <c r="L552" s="65">
+      <c r="L552" s="5">
         <v>-31</v>
       </c>
-      <c r="M552" s="65">
-        <v>0</v>
-      </c>
-      <c r="N552" s="65">
-        <v>0</v>
-      </c>
-      <c r="O552" s="65" t="s">
+      <c r="M552" s="5">
+        <v>0</v>
+      </c>
+      <c r="N552" s="5">
+        <v>0</v>
+      </c>
+      <c r="O552" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P552" s="65">
+      <c r="P552" s="5">
         <v>4800</v>
       </c>
-      <c r="Q552" s="65" t="s">
+      <c r="Q552" s="5" t="s">
         <v>2076</v>
       </c>
-      <c r="R552" s="66" t="s">
+      <c r="R552" s="10" t="s">
         <v>2086</v>
       </c>
-      <c r="W552" s="65" t="s">
+      <c r="W552" s="5" t="s">
         <v>1674</v>
       </c>
-      <c r="X552" s="65">
+      <c r="X552" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y552" s="65">
+      <c r="Y552" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z552" s="65">
+      <c r="Z552" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA552" s="65">
+      <c r="AA552" s="5">
         <v>66</v>
       </c>
-      <c r="AH552" s="65">
-        <v>1</v>
-      </c>
-      <c r="AI552" s="65">
-        <v>1</v>
-      </c>
-      <c r="AL552" s="65">
-        <v>1</v>
-      </c>
-      <c r="AM552" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="553" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH552" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI552" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL552" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM552" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A553" s="5">
         <v>552</v>
       </c>
-      <c r="B553" s="67">
+      <c r="B553" s="5">
         <v>10469</v>
       </c>
-      <c r="F553" s="67">
-        <v>1</v>
-      </c>
-      <c r="G553" s="67" t="s">
+      <c r="F553" s="5">
+        <v>0</v>
+      </c>
+      <c r="G553" s="5" t="s">
         <v>2087</v>
       </c>
-      <c r="I553" s="67" t="s">
+      <c r="I553" s="5" t="s">
         <v>2073</v>
       </c>
-      <c r="J553" s="67" t="s">
+      <c r="J553" s="5" t="s">
         <v>2088</v>
       </c>
-      <c r="L553" s="67">
+      <c r="L553" s="5">
         <v>-31</v>
       </c>
-      <c r="M553" s="67">
-        <v>0</v>
-      </c>
-      <c r="N553" s="67">
-        <v>0</v>
-      </c>
-      <c r="O553" s="67" t="s">
+      <c r="M553" s="5">
+        <v>0</v>
+      </c>
+      <c r="N553" s="5">
+        <v>0</v>
+      </c>
+      <c r="O553" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P553" s="67">
+      <c r="P553" s="5">
         <v>49800</v>
       </c>
-      <c r="Q553" s="67" t="s">
+      <c r="Q553" s="5" t="s">
         <v>2089</v>
       </c>
-      <c r="R553" s="68" t="s">
+      <c r="R553" s="10" t="s">
         <v>2090</v>
       </c>
-      <c r="W553" s="67" t="s">
+      <c r="W553" s="5" t="s">
         <v>2101</v>
       </c>
-      <c r="X553" s="67">
+      <c r="X553" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y553" s="67">
+      <c r="Y553" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z553" s="67">
+      <c r="Z553" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA553" s="67">
+      <c r="AA553" s="5">
         <v>67</v>
       </c>
-      <c r="AH553" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI553" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL553" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM553" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="554" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH553" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI553" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL553" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM553" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554" s="5">
         <v>553</v>
       </c>
-      <c r="B554" s="67">
+      <c r="B554" s="5">
         <v>10470</v>
       </c>
-      <c r="F554" s="67">
-        <v>1</v>
-      </c>
-      <c r="G554" s="67" t="s">
+      <c r="F554" s="5">
+        <v>0</v>
+      </c>
+      <c r="G554" s="5" t="s">
         <v>2087</v>
       </c>
-      <c r="I554" s="67" t="s">
+      <c r="I554" s="5" t="s">
         <v>2078</v>
       </c>
-      <c r="J554" s="67" t="s">
+      <c r="J554" s="5" t="s">
         <v>2091</v>
       </c>
-      <c r="L554" s="67">
+      <c r="L554" s="5">
         <v>-31</v>
       </c>
-      <c r="M554" s="67">
-        <v>0</v>
-      </c>
-      <c r="N554" s="67">
-        <v>0</v>
-      </c>
-      <c r="O554" s="67" t="s">
+      <c r="M554" s="5">
+        <v>0</v>
+      </c>
+      <c r="N554" s="5">
+        <v>0</v>
+      </c>
+      <c r="O554" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P554" s="67">
+      <c r="P554" s="5">
         <v>19800</v>
       </c>
-      <c r="Q554" s="67" t="s">
+      <c r="Q554" s="5" t="s">
         <v>2089</v>
       </c>
-      <c r="R554" s="68" t="s">
+      <c r="R554" s="10" t="s">
         <v>2092</v>
       </c>
-      <c r="W554" s="67" t="s">
+      <c r="W554" s="5" t="s">
         <v>2102</v>
       </c>
-      <c r="X554" s="67">
+      <c r="X554" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y554" s="67">
+      <c r="Y554" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z554" s="67">
+      <c r="Z554" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA554" s="67">
+      <c r="AA554" s="5">
         <v>67</v>
       </c>
-      <c r="AH554" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI554" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL554" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM554" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="555" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH554" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI554" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL554" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM554" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A555" s="5">
         <v>554</v>
       </c>
-      <c r="B555" s="67">
+      <c r="B555" s="5">
         <v>10471</v>
       </c>
-      <c r="F555" s="67">
-        <v>1</v>
-      </c>
-      <c r="G555" s="67" t="s">
+      <c r="F555" s="5">
+        <v>0</v>
+      </c>
+      <c r="G555" s="5" t="s">
         <v>2087</v>
       </c>
-      <c r="I555" s="67" t="s">
+      <c r="I555" s="5" t="s">
         <v>2081</v>
       </c>
-      <c r="J555" s="67" t="s">
+      <c r="J555" s="5" t="s">
         <v>2093</v>
       </c>
-      <c r="L555" s="67">
+      <c r="L555" s="5">
         <v>-31</v>
       </c>
-      <c r="M555" s="67">
-        <v>0</v>
-      </c>
-      <c r="N555" s="67">
-        <v>0</v>
-      </c>
-      <c r="O555" s="67" t="s">
+      <c r="M555" s="5">
+        <v>0</v>
+      </c>
+      <c r="N555" s="5">
+        <v>0</v>
+      </c>
+      <c r="O555" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P555" s="67">
+      <c r="P555" s="5">
         <v>9800</v>
       </c>
-      <c r="Q555" s="67" t="s">
+      <c r="Q555" s="5" t="s">
         <v>2094</v>
       </c>
-      <c r="R555" s="68" t="s">
+      <c r="R555" s="10" t="s">
         <v>2095</v>
       </c>
-      <c r="W555" s="67" t="s">
+      <c r="W555" s="5" t="s">
         <v>2102</v>
       </c>
-      <c r="X555" s="67">
+      <c r="X555" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y555" s="67">
+      <c r="Y555" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z555" s="67">
+      <c r="Z555" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA555" s="67">
+      <c r="AA555" s="5">
         <v>67</v>
       </c>
-      <c r="AH555" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI555" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL555" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM555" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="556" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH555" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI555" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL555" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM555" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556" s="5">
         <v>555</v>
       </c>
-      <c r="B556" s="67">
+      <c r="B556" s="5">
         <v>10472</v>
       </c>
-      <c r="F556" s="67">
-        <v>1</v>
-      </c>
-      <c r="G556" s="67" t="s">
+      <c r="F556" s="5">
+        <v>0</v>
+      </c>
+      <c r="G556" s="5" t="s">
         <v>2087</v>
       </c>
-      <c r="I556" s="67" t="s">
+      <c r="I556" s="5" t="s">
         <v>2084</v>
       </c>
-      <c r="J556" s="67" t="s">
+      <c r="J556" s="5" t="s">
         <v>2096</v>
       </c>
-      <c r="L556" s="67">
+      <c r="L556" s="5">
         <v>-31</v>
       </c>
-      <c r="M556" s="67">
-        <v>0</v>
-      </c>
-      <c r="N556" s="67">
-        <v>0</v>
-      </c>
-      <c r="O556" s="67" t="s">
+      <c r="M556" s="5">
+        <v>0</v>
+      </c>
+      <c r="N556" s="5">
+        <v>0</v>
+      </c>
+      <c r="O556" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P556" s="67">
+      <c r="P556" s="5">
         <v>4800</v>
       </c>
-      <c r="Q556" s="67" t="s">
+      <c r="Q556" s="5" t="s">
         <v>2094</v>
       </c>
-      <c r="R556" s="68" t="s">
+      <c r="R556" s="10" t="s">
         <v>2097</v>
       </c>
-      <c r="W556" s="67" t="s">
+      <c r="W556" s="5" t="s">
         <v>2102</v>
       </c>
-      <c r="X556" s="67">
+      <c r="X556" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y556" s="67">
+      <c r="Y556" s="5">
         <v>1612828800</v>
       </c>
-      <c r="Z556" s="67">
+      <c r="Z556" s="5">
         <v>1613404799</v>
       </c>
-      <c r="AA556" s="67">
+      <c r="AA556" s="5">
         <v>67</v>
       </c>
-      <c r="AH556" s="67">
-        <v>1</v>
-      </c>
-      <c r="AI556" s="67">
-        <v>1</v>
-      </c>
-      <c r="AL556" s="67">
-        <v>1</v>
-      </c>
-      <c r="AM556" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="557" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH556" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI556" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL556" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM556" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A557" s="5">
         <v>556</v>
       </c>
-      <c r="B557" s="19">
+      <c r="B557" s="5">
         <v>10473</v>
       </c>
-      <c r="F557" s="19">
-        <v>1</v>
-      </c>
-      <c r="G557" s="19" t="s">
-        <v>2119</v>
-      </c>
-      <c r="I557" s="19" t="s">
+      <c r="F557" s="5">
+        <v>0</v>
+      </c>
+      <c r="G557" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="I557" s="5" t="s">
         <v>2098</v>
       </c>
-      <c r="J557" s="19" t="s">
+      <c r="J557" s="5" t="s">
         <v>2109</v>
       </c>
-      <c r="L557" s="19">
+      <c r="L557" s="5">
         <v>-25</v>
       </c>
-      <c r="M557" s="19">
-        <v>0</v>
-      </c>
-      <c r="N557" s="19">
-        <v>0</v>
-      </c>
-      <c r="O557" s="19" t="s">
+      <c r="M557" s="5">
+        <v>0</v>
+      </c>
+      <c r="N557" s="5">
+        <v>0</v>
+      </c>
+      <c r="O557" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P557" s="19">
+      <c r="P557" s="5">
         <v>100</v>
       </c>
-      <c r="Q557" s="19" t="s">
+      <c r="Q557" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R557" s="72" t="s">
+      <c r="R557" s="65" t="s">
         <v>2103</v>
       </c>
-      <c r="W557" s="19" t="s">
+      <c r="W557" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X557" s="19">
+      <c r="X557" s="5">
         <v>50</v>
       </c>
-      <c r="Y557" s="19">
+      <c r="Y557" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z557" s="19">
+      <c r="Z557" s="5">
         <v>1613440800</v>
       </c>
-      <c r="AE557" s="19">
+      <c r="AE557" s="5">
         <f t="shared" ref="AE557:AE565" si="1">24*60*60</f>
         <v>86400</v>
       </c>
-      <c r="AF557" s="19">
+      <c r="AF557" s="5">
         <v>7</v>
       </c>
-      <c r="AH557" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI557" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="558" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH557" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI557" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A558" s="5">
         <v>557</v>
       </c>
-      <c r="B558" s="19">
+      <c r="B558" s="5">
         <v>10474</v>
       </c>
-      <c r="F558" s="19">
-        <v>1</v>
-      </c>
-      <c r="G558" s="19" t="s">
-        <v>2120</v>
-      </c>
-      <c r="I558" s="19" t="s">
+      <c r="F558" s="5">
+        <v>0</v>
+      </c>
+      <c r="G558" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="I558" s="5" t="s">
         <v>2098</v>
       </c>
-      <c r="J558" s="19" t="s">
+      <c r="J558" s="5" t="s">
         <v>2099</v>
       </c>
-      <c r="L558" s="19">
+      <c r="L558" s="5">
         <v>-25</v>
       </c>
-      <c r="M558" s="19">
-        <v>0</v>
-      </c>
-      <c r="N558" s="19">
-        <v>0</v>
-      </c>
-      <c r="O558" s="19" t="s">
+      <c r="M558" s="5">
+        <v>0</v>
+      </c>
+      <c r="N558" s="5">
+        <v>0</v>
+      </c>
+      <c r="O558" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P558" s="19">
+      <c r="P558" s="5">
         <v>1800</v>
       </c>
-      <c r="Q558" s="19" t="s">
+      <c r="Q558" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R558" s="72" t="s">
+      <c r="R558" s="65" t="s">
         <v>2104</v>
       </c>
-      <c r="W558" s="19" t="s">
+      <c r="W558" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X558" s="19">
+      <c r="X558" s="5">
         <v>20</v>
       </c>
-      <c r="Y558" s="19">
+      <c r="Y558" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z558" s="19">
+      <c r="Z558" s="5">
         <v>1613440800</v>
       </c>
-      <c r="AE558" s="19">
+      <c r="AE558" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF558" s="19">
+      <c r="AF558" s="5">
         <v>7</v>
       </c>
-      <c r="AH558" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI558" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="559" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH558" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI558" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559" s="5">
         <v>558</v>
       </c>
-      <c r="B559" s="19">
+      <c r="B559" s="5">
         <v>10475</v>
       </c>
-      <c r="F559" s="19">
-        <v>1</v>
-      </c>
-      <c r="G559" s="19" t="s">
-        <v>2121</v>
-      </c>
-      <c r="I559" s="19" t="s">
+      <c r="F559" s="5">
+        <v>0</v>
+      </c>
+      <c r="G559" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I559" s="5" t="s">
         <v>2098</v>
       </c>
-      <c r="J559" s="19" t="s">
+      <c r="J559" s="5" t="s">
         <v>2110</v>
       </c>
-      <c r="L559" s="19">
+      <c r="L559" s="5">
         <v>-25</v>
       </c>
-      <c r="M559" s="19">
-        <v>0</v>
-      </c>
-      <c r="N559" s="19">
-        <v>0</v>
-      </c>
-      <c r="O559" s="19" t="s">
+      <c r="M559" s="5">
+        <v>0</v>
+      </c>
+      <c r="N559" s="5">
+        <v>0</v>
+      </c>
+      <c r="O559" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P559" s="19">
+      <c r="P559" s="5">
         <v>4800</v>
       </c>
-      <c r="Q559" s="19" t="s">
+      <c r="Q559" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R559" s="72" t="s">
+      <c r="R559" s="65" t="s">
         <v>2105</v>
       </c>
-      <c r="W559" s="19" t="s">
+      <c r="W559" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X559" s="19">
+      <c r="X559" s="5">
         <v>10</v>
       </c>
-      <c r="Y559" s="19">
+      <c r="Y559" s="5">
         <v>1613433600</v>
       </c>
-      <c r="Z559" s="19">
+      <c r="Z559" s="5">
         <v>1613440800</v>
       </c>
-      <c r="AE559" s="19">
+      <c r="AE559" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF559" s="19">
+      <c r="AF559" s="5">
         <v>7</v>
       </c>
-      <c r="AH559" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI559" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="560" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH559" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI559" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A560" s="5">
         <v>559</v>
       </c>
-      <c r="B560" s="19">
+      <c r="B560" s="5">
         <v>10476</v>
       </c>
-      <c r="F560" s="19">
-        <v>1</v>
-      </c>
-      <c r="G560" s="19" t="s">
-        <v>2122</v>
-      </c>
-      <c r="I560" s="19" t="s">
+      <c r="F560" s="5">
+        <v>0</v>
+      </c>
+      <c r="G560" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="I560" s="5" t="s">
         <v>2098</v>
       </c>
-      <c r="J560" s="19" t="s">
+      <c r="J560" s="5" t="s">
         <v>2111</v>
       </c>
-      <c r="L560" s="19">
+      <c r="L560" s="5">
         <v>-25</v>
       </c>
-      <c r="M560" s="19">
-        <v>0</v>
-      </c>
-      <c r="N560" s="19">
-        <v>0</v>
-      </c>
-      <c r="O560" s="19" t="s">
+      <c r="M560" s="5">
+        <v>0</v>
+      </c>
+      <c r="N560" s="5">
+        <v>0</v>
+      </c>
+      <c r="O560" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P560" s="19">
+      <c r="P560" s="5">
         <v>100</v>
       </c>
-      <c r="Q560" s="19" t="s">
+      <c r="Q560" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R560" s="72" t="s">
+      <c r="R560" s="65" t="s">
         <v>2103</v>
       </c>
-      <c r="W560" s="19" t="s">
+      <c r="W560" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X560" s="19">
+      <c r="X560" s="5">
         <v>50</v>
       </c>
-      <c r="Y560" s="19">
+      <c r="Y560" s="5">
         <v>1613448000</v>
       </c>
-      <c r="Z560" s="19">
+      <c r="Z560" s="5">
         <v>1613455200</v>
       </c>
-      <c r="AE560" s="19">
+      <c r="AE560" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF560" s="19">
+      <c r="AF560" s="5">
         <v>7</v>
       </c>
-      <c r="AH560" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI560" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="561" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH560" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI560" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" s="5">
         <v>560</v>
       </c>
-      <c r="B561" s="19">
+      <c r="B561" s="5">
         <v>10477</v>
       </c>
-      <c r="F561" s="19">
-        <v>1</v>
-      </c>
-      <c r="G561" s="19" t="s">
-        <v>2123</v>
-      </c>
-      <c r="I561" s="19" t="s">
+      <c r="F561" s="5">
+        <v>0</v>
+      </c>
+      <c r="G561" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="I561" s="5" t="s">
         <v>2098</v>
       </c>
-      <c r="J561" s="19" t="s">
+      <c r="J561" s="5" t="s">
         <v>2112</v>
       </c>
-      <c r="L561" s="19">
+      <c r="L561" s="5">
         <v>-25</v>
       </c>
-      <c r="M561" s="19">
-        <v>0</v>
-      </c>
-      <c r="N561" s="19">
-        <v>0</v>
-      </c>
-      <c r="O561" s="19" t="s">
+      <c r="M561" s="5">
+        <v>0</v>
+      </c>
+      <c r="N561" s="5">
+        <v>0</v>
+      </c>
+      <c r="O561" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P561" s="19">
+      <c r="P561" s="5">
         <v>2800</v>
       </c>
-      <c r="Q561" s="19" t="s">
+      <c r="Q561" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R561" s="72" t="s">
+      <c r="R561" s="65" t="s">
         <v>2106</v>
       </c>
-      <c r="W561" s="19" t="s">
+      <c r="W561" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X561" s="19">
+      <c r="X561" s="5">
         <v>20</v>
       </c>
-      <c r="Y561" s="19">
+      <c r="Y561" s="5">
         <v>1613448000</v>
       </c>
-      <c r="Z561" s="19">
+      <c r="Z561" s="5">
         <v>1613455200</v>
       </c>
-      <c r="AE561" s="19">
+      <c r="AE561" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF561" s="19">
+      <c r="AF561" s="5">
         <v>7</v>
       </c>
-      <c r="AH561" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI561" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="562" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH561" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI561" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A562" s="5">
         <v>561</v>
       </c>
-      <c r="B562" s="19">
+      <c r="B562" s="5">
         <v>10478</v>
       </c>
-      <c r="F562" s="19">
-        <v>1</v>
-      </c>
-      <c r="G562" s="19" t="s">
-        <v>2124</v>
-      </c>
-      <c r="I562" s="19" t="s">
+      <c r="F562" s="5">
+        <v>0</v>
+      </c>
+      <c r="G562" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I562" s="5" t="s">
         <v>2098</v>
       </c>
-      <c r="J562" s="19" t="s">
+      <c r="J562" s="5" t="s">
         <v>2113</v>
       </c>
-      <c r="L562" s="19">
+      <c r="L562" s="5">
         <v>-25</v>
       </c>
-      <c r="M562" s="19">
-        <v>0</v>
-      </c>
-      <c r="N562" s="19">
-        <v>0</v>
-      </c>
-      <c r="O562" s="19" t="s">
+      <c r="M562" s="5">
+        <v>0</v>
+      </c>
+      <c r="N562" s="5">
+        <v>0</v>
+      </c>
+      <c r="O562" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P562" s="19">
+      <c r="P562" s="5">
         <v>9800</v>
       </c>
-      <c r="Q562" s="19" t="s">
+      <c r="Q562" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R562" s="72" t="s">
+      <c r="R562" s="65" t="s">
         <v>2107</v>
       </c>
-      <c r="W562" s="19" t="s">
+      <c r="W562" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X562" s="19">
+      <c r="X562" s="5">
         <v>10</v>
       </c>
-      <c r="Y562" s="19">
+      <c r="Y562" s="5">
         <v>1613448000</v>
       </c>
-      <c r="Z562" s="19">
+      <c r="Z562" s="5">
         <v>1613455200</v>
       </c>
-      <c r="AE562" s="19">
+      <c r="AE562" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF562" s="19">
+      <c r="AF562" s="5">
         <v>7</v>
       </c>
-      <c r="AH562" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI562" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="563" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH562" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI562" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A563" s="5">
         <v>562</v>
       </c>
-      <c r="B563" s="19">
+      <c r="B563" s="5">
         <v>10479</v>
       </c>
-      <c r="F563" s="19">
-        <v>1</v>
-      </c>
-      <c r="G563" s="19" t="s">
-        <v>2125</v>
-      </c>
-      <c r="I563" s="19" t="s">
+      <c r="F563" s="5">
+        <v>0</v>
+      </c>
+      <c r="G563" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="I563" s="5" t="s">
         <v>2098</v>
       </c>
-      <c r="J563" s="19" t="s">
+      <c r="J563" s="5" t="s">
         <v>2111</v>
       </c>
-      <c r="L563" s="19">
+      <c r="L563" s="5">
         <v>-25</v>
       </c>
-      <c r="M563" s="19">
-        <v>0</v>
-      </c>
-      <c r="N563" s="19">
-        <v>0</v>
-      </c>
-      <c r="O563" s="19" t="s">
+      <c r="M563" s="5">
+        <v>0</v>
+      </c>
+      <c r="N563" s="5">
+        <v>0</v>
+      </c>
+      <c r="O563" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P563" s="19">
+      <c r="P563" s="5">
         <v>100</v>
       </c>
-      <c r="Q563" s="19" t="s">
+      <c r="Q563" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R563" s="72" t="s">
+      <c r="R563" s="65" t="s">
         <v>2103</v>
       </c>
-      <c r="W563" s="19" t="s">
+      <c r="W563" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X563" s="19">
+      <c r="X563" s="5">
         <v>50</v>
       </c>
-      <c r="Y563" s="19">
+      <c r="Y563" s="5">
         <v>1613469600</v>
       </c>
-      <c r="Z563" s="19">
+      <c r="Z563" s="5">
         <v>1613484000</v>
       </c>
-      <c r="AE563" s="19">
+      <c r="AE563" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF563" s="19">
+      <c r="AF563" s="5">
         <v>7</v>
       </c>
-      <c r="AH563" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI563" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="564" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH563" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI563" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A564" s="5">
         <v>563</v>
       </c>
-      <c r="B564" s="19">
+      <c r="B564" s="5">
         <v>10480</v>
       </c>
-      <c r="F564" s="19">
-        <v>1</v>
-      </c>
-      <c r="G564" s="19" t="s">
-        <v>2126</v>
-      </c>
-      <c r="I564" s="19" t="s">
+      <c r="F564" s="5">
+        <v>0</v>
+      </c>
+      <c r="G564" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I564" s="5" t="s">
         <v>2098</v>
       </c>
-      <c r="J564" s="19" t="s">
+      <c r="J564" s="5" t="s">
         <v>2110</v>
       </c>
-      <c r="L564" s="19">
+      <c r="L564" s="5">
         <v>-25</v>
       </c>
-      <c r="M564" s="19">
-        <v>0</v>
-      </c>
-      <c r="N564" s="19">
-        <v>0</v>
-      </c>
-      <c r="O564" s="19" t="s">
+      <c r="M564" s="5">
+        <v>0</v>
+      </c>
+      <c r="N564" s="5">
+        <v>0</v>
+      </c>
+      <c r="O564" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P564" s="19">
+      <c r="P564" s="5">
         <v>4800</v>
       </c>
-      <c r="Q564" s="19" t="s">
+      <c r="Q564" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R564" s="72" t="s">
+      <c r="R564" s="65" t="s">
         <v>2105</v>
       </c>
-      <c r="W564" s="19" t="s">
+      <c r="W564" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X564" s="19">
+      <c r="X564" s="5">
         <v>20</v>
       </c>
-      <c r="Y564" s="19">
+      <c r="Y564" s="5">
         <v>1613469600</v>
       </c>
-      <c r="Z564" s="19">
+      <c r="Z564" s="5">
         <v>1613484000</v>
       </c>
-      <c r="AE564" s="19">
+      <c r="AE564" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF564" s="19">
+      <c r="AF564" s="5">
         <v>7</v>
       </c>
-      <c r="AH564" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI564" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="565" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH564" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI564" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A565" s="5">
         <v>564</v>
       </c>
-      <c r="B565" s="19">
+      <c r="B565" s="5">
         <v>10481</v>
       </c>
-      <c r="F565" s="19">
-        <v>1</v>
-      </c>
-      <c r="G565" s="19" t="s">
-        <v>2127</v>
-      </c>
-      <c r="I565" s="19" t="s">
+      <c r="F565" s="5">
+        <v>0</v>
+      </c>
+      <c r="G565" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I565" s="5" t="s">
         <v>2098</v>
       </c>
-      <c r="J565" s="19" t="s">
+      <c r="J565" s="5" t="s">
         <v>2114</v>
       </c>
-      <c r="L565" s="19">
+      <c r="L565" s="5">
         <v>-25</v>
       </c>
-      <c r="M565" s="19">
-        <v>0</v>
-      </c>
-      <c r="N565" s="19">
-        <v>0</v>
-      </c>
-      <c r="O565" s="19" t="s">
+      <c r="M565" s="5">
+        <v>0</v>
+      </c>
+      <c r="N565" s="5">
+        <v>0</v>
+      </c>
+      <c r="O565" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P565" s="19">
+      <c r="P565" s="5">
         <v>19800</v>
       </c>
-      <c r="Q565" s="19" t="s">
+      <c r="Q565" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R565" s="72" t="s">
+      <c r="R565" s="65" t="s">
         <v>2108</v>
       </c>
-      <c r="W565" s="19" t="s">
+      <c r="W565" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="X565" s="19">
+      <c r="X565" s="5">
         <v>10</v>
       </c>
-      <c r="Y565" s="19">
+      <c r="Y565" s="5">
         <v>1613469600</v>
       </c>
-      <c r="Z565" s="19">
+      <c r="Z565" s="5">
         <v>1613484000</v>
       </c>
-      <c r="AE565" s="19">
+      <c r="AE565" s="5">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="AF565" s="19">
+      <c r="AF565" s="5">
         <v>7</v>
       </c>
-      <c r="AH565" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI565" s="19">
+      <c r="AH565" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI565" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>565</v>
+      </c>
+      <c r="B566" s="5">
+        <v>10482</v>
+      </c>
+      <c r="F566" s="22">
+        <v>1</v>
+      </c>
+      <c r="G566" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I566" s="22" t="s">
+        <v>2115</v>
+      </c>
+      <c r="J566" s="22" t="s">
+        <v>1928</v>
+      </c>
+      <c r="L566" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M566" s="22">
+        <v>0</v>
+      </c>
+      <c r="N566" s="22">
+        <v>0</v>
+      </c>
+      <c r="O566" s="22" t="s">
+        <v>2116</v>
+      </c>
+      <c r="P566" s="22">
+        <v>49800</v>
+      </c>
+      <c r="Q566" s="22" t="s">
+        <v>2117</v>
+      </c>
+      <c r="R566" s="66" t="s">
+        <v>1924</v>
+      </c>
+      <c r="W566" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="X566" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y566" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z566" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA566" s="22">
+        <v>68</v>
+      </c>
+      <c r="AH566" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI566" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL566" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM566" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>566</v>
+      </c>
+      <c r="B567" s="5">
+        <v>10483</v>
+      </c>
+      <c r="F567" s="22">
+        <v>1</v>
+      </c>
+      <c r="G567" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I567" s="22" t="s">
+        <v>2115</v>
+      </c>
+      <c r="J567" s="22" t="s">
+        <v>1931</v>
+      </c>
+      <c r="L567" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M567" s="22">
+        <v>0</v>
+      </c>
+      <c r="N567" s="22">
+        <v>0</v>
+      </c>
+      <c r="O567" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="P567" s="22">
+        <v>19800</v>
+      </c>
+      <c r="Q567" s="22" t="s">
+        <v>2117</v>
+      </c>
+      <c r="R567" s="66" t="s">
+        <v>1922</v>
+      </c>
+      <c r="W567" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="X567" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y567" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z567" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA567" s="22">
+        <v>68</v>
+      </c>
+      <c r="AH567" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI567" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL567" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM567" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>567</v>
+      </c>
+      <c r="B568" s="5">
+        <v>10484</v>
+      </c>
+      <c r="F568" s="22">
+        <v>1</v>
+      </c>
+      <c r="G568" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I568" s="22" t="s">
+        <v>2115</v>
+      </c>
+      <c r="J568" s="22" t="s">
+        <v>2118</v>
+      </c>
+      <c r="L568" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M568" s="22">
+        <v>0</v>
+      </c>
+      <c r="N568" s="22">
+        <v>0</v>
+      </c>
+      <c r="O568" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="P568" s="22">
+        <v>9800</v>
+      </c>
+      <c r="Q568" s="22" t="s">
+        <v>2119</v>
+      </c>
+      <c r="R568" s="66" t="s">
+        <v>1920</v>
+      </c>
+      <c r="W568" s="22" t="s">
+        <v>2120</v>
+      </c>
+      <c r="X568" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y568" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z568" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA568" s="22">
+        <v>68</v>
+      </c>
+      <c r="AH568" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI568" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL568" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM568" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>568</v>
+      </c>
+      <c r="B569" s="5">
+        <v>10485</v>
+      </c>
+      <c r="F569" s="22">
+        <v>1</v>
+      </c>
+      <c r="G569" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I569" s="22" t="s">
+        <v>2115</v>
+      </c>
+      <c r="J569" s="22" t="s">
+        <v>1919</v>
+      </c>
+      <c r="L569" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M569" s="22">
+        <v>0</v>
+      </c>
+      <c r="N569" s="22">
+        <v>0</v>
+      </c>
+      <c r="O569" s="22" t="s">
+        <v>2116</v>
+      </c>
+      <c r="P569" s="22">
+        <v>4800</v>
+      </c>
+      <c r="Q569" s="22" t="s">
+        <v>2121</v>
+      </c>
+      <c r="R569" s="66" t="s">
+        <v>1917</v>
+      </c>
+      <c r="W569" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="X569" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y569" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z569" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA569" s="22">
+        <v>68</v>
+      </c>
+      <c r="AH569" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI569" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL569" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM569" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A570" s="5">
+        <v>569</v>
+      </c>
+      <c r="B570" s="5">
+        <v>10486</v>
+      </c>
+      <c r="F570" s="22">
+        <v>1</v>
+      </c>
+      <c r="G570" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I570" s="22" t="s">
+        <v>2122</v>
+      </c>
+      <c r="J570" s="22" t="s">
+        <v>1939</v>
+      </c>
+      <c r="L570" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M570" s="22">
+        <v>0</v>
+      </c>
+      <c r="N570" s="22">
+        <v>0</v>
+      </c>
+      <c r="O570" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="P570" s="22">
+        <v>49800</v>
+      </c>
+      <c r="Q570" s="22" t="s">
+        <v>2123</v>
+      </c>
+      <c r="R570" s="66" t="s">
+        <v>2124</v>
+      </c>
+      <c r="W570" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="X570" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y570" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z570" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA570" s="22">
+        <v>69</v>
+      </c>
+      <c r="AH570" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI570" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL570" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM570" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>570</v>
+      </c>
+      <c r="B571" s="5">
+        <v>10487</v>
+      </c>
+      <c r="F571" s="22">
+        <v>1</v>
+      </c>
+      <c r="G571" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I571" s="22" t="s">
+        <v>2122</v>
+      </c>
+      <c r="J571" s="22" t="s">
+        <v>1916</v>
+      </c>
+      <c r="L571" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M571" s="22">
+        <v>0</v>
+      </c>
+      <c r="N571" s="22">
+        <v>0</v>
+      </c>
+      <c r="O571" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="P571" s="22">
+        <v>19800</v>
+      </c>
+      <c r="Q571" s="22" t="s">
+        <v>2123</v>
+      </c>
+      <c r="R571" s="66" t="s">
+        <v>2125</v>
+      </c>
+      <c r="W571" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="X571" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y571" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z571" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA571" s="22">
+        <v>69</v>
+      </c>
+      <c r="AH571" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI571" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL571" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM571" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A572" s="5">
+        <v>571</v>
+      </c>
+      <c r="B572" s="5">
+        <v>10488</v>
+      </c>
+      <c r="F572" s="22">
+        <v>1</v>
+      </c>
+      <c r="G572" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I572" s="22" t="s">
+        <v>2122</v>
+      </c>
+      <c r="J572" s="22" t="s">
+        <v>1945</v>
+      </c>
+      <c r="L572" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M572" s="22">
+        <v>0</v>
+      </c>
+      <c r="N572" s="22">
+        <v>0</v>
+      </c>
+      <c r="O572" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="P572" s="22">
+        <v>9800</v>
+      </c>
+      <c r="Q572" s="22" t="s">
+        <v>2126</v>
+      </c>
+      <c r="R572" s="66" t="s">
+        <v>1946</v>
+      </c>
+      <c r="W572" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="X572" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y572" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z572" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA572" s="22">
+        <v>69</v>
+      </c>
+      <c r="AH572" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI572" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL572" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM572" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A573" s="5">
+        <v>572</v>
+      </c>
+      <c r="B573" s="5">
+        <v>10489</v>
+      </c>
+      <c r="F573" s="22">
+        <v>1</v>
+      </c>
+      <c r="G573" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I573" s="22" t="s">
+        <v>2122</v>
+      </c>
+      <c r="J573" s="22" t="s">
+        <v>1948</v>
+      </c>
+      <c r="L573" s="22">
+        <v>-33</v>
+      </c>
+      <c r="M573" s="22">
+        <v>0</v>
+      </c>
+      <c r="N573" s="22">
+        <v>0</v>
+      </c>
+      <c r="O573" s="22" t="s">
+        <v>2116</v>
+      </c>
+      <c r="P573" s="22">
+        <v>4800</v>
+      </c>
+      <c r="Q573" s="22" t="s">
+        <v>2127</v>
+      </c>
+      <c r="R573" s="66" t="s">
+        <v>2128</v>
+      </c>
+      <c r="W573" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="X573" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y573" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z573" s="22">
+        <v>1615219199</v>
+      </c>
+      <c r="AA573" s="22">
+        <v>69</v>
+      </c>
+      <c r="AH573" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI573" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL573" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM573" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A574" s="5">
+        <v>573</v>
+      </c>
+      <c r="B574" s="22">
+        <v>10490</v>
+      </c>
+      <c r="C574" s="22"/>
+      <c r="D574" s="22"/>
+      <c r="E574" s="22"/>
+      <c r="F574" s="22">
+        <v>1</v>
+      </c>
+      <c r="G574" s="22" t="s">
+        <v>2129</v>
+      </c>
+      <c r="H574" s="22"/>
+      <c r="I574" s="22" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J574" s="22"/>
+      <c r="K574" s="22"/>
+      <c r="L574" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M574" s="22">
+        <v>0</v>
+      </c>
+      <c r="N574" s="22">
+        <v>0</v>
+      </c>
+      <c r="O574" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="P574" s="22">
+        <v>4500</v>
+      </c>
+      <c r="Q574" s="22" t="s">
+        <v>2131</v>
+      </c>
+      <c r="R574" s="67" t="s">
+        <v>2132</v>
+      </c>
+      <c r="S574" s="22"/>
+      <c r="T574" s="22"/>
+      <c r="U574" s="22"/>
+      <c r="V574" s="22"/>
+      <c r="W574" s="22" t="s">
+        <v>2133</v>
+      </c>
+      <c r="X574" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y574" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z574" s="22">
+        <v>2552233600</v>
+      </c>
+      <c r="AH574" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI574" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL574" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM574" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A575" s="5">
+        <v>574</v>
+      </c>
+      <c r="B575" s="22">
+        <v>10491</v>
+      </c>
+      <c r="C575" s="22"/>
+      <c r="D575" s="22"/>
+      <c r="E575" s="22"/>
+      <c r="F575" s="22">
+        <v>1</v>
+      </c>
+      <c r="G575" s="22" t="s">
+        <v>2134</v>
+      </c>
+      <c r="H575" s="22"/>
+      <c r="I575" s="22" t="s">
+        <v>2135</v>
+      </c>
+      <c r="J575" s="22"/>
+      <c r="K575" s="22"/>
+      <c r="L575" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M575" s="22">
+        <v>0</v>
+      </c>
+      <c r="N575" s="22">
+        <v>0</v>
+      </c>
+      <c r="O575" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="P575" s="22">
+        <v>8800</v>
+      </c>
+      <c r="Q575" s="22" t="s">
+        <v>2136</v>
+      </c>
+      <c r="R575" s="67" t="s">
+        <v>2137</v>
+      </c>
+      <c r="S575" s="22"/>
+      <c r="T575" s="22"/>
+      <c r="U575" s="22"/>
+      <c r="V575" s="22"/>
+      <c r="W575" s="22" t="s">
+        <v>2138</v>
+      </c>
+      <c r="X575" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y575" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z575" s="22">
+        <v>2552233600</v>
+      </c>
+      <c r="AH575" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI575" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL575" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM575" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A576" s="5">
+        <v>575</v>
+      </c>
+      <c r="B576" s="22">
+        <v>10492</v>
+      </c>
+      <c r="C576" s="22"/>
+      <c r="D576" s="22"/>
+      <c r="E576" s="22"/>
+      <c r="F576" s="22">
+        <v>1</v>
+      </c>
+      <c r="G576" s="22" t="s">
+        <v>2139</v>
+      </c>
+      <c r="H576" s="22"/>
+      <c r="I576" s="22" t="s">
+        <v>2140</v>
+      </c>
+      <c r="J576" s="22"/>
+      <c r="K576" s="22"/>
+      <c r="L576" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M576" s="22">
+        <v>0</v>
+      </c>
+      <c r="N576" s="22">
+        <v>0</v>
+      </c>
+      <c r="O576" s="22" t="s">
+        <v>2141</v>
+      </c>
+      <c r="P576" s="22">
+        <v>17800</v>
+      </c>
+      <c r="Q576" s="22" t="s">
+        <v>2142</v>
+      </c>
+      <c r="R576" s="67" t="s">
+        <v>2143</v>
+      </c>
+      <c r="S576" s="22"/>
+      <c r="T576" s="22"/>
+      <c r="U576" s="22"/>
+      <c r="V576" s="22"/>
+      <c r="W576" s="22" t="s">
+        <v>2138</v>
+      </c>
+      <c r="X576" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y576" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z576" s="22">
+        <v>2552233600</v>
+      </c>
+      <c r="AH576" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI576" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL576" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM576" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A577" s="5">
+        <v>576</v>
+      </c>
+      <c r="B577" s="22">
+        <v>10493</v>
+      </c>
+      <c r="C577" s="22"/>
+      <c r="D577" s="22"/>
+      <c r="E577" s="22"/>
+      <c r="F577" s="22">
+        <v>1</v>
+      </c>
+      <c r="G577" s="22" t="s">
+        <v>2144</v>
+      </c>
+      <c r="H577" s="22"/>
+      <c r="I577" s="22" t="s">
+        <v>2145</v>
+      </c>
+      <c r="J577" s="22"/>
+      <c r="K577" s="22"/>
+      <c r="L577" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M577" s="22">
+        <v>0</v>
+      </c>
+      <c r="N577" s="22">
+        <v>0</v>
+      </c>
+      <c r="O577" s="22" t="s">
+        <v>2141</v>
+      </c>
+      <c r="P577" s="22">
+        <v>44800</v>
+      </c>
+      <c r="Q577" s="22" t="s">
+        <v>2146</v>
+      </c>
+      <c r="R577" s="67" t="s">
+        <v>2147</v>
+      </c>
+      <c r="S577" s="22"/>
+      <c r="T577" s="22"/>
+      <c r="U577" s="22"/>
+      <c r="V577" s="22"/>
+      <c r="W577" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="X577" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y577" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z577" s="22">
+        <v>2552233600</v>
+      </c>
+      <c r="AH577" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI577" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL577" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM577" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A578" s="5">
+        <v>577</v>
+      </c>
+      <c r="B578" s="22">
+        <v>10494</v>
+      </c>
+      <c r="C578" s="22"/>
+      <c r="D578" s="22"/>
+      <c r="E578" s="22"/>
+      <c r="F578" s="22">
+        <v>1</v>
+      </c>
+      <c r="G578" s="22" t="s">
+        <v>2148</v>
+      </c>
+      <c r="H578" s="22"/>
+      <c r="I578" s="22" t="s">
+        <v>2149</v>
+      </c>
+      <c r="J578" s="22"/>
+      <c r="K578" s="22"/>
+      <c r="L578" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M578" s="22">
+        <v>0</v>
+      </c>
+      <c r="N578" s="22">
+        <v>0</v>
+      </c>
+      <c r="O578" s="22" t="s">
+        <v>2141</v>
+      </c>
+      <c r="P578" s="22">
+        <v>89800</v>
+      </c>
+      <c r="Q578" s="22" t="s">
+        <v>2150</v>
+      </c>
+      <c r="R578" s="67" t="s">
+        <v>2151</v>
+      </c>
+      <c r="S578" s="22"/>
+      <c r="T578" s="22"/>
+      <c r="U578" s="22"/>
+      <c r="V578" s="22"/>
+      <c r="W578" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="X578" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y578" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z578" s="22">
+        <v>2552233600</v>
+      </c>
+      <c r="AH578" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI578" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL578" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM578" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A579" s="5">
+        <v>578</v>
+      </c>
+      <c r="B579" s="22">
+        <v>10495</v>
+      </c>
+      <c r="C579" s="22"/>
+      <c r="D579" s="22"/>
+      <c r="E579" s="22"/>
+      <c r="F579" s="22">
+        <v>1</v>
+      </c>
+      <c r="G579" s="22" t="s">
+        <v>2152</v>
+      </c>
+      <c r="H579" s="22"/>
+      <c r="I579" s="22" t="s">
+        <v>2153</v>
+      </c>
+      <c r="J579" s="22"/>
+      <c r="K579" s="22"/>
+      <c r="L579" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M579" s="22">
+        <v>0</v>
+      </c>
+      <c r="N579" s="22">
+        <v>0</v>
+      </c>
+      <c r="O579" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="P579" s="22">
+        <v>229800</v>
+      </c>
+      <c r="Q579" s="22" t="s">
+        <v>2154</v>
+      </c>
+      <c r="R579" s="67" t="s">
+        <v>2155</v>
+      </c>
+      <c r="S579" s="22"/>
+      <c r="T579" s="22"/>
+      <c r="U579" s="22"/>
+      <c r="V579" s="22"/>
+      <c r="W579" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="X579" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y579" s="22">
+        <v>1614643200</v>
+      </c>
+      <c r="Z579" s="22">
+        <v>2552233600</v>
+      </c>
+      <c r="AH579" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI579" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL579" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM579" s="5">
         <v>1</v>
       </c>
     </row>
@@ -48186,8 +49280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -49188,7 +50282,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="57" t="s">
-        <v>2116</v>
+        <v>2158</v>
       </c>
       <c r="C71" s="58">
         <v>1</v>
@@ -49202,7 +50296,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="57" t="s">
-        <v>2117</v>
+        <v>2159</v>
       </c>
       <c r="C72" s="58">
         <v>1</v>
@@ -49216,7 +50310,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>2118</v>
+        <v>2160</v>
       </c>
       <c r="C73" s="58">
         <v>1</v>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -11868,11 +11868,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN565"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H49" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="W511" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
+      <selection pane="bottomRight" activeCell="Y529" sqref="Y529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -45164,7 +45164,7 @@
         <v>99999999</v>
       </c>
       <c r="Y521" s="19">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z521" s="19">
         <v>1614009599</v>
@@ -45232,7 +45232,7 @@
         <v>99999999</v>
       </c>
       <c r="Y522" s="19">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z522" s="19">
         <v>1614009599</v>
@@ -45300,7 +45300,7 @@
         <v>99999999</v>
       </c>
       <c r="Y523" s="19">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z523" s="19">
         <v>1614009599</v>
@@ -45368,7 +45368,7 @@
         <v>99999999</v>
       </c>
       <c r="Y524" s="19">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z524" s="19">
         <v>1614009599</v>
@@ -45436,7 +45436,7 @@
         <v>99999999</v>
       </c>
       <c r="Y525" s="19">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z525" s="19">
         <v>1614009599</v>
@@ -45504,7 +45504,7 @@
         <v>99999999</v>
       </c>
       <c r="Y526" s="19">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z526" s="19">
         <v>1614009599</v>
@@ -45572,7 +45572,7 @@
         <v>99999999</v>
       </c>
       <c r="Y527" s="19">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z527" s="19">
         <v>1614009599</v>
@@ -45640,7 +45640,7 @@
         <v>99999999</v>
       </c>
       <c r="Y528" s="19">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z528" s="19">
         <v>1614009599</v>
@@ -45708,7 +45708,7 @@
         <v>99999999</v>
       </c>
       <c r="Y529" s="19">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z529" s="19">
         <v>1614009599</v>
@@ -45776,7 +45776,7 @@
         <v>99999999</v>
       </c>
       <c r="Y530" s="19">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z530" s="19">
         <v>1614009599</v>
@@ -45844,7 +45844,7 @@
         <v>99999999</v>
       </c>
       <c r="Y531" s="19">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z531" s="19">
         <v>1614009599</v>
@@ -45912,7 +45912,7 @@
         <v>99999999</v>
       </c>
       <c r="Y532" s="19">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="Z532" s="19">
         <v>1614009599</v>
@@ -46592,7 +46592,7 @@
         <v>9999999</v>
       </c>
       <c r="Y542" s="71">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="Z542" s="71">
         <v>1614614399</v>
@@ -46657,7 +46657,7 @@
         <v>9999999</v>
       </c>
       <c r="Y543" s="71">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="Z543" s="71">
         <v>1614614399</v>
@@ -46722,7 +46722,7 @@
         <v>9999999</v>
       </c>
       <c r="Y544" s="71">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="Z544" s="71">
         <v>1614614399</v>
@@ -46787,7 +46787,7 @@
         <v>9999999</v>
       </c>
       <c r="Y545" s="71">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="Z545" s="71">
         <v>1614614399</v>
@@ -46852,7 +46852,7 @@
         <v>9999999</v>
       </c>
       <c r="Y546" s="71">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="Z546" s="71">
         <v>1614614399</v>
@@ -46917,7 +46917,7 @@
         <v>9999999</v>
       </c>
       <c r="Y547" s="71">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="Z547" s="71">
         <v>1614614399</v>
@@ -46982,7 +46982,7 @@
         <v>9999999</v>
       </c>
       <c r="Y548" s="71">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="Z548" s="71">
         <v>1614614399</v>
@@ -48150,7 +48150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -11868,11 +11868,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN565"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W511" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y529" sqref="Y529"/>
+      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -45164,7 +45164,7 @@
         <v>99999999</v>
       </c>
       <c r="Y521" s="19">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z521" s="19">
         <v>1614009599</v>
@@ -45232,7 +45232,7 @@
         <v>99999999</v>
       </c>
       <c r="Y522" s="19">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z522" s="19">
         <v>1614009599</v>
@@ -45300,7 +45300,7 @@
         <v>99999999</v>
       </c>
       <c r="Y523" s="19">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z523" s="19">
         <v>1614009599</v>
@@ -45368,7 +45368,7 @@
         <v>99999999</v>
       </c>
       <c r="Y524" s="19">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z524" s="19">
         <v>1614009599</v>
@@ -45436,7 +45436,7 @@
         <v>99999999</v>
       </c>
       <c r="Y525" s="19">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z525" s="19">
         <v>1614009599</v>
@@ -45504,7 +45504,7 @@
         <v>99999999</v>
       </c>
       <c r="Y526" s="19">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z526" s="19">
         <v>1614009599</v>
@@ -45572,7 +45572,7 @@
         <v>99999999</v>
       </c>
       <c r="Y527" s="19">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z527" s="19">
         <v>1614009599</v>
@@ -45640,7 +45640,7 @@
         <v>99999999</v>
       </c>
       <c r="Y528" s="19">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z528" s="19">
         <v>1614009599</v>
@@ -45708,7 +45708,7 @@
         <v>99999999</v>
       </c>
       <c r="Y529" s="19">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z529" s="19">
         <v>1614009599</v>
@@ -45776,7 +45776,7 @@
         <v>99999999</v>
       </c>
       <c r="Y530" s="19">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z530" s="19">
         <v>1614009599</v>
@@ -45844,7 +45844,7 @@
         <v>99999999</v>
       </c>
       <c r="Y531" s="19">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z531" s="19">
         <v>1614009599</v>
@@ -45912,7 +45912,7 @@
         <v>99999999</v>
       </c>
       <c r="Y532" s="19">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="Z532" s="19">
         <v>1614009599</v>
@@ -46592,7 +46592,7 @@
         <v>9999999</v>
       </c>
       <c r="Y542" s="71">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="Z542" s="71">
         <v>1614614399</v>
@@ -46657,7 +46657,7 @@
         <v>9999999</v>
       </c>
       <c r="Y543" s="71">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="Z543" s="71">
         <v>1614614399</v>
@@ -46722,7 +46722,7 @@
         <v>9999999</v>
       </c>
       <c r="Y544" s="71">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="Z544" s="71">
         <v>1614614399</v>
@@ -46787,7 +46787,7 @@
         <v>9999999</v>
       </c>
       <c r="Y545" s="71">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="Z545" s="71">
         <v>1614614399</v>
@@ -46852,7 +46852,7 @@
         <v>9999999</v>
       </c>
       <c r="Y546" s="71">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="Z546" s="71">
         <v>1614614399</v>
@@ -46917,7 +46917,7 @@
         <v>9999999</v>
       </c>
       <c r="Y547" s="71">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="Z547" s="71">
         <v>1614614399</v>
@@ -46982,7 +46982,7 @@
         <v>9999999</v>
       </c>
       <c r="Y548" s="71">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="Z548" s="71">
         <v>1614614399</v>
@@ -48150,7 +48150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4669" uniqueCount="2161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4676" uniqueCount="2166">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -9143,6 +9143,26 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "fclb_v8v12_002" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币周卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币周卡"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_jbzk_special_item",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币周卡",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9325,7 +9345,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9473,9 +9493,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9528,6 +9545,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12020,13 +12043,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN579"/>
+  <dimension ref="A1:AN580"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H50" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H554" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H61" sqref="H61"/>
+      <selection pane="bottomRight" activeCell="J580" sqref="J580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -15868,298 +15891,298 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="51">
+    <row r="67" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="50">
         <v>66</v>
       </c>
-      <c r="B67" s="51">
+      <c r="B67" s="50">
         <v>85</v>
       </c>
-      <c r="D67" s="51">
+      <c r="D67" s="50">
         <v>2</v>
       </c>
-      <c r="F67" s="51">
-        <v>1</v>
-      </c>
-      <c r="G67" s="51" t="s">
+      <c r="F67" s="50">
+        <v>1</v>
+      </c>
+      <c r="G67" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="H67" s="51" t="s">
+      <c r="H67" s="50" t="s">
         <v>1785</v>
       </c>
-      <c r="L67" s="51">
+      <c r="L67" s="50">
         <v>-4</v>
       </c>
-      <c r="M67" s="51">
-        <v>0</v>
-      </c>
-      <c r="N67" s="51">
-        <v>0</v>
-      </c>
-      <c r="O67" s="51" t="s">
+      <c r="M67" s="50">
+        <v>0</v>
+      </c>
+      <c r="N67" s="50">
+        <v>0</v>
+      </c>
+      <c r="O67" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P67" s="51">
+      <c r="P67" s="50">
         <v>1500</v>
       </c>
-      <c r="Q67" s="51" t="s">
+      <c r="Q67" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R67" s="51" t="s">
+      <c r="R67" s="50" t="s">
         <v>1365</v>
       </c>
-      <c r="W67" s="51" t="s">
+      <c r="W67" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X67" s="52" t="s">
+      <c r="X67" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y67" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="51">
+      <c r="Y67" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH67" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI67" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="51">
+      <c r="AH67" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI67" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="50">
         <v>67</v>
       </c>
-      <c r="B68" s="51">
+      <c r="B68" s="50">
         <v>86</v>
       </c>
-      <c r="D68" s="51">
+      <c r="D68" s="50">
         <v>3</v>
       </c>
-      <c r="F68" s="51">
-        <v>1</v>
-      </c>
-      <c r="G68" s="51" t="s">
+      <c r="F68" s="50">
+        <v>1</v>
+      </c>
+      <c r="G68" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="H68" s="51" t="s">
+      <c r="H68" s="50" t="s">
         <v>1786</v>
       </c>
-      <c r="L68" s="51">
+      <c r="L68" s="50">
         <v>-4</v>
       </c>
-      <c r="M68" s="51">
-        <v>0</v>
-      </c>
-      <c r="N68" s="51">
-        <v>0</v>
-      </c>
-      <c r="O68" s="51" t="s">
+      <c r="M68" s="50">
+        <v>0</v>
+      </c>
+      <c r="N68" s="50">
+        <v>0</v>
+      </c>
+      <c r="O68" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P68" s="51">
+      <c r="P68" s="50">
         <v>3000</v>
       </c>
-      <c r="Q68" s="51" t="s">
+      <c r="Q68" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R68" s="51" t="s">
+      <c r="R68" s="50" t="s">
         <v>1381</v>
       </c>
-      <c r="W68" s="51" t="s">
+      <c r="W68" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X68" s="52" t="s">
+      <c r="X68" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y68" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="51">
+      <c r="Y68" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH68" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI68" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="51">
+      <c r="AH68" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI68" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="50">
         <v>68</v>
       </c>
-      <c r="B69" s="51">
+      <c r="B69" s="50">
         <v>87</v>
       </c>
-      <c r="D69" s="51">
+      <c r="D69" s="50">
         <v>4</v>
       </c>
-      <c r="F69" s="51">
-        <v>1</v>
-      </c>
-      <c r="G69" s="51" t="s">
+      <c r="F69" s="50">
+        <v>1</v>
+      </c>
+      <c r="G69" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="H69" s="51" t="s">
+      <c r="H69" s="50" t="s">
         <v>1787</v>
       </c>
-      <c r="L69" s="51">
+      <c r="L69" s="50">
         <v>-4</v>
       </c>
-      <c r="M69" s="51">
-        <v>0</v>
-      </c>
-      <c r="N69" s="51">
-        <v>0</v>
-      </c>
-      <c r="O69" s="51" t="s">
+      <c r="M69" s="50">
+        <v>0</v>
+      </c>
+      <c r="N69" s="50">
+        <v>0</v>
+      </c>
+      <c r="O69" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P69" s="51">
+      <c r="P69" s="50">
         <v>5000</v>
       </c>
-      <c r="Q69" s="51" t="s">
+      <c r="Q69" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R69" s="51" t="s">
+      <c r="R69" s="50" t="s">
         <v>1366</v>
       </c>
-      <c r="W69" s="51" t="s">
+      <c r="W69" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X69" s="52" t="s">
+      <c r="X69" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y69" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="51">
+      <c r="Y69" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH69" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI69" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="51">
+      <c r="AH69" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI69" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="50">
         <v>69</v>
       </c>
-      <c r="B70" s="51">
+      <c r="B70" s="50">
         <v>88</v>
       </c>
-      <c r="D70" s="51">
+      <c r="D70" s="50">
         <v>5</v>
       </c>
-      <c r="F70" s="51">
-        <v>1</v>
-      </c>
-      <c r="G70" s="51" t="s">
+      <c r="F70" s="50">
+        <v>1</v>
+      </c>
+      <c r="G70" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="H70" s="51" t="s">
+      <c r="H70" s="50" t="s">
         <v>1788</v>
       </c>
-      <c r="L70" s="51">
+      <c r="L70" s="50">
         <v>-4</v>
       </c>
-      <c r="M70" s="51">
-        <v>0</v>
-      </c>
-      <c r="N70" s="51">
-        <v>0</v>
-      </c>
-      <c r="O70" s="51" t="s">
+      <c r="M70" s="50">
+        <v>0</v>
+      </c>
+      <c r="N70" s="50">
+        <v>0</v>
+      </c>
+      <c r="O70" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P70" s="51">
+      <c r="P70" s="50">
         <v>9800</v>
       </c>
-      <c r="Q70" s="51" t="s">
+      <c r="Q70" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R70" s="51" t="s">
+      <c r="R70" s="50" t="s">
         <v>1367</v>
       </c>
-      <c r="W70" s="51" t="s">
+      <c r="W70" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X70" s="52" t="s">
+      <c r="X70" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y70" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="51">
+      <c r="Y70" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH70" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI70" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="51">
+      <c r="AH70" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI70" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="50">
         <v>70</v>
       </c>
-      <c r="B71" s="51">
+      <c r="B71" s="50">
         <v>89</v>
       </c>
-      <c r="D71" s="51">
+      <c r="D71" s="50">
         <v>6</v>
       </c>
-      <c r="F71" s="51">
-        <v>1</v>
-      </c>
-      <c r="G71" s="51" t="s">
+      <c r="F71" s="50">
+        <v>1</v>
+      </c>
+      <c r="G71" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="H71" s="51" t="s">
+      <c r="H71" s="50" t="s">
         <v>1789</v>
       </c>
-      <c r="L71" s="51">
+      <c r="L71" s="50">
         <v>-4</v>
       </c>
-      <c r="M71" s="51">
-        <v>0</v>
-      </c>
-      <c r="N71" s="51">
-        <v>0</v>
-      </c>
-      <c r="O71" s="51" t="s">
+      <c r="M71" s="50">
+        <v>0</v>
+      </c>
+      <c r="N71" s="50">
+        <v>0</v>
+      </c>
+      <c r="O71" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P71" s="51">
+      <c r="P71" s="50">
         <v>49800</v>
       </c>
-      <c r="Q71" s="51" t="s">
+      <c r="Q71" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R71" s="51" t="s">
+      <c r="R71" s="50" t="s">
         <v>1368</v>
       </c>
-      <c r="W71" s="51" t="s">
+      <c r="W71" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X71" s="52" t="s">
+      <c r="X71" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y71" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z71" s="51">
+      <c r="Y71" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH71" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI71" s="51">
+      <c r="AH71" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI71" s="50">
         <v>1</v>
       </c>
     </row>
@@ -17455,56 +17478,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="51">
+    <row r="94" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="50">
         <v>93</v>
       </c>
-      <c r="B94" s="51">
+      <c r="B94" s="50">
         <v>109</v>
       </c>
-      <c r="F94" s="51">
-        <v>1</v>
-      </c>
-      <c r="G94" s="51" t="s">
+      <c r="F94" s="50">
+        <v>1</v>
+      </c>
+      <c r="G94" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="L94" s="51">
+      <c r="L94" s="50">
         <v>-4</v>
       </c>
-      <c r="M94" s="51">
-        <v>0</v>
-      </c>
-      <c r="N94" s="51">
-        <v>0</v>
-      </c>
-      <c r="O94" s="51" t="s">
+      <c r="M94" s="50">
+        <v>0</v>
+      </c>
+      <c r="N94" s="50">
+        <v>0</v>
+      </c>
+      <c r="O94" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P94" s="51">
+      <c r="P94" s="50">
         <v>100000</v>
       </c>
-      <c r="Q94" s="51" t="s">
+      <c r="Q94" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R94" s="51" t="s">
+      <c r="R94" s="50" t="s">
         <v>687</v>
       </c>
-      <c r="W94" s="51" t="s">
+      <c r="W94" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X94" s="52" t="s">
+      <c r="X94" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y94" s="51">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="51">
+      <c r="Y94" s="50">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH94" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI94" s="51">
+      <c r="AH94" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI94" s="50">
         <v>1</v>
       </c>
     </row>
@@ -19486,121 +19509,121 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="51">
+    <row r="128" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="50">
         <v>127</v>
       </c>
-      <c r="B128" s="51">
+      <c r="B128" s="50">
         <v>10044</v>
       </c>
-      <c r="D128" s="51">
+      <c r="D128" s="50">
         <v>108</v>
       </c>
-      <c r="F128" s="51">
-        <v>1</v>
-      </c>
-      <c r="G128" s="51" t="s">
+      <c r="F128" s="50">
+        <v>1</v>
+      </c>
+      <c r="G128" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="H128" s="51" t="s">
+      <c r="H128" s="50" t="s">
         <v>1790</v>
       </c>
-      <c r="L128" s="51">
+      <c r="L128" s="50">
         <v>-10</v>
       </c>
-      <c r="M128" s="51">
-        <v>0</v>
-      </c>
-      <c r="N128" s="51">
-        <v>0</v>
-      </c>
-      <c r="O128" s="51" t="s">
+      <c r="M128" s="50">
+        <v>0</v>
+      </c>
+      <c r="N128" s="50">
+        <v>0</v>
+      </c>
+      <c r="O128" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P128" s="51">
+      <c r="P128" s="50">
         <v>99800</v>
       </c>
-      <c r="Q128" s="51" t="s">
+      <c r="Q128" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R128" s="51" t="s">
+      <c r="R128" s="50" t="s">
         <v>1370</v>
       </c>
-      <c r="W128" s="51" t="s">
+      <c r="W128" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X128" s="52" t="s">
+      <c r="X128" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y128" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z128" s="51">
+      <c r="Y128" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z128" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH128" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI128" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="51">
+      <c r="AH128" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI128" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:39" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="50">
         <v>128</v>
       </c>
-      <c r="B129" s="51">
+      <c r="B129" s="50">
         <v>10045</v>
       </c>
-      <c r="D129" s="51">
+      <c r="D129" s="50">
         <v>110</v>
       </c>
-      <c r="F129" s="51">
-        <v>1</v>
-      </c>
-      <c r="G129" s="51" t="s">
+      <c r="F129" s="50">
+        <v>1</v>
+      </c>
+      <c r="G129" s="50" t="s">
         <v>1128</v>
       </c>
-      <c r="H129" s="51" t="s">
+      <c r="H129" s="50" t="s">
         <v>1791</v>
       </c>
-      <c r="L129" s="51">
+      <c r="L129" s="50">
         <v>-11</v>
       </c>
-      <c r="M129" s="51">
-        <v>0</v>
-      </c>
-      <c r="N129" s="51">
-        <v>0</v>
-      </c>
-      <c r="O129" s="51" t="s">
+      <c r="M129" s="50">
+        <v>0</v>
+      </c>
+      <c r="N129" s="50">
+        <v>0</v>
+      </c>
+      <c r="O129" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P129" s="51">
+      <c r="P129" s="50">
         <v>249800</v>
       </c>
-      <c r="Q129" s="51" t="s">
+      <c r="Q129" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R129" s="51" t="s">
+      <c r="R129" s="50" t="s">
         <v>1369</v>
       </c>
-      <c r="W129" s="51" t="s">
+      <c r="W129" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X129" s="52" t="s">
+      <c r="X129" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y129" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z129" s="51">
+      <c r="Y129" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z129" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH129" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI129" s="51">
+      <c r="AH129" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI129" s="50">
         <v>1</v>
       </c>
     </row>
@@ -22208,7 +22231,7 @@
       <c r="Q171" s="43" t="s">
         <v>1736</v>
       </c>
-      <c r="R171" s="50" t="s">
+      <c r="R171" s="49" t="s">
         <v>1737</v>
       </c>
       <c r="W171" s="43" t="s">
@@ -22276,7 +22299,7 @@
       <c r="Q172" s="43" t="s">
         <v>1740</v>
       </c>
-      <c r="R172" s="50" t="s">
+      <c r="R172" s="49" t="s">
         <v>1730</v>
       </c>
       <c r="W172" s="43" t="s">
@@ -22344,7 +22367,7 @@
       <c r="Q173" s="43" t="s">
         <v>1736</v>
       </c>
-      <c r="R173" s="50" t="s">
+      <c r="R173" s="49" t="s">
         <v>1731</v>
       </c>
       <c r="W173" s="43" t="s">
@@ -22412,7 +22435,7 @@
       <c r="Q174" s="43" t="s">
         <v>1736</v>
       </c>
-      <c r="R174" s="50" t="s">
+      <c r="R174" s="49" t="s">
         <v>1745</v>
       </c>
       <c r="W174" s="43" t="s">
@@ -22480,7 +22503,7 @@
       <c r="Q175" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="R175" s="50" t="s">
+      <c r="R175" s="49" t="s">
         <v>960</v>
       </c>
       <c r="W175" s="43" t="s">
@@ -22548,7 +22571,7 @@
       <c r="Q176" s="43" t="s">
         <v>1749</v>
       </c>
-      <c r="R176" s="50" t="s">
+      <c r="R176" s="49" t="s">
         <v>1750</v>
       </c>
       <c r="W176" s="43" t="s">
@@ -22616,7 +22639,7 @@
       <c r="Q177" s="43" t="s">
         <v>1749</v>
       </c>
-      <c r="R177" s="50" t="s">
+      <c r="R177" s="49" t="s">
         <v>1753</v>
       </c>
       <c r="W177" s="43" t="s">
@@ -22684,7 +22707,7 @@
       <c r="Q178" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="R178" s="50" t="s">
+      <c r="R178" s="49" t="s">
         <v>1755</v>
       </c>
       <c r="W178" s="43" t="s">
@@ -22752,7 +22775,7 @@
       <c r="Q179" s="43" t="s">
         <v>1749</v>
       </c>
-      <c r="R179" s="50" t="s">
+      <c r="R179" s="49" t="s">
         <v>1758</v>
       </c>
       <c r="W179" s="43" t="s">
@@ -22820,7 +22843,7 @@
       <c r="Q180" s="43" t="s">
         <v>1749</v>
       </c>
-      <c r="R180" s="50" t="s">
+      <c r="R180" s="49" t="s">
         <v>1755</v>
       </c>
       <c r="W180" s="43" t="s">
@@ -22888,7 +22911,7 @@
       <c r="Q181" s="43" t="s">
         <v>1749</v>
       </c>
-      <c r="R181" s="50" t="s">
+      <c r="R181" s="49" t="s">
         <v>1758</v>
       </c>
       <c r="W181" s="43" t="s">
@@ -22956,7 +22979,7 @@
       <c r="Q182" s="43" t="s">
         <v>1749</v>
       </c>
-      <c r="R182" s="50" t="s">
+      <c r="R182" s="49" t="s">
         <v>1763</v>
       </c>
       <c r="W182" s="43" t="s">
@@ -23024,7 +23047,7 @@
       <c r="Q183" s="43" t="s">
         <v>1749</v>
       </c>
-      <c r="R183" s="50" t="s">
+      <c r="R183" s="49" t="s">
         <v>1758</v>
       </c>
       <c r="W183" s="43" t="s">
@@ -23092,7 +23115,7 @@
       <c r="Q184" s="43" t="s">
         <v>1749</v>
       </c>
-      <c r="R184" s="50" t="s">
+      <c r="R184" s="49" t="s">
         <v>1763</v>
       </c>
       <c r="W184" s="43" t="s">
@@ -23160,7 +23183,7 @@
       <c r="Q185" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="R185" s="50" t="s">
+      <c r="R185" s="49" t="s">
         <v>1768</v>
       </c>
       <c r="W185" s="43" t="s">
@@ -28848,62 +28871,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:40" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A273" s="51">
+    <row r="273" spans="1:40" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A273" s="50">
         <v>272</v>
       </c>
-      <c r="B273" s="51">
+      <c r="B273" s="50">
         <v>10189</v>
       </c>
-      <c r="D273" s="54">
+      <c r="D273" s="53">
         <v>111</v>
       </c>
-      <c r="F273" s="51">
-        <v>1</v>
-      </c>
-      <c r="G273" s="51" t="s">
+      <c r="F273" s="50">
+        <v>1</v>
+      </c>
+      <c r="G273" s="50" t="s">
         <v>520</v>
       </c>
-      <c r="H273" s="56" t="s">
+      <c r="H273" s="55" t="s">
         <v>1852</v>
       </c>
-      <c r="L273" s="51">
+      <c r="L273" s="50">
         <v>-10</v>
       </c>
-      <c r="M273" s="51">
-        <v>0</v>
-      </c>
-      <c r="N273" s="51">
-        <v>0</v>
-      </c>
-      <c r="O273" s="51" t="s">
+      <c r="M273" s="50">
+        <v>0</v>
+      </c>
+      <c r="N273" s="50">
+        <v>0</v>
+      </c>
+      <c r="O273" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P273" s="51">
+      <c r="P273" s="50">
         <v>19800</v>
       </c>
-      <c r="Q273" s="51" t="s">
+      <c r="Q273" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R273" s="51" t="s">
+      <c r="R273" s="50" t="s">
         <v>1371</v>
       </c>
-      <c r="W273" s="51" t="s">
+      <c r="W273" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X273" s="52" t="s">
+      <c r="X273" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y273" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z273" s="51">
+      <c r="Y273" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z273" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH273" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI273" s="51">
+      <c r="AH273" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI273" s="50">
         <v>1</v>
       </c>
     </row>
@@ -32012,7 +32035,7 @@
       <c r="Q323" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="R323" s="50" t="s">
+      <c r="R323" s="49" t="s">
         <v>1719</v>
       </c>
       <c r="W323" s="43" t="s">
@@ -32077,7 +32100,7 @@
       <c r="Q324" s="43" t="s">
         <v>1724</v>
       </c>
-      <c r="R324" s="50" t="s">
+      <c r="R324" s="49" t="s">
         <v>1725</v>
       </c>
       <c r="W324" s="43" t="s">
@@ -32142,7 +32165,7 @@
       <c r="Q325" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="R325" s="50" t="s">
+      <c r="R325" s="49" t="s">
         <v>1728</v>
       </c>
       <c r="W325" s="43" t="s">
@@ -32334,7 +32357,7 @@
       <c r="Q328" s="43" t="s">
         <v>1626</v>
       </c>
-      <c r="R328" s="50" t="s">
+      <c r="R328" s="49" t="s">
         <v>983</v>
       </c>
       <c r="S328" s="43"/>
@@ -32417,7 +32440,7 @@
       <c r="Q329" s="43" t="s">
         <v>1630</v>
       </c>
-      <c r="R329" s="50" t="s">
+      <c r="R329" s="49" t="s">
         <v>1631</v>
       </c>
       <c r="S329" s="43"/>
@@ -32500,7 +32523,7 @@
       <c r="Q330" s="43" t="s">
         <v>1626</v>
       </c>
-      <c r="R330" s="50" t="s">
+      <c r="R330" s="49" t="s">
         <v>1633</v>
       </c>
       <c r="S330" s="43"/>
@@ -32583,7 +32606,7 @@
       <c r="Q331" s="43" t="s">
         <v>1635</v>
       </c>
-      <c r="R331" s="50" t="s">
+      <c r="R331" s="49" t="s">
         <v>1636</v>
       </c>
       <c r="S331" s="43"/>
@@ -32666,7 +32689,7 @@
       <c r="Q332" s="43" t="s">
         <v>1626</v>
       </c>
-      <c r="R332" s="50" t="s">
+      <c r="R332" s="49" t="s">
         <v>1638</v>
       </c>
       <c r="S332" s="43"/>
@@ -32749,7 +32772,7 @@
       <c r="Q333" s="43" t="s">
         <v>1626</v>
       </c>
-      <c r="R333" s="50" t="s">
+      <c r="R333" s="49" t="s">
         <v>1640</v>
       </c>
       <c r="S333" s="43"/>
@@ -32832,7 +32855,7 @@
       <c r="Q334" s="43" t="s">
         <v>1644</v>
       </c>
-      <c r="R334" s="50" t="s">
+      <c r="R334" s="49" t="s">
         <v>1645</v>
       </c>
       <c r="S334" s="43"/>
@@ -32915,7 +32938,7 @@
       <c r="Q335" s="43" t="s">
         <v>1626</v>
       </c>
-      <c r="R335" s="50" t="s">
+      <c r="R335" s="49" t="s">
         <v>1647</v>
       </c>
       <c r="S335" s="43"/>
@@ -32998,7 +33021,7 @@
       <c r="Q336" s="43" t="s">
         <v>1635</v>
       </c>
-      <c r="R336" s="50" t="s">
+      <c r="R336" s="49" t="s">
         <v>1649</v>
       </c>
       <c r="S336" s="43"/>
@@ -33081,7 +33104,7 @@
       <c r="Q337" s="43" t="s">
         <v>1635</v>
       </c>
-      <c r="R337" s="50" t="s">
+      <c r="R337" s="49" t="s">
         <v>1651</v>
       </c>
       <c r="S337" s="43"/>
@@ -35058,7 +35081,7 @@
         <v>10281</v>
       </c>
       <c r="F365" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G365" s="5" t="s">
         <v>1196</v>
@@ -35123,7 +35146,7 @@
         <v>10282</v>
       </c>
       <c r="F366" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G366" s="5" t="s">
         <v>1199</v>
@@ -35188,7 +35211,7 @@
         <v>10283</v>
       </c>
       <c r="F367" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G367" s="5" t="s">
         <v>1202</v>
@@ -35253,7 +35276,7 @@
         <v>10284</v>
       </c>
       <c r="F368" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G368" s="5" t="s">
         <v>1204</v>
@@ -35318,7 +35341,7 @@
         <v>10285</v>
       </c>
       <c r="F369" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G369" s="5" t="s">
         <v>1206</v>
@@ -35383,7 +35406,7 @@
         <v>10286</v>
       </c>
       <c r="F370" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G370" s="5" t="s">
         <v>1120</v>
@@ -35445,7 +35468,7 @@
         <v>10287</v>
       </c>
       <c r="F371" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G371" s="5" t="s">
         <v>1209</v>
@@ -35507,7 +35530,7 @@
         <v>10288</v>
       </c>
       <c r="F372" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G372" s="5" t="s">
         <v>1122</v>
@@ -35569,7 +35592,7 @@
         <v>10289</v>
       </c>
       <c r="F373" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G373" s="5" t="s">
         <v>1123</v>
@@ -35631,7 +35654,7 @@
         <v>10290</v>
       </c>
       <c r="F374" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G374" s="5" t="s">
         <v>1124</v>
@@ -35699,7 +35722,7 @@
         <v>10291</v>
       </c>
       <c r="F375" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G375" s="5" t="s">
         <v>1230</v>
@@ -35767,7 +35790,7 @@
         <v>10292</v>
       </c>
       <c r="F376" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G376" s="5" t="s">
         <v>1238</v>
@@ -35835,7 +35858,7 @@
         <v>10293</v>
       </c>
       <c r="F377" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G377" s="5" t="s">
         <v>1238</v>
@@ -35903,7 +35926,7 @@
         <v>10294</v>
       </c>
       <c r="F378" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G378" s="5" t="s">
         <v>1238</v>
@@ -35971,7 +35994,7 @@
         <v>10295</v>
       </c>
       <c r="F379" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G379" s="5" t="s">
         <v>1237</v>
@@ -36039,7 +36062,7 @@
         <v>10296</v>
       </c>
       <c r="F380" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G380" s="5" t="s">
         <v>1237</v>
@@ -36107,7 +36130,7 @@
         <v>10297</v>
       </c>
       <c r="F381" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G381" s="5" t="s">
         <v>1238</v>
@@ -36175,7 +36198,7 @@
         <v>10298</v>
       </c>
       <c r="F382" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G382" s="5" t="s">
         <v>1237</v>
@@ -36243,7 +36266,7 @@
         <v>10299</v>
       </c>
       <c r="F383" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G383" s="5" t="s">
         <v>1238</v>
@@ -36311,7 +36334,7 @@
         <v>10300</v>
       </c>
       <c r="F384" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G384" s="5" t="s">
         <v>1237</v>
@@ -36379,7 +36402,7 @@
         <v>10301</v>
       </c>
       <c r="F385" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G385" s="5" t="s">
         <v>1238</v>
@@ -36439,624 +36462,615 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="19">
+    <row r="386" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="22">
         <v>385</v>
       </c>
-      <c r="B386" s="19">
+      <c r="B386" s="22">
         <v>10302</v>
       </c>
-      <c r="F386" s="19">
-        <v>1</v>
-      </c>
-      <c r="G386" s="19" t="s">
+      <c r="F386" s="22">
+        <v>1</v>
+      </c>
+      <c r="G386" s="22" t="s">
         <v>1263</v>
       </c>
-      <c r="H386" s="47"/>
-      <c r="I386" s="19" t="s">
+      <c r="I386" s="22" t="s">
         <v>1264</v>
       </c>
-      <c r="J386" s="19" t="s">
+      <c r="J386" s="22" t="s">
         <v>1265</v>
       </c>
-      <c r="L386" s="19">
+      <c r="L386" s="22">
         <v>-31</v>
       </c>
-      <c r="M386" s="19">
-        <v>0</v>
-      </c>
-      <c r="N386" s="19">
-        <v>0</v>
-      </c>
-      <c r="O386" s="19" t="s">
+      <c r="M386" s="22">
+        <v>0</v>
+      </c>
+      <c r="N386" s="22">
+        <v>0</v>
+      </c>
+      <c r="O386" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="P386" s="19">
+      <c r="P386" s="22">
         <v>1800</v>
       </c>
-      <c r="Q386" s="19" t="s">
+      <c r="Q386" s="22" t="s">
         <v>1266</v>
       </c>
-      <c r="R386" s="39" t="s">
+      <c r="R386" s="67" t="s">
         <v>1267</v>
       </c>
-      <c r="W386" s="19" t="s">
+      <c r="W386" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X386" s="19">
+      <c r="X386" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y386" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z386" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA386" s="19">
+      <c r="Y386" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z386" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA386" s="22">
         <v>44</v>
       </c>
-      <c r="AH386" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI386" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL386" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM386" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="19">
+      <c r="AH386" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI386" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL386" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM386" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="22">
         <v>386</v>
       </c>
-      <c r="B387" s="19">
+      <c r="B387" s="22">
         <v>10303</v>
       </c>
-      <c r="F387" s="19">
-        <v>1</v>
-      </c>
-      <c r="G387" s="19" t="s">
+      <c r="F387" s="22">
+        <v>1</v>
+      </c>
+      <c r="G387" s="22" t="s">
         <v>1268</v>
       </c>
-      <c r="H387" s="47"/>
-      <c r="I387" s="19" t="s">
+      <c r="I387" s="22" t="s">
         <v>1269</v>
       </c>
-      <c r="J387" s="19" t="s">
+      <c r="J387" s="22" t="s">
         <v>1270</v>
       </c>
-      <c r="L387" s="19">
+      <c r="L387" s="22">
         <v>-31</v>
       </c>
-      <c r="M387" s="19">
-        <v>0</v>
-      </c>
-      <c r="N387" s="19">
-        <v>0</v>
-      </c>
-      <c r="O387" s="19" t="s">
+      <c r="M387" s="22">
+        <v>0</v>
+      </c>
+      <c r="N387" s="22">
+        <v>0</v>
+      </c>
+      <c r="O387" s="22" t="s">
         <v>1271</v>
       </c>
-      <c r="P387" s="19">
+      <c r="P387" s="22">
         <v>3000</v>
       </c>
-      <c r="Q387" s="19" t="s">
+      <c r="Q387" s="22" t="s">
         <v>1272</v>
       </c>
-      <c r="R387" s="39" t="s">
+      <c r="R387" s="67" t="s">
         <v>1273</v>
       </c>
-      <c r="W387" s="19" t="s">
+      <c r="W387" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X387" s="19">
+      <c r="X387" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y387" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z387" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA387" s="19">
+      <c r="Y387" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z387" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA387" s="22">
         <v>44</v>
       </c>
-      <c r="AH387" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI387" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL387" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM387" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="19">
+      <c r="AH387" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI387" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL387" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM387" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="22">
         <v>387</v>
       </c>
-      <c r="B388" s="19">
+      <c r="B388" s="22">
         <v>10304</v>
       </c>
-      <c r="F388" s="19">
-        <v>1</v>
-      </c>
-      <c r="G388" s="19" t="s">
+      <c r="F388" s="22">
+        <v>1</v>
+      </c>
+      <c r="G388" s="22" t="s">
         <v>1274</v>
       </c>
-      <c r="H388" s="47"/>
-      <c r="I388" s="19" t="s">
+      <c r="I388" s="22" t="s">
         <v>1275</v>
       </c>
-      <c r="J388" s="19" t="s">
+      <c r="J388" s="22" t="s">
         <v>1276</v>
       </c>
-      <c r="L388" s="19">
+      <c r="L388" s="22">
         <v>-31</v>
       </c>
-      <c r="M388" s="19">
-        <v>0</v>
-      </c>
-      <c r="N388" s="19">
-        <v>0</v>
-      </c>
-      <c r="O388" s="19" t="s">
+      <c r="M388" s="22">
+        <v>0</v>
+      </c>
+      <c r="N388" s="22">
+        <v>0</v>
+      </c>
+      <c r="O388" s="22" t="s">
         <v>1277</v>
       </c>
-      <c r="P388" s="19">
+      <c r="P388" s="22">
         <v>4800</v>
       </c>
-      <c r="Q388" s="19" t="s">
+      <c r="Q388" s="22" t="s">
         <v>1278</v>
       </c>
-      <c r="R388" s="39" t="s">
+      <c r="R388" s="67" t="s">
         <v>1279</v>
       </c>
-      <c r="W388" s="19" t="s">
+      <c r="W388" s="22" t="s">
         <v>1280</v>
       </c>
-      <c r="X388" s="19">
+      <c r="X388" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y388" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z388" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA388" s="19">
+      <c r="Y388" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z388" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA388" s="22">
         <v>44</v>
       </c>
-      <c r="AH388" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI388" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL388" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM388" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="19">
+      <c r="AH388" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI388" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL388" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM388" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="22">
         <v>388</v>
       </c>
-      <c r="B389" s="19">
+      <c r="B389" s="22">
         <v>10305</v>
       </c>
-      <c r="F389" s="19">
-        <v>1</v>
-      </c>
-      <c r="G389" s="19" t="s">
+      <c r="F389" s="22">
+        <v>1</v>
+      </c>
+      <c r="G389" s="22" t="s">
         <v>1281</v>
       </c>
-      <c r="H389" s="49"/>
-      <c r="I389" s="19" t="s">
+      <c r="I389" s="22" t="s">
         <v>1282</v>
       </c>
-      <c r="J389" s="19" t="s">
+      <c r="J389" s="22" t="s">
         <v>1283</v>
       </c>
-      <c r="L389" s="19">
+      <c r="L389" s="22">
         <v>-31</v>
       </c>
-      <c r="M389" s="19">
-        <v>0</v>
-      </c>
-      <c r="N389" s="19">
-        <v>0</v>
-      </c>
-      <c r="O389" s="19" t="s">
+      <c r="M389" s="22">
+        <v>0</v>
+      </c>
+      <c r="N389" s="22">
+        <v>0</v>
+      </c>
+      <c r="O389" s="22" t="s">
         <v>1284</v>
       </c>
-      <c r="P389" s="19">
+      <c r="P389" s="22">
         <v>4800</v>
       </c>
-      <c r="Q389" s="19" t="s">
+      <c r="Q389" s="22" t="s">
         <v>1285</v>
       </c>
-      <c r="R389" s="39" t="s">
+      <c r="R389" s="67" t="s">
         <v>1279</v>
       </c>
-      <c r="W389" s="19" t="s">
+      <c r="W389" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X389" s="19">
+      <c r="X389" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y389" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z389" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA389" s="19">
+      <c r="Y389" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z389" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA389" s="22">
         <v>45</v>
       </c>
-      <c r="AH389" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI389" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL389" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM389" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="19">
+      <c r="AH389" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI389" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL389" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM389" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="22">
         <v>389</v>
       </c>
-      <c r="B390" s="19">
+      <c r="B390" s="22">
         <v>10306</v>
       </c>
-      <c r="F390" s="19">
-        <v>1</v>
-      </c>
-      <c r="G390" s="19" t="s">
+      <c r="F390" s="22">
+        <v>1</v>
+      </c>
+      <c r="G390" s="22" t="s">
         <v>1268</v>
       </c>
-      <c r="H390" s="49"/>
-      <c r="I390" s="19" t="s">
+      <c r="I390" s="22" t="s">
         <v>1112</v>
       </c>
-      <c r="J390" s="19" t="s">
+      <c r="J390" s="22" t="s">
         <v>1286</v>
       </c>
-      <c r="L390" s="19">
+      <c r="L390" s="22">
         <v>-31</v>
       </c>
-      <c r="M390" s="19">
-        <v>0</v>
-      </c>
-      <c r="N390" s="19">
-        <v>0</v>
-      </c>
-      <c r="O390" s="19" t="s">
+      <c r="M390" s="22">
+        <v>0</v>
+      </c>
+      <c r="N390" s="22">
+        <v>0</v>
+      </c>
+      <c r="O390" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="P390" s="19">
+      <c r="P390" s="22">
         <v>9800</v>
       </c>
-      <c r="Q390" s="19" t="s">
+      <c r="Q390" s="22" t="s">
         <v>1287</v>
       </c>
-      <c r="R390" s="39" t="s">
+      <c r="R390" s="67" t="s">
         <v>1288</v>
       </c>
-      <c r="W390" s="19" t="s">
+      <c r="W390" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X390" s="19">
+      <c r="X390" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y390" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z390" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA390" s="19">
+      <c r="Y390" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z390" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA390" s="22">
         <v>45</v>
       </c>
-      <c r="AH390" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI390" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL390" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM390" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="19">
+      <c r="AH390" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI390" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL390" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM390" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="22">
         <v>390</v>
       </c>
-      <c r="B391" s="19">
+      <c r="B391" s="22">
         <v>10307</v>
       </c>
-      <c r="F391" s="19">
-        <v>1</v>
-      </c>
-      <c r="G391" s="19" t="s">
+      <c r="F391" s="22">
+        <v>1</v>
+      </c>
+      <c r="G391" s="22" t="s">
         <v>1289</v>
       </c>
-      <c r="H391" s="49"/>
-      <c r="I391" s="19" t="s">
+      <c r="I391" s="22" t="s">
         <v>1282</v>
       </c>
-      <c r="J391" s="19" t="s">
+      <c r="J391" s="22" t="s">
         <v>1290</v>
       </c>
-      <c r="L391" s="19">
+      <c r="L391" s="22">
         <v>-31</v>
       </c>
-      <c r="M391" s="19">
-        <v>0</v>
-      </c>
-      <c r="N391" s="19">
-        <v>0</v>
-      </c>
-      <c r="O391" s="19" t="s">
+      <c r="M391" s="22">
+        <v>0</v>
+      </c>
+      <c r="N391" s="22">
+        <v>0</v>
+      </c>
+      <c r="O391" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="P391" s="19">
+      <c r="P391" s="22">
         <v>19800</v>
       </c>
-      <c r="Q391" s="19" t="s">
+      <c r="Q391" s="22" t="s">
         <v>1291</v>
       </c>
-      <c r="R391" s="39" t="s">
+      <c r="R391" s="67" t="s">
         <v>1292</v>
       </c>
-      <c r="W391" s="19" t="s">
+      <c r="W391" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X391" s="19">
+      <c r="X391" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y391" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z391" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA391" s="19">
+      <c r="Y391" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z391" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA391" s="22">
         <v>45</v>
       </c>
-      <c r="AH391" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI391" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL391" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM391" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="19">
+      <c r="AH391" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI391" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL391" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM391" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="22">
         <v>391</v>
       </c>
-      <c r="B392" s="19">
+      <c r="B392" s="22">
         <v>10308</v>
       </c>
-      <c r="F392" s="19">
-        <v>1</v>
-      </c>
-      <c r="G392" s="19" t="s">
+      <c r="F392" s="22">
+        <v>1</v>
+      </c>
+      <c r="G392" s="22" t="s">
         <v>1263</v>
       </c>
-      <c r="H392" s="47"/>
-      <c r="I392" s="19" t="s">
+      <c r="I392" s="22" t="s">
         <v>1293</v>
       </c>
-      <c r="J392" s="19" t="s">
+      <c r="J392" s="22" t="s">
         <v>1294</v>
       </c>
-      <c r="L392" s="19">
+      <c r="L392" s="22">
         <v>-31</v>
       </c>
-      <c r="M392" s="19">
-        <v>0</v>
-      </c>
-      <c r="N392" s="19">
-        <v>0</v>
-      </c>
-      <c r="O392" s="19" t="s">
+      <c r="M392" s="22">
+        <v>0</v>
+      </c>
+      <c r="N392" s="22">
+        <v>0</v>
+      </c>
+      <c r="O392" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="P392" s="19">
+      <c r="P392" s="22">
         <v>9800</v>
       </c>
-      <c r="Q392" s="19" t="s">
+      <c r="Q392" s="22" t="s">
         <v>1295</v>
       </c>
-      <c r="R392" s="39" t="s">
+      <c r="R392" s="67" t="s">
         <v>1296</v>
       </c>
-      <c r="W392" s="19" t="s">
+      <c r="W392" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X392" s="19">
+      <c r="X392" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y392" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z392" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA392" s="19">
+      <c r="Y392" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z392" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA392" s="22">
         <v>46</v>
       </c>
-      <c r="AH392" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI392" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL392" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM392" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A393" s="19">
+      <c r="AH392" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI392" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL392" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM392" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="22">
         <v>392</v>
       </c>
-      <c r="B393" s="19">
+      <c r="B393" s="22">
         <v>10309</v>
       </c>
-      <c r="F393" s="19">
-        <v>1</v>
-      </c>
-      <c r="G393" s="19" t="s">
+      <c r="F393" s="22">
+        <v>1</v>
+      </c>
+      <c r="G393" s="22" t="s">
         <v>1268</v>
       </c>
-      <c r="H393" s="47"/>
-      <c r="I393" s="19" t="s">
+      <c r="I393" s="22" t="s">
         <v>1297</v>
       </c>
-      <c r="J393" s="19" t="s">
+      <c r="J393" s="22" t="s">
         <v>1298</v>
       </c>
-      <c r="L393" s="19">
+      <c r="L393" s="22">
         <v>-31</v>
       </c>
-      <c r="M393" s="19">
-        <v>0</v>
-      </c>
-      <c r="N393" s="19">
-        <v>0</v>
-      </c>
-      <c r="O393" s="19" t="s">
+      <c r="M393" s="22">
+        <v>0</v>
+      </c>
+      <c r="N393" s="22">
+        <v>0</v>
+      </c>
+      <c r="O393" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="P393" s="19">
+      <c r="P393" s="22">
         <v>19800</v>
       </c>
-      <c r="Q393" s="19" t="s">
+      <c r="Q393" s="22" t="s">
         <v>1299</v>
       </c>
-      <c r="R393" s="39" t="s">
+      <c r="R393" s="67" t="s">
         <v>1292</v>
       </c>
-      <c r="W393" s="19" t="s">
+      <c r="W393" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X393" s="19">
+      <c r="X393" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y393" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z393" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA393" s="19">
+      <c r="Y393" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z393" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA393" s="22">
         <v>46</v>
       </c>
-      <c r="AH393" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI393" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL393" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM393" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A394" s="19">
+      <c r="AH393" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI393" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL393" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM393" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="22">
         <v>393</v>
       </c>
-      <c r="B394" s="19">
+      <c r="B394" s="22">
         <v>10310</v>
       </c>
-      <c r="F394" s="19">
-        <v>1</v>
-      </c>
-      <c r="G394" s="19" t="s">
+      <c r="F394" s="22">
+        <v>1</v>
+      </c>
+      <c r="G394" s="22" t="s">
         <v>1274</v>
       </c>
-      <c r="H394" s="47"/>
-      <c r="I394" s="19" t="s">
+      <c r="I394" s="22" t="s">
         <v>1300</v>
       </c>
-      <c r="J394" s="19" t="s">
+      <c r="J394" s="22" t="s">
         <v>1301</v>
       </c>
-      <c r="L394" s="19">
+      <c r="L394" s="22">
         <v>-31</v>
       </c>
-      <c r="M394" s="19">
-        <v>0</v>
-      </c>
-      <c r="N394" s="19">
-        <v>0</v>
-      </c>
-      <c r="O394" s="19" t="s">
+      <c r="M394" s="22">
+        <v>0</v>
+      </c>
+      <c r="N394" s="22">
+        <v>0</v>
+      </c>
+      <c r="O394" s="22" t="s">
         <v>1302</v>
       </c>
-      <c r="P394" s="19">
+      <c r="P394" s="22">
         <v>49800</v>
       </c>
-      <c r="Q394" s="19" t="s">
+      <c r="Q394" s="22" t="s">
         <v>1303</v>
       </c>
-      <c r="R394" s="39" t="s">
+      <c r="R394" s="67" t="s">
         <v>1304</v>
       </c>
-      <c r="W394" s="19" t="s">
+      <c r="W394" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X394" s="19">
+      <c r="X394" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y394" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z394" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA394" s="19">
+      <c r="Y394" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z394" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA394" s="22">
         <v>46</v>
       </c>
-      <c r="AH394" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI394" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL394" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM394" s="19">
+      <c r="AH394" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI394" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL394" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM394" s="22">
         <v>1</v>
       </c>
     </row>
@@ -37068,7 +37082,7 @@
         <v>10311</v>
       </c>
       <c r="F395" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G395" s="5" t="s">
         <v>1313</v>
@@ -37130,7 +37144,7 @@
         <v>10312</v>
       </c>
       <c r="F396" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G396" s="5" t="s">
         <v>1319</v>
@@ -37192,7 +37206,7 @@
         <v>10313</v>
       </c>
       <c r="F397" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G397" s="5" t="s">
         <v>288</v>
@@ -37254,7 +37268,7 @@
         <v>10314</v>
       </c>
       <c r="F398" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G398" s="5" t="s">
         <v>291</v>
@@ -37316,7 +37330,7 @@
         <v>10315</v>
       </c>
       <c r="F399" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G399" s="5" t="s">
         <v>1326</v>
@@ -37378,7 +37392,7 @@
         <v>10316</v>
       </c>
       <c r="F400" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G400" s="5" t="s">
         <v>1329</v>
@@ -37440,7 +37454,7 @@
         <v>10317</v>
       </c>
       <c r="F401" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G401" s="5" t="s">
         <v>1332</v>
@@ -37505,7 +37519,7 @@
         <v>10318</v>
       </c>
       <c r="F402" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G402" s="5" t="s">
         <v>1337</v>
@@ -37570,7 +37584,7 @@
         <v>10319</v>
       </c>
       <c r="F403" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G403" s="5" t="s">
         <v>1341</v>
@@ -37635,7 +37649,7 @@
         <v>10320</v>
       </c>
       <c r="F404" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G404" s="5" t="s">
         <v>1346</v>
@@ -37700,7 +37714,7 @@
         <v>10321</v>
       </c>
       <c r="F405" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G405" s="5" t="s">
         <v>1349</v>
@@ -37765,7 +37779,7 @@
         <v>10322</v>
       </c>
       <c r="F406" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G406" s="5" t="s">
         <v>1353</v>
@@ -37830,7 +37844,7 @@
         <v>10323</v>
       </c>
       <c r="F407" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G407" s="5" t="s">
         <v>1359</v>
@@ -38277,62 +38291,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="51">
+    <row r="414" spans="1:39" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="50">
         <v>413</v>
       </c>
-      <c r="B414" s="51">
+      <c r="B414" s="50">
         <v>10330</v>
       </c>
-      <c r="D414" s="51">
-        <v>1</v>
-      </c>
-      <c r="F414" s="51">
-        <v>1</v>
-      </c>
-      <c r="G414" s="51" t="s">
+      <c r="D414" s="50">
+        <v>1</v>
+      </c>
+      <c r="F414" s="50">
+        <v>1</v>
+      </c>
+      <c r="G414" s="50" t="s">
         <v>1376</v>
       </c>
-      <c r="H414" s="51" t="s">
+      <c r="H414" s="50" t="s">
         <v>1784</v>
       </c>
-      <c r="L414" s="51">
+      <c r="L414" s="50">
         <v>-4</v>
       </c>
-      <c r="M414" s="51">
-        <v>0</v>
-      </c>
-      <c r="N414" s="51">
-        <v>0</v>
-      </c>
-      <c r="O414" s="51" t="s">
+      <c r="M414" s="50">
+        <v>0</v>
+      </c>
+      <c r="N414" s="50">
+        <v>0</v>
+      </c>
+      <c r="O414" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P414" s="51">
+      <c r="P414" s="50">
         <v>600</v>
       </c>
-      <c r="Q414" s="51" t="s">
+      <c r="Q414" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R414" s="55" t="s">
+      <c r="R414" s="54" t="s">
         <v>1783</v>
       </c>
-      <c r="W414" s="51" t="s">
+      <c r="W414" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X414" s="52" t="s">
+      <c r="X414" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y414" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z414" s="51">
+      <c r="Y414" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z414" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH414" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI414" s="51">
+      <c r="AH414" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI414" s="50">
         <v>1</v>
       </c>
     </row>
@@ -38744,827 +38758,827 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A421" s="59">
+    <row r="421" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="58">
         <v>420</v>
       </c>
-      <c r="B421" s="59">
+      <c r="B421" s="58">
         <v>10337</v>
       </c>
-      <c r="F421" s="59">
-        <v>1</v>
-      </c>
-      <c r="G421" s="59" t="s">
+      <c r="F421" s="58">
+        <v>1</v>
+      </c>
+      <c r="G421" s="58" t="s">
         <v>1416</v>
       </c>
-      <c r="J421" s="59" t="s">
+      <c r="J421" s="58" t="s">
         <v>1417</v>
       </c>
-      <c r="L421" s="59">
+      <c r="L421" s="58">
         <v>-31</v>
       </c>
-      <c r="M421" s="59">
-        <v>0</v>
-      </c>
-      <c r="N421" s="59">
-        <v>0</v>
-      </c>
-      <c r="O421" s="59" t="s">
+      <c r="M421" s="58">
+        <v>0</v>
+      </c>
+      <c r="N421" s="58">
+        <v>0</v>
+      </c>
+      <c r="O421" s="58" t="s">
         <v>1418</v>
       </c>
-      <c r="P421" s="59">
+      <c r="P421" s="58">
         <v>1000</v>
       </c>
-      <c r="Q421" s="59" t="s">
+      <c r="Q421" s="58" t="s">
         <v>1419</v>
       </c>
-      <c r="R421" s="60" t="s">
+      <c r="R421" s="59" t="s">
         <v>1420</v>
       </c>
-      <c r="W421" s="59" t="s">
+      <c r="W421" s="58" t="s">
         <v>1421</v>
       </c>
-      <c r="X421" s="59">
+      <c r="X421" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y421" s="59">
+      <c r="Y421" s="58">
         <v>1585609200</v>
       </c>
-      <c r="Z421" s="59">
+      <c r="Z421" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AB421" s="59" t="s">
+      <c r="AB421" s="58" t="s">
         <v>1422</v>
       </c>
-      <c r="AC421" s="59" t="s">
+      <c r="AC421" s="58" t="s">
         <v>1423</v>
       </c>
-      <c r="AH421" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI421" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL421" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM421" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A422" s="59">
+      <c r="AH421" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI421" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL421" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM421" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="58">
         <v>421</v>
       </c>
-      <c r="B422" s="59">
+      <c r="B422" s="58">
         <v>10338</v>
       </c>
-      <c r="F422" s="59">
-        <v>1</v>
-      </c>
-      <c r="G422" s="59" t="s">
+      <c r="F422" s="58">
+        <v>1</v>
+      </c>
+      <c r="G422" s="58" t="s">
         <v>1440</v>
       </c>
-      <c r="I422" s="59" t="s">
+      <c r="I422" s="58" t="s">
         <v>1441</v>
       </c>
-      <c r="J422" s="59" t="s">
+      <c r="J422" s="58" t="s">
         <v>1442</v>
       </c>
-      <c r="L422" s="59">
+      <c r="L422" s="58">
         <v>-31</v>
       </c>
-      <c r="M422" s="59">
-        <v>0</v>
-      </c>
-      <c r="N422" s="59">
-        <v>0</v>
-      </c>
-      <c r="O422" s="59" t="s">
+      <c r="M422" s="58">
+        <v>0</v>
+      </c>
+      <c r="N422" s="58">
+        <v>0</v>
+      </c>
+      <c r="O422" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P422" s="59">
+      <c r="P422" s="58">
         <v>2000</v>
       </c>
-      <c r="Q422" s="59" t="s">
+      <c r="Q422" s="58" t="s">
         <v>1443</v>
       </c>
-      <c r="R422" s="60" t="s">
+      <c r="R422" s="59" t="s">
         <v>1444</v>
       </c>
-      <c r="W422" s="59" t="s">
+      <c r="W422" s="58" t="s">
         <v>1445</v>
       </c>
-      <c r="X422" s="59">
+      <c r="X422" s="58">
         <v>99999999</v>
       </c>
-      <c r="Y422" s="59">
+      <c r="Y422" s="58">
         <v>1603756800</v>
       </c>
-      <c r="Z422" s="59">
+      <c r="Z422" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA422" s="59">
+      <c r="AA422" s="58">
         <v>51</v>
       </c>
-      <c r="AH422" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI422" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL422" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM422" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="59">
+      <c r="AH422" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI422" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL422" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM422" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="58">
         <v>422</v>
       </c>
-      <c r="B423" s="59">
+      <c r="B423" s="58">
         <v>10339</v>
       </c>
-      <c r="F423" s="59">
-        <v>1</v>
-      </c>
-      <c r="G423" s="59" t="s">
+      <c r="F423" s="58">
+        <v>1</v>
+      </c>
+      <c r="G423" s="58" t="s">
         <v>1425</v>
       </c>
-      <c r="I423" s="59" t="s">
+      <c r="I423" s="58" t="s">
         <v>1424</v>
       </c>
-      <c r="J423" s="59" t="s">
+      <c r="J423" s="58" t="s">
         <v>1446</v>
       </c>
-      <c r="L423" s="59">
+      <c r="L423" s="58">
         <v>-31</v>
       </c>
-      <c r="M423" s="59">
-        <v>0</v>
-      </c>
-      <c r="N423" s="59">
-        <v>0</v>
-      </c>
-      <c r="O423" s="59" t="s">
+      <c r="M423" s="58">
+        <v>0</v>
+      </c>
+      <c r="N423" s="58">
+        <v>0</v>
+      </c>
+      <c r="O423" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P423" s="59">
+      <c r="P423" s="58">
         <v>5800</v>
       </c>
-      <c r="Q423" s="59" t="s">
+      <c r="Q423" s="58" t="s">
         <v>1447</v>
       </c>
-      <c r="R423" s="60" t="s">
+      <c r="R423" s="59" t="s">
         <v>1448</v>
       </c>
-      <c r="W423" s="59" t="s">
+      <c r="W423" s="58" t="s">
         <v>984</v>
       </c>
-      <c r="X423" s="59">
+      <c r="X423" s="58">
         <v>99999999</v>
       </c>
-      <c r="Y423" s="59">
+      <c r="Y423" s="58">
         <v>1603756800</v>
       </c>
-      <c r="Z423" s="59">
+      <c r="Z423" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA423" s="59">
+      <c r="AA423" s="58">
         <v>51</v>
       </c>
-      <c r="AH423" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI423" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL423" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM423" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A424" s="59">
+      <c r="AH423" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI423" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL423" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM423" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="58">
         <v>423</v>
       </c>
-      <c r="B424" s="59">
+      <c r="B424" s="58">
         <v>10340</v>
       </c>
-      <c r="F424" s="59">
-        <v>1</v>
-      </c>
-      <c r="G424" s="59" t="s">
+      <c r="F424" s="58">
+        <v>1</v>
+      </c>
+      <c r="G424" s="58" t="s">
         <v>1449</v>
       </c>
-      <c r="I424" s="59" t="s">
+      <c r="I424" s="58" t="s">
         <v>1424</v>
       </c>
-      <c r="J424" s="59" t="s">
+      <c r="J424" s="58" t="s">
         <v>1450</v>
       </c>
-      <c r="L424" s="59">
+      <c r="L424" s="58">
         <v>-31</v>
       </c>
-      <c r="M424" s="59">
-        <v>0</v>
-      </c>
-      <c r="N424" s="59">
-        <v>0</v>
-      </c>
-      <c r="O424" s="59" t="s">
+      <c r="M424" s="58">
+        <v>0</v>
+      </c>
+      <c r="N424" s="58">
+        <v>0</v>
+      </c>
+      <c r="O424" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P424" s="59">
+      <c r="P424" s="58">
         <v>12800</v>
       </c>
-      <c r="Q424" s="59" t="s">
+      <c r="Q424" s="58" t="s">
         <v>1451</v>
       </c>
-      <c r="R424" s="60" t="s">
+      <c r="R424" s="59" t="s">
         <v>1452</v>
       </c>
-      <c r="W424" s="59" t="s">
+      <c r="W424" s="58" t="s">
         <v>984</v>
       </c>
-      <c r="X424" s="59">
+      <c r="X424" s="58">
         <v>99999999</v>
       </c>
-      <c r="Y424" s="59">
+      <c r="Y424" s="58">
         <v>1603756800</v>
       </c>
-      <c r="Z424" s="59">
+      <c r="Z424" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA424" s="59">
+      <c r="AA424" s="58">
         <v>51</v>
       </c>
-      <c r="AH424" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI424" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL424" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM424" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A425" s="59">
+      <c r="AH424" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI424" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL424" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM424" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A425" s="58">
         <v>424</v>
       </c>
-      <c r="B425" s="59">
+      <c r="B425" s="58">
         <v>10341</v>
       </c>
-      <c r="F425" s="59">
-        <v>1</v>
-      </c>
-      <c r="G425" s="59" t="s">
+      <c r="F425" s="58">
+        <v>1</v>
+      </c>
+      <c r="G425" s="58" t="s">
         <v>1426</v>
       </c>
-      <c r="J425" s="59" t="s">
+      <c r="J425" s="58" t="s">
         <v>1427</v>
       </c>
-      <c r="L425" s="59">
+      <c r="L425" s="58">
         <v>-31</v>
       </c>
-      <c r="M425" s="59">
-        <v>0</v>
-      </c>
-      <c r="N425" s="59">
-        <v>0</v>
-      </c>
-      <c r="O425" s="59" t="s">
+      <c r="M425" s="58">
+        <v>0</v>
+      </c>
+      <c r="N425" s="58">
+        <v>0</v>
+      </c>
+      <c r="O425" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P425" s="59">
+      <c r="P425" s="58">
         <v>49800</v>
       </c>
-      <c r="Q425" s="59" t="s">
+      <c r="Q425" s="58" t="s">
         <v>1428</v>
       </c>
-      <c r="R425" s="60" t="s">
+      <c r="R425" s="59" t="s">
         <v>1429</v>
       </c>
-      <c r="W425" s="59" t="s">
+      <c r="W425" s="58" t="s">
         <v>568</v>
       </c>
-      <c r="X425" s="59">
+      <c r="X425" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y425" s="59">
+      <c r="Y425" s="58">
         <v>1585609200</v>
       </c>
-      <c r="Z425" s="59">
+      <c r="Z425" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH425" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI425" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A426" s="59">
+      <c r="AH425" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI425" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A426" s="58">
         <v>425</v>
       </c>
-      <c r="B426" s="59">
+      <c r="B426" s="58">
         <v>10342</v>
       </c>
-      <c r="F426" s="59">
-        <v>1</v>
-      </c>
-      <c r="G426" s="59" t="s">
+      <c r="F426" s="58">
+        <v>1</v>
+      </c>
+      <c r="G426" s="58" t="s">
         <v>1430</v>
       </c>
-      <c r="J426" s="59" t="s">
+      <c r="J426" s="58" t="s">
         <v>1431</v>
       </c>
-      <c r="L426" s="59">
+      <c r="L426" s="58">
         <v>-31</v>
       </c>
-      <c r="M426" s="59">
-        <v>0</v>
-      </c>
-      <c r="N426" s="59">
-        <v>0</v>
-      </c>
-      <c r="O426" s="59" t="s">
+      <c r="M426" s="58">
+        <v>0</v>
+      </c>
+      <c r="N426" s="58">
+        <v>0</v>
+      </c>
+      <c r="O426" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P426" s="59">
+      <c r="P426" s="58">
         <v>19800</v>
       </c>
-      <c r="Q426" s="59" t="s">
+      <c r="Q426" s="58" t="s">
         <v>1432</v>
       </c>
-      <c r="R426" s="60" t="s">
+      <c r="R426" s="59" t="s">
         <v>1429</v>
       </c>
-      <c r="W426" s="59" t="s">
+      <c r="W426" s="58" t="s">
         <v>1421</v>
       </c>
-      <c r="X426" s="59">
+      <c r="X426" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y426" s="59">
+      <c r="Y426" s="58">
         <v>1585609200</v>
       </c>
-      <c r="Z426" s="59">
+      <c r="Z426" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH426" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI426" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A427" s="59">
+      <c r="AH426" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI426" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A427" s="58">
         <v>426</v>
       </c>
-      <c r="B427" s="59">
+      <c r="B427" s="58">
         <v>10343</v>
       </c>
-      <c r="F427" s="59">
-        <v>1</v>
-      </c>
-      <c r="G427" s="59" t="s">
+      <c r="F427" s="58">
+        <v>1</v>
+      </c>
+      <c r="G427" s="58" t="s">
         <v>1433</v>
       </c>
-      <c r="J427" s="59" t="s">
+      <c r="J427" s="58" t="s">
         <v>1405</v>
       </c>
-      <c r="L427" s="59">
+      <c r="L427" s="58">
         <v>-31</v>
       </c>
-      <c r="M427" s="59">
-        <v>0</v>
-      </c>
-      <c r="N427" s="59">
-        <v>0</v>
-      </c>
-      <c r="O427" s="59" t="s">
+      <c r="M427" s="58">
+        <v>0</v>
+      </c>
+      <c r="N427" s="58">
+        <v>0</v>
+      </c>
+      <c r="O427" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P427" s="59">
+      <c r="P427" s="58">
         <v>9800</v>
       </c>
-      <c r="Q427" s="59" t="s">
+      <c r="Q427" s="58" t="s">
         <v>1434</v>
       </c>
-      <c r="R427" s="60" t="s">
+      <c r="R427" s="59" t="s">
         <v>1429</v>
       </c>
-      <c r="W427" s="59" t="s">
+      <c r="W427" s="58" t="s">
         <v>1421</v>
       </c>
-      <c r="X427" s="59">
+      <c r="X427" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y427" s="59">
+      <c r="Y427" s="58">
         <v>1585609200</v>
       </c>
-      <c r="Z427" s="59">
+      <c r="Z427" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH427" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI427" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A428" s="59">
+      <c r="AH427" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI427" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="58">
         <v>427</v>
       </c>
-      <c r="B428" s="59">
+      <c r="B428" s="58">
         <v>10344</v>
       </c>
-      <c r="F428" s="59">
-        <v>1</v>
-      </c>
-      <c r="G428" s="59" t="s">
+      <c r="F428" s="58">
+        <v>1</v>
+      </c>
+      <c r="G428" s="58" t="s">
         <v>1435</v>
       </c>
-      <c r="J428" s="59" t="s">
+      <c r="J428" s="58" t="s">
         <v>1436</v>
       </c>
-      <c r="L428" s="59">
+      <c r="L428" s="58">
         <v>-31</v>
       </c>
-      <c r="M428" s="59">
-        <v>0</v>
-      </c>
-      <c r="N428" s="59">
-        <v>0</v>
-      </c>
-      <c r="O428" s="59" t="s">
+      <c r="M428" s="58">
+        <v>0</v>
+      </c>
+      <c r="N428" s="58">
+        <v>0</v>
+      </c>
+      <c r="O428" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P428" s="59">
+      <c r="P428" s="58">
         <v>9800</v>
       </c>
-      <c r="Q428" s="59" t="s">
+      <c r="Q428" s="58" t="s">
         <v>1437</v>
       </c>
-      <c r="R428" s="60" t="s">
+      <c r="R428" s="59" t="s">
         <v>1429</v>
       </c>
-      <c r="W428" s="59" t="s">
+      <c r="W428" s="58" t="s">
         <v>1421</v>
       </c>
-      <c r="X428" s="59">
+      <c r="X428" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y428" s="59">
+      <c r="Y428" s="58">
         <v>1585609200</v>
       </c>
-      <c r="Z428" s="59">
+      <c r="Z428" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH428" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI428" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A429" s="59">
+      <c r="AH428" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI428" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A429" s="58">
         <v>428</v>
       </c>
-      <c r="B429" s="59">
+      <c r="B429" s="58">
         <v>10345</v>
       </c>
-      <c r="F429" s="59">
-        <v>1</v>
-      </c>
-      <c r="G429" s="59" t="s">
+      <c r="F429" s="58">
+        <v>1</v>
+      </c>
+      <c r="G429" s="58" t="s">
         <v>1406</v>
       </c>
-      <c r="J429" s="59" t="s">
+      <c r="J429" s="58" t="s">
         <v>1438</v>
       </c>
-      <c r="L429" s="59">
+      <c r="L429" s="58">
         <v>-31</v>
       </c>
-      <c r="M429" s="59">
-        <v>0</v>
-      </c>
-      <c r="N429" s="59">
-        <v>0</v>
-      </c>
-      <c r="O429" s="59" t="s">
+      <c r="M429" s="58">
+        <v>0</v>
+      </c>
+      <c r="N429" s="58">
+        <v>0</v>
+      </c>
+      <c r="O429" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P429" s="59">
+      <c r="P429" s="58">
         <v>4800</v>
       </c>
-      <c r="Q429" s="59" t="s">
+      <c r="Q429" s="58" t="s">
         <v>1439</v>
       </c>
-      <c r="R429" s="60" t="s">
+      <c r="R429" s="59" t="s">
         <v>1429</v>
       </c>
-      <c r="W429" s="59" t="s">
+      <c r="W429" s="58" t="s">
         <v>1421</v>
       </c>
-      <c r="X429" s="59">
+      <c r="X429" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y429" s="59">
+      <c r="Y429" s="58">
         <v>1585609200</v>
       </c>
-      <c r="Z429" s="59">
+      <c r="Z429" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH429" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI429" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="59">
+      <c r="AH429" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI429" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="58">
         <v>429</v>
       </c>
-      <c r="B430" s="59">
+      <c r="B430" s="58">
         <v>10346</v>
       </c>
-      <c r="F430" s="59">
-        <v>1</v>
-      </c>
-      <c r="G430" s="59" t="s">
+      <c r="F430" s="58">
+        <v>1</v>
+      </c>
+      <c r="G430" s="58" t="s">
         <v>1702</v>
       </c>
-      <c r="I430" s="59" t="s">
+      <c r="I430" s="58" t="s">
         <v>1703</v>
       </c>
-      <c r="J430" s="59" t="s">
+      <c r="J430" s="58" t="s">
         <v>1704</v>
       </c>
-      <c r="L430" s="59">
+      <c r="L430" s="58">
         <v>-28</v>
       </c>
-      <c r="M430" s="59">
-        <v>0</v>
-      </c>
-      <c r="N430" s="59">
-        <v>0</v>
-      </c>
-      <c r="O430" s="59" t="s">
+      <c r="M430" s="58">
+        <v>0</v>
+      </c>
+      <c r="N430" s="58">
+        <v>0</v>
+      </c>
+      <c r="O430" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P430" s="59">
+      <c r="P430" s="58">
         <v>100</v>
       </c>
-      <c r="Q430" s="59" t="s">
+      <c r="Q430" s="58" t="s">
         <v>1400</v>
       </c>
-      <c r="R430" s="60" t="s">
+      <c r="R430" s="59" t="s">
         <v>1705</v>
       </c>
-      <c r="W430" s="59" t="s">
+      <c r="W430" s="58" t="s">
         <v>1706</v>
       </c>
-      <c r="X430" s="59">
+      <c r="X430" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y430" s="59">
+      <c r="Y430" s="58">
         <v>1581377400</v>
       </c>
-      <c r="Z430" s="59">
+      <c r="Z430" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA430" s="59">
+      <c r="AA430" s="58">
         <v>14</v>
       </c>
-      <c r="AH430" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI430" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL430" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM430" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A431" s="59">
+      <c r="AH430" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI430" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL430" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM430" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A431" s="58">
         <v>430</v>
       </c>
-      <c r="B431" s="59">
+      <c r="B431" s="58">
         <v>10347</v>
       </c>
-      <c r="F431" s="59">
-        <v>1</v>
-      </c>
-      <c r="G431" s="59" t="s">
+      <c r="F431" s="58">
+        <v>1</v>
+      </c>
+      <c r="G431" s="58" t="s">
         <v>1702</v>
       </c>
-      <c r="I431" s="59" t="s">
+      <c r="I431" s="58" t="s">
         <v>1707</v>
       </c>
-      <c r="J431" s="59" t="s">
+      <c r="J431" s="58" t="s">
         <v>1708</v>
       </c>
-      <c r="L431" s="59">
+      <c r="L431" s="58">
         <v>-28</v>
       </c>
-      <c r="M431" s="59">
-        <v>0</v>
-      </c>
-      <c r="N431" s="59">
-        <v>0</v>
-      </c>
-      <c r="O431" s="59" t="s">
+      <c r="M431" s="58">
+        <v>0</v>
+      </c>
+      <c r="N431" s="58">
+        <v>0</v>
+      </c>
+      <c r="O431" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P431" s="59">
+      <c r="P431" s="58">
         <v>300</v>
       </c>
-      <c r="Q431" s="59" t="s">
+      <c r="Q431" s="58" t="s">
         <v>1400</v>
       </c>
-      <c r="R431" s="60" t="s">
+      <c r="R431" s="59" t="s">
         <v>1709</v>
       </c>
-      <c r="W431" s="59" t="s">
+      <c r="W431" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X431" s="59">
+      <c r="X431" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y431" s="59">
+      <c r="Y431" s="58">
         <v>1581377400</v>
       </c>
-      <c r="Z431" s="59">
+      <c r="Z431" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA431" s="59">
+      <c r="AA431" s="58">
         <v>14</v>
       </c>
-      <c r="AH431" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI431" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL431" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM431" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A432" s="59">
+      <c r="AH431" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI431" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL431" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM431" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="58">
         <v>431</v>
       </c>
-      <c r="B432" s="59">
+      <c r="B432" s="58">
         <v>10348</v>
       </c>
-      <c r="F432" s="59">
-        <v>1</v>
-      </c>
-      <c r="G432" s="59" t="s">
+      <c r="F432" s="58">
+        <v>1</v>
+      </c>
+      <c r="G432" s="58" t="s">
         <v>1702</v>
       </c>
-      <c r="I432" s="59" t="s">
+      <c r="I432" s="58" t="s">
         <v>1710</v>
       </c>
-      <c r="J432" s="59" t="s">
+      <c r="J432" s="58" t="s">
         <v>1711</v>
       </c>
-      <c r="L432" s="59">
+      <c r="L432" s="58">
         <v>-28</v>
       </c>
-      <c r="M432" s="59">
-        <v>0</v>
-      </c>
-      <c r="N432" s="59">
-        <v>0</v>
-      </c>
-      <c r="O432" s="59" t="s">
+      <c r="M432" s="58">
+        <v>0</v>
+      </c>
+      <c r="N432" s="58">
+        <v>0</v>
+      </c>
+      <c r="O432" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P432" s="59">
+      <c r="P432" s="58">
         <v>600</v>
       </c>
-      <c r="Q432" s="59" t="s">
+      <c r="Q432" s="58" t="s">
         <v>1400</v>
       </c>
-      <c r="R432" s="60" t="s">
+      <c r="R432" s="59" t="s">
         <v>1712</v>
       </c>
-      <c r="W432" s="59" t="s">
+      <c r="W432" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X432" s="59">
+      <c r="X432" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y432" s="59">
+      <c r="Y432" s="58">
         <v>1581377400</v>
       </c>
-      <c r="Z432" s="59">
+      <c r="Z432" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA432" s="59">
+      <c r="AA432" s="58">
         <v>14</v>
       </c>
-      <c r="AH432" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI432" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL432" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM432" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A433" s="59">
+      <c r="AH432" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI432" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL432" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM432" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A433" s="58">
         <v>432</v>
       </c>
-      <c r="B433" s="59">
+      <c r="B433" s="58">
         <v>10349</v>
       </c>
-      <c r="F433" s="59">
-        <v>1</v>
-      </c>
-      <c r="G433" s="59" t="s">
+      <c r="F433" s="58">
+        <v>1</v>
+      </c>
+      <c r="G433" s="58" t="s">
         <v>1702</v>
       </c>
-      <c r="I433" s="59" t="s">
+      <c r="I433" s="58" t="s">
         <v>1713</v>
       </c>
-      <c r="J433" s="59" t="s">
+      <c r="J433" s="58" t="s">
         <v>1714</v>
       </c>
-      <c r="L433" s="59">
+      <c r="L433" s="58">
         <v>-28</v>
       </c>
-      <c r="M433" s="59">
-        <v>0</v>
-      </c>
-      <c r="N433" s="59">
-        <v>0</v>
-      </c>
-      <c r="O433" s="59" t="s">
+      <c r="M433" s="58">
+        <v>0</v>
+      </c>
+      <c r="N433" s="58">
+        <v>0</v>
+      </c>
+      <c r="O433" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P433" s="59">
+      <c r="P433" s="58">
         <v>600</v>
       </c>
-      <c r="Q433" s="59" t="s">
+      <c r="Q433" s="58" t="s">
         <v>1715</v>
       </c>
-      <c r="R433" s="60" t="s">
+      <c r="R433" s="59" t="s">
         <v>1716</v>
       </c>
-      <c r="W433" s="59" t="s">
+      <c r="W433" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X433" s="59">
+      <c r="X433" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y433" s="59">
+      <c r="Y433" s="58">
         <v>1581377400</v>
       </c>
-      <c r="Z433" s="59">
+      <c r="Z433" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA433" s="59">
+      <c r="AA433" s="58">
         <v>14</v>
       </c>
-      <c r="AH433" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI433" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL433" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM433" s="59">
+      <c r="AH433" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI433" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL433" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM433" s="58">
         <v>1</v>
       </c>
     </row>
@@ -40395,1930 +40409,1930 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A447" s="59">
+    <row r="447" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="58">
         <v>446</v>
       </c>
-      <c r="B447" s="59">
+      <c r="B447" s="58">
         <v>10363</v>
       </c>
-      <c r="F447" s="59">
-        <v>1</v>
-      </c>
-      <c r="G447" s="59" t="s">
+      <c r="F447" s="58">
+        <v>1</v>
+      </c>
+      <c r="G447" s="58" t="s">
         <v>1498</v>
       </c>
-      <c r="I447" s="59" t="s">
+      <c r="I447" s="58" t="s">
         <v>1499</v>
       </c>
-      <c r="J447" s="59" t="s">
+      <c r="J447" s="58" t="s">
         <v>1500</v>
       </c>
-      <c r="L447" s="59">
+      <c r="L447" s="58">
         <v>-31</v>
       </c>
-      <c r="M447" s="59">
-        <v>0</v>
-      </c>
-      <c r="N447" s="59">
-        <v>0</v>
-      </c>
-      <c r="O447" s="59" t="s">
+      <c r="M447" s="58">
+        <v>0</v>
+      </c>
+      <c r="N447" s="58">
+        <v>0</v>
+      </c>
+      <c r="O447" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P447" s="59">
+      <c r="P447" s="58">
         <v>800</v>
       </c>
-      <c r="Q447" s="59" t="s">
+      <c r="Q447" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R447" s="60" t="s">
+      <c r="R447" s="59" t="s">
         <v>1502</v>
       </c>
-      <c r="W447" s="59" t="s">
+      <c r="W447" s="58" t="s">
         <v>1155</v>
       </c>
-      <c r="X447" s="59">
+      <c r="X447" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y447" s="59">
+      <c r="Y447" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z447" s="59">
+      <c r="Z447" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA447" s="59">
+      <c r="AA447" s="58">
         <v>52</v>
       </c>
-      <c r="AH447" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI447" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL447" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM447" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A448" s="59">
+      <c r="AH447" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI447" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL447" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM447" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="58">
         <v>447</v>
       </c>
-      <c r="B448" s="59">
+      <c r="B448" s="58">
         <v>10364</v>
       </c>
-      <c r="F448" s="59">
-        <v>1</v>
-      </c>
-      <c r="G448" s="59" t="s">
+      <c r="F448" s="58">
+        <v>1</v>
+      </c>
+      <c r="G448" s="58" t="s">
         <v>1503</v>
       </c>
-      <c r="I448" s="59" t="s">
+      <c r="I448" s="58" t="s">
         <v>1504</v>
       </c>
-      <c r="J448" s="59" t="s">
+      <c r="J448" s="58" t="s">
         <v>1505</v>
       </c>
-      <c r="L448" s="59">
+      <c r="L448" s="58">
         <v>-31</v>
       </c>
-      <c r="M448" s="59">
-        <v>0</v>
-      </c>
-      <c r="N448" s="59">
-        <v>0</v>
-      </c>
-      <c r="O448" s="59" t="s">
+      <c r="M448" s="58">
+        <v>0</v>
+      </c>
+      <c r="N448" s="58">
+        <v>0</v>
+      </c>
+      <c r="O448" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P448" s="59">
+      <c r="P448" s="58">
         <v>800</v>
       </c>
-      <c r="Q448" s="59" t="s">
+      <c r="Q448" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R448" s="60" t="s">
+      <c r="R448" s="59" t="s">
         <v>1506</v>
       </c>
-      <c r="W448" s="59" t="s">
+      <c r="W448" s="58" t="s">
         <v>1507</v>
       </c>
-      <c r="X448" s="59">
+      <c r="X448" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y448" s="59">
+      <c r="Y448" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z448" s="59">
+      <c r="Z448" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH448" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI448" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL448" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM448" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A449" s="59">
+      <c r="AH448" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI448" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL448" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM448" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="58">
         <v>448</v>
       </c>
-      <c r="B449" s="59">
+      <c r="B449" s="58">
         <v>10365</v>
       </c>
-      <c r="F449" s="59">
-        <v>1</v>
-      </c>
-      <c r="G449" s="59" t="s">
+      <c r="F449" s="58">
+        <v>1</v>
+      </c>
+      <c r="G449" s="58" t="s">
         <v>1508</v>
       </c>
-      <c r="I449" s="59" t="s">
+      <c r="I449" s="58" t="s">
         <v>1509</v>
       </c>
-      <c r="J449" s="59" t="s">
+      <c r="J449" s="58" t="s">
         <v>1510</v>
       </c>
-      <c r="L449" s="59">
+      <c r="L449" s="58">
         <v>-31</v>
       </c>
-      <c r="M449" s="59">
-        <v>0</v>
-      </c>
-      <c r="N449" s="59">
-        <v>0</v>
-      </c>
-      <c r="O449" s="59" t="s">
+      <c r="M449" s="58">
+        <v>0</v>
+      </c>
+      <c r="N449" s="58">
+        <v>0</v>
+      </c>
+      <c r="O449" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P449" s="59">
+      <c r="P449" s="58">
         <v>800</v>
       </c>
-      <c r="Q449" s="59" t="s">
+      <c r="Q449" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R449" s="60" t="s">
+      <c r="R449" s="59" t="s">
         <v>1511</v>
       </c>
-      <c r="W449" s="59" t="s">
+      <c r="W449" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X449" s="59">
+      <c r="X449" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y449" s="59">
+      <c r="Y449" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z449" s="59">
+      <c r="Z449" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA449" s="59">
+      <c r="AA449" s="58">
         <v>53</v>
       </c>
-      <c r="AH449" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI449" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL449" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM449" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A450" s="59">
+      <c r="AH449" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI449" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL449" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM449" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="58">
         <v>449</v>
       </c>
-      <c r="B450" s="59">
+      <c r="B450" s="58">
         <v>10366</v>
       </c>
-      <c r="F450" s="59">
-        <v>1</v>
-      </c>
-      <c r="G450" s="59" t="s">
+      <c r="F450" s="58">
+        <v>1</v>
+      </c>
+      <c r="G450" s="58" t="s">
         <v>1512</v>
       </c>
-      <c r="I450" s="59" t="s">
+      <c r="I450" s="58" t="s">
         <v>1513</v>
       </c>
-      <c r="J450" s="59" t="s">
+      <c r="J450" s="58" t="s">
         <v>1514</v>
       </c>
-      <c r="L450" s="59">
+      <c r="L450" s="58">
         <v>-31</v>
       </c>
-      <c r="M450" s="59">
-        <v>0</v>
-      </c>
-      <c r="N450" s="59">
-        <v>0</v>
-      </c>
-      <c r="O450" s="59" t="s">
+      <c r="M450" s="58">
+        <v>0</v>
+      </c>
+      <c r="N450" s="58">
+        <v>0</v>
+      </c>
+      <c r="O450" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P450" s="59">
+      <c r="P450" s="58">
         <v>3800</v>
       </c>
-      <c r="Q450" s="59" t="s">
+      <c r="Q450" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R450" s="60" t="s">
+      <c r="R450" s="59" t="s">
         <v>1515</v>
       </c>
-      <c r="W450" s="59" t="s">
+      <c r="W450" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X450" s="59">
+      <c r="X450" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y450" s="59">
+      <c r="Y450" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z450" s="59">
+      <c r="Z450" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA450" s="59">
+      <c r="AA450" s="58">
         <v>54</v>
       </c>
-      <c r="AH450" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI450" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL450" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM450" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A451" s="59">
+      <c r="AH450" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI450" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL450" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM450" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="58">
         <v>450</v>
       </c>
-      <c r="B451" s="59">
+      <c r="B451" s="58">
         <v>10367</v>
       </c>
-      <c r="F451" s="59">
-        <v>1</v>
-      </c>
-      <c r="G451" s="59" t="s">
+      <c r="F451" s="58">
+        <v>1</v>
+      </c>
+      <c r="G451" s="58" t="s">
         <v>1516</v>
       </c>
-      <c r="I451" s="59" t="s">
+      <c r="I451" s="58" t="s">
         <v>1517</v>
       </c>
-      <c r="J451" s="59" t="s">
+      <c r="J451" s="58" t="s">
         <v>1518</v>
       </c>
-      <c r="L451" s="59">
+      <c r="L451" s="58">
         <v>-31</v>
       </c>
-      <c r="M451" s="59">
-        <v>0</v>
-      </c>
-      <c r="N451" s="59">
-        <v>0</v>
-      </c>
-      <c r="O451" s="59" t="s">
+      <c r="M451" s="58">
+        <v>0</v>
+      </c>
+      <c r="N451" s="58">
+        <v>0</v>
+      </c>
+      <c r="O451" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P451" s="59">
+      <c r="P451" s="58">
         <v>3800</v>
       </c>
-      <c r="Q451" s="59" t="s">
+      <c r="Q451" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R451" s="60" t="s">
+      <c r="R451" s="59" t="s">
         <v>1519</v>
       </c>
-      <c r="W451" s="59" t="s">
+      <c r="W451" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X451" s="59">
+      <c r="X451" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y451" s="59">
+      <c r="Y451" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z451" s="59">
+      <c r="Z451" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH451" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI451" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL451" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM451" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:39" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="59">
+      <c r="AH451" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI451" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL451" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM451" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:39" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="58">
         <v>451</v>
       </c>
-      <c r="B452" s="59">
+      <c r="B452" s="58">
         <v>10368</v>
       </c>
-      <c r="F452" s="59">
-        <v>1</v>
-      </c>
-      <c r="G452" s="59" t="s">
+      <c r="F452" s="58">
+        <v>1</v>
+      </c>
+      <c r="G452" s="58" t="s">
         <v>1520</v>
       </c>
-      <c r="I452" s="59" t="s">
+      <c r="I452" s="58" t="s">
         <v>1521</v>
       </c>
-      <c r="J452" s="59" t="s">
+      <c r="J452" s="58" t="s">
         <v>1522</v>
       </c>
-      <c r="L452" s="59">
+      <c r="L452" s="58">
         <v>-31</v>
       </c>
-      <c r="M452" s="59">
-        <v>0</v>
-      </c>
-      <c r="N452" s="59">
-        <v>0</v>
-      </c>
-      <c r="O452" s="59" t="s">
+      <c r="M452" s="58">
+        <v>0</v>
+      </c>
+      <c r="N452" s="58">
+        <v>0</v>
+      </c>
+      <c r="O452" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P452" s="59">
+      <c r="P452" s="58">
         <v>3800</v>
       </c>
-      <c r="Q452" s="59" t="s">
+      <c r="Q452" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R452" s="60" t="s">
+      <c r="R452" s="59" t="s">
         <v>1523</v>
       </c>
-      <c r="W452" s="59" t="s">
+      <c r="W452" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X452" s="59">
+      <c r="X452" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y452" s="59">
+      <c r="Y452" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z452" s="59">
+      <c r="Z452" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA452" s="59">
+      <c r="AA452" s="58">
         <v>55</v>
       </c>
-      <c r="AH452" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI452" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL452" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM452" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A453" s="59">
+      <c r="AH452" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI452" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL452" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM452" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="58">
         <v>452</v>
       </c>
-      <c r="B453" s="59">
+      <c r="B453" s="58">
         <v>10369</v>
       </c>
-      <c r="F453" s="59">
-        <v>1</v>
-      </c>
-      <c r="G453" s="59" t="s">
+      <c r="F453" s="58">
+        <v>1</v>
+      </c>
+      <c r="G453" s="58" t="s">
         <v>1524</v>
       </c>
-      <c r="I453" s="59" t="s">
+      <c r="I453" s="58" t="s">
         <v>1525</v>
       </c>
-      <c r="J453" s="59" t="s">
+      <c r="J453" s="58" t="s">
         <v>1526</v>
       </c>
-      <c r="L453" s="59">
+      <c r="L453" s="58">
         <v>-31</v>
       </c>
-      <c r="M453" s="59">
-        <v>0</v>
-      </c>
-      <c r="N453" s="59">
-        <v>0</v>
-      </c>
-      <c r="O453" s="59" t="s">
+      <c r="M453" s="58">
+        <v>0</v>
+      </c>
+      <c r="N453" s="58">
+        <v>0</v>
+      </c>
+      <c r="O453" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P453" s="59">
+      <c r="P453" s="58">
         <v>9800</v>
       </c>
-      <c r="Q453" s="59" t="s">
+      <c r="Q453" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R453" s="60" t="s">
+      <c r="R453" s="59" t="s">
         <v>1527</v>
       </c>
-      <c r="W453" s="59" t="s">
+      <c r="W453" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X453" s="59">
+      <c r="X453" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y453" s="59">
+      <c r="Y453" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z453" s="59">
+      <c r="Z453" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA453" s="59">
+      <c r="AA453" s="58">
         <v>56</v>
       </c>
-      <c r="AH453" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI453" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL453" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM453" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A454" s="59">
+      <c r="AH453" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI453" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL453" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM453" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="58">
         <v>453</v>
       </c>
-      <c r="B454" s="59">
+      <c r="B454" s="58">
         <v>10370</v>
       </c>
-      <c r="F454" s="59">
-        <v>1</v>
-      </c>
-      <c r="G454" s="59" t="s">
+      <c r="F454" s="58">
+        <v>1</v>
+      </c>
+      <c r="G454" s="58" t="s">
         <v>1528</v>
       </c>
-      <c r="I454" s="59" t="s">
+      <c r="I454" s="58" t="s">
         <v>1529</v>
       </c>
-      <c r="J454" s="59" t="s">
+      <c r="J454" s="58" t="s">
         <v>1530</v>
       </c>
-      <c r="L454" s="59">
+      <c r="L454" s="58">
         <v>-31</v>
       </c>
-      <c r="M454" s="59">
-        <v>0</v>
-      </c>
-      <c r="N454" s="59">
-        <v>0</v>
-      </c>
-      <c r="O454" s="59" t="s">
+      <c r="M454" s="58">
+        <v>0</v>
+      </c>
+      <c r="N454" s="58">
+        <v>0</v>
+      </c>
+      <c r="O454" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P454" s="59">
+      <c r="P454" s="58">
         <v>9800</v>
       </c>
-      <c r="Q454" s="59" t="s">
+      <c r="Q454" s="58" t="s">
         <v>991</v>
       </c>
-      <c r="R454" s="60" t="s">
+      <c r="R454" s="59" t="s">
         <v>1531</v>
       </c>
-      <c r="W454" s="59" t="s">
+      <c r="W454" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X454" s="59">
+      <c r="X454" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y454" s="59">
+      <c r="Y454" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z454" s="59">
+      <c r="Z454" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH454" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI454" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL454" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM454" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A455" s="59">
+      <c r="AH454" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI454" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL454" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM454" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="58">
         <v>454</v>
       </c>
-      <c r="B455" s="59">
+      <c r="B455" s="58">
         <v>10371</v>
       </c>
-      <c r="F455" s="59">
-        <v>1</v>
-      </c>
-      <c r="G455" s="59" t="s">
+      <c r="F455" s="58">
+        <v>1</v>
+      </c>
+      <c r="G455" s="58" t="s">
         <v>1532</v>
       </c>
-      <c r="I455" s="59" t="s">
+      <c r="I455" s="58" t="s">
         <v>1533</v>
       </c>
-      <c r="J455" s="59" t="s">
+      <c r="J455" s="58" t="s">
         <v>1534</v>
       </c>
-      <c r="L455" s="59">
+      <c r="L455" s="58">
         <v>-31</v>
       </c>
-      <c r="M455" s="59">
-        <v>0</v>
-      </c>
-      <c r="N455" s="59">
-        <v>0</v>
-      </c>
-      <c r="O455" s="59" t="s">
+      <c r="M455" s="58">
+        <v>0</v>
+      </c>
+      <c r="N455" s="58">
+        <v>0</v>
+      </c>
+      <c r="O455" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P455" s="59">
+      <c r="P455" s="58">
         <v>9800</v>
       </c>
-      <c r="Q455" s="59" t="s">
+      <c r="Q455" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R455" s="60" t="s">
+      <c r="R455" s="59" t="s">
         <v>1667</v>
       </c>
-      <c r="W455" s="59" t="s">
+      <c r="W455" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X455" s="59">
+      <c r="X455" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y455" s="59">
+      <c r="Y455" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z455" s="59">
+      <c r="Z455" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA455" s="59">
+      <c r="AA455" s="58">
         <v>57</v>
       </c>
-      <c r="AH455" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI455" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL455" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM455" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A456" s="59">
+      <c r="AH455" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI455" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL455" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM455" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="58">
         <v>455</v>
       </c>
-      <c r="B456" s="59">
+      <c r="B456" s="58">
         <v>10372</v>
       </c>
-      <c r="F456" s="59">
-        <v>1</v>
-      </c>
-      <c r="G456" s="59" t="s">
+      <c r="F456" s="58">
+        <v>1</v>
+      </c>
+      <c r="G456" s="58" t="s">
         <v>1535</v>
       </c>
-      <c r="I456" s="59" t="s">
+      <c r="I456" s="58" t="s">
         <v>1536</v>
       </c>
-      <c r="J456" s="59" t="s">
+      <c r="J456" s="58" t="s">
         <v>1537</v>
       </c>
-      <c r="L456" s="59">
+      <c r="L456" s="58">
         <v>-31</v>
       </c>
-      <c r="M456" s="59">
-        <v>0</v>
-      </c>
-      <c r="N456" s="59">
-        <v>0</v>
-      </c>
-      <c r="O456" s="59" t="s">
+      <c r="M456" s="58">
+        <v>0</v>
+      </c>
+      <c r="N456" s="58">
+        <v>0</v>
+      </c>
+      <c r="O456" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P456" s="59">
+      <c r="P456" s="58">
         <v>19800</v>
       </c>
-      <c r="Q456" s="59" t="s">
+      <c r="Q456" s="58" t="s">
         <v>991</v>
       </c>
-      <c r="R456" s="60" t="s">
+      <c r="R456" s="59" t="s">
         <v>1538</v>
       </c>
-      <c r="W456" s="59" t="s">
+      <c r="W456" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X456" s="59">
+      <c r="X456" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y456" s="59">
+      <c r="Y456" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z456" s="59">
+      <c r="Z456" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA456" s="59">
+      <c r="AA456" s="58">
         <v>58</v>
       </c>
-      <c r="AH456" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI456" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL456" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM456" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A457" s="59">
+      <c r="AH456" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI456" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL456" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM456" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="58">
         <v>456</v>
       </c>
-      <c r="B457" s="59">
+      <c r="B457" s="58">
         <v>10373</v>
       </c>
-      <c r="F457" s="59">
-        <v>1</v>
-      </c>
-      <c r="G457" s="59" t="s">
+      <c r="F457" s="58">
+        <v>1</v>
+      </c>
+      <c r="G457" s="58" t="s">
         <v>1539</v>
       </c>
-      <c r="I457" s="59" t="s">
+      <c r="I457" s="58" t="s">
         <v>1540</v>
       </c>
-      <c r="J457" s="59" t="s">
+      <c r="J457" s="58" t="s">
         <v>1541</v>
       </c>
-      <c r="L457" s="59">
+      <c r="L457" s="58">
         <v>-31</v>
       </c>
-      <c r="M457" s="59">
-        <v>0</v>
-      </c>
-      <c r="N457" s="59">
-        <v>0</v>
-      </c>
-      <c r="O457" s="59" t="s">
+      <c r="M457" s="58">
+        <v>0</v>
+      </c>
+      <c r="N457" s="58">
+        <v>0</v>
+      </c>
+      <c r="O457" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P457" s="59">
+      <c r="P457" s="58">
         <v>19800</v>
       </c>
-      <c r="Q457" s="59" t="s">
+      <c r="Q457" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R457" s="60" t="s">
+      <c r="R457" s="59" t="s">
         <v>1542</v>
       </c>
-      <c r="W457" s="59" t="s">
+      <c r="W457" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X457" s="59">
+      <c r="X457" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y457" s="59">
+      <c r="Y457" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z457" s="59">
+      <c r="Z457" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH457" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI457" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL457" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM457" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A458" s="59">
+      <c r="AH457" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI457" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL457" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM457" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="58">
         <v>457</v>
       </c>
-      <c r="B458" s="59">
+      <c r="B458" s="58">
         <v>10374</v>
       </c>
-      <c r="F458" s="59">
-        <v>1</v>
-      </c>
-      <c r="G458" s="59" t="s">
+      <c r="F458" s="58">
+        <v>1</v>
+      </c>
+      <c r="G458" s="58" t="s">
         <v>1543</v>
       </c>
-      <c r="I458" s="59" t="s">
+      <c r="I458" s="58" t="s">
         <v>1544</v>
       </c>
-      <c r="J458" s="59" t="s">
+      <c r="J458" s="58" t="s">
         <v>1545</v>
       </c>
-      <c r="L458" s="59">
+      <c r="L458" s="58">
         <v>-31</v>
       </c>
-      <c r="M458" s="59">
-        <v>0</v>
-      </c>
-      <c r="N458" s="59">
-        <v>0</v>
-      </c>
-      <c r="O458" s="59" t="s">
+      <c r="M458" s="58">
+        <v>0</v>
+      </c>
+      <c r="N458" s="58">
+        <v>0</v>
+      </c>
+      <c r="O458" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P458" s="59">
+      <c r="P458" s="58">
         <v>19800</v>
       </c>
-      <c r="Q458" s="59" t="s">
+      <c r="Q458" s="58" t="s">
         <v>991</v>
       </c>
-      <c r="R458" s="60" t="s">
+      <c r="R458" s="59" t="s">
         <v>1546</v>
       </c>
-      <c r="W458" s="59" t="s">
+      <c r="W458" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X458" s="59">
+      <c r="X458" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y458" s="59">
+      <c r="Y458" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z458" s="59">
+      <c r="Z458" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA458" s="59">
+      <c r="AA458" s="58">
         <v>59</v>
       </c>
-      <c r="AH458" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI458" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL458" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM458" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A459" s="59">
+      <c r="AH458" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI458" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL458" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM458" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="58">
         <v>458</v>
       </c>
-      <c r="B459" s="59">
+      <c r="B459" s="58">
         <v>10375</v>
       </c>
-      <c r="F459" s="59">
-        <v>1</v>
-      </c>
-      <c r="G459" s="59" t="s">
+      <c r="F459" s="58">
+        <v>1</v>
+      </c>
+      <c r="G459" s="58" t="s">
         <v>1547</v>
       </c>
-      <c r="I459" s="59" t="s">
+      <c r="I459" s="58" t="s">
         <v>1548</v>
       </c>
-      <c r="J459" s="59" t="s">
+      <c r="J459" s="58" t="s">
         <v>1549</v>
       </c>
-      <c r="L459" s="59">
+      <c r="L459" s="58">
         <v>-31</v>
       </c>
-      <c r="M459" s="59">
-        <v>0</v>
-      </c>
-      <c r="N459" s="59">
-        <v>0</v>
-      </c>
-      <c r="O459" s="59" t="s">
+      <c r="M459" s="58">
+        <v>0</v>
+      </c>
+      <c r="N459" s="58">
+        <v>0</v>
+      </c>
+      <c r="O459" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P459" s="59">
+      <c r="P459" s="58">
         <v>49800</v>
       </c>
-      <c r="Q459" s="59" t="s">
+      <c r="Q459" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R459" s="60" t="s">
+      <c r="R459" s="59" t="s">
         <v>1550</v>
       </c>
-      <c r="W459" s="59" t="s">
+      <c r="W459" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X459" s="59">
+      <c r="X459" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y459" s="59">
+      <c r="Y459" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z459" s="59">
+      <c r="Z459" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA459" s="59">
+      <c r="AA459" s="58">
         <v>60</v>
       </c>
-      <c r="AH459" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI459" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL459" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM459" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A460" s="59">
+      <c r="AH459" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI459" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL459" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM459" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="58">
         <v>459</v>
       </c>
-      <c r="B460" s="59">
+      <c r="B460" s="58">
         <v>10376</v>
       </c>
-      <c r="F460" s="59">
-        <v>1</v>
-      </c>
-      <c r="G460" s="59" t="s">
+      <c r="F460" s="58">
+        <v>1</v>
+      </c>
+      <c r="G460" s="58" t="s">
         <v>1551</v>
       </c>
-      <c r="I460" s="59" t="s">
+      <c r="I460" s="58" t="s">
         <v>1552</v>
       </c>
-      <c r="J460" s="59" t="s">
+      <c r="J460" s="58" t="s">
         <v>1553</v>
       </c>
-      <c r="L460" s="59">
+      <c r="L460" s="58">
         <v>-31</v>
       </c>
-      <c r="M460" s="59">
-        <v>0</v>
-      </c>
-      <c r="N460" s="59">
-        <v>0</v>
-      </c>
-      <c r="O460" s="59" t="s">
+      <c r="M460" s="58">
+        <v>0</v>
+      </c>
+      <c r="N460" s="58">
+        <v>0</v>
+      </c>
+      <c r="O460" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P460" s="59">
+      <c r="P460" s="58">
         <v>49800</v>
       </c>
-      <c r="Q460" s="59" t="s">
+      <c r="Q460" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R460" s="60" t="s">
+      <c r="R460" s="59" t="s">
         <v>1554</v>
       </c>
-      <c r="W460" s="59" t="s">
+      <c r="W460" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X460" s="59">
+      <c r="X460" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y460" s="59">
+      <c r="Y460" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z460" s="59">
+      <c r="Z460" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH460" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI460" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL460" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM460" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A461" s="59">
+      <c r="AH460" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI460" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL460" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM460" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="58">
         <v>460</v>
       </c>
-      <c r="B461" s="59">
+      <c r="B461" s="58">
         <v>10377</v>
       </c>
-      <c r="F461" s="59">
-        <v>1</v>
-      </c>
-      <c r="G461" s="59" t="s">
+      <c r="F461" s="58">
+        <v>1</v>
+      </c>
+      <c r="G461" s="58" t="s">
         <v>1555</v>
       </c>
-      <c r="I461" s="59" t="s">
+      <c r="I461" s="58" t="s">
         <v>1556</v>
       </c>
-      <c r="J461" s="59" t="s">
+      <c r="J461" s="58" t="s">
         <v>1557</v>
       </c>
-      <c r="L461" s="59">
+      <c r="L461" s="58">
         <v>-31</v>
       </c>
-      <c r="M461" s="59">
-        <v>0</v>
-      </c>
-      <c r="N461" s="59">
-        <v>0</v>
-      </c>
-      <c r="O461" s="59" t="s">
+      <c r="M461" s="58">
+        <v>0</v>
+      </c>
+      <c r="N461" s="58">
+        <v>0</v>
+      </c>
+      <c r="O461" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P461" s="59">
+      <c r="P461" s="58">
         <v>49800</v>
       </c>
-      <c r="Q461" s="59" t="s">
+      <c r="Q461" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R461" s="60" t="s">
+      <c r="R461" s="59" t="s">
         <v>1558</v>
       </c>
-      <c r="W461" s="59" t="s">
+      <c r="W461" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X461" s="59">
+      <c r="X461" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y461" s="59">
+      <c r="Y461" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z461" s="59">
+      <c r="Z461" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA461" s="59">
+      <c r="AA461" s="58">
         <v>61</v>
       </c>
-      <c r="AH461" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI461" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL461" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM461" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="59">
+      <c r="AH461" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI461" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL461" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM461" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="58">
         <v>461</v>
       </c>
-      <c r="B462" s="59">
+      <c r="B462" s="58">
         <v>10378</v>
       </c>
-      <c r="F462" s="59">
-        <v>1</v>
-      </c>
-      <c r="G462" s="59" t="s">
+      <c r="F462" s="58">
+        <v>1</v>
+      </c>
+      <c r="G462" s="58" t="s">
         <v>1559</v>
       </c>
-      <c r="I462" s="59" t="s">
+      <c r="I462" s="58" t="s">
         <v>1560</v>
       </c>
-      <c r="J462" s="59" t="s">
+      <c r="J462" s="58" t="s">
         <v>1561</v>
       </c>
-      <c r="L462" s="59">
+      <c r="L462" s="58">
         <v>-31</v>
       </c>
-      <c r="M462" s="59">
-        <v>0</v>
-      </c>
-      <c r="N462" s="59">
-        <v>0</v>
-      </c>
-      <c r="O462" s="59" t="s">
+      <c r="M462" s="58">
+        <v>0</v>
+      </c>
+      <c r="N462" s="58">
+        <v>0</v>
+      </c>
+      <c r="O462" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P462" s="59">
+      <c r="P462" s="58">
         <v>99800</v>
       </c>
-      <c r="Q462" s="59" t="s">
+      <c r="Q462" s="58" t="s">
         <v>991</v>
       </c>
-      <c r="R462" s="60" t="s">
+      <c r="R462" s="59" t="s">
         <v>1562</v>
       </c>
-      <c r="W462" s="59" t="s">
+      <c r="W462" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X462" s="59">
+      <c r="X462" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y462" s="59">
+      <c r="Y462" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z462" s="59">
+      <c r="Z462" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA462" s="59">
+      <c r="AA462" s="58">
         <v>62</v>
       </c>
-      <c r="AH462" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI462" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL462" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM462" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A463" s="59">
+      <c r="AH462" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI462" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL462" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM462" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="58">
         <v>462</v>
       </c>
-      <c r="B463" s="59">
+      <c r="B463" s="58">
         <v>10379</v>
       </c>
-      <c r="F463" s="59">
-        <v>1</v>
-      </c>
-      <c r="G463" s="59" t="s">
+      <c r="F463" s="58">
+        <v>1</v>
+      </c>
+      <c r="G463" s="58" t="s">
         <v>1563</v>
       </c>
-      <c r="I463" s="59" t="s">
+      <c r="I463" s="58" t="s">
         <v>1564</v>
       </c>
-      <c r="J463" s="59" t="s">
+      <c r="J463" s="58" t="s">
         <v>1565</v>
       </c>
-      <c r="L463" s="59">
+      <c r="L463" s="58">
         <v>-31</v>
       </c>
-      <c r="M463" s="59">
-        <v>0</v>
-      </c>
-      <c r="N463" s="59">
-        <v>0</v>
-      </c>
-      <c r="O463" s="59" t="s">
+      <c r="M463" s="58">
+        <v>0</v>
+      </c>
+      <c r="N463" s="58">
+        <v>0</v>
+      </c>
+      <c r="O463" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P463" s="59">
+      <c r="P463" s="58">
         <v>99800</v>
       </c>
-      <c r="Q463" s="59" t="s">
+      <c r="Q463" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R463" s="60" t="s">
+      <c r="R463" s="59" t="s">
         <v>1566</v>
       </c>
-      <c r="W463" s="59" t="s">
+      <c r="W463" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X463" s="59">
+      <c r="X463" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y463" s="59">
+      <c r="Y463" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z463" s="59">
+      <c r="Z463" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH463" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI463" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL463" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM463" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A464" s="59">
+      <c r="AH463" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI463" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL463" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM463" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="58">
         <v>463</v>
       </c>
-      <c r="B464" s="59">
+      <c r="B464" s="58">
         <v>10380</v>
       </c>
-      <c r="F464" s="59">
-        <v>1</v>
-      </c>
-      <c r="G464" s="59" t="s">
+      <c r="F464" s="58">
+        <v>1</v>
+      </c>
+      <c r="G464" s="58" t="s">
         <v>1567</v>
       </c>
-      <c r="I464" s="59" t="s">
+      <c r="I464" s="58" t="s">
         <v>1568</v>
       </c>
-      <c r="J464" s="59" t="s">
+      <c r="J464" s="58" t="s">
         <v>1569</v>
       </c>
-      <c r="L464" s="59">
+      <c r="L464" s="58">
         <v>-31</v>
       </c>
-      <c r="M464" s="59">
-        <v>0</v>
-      </c>
-      <c r="N464" s="59">
-        <v>0</v>
-      </c>
-      <c r="O464" s="59" t="s">
+      <c r="M464" s="58">
+        <v>0</v>
+      </c>
+      <c r="N464" s="58">
+        <v>0</v>
+      </c>
+      <c r="O464" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P464" s="59">
+      <c r="P464" s="58">
         <v>99800</v>
       </c>
-      <c r="Q464" s="59" t="s">
+      <c r="Q464" s="58" t="s">
         <v>991</v>
       </c>
-      <c r="R464" s="60" t="s">
+      <c r="R464" s="59" t="s">
         <v>1570</v>
       </c>
-      <c r="W464" s="59" t="s">
+      <c r="W464" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X464" s="59">
+      <c r="X464" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y464" s="59">
+      <c r="Y464" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z464" s="59">
+      <c r="Z464" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA464" s="59">
+      <c r="AA464" s="58">
         <v>63</v>
       </c>
-      <c r="AH464" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI464" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL464" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM464" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A465" s="59">
+      <c r="AH464" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI464" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL464" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM464" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="58">
         <v>464</v>
       </c>
-      <c r="B465" s="59">
+      <c r="B465" s="58">
         <v>10381</v>
       </c>
-      <c r="F465" s="59">
-        <v>1</v>
-      </c>
-      <c r="G465" s="59" t="s">
+      <c r="F465" s="58">
+        <v>1</v>
+      </c>
+      <c r="G465" s="58" t="s">
         <v>1571</v>
       </c>
-      <c r="I465" s="59" t="s">
+      <c r="I465" s="58" t="s">
         <v>1572</v>
       </c>
-      <c r="J465" s="59" t="s">
+      <c r="J465" s="58" t="s">
         <v>1573</v>
       </c>
-      <c r="L465" s="59">
+      <c r="L465" s="58">
         <v>-31</v>
       </c>
-      <c r="M465" s="59">
-        <v>0</v>
-      </c>
-      <c r="N465" s="59">
-        <v>0</v>
-      </c>
-      <c r="O465" s="59" t="s">
+      <c r="M465" s="58">
+        <v>0</v>
+      </c>
+      <c r="N465" s="58">
+        <v>0</v>
+      </c>
+      <c r="O465" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P465" s="59">
+      <c r="P465" s="58">
         <v>249800</v>
       </c>
-      <c r="Q465" s="59" t="s">
+      <c r="Q465" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R465" s="60" t="s">
+      <c r="R465" s="59" t="s">
         <v>1574</v>
       </c>
-      <c r="W465" s="59" t="s">
+      <c r="W465" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X465" s="59">
+      <c r="X465" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y465" s="59">
+      <c r="Y465" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z465" s="59">
+      <c r="Z465" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA465" s="59">
+      <c r="AA465" s="58">
         <v>64</v>
       </c>
-      <c r="AH465" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI465" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL465" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM465" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A466" s="59">
+      <c r="AH465" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI465" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL465" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM465" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="58">
         <v>465</v>
       </c>
-      <c r="B466" s="59">
+      <c r="B466" s="58">
         <v>10382</v>
       </c>
-      <c r="F466" s="59">
-        <v>1</v>
-      </c>
-      <c r="G466" s="59" t="s">
+      <c r="F466" s="58">
+        <v>1</v>
+      </c>
+      <c r="G466" s="58" t="s">
         <v>1575</v>
       </c>
-      <c r="I466" s="59" t="s">
+      <c r="I466" s="58" t="s">
         <v>1576</v>
       </c>
-      <c r="J466" s="59" t="s">
+      <c r="J466" s="58" t="s">
         <v>1577</v>
       </c>
-      <c r="L466" s="59">
+      <c r="L466" s="58">
         <v>-31</v>
       </c>
-      <c r="M466" s="59">
-        <v>0</v>
-      </c>
-      <c r="N466" s="59">
-        <v>0</v>
-      </c>
-      <c r="O466" s="59" t="s">
+      <c r="M466" s="58">
+        <v>0</v>
+      </c>
+      <c r="N466" s="58">
+        <v>0</v>
+      </c>
+      <c r="O466" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P466" s="59">
+      <c r="P466" s="58">
         <v>249800</v>
       </c>
-      <c r="Q466" s="59" t="s">
+      <c r="Q466" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R466" s="60" t="s">
+      <c r="R466" s="59" t="s">
         <v>1578</v>
       </c>
-      <c r="W466" s="59" t="s">
+      <c r="W466" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X466" s="59">
+      <c r="X466" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y466" s="59">
+      <c r="Y466" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z466" s="59">
+      <c r="Z466" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH466" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI466" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL466" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM466" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A467" s="59">
+      <c r="AH466" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI466" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL466" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM466" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="58">
         <v>466</v>
       </c>
-      <c r="B467" s="59">
+      <c r="B467" s="58">
         <v>10383</v>
       </c>
-      <c r="F467" s="59">
-        <v>1</v>
-      </c>
-      <c r="G467" s="59" t="s">
+      <c r="F467" s="58">
+        <v>1</v>
+      </c>
+      <c r="G467" s="58" t="s">
         <v>1579</v>
       </c>
-      <c r="I467" s="59" t="s">
+      <c r="I467" s="58" t="s">
         <v>1580</v>
       </c>
-      <c r="J467" s="59" t="s">
+      <c r="J467" s="58" t="s">
         <v>1581</v>
       </c>
-      <c r="L467" s="59">
+      <c r="L467" s="58">
         <v>-31</v>
       </c>
-      <c r="M467" s="59">
-        <v>0</v>
-      </c>
-      <c r="N467" s="59">
-        <v>0</v>
-      </c>
-      <c r="O467" s="59" t="s">
+      <c r="M467" s="58">
+        <v>0</v>
+      </c>
+      <c r="N467" s="58">
+        <v>0</v>
+      </c>
+      <c r="O467" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P467" s="59">
+      <c r="P467" s="58">
         <v>249800</v>
       </c>
-      <c r="Q467" s="59" t="s">
+      <c r="Q467" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R467" s="60" t="s">
+      <c r="R467" s="59" t="s">
         <v>1582</v>
       </c>
-      <c r="W467" s="59" t="s">
+      <c r="W467" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X467" s="59">
+      <c r="X467" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y467" s="59">
+      <c r="Y467" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z467" s="59">
+      <c r="Z467" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA467" s="59">
+      <c r="AA467" s="58">
         <v>65</v>
       </c>
-      <c r="AH467" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI467" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL467" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM467" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A468" s="59">
+      <c r="AH467" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI467" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL467" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM467" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="58">
         <v>467</v>
       </c>
-      <c r="B468" s="59">
+      <c r="B468" s="58">
         <v>10384</v>
       </c>
-      <c r="F468" s="59">
-        <v>1</v>
-      </c>
-      <c r="G468" s="59" t="s">
+      <c r="F468" s="58">
+        <v>1</v>
+      </c>
+      <c r="G468" s="58" t="s">
         <v>1583</v>
       </c>
-      <c r="I468" s="59" t="s">
+      <c r="I468" s="58" t="s">
         <v>1584</v>
       </c>
-      <c r="J468" s="59" t="s">
+      <c r="J468" s="58" t="s">
         <v>1585</v>
       </c>
-      <c r="L468" s="59">
+      <c r="L468" s="58">
         <v>-31</v>
       </c>
-      <c r="M468" s="59">
-        <v>0</v>
-      </c>
-      <c r="N468" s="59">
-        <v>0</v>
-      </c>
-      <c r="O468" s="59" t="s">
+      <c r="M468" s="58">
+        <v>0</v>
+      </c>
+      <c r="N468" s="58">
+        <v>0</v>
+      </c>
+      <c r="O468" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P468" s="59">
+      <c r="P468" s="58">
         <v>600</v>
       </c>
-      <c r="Q468" s="59" t="s">
+      <c r="Q468" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R468" s="60" t="s">
+      <c r="R468" s="59" t="s">
         <v>1586</v>
       </c>
-      <c r="W468" s="59" t="s">
+      <c r="W468" s="58" t="s">
         <v>1588</v>
       </c>
-      <c r="X468" s="59">
+      <c r="X468" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y468" s="59">
+      <c r="Y468" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z468" s="59">
+      <c r="Z468" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH468" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI468" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL468" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM468" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A469" s="59">
+      <c r="AH468" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI468" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL468" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM468" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="58">
         <v>468</v>
       </c>
-      <c r="B469" s="59">
+      <c r="B469" s="58">
         <v>10385</v>
       </c>
-      <c r="F469" s="59">
-        <v>1</v>
-      </c>
-      <c r="G469" s="59" t="s">
+      <c r="F469" s="58">
+        <v>1</v>
+      </c>
+      <c r="G469" s="58" t="s">
         <v>1589</v>
       </c>
-      <c r="I469" s="59" t="s">
+      <c r="I469" s="58" t="s">
         <v>1590</v>
       </c>
-      <c r="J469" s="59" t="s">
+      <c r="J469" s="58" t="s">
         <v>1591</v>
       </c>
-      <c r="L469" s="59">
+      <c r="L469" s="58">
         <v>-31</v>
       </c>
-      <c r="M469" s="59">
-        <v>0</v>
-      </c>
-      <c r="N469" s="59">
-        <v>0</v>
-      </c>
-      <c r="O469" s="59" t="s">
+      <c r="M469" s="58">
+        <v>0</v>
+      </c>
+      <c r="N469" s="58">
+        <v>0</v>
+      </c>
+      <c r="O469" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P469" s="59">
+      <c r="P469" s="58">
         <v>3000</v>
       </c>
-      <c r="Q469" s="59" t="s">
+      <c r="Q469" s="58" t="s">
         <v>991</v>
       </c>
-      <c r="R469" s="60" t="s">
+      <c r="R469" s="59" t="s">
         <v>1592</v>
       </c>
-      <c r="W469" s="59" t="s">
+      <c r="W469" s="58" t="s">
         <v>1587</v>
       </c>
-      <c r="X469" s="59">
+      <c r="X469" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y469" s="59">
+      <c r="Y469" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z469" s="59">
+      <c r="Z469" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH469" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI469" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL469" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM469" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A470" s="59">
+      <c r="AH469" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI469" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL469" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM469" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="58">
         <v>469</v>
       </c>
-      <c r="B470" s="59">
+      <c r="B470" s="58">
         <v>10386</v>
       </c>
-      <c r="F470" s="59">
-        <v>1</v>
-      </c>
-      <c r="G470" s="59" t="s">
+      <c r="F470" s="58">
+        <v>1</v>
+      </c>
+      <c r="G470" s="58" t="s">
         <v>1593</v>
       </c>
-      <c r="I470" s="59" t="s">
+      <c r="I470" s="58" t="s">
         <v>1590</v>
       </c>
-      <c r="J470" s="59" t="s">
+      <c r="J470" s="58" t="s">
         <v>1594</v>
       </c>
-      <c r="L470" s="59">
+      <c r="L470" s="58">
         <v>-31</v>
       </c>
-      <c r="M470" s="59">
-        <v>0</v>
-      </c>
-      <c r="N470" s="59">
-        <v>0</v>
-      </c>
-      <c r="O470" s="59" t="s">
+      <c r="M470" s="58">
+        <v>0</v>
+      </c>
+      <c r="N470" s="58">
+        <v>0</v>
+      </c>
+      <c r="O470" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P470" s="59">
+      <c r="P470" s="58">
         <v>6800</v>
       </c>
-      <c r="Q470" s="59" t="s">
+      <c r="Q470" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R470" s="60" t="s">
+      <c r="R470" s="59" t="s">
         <v>1595</v>
       </c>
-      <c r="W470" s="59" t="s">
+      <c r="W470" s="58" t="s">
         <v>1588</v>
       </c>
-      <c r="X470" s="59">
+      <c r="X470" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y470" s="59">
+      <c r="Y470" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z470" s="59">
+      <c r="Z470" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH470" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI470" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL470" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM470" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A471" s="59">
+      <c r="AH470" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI470" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL470" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM470" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="58">
         <v>470</v>
       </c>
-      <c r="B471" s="59">
+      <c r="B471" s="58">
         <v>10387</v>
       </c>
-      <c r="F471" s="59">
-        <v>1</v>
-      </c>
-      <c r="G471" s="59" t="s">
+      <c r="F471" s="58">
+        <v>1</v>
+      </c>
+      <c r="G471" s="58" t="s">
         <v>1596</v>
       </c>
-      <c r="I471" s="59" t="s">
+      <c r="I471" s="58" t="s">
         <v>1584</v>
       </c>
-      <c r="J471" s="59" t="s">
+      <c r="J471" s="58" t="s">
         <v>1597</v>
       </c>
-      <c r="L471" s="59">
+      <c r="L471" s="58">
         <v>-31</v>
       </c>
-      <c r="M471" s="59">
-        <v>0</v>
-      </c>
-      <c r="N471" s="59">
-        <v>0</v>
-      </c>
-      <c r="O471" s="59" t="s">
+      <c r="M471" s="58">
+        <v>0</v>
+      </c>
+      <c r="N471" s="58">
+        <v>0</v>
+      </c>
+      <c r="O471" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P471" s="59">
+      <c r="P471" s="58">
         <v>9800</v>
       </c>
-      <c r="Q471" s="59" t="s">
+      <c r="Q471" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R471" s="60" t="s">
+      <c r="R471" s="59" t="s">
         <v>1598</v>
       </c>
-      <c r="W471" s="59" t="s">
+      <c r="W471" s="58" t="s">
         <v>1599</v>
       </c>
-      <c r="X471" s="59">
+      <c r="X471" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y471" s="59">
+      <c r="Y471" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z471" s="59">
+      <c r="Z471" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH471" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI471" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL471" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM471" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A472" s="59">
+      <c r="AH471" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI471" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL471" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM471" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="58">
         <v>471</v>
       </c>
-      <c r="B472" s="59">
+      <c r="B472" s="58">
         <v>10388</v>
       </c>
-      <c r="F472" s="59">
-        <v>1</v>
-      </c>
-      <c r="G472" s="59" t="s">
+      <c r="F472" s="58">
+        <v>1</v>
+      </c>
+      <c r="G472" s="58" t="s">
         <v>1600</v>
       </c>
-      <c r="I472" s="59" t="s">
+      <c r="I472" s="58" t="s">
         <v>1584</v>
       </c>
-      <c r="J472" s="59" t="s">
+      <c r="J472" s="58" t="s">
         <v>1601</v>
       </c>
-      <c r="L472" s="59">
+      <c r="L472" s="58">
         <v>-31</v>
       </c>
-      <c r="M472" s="59">
-        <v>0</v>
-      </c>
-      <c r="N472" s="59">
-        <v>0</v>
-      </c>
-      <c r="O472" s="59" t="s">
+      <c r="M472" s="58">
+        <v>0</v>
+      </c>
+      <c r="N472" s="58">
+        <v>0</v>
+      </c>
+      <c r="O472" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P472" s="59">
+      <c r="P472" s="58">
         <v>19800</v>
       </c>
-      <c r="Q472" s="59" t="s">
+      <c r="Q472" s="58" t="s">
         <v>991</v>
       </c>
-      <c r="R472" s="60" t="s">
+      <c r="R472" s="59" t="s">
         <v>1602</v>
       </c>
-      <c r="W472" s="59" t="s">
+      <c r="W472" s="58" t="s">
         <v>1599</v>
       </c>
-      <c r="X472" s="59">
+      <c r="X472" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y472" s="59">
+      <c r="Y472" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z472" s="59">
+      <c r="Z472" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH472" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI472" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL472" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM472" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A473" s="59">
+      <c r="AH472" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI472" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL472" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM472" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="58">
         <v>472</v>
       </c>
-      <c r="B473" s="59">
+      <c r="B473" s="58">
         <v>10389</v>
       </c>
-      <c r="F473" s="59">
-        <v>1</v>
-      </c>
-      <c r="G473" s="59" t="s">
+      <c r="F473" s="58">
+        <v>1</v>
+      </c>
+      <c r="G473" s="58" t="s">
         <v>1603</v>
       </c>
-      <c r="I473" s="59" t="s">
+      <c r="I473" s="58" t="s">
         <v>1590</v>
       </c>
-      <c r="J473" s="59" t="s">
+      <c r="J473" s="58" t="s">
         <v>1604</v>
       </c>
-      <c r="L473" s="59">
+      <c r="L473" s="58">
         <v>-31</v>
       </c>
-      <c r="M473" s="59">
-        <v>0</v>
-      </c>
-      <c r="N473" s="59">
-        <v>0</v>
-      </c>
-      <c r="O473" s="59" t="s">
+      <c r="M473" s="58">
+        <v>0</v>
+      </c>
+      <c r="N473" s="58">
+        <v>0</v>
+      </c>
+      <c r="O473" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P473" s="59">
+      <c r="P473" s="58">
         <v>49800</v>
       </c>
-      <c r="Q473" s="59" t="s">
+      <c r="Q473" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R473" s="60" t="s">
+      <c r="R473" s="59" t="s">
         <v>1605</v>
       </c>
-      <c r="W473" s="59" t="s">
+      <c r="W473" s="58" t="s">
         <v>1599</v>
       </c>
-      <c r="X473" s="59">
+      <c r="X473" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y473" s="59">
+      <c r="Y473" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z473" s="59">
+      <c r="Z473" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH473" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI473" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL473" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM473" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A474" s="59">
+      <c r="AH473" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI473" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL473" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM473" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="58">
         <v>473</v>
       </c>
-      <c r="B474" s="59">
+      <c r="B474" s="58">
         <v>10390</v>
       </c>
-      <c r="F474" s="59">
-        <v>1</v>
-      </c>
-      <c r="G474" s="59" t="s">
+      <c r="F474" s="58">
+        <v>1</v>
+      </c>
+      <c r="G474" s="58" t="s">
         <v>1606</v>
       </c>
-      <c r="I474" s="59" t="s">
+      <c r="I474" s="58" t="s">
         <v>1590</v>
       </c>
-      <c r="J474" s="59" t="s">
+      <c r="J474" s="58" t="s">
         <v>1607</v>
       </c>
-      <c r="L474" s="59">
+      <c r="L474" s="58">
         <v>-31</v>
       </c>
-      <c r="M474" s="59">
-        <v>0</v>
-      </c>
-      <c r="N474" s="59">
-        <v>0</v>
-      </c>
-      <c r="O474" s="59" t="s">
+      <c r="M474" s="58">
+        <v>0</v>
+      </c>
+      <c r="N474" s="58">
+        <v>0</v>
+      </c>
+      <c r="O474" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P474" s="59">
+      <c r="P474" s="58">
         <v>99800</v>
       </c>
-      <c r="Q474" s="59" t="s">
+      <c r="Q474" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R474" s="60" t="s">
+      <c r="R474" s="59" t="s">
         <v>1608</v>
       </c>
-      <c r="W474" s="59" t="s">
+      <c r="W474" s="58" t="s">
         <v>1599</v>
       </c>
-      <c r="X474" s="59">
+      <c r="X474" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y474" s="59">
+      <c r="Y474" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z474" s="59">
+      <c r="Z474" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH474" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI474" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL474" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM474" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A475" s="59">
+      <c r="AH474" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI474" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL474" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM474" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="58">
         <v>474</v>
       </c>
-      <c r="B475" s="59">
+      <c r="B475" s="58">
         <v>10391</v>
       </c>
-      <c r="F475" s="59">
-        <v>1</v>
-      </c>
-      <c r="G475" s="59" t="s">
+      <c r="F475" s="58">
+        <v>1</v>
+      </c>
+      <c r="G475" s="58" t="s">
         <v>1609</v>
       </c>
-      <c r="I475" s="59" t="s">
+      <c r="I475" s="58" t="s">
         <v>1590</v>
       </c>
-      <c r="J475" s="59" t="s">
+      <c r="J475" s="58" t="s">
         <v>1669</v>
       </c>
-      <c r="L475" s="59">
+      <c r="L475" s="58">
         <v>-31</v>
       </c>
-      <c r="M475" s="59">
-        <v>0</v>
-      </c>
-      <c r="N475" s="59">
-        <v>0</v>
-      </c>
-      <c r="O475" s="59" t="s">
+      <c r="M475" s="58">
+        <v>0</v>
+      </c>
+      <c r="N475" s="58">
+        <v>0</v>
+      </c>
+      <c r="O475" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P475" s="59">
+      <c r="P475" s="58">
         <v>249800</v>
       </c>
-      <c r="Q475" s="59" t="s">
+      <c r="Q475" s="58" t="s">
         <v>1501</v>
       </c>
-      <c r="R475" s="60" t="s">
+      <c r="R475" s="59" t="s">
         <v>1668</v>
       </c>
-      <c r="W475" s="59" t="s">
+      <c r="W475" s="58" t="s">
         <v>1599</v>
       </c>
-      <c r="X475" s="59">
+      <c r="X475" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y475" s="59">
+      <c r="Y475" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z475" s="59">
+      <c r="Z475" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH475" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI475" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL475" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM475" s="59">
+      <c r="AH475" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI475" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL475" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM475" s="58">
         <v>1</v>
       </c>
     </row>
@@ -43409,263 +43423,263 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A493" s="59">
+    <row r="493" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A493" s="58">
         <v>492</v>
       </c>
-      <c r="B493" s="59">
+      <c r="B493" s="58">
         <v>10409</v>
       </c>
-      <c r="F493" s="59">
-        <v>1</v>
-      </c>
-      <c r="G493" s="59" t="s">
+      <c r="F493" s="58">
+        <v>1</v>
+      </c>
+      <c r="G493" s="58" t="s">
         <v>1853</v>
       </c>
-      <c r="I493" s="59" t="s">
+      <c r="I493" s="58" t="s">
         <v>1854</v>
       </c>
-      <c r="J493" s="59" t="s">
+      <c r="J493" s="58" t="s">
         <v>1855</v>
       </c>
-      <c r="L493" s="59">
+      <c r="L493" s="58">
         <v>-31</v>
       </c>
-      <c r="M493" s="59">
-        <v>0</v>
-      </c>
-      <c r="N493" s="59">
-        <v>0</v>
-      </c>
-      <c r="O493" s="59" t="s">
+      <c r="M493" s="58">
+        <v>0</v>
+      </c>
+      <c r="N493" s="58">
+        <v>0</v>
+      </c>
+      <c r="O493" s="58" t="s">
         <v>1856</v>
       </c>
-      <c r="P493" s="59">
+      <c r="P493" s="58">
         <v>49800</v>
       </c>
-      <c r="Q493" s="59" t="s">
+      <c r="Q493" s="58" t="s">
         <v>1857</v>
       </c>
-      <c r="R493" s="60" t="s">
+      <c r="R493" s="59" t="s">
         <v>1859</v>
       </c>
-      <c r="W493" s="59" t="s">
+      <c r="W493" s="58" t="s">
         <v>524</v>
       </c>
-      <c r="X493" s="59">
+      <c r="X493" s="58">
         <v>200</v>
       </c>
-      <c r="Y493" s="59">
+      <c r="Y493" s="58">
         <v>1609200000</v>
       </c>
-      <c r="Z493" s="59">
+      <c r="Z493" s="58">
         <v>1609775999</v>
       </c>
-      <c r="AH493" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI493" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL493" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM493" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A494" s="59">
+      <c r="AH493" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI493" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL493" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM493" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A494" s="58">
         <v>493</v>
       </c>
-      <c r="B494" s="59">
+      <c r="B494" s="58">
         <v>10410</v>
       </c>
-      <c r="F494" s="59">
-        <v>1</v>
-      </c>
-      <c r="G494" s="59" t="s">
+      <c r="F494" s="58">
+        <v>1</v>
+      </c>
+      <c r="G494" s="58" t="s">
         <v>1853</v>
       </c>
-      <c r="I494" s="59" t="s">
+      <c r="I494" s="58" t="s">
         <v>1858</v>
       </c>
-      <c r="J494" s="59" t="s">
+      <c r="J494" s="58" t="s">
         <v>1855</v>
       </c>
-      <c r="L494" s="59">
+      <c r="L494" s="58">
         <v>-31</v>
       </c>
-      <c r="M494" s="59">
-        <v>0</v>
-      </c>
-      <c r="N494" s="59">
-        <v>0</v>
-      </c>
-      <c r="O494" s="59" t="s">
+      <c r="M494" s="58">
+        <v>0</v>
+      </c>
+      <c r="N494" s="58">
+        <v>0</v>
+      </c>
+      <c r="O494" s="58" t="s">
         <v>1856</v>
       </c>
-      <c r="P494" s="59">
+      <c r="P494" s="58">
         <v>99800</v>
       </c>
-      <c r="Q494" s="59" t="s">
+      <c r="Q494" s="58" t="s">
         <v>1857</v>
       </c>
-      <c r="R494" s="60" t="s">
+      <c r="R494" s="59" t="s">
         <v>1859</v>
       </c>
-      <c r="W494" s="59" t="s">
+      <c r="W494" s="58" t="s">
         <v>524</v>
       </c>
-      <c r="X494" s="59">
+      <c r="X494" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y494" s="59">
+      <c r="Y494" s="58">
         <v>1609200000</v>
       </c>
-      <c r="Z494" s="59">
+      <c r="Z494" s="58">
         <v>1609775999</v>
       </c>
-      <c r="AH494" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI494" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL494" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM494" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="495" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A495" s="59">
+      <c r="AH494" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI494" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL494" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM494" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A495" s="58">
         <v>494</v>
       </c>
-      <c r="B495" s="59">
+      <c r="B495" s="58">
         <v>10411</v>
       </c>
-      <c r="F495" s="59">
-        <v>1</v>
-      </c>
-      <c r="G495" s="59" t="s">
+      <c r="F495" s="58">
+        <v>1</v>
+      </c>
+      <c r="G495" s="58" t="s">
         <v>1869</v>
       </c>
-      <c r="J495" s="59" t="s">
+      <c r="J495" s="58" t="s">
         <v>1870</v>
       </c>
-      <c r="L495" s="59">
+      <c r="L495" s="58">
         <v>-31</v>
       </c>
-      <c r="M495" s="59">
-        <v>0</v>
-      </c>
-      <c r="N495" s="59">
-        <v>0</v>
-      </c>
-      <c r="O495" s="59" t="s">
+      <c r="M495" s="58">
+        <v>0</v>
+      </c>
+      <c r="N495" s="58">
+        <v>0</v>
+      </c>
+      <c r="O495" s="58" t="s">
         <v>1871</v>
       </c>
-      <c r="P495" s="59">
+      <c r="P495" s="58">
         <v>79800</v>
       </c>
-      <c r="Q495" s="59" t="s">
+      <c r="Q495" s="58" t="s">
         <v>1626</v>
       </c>
-      <c r="R495" s="60" t="s">
+      <c r="R495" s="59" t="s">
         <v>1872</v>
       </c>
-      <c r="W495" s="59" t="s">
+      <c r="W495" s="58" t="s">
         <v>568</v>
       </c>
-      <c r="X495" s="59">
+      <c r="X495" s="58">
         <v>99999999</v>
       </c>
-      <c r="Y495" s="59">
+      <c r="Y495" s="58">
         <v>1592263800</v>
       </c>
-      <c r="Z495" s="59">
+      <c r="Z495" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA495" s="59">
+      <c r="AA495" s="58">
         <v>14</v>
       </c>
-      <c r="AH495" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI495" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL495" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM495" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A496" s="59">
+      <c r="AH495" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI495" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL495" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM495" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A496" s="58">
         <v>495</v>
       </c>
-      <c r="B496" s="59">
+      <c r="B496" s="58">
         <v>10412</v>
       </c>
-      <c r="F496" s="59">
-        <v>1</v>
-      </c>
-      <c r="G496" s="59" t="s">
+      <c r="F496" s="58">
+        <v>1</v>
+      </c>
+      <c r="G496" s="58" t="s">
         <v>1873</v>
       </c>
-      <c r="J496" s="59" t="s">
+      <c r="J496" s="58" t="s">
         <v>1874</v>
       </c>
-      <c r="L496" s="59">
+      <c r="L496" s="58">
         <v>-31</v>
       </c>
-      <c r="M496" s="59">
-        <v>0</v>
-      </c>
-      <c r="N496" s="59">
-        <v>0</v>
-      </c>
-      <c r="O496" s="59" t="s">
+      <c r="M496" s="58">
+        <v>0</v>
+      </c>
+      <c r="N496" s="58">
+        <v>0</v>
+      </c>
+      <c r="O496" s="58" t="s">
         <v>1871</v>
       </c>
-      <c r="P496" s="59">
+      <c r="P496" s="58">
         <v>89800</v>
       </c>
-      <c r="Q496" s="59" t="s">
+      <c r="Q496" s="58" t="s">
         <v>1875</v>
       </c>
-      <c r="R496" s="60" t="s">
+      <c r="R496" s="59" t="s">
         <v>1876</v>
       </c>
-      <c r="W496" s="59" t="s">
+      <c r="W496" s="58" t="s">
         <v>1877</v>
       </c>
-      <c r="X496" s="59">
+      <c r="X496" s="58">
         <v>99999999</v>
       </c>
-      <c r="Y496" s="59">
+      <c r="Y496" s="58">
         <v>1592263800</v>
       </c>
-      <c r="Z496" s="59">
+      <c r="Z496" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA496" s="59">
+      <c r="AA496" s="58">
         <v>14</v>
       </c>
-      <c r="AH496" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI496" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL496" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM496" s="59">
+      <c r="AH496" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI496" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL496" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM496" s="58">
         <v>1</v>
       </c>
     </row>
@@ -43706,7 +43720,7 @@
       <c r="Q497" s="5" t="s">
         <v>1884</v>
       </c>
-      <c r="R497" s="63" t="s">
+      <c r="R497" s="62" t="s">
         <v>2004</v>
       </c>
       <c r="W497" s="47" t="s">
@@ -43774,7 +43788,7 @@
       <c r="Q498" s="5" t="s">
         <v>1884</v>
       </c>
-      <c r="R498" s="63" t="s">
+      <c r="R498" s="62" t="s">
         <v>2005</v>
       </c>
       <c r="W498" s="47" t="s">
@@ -43842,7 +43856,7 @@
       <c r="Q499" s="5" t="s">
         <v>1884</v>
       </c>
-      <c r="R499" s="63" t="s">
+      <c r="R499" s="62" t="s">
         <v>2006</v>
       </c>
       <c r="W499" s="47" t="s">
@@ -43910,7 +43924,7 @@
       <c r="Q500" s="5" t="s">
         <v>1884</v>
       </c>
-      <c r="R500" s="63" t="s">
+      <c r="R500" s="62" t="s">
         <v>2007</v>
       </c>
       <c r="W500" s="47" t="s">
@@ -43978,7 +43992,7 @@
       <c r="Q501" s="5" t="s">
         <v>1884</v>
       </c>
-      <c r="R501" s="63" t="s">
+      <c r="R501" s="62" t="s">
         <v>2008</v>
       </c>
       <c r="W501" s="47" t="s">
@@ -44046,7 +44060,7 @@
       <c r="Q502" s="5" t="s">
         <v>1884</v>
       </c>
-      <c r="R502" s="63" t="s">
+      <c r="R502" s="62" t="s">
         <v>2009</v>
       </c>
       <c r="W502" s="47" t="s">
@@ -44114,7 +44128,7 @@
       <c r="Q503" s="5" t="s">
         <v>1894</v>
       </c>
-      <c r="R503" s="64" t="s">
+      <c r="R503" s="63" t="s">
         <v>2010</v>
       </c>
       <c r="W503" s="47" t="s">
@@ -44182,7 +44196,7 @@
       <c r="Q504" s="5" t="s">
         <v>1894</v>
       </c>
-      <c r="R504" s="64" t="s">
+      <c r="R504" s="63" t="s">
         <v>2005</v>
       </c>
       <c r="W504" s="47" t="s">
@@ -44250,7 +44264,7 @@
       <c r="Q505" s="5" t="s">
         <v>1894</v>
       </c>
-      <c r="R505" s="64" t="s">
+      <c r="R505" s="63" t="s">
         <v>2011</v>
       </c>
       <c r="W505" s="47" t="s">
@@ -44318,7 +44332,7 @@
       <c r="Q506" s="5" t="s">
         <v>1898</v>
       </c>
-      <c r="R506" s="64" t="s">
+      <c r="R506" s="63" t="s">
         <v>2012</v>
       </c>
       <c r="W506" s="47" t="s">
@@ -44386,7 +44400,7 @@
       <c r="Q507" s="5" t="s">
         <v>1898</v>
       </c>
-      <c r="R507" s="64" t="s">
+      <c r="R507" s="63" t="s">
         <v>2013</v>
       </c>
       <c r="W507" s="47" t="s">
@@ -44454,7 +44468,7 @@
       <c r="Q508" s="5" t="s">
         <v>1898</v>
       </c>
-      <c r="R508" s="64" t="s">
+      <c r="R508" s="63" t="s">
         <v>2014</v>
       </c>
       <c r="W508" s="47" t="s">
@@ -44485,183 +44499,183 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A509" s="59">
+    <row r="509" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="58">
         <v>508</v>
       </c>
-      <c r="B509" s="59">
+      <c r="B509" s="58">
         <v>10425</v>
       </c>
-      <c r="F509" s="59">
-        <v>1</v>
-      </c>
-      <c r="G509" s="59" t="s">
+      <c r="F509" s="58">
+        <v>1</v>
+      </c>
+      <c r="G509" s="58" t="s">
         <v>1901</v>
       </c>
-      <c r="J509" s="59" t="s">
+      <c r="J509" s="58" t="s">
         <v>1902</v>
       </c>
-      <c r="L509" s="59">
+      <c r="L509" s="58">
         <v>-4</v>
       </c>
-      <c r="M509" s="59">
-        <v>1</v>
-      </c>
-      <c r="N509" s="59">
-        <v>0</v>
-      </c>
-      <c r="O509" s="59" t="s">
+      <c r="M509" s="58">
+        <v>1</v>
+      </c>
+      <c r="N509" s="58">
+        <v>0</v>
+      </c>
+      <c r="O509" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P509" s="59">
+      <c r="P509" s="58">
         <v>1800</v>
       </c>
-      <c r="R509" s="60"/>
-      <c r="W509" s="59" t="s">
+      <c r="R509" s="59"/>
+      <c r="W509" s="58" t="s">
         <v>525</v>
       </c>
-      <c r="X509" s="61" t="s">
+      <c r="X509" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="Y509" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z509" s="59">
+      <c r="Y509" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z509" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AB509" s="59" t="s">
+      <c r="AB509" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="AC509" s="59" t="s">
+      <c r="AC509" s="58" t="s">
         <v>1903</v>
       </c>
-      <c r="AD509" s="60" t="s">
+      <c r="AD509" s="59" t="s">
         <v>1904</v>
       </c>
-      <c r="AH509" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI509" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="510" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A510" s="59">
+      <c r="AH509" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI509" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A510" s="58">
         <v>509</v>
       </c>
-      <c r="B510" s="59">
+      <c r="B510" s="58">
         <v>10426</v>
       </c>
-      <c r="F510" s="59">
-        <v>1</v>
-      </c>
-      <c r="G510" s="59" t="s">
+      <c r="F510" s="58">
+        <v>1</v>
+      </c>
+      <c r="G510" s="58" t="s">
         <v>1905</v>
       </c>
-      <c r="J510" s="59" t="s">
+      <c r="J510" s="58" t="s">
         <v>1906</v>
       </c>
-      <c r="L510" s="59">
+      <c r="L510" s="58">
         <v>-4</v>
       </c>
-      <c r="M510" s="59">
-        <v>1</v>
-      </c>
-      <c r="N510" s="59">
-        <v>0</v>
-      </c>
-      <c r="O510" s="59" t="s">
+      <c r="M510" s="58">
+        <v>1</v>
+      </c>
+      <c r="N510" s="58">
+        <v>0</v>
+      </c>
+      <c r="O510" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P510" s="59">
+      <c r="P510" s="58">
         <v>4800</v>
       </c>
-      <c r="R510" s="60"/>
-      <c r="W510" s="59" t="s">
+      <c r="R510" s="59"/>
+      <c r="W510" s="58" t="s">
         <v>525</v>
       </c>
-      <c r="X510" s="61" t="s">
+      <c r="X510" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="Y510" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z510" s="59">
+      <c r="Y510" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z510" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AB510" s="59" t="s">
+      <c r="AB510" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="AC510" s="59" t="s">
+      <c r="AC510" s="58" t="s">
         <v>1907</v>
       </c>
-      <c r="AD510" s="60" t="s">
+      <c r="AD510" s="59" t="s">
         <v>1908</v>
       </c>
-      <c r="AH510" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI510" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="511" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A511" s="59">
+      <c r="AH510" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI510" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A511" s="58">
         <v>510</v>
       </c>
-      <c r="B511" s="59">
+      <c r="B511" s="58">
         <v>10427</v>
       </c>
-      <c r="F511" s="59">
-        <v>1</v>
-      </c>
-      <c r="G511" s="59" t="s">
+      <c r="F511" s="58">
+        <v>1</v>
+      </c>
+      <c r="G511" s="58" t="s">
         <v>1909</v>
       </c>
-      <c r="J511" s="59" t="s">
+      <c r="J511" s="58" t="s">
         <v>1910</v>
       </c>
-      <c r="L511" s="59">
+      <c r="L511" s="58">
         <v>-4</v>
       </c>
-      <c r="M511" s="59">
-        <v>1</v>
-      </c>
-      <c r="N511" s="59">
-        <v>0</v>
-      </c>
-      <c r="O511" s="59" t="s">
+      <c r="M511" s="58">
+        <v>1</v>
+      </c>
+      <c r="N511" s="58">
+        <v>0</v>
+      </c>
+      <c r="O511" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P511" s="59">
+      <c r="P511" s="58">
         <v>9800</v>
       </c>
-      <c r="R511" s="60"/>
-      <c r="W511" s="59" t="s">
+      <c r="R511" s="59"/>
+      <c r="W511" s="58" t="s">
         <v>525</v>
       </c>
-      <c r="X511" s="61" t="s">
+      <c r="X511" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="Y511" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z511" s="59">
+      <c r="Y511" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z511" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AB511" s="59" t="s">
+      <c r="AB511" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="AC511" s="59" t="s">
+      <c r="AC511" s="58" t="s">
         <v>1911</v>
       </c>
-      <c r="AD511" s="60" t="s">
+      <c r="AD511" s="59" t="s">
         <v>1912</v>
       </c>
-      <c r="AH511" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI511" s="59">
+      <c r="AH511" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI511" s="58">
         <v>1</v>
       </c>
     </row>
@@ -47735,7 +47749,7 @@
       <c r="Q557" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R557" s="65" t="s">
+      <c r="R557" s="64" t="s">
         <v>2103</v>
       </c>
       <c r="W557" s="5" t="s">
@@ -47801,7 +47815,7 @@
       <c r="Q558" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R558" s="65" t="s">
+      <c r="R558" s="64" t="s">
         <v>2104</v>
       </c>
       <c r="W558" s="5" t="s">
@@ -47867,7 +47881,7 @@
       <c r="Q559" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R559" s="65" t="s">
+      <c r="R559" s="64" t="s">
         <v>2105</v>
       </c>
       <c r="W559" s="5" t="s">
@@ -47933,7 +47947,7 @@
       <c r="Q560" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R560" s="65" t="s">
+      <c r="R560" s="64" t="s">
         <v>2103</v>
       </c>
       <c r="W560" s="5" t="s">
@@ -47999,7 +48013,7 @@
       <c r="Q561" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R561" s="65" t="s">
+      <c r="R561" s="64" t="s">
         <v>2106</v>
       </c>
       <c r="W561" s="5" t="s">
@@ -48065,7 +48079,7 @@
       <c r="Q562" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R562" s="65" t="s">
+      <c r="R562" s="64" t="s">
         <v>2107</v>
       </c>
       <c r="W562" s="5" t="s">
@@ -48131,7 +48145,7 @@
       <c r="Q563" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R563" s="65" t="s">
+      <c r="R563" s="64" t="s">
         <v>2103</v>
       </c>
       <c r="W563" s="5" t="s">
@@ -48197,7 +48211,7 @@
       <c r="Q564" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R564" s="65" t="s">
+      <c r="R564" s="64" t="s">
         <v>2105</v>
       </c>
       <c r="W564" s="5" t="s">
@@ -48263,7 +48277,7 @@
       <c r="Q565" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R565" s="65" t="s">
+      <c r="R565" s="64" t="s">
         <v>2108</v>
       </c>
       <c r="W565" s="5" t="s">
@@ -48329,7 +48343,7 @@
       <c r="Q566" s="22" t="s">
         <v>2117</v>
       </c>
-      <c r="R566" s="66" t="s">
+      <c r="R566" s="65" t="s">
         <v>1924</v>
       </c>
       <c r="W566" s="22" t="s">
@@ -48397,7 +48411,7 @@
       <c r="Q567" s="22" t="s">
         <v>2117</v>
       </c>
-      <c r="R567" s="66" t="s">
+      <c r="R567" s="65" t="s">
         <v>1922</v>
       </c>
       <c r="W567" s="22" t="s">
@@ -48465,7 +48479,7 @@
       <c r="Q568" s="22" t="s">
         <v>2119</v>
       </c>
-      <c r="R568" s="66" t="s">
+      <c r="R568" s="65" t="s">
         <v>1920</v>
       </c>
       <c r="W568" s="22" t="s">
@@ -48533,7 +48547,7 @@
       <c r="Q569" s="22" t="s">
         <v>2121</v>
       </c>
-      <c r="R569" s="66" t="s">
+      <c r="R569" s="65" t="s">
         <v>1917</v>
       </c>
       <c r="W569" s="22" t="s">
@@ -48601,7 +48615,7 @@
       <c r="Q570" s="22" t="s">
         <v>2123</v>
       </c>
-      <c r="R570" s="66" t="s">
+      <c r="R570" s="65" t="s">
         <v>2124</v>
       </c>
       <c r="W570" s="22" t="s">
@@ -48669,7 +48683,7 @@
       <c r="Q571" s="22" t="s">
         <v>2123</v>
       </c>
-      <c r="R571" s="66" t="s">
+      <c r="R571" s="65" t="s">
         <v>2125</v>
       </c>
       <c r="W571" s="22" t="s">
@@ -48737,7 +48751,7 @@
       <c r="Q572" s="22" t="s">
         <v>2126</v>
       </c>
-      <c r="R572" s="66" t="s">
+      <c r="R572" s="65" t="s">
         <v>1946</v>
       </c>
       <c r="W572" s="22" t="s">
@@ -48805,7 +48819,7 @@
       <c r="Q573" s="22" t="s">
         <v>2127</v>
       </c>
-      <c r="R573" s="66" t="s">
+      <c r="R573" s="65" t="s">
         <v>2128</v>
       </c>
       <c r="W573" s="22" t="s">
@@ -48876,7 +48890,7 @@
       <c r="Q574" s="22" t="s">
         <v>2131</v>
       </c>
-      <c r="R574" s="67" t="s">
+      <c r="R574" s="66" t="s">
         <v>2132</v>
       </c>
       <c r="S574" s="22"/>
@@ -48948,7 +48962,7 @@
       <c r="Q575" s="22" t="s">
         <v>2136</v>
       </c>
-      <c r="R575" s="67" t="s">
+      <c r="R575" s="66" t="s">
         <v>2137</v>
       </c>
       <c r="S575" s="22"/>
@@ -49020,7 +49034,7 @@
       <c r="Q576" s="22" t="s">
         <v>2142</v>
       </c>
-      <c r="R576" s="67" t="s">
+      <c r="R576" s="66" t="s">
         <v>2143</v>
       </c>
       <c r="S576" s="22"/>
@@ -49092,7 +49106,7 @@
       <c r="Q577" s="22" t="s">
         <v>2146</v>
       </c>
-      <c r="R577" s="67" t="s">
+      <c r="R577" s="66" t="s">
         <v>2147</v>
       </c>
       <c r="S577" s="22"/>
@@ -49164,7 +49178,7 @@
       <c r="Q578" s="22" t="s">
         <v>2150</v>
       </c>
-      <c r="R578" s="67" t="s">
+      <c r="R578" s="66" t="s">
         <v>2151</v>
       </c>
       <c r="S578" s="22"/>
@@ -49236,7 +49250,7 @@
       <c r="Q579" s="22" t="s">
         <v>2154</v>
       </c>
-      <c r="R579" s="67" t="s">
+      <c r="R579" s="66" t="s">
         <v>2155</v>
       </c>
       <c r="S579" s="22"/>
@@ -49265,6 +49279,65 @@
         <v>1</v>
       </c>
       <c r="AM579" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A580" s="5">
+        <v>579</v>
+      </c>
+      <c r="B580" s="6">
+        <v>10496</v>
+      </c>
+      <c r="F580" s="6">
+        <v>1</v>
+      </c>
+      <c r="G580" s="6" t="s">
+        <v>2161</v>
+      </c>
+      <c r="I580" s="6" t="s">
+        <v>2162</v>
+      </c>
+      <c r="J580" s="6" t="s">
+        <v>2165</v>
+      </c>
+      <c r="L580" s="6">
+        <v>-31</v>
+      </c>
+      <c r="M580" s="6">
+        <v>0</v>
+      </c>
+      <c r="N580" s="6">
+        <v>0</v>
+      </c>
+      <c r="O580" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P580" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q580" s="5" t="s">
+        <v>2163</v>
+      </c>
+      <c r="R580" s="68" t="s">
+        <v>2164</v>
+      </c>
+      <c r="W580" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="X580" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="Y580" s="6">
+        <v>1614643200</v>
+      </c>
+      <c r="Z580" s="6">
+        <v>2552233600</v>
+      </c>
+      <c r="AH580" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI580" s="6">
         <v>1</v>
       </c>
     </row>
@@ -49280,7 +49353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
@@ -50277,45 +50350,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="12">
         <v>70</v>
       </c>
-      <c r="B71" s="57" t="s">
+      <c r="B71" s="56" t="s">
         <v>2158</v>
       </c>
-      <c r="C71" s="58">
-        <v>1</v>
-      </c>
-      <c r="D71" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="57">
+        <v>1</v>
+      </c>
+      <c r="D71" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="12">
         <v>71</v>
       </c>
-      <c r="B72" s="57" t="s">
+      <c r="B72" s="56" t="s">
         <v>2159</v>
       </c>
-      <c r="C72" s="58">
-        <v>1</v>
-      </c>
-      <c r="D72" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="57">
+        <v>1</v>
+      </c>
+      <c r="D72" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="12">
         <v>72</v>
       </c>
-      <c r="B73" s="57" t="s">
+      <c r="B73" s="56" t="s">
         <v>2160</v>
       </c>
-      <c r="C73" s="58">
-        <v>1</v>
-      </c>
-      <c r="D73" s="58">
+      <c r="C73" s="57">
+        <v>1</v>
+      </c>
+      <c r="D73" s="57">
         <v>0</v>
       </c>
     </row>
@@ -50323,13 +50396,13 @@
       <c r="A74" s="12">
         <v>73</v>
       </c>
-      <c r="B74" s="57" t="s">
+      <c r="B74" s="56" t="s">
         <v>2069</v>
       </c>
-      <c r="C74" s="58">
-        <v>1</v>
-      </c>
-      <c r="D74" s="58">
+      <c r="C74" s="57">
+        <v>1</v>
+      </c>
+      <c r="D74" s="57">
         <v>0</v>
       </c>
     </row>
@@ -50337,13 +50410,13 @@
       <c r="A75" s="12">
         <v>74</v>
       </c>
-      <c r="B75" s="57" t="s">
+      <c r="B75" s="56" t="s">
         <v>2070</v>
       </c>
-      <c r="C75" s="58">
-        <v>1</v>
-      </c>
-      <c r="D75" s="58">
+      <c r="C75" s="57">
+        <v>1</v>
+      </c>
+      <c r="D75" s="57">
         <v>0</v>
       </c>
     </row>
@@ -50351,13 +50424,13 @@
       <c r="A76" s="12">
         <v>75</v>
       </c>
-      <c r="B76" s="57" t="s">
+      <c r="B76" s="56" t="s">
         <v>2071</v>
       </c>
-      <c r="C76" s="58">
-        <v>1</v>
-      </c>
-      <c r="D76" s="58">
+      <c r="C76" s="57">
+        <v>1</v>
+      </c>
+      <c r="D76" s="57">
         <v>0</v>
       </c>
     </row>

--- a/config_debug/shoping_config_vivo.xlsx
+++ b/config_debug/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4676" uniqueCount="2166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4718" uniqueCount="2189">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -9163,6 +9163,97 @@
   </si>
   <si>
     <t>"金币周卡",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>春暖花开·桃花礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包498元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5080万金币","抽奖券*50","桃花*800",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+  </si>
+  <si>
+    <t>桃花礼包198元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000万金币","抽奖券*30","桃花*300",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"990万金币","抽奖券*15","桃花*150",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"485万金币","抽奖券*8","桃花*80",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包20元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万金币","抽奖券*4","桃花*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包6元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","抽奖券*1","桃花*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_fish_drop_act_0","_common_rank_cnhk_009_thphb_rank",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_fish_drop_act_0","_common_rank_cnhk_009_thphb_rank",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50800000,50,800,800</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,30,300,300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,15,150,150</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4850000,8,80,80</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,30,30</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,1,20,20</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9542,15 +9633,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12043,13 +12134,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN580"/>
+  <dimension ref="A1:AN586"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H554" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="N554" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J580" sqref="J580"/>
+      <selection pane="bottomRight" activeCell="Q582" sqref="Q582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -36499,7 +36590,7 @@
       <c r="Q386" s="22" t="s">
         <v>1266</v>
       </c>
-      <c r="R386" s="67" t="s">
+      <c r="R386" s="65" t="s">
         <v>1267</v>
       </c>
       <c r="W386" s="22" t="s">
@@ -36567,7 +36658,7 @@
       <c r="Q387" s="22" t="s">
         <v>1272</v>
       </c>
-      <c r="R387" s="67" t="s">
+      <c r="R387" s="65" t="s">
         <v>1273</v>
       </c>
       <c r="W387" s="22" t="s">
@@ -36635,7 +36726,7 @@
       <c r="Q388" s="22" t="s">
         <v>1278</v>
       </c>
-      <c r="R388" s="67" t="s">
+      <c r="R388" s="65" t="s">
         <v>1279</v>
       </c>
       <c r="W388" s="22" t="s">
@@ -36703,7 +36794,7 @@
       <c r="Q389" s="22" t="s">
         <v>1285</v>
       </c>
-      <c r="R389" s="67" t="s">
+      <c r="R389" s="65" t="s">
         <v>1279</v>
       </c>
       <c r="W389" s="22" t="s">
@@ -36771,7 +36862,7 @@
       <c r="Q390" s="22" t="s">
         <v>1287</v>
       </c>
-      <c r="R390" s="67" t="s">
+      <c r="R390" s="65" t="s">
         <v>1288</v>
       </c>
       <c r="W390" s="22" t="s">
@@ -36839,7 +36930,7 @@
       <c r="Q391" s="22" t="s">
         <v>1291</v>
       </c>
-      <c r="R391" s="67" t="s">
+      <c r="R391" s="65" t="s">
         <v>1292</v>
       </c>
       <c r="W391" s="22" t="s">
@@ -36907,7 +36998,7 @@
       <c r="Q392" s="22" t="s">
         <v>1295</v>
       </c>
-      <c r="R392" s="67" t="s">
+      <c r="R392" s="65" t="s">
         <v>1296</v>
       </c>
       <c r="W392" s="22" t="s">
@@ -36975,7 +37066,7 @@
       <c r="Q393" s="22" t="s">
         <v>1299</v>
       </c>
-      <c r="R393" s="67" t="s">
+      <c r="R393" s="65" t="s">
         <v>1292</v>
       </c>
       <c r="W393" s="22" t="s">
@@ -37043,7 +37134,7 @@
       <c r="Q394" s="22" t="s">
         <v>1303</v>
       </c>
-      <c r="R394" s="67" t="s">
+      <c r="R394" s="65" t="s">
         <v>1304</v>
       </c>
       <c r="W394" s="22" t="s">
@@ -48306,547 +48397,547 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A566" s="5">
         <v>565</v>
       </c>
       <c r="B566" s="5">
         <v>10482</v>
       </c>
-      <c r="F566" s="22">
-        <v>1</v>
-      </c>
-      <c r="G566" s="22" t="s">
+      <c r="F566" s="5">
+        <v>0</v>
+      </c>
+      <c r="G566" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I566" s="22" t="s">
+      <c r="I566" s="5" t="s">
         <v>2115</v>
       </c>
-      <c r="J566" s="22" t="s">
+      <c r="J566" s="5" t="s">
         <v>1928</v>
       </c>
-      <c r="L566" s="22">
+      <c r="L566" s="5">
         <v>-33</v>
       </c>
-      <c r="M566" s="22">
-        <v>0</v>
-      </c>
-      <c r="N566" s="22">
-        <v>0</v>
-      </c>
-      <c r="O566" s="22" t="s">
+      <c r="M566" s="5">
+        <v>0</v>
+      </c>
+      <c r="N566" s="5">
+        <v>0</v>
+      </c>
+      <c r="O566" s="5" t="s">
         <v>2116</v>
       </c>
-      <c r="P566" s="22">
+      <c r="P566" s="5">
         <v>49800</v>
       </c>
-      <c r="Q566" s="22" t="s">
+      <c r="Q566" s="5" t="s">
         <v>2117</v>
       </c>
-      <c r="R566" s="65" t="s">
+      <c r="R566" s="64" t="s">
         <v>1924</v>
       </c>
-      <c r="W566" s="22" t="s">
+      <c r="W566" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="X566" s="22">
+      <c r="X566" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y566" s="22">
+      <c r="Y566" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z566" s="22">
+      <c r="Z566" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA566" s="22">
+      <c r="AA566" s="5">
         <v>68</v>
       </c>
-      <c r="AH566" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI566" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL566" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM566" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="567" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH566" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI566" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL566" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM566" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567" s="5">
         <v>566</v>
       </c>
       <c r="B567" s="5">
         <v>10483</v>
       </c>
-      <c r="F567" s="22">
-        <v>1</v>
-      </c>
-      <c r="G567" s="22" t="s">
+      <c r="F567" s="5">
+        <v>0</v>
+      </c>
+      <c r="G567" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I567" s="22" t="s">
+      <c r="I567" s="5" t="s">
         <v>2115</v>
       </c>
-      <c r="J567" s="22" t="s">
+      <c r="J567" s="5" t="s">
         <v>1931</v>
       </c>
-      <c r="L567" s="22">
+      <c r="L567" s="5">
         <v>-33</v>
       </c>
-      <c r="M567" s="22">
-        <v>0</v>
-      </c>
-      <c r="N567" s="22">
-        <v>0</v>
-      </c>
-      <c r="O567" s="22" t="s">
+      <c r="M567" s="5">
+        <v>0</v>
+      </c>
+      <c r="N567" s="5">
+        <v>0</v>
+      </c>
+      <c r="O567" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P567" s="22">
+      <c r="P567" s="5">
         <v>19800</v>
       </c>
-      <c r="Q567" s="22" t="s">
+      <c r="Q567" s="5" t="s">
         <v>2117</v>
       </c>
-      <c r="R567" s="65" t="s">
+      <c r="R567" s="64" t="s">
         <v>1922</v>
       </c>
-      <c r="W567" s="22" t="s">
+      <c r="W567" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="X567" s="22">
+      <c r="X567" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y567" s="22">
+      <c r="Y567" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z567" s="22">
+      <c r="Z567" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA567" s="22">
+      <c r="AA567" s="5">
         <v>68</v>
       </c>
-      <c r="AH567" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI567" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL567" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM567" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="568" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH567" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI567" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL567" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM567" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A568" s="5">
         <v>567</v>
       </c>
       <c r="B568" s="5">
         <v>10484</v>
       </c>
-      <c r="F568" s="22">
-        <v>1</v>
-      </c>
-      <c r="G568" s="22" t="s">
+      <c r="F568" s="5">
+        <v>0</v>
+      </c>
+      <c r="G568" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I568" s="22" t="s">
+      <c r="I568" s="5" t="s">
         <v>2115</v>
       </c>
-      <c r="J568" s="22" t="s">
+      <c r="J568" s="5" t="s">
         <v>2118</v>
       </c>
-      <c r="L568" s="22">
+      <c r="L568" s="5">
         <v>-33</v>
       </c>
-      <c r="M568" s="22">
-        <v>0</v>
-      </c>
-      <c r="N568" s="22">
-        <v>0</v>
-      </c>
-      <c r="O568" s="22" t="s">
+      <c r="M568" s="5">
+        <v>0</v>
+      </c>
+      <c r="N568" s="5">
+        <v>0</v>
+      </c>
+      <c r="O568" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P568" s="22">
+      <c r="P568" s="5">
         <v>9800</v>
       </c>
-      <c r="Q568" s="22" t="s">
+      <c r="Q568" s="5" t="s">
         <v>2119</v>
       </c>
-      <c r="R568" s="65" t="s">
+      <c r="R568" s="64" t="s">
         <v>1920</v>
       </c>
-      <c r="W568" s="22" t="s">
+      <c r="W568" s="5" t="s">
         <v>2120</v>
       </c>
-      <c r="X568" s="22">
+      <c r="X568" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y568" s="22">
+      <c r="Y568" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z568" s="22">
+      <c r="Z568" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA568" s="22">
+      <c r="AA568" s="5">
         <v>68</v>
       </c>
-      <c r="AH568" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI568" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL568" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM568" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="569" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH568" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI568" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL568" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM568" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A569" s="5">
         <v>568</v>
       </c>
       <c r="B569" s="5">
         <v>10485</v>
       </c>
-      <c r="F569" s="22">
-        <v>1</v>
-      </c>
-      <c r="G569" s="22" t="s">
+      <c r="F569" s="5">
+        <v>0</v>
+      </c>
+      <c r="G569" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I569" s="22" t="s">
+      <c r="I569" s="5" t="s">
         <v>2115</v>
       </c>
-      <c r="J569" s="22" t="s">
+      <c r="J569" s="5" t="s">
         <v>1919</v>
       </c>
-      <c r="L569" s="22">
+      <c r="L569" s="5">
         <v>-33</v>
       </c>
-      <c r="M569" s="22">
-        <v>0</v>
-      </c>
-      <c r="N569" s="22">
-        <v>0</v>
-      </c>
-      <c r="O569" s="22" t="s">
+      <c r="M569" s="5">
+        <v>0</v>
+      </c>
+      <c r="N569" s="5">
+        <v>0</v>
+      </c>
+      <c r="O569" s="5" t="s">
         <v>2116</v>
       </c>
-      <c r="P569" s="22">
+      <c r="P569" s="5">
         <v>4800</v>
       </c>
-      <c r="Q569" s="22" t="s">
+      <c r="Q569" s="5" t="s">
         <v>2121</v>
       </c>
-      <c r="R569" s="65" t="s">
+      <c r="R569" s="64" t="s">
         <v>1917</v>
       </c>
-      <c r="W569" s="22" t="s">
+      <c r="W569" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="X569" s="22">
+      <c r="X569" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y569" s="22">
+      <c r="Y569" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z569" s="22">
+      <c r="Z569" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA569" s="22">
+      <c r="AA569" s="5">
         <v>68</v>
       </c>
-      <c r="AH569" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI569" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL569" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM569" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="570" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH569" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI569" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL569" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM569" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A570" s="5">
         <v>569</v>
       </c>
       <c r="B570" s="5">
         <v>10486</v>
       </c>
-      <c r="F570" s="22">
-        <v>1</v>
-      </c>
-      <c r="G570" s="22" t="s">
+      <c r="F570" s="5">
+        <v>0</v>
+      </c>
+      <c r="G570" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I570" s="22" t="s">
+      <c r="I570" s="5" t="s">
         <v>2122</v>
       </c>
-      <c r="J570" s="22" t="s">
+      <c r="J570" s="5" t="s">
         <v>1939</v>
       </c>
-      <c r="L570" s="22">
+      <c r="L570" s="5">
         <v>-33</v>
       </c>
-      <c r="M570" s="22">
-        <v>0</v>
-      </c>
-      <c r="N570" s="22">
-        <v>0</v>
-      </c>
-      <c r="O570" s="22" t="s">
+      <c r="M570" s="5">
+        <v>0</v>
+      </c>
+      <c r="N570" s="5">
+        <v>0</v>
+      </c>
+      <c r="O570" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P570" s="22">
+      <c r="P570" s="5">
         <v>49800</v>
       </c>
-      <c r="Q570" s="22" t="s">
+      <c r="Q570" s="5" t="s">
         <v>2123</v>
       </c>
-      <c r="R570" s="65" t="s">
+      <c r="R570" s="64" t="s">
         <v>2124</v>
       </c>
-      <c r="W570" s="22" t="s">
+      <c r="W570" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="X570" s="22">
+      <c r="X570" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y570" s="22">
+      <c r="Y570" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z570" s="22">
+      <c r="Z570" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA570" s="22">
+      <c r="AA570" s="5">
         <v>69</v>
       </c>
-      <c r="AH570" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI570" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL570" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM570" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="571" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH570" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI570" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL570" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM570" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A571" s="5">
         <v>570</v>
       </c>
       <c r="B571" s="5">
         <v>10487</v>
       </c>
-      <c r="F571" s="22">
-        <v>1</v>
-      </c>
-      <c r="G571" s="22" t="s">
+      <c r="F571" s="5">
+        <v>0</v>
+      </c>
+      <c r="G571" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I571" s="22" t="s">
+      <c r="I571" s="5" t="s">
         <v>2122</v>
       </c>
-      <c r="J571" s="22" t="s">
+      <c r="J571" s="5" t="s">
         <v>1916</v>
       </c>
-      <c r="L571" s="22">
+      <c r="L571" s="5">
         <v>-33</v>
       </c>
-      <c r="M571" s="22">
-        <v>0</v>
-      </c>
-      <c r="N571" s="22">
-        <v>0</v>
-      </c>
-      <c r="O571" s="22" t="s">
+      <c r="M571" s="5">
+        <v>0</v>
+      </c>
+      <c r="N571" s="5">
+        <v>0</v>
+      </c>
+      <c r="O571" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P571" s="22">
+      <c r="P571" s="5">
         <v>19800</v>
       </c>
-      <c r="Q571" s="22" t="s">
+      <c r="Q571" s="5" t="s">
         <v>2123</v>
       </c>
-      <c r="R571" s="65" t="s">
+      <c r="R571" s="64" t="s">
         <v>2125</v>
       </c>
-      <c r="W571" s="22" t="s">
+      <c r="W571" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="X571" s="22">
+      <c r="X571" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y571" s="22">
+      <c r="Y571" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z571" s="22">
+      <c r="Z571" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA571" s="22">
+      <c r="AA571" s="5">
         <v>69</v>
       </c>
-      <c r="AH571" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI571" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL571" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM571" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="572" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH571" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI571" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL571" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM571" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A572" s="5">
         <v>571</v>
       </c>
       <c r="B572" s="5">
         <v>10488</v>
       </c>
-      <c r="F572" s="22">
-        <v>1</v>
-      </c>
-      <c r="G572" s="22" t="s">
+      <c r="F572" s="5">
+        <v>0</v>
+      </c>
+      <c r="G572" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I572" s="22" t="s">
+      <c r="I572" s="5" t="s">
         <v>2122</v>
       </c>
-      <c r="J572" s="22" t="s">
+      <c r="J572" s="5" t="s">
         <v>1945</v>
       </c>
-      <c r="L572" s="22">
+      <c r="L572" s="5">
         <v>-33</v>
       </c>
-      <c r="M572" s="22">
-        <v>0</v>
-      </c>
-      <c r="N572" s="22">
-        <v>0</v>
-      </c>
-      <c r="O572" s="22" t="s">
+      <c r="M572" s="5">
+        <v>0</v>
+      </c>
+      <c r="N572" s="5">
+        <v>0</v>
+      </c>
+      <c r="O572" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P572" s="22">
+      <c r="P572" s="5">
         <v>9800</v>
       </c>
-      <c r="Q572" s="22" t="s">
+      <c r="Q572" s="5" t="s">
         <v>2126</v>
       </c>
-      <c r="R572" s="65" t="s">
+      <c r="R572" s="64" t="s">
         <v>1946</v>
       </c>
-      <c r="W572" s="22" t="s">
+      <c r="W572" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="X572" s="22">
+      <c r="X572" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y572" s="22">
+      <c r="Y572" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z572" s="22">
+      <c r="Z572" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA572" s="22">
+      <c r="AA572" s="5">
         <v>69</v>
       </c>
-      <c r="AH572" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI572" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL572" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM572" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="573" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH572" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI572" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL572" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM572" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A573" s="5">
         <v>572</v>
       </c>
       <c r="B573" s="5">
         <v>10489</v>
       </c>
-      <c r="F573" s="22">
-        <v>1</v>
-      </c>
-      <c r="G573" s="22" t="s">
+      <c r="F573" s="5">
+        <v>0</v>
+      </c>
+      <c r="G573" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I573" s="22" t="s">
+      <c r="I573" s="5" t="s">
         <v>2122</v>
       </c>
-      <c r="J573" s="22" t="s">
+      <c r="J573" s="5" t="s">
         <v>1948</v>
       </c>
-      <c r="L573" s="22">
+      <c r="L573" s="5">
         <v>-33</v>
       </c>
-      <c r="M573" s="22">
-        <v>0</v>
-      </c>
-      <c r="N573" s="22">
-        <v>0</v>
-      </c>
-      <c r="O573" s="22" t="s">
+      <c r="M573" s="5">
+        <v>0</v>
+      </c>
+      <c r="N573" s="5">
+        <v>0</v>
+      </c>
+      <c r="O573" s="5" t="s">
         <v>2116</v>
       </c>
-      <c r="P573" s="22">
+      <c r="P573" s="5">
         <v>4800</v>
       </c>
-      <c r="Q573" s="22" t="s">
+      <c r="Q573" s="5" t="s">
         <v>2127</v>
       </c>
-      <c r="R573" s="65" t="s">
+      <c r="R573" s="64" t="s">
         <v>2128</v>
       </c>
-      <c r="W573" s="22" t="s">
+      <c r="W573" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="X573" s="22">
+      <c r="X573" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y573" s="22">
+      <c r="Y573" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z573" s="22">
+      <c r="Z573" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA573" s="22">
+      <c r="AA573" s="5">
         <v>69</v>
       </c>
-      <c r="AH573" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI573" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL573" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM573" s="22">
+      <c r="AH573" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI573" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL573" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM573" s="5">
         <v>1</v>
       </c>
     </row>
@@ -48854,59 +48945,49 @@
       <c r="A574" s="5">
         <v>573</v>
       </c>
-      <c r="B574" s="22">
+      <c r="B574" s="5">
         <v>10490</v>
       </c>
-      <c r="C574" s="22"/>
-      <c r="D574" s="22"/>
-      <c r="E574" s="22"/>
-      <c r="F574" s="22">
-        <v>1</v>
-      </c>
-      <c r="G574" s="22" t="s">
+      <c r="F574" s="5">
+        <v>1</v>
+      </c>
+      <c r="G574" s="5" t="s">
         <v>2129</v>
       </c>
-      <c r="H574" s="22"/>
-      <c r="I574" s="22" t="s">
+      <c r="I574" s="5" t="s">
         <v>2130</v>
       </c>
-      <c r="J574" s="22"/>
-      <c r="K574" s="22"/>
-      <c r="L574" s="22">
+      <c r="L574" s="5">
         <v>-31</v>
       </c>
-      <c r="M574" s="22">
-        <v>0</v>
-      </c>
-      <c r="N574" s="22">
-        <v>0</v>
-      </c>
-      <c r="O574" s="22" t="s">
+      <c r="M574" s="5">
+        <v>0</v>
+      </c>
+      <c r="N574" s="5">
+        <v>0</v>
+      </c>
+      <c r="O574" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P574" s="22">
+      <c r="P574" s="5">
         <v>4500</v>
       </c>
-      <c r="Q574" s="22" t="s">
+      <c r="Q574" s="5" t="s">
         <v>2131</v>
       </c>
-      <c r="R574" s="66" t="s">
+      <c r="R574" s="68" t="s">
         <v>2132</v>
       </c>
-      <c r="S574" s="22"/>
-      <c r="T574" s="22"/>
-      <c r="U574" s="22"/>
-      <c r="V574" s="22"/>
-      <c r="W574" s="22" t="s">
+      <c r="W574" s="5" t="s">
         <v>2133</v>
       </c>
-      <c r="X574" s="22">
+      <c r="X574" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y574" s="22">
+      <c r="Y574" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z574" s="22">
+      <c r="Z574" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH574" s="5">
@@ -48926,59 +49007,49 @@
       <c r="A575" s="5">
         <v>574</v>
       </c>
-      <c r="B575" s="22">
+      <c r="B575" s="5">
         <v>10491</v>
       </c>
-      <c r="C575" s="22"/>
-      <c r="D575" s="22"/>
-      <c r="E575" s="22"/>
-      <c r="F575" s="22">
-        <v>1</v>
-      </c>
-      <c r="G575" s="22" t="s">
+      <c r="F575" s="5">
+        <v>1</v>
+      </c>
+      <c r="G575" s="5" t="s">
         <v>2134</v>
       </c>
-      <c r="H575" s="22"/>
-      <c r="I575" s="22" t="s">
+      <c r="I575" s="5" t="s">
         <v>2135</v>
       </c>
-      <c r="J575" s="22"/>
-      <c r="K575" s="22"/>
-      <c r="L575" s="22">
+      <c r="L575" s="5">
         <v>-31</v>
       </c>
-      <c r="M575" s="22">
-        <v>0</v>
-      </c>
-      <c r="N575" s="22">
-        <v>0</v>
-      </c>
-      <c r="O575" s="22" t="s">
+      <c r="M575" s="5">
+        <v>0</v>
+      </c>
+      <c r="N575" s="5">
+        <v>0</v>
+      </c>
+      <c r="O575" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P575" s="22">
+      <c r="P575" s="5">
         <v>8800</v>
       </c>
-      <c r="Q575" s="22" t="s">
+      <c r="Q575" s="5" t="s">
         <v>2136</v>
       </c>
-      <c r="R575" s="66" t="s">
+      <c r="R575" s="68" t="s">
         <v>2137</v>
       </c>
-      <c r="S575" s="22"/>
-      <c r="T575" s="22"/>
-      <c r="U575" s="22"/>
-      <c r="V575" s="22"/>
-      <c r="W575" s="22" t="s">
+      <c r="W575" s="5" t="s">
         <v>2138</v>
       </c>
-      <c r="X575" s="22">
+      <c r="X575" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y575" s="22">
+      <c r="Y575" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z575" s="22">
+      <c r="Z575" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH575" s="5">
@@ -48998,59 +49069,49 @@
       <c r="A576" s="5">
         <v>575</v>
       </c>
-      <c r="B576" s="22">
+      <c r="B576" s="5">
         <v>10492</v>
       </c>
-      <c r="C576" s="22"/>
-      <c r="D576" s="22"/>
-      <c r="E576" s="22"/>
-      <c r="F576" s="22">
-        <v>1</v>
-      </c>
-      <c r="G576" s="22" t="s">
+      <c r="F576" s="5">
+        <v>1</v>
+      </c>
+      <c r="G576" s="5" t="s">
         <v>2139</v>
       </c>
-      <c r="H576" s="22"/>
-      <c r="I576" s="22" t="s">
+      <c r="I576" s="5" t="s">
         <v>2140</v>
       </c>
-      <c r="J576" s="22"/>
-      <c r="K576" s="22"/>
-      <c r="L576" s="22">
+      <c r="L576" s="5">
         <v>-31</v>
       </c>
-      <c r="M576" s="22">
-        <v>0</v>
-      </c>
-      <c r="N576" s="22">
-        <v>0</v>
-      </c>
-      <c r="O576" s="22" t="s">
+      <c r="M576" s="5">
+        <v>0</v>
+      </c>
+      <c r="N576" s="5">
+        <v>0</v>
+      </c>
+      <c r="O576" s="5" t="s">
         <v>2141</v>
       </c>
-      <c r="P576" s="22">
+      <c r="P576" s="5">
         <v>17800</v>
       </c>
-      <c r="Q576" s="22" t="s">
+      <c r="Q576" s="5" t="s">
         <v>2142</v>
       </c>
-      <c r="R576" s="66" t="s">
+      <c r="R576" s="68" t="s">
         <v>2143</v>
       </c>
-      <c r="S576" s="22"/>
-      <c r="T576" s="22"/>
-      <c r="U576" s="22"/>
-      <c r="V576" s="22"/>
-      <c r="W576" s="22" t="s">
+      <c r="W576" s="5" t="s">
         <v>2138</v>
       </c>
-      <c r="X576" s="22">
+      <c r="X576" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y576" s="22">
+      <c r="Y576" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z576" s="22">
+      <c r="Z576" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH576" s="5">
@@ -49070,59 +49131,49 @@
       <c r="A577" s="5">
         <v>576</v>
       </c>
-      <c r="B577" s="22">
+      <c r="B577" s="5">
         <v>10493</v>
       </c>
-      <c r="C577" s="22"/>
-      <c r="D577" s="22"/>
-      <c r="E577" s="22"/>
-      <c r="F577" s="22">
-        <v>1</v>
-      </c>
-      <c r="G577" s="22" t="s">
+      <c r="F577" s="5">
+        <v>1</v>
+      </c>
+      <c r="G577" s="5" t="s">
         <v>2144</v>
       </c>
-      <c r="H577" s="22"/>
-      <c r="I577" s="22" t="s">
+      <c r="I577" s="5" t="s">
         <v>2145</v>
       </c>
-      <c r="J577" s="22"/>
-      <c r="K577" s="22"/>
-      <c r="L577" s="22">
+      <c r="L577" s="5">
         <v>-31</v>
       </c>
-      <c r="M577" s="22">
-        <v>0</v>
-      </c>
-      <c r="N577" s="22">
-        <v>0</v>
-      </c>
-      <c r="O577" s="22" t="s">
+      <c r="M577" s="5">
+        <v>0</v>
+      </c>
+      <c r="N577" s="5">
+        <v>0</v>
+      </c>
+      <c r="O577" s="5" t="s">
         <v>2141</v>
       </c>
-      <c r="P577" s="22">
+      <c r="P577" s="5">
         <v>44800</v>
       </c>
-      <c r="Q577" s="22" t="s">
+      <c r="Q577" s="5" t="s">
         <v>2146</v>
       </c>
-      <c r="R577" s="66" t="s">
+      <c r="R577" s="68" t="s">
         <v>2147</v>
       </c>
-      <c r="S577" s="22"/>
-      <c r="T577" s="22"/>
-      <c r="U577" s="22"/>
-      <c r="V577" s="22"/>
-      <c r="W577" s="22" t="s">
+      <c r="W577" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="X577" s="22">
+      <c r="X577" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y577" s="22">
+      <c r="Y577" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z577" s="22">
+      <c r="Z577" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH577" s="5">
@@ -49142,59 +49193,49 @@
       <c r="A578" s="5">
         <v>577</v>
       </c>
-      <c r="B578" s="22">
+      <c r="B578" s="5">
         <v>10494</v>
       </c>
-      <c r="C578" s="22"/>
-      <c r="D578" s="22"/>
-      <c r="E578" s="22"/>
-      <c r="F578" s="22">
-        <v>1</v>
-      </c>
-      <c r="G578" s="22" t="s">
+      <c r="F578" s="5">
+        <v>1</v>
+      </c>
+      <c r="G578" s="5" t="s">
         <v>2148</v>
       </c>
-      <c r="H578" s="22"/>
-      <c r="I578" s="22" t="s">
+      <c r="I578" s="5" t="s">
         <v>2149</v>
       </c>
-      <c r="J578" s="22"/>
-      <c r="K578" s="22"/>
-      <c r="L578" s="22">
+      <c r="L578" s="5">
         <v>-31</v>
       </c>
-      <c r="M578" s="22">
-        <v>0</v>
-      </c>
-      <c r="N578" s="22">
-        <v>0</v>
-      </c>
-      <c r="O578" s="22" t="s">
+      <c r="M578" s="5">
+        <v>0</v>
+      </c>
+      <c r="N578" s="5">
+        <v>0</v>
+      </c>
+      <c r="O578" s="5" t="s">
         <v>2141</v>
       </c>
-      <c r="P578" s="22">
+      <c r="P578" s="5">
         <v>89800</v>
       </c>
-      <c r="Q578" s="22" t="s">
+      <c r="Q578" s="5" t="s">
         <v>2150</v>
       </c>
-      <c r="R578" s="66" t="s">
+      <c r="R578" s="68" t="s">
         <v>2151</v>
       </c>
-      <c r="S578" s="22"/>
-      <c r="T578" s="22"/>
-      <c r="U578" s="22"/>
-      <c r="V578" s="22"/>
-      <c r="W578" s="22" t="s">
+      <c r="W578" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="X578" s="22">
+      <c r="X578" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y578" s="22">
+      <c r="Y578" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z578" s="22">
+      <c r="Z578" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH578" s="5">
@@ -49214,59 +49255,49 @@
       <c r="A579" s="5">
         <v>578</v>
       </c>
-      <c r="B579" s="22">
+      <c r="B579" s="5">
         <v>10495</v>
       </c>
-      <c r="C579" s="22"/>
-      <c r="D579" s="22"/>
-      <c r="E579" s="22"/>
-      <c r="F579" s="22">
-        <v>1</v>
-      </c>
-      <c r="G579" s="22" t="s">
+      <c r="F579" s="5">
+        <v>1</v>
+      </c>
+      <c r="G579" s="5" t="s">
         <v>2152</v>
       </c>
-      <c r="H579" s="22"/>
-      <c r="I579" s="22" t="s">
+      <c r="I579" s="5" t="s">
         <v>2153</v>
       </c>
-      <c r="J579" s="22"/>
-      <c r="K579" s="22"/>
-      <c r="L579" s="22">
+      <c r="L579" s="5">
         <v>-31</v>
       </c>
-      <c r="M579" s="22">
-        <v>0</v>
-      </c>
-      <c r="N579" s="22">
-        <v>0</v>
-      </c>
-      <c r="O579" s="22" t="s">
+      <c r="M579" s="5">
+        <v>0</v>
+      </c>
+      <c r="N579" s="5">
+        <v>0</v>
+      </c>
+      <c r="O579" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P579" s="22">
+      <c r="P579" s="5">
         <v>229800</v>
       </c>
-      <c r="Q579" s="22" t="s">
+      <c r="Q579" s="5" t="s">
         <v>2154</v>
       </c>
-      <c r="R579" s="66" t="s">
+      <c r="R579" s="68" t="s">
         <v>2155</v>
       </c>
-      <c r="S579" s="22"/>
-      <c r="T579" s="22"/>
-      <c r="U579" s="22"/>
-      <c r="V579" s="22"/>
-      <c r="W579" s="22" t="s">
+      <c r="W579" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="X579" s="22">
+      <c r="X579" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y579" s="22">
+      <c r="Y579" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z579" s="22">
+      <c r="Z579" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH579" s="5">
@@ -49319,7 +49350,7 @@
       <c r="Q580" s="5" t="s">
         <v>2163</v>
       </c>
-      <c r="R580" s="68" t="s">
+      <c r="R580" s="66" t="s">
         <v>2164</v>
       </c>
       <c r="W580" s="6" t="s">
@@ -49338,6 +49369,396 @@
         <v>1</v>
       </c>
       <c r="AI580" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A581" s="22">
+        <v>580</v>
+      </c>
+      <c r="B581" s="22">
+        <v>10497</v>
+      </c>
+      <c r="F581" s="22">
+        <v>1</v>
+      </c>
+      <c r="G581" s="22" t="s">
+        <v>2166</v>
+      </c>
+      <c r="I581" s="22" t="s">
+        <v>2167</v>
+      </c>
+      <c r="J581" s="22" t="s">
+        <v>2168</v>
+      </c>
+      <c r="L581" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M581" s="22">
+        <v>0</v>
+      </c>
+      <c r="N581" s="22">
+        <v>0</v>
+      </c>
+      <c r="O581" s="22" t="s">
+        <v>2169</v>
+      </c>
+      <c r="P581" s="22">
+        <v>49800</v>
+      </c>
+      <c r="Q581" s="22" t="s">
+        <v>2182</v>
+      </c>
+      <c r="R581" s="67" t="s">
+        <v>2183</v>
+      </c>
+      <c r="W581" s="22" t="s">
+        <v>2170</v>
+      </c>
+      <c r="X581" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y581" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z581" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH581" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI581" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL581" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM581" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A582" s="22">
+        <v>581</v>
+      </c>
+      <c r="B582" s="22">
+        <v>10498</v>
+      </c>
+      <c r="F582" s="22">
+        <v>1</v>
+      </c>
+      <c r="G582" s="22" t="s">
+        <v>2166</v>
+      </c>
+      <c r="I582" s="22" t="s">
+        <v>2171</v>
+      </c>
+      <c r="J582" s="22" t="s">
+        <v>2172</v>
+      </c>
+      <c r="L582" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M582" s="22">
+        <v>0</v>
+      </c>
+      <c r="N582" s="22">
+        <v>0</v>
+      </c>
+      <c r="O582" s="22" t="s">
+        <v>2169</v>
+      </c>
+      <c r="P582" s="22">
+        <v>19800</v>
+      </c>
+      <c r="Q582" s="22" t="s">
+        <v>2182</v>
+      </c>
+      <c r="R582" s="67" t="s">
+        <v>2184</v>
+      </c>
+      <c r="W582" s="22" t="s">
+        <v>2170</v>
+      </c>
+      <c r="X582" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y582" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z582" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH582" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI582" s="22">
+        <v>1</v>